--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1418" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="612">
   <si>
     <t>序号</t>
   </si>
@@ -1604,6 +1604,9 @@
     <t>技能基础伤害</t>
   </si>
   <si>
+    <t>加成后技能伤害</t>
+  </si>
+  <si>
     <t>金钱/技能基础伤害</t>
   </si>
   <si>
@@ -1613,6 +1616,9 @@
     <t>到达最高伤害需金钱</t>
   </si>
   <si>
+    <t>到达最高伤害需加成</t>
+  </si>
+  <si>
     <t>技能效果</t>
   </si>
   <si>
@@ -1632,6 +1638,219 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>九阳</t>
+  </si>
+  <si>
+    <t>达摩棍法</t>
+  </si>
+  <si>
+    <t>拈花擒拿手</t>
+  </si>
+  <si>
+    <t>单控、硬控</t>
+  </si>
+  <si>
+    <t>韦陀棍法、大力金刚指</t>
+  </si>
+  <si>
+    <t>韦陀棍法、达摩八法</t>
+  </si>
+  <si>
+    <t>九阴</t>
+  </si>
+  <si>
+    <t>龙象般若功</t>
+  </si>
+  <si>
+    <t>菩提心法</t>
+  </si>
+  <si>
+    <t>降低30/40/50/60%移速</t>
+  </si>
+  <si>
+    <t>韦陀棍法、大力金刚指、罗汉伏魔功</t>
+  </si>
+  <si>
+    <t>韦陀棍法、少林罗汉阵</t>
+  </si>
+  <si>
+    <t>柔云掌</t>
+  </si>
+  <si>
+    <t>武当身法</t>
+  </si>
+  <si>
+    <t>绕指柔剑法</t>
+  </si>
+  <si>
+    <t>绕指柔剑法、武当剑法</t>
+  </si>
+  <si>
+    <t>太极拳</t>
+  </si>
+  <si>
+    <t>太极拳、太极剑法</t>
+  </si>
+  <si>
+    <t>铁画银钩</t>
+  </si>
+  <si>
+    <t>铁画银钩、纯阳无极功</t>
+  </si>
+  <si>
+    <t>内家拳法</t>
+  </si>
+  <si>
+    <t>内家拳法、太极拳</t>
+  </si>
+  <si>
+    <t>纯阳无极功</t>
+  </si>
+  <si>
+    <t>纯阳无极功、武当心法</t>
+  </si>
+  <si>
+    <t>虎爪绝户手</t>
+  </si>
+  <si>
+    <t>虎爪绝户手、太极拳、武当心法</t>
+  </si>
+  <si>
+    <t>虎爪绝户手、武当心法、真武七截阵</t>
+  </si>
+  <si>
+    <t>太极拳法、太极剑法、武当身法</t>
+  </si>
+  <si>
+    <t>峨眉入门剑法</t>
+  </si>
+  <si>
+    <t>四象掌</t>
+  </si>
+  <si>
+    <t>金顶绵掌</t>
+  </si>
+  <si>
+    <t>天罡指穴法</t>
+  </si>
+  <si>
+    <t>佛光普照</t>
+  </si>
+  <si>
+    <t>峨眉身法</t>
+  </si>
+  <si>
+    <t>回风拂柳剑</t>
+  </si>
+  <si>
+    <t>灭剑</t>
+  </si>
+  <si>
+    <t>绝剑</t>
+  </si>
+  <si>
+    <t>灭绝剑法</t>
+  </si>
+  <si>
+    <t>峨眉心法、九阴白骨爪</t>
+  </si>
+  <si>
+    <t>峨眉剑法、灭绝剑法、截手九式</t>
+  </si>
+  <si>
+    <t>丐帮入门棍法</t>
+  </si>
+  <si>
+    <t>太祖棍法</t>
+  </si>
+  <si>
+    <t>太祖长拳</t>
+  </si>
+  <si>
+    <t>莲花掌</t>
+  </si>
+  <si>
+    <t>丐帮入门棍法、青竹镖</t>
+  </si>
+  <si>
+    <t>丐帮入门棍法、六合刀法</t>
+  </si>
+  <si>
+    <t>丐帮入门棍法、铜锤手</t>
+  </si>
+  <si>
+    <t>丐帮入门棍法、疯魔杖法</t>
+  </si>
+  <si>
+    <t>太祖棍法、逍遥游</t>
+  </si>
+  <si>
+    <t>太祖棍法、丐帮心法</t>
+  </si>
+  <si>
+    <t>太祖棍法、疯魔杖法</t>
+  </si>
+  <si>
+    <t>太祖棍法、六合刀法</t>
+  </si>
+  <si>
+    <t>太祖棍法、铜锤手</t>
+  </si>
+  <si>
+    <t>太祖棍法、丐帮身法</t>
+  </si>
+  <si>
+    <t>太祖棍法、丐帮心法、打狗棒法</t>
+  </si>
+  <si>
+    <t>太祖棍法、丐帮心法、打狗棒法、降龙十八掌</t>
+  </si>
+  <si>
+    <t>破冰掌法</t>
+  </si>
+  <si>
+    <t>先天功</t>
+  </si>
+  <si>
+    <t>昊天掌</t>
+  </si>
+  <si>
+    <t>昊天掌、同归剑法</t>
+  </si>
+  <si>
+    <t>全真剑法</t>
+  </si>
+  <si>
+    <t>天罡北斗阵</t>
+  </si>
+  <si>
+    <t>东方第一剑</t>
+  </si>
+  <si>
+    <t>东方第一剑、后发先至</t>
+  </si>
+  <si>
+    <t>一气化三清</t>
+  </si>
+  <si>
+    <t>双手互搏、空明拳</t>
+  </si>
+  <si>
+    <t>全真剑法、金雁功、三花聚顶</t>
+  </si>
+  <si>
+    <t>虾米神拳</t>
+  </si>
+  <si>
+    <t>五雷咒、玄冰咒、谷衣心法</t>
+  </si>
+  <si>
+    <t>乾坤一掷</t>
+  </si>
+  <si>
+    <t>擒龙控鹤</t>
   </si>
 </sst>
 </file>
@@ -6798,10 +7017,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:T127"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="N127" sqref="N127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6810,14 +7029,14 @@
     <col min="5" max="5" width="12.25" customWidth="1"/>
     <col min="11" max="11" width="12.625"/>
     <col min="12" max="13" width="14.125" customWidth="1"/>
-    <col min="14" max="14" width="17" customWidth="1"/>
-    <col min="15" max="15" width="15.125" customWidth="1"/>
-    <col min="16" max="16" width="16.125" customWidth="1"/>
-    <col min="17" max="18" width="19.125" customWidth="1"/>
-    <col min="19" max="19" width="21.875" customWidth="1"/>
+    <col min="14" max="14" width="36.375" customWidth="1"/>
+    <col min="15" max="16" width="15.125" customWidth="1"/>
+    <col min="17" max="17" width="16.125" customWidth="1"/>
+    <col min="18" max="20" width="19.125" customWidth="1"/>
+    <col min="21" max="21" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6872,11 +7091,17 @@
       <c r="S1" t="s">
         <v>532</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="T1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="U1" t="s">
+        <v>534</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6919,16 +7144,16 @@
         <v>5.83</v>
       </c>
       <c r="N2" t="s">
-        <v>534</v>
-      </c>
-      <c r="S2" t="s">
-        <v>535</v>
-      </c>
-      <c r="T2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="3" spans="1:18">
+      <c r="U2" t="s">
+        <v>537</v>
+      </c>
+      <c r="V2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6969,23 +7194,27 @@
       </c>
       <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="O3">
         <v>50</v>
       </c>
       <c r="P3">
-        <f>G3/O3</f>
+        <f>O3*8</f>
+        <v>400</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" ref="Q3:Q17" si="2">G3/O3</f>
         <v>2</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>20000</v>
       </c>
-      <c r="R3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="S3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7025,8 +7254,28 @@
         <v>6.81818181818182</v>
       </c>
       <c r="M4" s="3"/>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" t="s">
+        <v>539</v>
+      </c>
+      <c r="O4">
+        <v>200</v>
+      </c>
+      <c r="P4">
+        <f>O4*8</f>
+        <v>1600</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="R4">
+        <v>20000</v>
+      </c>
+      <c r="S4" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7066,8 +7315,28 @@
         <v>6.06741573033708</v>
       </c>
       <c r="M5" s="3"/>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" t="s">
+        <v>539</v>
+      </c>
+      <c r="O5">
+        <v>450</v>
+      </c>
+      <c r="P5">
+        <f>O5*8</f>
+        <v>3600</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>20000</v>
+      </c>
+      <c r="S5" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7107,8 +7376,31 @@
         <v>3.22966507177033</v>
       </c>
       <c r="M6" s="3"/>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" t="s">
+        <v>539</v>
+      </c>
+      <c r="O6">
+        <v>800</v>
+      </c>
+      <c r="P6">
+        <f>O6*8</f>
+        <v>6400</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="2"/>
+        <v>0.9375</v>
+      </c>
+      <c r="R6">
+        <v>20000</v>
+      </c>
+      <c r="S6">
+        <v>5000</v>
+      </c>
+      <c r="T6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7148,8 +7440,27 @@
         <v>7.13513513513513</v>
       </c>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" t="s">
+        <v>542</v>
+      </c>
+      <c r="O7">
+        <v>80</v>
+      </c>
+      <c r="P7">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="2">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="R7">
+        <v>720</v>
+      </c>
+      <c r="S7" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7189,8 +7500,27 @@
         <v>7.08724832214765</v>
       </c>
       <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" t="s">
+        <v>542</v>
+      </c>
+      <c r="O8">
+        <v>320</v>
+      </c>
+      <c r="P8">
+        <v>320</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" si="2"/>
+        <v>2.75</v>
+      </c>
+      <c r="R8">
+        <v>720</v>
+      </c>
+      <c r="S8">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7230,8 +7560,27 @@
         <v>6.18060200668896</v>
       </c>
       <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" t="s">
+        <v>542</v>
+      </c>
+      <c r="O9">
+        <v>720</v>
+      </c>
+      <c r="P9">
+        <v>720</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="2"/>
+        <v>2.13888888888889</v>
+      </c>
+      <c r="R9">
+        <v>720</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7271,8 +7620,27 @@
         <v>3.49886104783599</v>
       </c>
       <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" t="s">
+        <v>543</v>
+      </c>
+      <c r="O10">
+        <v>1000</v>
+      </c>
+      <c r="P10">
+        <v>1000</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.28</v>
+      </c>
+      <c r="R10">
+        <v>9000</v>
+      </c>
+      <c r="U10" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7312,8 +7680,27 @@
         <v>3.1098976109215</v>
       </c>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" t="s">
+        <v>543</v>
+      </c>
+      <c r="O11">
+        <v>4000</v>
+      </c>
+      <c r="P11">
+        <v>4000</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5695</v>
+      </c>
+      <c r="R11">
+        <v>9000</v>
+      </c>
+      <c r="U11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7353,8 +7740,27 @@
         <v>7.21603563474387</v>
       </c>
       <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" t="s">
+        <v>545</v>
+      </c>
+      <c r="O12">
+        <v>6000</v>
+      </c>
+      <c r="P12">
+        <v>6000</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="R12">
+        <v>54000</v>
+      </c>
+      <c r="S12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7394,8 +7800,27 @@
         <v>6.54060066740823</v>
       </c>
       <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" t="s">
+        <v>545</v>
+      </c>
+      <c r="O13">
+        <v>24000</v>
+      </c>
+      <c r="P13">
+        <v>24000</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.204166666666667</v>
+      </c>
+      <c r="R13">
+        <v>54000</v>
+      </c>
+      <c r="S13">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7435,8 +7860,30 @@
         <v>5.25657071339174</v>
       </c>
       <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" t="s">
+        <v>546</v>
+      </c>
+      <c r="O14">
+        <v>800</v>
+      </c>
+      <c r="P14">
+        <v>800</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" si="2"/>
+        <v>4.375</v>
+      </c>
+      <c r="R14">
+        <v>12800</v>
+      </c>
+      <c r="S14">
+        <v>15000</v>
+      </c>
+      <c r="T14" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7476,8 +7923,30 @@
         <v>4.8780487804878</v>
       </c>
       <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" t="s">
+        <v>546</v>
+      </c>
+      <c r="O15">
+        <v>3200</v>
+      </c>
+      <c r="P15">
+        <v>3200</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="2"/>
+        <v>2.03125</v>
+      </c>
+      <c r="R15">
+        <v>12800</v>
+      </c>
+      <c r="S15">
+        <v>10000</v>
+      </c>
+      <c r="T15" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7514,8 +7983,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" t="s">
+        <v>548</v>
+      </c>
+      <c r="O16">
+        <v>300</v>
+      </c>
+      <c r="P16">
+        <v>300</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" si="2"/>
+        <v>23.3333333333333</v>
+      </c>
+      <c r="R16">
+        <v>4800</v>
+      </c>
+      <c r="S16">
+        <v>15000</v>
+      </c>
+      <c r="T16" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>16</v>
       </c>
@@ -7552,8 +8043,30 @@
         <v>#DIV/0!</v>
       </c>
       <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" t="s">
+        <v>548</v>
+      </c>
+      <c r="O17">
+        <v>1200</v>
+      </c>
+      <c r="P17">
+        <v>1200</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" si="2"/>
+        <v>9.83333333333333</v>
+      </c>
+      <c r="R17">
+        <v>4800</v>
+      </c>
+      <c r="S17">
+        <v>10000</v>
+      </c>
+      <c r="T17" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>17</v>
       </c>
@@ -7593,8 +8106,14 @@
         <v>8.71088861076345</v>
       </c>
       <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" t="s">
+        <v>549</v>
+      </c>
+      <c r="U18" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7634,8 +8153,14 @@
         <v>8.48030018761726</v>
       </c>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" t="s">
+        <v>549</v>
+      </c>
+      <c r="U19" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7675,8 +8200,11 @@
         <v>3.92727272727273</v>
       </c>
       <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7705,19 +8233,22 @@
         <v>5199</v>
       </c>
       <c r="J21">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
-        <v>4332.5</v>
+        <v>5776.66666666667</v>
       </c>
       <c r="L21" s="2">
         <f t="shared" si="1"/>
-        <v>3.00057703404501</v>
+        <v>2.25043277553376</v>
       </c>
       <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7759,8 +8290,11 @@
       <c r="M22" s="3">
         <v>6.13</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7800,8 +8334,11 @@
         <v>5.82352941176471</v>
       </c>
       <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7841,8 +8378,11 @@
         <v>3.75949367088608</v>
       </c>
       <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7882,8 +8422,11 @@
         <v>6.28571428571429</v>
       </c>
       <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7923,8 +8466,11 @@
         <v>5.88732394366197</v>
       </c>
       <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7964,8 +8510,11 @@
         <v>2.75919732441472</v>
       </c>
       <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8005,8 +8554,11 @@
         <v>5.14893617021277</v>
       </c>
       <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8046,8 +8598,11 @@
         <v>5.71653543307087</v>
       </c>
       <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30">
         <v>29</v>
       </c>
@@ -8087,8 +8642,11 @@
         <v>7.45379876796715</v>
       </c>
       <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31">
         <v>30</v>
       </c>
@@ -8128,8 +8686,11 @@
         <v>6.30337078651685</v>
       </c>
       <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32">
         <v>31</v>
       </c>
@@ -8169,8 +8730,11 @@
         <v>8.71326164874552</v>
       </c>
       <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33">
         <v>32</v>
       </c>
@@ -8210,8 +8774,11 @@
         <v>7.40787801778907</v>
       </c>
       <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34">
         <v>33</v>
       </c>
@@ -8251,8 +8818,11 @@
         <v>5.27397260273973</v>
       </c>
       <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35">
         <v>34</v>
       </c>
@@ -8284,7 +8854,7 @@
         <v>1.1</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" ref="K35:K66" si="2">I35/J35</f>
+        <f t="shared" ref="K35:K66" si="3">I35/J35</f>
         <v>399.090909090909</v>
       </c>
       <c r="L35" s="2">
@@ -8292,8 +8862,11 @@
         <v>6.01366742596811</v>
       </c>
       <c r="M35" s="3"/>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36">
         <v>35</v>
       </c>
@@ -8325,7 +8898,7 @@
         <v>1.1</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>799.090909090909</v>
       </c>
       <c r="L36" s="2">
@@ -8333,8 +8906,11 @@
         <v>7.00796359499431</v>
       </c>
       <c r="M36" s="3"/>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37">
         <v>36</v>
       </c>
@@ -8366,7 +8942,7 @@
         <v>1.1</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>299.090909090909</v>
       </c>
       <c r="L37" s="2">
@@ -8374,8 +8950,11 @@
         <v>6.01823708206687</v>
       </c>
       <c r="M37" s="3"/>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38">
         <v>37</v>
       </c>
@@ -8407,7 +8986,7 @@
         <v>1.1</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>599.090909090909</v>
       </c>
       <c r="L38" s="2">
@@ -8415,8 +8994,11 @@
         <v>6.00910470409712</v>
       </c>
       <c r="M38" s="3"/>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39">
         <v>38</v>
       </c>
@@ -8448,7 +9030,7 @@
         <v>1.1</v>
       </c>
       <c r="K39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1135.45454545455</v>
       </c>
       <c r="L39" s="2">
@@ -8456,8 +9038,11 @@
         <v>5.90072057646117</v>
       </c>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40">
         <v>39</v>
       </c>
@@ -8489,7 +9074,7 @@
         <v>1.1</v>
       </c>
       <c r="K40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>408.181818181818</v>
       </c>
       <c r="L40" s="2">
@@ -8497,8 +9082,11 @@
         <v>6.61469933184855</v>
       </c>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
       <c r="A41">
         <v>40</v>
       </c>
@@ -8530,7 +9118,7 @@
         <v>1.1</v>
       </c>
       <c r="K41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>726.363636363636</v>
       </c>
       <c r="L41" s="2">
@@ -8538,8 +9126,11 @@
         <v>7.57196495619525</v>
       </c>
       <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42">
         <v>41</v>
       </c>
@@ -8571,7 +9162,7 @@
         <v>1.1</v>
       </c>
       <c r="K42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1299.09090909091</v>
       </c>
       <c r="L42" s="2">
@@ -8579,8 +9170,11 @@
         <v>6.85094471658503</v>
       </c>
       <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
       <c r="A43">
         <v>42</v>
       </c>
@@ -8612,7 +9206,7 @@
         <v>1.1</v>
       </c>
       <c r="K43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>571.818181818182</v>
       </c>
       <c r="L43" s="2">
@@ -8620,8 +9214,11 @@
         <v>6.64546899841018</v>
       </c>
       <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
       <c r="A44">
         <v>43</v>
       </c>
@@ -8653,7 +9250,7 @@
         <v>1.1</v>
       </c>
       <c r="K44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>990</v>
       </c>
       <c r="L44" s="2">
@@ -8661,8 +9258,11 @@
         <v>6.26262626262626</v>
       </c>
       <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
       <c r="A45">
         <v>44</v>
       </c>
@@ -8694,7 +9294,7 @@
         <v>1.1</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2290</v>
       </c>
       <c r="L45" s="2">
@@ -8702,8 +9302,11 @@
         <v>4.36681222707424</v>
       </c>
       <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
       <c r="A46">
         <v>45</v>
       </c>
@@ -8735,7 +9338,7 @@
         <v>1.1</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2890</v>
       </c>
       <c r="L46" s="2">
@@ -8743,8 +9346,11 @@
         <v>4.84429065743945</v>
       </c>
       <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
       <c r="A47">
         <v>46</v>
       </c>
@@ -8776,7 +9382,7 @@
         <v>1</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3299</v>
       </c>
       <c r="L47" s="2">
@@ -8784,8 +9390,11 @@
         <v>4.24371021521673</v>
       </c>
       <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
       <c r="A48">
         <v>47</v>
       </c>
@@ -8817,18 +9426,21 @@
         <v>1.3</v>
       </c>
       <c r="K48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.92307692307692</v>
       </c>
       <c r="L48" s="2">
-        <f t="shared" ref="L48:L79" si="3">G48/K48</f>
+        <f t="shared" ref="L48:L79" si="4">G48/K48</f>
         <v>10.1111111111111</v>
       </c>
       <c r="M48" s="3">
         <v>9.61</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
       <c r="A49">
         <v>48</v>
       </c>
@@ -8860,16 +9472,19 @@
         <v>1.3</v>
       </c>
       <c r="K49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.0769230769231</v>
       </c>
       <c r="L49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.7058823529412</v>
       </c>
       <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
       <c r="A50">
         <v>49</v>
       </c>
@@ -8901,16 +9516,19 @@
         <v>1.3</v>
       </c>
       <c r="K50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>28.4615384615385</v>
       </c>
       <c r="L50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.72972972972973</v>
       </c>
       <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
       <c r="A51">
         <v>50</v>
       </c>
@@ -8942,16 +9560,19 @@
         <v>1.3</v>
       </c>
       <c r="K51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.7692307692308</v>
       </c>
       <c r="L51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.1428571428571</v>
       </c>
       <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
       <c r="A52">
         <v>51</v>
       </c>
@@ -8983,16 +9604,19 @@
         <v>1.3</v>
       </c>
       <c r="K52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>23.8461538461538</v>
       </c>
       <c r="L52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.4838709677419</v>
       </c>
       <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
       <c r="A53">
         <v>52</v>
       </c>
@@ -9024,16 +9648,19 @@
         <v>1.3</v>
       </c>
       <c r="K53" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49.2307692307692</v>
       </c>
       <c r="L53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.125</v>
       </c>
       <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
       <c r="A54">
         <v>53</v>
       </c>
@@ -9065,16 +9692,19 @@
         <v>1.3</v>
       </c>
       <c r="K54" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.4615384615385</v>
       </c>
       <c r="L54" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.8333333333333</v>
       </c>
       <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
       <c r="A55">
         <v>54</v>
       </c>
@@ -9106,16 +9736,19 @@
         <v>1.3</v>
       </c>
       <c r="K55" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>39.2307692307692</v>
       </c>
       <c r="L55" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.4705882352941</v>
       </c>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
       <c r="A56">
         <v>55</v>
       </c>
@@ -9147,16 +9780,19 @@
         <v>1.3</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>83.8461538461538</v>
       </c>
       <c r="L56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.34862385321101</v>
       </c>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
       <c r="A57">
         <v>56</v>
       </c>
@@ -9188,16 +9824,19 @@
         <v>1.3</v>
       </c>
       <c r="K57" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="L57" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.6666666666667</v>
       </c>
       <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
       <c r="A58">
         <v>57</v>
       </c>
@@ -9229,16 +9868,19 @@
         <v>1.3</v>
       </c>
       <c r="K58" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>68.4615384615385</v>
       </c>
       <c r="L58" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.685393258427</v>
       </c>
       <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
       <c r="A59">
         <v>58</v>
       </c>
@@ -9270,16 +9912,19 @@
         <v>1.3</v>
       </c>
       <c r="K59" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110.769230769231</v>
       </c>
       <c r="L59" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.02777777777778</v>
       </c>
       <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
       <c r="A60">
         <v>59</v>
       </c>
@@ -9311,16 +9956,19 @@
         <v>1.3</v>
       </c>
       <c r="K60" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>191.538461538462</v>
       </c>
       <c r="L60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.6144578313253</v>
       </c>
       <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
       <c r="A61">
         <v>60</v>
       </c>
@@ -9352,16 +10000,19 @@
         <v>1.3</v>
       </c>
       <c r="K61" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>306.923076923077</v>
       </c>
       <c r="L61" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.33082706766917</v>
       </c>
       <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
       <c r="A62">
         <v>61</v>
       </c>
@@ -9393,16 +10044,19 @@
         <v>1.3</v>
       </c>
       <c r="K62" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>87.6923076923077</v>
       </c>
       <c r="L62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.8333333333333</v>
       </c>
       <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14">
       <c r="A63">
         <v>62</v>
       </c>
@@ -9434,16 +10088,19 @@
         <v>1.3</v>
       </c>
       <c r="K63" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>176.153846153846</v>
       </c>
       <c r="L63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10.2183406113537</v>
       </c>
       <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14">
       <c r="A64">
         <v>63</v>
       </c>
@@ -9475,16 +10132,19 @@
         <v>1.3</v>
       </c>
       <c r="K64" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="L64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.88888888888889</v>
       </c>
       <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14">
       <c r="A65">
         <v>64</v>
       </c>
@@ -9516,16 +10176,19 @@
         <v>1.3</v>
       </c>
       <c r="K65" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>306.923076923077</v>
       </c>
       <c r="L65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.44862155388471</v>
       </c>
       <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14">
       <c r="A66">
         <v>65</v>
       </c>
@@ -9557,16 +10220,19 @@
         <v>1.3</v>
       </c>
       <c r="K66" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>537.692307692308</v>
       </c>
       <c r="L66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.18311874105866</v>
       </c>
       <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14">
       <c r="A67">
         <v>66</v>
       </c>
@@ -9598,16 +10264,19 @@
         <v>1.3</v>
       </c>
       <c r="K67" s="1">
-        <f t="shared" ref="K67:K98" si="4">I67/J67</f>
+        <f t="shared" ref="K67:K98" si="5">I67/J67</f>
         <v>230</v>
       </c>
       <c r="L67" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.7391304347826</v>
       </c>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14">
       <c r="A68">
         <v>67</v>
       </c>
@@ -9639,16 +10308,19 @@
         <v>1.3</v>
       </c>
       <c r="K68" s="1">
+        <f t="shared" si="5"/>
+        <v>460.769230769231</v>
+      </c>
+      <c r="L68" s="2">
         <f t="shared" si="4"/>
-        <v>460.769230769231</v>
-      </c>
-      <c r="L68" s="2">
-        <f t="shared" si="3"/>
         <v>10.8514190317195</v>
       </c>
       <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14">
       <c r="A69">
         <v>68</v>
       </c>
@@ -9680,16 +10352,19 @@
         <v>1.3</v>
       </c>
       <c r="K69" s="1">
+        <f t="shared" si="5"/>
+        <v>483.846153846154</v>
+      </c>
+      <c r="L69" s="2">
         <f t="shared" si="4"/>
-        <v>483.846153846154</v>
-      </c>
-      <c r="L69" s="2">
-        <f t="shared" si="3"/>
         <v>9.92050874403816</v>
       </c>
       <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14">
       <c r="A70">
         <v>69</v>
       </c>
@@ -9721,16 +10396,19 @@
         <v>1.3</v>
       </c>
       <c r="K70" s="1">
+        <f t="shared" si="5"/>
+        <v>814.615384615385</v>
+      </c>
+      <c r="L70" s="2">
         <f t="shared" si="4"/>
-        <v>814.615384615385</v>
-      </c>
-      <c r="L70" s="2">
-        <f t="shared" si="3"/>
         <v>9.57507082152974</v>
       </c>
       <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14">
       <c r="A71">
         <v>70</v>
       </c>
@@ -9762,16 +10440,19 @@
         <v>1.3</v>
       </c>
       <c r="K71" s="1">
+        <f t="shared" si="5"/>
+        <v>1037.69230769231</v>
+      </c>
+      <c r="L71" s="2">
         <f t="shared" si="4"/>
-        <v>1037.69230769231</v>
-      </c>
-      <c r="L71" s="2">
-        <f t="shared" si="3"/>
         <v>8.96219421793922</v>
       </c>
       <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14">
       <c r="A72">
         <v>71</v>
       </c>
@@ -9803,16 +10484,19 @@
         <v>1.3</v>
       </c>
       <c r="K72" s="1">
+        <f t="shared" si="5"/>
+        <v>980</v>
+      </c>
+      <c r="L72" s="2">
         <f t="shared" si="4"/>
-        <v>980</v>
-      </c>
-      <c r="L72" s="2">
-        <f t="shared" si="3"/>
         <v>9.79591836734694</v>
       </c>
       <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14">
       <c r="A73">
         <v>72</v>
       </c>
@@ -9844,16 +10528,19 @@
         <v>1.3</v>
       </c>
       <c r="K73" s="1">
+        <f t="shared" si="5"/>
+        <v>2153.07692307692</v>
+      </c>
+      <c r="L73" s="2">
         <f t="shared" si="4"/>
-        <v>2153.07692307692</v>
-      </c>
-      <c r="L73" s="2">
-        <f t="shared" si="3"/>
         <v>5.10896748838871</v>
       </c>
       <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14">
       <c r="A74">
         <v>73</v>
       </c>
@@ -9885,18 +10572,21 @@
         <v>1</v>
       </c>
       <c r="K74" s="1">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="L74" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
-      </c>
-      <c r="L74" s="2">
-        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="M74" s="3">
         <v>5.55</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14">
       <c r="A75">
         <v>74</v>
       </c>
@@ -9928,16 +10618,19 @@
         <v>1</v>
       </c>
       <c r="K75" s="1">
+        <f t="shared" si="5"/>
+        <v>29</v>
+      </c>
+      <c r="L75" s="2">
         <f t="shared" si="4"/>
-        <v>29</v>
-      </c>
-      <c r="L75" s="2">
-        <f t="shared" si="3"/>
         <v>5.17241379310345</v>
       </c>
       <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14">
       <c r="A76">
         <v>75</v>
       </c>
@@ -9969,16 +10662,19 @@
         <v>1</v>
       </c>
       <c r="K76" s="1">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+      <c r="L76" s="2">
         <f t="shared" si="4"/>
-        <v>54</v>
-      </c>
-      <c r="L76" s="2">
-        <f t="shared" si="3"/>
         <v>5.18518518518519</v>
       </c>
       <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14">
       <c r="A77">
         <v>76</v>
       </c>
@@ -10010,16 +10706,19 @@
         <v>1</v>
       </c>
       <c r="K77" s="1">
+        <f t="shared" si="5"/>
+        <v>79</v>
+      </c>
+      <c r="L77" s="2">
         <f t="shared" si="4"/>
-        <v>79</v>
-      </c>
-      <c r="L77" s="2">
-        <f t="shared" si="3"/>
         <v>5.69620253164557</v>
       </c>
       <c r="M77" s="3"/>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14">
       <c r="A78">
         <v>77</v>
       </c>
@@ -10051,16 +10750,19 @@
         <v>1</v>
       </c>
       <c r="K78" s="1">
+        <f t="shared" si="5"/>
+        <v>139</v>
+      </c>
+      <c r="L78" s="2">
         <f t="shared" si="4"/>
-        <v>139</v>
-      </c>
-      <c r="L78" s="2">
-        <f t="shared" si="3"/>
         <v>5.75539568345324</v>
       </c>
       <c r="M78" s="3"/>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14">
       <c r="A79">
         <v>78</v>
       </c>
@@ -10092,16 +10794,19 @@
         <v>1</v>
       </c>
       <c r="K79" s="1">
+        <f t="shared" si="5"/>
+        <v>319</v>
+      </c>
+      <c r="L79" s="2">
         <f t="shared" si="4"/>
-        <v>319</v>
-      </c>
-      <c r="L79" s="2">
-        <f t="shared" si="3"/>
         <v>5.64263322884013</v>
       </c>
       <c r="M79" s="3"/>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14">
       <c r="A80">
         <v>79</v>
       </c>
@@ -10133,16 +10838,19 @@
         <v>1</v>
       </c>
       <c r="K80" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>519</v>
       </c>
       <c r="L80" s="2">
-        <f t="shared" ref="L80:L111" si="5">G80/K80</f>
+        <f t="shared" ref="L80:L111" si="6">G80/K80</f>
         <v>5.78034682080925</v>
       </c>
       <c r="M80" s="3"/>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81">
         <v>80</v>
       </c>
@@ -10174,16 +10882,19 @@
         <v>1</v>
       </c>
       <c r="K81" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>549</v>
       </c>
       <c r="L81" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7.28597449908925</v>
       </c>
       <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82">
         <v>81</v>
       </c>
@@ -10215,16 +10926,19 @@
         <v>1</v>
       </c>
       <c r="K82" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6.25</v>
       </c>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83">
         <v>82</v>
       </c>
@@ -10256,16 +10970,19 @@
         <v>1</v>
       </c>
       <c r="K83" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>42</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.83333333333333</v>
       </c>
       <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84">
         <v>83</v>
       </c>
@@ -10297,16 +11014,19 @@
         <v>1</v>
       </c>
       <c r="K84" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>49</v>
       </c>
       <c r="L84" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.3061224489796</v>
       </c>
       <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85">
         <v>84</v>
       </c>
@@ -10338,16 +11058,19 @@
         <v>1</v>
       </c>
       <c r="K85" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="L85" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.69230769230769</v>
       </c>
       <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86">
         <v>85</v>
       </c>
@@ -10379,16 +11102,19 @@
         <v>1</v>
       </c>
       <c r="K86" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="L86" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.68421052631579</v>
       </c>
       <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87">
         <v>86</v>
       </c>
@@ -10420,16 +11146,19 @@
         <v>1</v>
       </c>
       <c r="K87" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>167</v>
       </c>
       <c r="L87" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.38922155688623</v>
       </c>
       <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88">
         <v>87</v>
       </c>
@@ -10461,16 +11190,19 @@
         <v>1</v>
       </c>
       <c r="K88" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>383</v>
       </c>
       <c r="L88" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.48302872062663</v>
       </c>
       <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89">
         <v>88</v>
       </c>
@@ -10502,16 +11234,19 @@
         <v>1</v>
       </c>
       <c r="K89" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>623</v>
       </c>
       <c r="L89" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.61797752808989</v>
       </c>
       <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90">
         <v>89</v>
       </c>
@@ -10543,16 +11278,19 @@
         <v>1</v>
       </c>
       <c r="K90" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>727</v>
       </c>
       <c r="L90" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5.63961485557084</v>
       </c>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14">
       <c r="A91">
         <v>90</v>
       </c>
@@ -10584,16 +11322,19 @@
         <v>1</v>
       </c>
       <c r="K91" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1019</v>
       </c>
       <c r="L91" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.63101079489696</v>
       </c>
       <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92">
         <v>91</v>
       </c>
@@ -10625,16 +11366,19 @@
         <v>1</v>
       </c>
       <c r="K92" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1189</v>
       </c>
       <c r="L92" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.70984020185029</v>
       </c>
       <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93">
         <v>92</v>
       </c>
@@ -10666,16 +11410,19 @@
         <v>1</v>
       </c>
       <c r="K93" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1319</v>
       </c>
       <c r="L93" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.5489006823351</v>
       </c>
       <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10707,16 +11454,19 @@
         <v>1</v>
       </c>
       <c r="K94" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1583</v>
       </c>
       <c r="L94" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.29564118761845</v>
       </c>
       <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10748,16 +11498,19 @@
         <v>1</v>
       </c>
       <c r="K95" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1847</v>
       </c>
       <c r="L95" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.46507850568489</v>
       </c>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10789,16 +11542,19 @@
         <v>1</v>
       </c>
       <c r="K96" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1715</v>
       </c>
       <c r="L96" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3.55685131195335</v>
       </c>
       <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10830,16 +11586,19 @@
         <v>1</v>
       </c>
       <c r="K97" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1451</v>
       </c>
       <c r="L97" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.34183321847002</v>
       </c>
       <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10871,16 +11630,19 @@
         <v>1</v>
       </c>
       <c r="K98" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2059</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.273919378339</v>
       </c>
       <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10912,16 +11674,19 @@
         <v>1</v>
       </c>
       <c r="K99" s="1">
-        <f t="shared" ref="K99:K127" si="6">I99/J99</f>
+        <f t="shared" ref="K99:K127" si="7">I99/J99</f>
         <v>3749</v>
       </c>
       <c r="L99" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4.00106695118698</v>
       </c>
       <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10953,18 +11718,21 @@
         <v>1.1</v>
       </c>
       <c r="K100" s="1">
+        <f t="shared" si="7"/>
+        <v>11.8181818181818</v>
+      </c>
+      <c r="L100" s="2">
         <f t="shared" si="6"/>
-        <v>11.8181818181818</v>
-      </c>
-      <c r="L100" s="2">
-        <f t="shared" si="5"/>
         <v>6.76923076923077</v>
       </c>
       <c r="M100" s="3">
         <v>3.69</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10996,16 +11764,19 @@
         <v>1.1</v>
       </c>
       <c r="K101" s="1">
+        <f t="shared" si="7"/>
+        <v>26.3636363636364</v>
+      </c>
+      <c r="L101" s="2">
         <f t="shared" si="6"/>
-        <v>26.3636363636364</v>
-      </c>
-      <c r="L101" s="2">
-        <f t="shared" si="5"/>
         <v>6.06896551724138</v>
       </c>
       <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102">
         <v>101</v>
       </c>
@@ -11037,16 +11808,19 @@
         <v>1.1</v>
       </c>
       <c r="K102" s="1">
+        <f t="shared" si="7"/>
+        <v>62.7272727272727</v>
+      </c>
+      <c r="L102" s="2">
         <f t="shared" si="6"/>
-        <v>62.7272727272727</v>
-      </c>
-      <c r="L102" s="2">
-        <f t="shared" si="5"/>
         <v>5.10144927536232</v>
       </c>
       <c r="M102" s="3"/>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103">
         <v>102</v>
       </c>
@@ -11078,16 +11852,19 @@
         <v>1.1</v>
       </c>
       <c r="K103" s="1">
+        <f t="shared" si="7"/>
+        <v>43.6363636363636</v>
+      </c>
+      <c r="L103" s="2">
         <f t="shared" si="6"/>
-        <v>43.6363636363636</v>
-      </c>
-      <c r="L103" s="2">
-        <f t="shared" si="5"/>
         <v>5.72916666666667</v>
       </c>
       <c r="M103" s="3"/>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104">
         <v>103</v>
       </c>
@@ -11119,16 +11896,19 @@
         <v>1.1</v>
       </c>
       <c r="K104" s="1">
+        <f t="shared" si="7"/>
+        <v>121.818181818182</v>
+      </c>
+      <c r="L104" s="2">
         <f t="shared" si="6"/>
-        <v>121.818181818182</v>
-      </c>
-      <c r="L104" s="2">
-        <f t="shared" si="5"/>
         <v>3.94029850746269</v>
       </c>
       <c r="M104" s="3"/>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105">
         <v>104</v>
       </c>
@@ -11160,16 +11940,19 @@
         <v>1.1</v>
       </c>
       <c r="K105" s="1">
+        <f t="shared" si="7"/>
+        <v>408.181818181818</v>
+      </c>
+      <c r="L105" s="2">
         <f t="shared" si="6"/>
-        <v>408.181818181818</v>
-      </c>
-      <c r="L105" s="2">
-        <f t="shared" si="5"/>
         <v>2.25389755011136</v>
       </c>
       <c r="M105" s="3"/>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106">
         <v>105</v>
       </c>
@@ -11201,16 +11984,19 @@
         <v>1.1</v>
       </c>
       <c r="K106" s="1">
+        <f t="shared" si="7"/>
+        <v>299.090909090909</v>
+      </c>
+      <c r="L106" s="2">
         <f t="shared" si="6"/>
-        <v>299.090909090909</v>
-      </c>
-      <c r="L106" s="2">
-        <f t="shared" si="5"/>
         <v>2.67477203647416</v>
       </c>
       <c r="M106" s="3"/>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107">
         <v>106</v>
       </c>
@@ -11242,16 +12028,19 @@
         <v>1.1</v>
       </c>
       <c r="K107" s="1">
+        <f t="shared" si="7"/>
+        <v>599.090909090909</v>
+      </c>
+      <c r="L107" s="2">
         <f t="shared" si="6"/>
-        <v>599.090909090909</v>
-      </c>
-      <c r="L107" s="2">
-        <f t="shared" si="5"/>
         <v>2.16995447647951</v>
       </c>
       <c r="M107" s="3"/>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108">
         <v>107</v>
       </c>
@@ -11283,16 +12072,19 @@
         <v>1.1</v>
       </c>
       <c r="K108" s="1">
+        <f t="shared" si="7"/>
+        <v>899.090909090909</v>
+      </c>
+      <c r="L108" s="2">
         <f t="shared" si="6"/>
-        <v>899.090909090909</v>
-      </c>
-      <c r="L108" s="2">
-        <f t="shared" si="5"/>
         <v>2.11324570273003</v>
       </c>
       <c r="M108" s="3"/>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109">
         <v>108</v>
       </c>
@@ -11324,16 +12116,19 @@
         <v>1.1</v>
       </c>
       <c r="K109" s="1">
+        <f t="shared" si="7"/>
+        <v>1199.09090909091</v>
+      </c>
+      <c r="L109" s="2">
         <f t="shared" si="6"/>
-        <v>1199.09090909091</v>
-      </c>
-      <c r="L109" s="2">
-        <f t="shared" si="5"/>
         <v>2.41849886277483</v>
       </c>
       <c r="M109" s="3"/>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110">
         <v>109</v>
       </c>
@@ -11365,16 +12160,19 @@
         <v>1.1</v>
       </c>
       <c r="K110" s="1">
+        <f t="shared" si="7"/>
+        <v>762.727272727273</v>
+      </c>
+      <c r="L110" s="2">
         <f t="shared" si="6"/>
-        <v>762.727272727273</v>
-      </c>
-      <c r="L110" s="2">
-        <f t="shared" si="5"/>
         <v>4.71990464839094</v>
       </c>
       <c r="M110" s="3"/>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111">
         <v>110</v>
       </c>
@@ -11406,16 +12204,19 @@
         <v>1.1</v>
       </c>
       <c r="K111" s="1">
+        <f t="shared" si="7"/>
+        <v>2344.54545454545</v>
+      </c>
+      <c r="L111" s="2">
         <f t="shared" si="6"/>
-        <v>2344.54545454545</v>
-      </c>
-      <c r="L111" s="2">
-        <f t="shared" si="5"/>
         <v>2.85769678169833</v>
       </c>
       <c r="M111" s="3"/>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112">
         <v>111</v>
       </c>
@@ -11447,16 +12248,19 @@
         <v>1.1</v>
       </c>
       <c r="K112" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>944.545454545455</v>
       </c>
       <c r="L112" s="2">
-        <f t="shared" ref="L112:L127" si="7">G112/K112</f>
+        <f t="shared" ref="L112:L127" si="8">G112/K112</f>
         <v>4.02309913378248</v>
       </c>
       <c r="M112" s="3"/>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113">
         <v>112</v>
       </c>
@@ -11488,16 +12292,19 @@
         <v>1.1</v>
       </c>
       <c r="K113" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1708.18181818182</v>
       </c>
       <c r="L113" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.39542309739223</v>
       </c>
       <c r="M113" s="3"/>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="N113" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114">
         <v>113</v>
       </c>
@@ -11529,16 +12336,19 @@
         <v>1.1</v>
       </c>
       <c r="K114" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1135.45454545455</v>
       </c>
       <c r="L114" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.81825460368295</v>
       </c>
       <c r="M114" s="3"/>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115">
         <v>114</v>
       </c>
@@ -11570,16 +12380,19 @@
         <v>1.1</v>
       </c>
       <c r="K115" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1690</v>
       </c>
       <c r="L115" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.43195266272189</v>
       </c>
       <c r="M115" s="3"/>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116">
         <v>115</v>
       </c>
@@ -11611,16 +12424,19 @@
         <v>1.1</v>
       </c>
       <c r="K116" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2226.36363636364</v>
       </c>
       <c r="L116" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.72805226623112</v>
       </c>
       <c r="M116" s="3"/>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117">
         <v>116</v>
       </c>
@@ -11652,16 +12468,19 @@
         <v>1.1</v>
       </c>
       <c r="K117" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4090</v>
       </c>
       <c r="L117" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.3960880195599</v>
       </c>
       <c r="M117" s="3"/>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118">
         <v>117</v>
       </c>
@@ -11693,16 +12512,19 @@
         <v>1.1</v>
       </c>
       <c r="K118" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3817.27272727273</v>
       </c>
       <c r="L118" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.40557275541796</v>
       </c>
       <c r="M118" s="3"/>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119">
         <v>118</v>
       </c>
@@ -11734,16 +12556,19 @@
         <v>1.3</v>
       </c>
       <c r="K119" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37.6923076923077</v>
       </c>
       <c r="L119" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.63265306122449</v>
       </c>
       <c r="M119" s="2"/>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120">
         <v>119</v>
       </c>
@@ -11775,16 +12600,19 @@
         <v>1.1</v>
       </c>
       <c r="K120" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>408.181818181818</v>
       </c>
       <c r="L120" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.28730512249443</v>
       </c>
       <c r="M120" s="2"/>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121">
         <v>120</v>
       </c>
@@ -11816,16 +12644,19 @@
         <v>1.2</v>
       </c>
       <c r="K121" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>124.166666666667</v>
       </c>
       <c r="L121" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.04026845637584</v>
       </c>
       <c r="M121" s="2"/>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122">
         <v>121</v>
       </c>
@@ -11857,16 +12688,19 @@
         <v>1</v>
       </c>
       <c r="K122" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1349</v>
       </c>
       <c r="L122" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.77983691623425</v>
       </c>
       <c r="M122" s="2"/>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123">
         <v>122</v>
       </c>
@@ -11898,16 +12732,19 @@
         <v>0.9</v>
       </c>
       <c r="K123" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4498.88888888889</v>
       </c>
       <c r="L123" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.72264756730057</v>
       </c>
       <c r="M123" s="2"/>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124">
         <v>123</v>
       </c>
@@ -11939,16 +12776,19 @@
         <v>0.8</v>
       </c>
       <c r="K124" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15186.25</v>
       </c>
       <c r="L124" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.905424314758416</v>
       </c>
       <c r="M124" s="2"/>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="N124" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125">
         <v>124</v>
       </c>
@@ -11980,16 +12820,19 @@
         <v>0.8</v>
       </c>
       <c r="K125" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
       <c r="L125" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8000</v>
       </c>
       <c r="M125" s="2"/>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126">
         <v>125</v>
       </c>
@@ -12021,16 +12864,19 @@
         <v>1.1</v>
       </c>
       <c r="K126" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>953.636363636364</v>
       </c>
       <c r="L126" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.19447092469018</v>
       </c>
       <c r="M126" s="2"/>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127">
         <v>126</v>
       </c>
@@ -12062,17 +12908,20 @@
         <v>1.1</v>
       </c>
       <c r="K127" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>453.636363636364</v>
       </c>
       <c r="L127" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.40881763527054</v>
       </c>
       <c r="M127" s="2"/>
+      <c r="N127" t="s">
+        <v>611</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:T127">
+  <sortState ref="A2:V127">
     <sortCondition ref="A2"/>
   </sortState>
   <mergeCells count="5">

--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="1"/>
+    <workbookView windowWidth="18525" windowHeight="17790" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="塔的价值" sheetId="1" r:id="rId1"/>
     <sheet name="塔的价值和预期输出" sheetId="2" r:id="rId2"/>
+    <sheet name="进攻怪" sheetId="3" r:id="rId3"/>
+    <sheet name="命中公式" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="632">
   <si>
     <t>序号</t>
   </si>
@@ -1851,20 +1853,81 @@
   </si>
   <si>
     <t>擒龙控鹤</t>
+  </si>
+  <si>
+    <t>波数</t>
+  </si>
+  <si>
+    <t>血量</t>
+  </si>
+  <si>
+    <t>护甲</t>
+  </si>
+  <si>
+    <t>护甲增量</t>
+  </si>
+  <si>
+    <t>护甲减伤</t>
+  </si>
+  <si>
+    <t>有效血量</t>
+  </si>
+  <si>
+    <t>N10血量</t>
+  </si>
+  <si>
+    <t>N10护甲</t>
+  </si>
+  <si>
+    <t>N10护甲减伤</t>
+  </si>
+  <si>
+    <t>N10有效血量</t>
+  </si>
+  <si>
+    <t>命中</t>
+  </si>
+  <si>
+    <t>闪避</t>
+  </si>
+  <si>
+    <t>命中率</t>
+  </si>
+  <si>
+    <t>波数/难度</t>
+  </si>
+  <si>
+    <t>1-9</t>
+  </si>
+  <si>
+    <t>10-18</t>
+  </si>
+  <si>
+    <t>19-27</t>
+  </si>
+  <si>
+    <t>28-36</t>
+  </si>
+  <si>
+    <t>37-45</t>
+  </si>
+  <si>
+    <t>46-54</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="7">
+  <numFmts count="8">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -2469,23 +2532,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2547,6 +2619,2214 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>进攻怪!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>有效血量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>进攻怪!$F$2:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>0_ </c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>20.24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>176.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>334.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>561.68</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>865.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1260.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1570.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1975.82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2520</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3012.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3685.2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4233</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5070.56</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6007.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7075.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8832</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10972.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13524</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>16513.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20592</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>24648</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>29796</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>34684</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40606.5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>44928</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55426.5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>61050</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>73080</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>85323</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>97104</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>118656</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>134400</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>151680</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>170955</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>188640</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>199680</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>225924</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>249477</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>268794</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>289344</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>310716</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>340200</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>364140</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>389760</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>425568</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>522990</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>558750</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>632400</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>681928</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>729960</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>779240</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>846240</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>918400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="610864675"/>
+        <c:axId val="442582277"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="610864675"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="442582277"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="442582277"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="610864675"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>进攻怪!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>血量</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:yVal>
+            <c:numRef>
+              <c:f>进攻怪!$B$2:$B$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="55"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>585</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1883</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2220</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2948</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3375</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5775</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6900</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8175</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9900</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11850</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14325</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16675</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>18975</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>21600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>24525</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27750</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31500</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35850</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46350</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>52500</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>59250</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>65250</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>72000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>78000</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>84300</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>91050</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>98100</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>105600</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>113400</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>121500</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>130050</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>139200</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>148800</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>175500</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>187500</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>204000</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>215800</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>231000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>242000</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>258000</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>280000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="337133006"/>
+        <c:axId val="619839924"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="337133006"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="619839924"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="619839924"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337133006"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>536575</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>73025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9213850" y="4016375"/>
+        <a:ext cx="4848225" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10061575" y="796925"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7019,8 +9299,8 @@
   <sheetPr/>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="N127" sqref="N127"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7097,7 +9377,7 @@
       <c r="U1" t="s">
         <v>534</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="V1" s="7" t="s">
         <v>535</v>
       </c>
     </row>
@@ -7132,15 +9412,15 @@
       <c r="J2">
         <v>1.2</v>
       </c>
-      <c r="K2" s="1">
+      <c r="K2" s="3">
         <f>I2/J2</f>
         <v>30</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="4">
         <f>G2/K2</f>
         <v>6.66666666666667</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="5">
         <v>5.83</v>
       </c>
       <c r="N2" t="s">
@@ -7184,15 +9464,15 @@
       <c r="J3">
         <v>1.2</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="3">
         <f t="shared" ref="K3:K34" si="0">I3/J3</f>
         <v>14.1666666666667</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="4">
         <f t="shared" ref="L3:L47" si="1">G3/K3</f>
         <v>7.05882352941176</v>
       </c>
-      <c r="M3" s="3"/>
+      <c r="M3" s="5"/>
       <c r="N3" t="s">
         <v>539</v>
       </c>
@@ -7203,7 +9483,7 @@
         <f>O3*8</f>
         <v>400</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="Q3" s="4">
         <f t="shared" ref="Q3:Q17" si="2">G3/O3</f>
         <v>2</v>
       </c>
@@ -7245,15 +9525,15 @@
       <c r="J4">
         <v>1.2</v>
       </c>
-      <c r="K4" s="1">
+      <c r="K4" s="3">
         <f t="shared" si="0"/>
         <v>36.6666666666667</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="4">
         <f t="shared" si="1"/>
         <v>6.81818181818182</v>
       </c>
-      <c r="M4" s="3"/>
+      <c r="M4" s="5"/>
       <c r="N4" t="s">
         <v>539</v>
       </c>
@@ -7264,7 +9544,7 @@
         <f>O4*8</f>
         <v>1600</v>
       </c>
-      <c r="Q4" s="2">
+      <c r="Q4" s="4">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
@@ -7306,15 +9586,15 @@
       <c r="J5">
         <v>1.2</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5" s="3">
         <f t="shared" si="0"/>
         <v>74.1666666666667</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="4">
         <f t="shared" si="1"/>
         <v>6.06741573033708</v>
       </c>
-      <c r="M5" s="3"/>
+      <c r="M5" s="5"/>
       <c r="N5" t="s">
         <v>539</v>
       </c>
@@ -7325,7 +9605,7 @@
         <f>O5*8</f>
         <v>3600</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -7367,15 +9647,15 @@
       <c r="J6">
         <v>0.9</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="3">
         <f t="shared" si="0"/>
         <v>232.222222222222</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="4">
         <f t="shared" si="1"/>
         <v>3.22966507177033</v>
       </c>
-      <c r="M6" s="3"/>
+      <c r="M6" s="5"/>
       <c r="N6" t="s">
         <v>539</v>
       </c>
@@ -7386,7 +9666,7 @@
         <f>O6*8</f>
         <v>6400</v>
       </c>
-      <c r="Q6" s="2">
+      <c r="Q6" s="4">
         <f t="shared" si="2"/>
         <v>0.9375</v>
       </c>
@@ -7431,15 +9711,15 @@
       <c r="J7">
         <v>1.2</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="3">
         <f t="shared" si="0"/>
         <v>61.6666666666667</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="4">
         <f t="shared" si="1"/>
         <v>7.13513513513513</v>
       </c>
-      <c r="M7" s="3"/>
+      <c r="M7" s="5"/>
       <c r="N7" t="s">
         <v>542</v>
       </c>
@@ -7449,7 +9729,7 @@
       <c r="P7">
         <v>80</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="Q7" s="4">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
@@ -7491,15 +9771,15 @@
       <c r="J8">
         <v>1.2</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="3">
         <f t="shared" si="0"/>
         <v>124.166666666667</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="4">
         <f t="shared" si="1"/>
         <v>7.08724832214765</v>
       </c>
-      <c r="M8" s="3"/>
+      <c r="M8" s="5"/>
       <c r="N8" t="s">
         <v>542</v>
       </c>
@@ -7509,7 +9789,7 @@
       <c r="P8">
         <v>320</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="4">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
@@ -7551,15 +9831,15 @@
       <c r="J9">
         <v>1.2</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="3">
         <f t="shared" si="0"/>
         <v>249.166666666667</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="4">
         <f t="shared" si="1"/>
         <v>6.18060200668896</v>
       </c>
-      <c r="M9" s="3"/>
+      <c r="M9" s="5"/>
       <c r="N9" t="s">
         <v>542</v>
       </c>
@@ -7569,7 +9849,7 @@
       <c r="P9">
         <v>720</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="4">
         <f t="shared" si="2"/>
         <v>2.13888888888889</v>
       </c>
@@ -7611,15 +9891,15 @@
       <c r="J10">
         <v>1.2</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="3">
         <f t="shared" si="0"/>
         <v>365.833333333333</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="4">
         <f t="shared" si="1"/>
         <v>3.49886104783599</v>
       </c>
-      <c r="M10" s="3"/>
+      <c r="M10" s="5"/>
       <c r="N10" t="s">
         <v>543</v>
       </c>
@@ -7629,7 +9909,7 @@
       <c r="P10">
         <v>1000</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="4">
         <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
@@ -7671,15 +9951,15 @@
       <c r="J11">
         <v>1.2</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="3">
         <f t="shared" si="0"/>
         <v>732.5</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="4">
         <f t="shared" si="1"/>
         <v>3.1098976109215</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="5"/>
       <c r="N11" t="s">
         <v>543</v>
       </c>
@@ -7689,7 +9969,7 @@
       <c r="P11">
         <v>4000</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="4">
         <f t="shared" si="2"/>
         <v>0.5695</v>
       </c>
@@ -7731,15 +10011,15 @@
       <c r="J12">
         <v>1.2</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="3">
         <f t="shared" si="0"/>
         <v>374.166666666667</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="4">
         <f t="shared" si="1"/>
         <v>7.21603563474387</v>
       </c>
-      <c r="M12" s="3"/>
+      <c r="M12" s="5"/>
       <c r="N12" t="s">
         <v>545</v>
       </c>
@@ -7749,7 +10029,7 @@
       <c r="P12">
         <v>6000</v>
       </c>
-      <c r="Q12" s="2">
+      <c r="Q12" s="4">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
@@ -7791,15 +10071,15 @@
       <c r="J13">
         <v>1.2</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3">
         <f t="shared" si="0"/>
         <v>749.166666666667</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="4">
         <f t="shared" si="1"/>
         <v>6.54060066740823</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="5"/>
       <c r="N13" t="s">
         <v>545</v>
       </c>
@@ -7809,7 +10089,7 @@
       <c r="P13">
         <v>24000</v>
       </c>
-      <c r="Q13" s="2">
+      <c r="Q13" s="4">
         <f t="shared" si="2"/>
         <v>0.204166666666667</v>
       </c>
@@ -7851,15 +10131,15 @@
       <c r="J14">
         <v>1.2</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="3">
         <f t="shared" si="0"/>
         <v>665.833333333333</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="4">
         <f t="shared" si="1"/>
         <v>5.25657071339174</v>
       </c>
-      <c r="M14" s="3"/>
+      <c r="M14" s="5"/>
       <c r="N14" t="s">
         <v>546</v>
       </c>
@@ -7869,7 +10149,7 @@
       <c r="P14">
         <v>800</v>
       </c>
-      <c r="Q14" s="2">
+      <c r="Q14" s="4">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
@@ -7914,15 +10194,15 @@
       <c r="J15">
         <v>1.2</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3">
         <f t="shared" si="0"/>
         <v>1332.5</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="4">
         <f t="shared" si="1"/>
         <v>4.8780487804878</v>
       </c>
-      <c r="M15" s="3"/>
+      <c r="M15" s="5"/>
       <c r="N15" t="s">
         <v>546</v>
       </c>
@@ -7932,7 +10212,7 @@
       <c r="P15">
         <v>3200</v>
       </c>
-      <c r="Q15" s="2">
+      <c r="Q15" s="4">
         <f t="shared" si="2"/>
         <v>2.03125</v>
       </c>
@@ -7974,15 +10254,15 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="K16" s="1" t="e">
+      <c r="K16" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="2" t="e">
+      <c r="L16" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="3"/>
+      <c r="M16" s="5"/>
       <c r="N16" t="s">
         <v>548</v>
       </c>
@@ -7992,7 +10272,7 @@
       <c r="P16">
         <v>300</v>
       </c>
-      <c r="Q16" s="2">
+      <c r="Q16" s="4">
         <f t="shared" si="2"/>
         <v>23.3333333333333</v>
       </c>
@@ -8034,15 +10314,15 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="K17" s="1" t="e">
+      <c r="K17" s="3" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="2" t="e">
+      <c r="L17" s="4" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="3"/>
+      <c r="M17" s="5"/>
       <c r="N17" t="s">
         <v>548</v>
       </c>
@@ -8052,7 +10332,7 @@
       <c r="P17">
         <v>1200</v>
       </c>
-      <c r="Q17" s="2">
+      <c r="Q17" s="4">
         <f t="shared" si="2"/>
         <v>9.83333333333333</v>
       </c>
@@ -8097,15 +10377,15 @@
       <c r="J18">
         <v>1.2</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="3">
         <f t="shared" si="0"/>
         <v>665.833333333333</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="4">
         <f t="shared" si="1"/>
         <v>8.71088861076345</v>
       </c>
-      <c r="M18" s="3"/>
+      <c r="M18" s="5"/>
       <c r="N18" t="s">
         <v>549</v>
       </c>
@@ -8144,15 +10424,15 @@
       <c r="J19">
         <v>1.2</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="3">
         <f t="shared" si="0"/>
         <v>1332.5</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="4">
         <f t="shared" si="1"/>
         <v>8.48030018761726</v>
       </c>
-      <c r="M19" s="3"/>
+      <c r="M19" s="5"/>
       <c r="N19" t="s">
         <v>549</v>
       </c>
@@ -8191,15 +10471,15 @@
       <c r="J20">
         <v>1.2</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="3">
         <f t="shared" si="0"/>
         <v>1833.33333333333</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="4">
         <f t="shared" si="1"/>
         <v>3.92727272727273</v>
       </c>
-      <c r="M20" s="3"/>
+      <c r="M20" s="5"/>
       <c r="N20" t="s">
         <v>551</v>
       </c>
@@ -8235,15 +10515,15 @@
       <c r="J21">
         <v>0.9</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="3">
         <f t="shared" si="0"/>
         <v>5776.66666666667</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="4">
         <f t="shared" si="1"/>
         <v>2.25043277553376</v>
       </c>
-      <c r="M21" s="3"/>
+      <c r="M21" s="5"/>
       <c r="N21" t="s">
         <v>552</v>
       </c>
@@ -8279,15 +10559,15 @@
       <c r="J22">
         <v>1.1</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="3">
         <f t="shared" si="0"/>
         <v>13.6363636363636</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="4">
         <f t="shared" si="1"/>
         <v>6.6</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="5">
         <v>6.13</v>
       </c>
       <c r="N22" t="s">
@@ -8325,15 +10605,15 @@
       <c r="J23">
         <v>1.1</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="3">
         <f t="shared" si="0"/>
         <v>30.9090909090909</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="4">
         <f t="shared" si="1"/>
         <v>5.82352941176471</v>
       </c>
-      <c r="M23" s="3"/>
+      <c r="M23" s="5"/>
       <c r="N23" t="s">
         <v>553</v>
       </c>
@@ -8369,15 +10649,15 @@
       <c r="J24">
         <v>1.1</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="3">
         <f t="shared" si="0"/>
         <v>71.8181818181818</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="4">
         <f t="shared" si="1"/>
         <v>3.75949367088608</v>
       </c>
-      <c r="M24" s="3"/>
+      <c r="M24" s="5"/>
       <c r="N24" t="s">
         <v>553</v>
       </c>
@@ -8413,15 +10693,15 @@
       <c r="J25">
         <v>1.1</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="3">
         <f t="shared" si="0"/>
         <v>31.8181818181818</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="4">
         <f t="shared" si="1"/>
         <v>6.28571428571429</v>
       </c>
-      <c r="M25" s="3"/>
+      <c r="M25" s="5"/>
       <c r="N25" t="s">
         <v>554</v>
       </c>
@@ -8457,15 +10737,15 @@
       <c r="J26">
         <v>1.1</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="3">
         <f t="shared" si="0"/>
         <v>64.5454545454545</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="4">
         <f t="shared" si="1"/>
         <v>5.88732394366197</v>
       </c>
-      <c r="M26" s="3"/>
+      <c r="M26" s="5"/>
       <c r="N26" t="s">
         <v>554</v>
       </c>
@@ -8501,15 +10781,15 @@
       <c r="J27">
         <v>1.1</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="3">
         <f t="shared" si="0"/>
         <v>271.818181818182</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="4">
         <f t="shared" si="1"/>
         <v>2.75919732441472</v>
       </c>
-      <c r="M27" s="3"/>
+      <c r="M27" s="5"/>
       <c r="N27" t="s">
         <v>554</v>
       </c>
@@ -8545,15 +10825,15 @@
       <c r="J28">
         <v>1.1</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="3">
         <f t="shared" si="0"/>
         <v>42.7272727272727</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="4">
         <f t="shared" si="1"/>
         <v>5.14893617021277</v>
       </c>
-      <c r="M28" s="3"/>
+      <c r="M28" s="5"/>
       <c r="N28" t="s">
         <v>555</v>
       </c>
@@ -8589,15 +10869,15 @@
       <c r="J29">
         <v>1.1</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="3">
         <f t="shared" si="0"/>
         <v>115.454545454545</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="4">
         <f t="shared" si="1"/>
         <v>5.71653543307087</v>
       </c>
-      <c r="M29" s="3"/>
+      <c r="M29" s="5"/>
       <c r="N29" t="s">
         <v>556</v>
       </c>
@@ -8633,15 +10913,15 @@
       <c r="J30">
         <v>1.1</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="3">
         <f t="shared" si="0"/>
         <v>442.727272727273</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="4">
         <f t="shared" si="1"/>
         <v>7.45379876796715</v>
       </c>
-      <c r="M30" s="3"/>
+      <c r="M30" s="5"/>
       <c r="N30" t="s">
         <v>556</v>
       </c>
@@ -8677,15 +10957,15 @@
       <c r="J31">
         <v>1.1</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="3">
         <f t="shared" si="0"/>
         <v>80.9090909090909</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="4">
         <f t="shared" si="1"/>
         <v>6.30337078651685</v>
       </c>
-      <c r="M31" s="3"/>
+      <c r="M31" s="5"/>
       <c r="N31" t="s">
         <v>557</v>
       </c>
@@ -8721,15 +11001,15 @@
       <c r="J32">
         <v>1.1</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="3">
         <f t="shared" si="0"/>
         <v>253.636363636364</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="4">
         <f t="shared" si="1"/>
         <v>8.71326164874552</v>
       </c>
-      <c r="M32" s="3"/>
+      <c r="M32" s="5"/>
       <c r="N32" t="s">
         <v>558</v>
       </c>
@@ -8765,15 +11045,15 @@
       <c r="J33">
         <v>1.1</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="3">
         <f t="shared" si="0"/>
         <v>715.454545454545</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L33" s="4">
         <f t="shared" si="1"/>
         <v>7.40787801778907</v>
       </c>
-      <c r="M33" s="3"/>
+      <c r="M33" s="5"/>
       <c r="N33" t="s">
         <v>558</v>
       </c>
@@ -8809,15 +11089,15 @@
       <c r="J34">
         <v>1.1</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="3">
         <f t="shared" si="0"/>
         <v>199.090909090909</v>
       </c>
-      <c r="L34" s="2">
+      <c r="L34" s="4">
         <f t="shared" si="1"/>
         <v>5.27397260273973</v>
       </c>
-      <c r="M34" s="3"/>
+      <c r="M34" s="5"/>
       <c r="N34" t="s">
         <v>559</v>
       </c>
@@ -8853,15 +11133,15 @@
       <c r="J35">
         <v>1.1</v>
       </c>
-      <c r="K35" s="1">
+      <c r="K35" s="3">
         <f t="shared" ref="K35:K66" si="3">I35/J35</f>
         <v>399.090909090909</v>
       </c>
-      <c r="L35" s="2">
+      <c r="L35" s="4">
         <f t="shared" si="1"/>
         <v>6.01366742596811</v>
       </c>
-      <c r="M35" s="3"/>
+      <c r="M35" s="5"/>
       <c r="N35" t="s">
         <v>559</v>
       </c>
@@ -8897,15 +11177,15 @@
       <c r="J36">
         <v>1.1</v>
       </c>
-      <c r="K36" s="1">
+      <c r="K36" s="3">
         <f t="shared" si="3"/>
         <v>799.090909090909</v>
       </c>
-      <c r="L36" s="2">
+      <c r="L36" s="4">
         <f t="shared" si="1"/>
         <v>7.00796359499431</v>
       </c>
-      <c r="M36" s="3"/>
+      <c r="M36" s="5"/>
       <c r="N36" t="s">
         <v>560</v>
       </c>
@@ -8941,15 +11221,15 @@
       <c r="J37">
         <v>1.1</v>
       </c>
-      <c r="K37" s="1">
+      <c r="K37" s="3">
         <f t="shared" si="3"/>
         <v>299.090909090909</v>
       </c>
-      <c r="L37" s="2">
+      <c r="L37" s="4">
         <f t="shared" si="1"/>
         <v>6.01823708206687</v>
       </c>
-      <c r="M37" s="3"/>
+      <c r="M37" s="5"/>
       <c r="N37" t="s">
         <v>561</v>
       </c>
@@ -8985,15 +11265,15 @@
       <c r="J38">
         <v>1.1</v>
       </c>
-      <c r="K38" s="1">
+      <c r="K38" s="3">
         <f t="shared" si="3"/>
         <v>599.090909090909</v>
       </c>
-      <c r="L38" s="2">
+      <c r="L38" s="4">
         <f t="shared" si="1"/>
         <v>6.00910470409712</v>
       </c>
-      <c r="M38" s="3"/>
+      <c r="M38" s="5"/>
       <c r="N38" t="s">
         <v>561</v>
       </c>
@@ -9029,15 +11309,15 @@
       <c r="J39">
         <v>1.1</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39" s="3">
         <f t="shared" si="3"/>
         <v>1135.45454545455</v>
       </c>
-      <c r="L39" s="2">
+      <c r="L39" s="4">
         <f t="shared" si="1"/>
         <v>5.90072057646117</v>
       </c>
-      <c r="M39" s="3"/>
+      <c r="M39" s="5"/>
       <c r="N39" t="s">
         <v>562</v>
       </c>
@@ -9073,15 +11353,15 @@
       <c r="J40">
         <v>1.1</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K40" s="3">
         <f t="shared" si="3"/>
         <v>408.181818181818</v>
       </c>
-      <c r="L40" s="2">
+      <c r="L40" s="4">
         <f t="shared" si="1"/>
         <v>6.61469933184855</v>
       </c>
-      <c r="M40" s="3"/>
+      <c r="M40" s="5"/>
       <c r="N40" t="s">
         <v>563</v>
       </c>
@@ -9117,15 +11397,15 @@
       <c r="J41">
         <v>1.1</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K41" s="3">
         <f t="shared" si="3"/>
         <v>726.363636363636</v>
       </c>
-      <c r="L41" s="2">
+      <c r="L41" s="4">
         <f t="shared" si="1"/>
         <v>7.57196495619525</v>
       </c>
-      <c r="M41" s="3"/>
+      <c r="M41" s="5"/>
       <c r="N41" t="s">
         <v>563</v>
       </c>
@@ -9161,15 +11441,15 @@
       <c r="J42">
         <v>1.1</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K42" s="3">
         <f t="shared" si="3"/>
         <v>1299.09090909091</v>
       </c>
-      <c r="L42" s="2">
+      <c r="L42" s="4">
         <f t="shared" si="1"/>
         <v>6.85094471658503</v>
       </c>
-      <c r="M42" s="3"/>
+      <c r="M42" s="5"/>
       <c r="N42" t="s">
         <v>564</v>
       </c>
@@ -9205,15 +11485,15 @@
       <c r="J43">
         <v>1.1</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="3">
         <f t="shared" si="3"/>
         <v>571.818181818182</v>
       </c>
-      <c r="L43" s="2">
+      <c r="L43" s="4">
         <f t="shared" si="1"/>
         <v>6.64546899841018</v>
       </c>
-      <c r="M43" s="3"/>
+      <c r="M43" s="5"/>
       <c r="N43" t="s">
         <v>565</v>
       </c>
@@ -9249,15 +11529,15 @@
       <c r="J44">
         <v>1.1</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K44" s="3">
         <f t="shared" si="3"/>
         <v>990</v>
       </c>
-      <c r="L44" s="2">
+      <c r="L44" s="4">
         <f t="shared" si="1"/>
         <v>6.26262626262626</v>
       </c>
-      <c r="M44" s="3"/>
+      <c r="M44" s="5"/>
       <c r="N44" t="s">
         <v>565</v>
       </c>
@@ -9293,15 +11573,15 @@
       <c r="J45">
         <v>1.1</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K45" s="3">
         <f t="shared" si="3"/>
         <v>2290</v>
       </c>
-      <c r="L45" s="2">
+      <c r="L45" s="4">
         <f t="shared" si="1"/>
         <v>4.36681222707424</v>
       </c>
-      <c r="M45" s="3"/>
+      <c r="M45" s="5"/>
       <c r="N45" t="s">
         <v>566</v>
       </c>
@@ -9337,15 +11617,15 @@
       <c r="J46">
         <v>1.1</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="3">
         <f t="shared" si="3"/>
         <v>2890</v>
       </c>
-      <c r="L46" s="2">
+      <c r="L46" s="4">
         <f t="shared" si="1"/>
         <v>4.84429065743945</v>
       </c>
-      <c r="M46" s="3"/>
+      <c r="M46" s="5"/>
       <c r="N46" t="s">
         <v>567</v>
       </c>
@@ -9381,15 +11661,15 @@
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="3">
         <f t="shared" si="3"/>
         <v>3299</v>
       </c>
-      <c r="L47" s="2">
+      <c r="L47" s="4">
         <f t="shared" si="1"/>
         <v>4.24371021521673</v>
       </c>
-      <c r="M47" s="3"/>
+      <c r="M47" s="5"/>
       <c r="N47" t="s">
         <v>568</v>
       </c>
@@ -9425,15 +11705,15 @@
       <c r="J48">
         <v>1.3</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="3">
         <f t="shared" si="3"/>
         <v>6.92307692307692</v>
       </c>
-      <c r="L48" s="2">
+      <c r="L48" s="4">
         <f t="shared" ref="L48:L79" si="4">G48/K48</f>
         <v>10.1111111111111</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="5">
         <v>9.61</v>
       </c>
       <c r="N48" t="s">
@@ -9471,15 +11751,15 @@
       <c r="J49">
         <v>1.3</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="3">
         <f t="shared" si="3"/>
         <v>13.0769230769231</v>
       </c>
-      <c r="L49" s="2">
+      <c r="L49" s="4">
         <f t="shared" si="4"/>
         <v>10.7058823529412</v>
       </c>
-      <c r="M49" s="3"/>
+      <c r="M49" s="5"/>
       <c r="N49" t="s">
         <v>569</v>
       </c>
@@ -9515,15 +11795,15 @@
       <c r="J50">
         <v>1.3</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="3">
         <f t="shared" si="3"/>
         <v>28.4615384615385</v>
       </c>
-      <c r="L50" s="2">
+      <c r="L50" s="4">
         <f t="shared" si="4"/>
         <v>7.72972972972973</v>
       </c>
-      <c r="M50" s="3"/>
+      <c r="M50" s="5"/>
       <c r="N50" t="s">
         <v>569</v>
       </c>
@@ -9559,15 +11839,15 @@
       <c r="J51">
         <v>1.3</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="3">
         <f t="shared" si="3"/>
         <v>10.7692307692308</v>
       </c>
-      <c r="L51" s="2">
+      <c r="L51" s="4">
         <f t="shared" si="4"/>
         <v>11.1428571428571</v>
       </c>
-      <c r="M51" s="3"/>
+      <c r="M51" s="5"/>
       <c r="N51" t="s">
         <v>570</v>
       </c>
@@ -9603,15 +11883,15 @@
       <c r="J52">
         <v>1.3</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="3">
         <f t="shared" si="3"/>
         <v>23.8461538461538</v>
       </c>
-      <c r="L52" s="2">
+      <c r="L52" s="4">
         <f t="shared" si="4"/>
         <v>10.4838709677419</v>
       </c>
-      <c r="M52" s="3"/>
+      <c r="M52" s="5"/>
       <c r="N52" t="s">
         <v>570</v>
       </c>
@@ -9647,15 +11927,15 @@
       <c r="J53">
         <v>1.3</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="3">
         <f t="shared" si="3"/>
         <v>49.2307692307692</v>
       </c>
-      <c r="L53" s="2">
+      <c r="L53" s="4">
         <f t="shared" si="4"/>
         <v>8.125</v>
       </c>
-      <c r="M53" s="3"/>
+      <c r="M53" s="5"/>
       <c r="N53" t="s">
         <v>570</v>
       </c>
@@ -9691,15 +11971,15 @@
       <c r="J54">
         <v>1.3</v>
       </c>
-      <c r="K54" s="1">
+      <c r="K54" s="3">
         <f t="shared" si="3"/>
         <v>18.4615384615385</v>
       </c>
-      <c r="L54" s="2">
+      <c r="L54" s="4">
         <f t="shared" si="4"/>
         <v>10.8333333333333</v>
       </c>
-      <c r="M54" s="3"/>
+      <c r="M54" s="5"/>
       <c r="N54" t="s">
         <v>571</v>
       </c>
@@ -9735,15 +12015,15 @@
       <c r="J55">
         <v>1.3</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="3">
         <f t="shared" si="3"/>
         <v>39.2307692307692</v>
       </c>
-      <c r="L55" s="2">
+      <c r="L55" s="4">
         <f t="shared" si="4"/>
         <v>11.4705882352941</v>
       </c>
-      <c r="M55" s="3"/>
+      <c r="M55" s="5"/>
       <c r="N55" t="s">
         <v>571</v>
       </c>
@@ -9779,15 +12059,15 @@
       <c r="J56">
         <v>1.3</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" s="3">
         <f t="shared" si="3"/>
         <v>83.8461538461538</v>
       </c>
-      <c r="L56" s="2">
+      <c r="L56" s="4">
         <f t="shared" si="4"/>
         <v>8.34862385321101</v>
       </c>
-      <c r="M56" s="3"/>
+      <c r="M56" s="5"/>
       <c r="N56" t="s">
         <v>571</v>
       </c>
@@ -9823,15 +12103,15 @@
       <c r="J57">
         <v>1.3</v>
       </c>
-      <c r="K57" s="1">
+      <c r="K57" s="3">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="L57" s="2">
+      <c r="L57" s="4">
         <f t="shared" si="4"/>
         <v>10.6666666666667</v>
       </c>
-      <c r="M57" s="3"/>
+      <c r="M57" s="5"/>
       <c r="N57" t="s">
         <v>572</v>
       </c>
@@ -9867,15 +12147,15 @@
       <c r="J58">
         <v>1.3</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="3">
         <f t="shared" si="3"/>
         <v>68.4615384615385</v>
       </c>
-      <c r="L58" s="2">
+      <c r="L58" s="4">
         <f t="shared" si="4"/>
         <v>11.685393258427</v>
       </c>
-      <c r="M58" s="3"/>
+      <c r="M58" s="5"/>
       <c r="N58" t="s">
         <v>572</v>
       </c>
@@ -9911,15 +12191,15 @@
       <c r="J59">
         <v>1.3</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" s="3">
         <f t="shared" si="3"/>
         <v>110.769230769231</v>
       </c>
-      <c r="L59" s="2">
+      <c r="L59" s="4">
         <f t="shared" si="4"/>
         <v>9.02777777777778</v>
       </c>
-      <c r="M59" s="3"/>
+      <c r="M59" s="5"/>
       <c r="N59" t="s">
         <v>573</v>
       </c>
@@ -9955,15 +12235,15 @@
       <c r="J60">
         <v>1.3</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60" s="3">
         <f t="shared" si="3"/>
         <v>191.538461538462</v>
       </c>
-      <c r="L60" s="2">
+      <c r="L60" s="4">
         <f t="shared" si="4"/>
         <v>8.6144578313253</v>
       </c>
-      <c r="M60" s="3"/>
+      <c r="M60" s="5"/>
       <c r="N60" t="s">
         <v>573</v>
       </c>
@@ -9999,15 +12279,15 @@
       <c r="J61">
         <v>1.3</v>
       </c>
-      <c r="K61" s="1">
+      <c r="K61" s="3">
         <f t="shared" si="3"/>
         <v>306.923076923077</v>
       </c>
-      <c r="L61" s="2">
+      <c r="L61" s="4">
         <f t="shared" si="4"/>
         <v>7.33082706766917</v>
       </c>
-      <c r="M61" s="3"/>
+      <c r="M61" s="5"/>
       <c r="N61" t="s">
         <v>573</v>
       </c>
@@ -10043,15 +12323,15 @@
       <c r="J62">
         <v>1.3</v>
       </c>
-      <c r="K62" s="1">
+      <c r="K62" s="3">
         <f t="shared" si="3"/>
         <v>87.6923076923077</v>
       </c>
-      <c r="L62" s="2">
+      <c r="L62" s="4">
         <f t="shared" si="4"/>
         <v>10.8333333333333</v>
       </c>
-      <c r="M62" s="3"/>
+      <c r="M62" s="5"/>
       <c r="N62" t="s">
         <v>574</v>
       </c>
@@ -10087,15 +12367,15 @@
       <c r="J63">
         <v>1.3</v>
       </c>
-      <c r="K63" s="1">
+      <c r="K63" s="3">
         <f t="shared" si="3"/>
         <v>176.153846153846</v>
       </c>
-      <c r="L63" s="2">
+      <c r="L63" s="4">
         <f t="shared" si="4"/>
         <v>10.2183406113537</v>
       </c>
-      <c r="M63" s="3"/>
+      <c r="M63" s="5"/>
       <c r="N63" t="s">
         <v>574</v>
       </c>
@@ -10131,15 +12411,15 @@
       <c r="J64">
         <v>1.3</v>
       </c>
-      <c r="K64" s="1">
+      <c r="K64" s="3">
         <f t="shared" si="3"/>
         <v>180</v>
       </c>
-      <c r="L64" s="2">
+      <c r="L64" s="4">
         <f t="shared" si="4"/>
         <v>8.88888888888889</v>
       </c>
-      <c r="M64" s="3"/>
+      <c r="M64" s="5"/>
       <c r="N64" t="s">
         <v>575</v>
       </c>
@@ -10175,15 +12455,15 @@
       <c r="J65">
         <v>1.3</v>
       </c>
-      <c r="K65" s="1">
+      <c r="K65" s="3">
         <f t="shared" si="3"/>
         <v>306.923076923077</v>
       </c>
-      <c r="L65" s="2">
+      <c r="L65" s="4">
         <f t="shared" si="4"/>
         <v>9.44862155388471</v>
       </c>
-      <c r="M65" s="3"/>
+      <c r="M65" s="5"/>
       <c r="N65" t="s">
         <v>575</v>
       </c>
@@ -10219,15 +12499,15 @@
       <c r="J66">
         <v>1.3</v>
       </c>
-      <c r="K66" s="1">
+      <c r="K66" s="3">
         <f t="shared" si="3"/>
         <v>537.692307692308</v>
       </c>
-      <c r="L66" s="2">
+      <c r="L66" s="4">
         <f t="shared" si="4"/>
         <v>8.18311874105866</v>
       </c>
-      <c r="M66" s="3"/>
+      <c r="M66" s="5"/>
       <c r="N66" t="s">
         <v>575</v>
       </c>
@@ -10263,15 +12543,15 @@
       <c r="J67">
         <v>1.3</v>
       </c>
-      <c r="K67" s="1">
+      <c r="K67" s="3">
         <f t="shared" ref="K67:K98" si="5">I67/J67</f>
         <v>230</v>
       </c>
-      <c r="L67" s="2">
+      <c r="L67" s="4">
         <f t="shared" si="4"/>
         <v>11.7391304347826</v>
       </c>
-      <c r="M67" s="3"/>
+      <c r="M67" s="5"/>
       <c r="N67" t="s">
         <v>576</v>
       </c>
@@ -10307,15 +12587,15 @@
       <c r="J68">
         <v>1.3</v>
       </c>
-      <c r="K68" s="1">
+      <c r="K68" s="3">
         <f t="shared" si="5"/>
         <v>460.769230769231</v>
       </c>
-      <c r="L68" s="2">
+      <c r="L68" s="4">
         <f t="shared" si="4"/>
         <v>10.8514190317195</v>
       </c>
-      <c r="M68" s="3"/>
+      <c r="M68" s="5"/>
       <c r="N68" t="s">
         <v>576</v>
       </c>
@@ -10351,15 +12631,15 @@
       <c r="J69">
         <v>1.3</v>
       </c>
-      <c r="K69" s="1">
+      <c r="K69" s="3">
         <f t="shared" si="5"/>
         <v>483.846153846154</v>
       </c>
-      <c r="L69" s="2">
+      <c r="L69" s="4">
         <f t="shared" si="4"/>
         <v>9.92050874403816</v>
       </c>
-      <c r="M69" s="3"/>
+      <c r="M69" s="5"/>
       <c r="N69" t="s">
         <v>577</v>
       </c>
@@ -10395,15 +12675,15 @@
       <c r="J70">
         <v>1.3</v>
       </c>
-      <c r="K70" s="1">
+      <c r="K70" s="3">
         <f t="shared" si="5"/>
         <v>814.615384615385</v>
       </c>
-      <c r="L70" s="2">
+      <c r="L70" s="4">
         <f t="shared" si="4"/>
         <v>9.57507082152974</v>
       </c>
-      <c r="M70" s="3"/>
+      <c r="M70" s="5"/>
       <c r="N70" t="s">
         <v>577</v>
       </c>
@@ -10439,15 +12719,15 @@
       <c r="J71">
         <v>1.3</v>
       </c>
-      <c r="K71" s="1">
+      <c r="K71" s="3">
         <f t="shared" si="5"/>
         <v>1037.69230769231</v>
       </c>
-      <c r="L71" s="2">
+      <c r="L71" s="4">
         <f t="shared" si="4"/>
         <v>8.96219421793922</v>
       </c>
-      <c r="M71" s="3"/>
+      <c r="M71" s="5"/>
       <c r="N71" t="s">
         <v>578</v>
       </c>
@@ -10483,15 +12763,15 @@
       <c r="J72">
         <v>1.3</v>
       </c>
-      <c r="K72" s="1">
+      <c r="K72" s="3">
         <f t="shared" si="5"/>
         <v>980</v>
       </c>
-      <c r="L72" s="2">
+      <c r="L72" s="4">
         <f t="shared" si="4"/>
         <v>9.79591836734694</v>
       </c>
-      <c r="M72" s="3"/>
+      <c r="M72" s="5"/>
       <c r="N72" t="s">
         <v>579</v>
       </c>
@@ -10527,15 +12807,15 @@
       <c r="J73">
         <v>1.3</v>
       </c>
-      <c r="K73" s="1">
+      <c r="K73" s="3">
         <f t="shared" si="5"/>
         <v>2153.07692307692</v>
       </c>
-      <c r="L73" s="2">
+      <c r="L73" s="4">
         <f t="shared" si="4"/>
         <v>5.10896748838871</v>
       </c>
-      <c r="M73" s="3"/>
+      <c r="M73" s="5"/>
       <c r="N73" t="s">
         <v>580</v>
       </c>
@@ -10568,18 +12848,18 @@
       <c r="I74">
         <v>10</v>
       </c>
-      <c r="J74" s="4">
+      <c r="J74" s="6">
         <v>1</v>
       </c>
-      <c r="K74" s="1">
+      <c r="K74" s="3">
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="L74" s="2">
+      <c r="L74" s="4">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="M74" s="3">
+      <c r="M74" s="5">
         <v>5.55</v>
       </c>
       <c r="N74" t="s">
@@ -10614,18 +12894,18 @@
       <c r="I75">
         <v>29</v>
       </c>
-      <c r="J75" s="4">
+      <c r="J75" s="6">
         <v>1</v>
       </c>
-      <c r="K75" s="1">
+      <c r="K75" s="3">
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="L75" s="2">
+      <c r="L75" s="4">
         <f t="shared" si="4"/>
         <v>5.17241379310345</v>
       </c>
-      <c r="M75" s="3"/>
+      <c r="M75" s="5"/>
       <c r="N75" t="s">
         <v>581</v>
       </c>
@@ -10658,18 +12938,18 @@
       <c r="I76">
         <v>54</v>
       </c>
-      <c r="J76" s="4">
+      <c r="J76" s="6">
         <v>1</v>
       </c>
-      <c r="K76" s="1">
+      <c r="K76" s="3">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="L76" s="2">
+      <c r="L76" s="4">
         <f t="shared" si="4"/>
         <v>5.18518518518519</v>
       </c>
-      <c r="M76" s="3"/>
+      <c r="M76" s="5"/>
       <c r="N76" t="s">
         <v>581</v>
       </c>
@@ -10702,18 +12982,18 @@
       <c r="I77">
         <v>79</v>
       </c>
-      <c r="J77" s="4">
+      <c r="J77" s="6">
         <v>1</v>
       </c>
-      <c r="K77" s="1">
+      <c r="K77" s="3">
         <f t="shared" si="5"/>
         <v>79</v>
       </c>
-      <c r="L77" s="2">
+      <c r="L77" s="4">
         <f t="shared" si="4"/>
         <v>5.69620253164557</v>
       </c>
-      <c r="M77" s="3"/>
+      <c r="M77" s="5"/>
       <c r="N77" t="s">
         <v>581</v>
       </c>
@@ -10746,18 +13026,18 @@
       <c r="I78">
         <v>139</v>
       </c>
-      <c r="J78" s="4">
+      <c r="J78" s="6">
         <v>1</v>
       </c>
-      <c r="K78" s="1">
+      <c r="K78" s="3">
         <f t="shared" si="5"/>
         <v>139</v>
       </c>
-      <c r="L78" s="2">
+      <c r="L78" s="4">
         <f t="shared" si="4"/>
         <v>5.75539568345324</v>
       </c>
-      <c r="M78" s="3"/>
+      <c r="M78" s="5"/>
       <c r="N78" t="s">
         <v>581</v>
       </c>
@@ -10790,18 +13070,18 @@
       <c r="I79">
         <v>319</v>
       </c>
-      <c r="J79" s="4">
+      <c r="J79" s="6">
         <v>1</v>
       </c>
-      <c r="K79" s="1">
+      <c r="K79" s="3">
         <f t="shared" si="5"/>
         <v>319</v>
       </c>
-      <c r="L79" s="2">
+      <c r="L79" s="4">
         <f t="shared" si="4"/>
         <v>5.64263322884013</v>
       </c>
-      <c r="M79" s="3"/>
+      <c r="M79" s="5"/>
       <c r="N79" t="s">
         <v>582</v>
       </c>
@@ -10834,18 +13114,18 @@
       <c r="I80">
         <v>519</v>
       </c>
-      <c r="J80" s="4">
+      <c r="J80" s="6">
         <v>1</v>
       </c>
-      <c r="K80" s="1">
+      <c r="K80" s="3">
         <f t="shared" si="5"/>
         <v>519</v>
       </c>
-      <c r="L80" s="2">
+      <c r="L80" s="4">
         <f t="shared" ref="L80:L111" si="6">G80/K80</f>
         <v>5.78034682080925</v>
       </c>
-      <c r="M80" s="3"/>
+      <c r="M80" s="5"/>
       <c r="N80" t="s">
         <v>582</v>
       </c>
@@ -10878,18 +13158,18 @@
       <c r="I81">
         <v>549</v>
       </c>
-      <c r="J81" s="4">
+      <c r="J81" s="6">
         <v>1</v>
       </c>
-      <c r="K81" s="1">
+      <c r="K81" s="3">
         <f t="shared" si="5"/>
         <v>549</v>
       </c>
-      <c r="L81" s="2">
+      <c r="L81" s="4">
         <f t="shared" si="6"/>
         <v>7.28597449908925</v>
       </c>
-      <c r="M81" s="3"/>
+      <c r="M81" s="5"/>
       <c r="N81" t="s">
         <v>582</v>
       </c>
@@ -10922,18 +13202,18 @@
       <c r="I82">
         <v>12</v>
       </c>
-      <c r="J82" s="4">
+      <c r="J82" s="6">
         <v>1</v>
       </c>
-      <c r="K82" s="1">
+      <c r="K82" s="3">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="L82" s="2">
+      <c r="L82" s="4">
         <f t="shared" si="6"/>
         <v>6.25</v>
       </c>
-      <c r="M82" s="3"/>
+      <c r="M82" s="5"/>
       <c r="N82" t="s">
         <v>583</v>
       </c>
@@ -10966,18 +13246,18 @@
       <c r="I83">
         <v>42</v>
       </c>
-      <c r="J83" s="4">
+      <c r="J83" s="6">
         <v>1</v>
       </c>
-      <c r="K83" s="1">
+      <c r="K83" s="3">
         <f t="shared" si="5"/>
         <v>42</v>
       </c>
-      <c r="L83" s="2">
+      <c r="L83" s="4">
         <f t="shared" si="6"/>
         <v>5.83333333333333</v>
       </c>
-      <c r="M83" s="3"/>
+      <c r="M83" s="5"/>
       <c r="N83" t="s">
         <v>583</v>
       </c>
@@ -11010,18 +13290,18 @@
       <c r="I84">
         <v>49</v>
       </c>
-      <c r="J84" s="4">
+      <c r="J84" s="6">
         <v>1</v>
       </c>
-      <c r="K84" s="1">
+      <c r="K84" s="3">
         <f t="shared" si="5"/>
         <v>49</v>
       </c>
-      <c r="L84" s="2">
+      <c r="L84" s="4">
         <f t="shared" si="6"/>
         <v>15.3061224489796</v>
       </c>
-      <c r="M84" s="3"/>
+      <c r="M84" s="5"/>
       <c r="N84" t="s">
         <v>584</v>
       </c>
@@ -11054,18 +13334,18 @@
       <c r="I85">
         <v>65</v>
       </c>
-      <c r="J85" s="4">
+      <c r="J85" s="6">
         <v>1</v>
       </c>
-      <c r="K85" s="1">
+      <c r="K85" s="3">
         <f t="shared" si="5"/>
         <v>65</v>
       </c>
-      <c r="L85" s="2">
+      <c r="L85" s="4">
         <f t="shared" si="6"/>
         <v>5.69230769230769</v>
       </c>
-      <c r="M85" s="3"/>
+      <c r="M85" s="5"/>
       <c r="N85" t="s">
         <v>585</v>
       </c>
@@ -11098,18 +13378,18 @@
       <c r="I86">
         <v>95</v>
       </c>
-      <c r="J86" s="4">
+      <c r="J86" s="6">
         <v>1</v>
       </c>
-      <c r="K86" s="1">
+      <c r="K86" s="3">
         <f t="shared" si="5"/>
         <v>95</v>
       </c>
-      <c r="L86" s="2">
+      <c r="L86" s="4">
         <f t="shared" si="6"/>
         <v>5.68421052631579</v>
       </c>
-      <c r="M86" s="3"/>
+      <c r="M86" s="5"/>
       <c r="N86" t="s">
         <v>586</v>
       </c>
@@ -11142,18 +13422,18 @@
       <c r="I87">
         <v>167</v>
       </c>
-      <c r="J87" s="4">
+      <c r="J87" s="6">
         <v>1</v>
       </c>
-      <c r="K87" s="1">
+      <c r="K87" s="3">
         <f t="shared" si="5"/>
         <v>167</v>
       </c>
-      <c r="L87" s="2">
+      <c r="L87" s="4">
         <f t="shared" si="6"/>
         <v>5.38922155688623</v>
       </c>
-      <c r="M87" s="3"/>
+      <c r="M87" s="5"/>
       <c r="N87" t="s">
         <v>587</v>
       </c>
@@ -11186,18 +13466,18 @@
       <c r="I88">
         <v>383</v>
       </c>
-      <c r="J88" s="4">
+      <c r="J88" s="6">
         <v>1</v>
       </c>
-      <c r="K88" s="1">
+      <c r="K88" s="3">
         <f t="shared" si="5"/>
         <v>383</v>
       </c>
-      <c r="L88" s="2">
+      <c r="L88" s="4">
         <f t="shared" si="6"/>
         <v>5.48302872062663</v>
       </c>
-      <c r="M88" s="3"/>
+      <c r="M88" s="5"/>
       <c r="N88" t="s">
         <v>588</v>
       </c>
@@ -11230,18 +13510,18 @@
       <c r="I89">
         <v>623</v>
       </c>
-      <c r="J89" s="4">
+      <c r="J89" s="6">
         <v>1</v>
       </c>
-      <c r="K89" s="1">
+      <c r="K89" s="3">
         <f t="shared" si="5"/>
         <v>623</v>
       </c>
-      <c r="L89" s="2">
+      <c r="L89" s="4">
         <f t="shared" si="6"/>
         <v>5.61797752808989</v>
       </c>
-      <c r="M89" s="3"/>
+      <c r="M89" s="5"/>
       <c r="N89" t="s">
         <v>589</v>
       </c>
@@ -11274,18 +13554,18 @@
       <c r="I90">
         <v>727</v>
       </c>
-      <c r="J90" s="4">
+      <c r="J90" s="6">
         <v>1</v>
       </c>
-      <c r="K90" s="1">
+      <c r="K90" s="3">
         <f t="shared" si="5"/>
         <v>727</v>
       </c>
-      <c r="L90" s="2">
+      <c r="L90" s="4">
         <f t="shared" si="6"/>
         <v>5.63961485557084</v>
       </c>
-      <c r="M90" s="3"/>
+      <c r="M90" s="5"/>
       <c r="N90" t="s">
         <v>582</v>
       </c>
@@ -11318,18 +13598,18 @@
       <c r="I91">
         <v>1019</v>
       </c>
-      <c r="J91" s="4">
+      <c r="J91" s="6">
         <v>1</v>
       </c>
-      <c r="K91" s="1">
+      <c r="K91" s="3">
         <f t="shared" si="5"/>
         <v>1019</v>
       </c>
-      <c r="L91" s="2">
+      <c r="L91" s="4">
         <f t="shared" si="6"/>
         <v>3.63101079489696</v>
       </c>
-      <c r="M91" s="3"/>
+      <c r="M91" s="5"/>
       <c r="N91" t="s">
         <v>590</v>
       </c>
@@ -11362,18 +13642,18 @@
       <c r="I92">
         <v>1189</v>
       </c>
-      <c r="J92" s="4">
+      <c r="J92" s="6">
         <v>1</v>
       </c>
-      <c r="K92" s="1">
+      <c r="K92" s="3">
         <f t="shared" si="5"/>
         <v>1189</v>
       </c>
-      <c r="L92" s="2">
+      <c r="L92" s="4">
         <f t="shared" si="6"/>
         <v>4.70984020185029</v>
       </c>
-      <c r="M92" s="3"/>
+      <c r="M92" s="5"/>
       <c r="N92" t="s">
         <v>591</v>
       </c>
@@ -11406,18 +13686,18 @@
       <c r="I93">
         <v>1319</v>
       </c>
-      <c r="J93" s="4">
+      <c r="J93" s="6">
         <v>1</v>
       </c>
-      <c r="K93" s="1">
+      <c r="K93" s="3">
         <f t="shared" si="5"/>
         <v>1319</v>
       </c>
-      <c r="L93" s="2">
+      <c r="L93" s="4">
         <f t="shared" si="6"/>
         <v>4.5489006823351</v>
       </c>
-      <c r="M93" s="3"/>
+      <c r="M93" s="5"/>
       <c r="N93" t="s">
         <v>592</v>
       </c>
@@ -11450,18 +13730,18 @@
       <c r="I94">
         <v>1583</v>
       </c>
-      <c r="J94" s="4">
+      <c r="J94" s="6">
         <v>1</v>
       </c>
-      <c r="K94" s="1">
+      <c r="K94" s="3">
         <f t="shared" si="5"/>
         <v>1583</v>
       </c>
-      <c r="L94" s="2">
+      <c r="L94" s="4">
         <f t="shared" si="6"/>
         <v>4.29564118761845</v>
       </c>
-      <c r="M94" s="3"/>
+      <c r="M94" s="5"/>
       <c r="N94" t="s">
         <v>589</v>
       </c>
@@ -11494,18 +13774,18 @@
       <c r="I95">
         <v>1847</v>
       </c>
-      <c r="J95" s="4">
+      <c r="J95" s="6">
         <v>1</v>
       </c>
-      <c r="K95" s="1">
+      <c r="K95" s="3">
         <f t="shared" si="5"/>
         <v>1847</v>
       </c>
-      <c r="L95" s="2">
+      <c r="L95" s="4">
         <f t="shared" si="6"/>
         <v>3.46507850568489</v>
       </c>
-      <c r="M95" s="3"/>
+      <c r="M95" s="5"/>
       <c r="N95" t="s">
         <v>593</v>
       </c>
@@ -11538,18 +13818,18 @@
       <c r="I96">
         <v>1715</v>
       </c>
-      <c r="J96" s="4">
+      <c r="J96" s="6">
         <v>1</v>
       </c>
-      <c r="K96" s="1">
+      <c r="K96" s="3">
         <f t="shared" si="5"/>
         <v>1715</v>
       </c>
-      <c r="L96" s="2">
+      <c r="L96" s="4">
         <f t="shared" si="6"/>
         <v>3.55685131195335</v>
       </c>
-      <c r="M96" s="3"/>
+      <c r="M96" s="5"/>
       <c r="N96" t="s">
         <v>591</v>
       </c>
@@ -11582,18 +13862,18 @@
       <c r="I97">
         <v>1451</v>
       </c>
-      <c r="J97" s="4">
+      <c r="J97" s="6">
         <v>1</v>
       </c>
-      <c r="K97" s="1">
+      <c r="K97" s="3">
         <f t="shared" si="5"/>
         <v>1451</v>
       </c>
-      <c r="L97" s="2">
+      <c r="L97" s="4">
         <f t="shared" si="6"/>
         <v>4.34183321847002</v>
       </c>
-      <c r="M97" s="3"/>
+      <c r="M97" s="5"/>
       <c r="N97" t="s">
         <v>594</v>
       </c>
@@ -11626,18 +13906,18 @@
       <c r="I98">
         <v>2059</v>
       </c>
-      <c r="J98" s="4">
+      <c r="J98" s="6">
         <v>1</v>
       </c>
-      <c r="K98" s="1">
+      <c r="K98" s="3">
         <f t="shared" si="5"/>
         <v>2059</v>
       </c>
-      <c r="L98" s="2">
+      <c r="L98" s="4">
         <f t="shared" si="6"/>
         <v>4.273919378339</v>
       </c>
-      <c r="M98" s="3"/>
+      <c r="M98" s="5"/>
       <c r="N98" t="s">
         <v>595</v>
       </c>
@@ -11670,18 +13950,18 @@
       <c r="I99">
         <v>3749</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J99" s="6">
         <v>1</v>
       </c>
-      <c r="K99" s="1">
+      <c r="K99" s="3">
         <f t="shared" ref="K99:K127" si="7">I99/J99</f>
         <v>3749</v>
       </c>
-      <c r="L99" s="2">
+      <c r="L99" s="4">
         <f t="shared" si="6"/>
         <v>4.00106695118698</v>
       </c>
-      <c r="M99" s="3"/>
+      <c r="M99" s="5"/>
       <c r="N99" t="s">
         <v>596</v>
       </c>
@@ -11717,15 +13997,15 @@
       <c r="J100">
         <v>1.1</v>
       </c>
-      <c r="K100" s="1">
+      <c r="K100" s="3">
         <f t="shared" si="7"/>
         <v>11.8181818181818</v>
       </c>
-      <c r="L100" s="2">
+      <c r="L100" s="4">
         <f t="shared" si="6"/>
         <v>6.76923076923077</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="5">
         <v>3.69</v>
       </c>
       <c r="N100" t="s">
@@ -11763,15 +14043,15 @@
       <c r="J101">
         <v>1.1</v>
       </c>
-      <c r="K101" s="1">
+      <c r="K101" s="3">
         <f t="shared" si="7"/>
         <v>26.3636363636364</v>
       </c>
-      <c r="L101" s="2">
+      <c r="L101" s="4">
         <f t="shared" si="6"/>
         <v>6.06896551724138</v>
       </c>
-      <c r="M101" s="3"/>
+      <c r="M101" s="5"/>
       <c r="N101" t="s">
         <v>597</v>
       </c>
@@ -11807,15 +14087,15 @@
       <c r="J102">
         <v>1.1</v>
       </c>
-      <c r="K102" s="1">
+      <c r="K102" s="3">
         <f t="shared" si="7"/>
         <v>62.7272727272727</v>
       </c>
-      <c r="L102" s="2">
+      <c r="L102" s="4">
         <f t="shared" si="6"/>
         <v>5.10144927536232</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="5"/>
       <c r="N102" t="s">
         <v>597</v>
       </c>
@@ -11851,15 +14131,15 @@
       <c r="J103">
         <v>1.1</v>
       </c>
-      <c r="K103" s="1">
+      <c r="K103" s="3">
         <f t="shared" si="7"/>
         <v>43.6363636363636</v>
       </c>
-      <c r="L103" s="2">
+      <c r="L103" s="4">
         <f t="shared" si="6"/>
         <v>5.72916666666667</v>
       </c>
-      <c r="M103" s="3"/>
+      <c r="M103" s="5"/>
       <c r="N103" t="s">
         <v>598</v>
       </c>
@@ -11895,15 +14175,15 @@
       <c r="J104">
         <v>1.1</v>
       </c>
-      <c r="K104" s="1">
+      <c r="K104" s="3">
         <f t="shared" si="7"/>
         <v>121.818181818182</v>
       </c>
-      <c r="L104" s="2">
+      <c r="L104" s="4">
         <f t="shared" si="6"/>
         <v>3.94029850746269</v>
       </c>
-      <c r="M104" s="3"/>
+      <c r="M104" s="5"/>
       <c r="N104" t="s">
         <v>598</v>
       </c>
@@ -11939,15 +14219,15 @@
       <c r="J105">
         <v>1.1</v>
       </c>
-      <c r="K105" s="1">
+      <c r="K105" s="3">
         <f t="shared" si="7"/>
         <v>408.181818181818</v>
       </c>
-      <c r="L105" s="2">
+      <c r="L105" s="4">
         <f t="shared" si="6"/>
         <v>2.25389755011136</v>
       </c>
-      <c r="M105" s="3"/>
+      <c r="M105" s="5"/>
       <c r="N105" t="s">
         <v>598</v>
       </c>
@@ -11983,15 +14263,15 @@
       <c r="J106">
         <v>1.1</v>
       </c>
-      <c r="K106" s="1">
+      <c r="K106" s="3">
         <f t="shared" si="7"/>
         <v>299.090909090909</v>
       </c>
-      <c r="L106" s="2">
+      <c r="L106" s="4">
         <f t="shared" si="6"/>
         <v>2.67477203647416</v>
       </c>
-      <c r="M106" s="3"/>
+      <c r="M106" s="5"/>
       <c r="N106" t="s">
         <v>599</v>
       </c>
@@ -12027,15 +14307,15 @@
       <c r="J107">
         <v>1.1</v>
       </c>
-      <c r="K107" s="1">
+      <c r="K107" s="3">
         <f t="shared" si="7"/>
         <v>599.090909090909</v>
       </c>
-      <c r="L107" s="2">
+      <c r="L107" s="4">
         <f t="shared" si="6"/>
         <v>2.16995447647951</v>
       </c>
-      <c r="M107" s="3"/>
+      <c r="M107" s="5"/>
       <c r="N107" t="s">
         <v>600</v>
       </c>
@@ -12071,15 +14351,15 @@
       <c r="J108">
         <v>1.1</v>
       </c>
-      <c r="K108" s="1">
+      <c r="K108" s="3">
         <f t="shared" si="7"/>
         <v>899.090909090909</v>
       </c>
-      <c r="L108" s="2">
+      <c r="L108" s="4">
         <f t="shared" si="6"/>
         <v>2.11324570273003</v>
       </c>
-      <c r="M108" s="3"/>
+      <c r="M108" s="5"/>
       <c r="N108" t="s">
         <v>600</v>
       </c>
@@ -12115,15 +14395,15 @@
       <c r="J109">
         <v>1.1</v>
       </c>
-      <c r="K109" s="1">
+      <c r="K109" s="3">
         <f t="shared" si="7"/>
         <v>1199.09090909091</v>
       </c>
-      <c r="L109" s="2">
+      <c r="L109" s="4">
         <f t="shared" si="6"/>
         <v>2.41849886277483</v>
       </c>
-      <c r="M109" s="3"/>
+      <c r="M109" s="5"/>
       <c r="N109" t="s">
         <v>600</v>
       </c>
@@ -12159,15 +14439,15 @@
       <c r="J110">
         <v>1.1</v>
       </c>
-      <c r="K110" s="1">
+      <c r="K110" s="3">
         <f t="shared" si="7"/>
         <v>762.727272727273</v>
       </c>
-      <c r="L110" s="2">
+      <c r="L110" s="4">
         <f t="shared" si="6"/>
         <v>4.71990464839094</v>
       </c>
-      <c r="M110" s="3"/>
+      <c r="M110" s="5"/>
       <c r="N110" t="s">
         <v>601</v>
       </c>
@@ -12203,15 +14483,15 @@
       <c r="J111">
         <v>1.1</v>
       </c>
-      <c r="K111" s="1">
+      <c r="K111" s="3">
         <f t="shared" si="7"/>
         <v>2344.54545454545</v>
       </c>
-      <c r="L111" s="2">
+      <c r="L111" s="4">
         <f t="shared" si="6"/>
         <v>2.85769678169833</v>
       </c>
-      <c r="M111" s="3"/>
+      <c r="M111" s="5"/>
       <c r="N111" t="s">
         <v>602</v>
       </c>
@@ -12247,15 +14527,15 @@
       <c r="J112">
         <v>1.1</v>
       </c>
-      <c r="K112" s="1">
+      <c r="K112" s="3">
         <f t="shared" si="7"/>
         <v>944.545454545455</v>
       </c>
-      <c r="L112" s="2">
+      <c r="L112" s="4">
         <f t="shared" ref="L112:L127" si="8">G112/K112</f>
         <v>4.02309913378248</v>
       </c>
-      <c r="M112" s="3"/>
+      <c r="M112" s="5"/>
       <c r="N112" t="s">
         <v>603</v>
       </c>
@@ -12291,15 +14571,15 @@
       <c r="J113">
         <v>1.1</v>
       </c>
-      <c r="K113" s="1">
+      <c r="K113" s="3">
         <f t="shared" si="7"/>
         <v>1708.18181818182</v>
       </c>
-      <c r="L113" s="2">
+      <c r="L113" s="4">
         <f t="shared" si="8"/>
         <v>3.39542309739223</v>
       </c>
-      <c r="M113" s="3"/>
+      <c r="M113" s="5"/>
       <c r="N113" t="s">
         <v>604</v>
       </c>
@@ -12335,15 +14615,15 @@
       <c r="J114">
         <v>1.1</v>
       </c>
-      <c r="K114" s="1">
+      <c r="K114" s="3">
         <f t="shared" si="7"/>
         <v>1135.45454545455</v>
       </c>
-      <c r="L114" s="2">
+      <c r="L114" s="4">
         <f t="shared" si="8"/>
         <v>2.81825460368295</v>
       </c>
-      <c r="M114" s="3"/>
+      <c r="M114" s="5"/>
       <c r="N114" t="s">
         <v>605</v>
       </c>
@@ -12379,15 +14659,15 @@
       <c r="J115">
         <v>1.1</v>
       </c>
-      <c r="K115" s="1">
+      <c r="K115" s="3">
         <f t="shared" si="7"/>
         <v>1690</v>
       </c>
-      <c r="L115" s="2">
+      <c r="L115" s="4">
         <f t="shared" si="8"/>
         <v>3.43195266272189</v>
       </c>
-      <c r="M115" s="3"/>
+      <c r="M115" s="5"/>
       <c r="N115" t="s">
         <v>605</v>
       </c>
@@ -12423,15 +14703,15 @@
       <c r="J116">
         <v>1.1</v>
       </c>
-      <c r="K116" s="1">
+      <c r="K116" s="3">
         <f t="shared" si="7"/>
         <v>2226.36363636364</v>
       </c>
-      <c r="L116" s="2">
+      <c r="L116" s="4">
         <f t="shared" si="8"/>
         <v>3.72805226623112</v>
       </c>
-      <c r="M116" s="3"/>
+      <c r="M116" s="5"/>
       <c r="N116" t="s">
         <v>605</v>
       </c>
@@ -12467,15 +14747,15 @@
       <c r="J117">
         <v>1.1</v>
       </c>
-      <c r="K117" s="1">
+      <c r="K117" s="3">
         <f t="shared" si="7"/>
         <v>4090</v>
       </c>
-      <c r="L117" s="2">
+      <c r="L117" s="4">
         <f t="shared" si="8"/>
         <v>2.3960880195599</v>
       </c>
-      <c r="M117" s="3"/>
+      <c r="M117" s="5"/>
       <c r="N117" t="s">
         <v>606</v>
       </c>
@@ -12511,15 +14791,15 @@
       <c r="J118">
         <v>1.1</v>
       </c>
-      <c r="K118" s="1">
+      <c r="K118" s="3">
         <f t="shared" si="7"/>
         <v>3817.27272727273</v>
       </c>
-      <c r="L118" s="2">
+      <c r="L118" s="4">
         <f t="shared" si="8"/>
         <v>3.40557275541796</v>
       </c>
-      <c r="M118" s="3"/>
+      <c r="M118" s="5"/>
       <c r="N118" t="s">
         <v>607</v>
       </c>
@@ -12555,15 +14835,15 @@
       <c r="J119">
         <v>1.3</v>
       </c>
-      <c r="K119" s="1">
+      <c r="K119" s="3">
         <f t="shared" si="7"/>
         <v>37.6923076923077</v>
       </c>
-      <c r="L119" s="2">
+      <c r="L119" s="4">
         <f t="shared" si="8"/>
         <v>6.63265306122449</v>
       </c>
-      <c r="M119" s="2"/>
+      <c r="M119" s="4"/>
       <c r="N119" t="s">
         <v>608</v>
       </c>
@@ -12599,15 +14879,15 @@
       <c r="J120">
         <v>1.1</v>
       </c>
-      <c r="K120" s="1">
+      <c r="K120" s="3">
         <f t="shared" si="7"/>
         <v>408.181818181818</v>
       </c>
-      <c r="L120" s="2">
+      <c r="L120" s="4">
         <f t="shared" si="8"/>
         <v>4.28730512249443</v>
       </c>
-      <c r="M120" s="2"/>
+      <c r="M120" s="4"/>
       <c r="N120" t="s">
         <v>608</v>
       </c>
@@ -12643,15 +14923,15 @@
       <c r="J121">
         <v>1.2</v>
       </c>
-      <c r="K121" s="1">
+      <c r="K121" s="3">
         <f t="shared" si="7"/>
         <v>124.166666666667</v>
       </c>
-      <c r="L121" s="2">
+      <c r="L121" s="4">
         <f t="shared" si="8"/>
         <v>6.04026845637584</v>
       </c>
-      <c r="M121" s="2"/>
+      <c r="M121" s="4"/>
       <c r="N121" t="s">
         <v>608</v>
       </c>
@@ -12684,18 +14964,18 @@
       <c r="I122">
         <v>1349</v>
       </c>
-      <c r="J122" s="4">
+      <c r="J122" s="6">
         <v>1</v>
       </c>
-      <c r="K122" s="1">
+      <c r="K122" s="3">
         <f t="shared" si="7"/>
         <v>1349</v>
       </c>
-      <c r="L122" s="2">
+      <c r="L122" s="4">
         <f t="shared" si="8"/>
         <v>2.77983691623425</v>
       </c>
-      <c r="M122" s="2"/>
+      <c r="M122" s="4"/>
       <c r="N122" t="s">
         <v>608</v>
       </c>
@@ -12731,15 +15011,15 @@
       <c r="J123">
         <v>0.9</v>
       </c>
-      <c r="K123" s="1">
+      <c r="K123" s="3">
         <f t="shared" si="7"/>
         <v>4498.88888888889</v>
       </c>
-      <c r="L123" s="2">
+      <c r="L123" s="4">
         <f t="shared" si="8"/>
         <v>1.72264756730057</v>
       </c>
-      <c r="M123" s="2"/>
+      <c r="M123" s="4"/>
       <c r="N123" t="s">
         <v>608</v>
       </c>
@@ -12775,15 +15055,15 @@
       <c r="J124">
         <v>0.8</v>
       </c>
-      <c r="K124" s="1">
+      <c r="K124" s="3">
         <f t="shared" si="7"/>
         <v>15186.25</v>
       </c>
-      <c r="L124" s="2">
+      <c r="L124" s="4">
         <f t="shared" si="8"/>
         <v>0.905424314758416</v>
       </c>
-      <c r="M124" s="2"/>
+      <c r="M124" s="4"/>
       <c r="N124" t="s">
         <v>608</v>
       </c>
@@ -12819,15 +15099,15 @@
       <c r="J125">
         <v>0.8</v>
       </c>
-      <c r="K125" s="1">
+      <c r="K125" s="3">
         <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
-      <c r="L125" s="2">
+      <c r="L125" s="4">
         <f t="shared" si="8"/>
         <v>8000</v>
       </c>
-      <c r="M125" s="2"/>
+      <c r="M125" s="4"/>
       <c r="N125" t="s">
         <v>609</v>
       </c>
@@ -12863,15 +15143,15 @@
       <c r="J126">
         <v>1.1</v>
       </c>
-      <c r="K126" s="1">
+      <c r="K126" s="3">
         <f t="shared" si="7"/>
         <v>953.636363636364</v>
       </c>
-      <c r="L126" s="2">
+      <c r="L126" s="4">
         <f t="shared" si="8"/>
         <v>4.19447092469018</v>
       </c>
-      <c r="M126" s="2"/>
+      <c r="M126" s="4"/>
       <c r="N126" t="s">
         <v>610</v>
       </c>
@@ -12907,15 +15187,15 @@
       <c r="J127">
         <v>1.1</v>
       </c>
-      <c r="K127" s="1">
+      <c r="K127" s="3">
         <f t="shared" si="7"/>
         <v>453.636363636364</v>
       </c>
-      <c r="L127" s="2">
+      <c r="L127" s="4">
         <f t="shared" si="8"/>
         <v>4.40881763527054</v>
       </c>
-      <c r="M127" s="2"/>
+      <c r="M127" s="4"/>
       <c r="N127" t="s">
         <v>611</v>
       </c>
@@ -12934,4 +15214,2715 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K56"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="13.75"/>
+    <col min="9" max="9" width="12.125" customWidth="1"/>
+    <col min="10" max="10" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B1" t="s">
+        <v>613</v>
+      </c>
+      <c r="C1" t="s">
+        <v>614</v>
+      </c>
+      <c r="D1" t="s">
+        <v>615</v>
+      </c>
+      <c r="E1" t="s">
+        <v>616</v>
+      </c>
+      <c r="F1" t="s">
+        <v>617</v>
+      </c>
+      <c r="G1" t="s">
+        <v>618</v>
+      </c>
+      <c r="H1" t="s">
+        <v>619</v>
+      </c>
+      <c r="I1" t="s">
+        <v>620</v>
+      </c>
+      <c r="J1" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>23</v>
+      </c>
+      <c r="C2">
+        <v>-2</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <f t="shared" ref="E2:E33" si="0">0.06*C2/(1+0.06*C2)</f>
+        <v>-0.136363636363636</v>
+      </c>
+      <c r="F2" s="3">
+        <f>B2/(1-E2)</f>
+        <v>20.24</v>
+      </c>
+      <c r="G2">
+        <f>B2*4.8</f>
+        <v>110.4</v>
+      </c>
+      <c r="H2">
+        <f>C2+19*D2</f>
+        <v>17</v>
+      </c>
+      <c r="I2" s="2">
+        <f>0.06*H2/(1+0.06*H2)</f>
+        <v>0.504950495049505</v>
+      </c>
+      <c r="J2" s="3">
+        <f>G2/(1-I2)</f>
+        <v>223.008</v>
+      </c>
+      <c r="K2">
+        <f>7.6591*A2*A2*A2-108.55*A2*A2+798.28*A2-518.31</f>
+        <v>179.0791</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>75</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="0"/>
+        <v>0.0566037735849057</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F34" si="1">B3/(1-E3)</f>
+        <v>79.5</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G34" si="2">B3*4.8</f>
+        <v>360</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H34" si="3">C3+19*D3</f>
+        <v>20</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I34" si="4">0.06*H3/(1+0.06*H3)</f>
+        <v>0.545454545454545</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J34" si="5">G3/(1-I3)</f>
+        <v>792</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K34" si="6">7.6591*A3*A3*A3-108.55*A3*A3+798.28*A3-518.31</f>
+        <v>705.3228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>158</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>0.107142857142857</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="1"/>
+        <v>176.96</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>758.4</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="4"/>
+        <v>0.557522123893805</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="5"/>
+        <v>1713.984</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="6"/>
+        <v>1106.3757</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>270</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>0.193548387096774</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="1"/>
+        <v>334.8</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>1296</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="4"/>
+        <v>0.579831932773109</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="5"/>
+        <v>3084.48</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="6"/>
+        <v>1428.1924</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>413</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>0.264705882352941</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="1"/>
+        <v>561.68</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>1982.4</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="5"/>
+        <v>4956</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>1716.7275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>585</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.324324324324324</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="1"/>
+        <v>865.8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>2808</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="4"/>
+        <v>0.618320610687023</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="5"/>
+        <v>7356.96</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>2017.9356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>788</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="1"/>
+        <v>1260.8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>3782.4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="4"/>
+        <v>0.635036496350365</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="5"/>
+        <v>10363.776</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="6"/>
+        <v>2377.7713</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1020</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.350649350649351</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="1"/>
+        <v>1570.8</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>4896</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="4"/>
+        <v>0.626865671641791</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="5"/>
+        <v>13121.28</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>2842.1892</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1283</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.350649350649351</v>
+      </c>
+      <c r="F10" s="3">
+        <f t="shared" si="1"/>
+        <v>1975.82</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>6158.4</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.626865671641791</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="5"/>
+        <v>16504.512</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="6"/>
+        <v>3457.1439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1575</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="F11" s="3">
+        <f t="shared" si="1"/>
+        <v>2520</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>7560</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="I11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.635036496350365</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="5"/>
+        <v>20714.4</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="6"/>
+        <v>4268.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1883</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.375</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="1"/>
+        <v>3012.8</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>9038.4</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="I12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.635036496350365</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="5"/>
+        <v>24765.216</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>5322.4821</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2220</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.397590361445783</v>
+      </c>
+      <c r="F13" s="3">
+        <f t="shared" si="1"/>
+        <v>3685.2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>10656</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="5"/>
+        <v>29836.8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="6"/>
+        <v>6664.7748</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>2550</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="0"/>
+        <v>0.397590361445783</v>
+      </c>
+      <c r="F14" s="3">
+        <f t="shared" si="1"/>
+        <v>4233</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>12240</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="4"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="5"/>
+        <v>34272</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>8341.4227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2948</v>
+      </c>
+      <c r="C15">
+        <v>12</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>0.418604651162791</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" si="1"/>
+        <v>5070.56</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>14150.4</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="4"/>
+        <v>0.65034965034965</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="5"/>
+        <v>40470.144</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="6"/>
+        <v>10398.3804</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3375</v>
+      </c>
+      <c r="C16">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="0"/>
+        <v>0.438202247191011</v>
+      </c>
+      <c r="F16" s="3">
+        <f t="shared" si="1"/>
+        <v>6007.5</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>16200</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="I16" s="2">
+        <f t="shared" si="4"/>
+        <v>0.657534246575342</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="5"/>
+        <v>47304</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>12881.6025</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3975</v>
+      </c>
+      <c r="C17">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="0"/>
+        <v>0.438202247191011</v>
+      </c>
+      <c r="F17" s="3">
+        <f t="shared" si="1"/>
+        <v>7075.5</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>19080</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="I17" s="2">
+        <f t="shared" si="4"/>
+        <v>0.657534246575342</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="5"/>
+        <v>55713.6</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>15837.0436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>4800</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="0"/>
+        <v>0.456521739130435</v>
+      </c>
+      <c r="F18" s="3">
+        <f t="shared" si="1"/>
+        <v>8832</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>23040</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="I18" s="2">
+        <f t="shared" si="4"/>
+        <v>0.664429530201342</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="5"/>
+        <v>68659.2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>19310.6583</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>5775</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="0"/>
+        <v>0.473684210526316</v>
+      </c>
+      <c r="F19" s="3">
+        <f t="shared" si="1"/>
+        <v>10972.5</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>27720</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="4"/>
+        <v>0.671052631578947</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="5"/>
+        <v>84268.8</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="6"/>
+        <v>23348.4012</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6900</v>
+      </c>
+      <c r="C20">
+        <v>16</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="0"/>
+        <v>0.489795918367347</v>
+      </c>
+      <c r="F20" s="3">
+        <f t="shared" si="1"/>
+        <v>13524</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>33120</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="I20" s="2">
+        <f t="shared" si="4"/>
+        <v>0.67741935483871</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="5"/>
+        <v>102672</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="6"/>
+        <v>27996.2269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>8175</v>
+      </c>
+      <c r="C21">
+        <v>17</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" si="0"/>
+        <v>0.504950495049505</v>
+      </c>
+      <c r="F21" s="3">
+        <f t="shared" si="1"/>
+        <v>16513.5</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>39240</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="I21" s="2">
+        <f t="shared" si="4"/>
+        <v>0.683544303797468</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="5"/>
+        <v>123998.4</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="6"/>
+        <v>33300.09</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>9900</v>
+      </c>
+      <c r="C22">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>0.519230769230769</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" si="1"/>
+        <v>20592</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>47520</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" si="4"/>
+        <v>0.68944099378882</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="5"/>
+        <v>153014.4</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="6"/>
+        <v>39305.9451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>11850</v>
+      </c>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="0"/>
+        <v>0.519230769230769</v>
+      </c>
+      <c r="F23" s="3">
+        <f t="shared" si="1"/>
+        <v>24648</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>56880</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="4"/>
+        <v>0.68944099378882</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="5"/>
+        <v>183153.6</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="6"/>
+        <v>46059.7468</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>14325</v>
+      </c>
+      <c r="C24">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="0"/>
+        <v>0.519230769230769</v>
+      </c>
+      <c r="F24" s="3">
+        <f t="shared" si="1"/>
+        <v>29796</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>68760</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="4"/>
+        <v>0.68944099378882</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="5"/>
+        <v>221407.2</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="6"/>
+        <v>53607.4497</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>16675</v>
+      </c>
+      <c r="C25">
+        <v>18</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0.519230769230769</v>
+      </c>
+      <c r="F25" s="3">
+        <f t="shared" si="1"/>
+        <v>34684</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>80040</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="4"/>
+        <v>0.68944099378882</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="5"/>
+        <v>257728.8</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="6"/>
+        <v>61995.0084</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>18975</v>
+      </c>
+      <c r="C26">
+        <v>19</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="0"/>
+        <v>0.532710280373832</v>
+      </c>
+      <c r="F26" s="3">
+        <f t="shared" si="1"/>
+        <v>40606.5</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>91080</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="4"/>
+        <v>0.695121951219512</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="5"/>
+        <v>298742.4</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="6"/>
+        <v>71268.3775</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>21600</v>
+      </c>
+      <c r="C27">
+        <v>18</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="0"/>
+        <v>0.519230769230769</v>
+      </c>
+      <c r="F27" s="3">
+        <f t="shared" si="1"/>
+        <v>44928</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>103680</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="I27" s="2">
+        <f t="shared" si="4"/>
+        <v>0.68944099378882</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="5"/>
+        <v>333849.6</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="6"/>
+        <v>81473.5116</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>24525</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="0"/>
+        <v>0.557522123893805</v>
+      </c>
+      <c r="F28" s="3">
+        <f t="shared" si="1"/>
+        <v>55426.5</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>117720</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="I28" s="2">
+        <f t="shared" si="4"/>
+        <v>0.705882352941177</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="5"/>
+        <v>400248</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="6"/>
+        <v>92656.3653</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>27750</v>
+      </c>
+      <c r="C29">
+        <v>20</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="0"/>
+        <v>0.545454545454545</v>
+      </c>
+      <c r="F29" s="3">
+        <f t="shared" si="1"/>
+        <v>61050</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>133200</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" si="4"/>
+        <v>0.70059880239521</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="5"/>
+        <v>444888</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="6"/>
+        <v>104862.8932</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>31500</v>
+      </c>
+      <c r="C30">
+        <v>22</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="0"/>
+        <v>0.568965517241379</v>
+      </c>
+      <c r="F30" s="3">
+        <f t="shared" si="1"/>
+        <v>73080</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>151200</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="4"/>
+        <v>0.710982658959538</v>
+      </c>
+      <c r="J30" s="3">
+        <f t="shared" si="5"/>
+        <v>523152</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="6"/>
+        <v>118139.0499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>35850</v>
+      </c>
+      <c r="C31">
+        <v>23</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.579831932773109</v>
+      </c>
+      <c r="F31" s="3">
+        <f t="shared" si="1"/>
+        <v>85323</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>172080</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="4"/>
+        <v>0.715909090909091</v>
+      </c>
+      <c r="J31" s="3">
+        <f t="shared" si="5"/>
+        <v>605721.6</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="6"/>
+        <v>132530.79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>40800</v>
+      </c>
+      <c r="C32">
+        <v>23</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.579831932773109</v>
+      </c>
+      <c r="F32" s="3">
+        <f t="shared" si="1"/>
+        <v>97104</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>195840</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="4"/>
+        <v>0.715909090909091</v>
+      </c>
+      <c r="J32" s="3">
+        <f t="shared" si="5"/>
+        <v>689356.8</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="6"/>
+        <v>148084.0681</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>46350</v>
+      </c>
+      <c r="C33">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="0"/>
+        <v>0.609375</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" si="1"/>
+        <v>118656</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>222480</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="4"/>
+        <v>0.72972972972973</v>
+      </c>
+      <c r="J33" s="3">
+        <f t="shared" si="5"/>
+        <v>823176</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="6"/>
+        <v>164844.8388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>52500</v>
+      </c>
+      <c r="C34">
+        <v>26</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" ref="E34:E56" si="7">0.06*C34/(1+0.06*C34)</f>
+        <v>0.609375</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" si="1"/>
+        <v>134400</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>252000</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="I34" s="2">
+        <f t="shared" si="4"/>
+        <v>0.72972972972973</v>
+      </c>
+      <c r="J34" s="3">
+        <f t="shared" si="5"/>
+        <v>932400</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="6"/>
+        <v>182859.0567</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>59250</v>
+      </c>
+      <c r="C35">
+        <v>26</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <f t="shared" si="7"/>
+        <v>0.609375</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ref="F35:F56" si="8">B35/(1-E35)</f>
+        <v>151680</v>
+      </c>
+      <c r="G35">
+        <f t="shared" ref="G35:G56" si="9">B35*4.8</f>
+        <v>284400</v>
+      </c>
+      <c r="H35">
+        <f t="shared" ref="H35:H56" si="10">C35+19*D35</f>
+        <v>45</v>
+      </c>
+      <c r="I35" s="2">
+        <f t="shared" ref="I35:I56" si="11">0.06*H35/(1+0.06*H35)</f>
+        <v>0.72972972972973</v>
+      </c>
+      <c r="J35" s="3">
+        <f t="shared" ref="J35:J56" si="12">G35/(1-I35)</f>
+        <v>1052280</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:K56" si="13">7.6591*A35*A35*A35-108.55*A35*A35+798.28*A35-518.31</f>
+        <v>202172.6764</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>65250</v>
+      </c>
+      <c r="C36">
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <f t="shared" si="7"/>
+        <v>0.618320610687023</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" si="8"/>
+        <v>170955</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="9"/>
+        <v>313200</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" si="11"/>
+        <v>0.734042553191489</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="12"/>
+        <v>1177632</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="13"/>
+        <v>222831.6525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>72000</v>
+      </c>
+      <c r="C37">
+        <v>27</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" si="7"/>
+        <v>0.618320610687023</v>
+      </c>
+      <c r="F37" s="3">
+        <f t="shared" si="8"/>
+        <v>188640</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="9"/>
+        <v>345600</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="10"/>
+        <v>46</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="11"/>
+        <v>0.734042553191489</v>
+      </c>
+      <c r="J37" s="3">
+        <f t="shared" si="12"/>
+        <v>1299456</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="13"/>
+        <v>244881.9396</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>78000</v>
+      </c>
+      <c r="C38">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="7"/>
+        <v>0.609375</v>
+      </c>
+      <c r="F38" s="3">
+        <f t="shared" si="8"/>
+        <v>199680</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="9"/>
+        <v>374400</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="10"/>
+        <v>45</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="11"/>
+        <v>0.72972972972973</v>
+      </c>
+      <c r="J38" s="3">
+        <f t="shared" si="12"/>
+        <v>1385280</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="13"/>
+        <v>268369.4923</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>84300</v>
+      </c>
+      <c r="C39">
+        <v>28</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <f t="shared" si="7"/>
+        <v>0.626865671641791</v>
+      </c>
+      <c r="F39" s="3">
+        <f t="shared" si="8"/>
+        <v>225924</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="9"/>
+        <v>404640</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="11"/>
+        <v>0.738219895287958</v>
+      </c>
+      <c r="J39" s="3">
+        <f t="shared" si="12"/>
+        <v>1545724.8</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="13"/>
+        <v>293340.2652</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>91050</v>
+      </c>
+      <c r="C40">
+        <v>29</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <f t="shared" si="7"/>
+        <v>0.635036496350365</v>
+      </c>
+      <c r="F40" s="3">
+        <f t="shared" si="8"/>
+        <v>249477</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="9"/>
+        <v>437040</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="11"/>
+        <v>0.742268041237113</v>
+      </c>
+      <c r="J40" s="3">
+        <f t="shared" si="12"/>
+        <v>1695715.2</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="13"/>
+        <v>319840.2129</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>98100</v>
+      </c>
+      <c r="C41">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <f t="shared" si="7"/>
+        <v>0.635036496350365</v>
+      </c>
+      <c r="F41" s="3">
+        <f t="shared" si="8"/>
+        <v>268794</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="9"/>
+        <v>470880</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="I41" s="2">
+        <f t="shared" si="11"/>
+        <v>0.742268041237113</v>
+      </c>
+      <c r="J41" s="3">
+        <f t="shared" si="12"/>
+        <v>1827014.4</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="13"/>
+        <v>347915.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>105600</v>
+      </c>
+      <c r="C42">
+        <v>29</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="7"/>
+        <v>0.635036496350365</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="8"/>
+        <v>289344</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="9"/>
+        <v>506880</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="I42" s="2">
+        <f t="shared" si="11"/>
+        <v>0.742268041237113</v>
+      </c>
+      <c r="J42" s="3">
+        <f t="shared" si="12"/>
+        <v>1966694.4</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="13"/>
+        <v>377611.4511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>113400</v>
+      </c>
+      <c r="C43">
+        <v>29</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <f t="shared" si="7"/>
+        <v>0.635036496350365</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="8"/>
+        <v>310716</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="9"/>
+        <v>544320</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" si="11"/>
+        <v>0.742268041237113</v>
+      </c>
+      <c r="J43" s="3">
+        <f t="shared" si="12"/>
+        <v>2111961.6</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="13"/>
+        <v>408974.6508</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>121500</v>
+      </c>
+      <c r="C44">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <f t="shared" si="7"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" si="8"/>
+        <v>340200</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="9"/>
+        <v>583200</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="11"/>
+        <v>0.746192893401015</v>
+      </c>
+      <c r="J44" s="3">
+        <f t="shared" si="12"/>
+        <v>2297808</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="13"/>
+        <v>442050.8437</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>130050</v>
+      </c>
+      <c r="C45">
+        <v>30</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <f t="shared" si="7"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" si="8"/>
+        <v>364140</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="9"/>
+        <v>624240</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="11"/>
+        <v>0.746192893401015</v>
+      </c>
+      <c r="J45" s="3">
+        <f t="shared" si="12"/>
+        <v>2459505.6</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="13"/>
+        <v>476885.9844</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>139200</v>
+      </c>
+      <c r="C46">
+        <v>30</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="7"/>
+        <v>0.642857142857143</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="8"/>
+        <v>389760</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="9"/>
+        <v>668160</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="11"/>
+        <v>0.746192893401015</v>
+      </c>
+      <c r="J46" s="3">
+        <f t="shared" si="12"/>
+        <v>2632550.4</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="13"/>
+        <v>513526.0275</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>148800</v>
+      </c>
+      <c r="C47">
+        <v>31</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <f t="shared" si="7"/>
+        <v>0.65034965034965</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="8"/>
+        <v>425568</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="9"/>
+        <v>714240</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="10"/>
+        <v>50</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="11"/>
+        <v>0.75</v>
+      </c>
+      <c r="J47" s="3">
+        <f t="shared" si="12"/>
+        <v>2856960</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="13"/>
+        <v>552016.9276</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48"/>
+      <c r="C48">
+        <v>500</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <f t="shared" si="7"/>
+        <v>0.967741935483871</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="10"/>
+        <v>519</v>
+      </c>
+      <c r="I48" s="2">
+        <f t="shared" si="11"/>
+        <v>0.968886123210952</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="13"/>
+        <v>592404.6393</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>175500</v>
+      </c>
+      <c r="C49">
+        <v>33</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <f t="shared" si="7"/>
+        <v>0.664429530201342</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="8"/>
+        <v>522990</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="9"/>
+        <v>842400</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="I49" s="2">
+        <f t="shared" si="11"/>
+        <v>0.757281553398058</v>
+      </c>
+      <c r="J49" s="3">
+        <f t="shared" si="12"/>
+        <v>3470688</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="13"/>
+        <v>634735.1172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>187500</v>
+      </c>
+      <c r="C50">
+        <v>33</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <f t="shared" si="7"/>
+        <v>0.664429530201342</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="8"/>
+        <v>558750</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="9"/>
+        <v>900000</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" si="11"/>
+        <v>0.757281553398058</v>
+      </c>
+      <c r="J50" s="3">
+        <f t="shared" si="12"/>
+        <v>3708000</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="13"/>
+        <v>679054.3159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>204000</v>
+      </c>
+      <c r="C51">
+        <v>35</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <f t="shared" si="7"/>
+        <v>0.67741935483871</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="8"/>
+        <v>632400</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="9"/>
+        <v>979200</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="10"/>
+        <v>54</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="11"/>
+        <v>0.764150943396226</v>
+      </c>
+      <c r="J51" s="3">
+        <f t="shared" si="12"/>
+        <v>4151808</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="13"/>
+        <v>725408.19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>215800</v>
+      </c>
+      <c r="C52">
+        <v>36</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <f t="shared" si="7"/>
+        <v>0.683544303797468</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="8"/>
+        <v>681928</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="9"/>
+        <v>1035840</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="11"/>
+        <v>0.767441860465116</v>
+      </c>
+      <c r="J52" s="3">
+        <f t="shared" si="12"/>
+        <v>4454112</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="13"/>
+        <v>773842.6941</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>231000</v>
+      </c>
+      <c r="C53">
+        <v>36</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2">
+        <f t="shared" si="7"/>
+        <v>0.683544303797468</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="8"/>
+        <v>729960</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="9"/>
+        <v>1108800</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="10"/>
+        <v>55</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="11"/>
+        <v>0.767441860465116</v>
+      </c>
+      <c r="J53" s="3">
+        <f t="shared" si="12"/>
+        <v>4767840</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="13"/>
+        <v>824403.7828</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>242000</v>
+      </c>
+      <c r="C54">
+        <v>37</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <f t="shared" si="7"/>
+        <v>0.68944099378882</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="8"/>
+        <v>779240</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="9"/>
+        <v>1161600</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="11"/>
+        <v>0.770642201834862</v>
+      </c>
+      <c r="J54" s="3">
+        <f t="shared" si="12"/>
+        <v>5064576</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="13"/>
+        <v>877137.4107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>258000</v>
+      </c>
+      <c r="C55">
+        <v>38</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <f t="shared" si="7"/>
+        <v>0.695121951219512</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="8"/>
+        <v>846240</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="9"/>
+        <v>1238400</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="10"/>
+        <v>57</v>
+      </c>
+      <c r="I55" s="2">
+        <f t="shared" si="11"/>
+        <v>0.773755656108597</v>
+      </c>
+      <c r="J55" s="3">
+        <f t="shared" si="12"/>
+        <v>5473728</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="13"/>
+        <v>932089.5324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>280000</v>
+      </c>
+      <c r="C56">
+        <v>38</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <f t="shared" si="7"/>
+        <v>0.695121951219512</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="8"/>
+        <v>918400</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="9"/>
+        <v>1344000</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="10"/>
+        <v>57</v>
+      </c>
+      <c r="I56" s="2">
+        <f t="shared" si="11"/>
+        <v>0.773755656108597</v>
+      </c>
+      <c r="J56" s="3">
+        <f t="shared" si="12"/>
+        <v>5940480</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="13"/>
+        <v>989306.1025</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="12.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16">
+      <c r="A1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B1" t="s">
+        <v>623</v>
+      </c>
+      <c r="C1" t="s">
+        <v>624</v>
+      </c>
+      <c r="F1" t="s">
+        <v>625</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>2</v>
+      </c>
+      <c r="I1">
+        <v>3</v>
+      </c>
+      <c r="J1">
+        <v>4</v>
+      </c>
+      <c r="K1">
+        <v>5</v>
+      </c>
+      <c r="L1">
+        <v>6</v>
+      </c>
+      <c r="M1">
+        <v>7</v>
+      </c>
+      <c r="N1">
+        <v>8</v>
+      </c>
+      <c r="O1">
+        <v>9</v>
+      </c>
+      <c r="P1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <f>A2/(A2+B2)</f>
+        <v>0.833333333333333</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <v>15</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>25</v>
+      </c>
+      <c r="M2">
+        <v>30</v>
+      </c>
+      <c r="N2">
+        <v>35</v>
+      </c>
+      <c r="O2">
+        <v>40</v>
+      </c>
+      <c r="P2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <f>A3/(A3+B3)</f>
+        <v>0.869565217391304</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>15</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <v>25</v>
+      </c>
+      <c r="K3">
+        <v>30</v>
+      </c>
+      <c r="L3">
+        <v>35</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
+      </c>
+      <c r="N3">
+        <v>45</v>
+      </c>
+      <c r="O3">
+        <v>50</v>
+      </c>
+      <c r="P3">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>40</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C11" si="0">A4/(A4+B4)</f>
+        <v>0.882352941176471</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="G4">
+        <v>20</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
+      </c>
+      <c r="J4">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+      <c r="L4">
+        <v>45</v>
+      </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>55</v>
+      </c>
+      <c r="O4">
+        <v>60</v>
+      </c>
+      <c r="P4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5">
+        <v>400</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.888888888888889</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="G5">
+        <v>30</v>
+      </c>
+      <c r="H5">
+        <v>35</v>
+      </c>
+      <c r="I5">
+        <v>40</v>
+      </c>
+      <c r="J5">
+        <v>45</v>
+      </c>
+      <c r="K5">
+        <v>50</v>
+      </c>
+      <c r="L5">
+        <v>55</v>
+      </c>
+      <c r="M5">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <v>65</v>
+      </c>
+      <c r="O5">
+        <v>70</v>
+      </c>
+      <c r="P5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6">
+        <v>500</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>0.892857142857143</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="G6">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>45</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+      <c r="J6">
+        <v>55</v>
+      </c>
+      <c r="K6">
+        <v>60</v>
+      </c>
+      <c r="L6">
+        <v>65</v>
+      </c>
+      <c r="M6">
+        <v>70</v>
+      </c>
+      <c r="N6">
+        <v>75</v>
+      </c>
+      <c r="O6">
+        <v>80</v>
+      </c>
+      <c r="P6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7">
+        <v>600</v>
+      </c>
+      <c r="B7">
+        <v>70</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>0.895522388059702</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="H7">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>60</v>
+      </c>
+      <c r="J7">
+        <v>65</v>
+      </c>
+      <c r="K7">
+        <v>70</v>
+      </c>
+      <c r="L7">
+        <v>75</v>
+      </c>
+      <c r="M7">
+        <v>80</v>
+      </c>
+      <c r="N7">
+        <v>85</v>
+      </c>
+      <c r="O7">
+        <v>90</v>
+      </c>
+      <c r="P7">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>600</v>
+      </c>
+      <c r="B12">
+        <v>95</v>
+      </c>
+      <c r="C12">
+        <f>A12/(A12+B12)</f>
+        <v>0.863309352517986</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -17584,10 +17584,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B12" sqref="B12:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17921,6 +17921,126 @@
         <v>0.863309352517986</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>700</v>
+      </c>
+      <c r="B13">
+        <v>95</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C19" si="1">A13/(A13+B13)</f>
+        <v>0.880503144654088</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>800</v>
+      </c>
+      <c r="B14">
+        <v>95</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.893854748603352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>900</v>
+      </c>
+      <c r="B15">
+        <v>95</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.904522613065327</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>1000</v>
+      </c>
+      <c r="B16">
+        <v>95</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.91324200913242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>1100</v>
+      </c>
+      <c r="B17">
+        <v>95</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.920502092050209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>1200</v>
+      </c>
+      <c r="B18">
+        <v>95</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>0.926640926640927</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>1300</v>
+      </c>
+      <c r="B19">
+        <v>95</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>0.931899641577061</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>1400</v>
+      </c>
+      <c r="B20">
+        <v>95</v>
+      </c>
+      <c r="C20">
+        <f>A20/(A20+B20)</f>
+        <v>0.936454849498328</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>1500</v>
+      </c>
+      <c r="B21">
+        <v>95</v>
+      </c>
+      <c r="C21">
+        <f>A21/(A21+B21)</f>
+        <v>0.940438871473354</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>1600</v>
+      </c>
+      <c r="B22">
+        <v>95</v>
+      </c>
+      <c r="C22">
+        <f>A22/(A22+B22)</f>
+        <v>0.943952802359882</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17790" activeTab="3"/>
+    <workbookView windowWidth="16260" windowHeight="17640" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="塔的价值" sheetId="1" r:id="rId1"/>
@@ -1920,14 +1920,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0.0_ "/>
+    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1945,17 +1945,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1974,19 +1968,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1998,7 +1992,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2013,6 +2007,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2021,17 +2022,37 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2047,38 +2068,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2091,7 +2091,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2103,7 +2157,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2115,25 +2181,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2145,19 +2199,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2169,49 +2241,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2227,54 +2275,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2285,17 +2285,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2318,32 +2327,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2366,8 +2366,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2387,148 +2387,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2539,19 +2539,19 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -2563,54 +2563,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4785,8 +4785,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9213850" y="4016375"/>
-        <a:ext cx="4848225" cy="2743200"/>
+        <a:off x="8056880" y="4980305"/>
+        <a:ext cx="4208145" cy="3413760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4815,8 +4815,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10061575" y="796925"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="8721725" y="964565"/>
+        <a:ext cx="4023360" cy="3413760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5093,7 +5093,7 @@
       <selection activeCell="H1" sqref="A$1:G$1048576 H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="4" max="4" width="34.5" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
@@ -9299,11 +9299,11 @@
   <sheetPr/>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="D44" workbookViewId="0">
+      <selection activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="4" max="4" width="34.5" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
@@ -9407,21 +9407,21 @@
         <v>12</v>
       </c>
       <c r="I2">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="J2">
         <v>1.2</v>
       </c>
       <c r="K2" s="3">
         <f>I2/J2</f>
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="L2" s="4">
         <f>G2/K2</f>
-        <v>6.66666666666667</v>
+        <v>3.33333333333333</v>
       </c>
       <c r="M2" s="5">
-        <v>5.83</v>
+        <v>3.48</v>
       </c>
       <c r="N2" t="s">
         <v>536</v>
@@ -9459,18 +9459,18 @@
         <v>12</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>1.2</v>
       </c>
       <c r="K3" s="3">
         <f t="shared" ref="K3:K34" si="0">I3/J3</f>
-        <v>14.1666666666667</v>
+        <v>28.3333333333333</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" ref="L3:L47" si="1">G3/K3</f>
-        <v>7.05882352941176</v>
+        <v>3.52941176470588</v>
       </c>
       <c r="M3" s="5"/>
       <c r="N3" t="s">
@@ -9520,18 +9520,18 @@
         <v>12</v>
       </c>
       <c r="I4">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="J4">
         <v>1.2</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="0"/>
-        <v>36.6666666666667</v>
+        <v>73.3333333333333</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="1"/>
-        <v>6.81818181818182</v>
+        <v>3.40909090909091</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" t="s">
@@ -9581,18 +9581,18 @@
         <v>12</v>
       </c>
       <c r="I5">
-        <v>89</v>
+        <v>160</v>
       </c>
       <c r="J5">
         <v>1.2</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
-        <v>74.1666666666667</v>
+        <v>133.333333333333</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="1"/>
-        <v>6.06741573033708</v>
+        <v>3.375</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" t="s">
@@ -9642,18 +9642,18 @@
         <v>12</v>
       </c>
       <c r="I6">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="J6">
         <v>0.9</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="0"/>
-        <v>232.222222222222</v>
+        <v>266.666666666667</v>
       </c>
       <c r="L6" s="4">
         <f t="shared" si="1"/>
-        <v>3.22966507177033</v>
+        <v>2.8125</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" t="s">
@@ -9706,18 +9706,18 @@
         <v>12</v>
       </c>
       <c r="I7">
-        <v>74</v>
+        <v>150</v>
       </c>
       <c r="J7">
         <v>1.2</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="0"/>
-        <v>61.6666666666667</v>
+        <v>125</v>
       </c>
       <c r="L7" s="4">
         <f t="shared" si="1"/>
-        <v>7.13513513513513</v>
+        <v>3.52</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" t="s">
@@ -9766,18 +9766,18 @@
         <v>12</v>
       </c>
       <c r="I8">
-        <v>149</v>
+        <v>300</v>
       </c>
       <c r="J8">
         <v>1.2</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="0"/>
-        <v>124.166666666667</v>
+        <v>250</v>
       </c>
       <c r="L8" s="4">
         <f t="shared" si="1"/>
-        <v>7.08724832214765</v>
+        <v>3.52</v>
       </c>
       <c r="M8" s="5"/>
       <c r="N8" t="s">
@@ -9826,18 +9826,18 @@
         <v>210</v>
       </c>
       <c r="I9">
-        <v>299</v>
+        <v>600</v>
       </c>
       <c r="J9">
         <v>1.2</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="0"/>
-        <v>249.166666666667</v>
+        <v>500</v>
       </c>
       <c r="L9" s="4">
         <f t="shared" si="1"/>
-        <v>6.18060200668896</v>
+        <v>3.08</v>
       </c>
       <c r="M9" s="5"/>
       <c r="N9" t="s">
@@ -10006,18 +10006,18 @@
         <v>210</v>
       </c>
       <c r="I12">
-        <v>449</v>
+        <v>900</v>
       </c>
       <c r="J12">
         <v>1.2</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="0"/>
-        <v>374.166666666667</v>
+        <v>750</v>
       </c>
       <c r="L12" s="4">
         <f t="shared" si="1"/>
-        <v>7.21603563474387</v>
+        <v>3.6</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" t="s">
@@ -10066,18 +10066,18 @@
         <v>347</v>
       </c>
       <c r="I13">
-        <v>899</v>
+        <v>1600</v>
       </c>
       <c r="J13">
         <v>1.2</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="0"/>
-        <v>749.166666666667</v>
+        <v>1333.33333333333</v>
       </c>
       <c r="L13" s="4">
         <f t="shared" si="1"/>
-        <v>6.54060066740823</v>
+        <v>3.675</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" t="s">
@@ -10126,18 +10126,18 @@
         <v>210</v>
       </c>
       <c r="I14">
-        <v>799</v>
+        <v>1100</v>
       </c>
       <c r="J14">
         <v>1.2</v>
       </c>
       <c r="K14" s="3">
         <f t="shared" si="0"/>
-        <v>665.833333333333</v>
+        <v>916.666666666667</v>
       </c>
       <c r="L14" s="4">
         <f t="shared" si="1"/>
-        <v>5.25657071339174</v>
+        <v>3.81818181818182</v>
       </c>
       <c r="M14" s="5"/>
       <c r="N14" t="s">
@@ -10189,18 +10189,18 @@
         <v>347</v>
       </c>
       <c r="I15">
-        <v>1599</v>
+        <v>1900</v>
       </c>
       <c r="J15">
         <v>1.2</v>
       </c>
       <c r="K15" s="3">
         <f t="shared" si="0"/>
-        <v>1332.5</v>
+        <v>1583.33333333333</v>
       </c>
       <c r="L15" s="4">
         <f t="shared" si="1"/>
-        <v>4.8780487804878</v>
+        <v>4.10526315789474</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" t="s">
@@ -10372,18 +10372,18 @@
         <v>347</v>
       </c>
       <c r="I18">
-        <v>799</v>
+        <v>1800</v>
       </c>
       <c r="J18">
         <v>1.2</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="0"/>
-        <v>665.833333333333</v>
+        <v>1500</v>
       </c>
       <c r="L18" s="4">
         <f t="shared" si="1"/>
-        <v>8.71088861076345</v>
+        <v>3.86666666666667</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" t="s">
@@ -10419,18 +10419,18 @@
         <v>456</v>
       </c>
       <c r="I19">
-        <v>1599</v>
+        <v>3200</v>
       </c>
       <c r="J19">
         <v>1.2</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="0"/>
-        <v>1332.5</v>
+        <v>2666.66666666667</v>
       </c>
       <c r="L19" s="4">
         <f t="shared" si="1"/>
-        <v>8.48030018761726</v>
+        <v>4.2375</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" t="s">
@@ -10554,21 +10554,21 @@
         <v>12</v>
       </c>
       <c r="I22">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="J22">
         <v>1.1</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="0"/>
-        <v>13.6363636363636</v>
+        <v>27.2727272727273</v>
       </c>
       <c r="L22" s="4">
         <f t="shared" si="1"/>
-        <v>6.6</v>
+        <v>3.3</v>
       </c>
       <c r="M22" s="5">
-        <v>6.13</v>
+        <v>3.44</v>
       </c>
       <c r="N22" t="s">
         <v>553</v>
@@ -10600,18 +10600,18 @@
         <v>12</v>
       </c>
       <c r="I23">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="J23">
         <v>1.1</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="0"/>
-        <v>30.9090909090909</v>
+        <v>54.5454545454545</v>
       </c>
       <c r="L23" s="4">
         <f t="shared" si="1"/>
-        <v>5.82352941176471</v>
+        <v>3.3</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" t="s">
@@ -10644,18 +10644,18 @@
         <v>12</v>
       </c>
       <c r="I24">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J24">
         <v>1.1</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="0"/>
-        <v>71.8181818181818</v>
+        <v>81.8181818181818</v>
       </c>
       <c r="L24" s="4">
         <f t="shared" si="1"/>
-        <v>3.75949367088608</v>
+        <v>3.3</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" t="s">
@@ -10688,18 +10688,18 @@
         <v>12</v>
       </c>
       <c r="I25">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="J25">
         <v>1.1</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="0"/>
-        <v>31.8181818181818</v>
+        <v>63.6363636363636</v>
       </c>
       <c r="L25" s="4">
         <f t="shared" si="1"/>
-        <v>6.28571428571429</v>
+        <v>3.14285714285714</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" t="s">
@@ -10732,18 +10732,18 @@
         <v>12</v>
       </c>
       <c r="I26">
-        <v>71</v>
+        <v>140</v>
       </c>
       <c r="J26">
         <v>1.1</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="0"/>
-        <v>64.5454545454545</v>
+        <v>127.272727272727</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="1"/>
-        <v>5.88732394366197</v>
+        <v>2.98571428571429</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" t="s">
@@ -10820,18 +10820,18 @@
         <v>12</v>
       </c>
       <c r="I28">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="J28">
         <v>1.1</v>
       </c>
       <c r="K28" s="3">
         <f t="shared" si="0"/>
-        <v>42.7272727272727</v>
+        <v>63.6363636363636</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="1"/>
-        <v>5.14893617021277</v>
+        <v>3.45714285714286</v>
       </c>
       <c r="M28" s="5"/>
       <c r="N28" t="s">
@@ -10864,18 +10864,18 @@
         <v>12</v>
       </c>
       <c r="I29">
-        <v>127</v>
+        <v>210</v>
       </c>
       <c r="J29">
         <v>1.1</v>
       </c>
       <c r="K29" s="3">
         <f t="shared" si="0"/>
-        <v>115.454545454545</v>
+        <v>190.909090909091</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="1"/>
-        <v>5.71653543307087</v>
+        <v>3.45714285714286</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" t="s">
@@ -10908,18 +10908,18 @@
         <v>210</v>
       </c>
       <c r="I30">
-        <v>487</v>
+        <v>1000</v>
       </c>
       <c r="J30">
         <v>1.1</v>
       </c>
       <c r="K30" s="3">
         <f t="shared" si="0"/>
-        <v>442.727272727273</v>
+        <v>909.090909090909</v>
       </c>
       <c r="L30" s="4">
         <f t="shared" si="1"/>
-        <v>7.45379876796715</v>
+        <v>3.63</v>
       </c>
       <c r="M30" s="5"/>
       <c r="N30" t="s">
@@ -10952,18 +10952,18 @@
         <v>12</v>
       </c>
       <c r="I31">
-        <v>89</v>
+        <v>180</v>
       </c>
       <c r="J31">
         <v>1.1</v>
       </c>
       <c r="K31" s="3">
         <f t="shared" si="0"/>
-        <v>80.9090909090909</v>
+        <v>163.636363636364</v>
       </c>
       <c r="L31" s="4">
         <f t="shared" si="1"/>
-        <v>6.30337078651685</v>
+        <v>3.11666666666667</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" t="s">
@@ -10996,18 +10996,18 @@
         <v>210</v>
       </c>
       <c r="I32">
-        <v>279</v>
+        <v>600</v>
       </c>
       <c r="J32">
         <v>1.1</v>
       </c>
       <c r="K32" s="3">
         <f t="shared" si="0"/>
-        <v>253.636363636364</v>
+        <v>545.454545454545</v>
       </c>
       <c r="L32" s="4">
         <f t="shared" si="1"/>
-        <v>8.71326164874552</v>
+        <v>4.05166666666667</v>
       </c>
       <c r="M32" s="5"/>
       <c r="N32" t="s">
@@ -11040,18 +11040,18 @@
         <v>347</v>
       </c>
       <c r="I33">
-        <v>787</v>
+        <v>1600</v>
       </c>
       <c r="J33">
         <v>1.1</v>
       </c>
       <c r="K33" s="3">
         <f t="shared" si="0"/>
-        <v>715.454545454545</v>
+        <v>1454.54545454545</v>
       </c>
       <c r="L33" s="4">
         <f t="shared" si="1"/>
-        <v>7.40787801778907</v>
+        <v>3.64375</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" t="s">
@@ -11084,18 +11084,18 @@
         <v>210</v>
       </c>
       <c r="I34">
-        <v>219</v>
+        <v>400</v>
       </c>
       <c r="J34">
         <v>1.1</v>
       </c>
       <c r="K34" s="3">
         <f t="shared" si="0"/>
-        <v>199.090909090909</v>
+        <v>363.636363636364</v>
       </c>
       <c r="L34" s="4">
         <f t="shared" si="1"/>
-        <v>5.27397260273973</v>
+        <v>2.8875</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" t="s">
@@ -11128,18 +11128,18 @@
         <v>210</v>
       </c>
       <c r="I35">
-        <v>439</v>
+        <v>800</v>
       </c>
       <c r="J35">
         <v>1.1</v>
       </c>
       <c r="K35" s="3">
         <f t="shared" ref="K35:K66" si="3">I35/J35</f>
-        <v>399.090909090909</v>
+        <v>727.272727272727</v>
       </c>
       <c r="L35" s="4">
         <f t="shared" si="1"/>
-        <v>6.01366742596811</v>
+        <v>3.3</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" t="s">
@@ -11172,18 +11172,18 @@
         <v>347</v>
       </c>
       <c r="I36">
-        <v>879</v>
+        <v>1800</v>
       </c>
       <c r="J36">
         <v>1.1</v>
       </c>
       <c r="K36" s="3">
         <f t="shared" si="3"/>
-        <v>799.090909090909</v>
+        <v>1636.36363636364</v>
       </c>
       <c r="L36" s="4">
         <f t="shared" si="1"/>
-        <v>7.00796359499431</v>
+        <v>3.42222222222222</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" t="s">
@@ -11216,18 +11216,18 @@
         <v>210</v>
       </c>
       <c r="I37">
-        <v>329</v>
+        <v>600</v>
       </c>
       <c r="J37">
         <v>1.1</v>
       </c>
       <c r="K37" s="3">
         <f t="shared" si="3"/>
-        <v>299.090909090909</v>
+        <v>545.454545454545</v>
       </c>
       <c r="L37" s="4">
         <f t="shared" si="1"/>
-        <v>6.01823708206687</v>
+        <v>3.3</v>
       </c>
       <c r="M37" s="5"/>
       <c r="N37" t="s">
@@ -11260,18 +11260,18 @@
         <v>210</v>
       </c>
       <c r="I38">
-        <v>659</v>
+        <v>1200</v>
       </c>
       <c r="J38">
         <v>1.1</v>
       </c>
       <c r="K38" s="3">
         <f t="shared" si="3"/>
-        <v>599.090909090909</v>
+        <v>1090.90909090909</v>
       </c>
       <c r="L38" s="4">
         <f t="shared" si="1"/>
-        <v>6.00910470409712</v>
+        <v>3.3</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" t="s">
@@ -11304,18 +11304,18 @@
         <v>347</v>
       </c>
       <c r="I39">
-        <v>1249</v>
+        <v>2300</v>
       </c>
       <c r="J39">
         <v>1.1</v>
       </c>
       <c r="K39" s="3">
         <f t="shared" si="3"/>
-        <v>1135.45454545455</v>
+        <v>2090.90909090909</v>
       </c>
       <c r="L39" s="4">
         <f t="shared" si="1"/>
-        <v>5.90072057646117</v>
+        <v>3.20434782608696</v>
       </c>
       <c r="M39" s="5"/>
       <c r="N39" t="s">
@@ -11348,18 +11348,18 @@
         <v>210</v>
       </c>
       <c r="I40">
-        <v>449</v>
+        <v>900</v>
       </c>
       <c r="J40">
         <v>1.1</v>
       </c>
       <c r="K40" s="3">
         <f t="shared" si="3"/>
-        <v>408.181818181818</v>
+        <v>818.181818181818</v>
       </c>
       <c r="L40" s="4">
         <f t="shared" si="1"/>
-        <v>6.61469933184855</v>
+        <v>3.3</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" t="s">
@@ -11392,18 +11392,18 @@
         <v>347</v>
       </c>
       <c r="I41">
-        <v>799</v>
+        <v>1800</v>
       </c>
       <c r="J41">
         <v>1.1</v>
       </c>
       <c r="K41" s="3">
         <f t="shared" si="3"/>
-        <v>726.363636363636</v>
+        <v>1636.36363636364</v>
       </c>
       <c r="L41" s="4">
         <f t="shared" si="1"/>
-        <v>7.57196495619525</v>
+        <v>3.36111111111111</v>
       </c>
       <c r="M41" s="5"/>
       <c r="N41" t="s">
@@ -11436,18 +11436,18 @@
         <v>456</v>
       </c>
       <c r="I42">
-        <v>1429</v>
+        <v>3000</v>
       </c>
       <c r="J42">
         <v>1.1</v>
       </c>
       <c r="K42" s="3">
         <f t="shared" si="3"/>
-        <v>1299.09090909091</v>
+        <v>2727.27272727273</v>
       </c>
       <c r="L42" s="4">
         <f t="shared" si="1"/>
-        <v>6.85094471658503</v>
+        <v>3.26333333333333</v>
       </c>
       <c r="M42" s="5"/>
       <c r="N42" t="s">
@@ -11480,18 +11480,18 @@
         <v>210</v>
       </c>
       <c r="I43">
-        <v>629</v>
+        <v>1300</v>
       </c>
       <c r="J43">
         <v>1.1</v>
       </c>
       <c r="K43" s="3">
         <f t="shared" si="3"/>
-        <v>571.818181818182</v>
+        <v>1181.81818181818</v>
       </c>
       <c r="L43" s="4">
         <f t="shared" si="1"/>
-        <v>6.64546899841018</v>
+        <v>3.21538461538462</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" t="s">
@@ -11524,18 +11524,18 @@
         <v>347</v>
       </c>
       <c r="I44">
-        <v>1089</v>
+        <v>2000</v>
       </c>
       <c r="J44">
         <v>1.1</v>
       </c>
       <c r="K44" s="3">
         <f t="shared" si="3"/>
-        <v>990</v>
+        <v>1818.18181818182</v>
       </c>
       <c r="L44" s="4">
         <f t="shared" si="1"/>
-        <v>6.26262626262626</v>
+        <v>3.41</v>
       </c>
       <c r="M44" s="5"/>
       <c r="N44" t="s">
@@ -11700,18 +11700,18 @@
         <v>12</v>
       </c>
       <c r="I48">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="J48">
         <v>1.3</v>
       </c>
       <c r="K48" s="3">
         <f t="shared" si="3"/>
-        <v>6.92307692307692</v>
+        <v>20.7692307692308</v>
       </c>
       <c r="L48" s="4">
         <f t="shared" ref="L48:L79" si="4">G48/K48</f>
-        <v>10.1111111111111</v>
+        <v>3.37037037037037</v>
       </c>
       <c r="M48" s="5">
         <v>9.61</v>
@@ -11746,18 +11746,18 @@
         <v>12</v>
       </c>
       <c r="I49">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="J49">
         <v>1.3</v>
       </c>
       <c r="K49" s="3">
         <f t="shared" si="3"/>
-        <v>13.0769230769231</v>
+        <v>39.2307692307692</v>
       </c>
       <c r="L49" s="4">
         <f t="shared" si="4"/>
-        <v>10.7058823529412</v>
+        <v>3.56862745098039</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" t="s">
@@ -11790,18 +11790,18 @@
         <v>12</v>
       </c>
       <c r="I50">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="J50">
         <v>1.3</v>
       </c>
       <c r="K50" s="3">
         <f t="shared" si="3"/>
-        <v>28.4615384615385</v>
+        <v>76.9230769230769</v>
       </c>
       <c r="L50" s="4">
         <f t="shared" si="4"/>
-        <v>7.72972972972973</v>
+        <v>2.86</v>
       </c>
       <c r="M50" s="5"/>
       <c r="N50" t="s">
@@ -11834,18 +11834,18 @@
         <v>12</v>
       </c>
       <c r="I51">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="J51">
         <v>1.3</v>
       </c>
       <c r="K51" s="3">
         <f t="shared" si="3"/>
-        <v>10.7692307692308</v>
+        <v>33.8461538461538</v>
       </c>
       <c r="L51" s="4">
         <f t="shared" si="4"/>
-        <v>11.1428571428571</v>
+        <v>3.54545454545455</v>
       </c>
       <c r="M51" s="5"/>
       <c r="N51" t="s">
@@ -11878,18 +11878,18 @@
         <v>12</v>
       </c>
       <c r="I52">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="J52">
         <v>1.3</v>
       </c>
       <c r="K52" s="3">
         <f t="shared" si="3"/>
-        <v>23.8461538461538</v>
+        <v>71.5384615384615</v>
       </c>
       <c r="L52" s="4">
         <f t="shared" si="4"/>
-        <v>10.4838709677419</v>
+        <v>3.49462365591398</v>
       </c>
       <c r="M52" s="5"/>
       <c r="N52" t="s">
@@ -11922,18 +11922,18 @@
         <v>12</v>
       </c>
       <c r="I53">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="J53">
         <v>1.3</v>
       </c>
       <c r="K53" s="3">
         <f t="shared" si="3"/>
-        <v>49.2307692307692</v>
+        <v>138.461538461538</v>
       </c>
       <c r="L53" s="4">
         <f t="shared" si="4"/>
-        <v>8.125</v>
+        <v>2.88888888888889</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" t="s">
@@ -15225,7 +15225,7 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="13.75"/>
@@ -17202,7 +17202,6 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48"/>
       <c r="C48">
         <v>500</v>
       </c>
@@ -17586,11 +17585,11 @@
   <sheetPr/>
   <dimension ref="A1:P22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="3" max="3" width="12.625"/>
   </cols>
@@ -17929,7 +17928,7 @@
         <v>95</v>
       </c>
       <c r="C13">
-        <f t="shared" ref="C13:C19" si="1">A13/(A13+B13)</f>
+        <f t="shared" ref="C13:C22" si="1">A13/(A13+B13)</f>
         <v>0.880503144654088</v>
       </c>
     </row>
@@ -18013,7 +18012,7 @@
         <v>95</v>
       </c>
       <c r="C20">
-        <f>A20/(A20+B20)</f>
+        <f t="shared" si="1"/>
         <v>0.936454849498328</v>
       </c>
     </row>
@@ -18025,7 +18024,7 @@
         <v>95</v>
       </c>
       <c r="C21">
-        <f>A21/(A21+B21)</f>
+        <f t="shared" si="1"/>
         <v>0.940438871473354</v>
       </c>
     </row>
@@ -18037,7 +18036,7 @@
         <v>95</v>
       </c>
       <c r="C22">
-        <f>A22/(A22+B22)</f>
+        <f t="shared" si="1"/>
         <v>0.943952802359882</v>
       </c>
     </row>

--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16260" windowHeight="17640" activeTab="1"/>
+    <workbookView windowWidth="18525" windowHeight="17790" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="塔的价值" sheetId="1" r:id="rId1"/>
     <sheet name="塔的价值和预期输出" sheetId="2" r:id="rId2"/>
     <sheet name="进攻怪" sheetId="3" r:id="rId3"/>
     <sheet name="命中公式" sheetId="4" r:id="rId4"/>
+    <sheet name="技能" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1576" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="763">
   <si>
     <t>序号</t>
   </si>
@@ -1913,6 +1914,399 @@
   </si>
   <si>
     <t>46-54</t>
+  </si>
+  <si>
+    <t>效果</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>基础伤害</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>持续</t>
+  </si>
+  <si>
+    <t>概率</t>
+  </si>
+  <si>
+    <t>范围</t>
+  </si>
+  <si>
+    <t>蓝耗</t>
+  </si>
+  <si>
+    <t>加成</t>
+  </si>
+  <si>
+    <t>加50%攻击力/攻速（九阳），持续10秒</t>
+  </si>
+  <si>
+    <t>小范围AOE</t>
+  </si>
+  <si>
+    <t>九阳8倍，北冥100%（掌门）</t>
+  </si>
+  <si>
+    <t>600/800/1000</t>
+  </si>
+  <si>
+    <t>单体持续控制</t>
+  </si>
+  <si>
+    <t>大力金刚指</t>
+  </si>
+  <si>
+    <t>单体控制</t>
+  </si>
+  <si>
+    <t>4/3/2</t>
+  </si>
+  <si>
+    <t>达摩八法</t>
+  </si>
+  <si>
+    <t>流星雨</t>
+  </si>
+  <si>
+    <t>800/1000/1200/1400</t>
+  </si>
+  <si>
+    <t>每秒伤害</t>
+  </si>
+  <si>
+    <t>降移速光环30/40/50/60%</t>
+  </si>
+  <si>
+    <t>罗汉伏魔功</t>
+  </si>
+  <si>
+    <t>物理暴击加眩晕6/10/14</t>
+  </si>
+  <si>
+    <t>20/30/40</t>
+  </si>
+  <si>
+    <t>少林罗汉阵</t>
+  </si>
+  <si>
+    <t>召唤罗汉攻击7/13/30</t>
+  </si>
+  <si>
+    <t>单体伤害减速法球45/60/75</t>
+  </si>
+  <si>
+    <t>加攻速100/200/300%</t>
+  </si>
+  <si>
+    <t>5/6/7</t>
+  </si>
+  <si>
+    <t>单位减防</t>
+  </si>
+  <si>
+    <t>60(英雄10)</t>
+  </si>
+  <si>
+    <t>九阳加封穴5秒</t>
+  </si>
+  <si>
+    <t>武当剑法</t>
+  </si>
+  <si>
+    <t>单体伤害</t>
+  </si>
+  <si>
+    <t>九阳变成500AOE</t>
+  </si>
+  <si>
+    <t>单体物理暴击6/9/12/15，减自己攻速5/10/15/10</t>
+  </si>
+  <si>
+    <t>25/30/35/40</t>
+  </si>
+  <si>
+    <t>太极剑法</t>
+  </si>
+  <si>
+    <t>AOE伤害</t>
+  </si>
+  <si>
+    <t>闪电链6/9/12/12个敌人</t>
+  </si>
+  <si>
+    <t>4级伤害为20000</t>
+  </si>
+  <si>
+    <t>攻击力光环 20/35/50%</t>
+  </si>
+  <si>
+    <t>网</t>
+  </si>
+  <si>
+    <t>3/4/5（BOSS 1/2/3)</t>
+  </si>
+  <si>
+    <t>武当心法</t>
+  </si>
+  <si>
+    <t>回蓝光环2/3/5</t>
+  </si>
+  <si>
+    <t>被动触发AOE</t>
+  </si>
+  <si>
+    <t>500/700/900/1100</t>
+  </si>
+  <si>
+    <t>真武七截阵</t>
+  </si>
+  <si>
+    <t>百分比伤害3/4/5%</t>
+  </si>
+  <si>
+    <t>1000/1500/2000</t>
+  </si>
+  <si>
+    <t>暗影突袭 单体伤害、减速</t>
+  </si>
+  <si>
+    <t>刀阵旋风</t>
+  </si>
+  <si>
+    <t>600/700/800</t>
+  </si>
+  <si>
+    <t>单体附加伤害</t>
+  </si>
+  <si>
+    <t>根须缠绕 单体伤害、控制</t>
+  </si>
+  <si>
+    <t>5/7/9(BOSS 3/5/7)</t>
+  </si>
+  <si>
+    <t>吼叫 范围加攻击力 40/80/120/250</t>
+  </si>
+  <si>
+    <t>嗜血 单体加攻速 40/60/80/120</t>
+  </si>
+  <si>
+    <t>旋风 范围减速</t>
+  </si>
+  <si>
+    <t>6/9/12/18</t>
+  </si>
+  <si>
+    <t>酸性炸弹 范围伤害减甲</t>
+  </si>
+  <si>
+    <t>九阳内力消耗减20</t>
+  </si>
+  <si>
+    <t>霜冻闪电 范围伤害减速</t>
+  </si>
+  <si>
+    <t>灭剑+绝剑</t>
+  </si>
+  <si>
+    <t>峨眉心法</t>
+  </si>
+  <si>
+    <t>百分比减血光环2%</t>
+  </si>
+  <si>
+    <t>900/1350/1800</t>
+  </si>
+  <si>
+    <t>九阴白骨爪</t>
+  </si>
+  <si>
+    <t>残废（手动释放）减速60/90/120%</t>
+  </si>
+  <si>
+    <t>截手九式</t>
+  </si>
+  <si>
+    <t>季风 每1.5秒一次范围伤害</t>
+  </si>
+  <si>
+    <t>闪电叉，最多伤害5个人</t>
+  </si>
+  <si>
+    <t>敲地板 减速40/60/80</t>
+  </si>
+  <si>
+    <t>吸血</t>
+  </si>
+  <si>
+    <t>400/3000/20000</t>
+  </si>
+  <si>
+    <t>青竹镖</t>
+  </si>
+  <si>
+    <t>六合刀法</t>
+  </si>
+  <si>
+    <t>刀刃风暴</t>
+  </si>
+  <si>
+    <t>九阳加减速效果</t>
+  </si>
+  <si>
+    <t>铜锤手</t>
+  </si>
+  <si>
+    <t>单体伤害控制</t>
+  </si>
+  <si>
+    <t>5/6/7/8</t>
+  </si>
+  <si>
+    <t>疯魔杖法</t>
+  </si>
+  <si>
+    <t>召唤蛇/大蛇/巨蛇</t>
+  </si>
+  <si>
+    <t>逍遥游</t>
+  </si>
+  <si>
+    <t>变羊</t>
+  </si>
+  <si>
+    <t>20/40/60（英雄5/7/9)</t>
+  </si>
+  <si>
+    <t>丐帮心法</t>
+  </si>
+  <si>
+    <t>瞬间杀死一个单位，并增加血量5/10/15%的攻击力，对BOSS无效</t>
+  </si>
+  <si>
+    <t>丐帮身法</t>
+  </si>
+  <si>
+    <t>攻击有几率疯狂300/400/500%攻速</t>
+  </si>
+  <si>
+    <t>15/20/25/30</t>
+  </si>
+  <si>
+    <t>打狗棒法</t>
+  </si>
+  <si>
+    <t>召唤恶狗3/5/7/10</t>
+  </si>
+  <si>
+    <t>降龙十八掌</t>
+  </si>
+  <si>
+    <t>召唤神龙</t>
+  </si>
+  <si>
+    <t>骷髅箭 召唤全真道士</t>
+  </si>
+  <si>
+    <t>踩地板</t>
+  </si>
+  <si>
+    <t>3/4/5/7（BOSS 2/3/4/5)</t>
+  </si>
+  <si>
+    <t>AOE</t>
+  </si>
+  <si>
+    <t>同归剑法</t>
+  </si>
+  <si>
+    <t>火雨</t>
+  </si>
+  <si>
+    <t>九阳8倍</t>
+  </si>
+  <si>
+    <t>群体减速100%</t>
+  </si>
+  <si>
+    <t>10/15/20/25/30/35/40</t>
+  </si>
+  <si>
+    <t>直线AOE</t>
+  </si>
+  <si>
+    <t>后发先至</t>
+  </si>
+  <si>
+    <t>霜冻新星持续伤害减速</t>
+  </si>
+  <si>
+    <t>喷火</t>
+  </si>
+  <si>
+    <t>九阳流血</t>
+  </si>
+  <si>
+    <t>双手互搏</t>
+  </si>
+  <si>
+    <t>幻象</t>
+  </si>
+  <si>
+    <t>空明拳</t>
+  </si>
+  <si>
+    <t>金雁功</t>
+  </si>
+  <si>
+    <t>攻速光环30/45/60%</t>
+  </si>
+  <si>
+    <t>三花聚顶</t>
+  </si>
+  <si>
+    <t>闪电链6/9/12个敌人</t>
+  </si>
+  <si>
+    <t>范围AOE，几率造成伤害加深</t>
+  </si>
+  <si>
+    <t>20/25/30/35/40/45</t>
+  </si>
+  <si>
+    <t>等级立方的伤害</t>
+  </si>
+  <si>
+    <t>五雷咒</t>
+  </si>
+  <si>
+    <t>10-100</t>
+  </si>
+  <si>
+    <t>伤害加成法力*法力</t>
+  </si>
+  <si>
+    <t>玄冰咒</t>
+  </si>
+  <si>
+    <t>谷衣心法</t>
+  </si>
+  <si>
+    <t>每5秒获得大量内力</t>
+  </si>
+  <si>
+    <t>消耗50金钱，造成大量伤害</t>
+  </si>
+  <si>
+    <t>持续时间为0.5/1/1.5秒</t>
+  </si>
+  <si>
+    <t>0.5/1/1.5</t>
   </si>
 </sst>
 </file>
@@ -1920,14 +2314,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="8">
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
-    <numFmt numFmtId="179" formatCode="0_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1945,11 +2339,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1968,19 +2368,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1992,7 +2392,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2007,13 +2407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -2022,37 +2415,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2068,17 +2441,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2091,19 +2485,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2115,7 +2515,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2127,13 +2545,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2145,121 +2605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2275,6 +2621,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2285,26 +2679,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2327,23 +2712,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2366,8 +2760,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2387,171 +2781,174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
@@ -2560,57 +2957,60 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4785,8 +5185,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8056880" y="4980305"/>
-        <a:ext cx="4208145" cy="3413760"/>
+        <a:off x="9213850" y="4016375"/>
+        <a:ext cx="4848225" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4815,8 +5215,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8721725" y="964565"/>
-        <a:ext cx="4023360" cy="3413760"/>
+        <a:off x="10061575" y="796925"/>
+        <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -5093,7 +5493,7 @@
       <selection activeCell="H1" sqref="A$1:G$1048576 H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="34.5" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
@@ -9299,11 +9699,13 @@
   <sheetPr/>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" topLeftCell="D44" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N127"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="34.5" customWidth="1"/>
     <col min="5" max="5" width="12.25" customWidth="1"/>
@@ -9377,7 +9779,7 @@
       <c r="U1" t="s">
         <v>534</v>
       </c>
-      <c r="V1" s="7" t="s">
+      <c r="V1" s="8" t="s">
         <v>535</v>
       </c>
     </row>
@@ -9412,15 +9814,15 @@
       <c r="J2">
         <v>1.2</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2" s="4">
         <f>I2/J2</f>
         <v>60</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="5">
         <f>G2/K2</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="6">
         <v>3.48</v>
       </c>
       <c r="N2" t="s">
@@ -9464,15 +9866,15 @@
       <c r="J3">
         <v>1.2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3" s="4">
         <f t="shared" ref="K3:K34" si="0">I3/J3</f>
         <v>28.3333333333333</v>
       </c>
-      <c r="L3" s="4">
+      <c r="L3" s="5">
         <f t="shared" ref="L3:L47" si="1">G3/K3</f>
         <v>3.52941176470588</v>
       </c>
-      <c r="M3" s="5"/>
+      <c r="M3" s="6"/>
       <c r="N3" t="s">
         <v>539</v>
       </c>
@@ -9483,7 +9885,7 @@
         <f>O3*8</f>
         <v>400</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="Q3" s="5">
         <f t="shared" ref="Q3:Q17" si="2">G3/O3</f>
         <v>2</v>
       </c>
@@ -9525,15 +9927,15 @@
       <c r="J4">
         <v>1.2</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="4">
         <f t="shared" si="0"/>
         <v>73.3333333333333</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="5">
         <f t="shared" si="1"/>
         <v>3.40909090909091</v>
       </c>
-      <c r="M4" s="5"/>
+      <c r="M4" s="6"/>
       <c r="N4" t="s">
         <v>539</v>
       </c>
@@ -9544,7 +9946,7 @@
         <f>O4*8</f>
         <v>1600</v>
       </c>
-      <c r="Q4" s="4">
+      <c r="Q4" s="5">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
@@ -9586,15 +9988,15 @@
       <c r="J5">
         <v>1.2</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="4">
         <f t="shared" si="0"/>
         <v>133.333333333333</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="5">
         <f t="shared" si="1"/>
         <v>3.375</v>
       </c>
-      <c r="M5" s="5"/>
+      <c r="M5" s="6"/>
       <c r="N5" t="s">
         <v>539</v>
       </c>
@@ -9605,7 +10007,7 @@
         <f>O5*8</f>
         <v>3600</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q5" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -9647,15 +10049,15 @@
       <c r="J6">
         <v>0.9</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="4">
         <f t="shared" si="0"/>
         <v>266.666666666667</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="5">
         <f t="shared" si="1"/>
         <v>2.8125</v>
       </c>
-      <c r="M6" s="5"/>
+      <c r="M6" s="6"/>
       <c r="N6" t="s">
         <v>539</v>
       </c>
@@ -9666,7 +10068,7 @@
         <f>O6*8</f>
         <v>6400</v>
       </c>
-      <c r="Q6" s="4">
+      <c r="Q6" s="5">
         <f t="shared" si="2"/>
         <v>0.9375</v>
       </c>
@@ -9711,15 +10113,15 @@
       <c r="J7">
         <v>1.2</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="4">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="5">
         <f t="shared" si="1"/>
         <v>3.52</v>
       </c>
-      <c r="M7" s="5"/>
+      <c r="M7" s="6"/>
       <c r="N7" t="s">
         <v>542</v>
       </c>
@@ -9729,7 +10131,7 @@
       <c r="P7">
         <v>80</v>
       </c>
-      <c r="Q7" s="4">
+      <c r="Q7" s="5">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
@@ -9771,15 +10173,15 @@
       <c r="J8">
         <v>1.2</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="4">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="5">
         <f t="shared" si="1"/>
         <v>3.52</v>
       </c>
-      <c r="M8" s="5"/>
+      <c r="M8" s="6"/>
       <c r="N8" t="s">
         <v>542</v>
       </c>
@@ -9789,7 +10191,7 @@
       <c r="P8">
         <v>320</v>
       </c>
-      <c r="Q8" s="4">
+      <c r="Q8" s="5">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
@@ -9831,15 +10233,15 @@
       <c r="J9">
         <v>1.2</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="4">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="5">
         <f t="shared" si="1"/>
         <v>3.08</v>
       </c>
-      <c r="M9" s="5"/>
+      <c r="M9" s="6"/>
       <c r="N9" t="s">
         <v>542</v>
       </c>
@@ -9849,7 +10251,7 @@
       <c r="P9">
         <v>720</v>
       </c>
-      <c r="Q9" s="4">
+      <c r="Q9" s="5">
         <f t="shared" si="2"/>
         <v>2.13888888888889</v>
       </c>
@@ -9891,15 +10293,15 @@
       <c r="J10">
         <v>1.2</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="4">
         <f t="shared" si="0"/>
         <v>365.833333333333</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="5">
         <f t="shared" si="1"/>
         <v>3.49886104783599</v>
       </c>
-      <c r="M10" s="5"/>
+      <c r="M10" s="6"/>
       <c r="N10" t="s">
         <v>543</v>
       </c>
@@ -9909,7 +10311,7 @@
       <c r="P10">
         <v>1000</v>
       </c>
-      <c r="Q10" s="4">
+      <c r="Q10" s="5">
         <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
@@ -9951,15 +10353,15 @@
       <c r="J11">
         <v>1.2</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="4">
         <f t="shared" si="0"/>
         <v>732.5</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="5">
         <f t="shared" si="1"/>
         <v>3.1098976109215</v>
       </c>
-      <c r="M11" s="5"/>
+      <c r="M11" s="6"/>
       <c r="N11" t="s">
         <v>543</v>
       </c>
@@ -9969,7 +10371,7 @@
       <c r="P11">
         <v>4000</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="Q11" s="5">
         <f t="shared" si="2"/>
         <v>0.5695</v>
       </c>
@@ -10011,15 +10413,15 @@
       <c r="J12">
         <v>1.2</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="4">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="5">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="M12" s="5"/>
+      <c r="M12" s="6"/>
       <c r="N12" t="s">
         <v>545</v>
       </c>
@@ -10029,7 +10431,7 @@
       <c r="P12">
         <v>6000</v>
       </c>
-      <c r="Q12" s="4">
+      <c r="Q12" s="5">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
@@ -10071,15 +10473,15 @@
       <c r="J13">
         <v>1.2</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="4">
         <f t="shared" si="0"/>
         <v>1333.33333333333</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="5">
         <f t="shared" si="1"/>
         <v>3.675</v>
       </c>
-      <c r="M13" s="5"/>
+      <c r="M13" s="6"/>
       <c r="N13" t="s">
         <v>545</v>
       </c>
@@ -10089,7 +10491,7 @@
       <c r="P13">
         <v>24000</v>
       </c>
-      <c r="Q13" s="4">
+      <c r="Q13" s="5">
         <f t="shared" si="2"/>
         <v>0.204166666666667</v>
       </c>
@@ -10131,15 +10533,15 @@
       <c r="J14">
         <v>1.2</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="4">
         <f t="shared" si="0"/>
         <v>916.666666666667</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="5">
         <f t="shared" si="1"/>
         <v>3.81818181818182</v>
       </c>
-      <c r="M14" s="5"/>
+      <c r="M14" s="6"/>
       <c r="N14" t="s">
         <v>546</v>
       </c>
@@ -10149,7 +10551,7 @@
       <c r="P14">
         <v>800</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="5">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
@@ -10194,15 +10596,15 @@
       <c r="J15">
         <v>1.2</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="4">
         <f t="shared" si="0"/>
         <v>1583.33333333333</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="5">
         <f t="shared" si="1"/>
         <v>4.10526315789474</v>
       </c>
-      <c r="M15" s="5"/>
+      <c r="M15" s="6"/>
       <c r="N15" t="s">
         <v>546</v>
       </c>
@@ -10212,7 +10614,7 @@
       <c r="P15">
         <v>3200</v>
       </c>
-      <c r="Q15" s="4">
+      <c r="Q15" s="5">
         <f t="shared" si="2"/>
         <v>2.03125</v>
       </c>
@@ -10254,15 +10656,15 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="K16" s="3" t="e">
+      <c r="K16" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="4" t="e">
+      <c r="L16" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="5"/>
+      <c r="M16" s="6"/>
       <c r="N16" t="s">
         <v>548</v>
       </c>
@@ -10272,7 +10674,7 @@
       <c r="P16">
         <v>300</v>
       </c>
-      <c r="Q16" s="4">
+      <c r="Q16" s="5">
         <f t="shared" si="2"/>
         <v>23.3333333333333</v>
       </c>
@@ -10314,15 +10716,15 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="K17" s="3" t="e">
+      <c r="K17" s="4" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="4" t="e">
+      <c r="L17" s="5" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="5"/>
+      <c r="M17" s="6"/>
       <c r="N17" t="s">
         <v>548</v>
       </c>
@@ -10332,7 +10734,7 @@
       <c r="P17">
         <v>1200</v>
       </c>
-      <c r="Q17" s="4">
+      <c r="Q17" s="5">
         <f t="shared" si="2"/>
         <v>9.83333333333333</v>
       </c>
@@ -10377,15 +10779,15 @@
       <c r="J18">
         <v>1.2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="4">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="5">
         <f t="shared" si="1"/>
         <v>3.86666666666667</v>
       </c>
-      <c r="M18" s="5"/>
+      <c r="M18" s="6"/>
       <c r="N18" t="s">
         <v>549</v>
       </c>
@@ -10424,15 +10826,15 @@
       <c r="J19">
         <v>1.2</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="4">
         <f t="shared" si="0"/>
         <v>2666.66666666667</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="5">
         <f t="shared" si="1"/>
         <v>4.2375</v>
       </c>
-      <c r="M19" s="5"/>
+      <c r="M19" s="6"/>
       <c r="N19" t="s">
         <v>549</v>
       </c>
@@ -10471,15 +10873,15 @@
       <c r="J20">
         <v>1.2</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="4">
         <f t="shared" si="0"/>
         <v>1833.33333333333</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="5">
         <f t="shared" si="1"/>
         <v>3.92727272727273</v>
       </c>
-      <c r="M20" s="5"/>
+      <c r="M20" s="6"/>
       <c r="N20" t="s">
         <v>551</v>
       </c>
@@ -10515,15 +10917,15 @@
       <c r="J21">
         <v>0.9</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="4">
         <f t="shared" si="0"/>
         <v>5776.66666666667</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="5">
         <f t="shared" si="1"/>
         <v>2.25043277553376</v>
       </c>
-      <c r="M21" s="5"/>
+      <c r="M21" s="6"/>
       <c r="N21" t="s">
         <v>552</v>
       </c>
@@ -10559,15 +10961,15 @@
       <c r="J22">
         <v>1.1</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="4">
         <f t="shared" si="0"/>
         <v>27.2727272727273</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="5">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M22" s="5">
+      <c r="M22" s="6">
         <v>3.44</v>
       </c>
       <c r="N22" t="s">
@@ -10605,15 +11007,15 @@
       <c r="J23">
         <v>1.1</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="4">
         <f t="shared" si="0"/>
         <v>54.5454545454545</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="5">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M23" s="5"/>
+      <c r="M23" s="6"/>
       <c r="N23" t="s">
         <v>553</v>
       </c>
@@ -10649,15 +11051,15 @@
       <c r="J24">
         <v>1.1</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="4">
         <f t="shared" si="0"/>
         <v>81.8181818181818</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="5">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M24" s="5"/>
+      <c r="M24" s="6"/>
       <c r="N24" t="s">
         <v>553</v>
       </c>
@@ -10693,15 +11095,15 @@
       <c r="J25">
         <v>1.1</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="4">
         <f t="shared" si="0"/>
         <v>63.6363636363636</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="5">
         <f t="shared" si="1"/>
         <v>3.14285714285714</v>
       </c>
-      <c r="M25" s="5"/>
+      <c r="M25" s="6"/>
       <c r="N25" t="s">
         <v>554</v>
       </c>
@@ -10737,15 +11139,15 @@
       <c r="J26">
         <v>1.1</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="4">
         <f t="shared" si="0"/>
         <v>127.272727272727</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="5">
         <f t="shared" si="1"/>
         <v>2.98571428571429</v>
       </c>
-      <c r="M26" s="5"/>
+      <c r="M26" s="6"/>
       <c r="N26" t="s">
         <v>554</v>
       </c>
@@ -10781,15 +11183,15 @@
       <c r="J27">
         <v>1.1</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="4">
         <f t="shared" si="0"/>
         <v>271.818181818182</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="5">
         <f t="shared" si="1"/>
         <v>2.75919732441472</v>
       </c>
-      <c r="M27" s="5"/>
+      <c r="M27" s="6"/>
       <c r="N27" t="s">
         <v>554</v>
       </c>
@@ -10825,15 +11227,15 @@
       <c r="J28">
         <v>1.1</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="4">
         <f t="shared" si="0"/>
         <v>63.6363636363636</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="5">
         <f t="shared" si="1"/>
         <v>3.45714285714286</v>
       </c>
-      <c r="M28" s="5"/>
+      <c r="M28" s="6"/>
       <c r="N28" t="s">
         <v>555</v>
       </c>
@@ -10869,15 +11271,15 @@
       <c r="J29">
         <v>1.1</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="4">
         <f t="shared" si="0"/>
         <v>190.909090909091</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="5">
         <f t="shared" si="1"/>
         <v>3.45714285714286</v>
       </c>
-      <c r="M29" s="5"/>
+      <c r="M29" s="6"/>
       <c r="N29" t="s">
         <v>556</v>
       </c>
@@ -10913,15 +11315,15 @@
       <c r="J30">
         <v>1.1</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="4">
         <f t="shared" si="0"/>
         <v>909.090909090909</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="5">
         <f t="shared" si="1"/>
         <v>3.63</v>
       </c>
-      <c r="M30" s="5"/>
+      <c r="M30" s="6"/>
       <c r="N30" t="s">
         <v>556</v>
       </c>
@@ -10957,15 +11359,15 @@
       <c r="J31">
         <v>1.1</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="4">
         <f t="shared" si="0"/>
         <v>163.636363636364</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="5">
         <f t="shared" si="1"/>
         <v>3.11666666666667</v>
       </c>
-      <c r="M31" s="5"/>
+      <c r="M31" s="6"/>
       <c r="N31" t="s">
         <v>557</v>
       </c>
@@ -11001,15 +11403,15 @@
       <c r="J32">
         <v>1.1</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="4">
         <f t="shared" si="0"/>
         <v>545.454545454545</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="5">
         <f t="shared" si="1"/>
         <v>4.05166666666667</v>
       </c>
-      <c r="M32" s="5"/>
+      <c r="M32" s="6"/>
       <c r="N32" t="s">
         <v>558</v>
       </c>
@@ -11045,15 +11447,15 @@
       <c r="J33">
         <v>1.1</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="4">
         <f t="shared" si="0"/>
         <v>1454.54545454545</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="5">
         <f t="shared" si="1"/>
         <v>3.64375</v>
       </c>
-      <c r="M33" s="5"/>
+      <c r="M33" s="6"/>
       <c r="N33" t="s">
         <v>558</v>
       </c>
@@ -11089,15 +11491,15 @@
       <c r="J34">
         <v>1.1</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="4">
         <f t="shared" si="0"/>
         <v>363.636363636364</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="5">
         <f t="shared" si="1"/>
         <v>2.8875</v>
       </c>
-      <c r="M34" s="5"/>
+      <c r="M34" s="6"/>
       <c r="N34" t="s">
         <v>559</v>
       </c>
@@ -11133,15 +11535,15 @@
       <c r="J35">
         <v>1.1</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="4">
         <f t="shared" ref="K35:K66" si="3">I35/J35</f>
         <v>727.272727272727</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="5">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M35" s="5"/>
+      <c r="M35" s="6"/>
       <c r="N35" t="s">
         <v>559</v>
       </c>
@@ -11177,15 +11579,15 @@
       <c r="J36">
         <v>1.1</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="4">
         <f t="shared" si="3"/>
         <v>1636.36363636364</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="5">
         <f t="shared" si="1"/>
         <v>3.42222222222222</v>
       </c>
-      <c r="M36" s="5"/>
+      <c r="M36" s="6"/>
       <c r="N36" t="s">
         <v>560</v>
       </c>
@@ -11221,15 +11623,15 @@
       <c r="J37">
         <v>1.1</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="4">
         <f t="shared" si="3"/>
         <v>545.454545454545</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="5">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M37" s="5"/>
+      <c r="M37" s="6"/>
       <c r="N37" t="s">
         <v>561</v>
       </c>
@@ -11265,15 +11667,15 @@
       <c r="J38">
         <v>1.1</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="4">
         <f t="shared" si="3"/>
         <v>1090.90909090909</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="5">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M38" s="5"/>
+      <c r="M38" s="6"/>
       <c r="N38" t="s">
         <v>561</v>
       </c>
@@ -11309,15 +11711,15 @@
       <c r="J39">
         <v>1.1</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="4">
         <f t="shared" si="3"/>
         <v>2090.90909090909</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="5">
         <f t="shared" si="1"/>
         <v>3.20434782608696</v>
       </c>
-      <c r="M39" s="5"/>
+      <c r="M39" s="6"/>
       <c r="N39" t="s">
         <v>562</v>
       </c>
@@ -11353,15 +11755,15 @@
       <c r="J40">
         <v>1.1</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="4">
         <f t="shared" si="3"/>
         <v>818.181818181818</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="5">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M40" s="5"/>
+      <c r="M40" s="6"/>
       <c r="N40" t="s">
         <v>563</v>
       </c>
@@ -11397,15 +11799,15 @@
       <c r="J41">
         <v>1.1</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="4">
         <f t="shared" si="3"/>
         <v>1636.36363636364</v>
       </c>
-      <c r="L41" s="4">
+      <c r="L41" s="5">
         <f t="shared" si="1"/>
         <v>3.36111111111111</v>
       </c>
-      <c r="M41" s="5"/>
+      <c r="M41" s="6"/>
       <c r="N41" t="s">
         <v>563</v>
       </c>
@@ -11441,15 +11843,15 @@
       <c r="J42">
         <v>1.1</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="4">
         <f t="shared" si="3"/>
         <v>2727.27272727273</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="5">
         <f t="shared" si="1"/>
         <v>3.26333333333333</v>
       </c>
-      <c r="M42" s="5"/>
+      <c r="M42" s="6"/>
       <c r="N42" t="s">
         <v>564</v>
       </c>
@@ -11485,15 +11887,15 @@
       <c r="J43">
         <v>1.1</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="4">
         <f t="shared" si="3"/>
         <v>1181.81818181818</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="5">
         <f t="shared" si="1"/>
         <v>3.21538461538462</v>
       </c>
-      <c r="M43" s="5"/>
+      <c r="M43" s="6"/>
       <c r="N43" t="s">
         <v>565</v>
       </c>
@@ -11529,15 +11931,15 @@
       <c r="J44">
         <v>1.1</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="4">
         <f t="shared" si="3"/>
         <v>1818.18181818182</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="5">
         <f t="shared" si="1"/>
         <v>3.41</v>
       </c>
-      <c r="M44" s="5"/>
+      <c r="M44" s="6"/>
       <c r="N44" t="s">
         <v>565</v>
       </c>
@@ -11573,15 +11975,15 @@
       <c r="J45">
         <v>1.1</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="4">
         <f t="shared" si="3"/>
         <v>2290</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="5">
         <f t="shared" si="1"/>
         <v>4.36681222707424</v>
       </c>
-      <c r="M45" s="5"/>
+      <c r="M45" s="6"/>
       <c r="N45" t="s">
         <v>566</v>
       </c>
@@ -11617,15 +12019,15 @@
       <c r="J46">
         <v>1.1</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="4">
         <f t="shared" si="3"/>
         <v>2890</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="5">
         <f t="shared" si="1"/>
         <v>4.84429065743945</v>
       </c>
-      <c r="M46" s="5"/>
+      <c r="M46" s="6"/>
       <c r="N46" t="s">
         <v>567</v>
       </c>
@@ -11661,15 +12063,15 @@
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="4">
         <f t="shared" si="3"/>
         <v>3299</v>
       </c>
-      <c r="L47" s="4">
+      <c r="L47" s="5">
         <f t="shared" si="1"/>
         <v>4.24371021521673</v>
       </c>
-      <c r="M47" s="5"/>
+      <c r="M47" s="6"/>
       <c r="N47" t="s">
         <v>568</v>
       </c>
@@ -11705,16 +12107,16 @@
       <c r="J48">
         <v>1.3</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="4">
         <f t="shared" si="3"/>
         <v>20.7692307692308</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="5">
         <f t="shared" ref="L48:L79" si="4">G48/K48</f>
         <v>3.37037037037037</v>
       </c>
-      <c r="M48" s="5">
-        <v>9.61</v>
+      <c r="M48" s="6">
+        <v>3.43</v>
       </c>
       <c r="N48" t="s">
         <v>569</v>
@@ -11751,15 +12153,15 @@
       <c r="J49">
         <v>1.3</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="4">
         <f t="shared" si="3"/>
         <v>39.2307692307692</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="5">
         <f t="shared" si="4"/>
         <v>3.56862745098039</v>
       </c>
-      <c r="M49" s="5"/>
+      <c r="M49" s="6"/>
       <c r="N49" t="s">
         <v>569</v>
       </c>
@@ -11795,15 +12197,15 @@
       <c r="J50">
         <v>1.3</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="4">
         <f t="shared" si="3"/>
         <v>76.9230769230769</v>
       </c>
-      <c r="L50" s="4">
+      <c r="L50" s="5">
         <f t="shared" si="4"/>
         <v>2.86</v>
       </c>
-      <c r="M50" s="5"/>
+      <c r="M50" s="6"/>
       <c r="N50" t="s">
         <v>569</v>
       </c>
@@ -11839,15 +12241,15 @@
       <c r="J51">
         <v>1.3</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="4">
         <f t="shared" si="3"/>
         <v>33.8461538461538</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="5">
         <f t="shared" si="4"/>
         <v>3.54545454545455</v>
       </c>
-      <c r="M51" s="5"/>
+      <c r="M51" s="6"/>
       <c r="N51" t="s">
         <v>570</v>
       </c>
@@ -11883,15 +12285,15 @@
       <c r="J52">
         <v>1.3</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="4">
         <f t="shared" si="3"/>
         <v>71.5384615384615</v>
       </c>
-      <c r="L52" s="4">
+      <c r="L52" s="5">
         <f t="shared" si="4"/>
         <v>3.49462365591398</v>
       </c>
-      <c r="M52" s="5"/>
+      <c r="M52" s="6"/>
       <c r="N52" t="s">
         <v>570</v>
       </c>
@@ -11927,15 +12329,15 @@
       <c r="J53">
         <v>1.3</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="4">
         <f t="shared" si="3"/>
         <v>138.461538461538</v>
       </c>
-      <c r="L53" s="4">
+      <c r="L53" s="5">
         <f t="shared" si="4"/>
         <v>2.88888888888889</v>
       </c>
-      <c r="M53" s="5"/>
+      <c r="M53" s="6"/>
       <c r="N53" t="s">
         <v>570</v>
       </c>
@@ -11966,20 +12368,20 @@
         <v>12</v>
       </c>
       <c r="I54">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="J54">
         <v>1.3</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="4">
         <f t="shared" si="3"/>
-        <v>18.4615384615385</v>
-      </c>
-      <c r="L54" s="4">
+        <v>41.5384615384615</v>
+      </c>
+      <c r="L54" s="5">
         <f t="shared" si="4"/>
-        <v>10.8333333333333</v>
-      </c>
-      <c r="M54" s="5"/>
+        <v>4.81481481481481</v>
+      </c>
+      <c r="M54" s="6"/>
       <c r="N54" t="s">
         <v>571</v>
       </c>
@@ -12010,20 +12412,20 @@
         <v>12</v>
       </c>
       <c r="I55">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="J55">
         <v>1.3</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="4">
         <f t="shared" si="3"/>
-        <v>39.2307692307692</v>
-      </c>
-      <c r="L55" s="4">
+        <v>92.3076923076923</v>
+      </c>
+      <c r="L55" s="5">
         <f t="shared" si="4"/>
-        <v>11.4705882352941</v>
-      </c>
-      <c r="M55" s="5"/>
+        <v>4.875</v>
+      </c>
+      <c r="M55" s="6"/>
       <c r="N55" t="s">
         <v>571</v>
       </c>
@@ -12054,20 +12456,20 @@
         <v>12</v>
       </c>
       <c r="I56">
-        <v>109</v>
+        <v>270</v>
       </c>
       <c r="J56">
         <v>1.3</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="4">
         <f t="shared" si="3"/>
-        <v>83.8461538461538</v>
-      </c>
-      <c r="L56" s="4">
+        <v>207.692307692308</v>
+      </c>
+      <c r="L56" s="5">
         <f t="shared" si="4"/>
-        <v>8.34862385321101</v>
-      </c>
-      <c r="M56" s="5"/>
+        <v>3.37037037037037</v>
+      </c>
+      <c r="M56" s="6"/>
       <c r="N56" t="s">
         <v>571</v>
       </c>
@@ -12098,20 +12500,20 @@
         <v>12</v>
       </c>
       <c r="I57">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="J57">
         <v>1.3</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="4">
         <f t="shared" si="3"/>
-        <v>30</v>
-      </c>
-      <c r="L57" s="4">
+        <v>92.3076923076923</v>
+      </c>
+      <c r="L57" s="5">
         <f t="shared" si="4"/>
-        <v>10.6666666666667</v>
-      </c>
-      <c r="M57" s="5"/>
+        <v>3.46666666666667</v>
+      </c>
+      <c r="M57" s="6"/>
       <c r="N57" t="s">
         <v>572</v>
       </c>
@@ -12142,20 +12544,20 @@
         <v>12</v>
       </c>
       <c r="I58">
-        <v>89</v>
+        <v>300</v>
       </c>
       <c r="J58">
         <v>1.3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="4">
         <f t="shared" si="3"/>
-        <v>68.4615384615385</v>
-      </c>
-      <c r="L58" s="4">
+        <v>230.769230769231</v>
+      </c>
+      <c r="L58" s="5">
         <f t="shared" si="4"/>
-        <v>11.685393258427</v>
-      </c>
-      <c r="M58" s="5"/>
+        <v>3.46666666666667</v>
+      </c>
+      <c r="M58" s="6"/>
       <c r="N58" t="s">
         <v>572</v>
       </c>
@@ -12186,20 +12588,20 @@
         <v>210</v>
       </c>
       <c r="I59">
-        <v>144</v>
+        <v>400</v>
       </c>
       <c r="J59">
         <v>1.3</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="4">
         <f t="shared" si="3"/>
-        <v>110.769230769231</v>
-      </c>
-      <c r="L59" s="4">
+        <v>307.692307692308</v>
+      </c>
+      <c r="L59" s="5">
         <f t="shared" si="4"/>
-        <v>9.02777777777778</v>
-      </c>
-      <c r="M59" s="5"/>
+        <v>3.25</v>
+      </c>
+      <c r="M59" s="6"/>
       <c r="N59" t="s">
         <v>573</v>
       </c>
@@ -12230,20 +12632,20 @@
         <v>210</v>
       </c>
       <c r="I60">
-        <v>249</v>
+        <v>700</v>
       </c>
       <c r="J60">
         <v>1.3</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="4">
         <f t="shared" si="3"/>
-        <v>191.538461538462</v>
-      </c>
-      <c r="L60" s="4">
+        <v>538.461538461538</v>
+      </c>
+      <c r="L60" s="5">
         <f t="shared" si="4"/>
-        <v>8.6144578313253</v>
-      </c>
-      <c r="M60" s="5"/>
+        <v>3.06428571428571</v>
+      </c>
+      <c r="M60" s="6"/>
       <c r="N60" t="s">
         <v>573</v>
       </c>
@@ -12274,20 +12676,20 @@
         <v>210</v>
       </c>
       <c r="I61">
-        <v>399</v>
+        <v>900</v>
       </c>
       <c r="J61">
         <v>1.3</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="4">
         <f t="shared" si="3"/>
-        <v>306.923076923077</v>
-      </c>
-      <c r="L61" s="4">
+        <v>692.307692307692</v>
+      </c>
+      <c r="L61" s="5">
         <f t="shared" si="4"/>
-        <v>7.33082706766917</v>
-      </c>
-      <c r="M61" s="5"/>
+        <v>3.25</v>
+      </c>
+      <c r="M61" s="6"/>
       <c r="N61" t="s">
         <v>573</v>
       </c>
@@ -12318,20 +12720,20 @@
         <v>12</v>
       </c>
       <c r="I62">
-        <v>114</v>
+        <v>420</v>
       </c>
       <c r="J62">
         <v>1.3</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="4">
         <f t="shared" si="3"/>
-        <v>87.6923076923077</v>
-      </c>
-      <c r="L62" s="4">
+        <v>323.076923076923</v>
+      </c>
+      <c r="L62" s="5">
         <f t="shared" si="4"/>
-        <v>10.8333333333333</v>
-      </c>
-      <c r="M62" s="5"/>
+        <v>2.94047619047619</v>
+      </c>
+      <c r="M62" s="6"/>
       <c r="N62" t="s">
         <v>574</v>
       </c>
@@ -12362,20 +12764,20 @@
         <v>210</v>
       </c>
       <c r="I63">
-        <v>229</v>
+        <v>680</v>
       </c>
       <c r="J63">
         <v>1.3</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="4">
         <f t="shared" si="3"/>
-        <v>176.153846153846</v>
-      </c>
-      <c r="L63" s="4">
+        <v>523.076923076923</v>
+      </c>
+      <c r="L63" s="5">
         <f t="shared" si="4"/>
-        <v>10.2183406113537</v>
-      </c>
-      <c r="M63" s="5"/>
+        <v>3.44117647058823</v>
+      </c>
+      <c r="M63" s="6"/>
       <c r="N63" t="s">
         <v>574</v>
       </c>
@@ -12406,20 +12808,20 @@
         <v>210</v>
       </c>
       <c r="I64">
-        <v>234</v>
+        <v>500</v>
       </c>
       <c r="J64">
         <v>1.3</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="4">
         <f t="shared" si="3"/>
-        <v>180</v>
-      </c>
-      <c r="L64" s="4">
+        <v>384.615384615385</v>
+      </c>
+      <c r="L64" s="5">
         <f t="shared" si="4"/>
-        <v>8.88888888888889</v>
-      </c>
-      <c r="M64" s="5"/>
+        <v>4.16</v>
+      </c>
+      <c r="M64" s="6"/>
       <c r="N64" t="s">
         <v>575</v>
       </c>
@@ -12450,20 +12852,20 @@
         <v>210</v>
       </c>
       <c r="I65">
-        <v>399</v>
+        <v>1000</v>
       </c>
       <c r="J65">
         <v>1.3</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="4">
         <f t="shared" si="3"/>
-        <v>306.923076923077</v>
-      </c>
-      <c r="L65" s="4">
+        <v>769.230769230769</v>
+      </c>
+      <c r="L65" s="5">
         <f t="shared" si="4"/>
-        <v>9.44862155388471</v>
-      </c>
-      <c r="M65" s="5"/>
+        <v>3.77</v>
+      </c>
+      <c r="M65" s="6"/>
       <c r="N65" t="s">
         <v>575</v>
       </c>
@@ -12494,20 +12896,20 @@
         <v>347</v>
       </c>
       <c r="I66">
-        <v>699</v>
+        <v>1800</v>
       </c>
       <c r="J66">
         <v>1.3</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="4">
         <f t="shared" si="3"/>
-        <v>537.692307692308</v>
-      </c>
-      <c r="L66" s="4">
+        <v>1384.61538461538</v>
+      </c>
+      <c r="L66" s="5">
         <f t="shared" si="4"/>
-        <v>8.18311874105866</v>
-      </c>
-      <c r="M66" s="5"/>
+        <v>3.17777777777778</v>
+      </c>
+      <c r="M66" s="6"/>
       <c r="N66" t="s">
         <v>575</v>
       </c>
@@ -12538,20 +12940,20 @@
         <v>210</v>
       </c>
       <c r="I67">
-        <v>299</v>
+        <v>1000</v>
       </c>
       <c r="J67">
         <v>1.3</v>
       </c>
-      <c r="K67" s="3">
-        <f t="shared" ref="K67:K98" si="5">I67/J67</f>
-        <v>230</v>
-      </c>
-      <c r="L67" s="4">
+      <c r="K67" s="4">
+        <f>I67/J67</f>
+        <v>769.230769230769</v>
+      </c>
+      <c r="L67" s="5">
         <f t="shared" si="4"/>
-        <v>11.7391304347826</v>
-      </c>
-      <c r="M67" s="5"/>
+        <v>3.51</v>
+      </c>
+      <c r="M67" s="6"/>
       <c r="N67" t="s">
         <v>576</v>
       </c>
@@ -12582,20 +12984,20 @@
         <v>347</v>
       </c>
       <c r="I68">
-        <v>599</v>
+        <v>2000</v>
       </c>
       <c r="J68">
         <v>1.3</v>
       </c>
-      <c r="K68" s="3">
-        <f t="shared" si="5"/>
-        <v>460.769230769231</v>
-      </c>
-      <c r="L68" s="4">
+      <c r="K68" s="4">
+        <f>I68/J68</f>
+        <v>1538.46153846154</v>
+      </c>
+      <c r="L68" s="5">
         <f t="shared" si="4"/>
-        <v>10.8514190317195</v>
-      </c>
-      <c r="M68" s="5"/>
+        <v>3.25</v>
+      </c>
+      <c r="M68" s="6"/>
       <c r="N68" t="s">
         <v>576</v>
       </c>
@@ -12626,20 +13028,20 @@
         <v>347</v>
       </c>
       <c r="I69">
-        <v>629</v>
+        <v>2100</v>
       </c>
       <c r="J69">
         <v>1.3</v>
       </c>
-      <c r="K69" s="3">
-        <f t="shared" si="5"/>
-        <v>483.846153846154</v>
-      </c>
-      <c r="L69" s="4">
+      <c r="K69" s="4">
+        <f>I69/J69</f>
+        <v>1615.38461538462</v>
+      </c>
+      <c r="L69" s="5">
         <f t="shared" si="4"/>
-        <v>9.92050874403816</v>
-      </c>
-      <c r="M69" s="5"/>
+        <v>2.97142857142857</v>
+      </c>
+      <c r="M69" s="6"/>
       <c r="N69" t="s">
         <v>577</v>
       </c>
@@ -12670,20 +13072,20 @@
         <v>347</v>
       </c>
       <c r="I70">
-        <v>1059</v>
+        <v>3000</v>
       </c>
       <c r="J70">
         <v>1.3</v>
       </c>
-      <c r="K70" s="3">
-        <f t="shared" si="5"/>
-        <v>814.615384615385</v>
-      </c>
-      <c r="L70" s="4">
+      <c r="K70" s="4">
+        <f>I70/J70</f>
+        <v>2307.69230769231</v>
+      </c>
+      <c r="L70" s="5">
         <f t="shared" si="4"/>
-        <v>9.57507082152974</v>
-      </c>
-      <c r="M70" s="5"/>
+        <v>3.38</v>
+      </c>
+      <c r="M70" s="6"/>
       <c r="N70" t="s">
         <v>577</v>
       </c>
@@ -12714,20 +13116,20 @@
         <v>456</v>
       </c>
       <c r="I71">
-        <v>1349</v>
+        <v>4000</v>
       </c>
       <c r="J71">
         <v>1.3</v>
       </c>
-      <c r="K71" s="3">
-        <f t="shared" si="5"/>
-        <v>1037.69230769231</v>
-      </c>
-      <c r="L71" s="4">
+      <c r="K71" s="4">
+        <f>I71/J71</f>
+        <v>3076.92307692308</v>
+      </c>
+      <c r="L71" s="5">
         <f t="shared" si="4"/>
-        <v>8.96219421793922</v>
-      </c>
-      <c r="M71" s="5"/>
+        <v>3.0225</v>
+      </c>
+      <c r="M71" s="6"/>
       <c r="N71" t="s">
         <v>578</v>
       </c>
@@ -12758,20 +13160,20 @@
         <v>456</v>
       </c>
       <c r="I72">
-        <v>1274</v>
+        <v>4200</v>
       </c>
       <c r="J72">
         <v>1.3</v>
       </c>
-      <c r="K72" s="3">
-        <f t="shared" si="5"/>
-        <v>980</v>
-      </c>
-      <c r="L72" s="4">
+      <c r="K72" s="4">
+        <f>I72/J72</f>
+        <v>3230.76923076923</v>
+      </c>
+      <c r="L72" s="5">
         <f t="shared" si="4"/>
-        <v>9.79591836734694</v>
-      </c>
-      <c r="M72" s="5"/>
+        <v>2.97142857142857</v>
+      </c>
+      <c r="M72" s="6"/>
       <c r="N72" t="s">
         <v>579</v>
       </c>
@@ -12802,20 +13204,20 @@
         <v>456</v>
       </c>
       <c r="I73">
-        <v>2799</v>
+        <v>4500</v>
       </c>
       <c r="J73">
         <v>1.3</v>
       </c>
-      <c r="K73" s="3">
-        <f t="shared" si="5"/>
-        <v>2153.07692307692</v>
-      </c>
-      <c r="L73" s="4">
+      <c r="K73" s="4">
+        <f>I73/J73</f>
+        <v>3461.53846153846</v>
+      </c>
+      <c r="L73" s="5">
         <f t="shared" si="4"/>
-        <v>5.10896748838871</v>
-      </c>
-      <c r="M73" s="5"/>
+        <v>3.17777777777778</v>
+      </c>
+      <c r="M73" s="6"/>
       <c r="N73" t="s">
         <v>580</v>
       </c>
@@ -12848,19 +13250,18 @@
       <c r="I74">
         <v>10</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="7">
         <v>1</v>
       </c>
-      <c r="K74" s="3">
-        <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="L74" s="4">
+      <c r="K74" s="4">
+        <v>20</v>
+      </c>
+      <c r="L74" s="5">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="M74" s="5">
-        <v>5.55</v>
+        <v>3</v>
+      </c>
+      <c r="M74" s="6">
+        <v>3.55</v>
       </c>
       <c r="N74" t="s">
         <v>581</v>
@@ -12886,6 +13287,7 @@
         <v>90</v>
       </c>
       <c r="G75">
+        <f>F75+G74</f>
         <v>150</v>
       </c>
       <c r="H75" t="s">
@@ -12894,18 +13296,17 @@
       <c r="I75">
         <v>29</v>
       </c>
-      <c r="J75" s="6">
+      <c r="J75" s="7">
         <v>1</v>
       </c>
-      <c r="K75" s="3">
-        <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="L75" s="4">
+      <c r="K75" s="4">
+        <v>50</v>
+      </c>
+      <c r="L75" s="5">
         <f t="shared" si="4"/>
-        <v>5.17241379310345</v>
-      </c>
-      <c r="M75" s="5"/>
+        <v>3</v>
+      </c>
+      <c r="M75" s="6"/>
       <c r="N75" t="s">
         <v>581</v>
       </c>
@@ -12930,6 +13331,7 @@
         <v>130</v>
       </c>
       <c r="G76">
+        <f>F76+G75</f>
         <v>280</v>
       </c>
       <c r="H76" t="s">
@@ -12938,18 +13340,17 @@
       <c r="I76">
         <v>54</v>
       </c>
-      <c r="J76" s="6">
+      <c r="J76" s="7">
         <v>1</v>
       </c>
-      <c r="K76" s="3">
-        <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="L76" s="4">
+      <c r="K76" s="4">
+        <v>80</v>
+      </c>
+      <c r="L76" s="5">
         <f t="shared" si="4"/>
-        <v>5.18518518518519</v>
-      </c>
-      <c r="M76" s="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="M76" s="6"/>
       <c r="N76" t="s">
         <v>581</v>
       </c>
@@ -12971,10 +13372,10 @@
         <v>127</v>
       </c>
       <c r="F77">
-        <v>170</v>
+        <v>550</v>
       </c>
       <c r="G77">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="H77" t="s">
         <v>12</v>
@@ -12982,18 +13383,17 @@
       <c r="I77">
         <v>79</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="7">
         <v>1</v>
       </c>
-      <c r="K77" s="3">
-        <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="L77" s="4">
+      <c r="K77" s="4">
+        <v>180</v>
+      </c>
+      <c r="L77" s="5">
         <f t="shared" si="4"/>
-        <v>5.69620253164557</v>
-      </c>
-      <c r="M77" s="5"/>
+        <v>3.05555555555556</v>
+      </c>
+      <c r="M77" s="6"/>
       <c r="N77" t="s">
         <v>581</v>
       </c>
@@ -13018,7 +13418,8 @@
         <v>350</v>
       </c>
       <c r="G78">
-        <v>800</v>
+        <f>F78+G77</f>
+        <v>900</v>
       </c>
       <c r="H78" t="s">
         <v>12</v>
@@ -13026,18 +13427,17 @@
       <c r="I78">
         <v>139</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="7">
         <v>1</v>
       </c>
-      <c r="K78" s="3">
-        <f t="shared" si="5"/>
-        <v>139</v>
-      </c>
-      <c r="L78" s="4">
+      <c r="K78" s="4">
+        <v>280</v>
+      </c>
+      <c r="L78" s="5">
         <f t="shared" si="4"/>
-        <v>5.75539568345324</v>
-      </c>
-      <c r="M78" s="5"/>
+        <v>3.21428571428571</v>
+      </c>
+      <c r="M78" s="6"/>
       <c r="N78" t="s">
         <v>581</v>
       </c>
@@ -13062,7 +13462,8 @@
         <v>1000</v>
       </c>
       <c r="G79">
-        <v>1800</v>
+        <f>F79+G78</f>
+        <v>1900</v>
       </c>
       <c r="H79" t="s">
         <v>210</v>
@@ -13070,18 +13471,17 @@
       <c r="I79">
         <v>319</v>
       </c>
-      <c r="J79" s="6">
+      <c r="J79" s="7">
         <v>1</v>
       </c>
-      <c r="K79" s="3">
-        <f t="shared" si="5"/>
-        <v>319</v>
-      </c>
-      <c r="L79" s="4">
+      <c r="K79" s="4">
+        <v>600</v>
+      </c>
+      <c r="L79" s="5">
         <f t="shared" si="4"/>
-        <v>5.64263322884013</v>
-      </c>
-      <c r="M79" s="5"/>
+        <v>3.16666666666667</v>
+      </c>
+      <c r="M79" s="6"/>
       <c r="N79" t="s">
         <v>582</v>
       </c>
@@ -13103,7 +13503,7 @@
         <v>127</v>
       </c>
       <c r="F80">
-        <v>1200</v>
+        <v>3000</v>
       </c>
       <c r="G80">
         <v>3000</v>
@@ -13114,18 +13514,17 @@
       <c r="I80">
         <v>519</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="7">
         <v>1</v>
       </c>
-      <c r="K80" s="3">
-        <f t="shared" si="5"/>
-        <v>519</v>
-      </c>
-      <c r="L80" s="4">
-        <f t="shared" ref="L80:L111" si="6">G80/K80</f>
-        <v>5.78034682080925</v>
-      </c>
-      <c r="M80" s="5"/>
+      <c r="K80" s="4">
+        <v>900</v>
+      </c>
+      <c r="L80" s="5">
+        <f t="shared" ref="L80:L111" si="5">G80/K80</f>
+        <v>3.33333333333333</v>
+      </c>
+      <c r="M80" s="6"/>
       <c r="N80" t="s">
         <v>582</v>
       </c>
@@ -13150,6 +13549,7 @@
         <v>1000</v>
       </c>
       <c r="G81">
+        <f>F81+G80</f>
         <v>4000</v>
       </c>
       <c r="H81" t="s">
@@ -13158,18 +13558,17 @@
       <c r="I81">
         <v>549</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J81" s="7">
         <v>1</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="4">
+        <v>1200</v>
+      </c>
+      <c r="L81" s="5">
         <f t="shared" si="5"/>
-        <v>549</v>
-      </c>
-      <c r="L81" s="4">
-        <f t="shared" si="6"/>
-        <v>7.28597449908925</v>
-      </c>
-      <c r="M81" s="5"/>
+        <v>3.33333333333333</v>
+      </c>
+      <c r="M81" s="6"/>
       <c r="N81" t="s">
         <v>582</v>
       </c>
@@ -13202,18 +13601,17 @@
       <c r="I82">
         <v>12</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J82" s="7">
         <v>1</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="4">
+        <v>24</v>
+      </c>
+      <c r="L82" s="5">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="L82" s="4">
-        <f t="shared" si="6"/>
-        <v>6.25</v>
-      </c>
-      <c r="M82" s="5"/>
+        <v>3.125</v>
+      </c>
+      <c r="M82" s="6"/>
       <c r="N82" t="s">
         <v>583</v>
       </c>
@@ -13238,6 +13636,7 @@
         <v>170</v>
       </c>
       <c r="G83">
+        <f>F83+G82</f>
         <v>245</v>
       </c>
       <c r="H83" t="s">
@@ -13246,18 +13645,17 @@
       <c r="I83">
         <v>42</v>
       </c>
-      <c r="J83" s="6">
+      <c r="J83" s="7">
         <v>1</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="4">
+        <v>75</v>
+      </c>
+      <c r="L83" s="5">
         <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="L83" s="4">
-        <f t="shared" si="6"/>
-        <v>5.83333333333333</v>
-      </c>
-      <c r="M83" s="5"/>
+        <v>3.26666666666667</v>
+      </c>
+      <c r="M83" s="6"/>
       <c r="N83" t="s">
         <v>583</v>
       </c>
@@ -13282,6 +13680,7 @@
         <v>675</v>
       </c>
       <c r="G84">
+        <f>F84+G82</f>
         <v>750</v>
       </c>
       <c r="H84" t="s">
@@ -13290,18 +13689,17 @@
       <c r="I84">
         <v>49</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J84" s="7">
         <v>1</v>
       </c>
-      <c r="K84" s="3">
+      <c r="K84" s="4">
+        <v>240</v>
+      </c>
+      <c r="L84" s="5">
         <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="L84" s="4">
-        <f t="shared" si="6"/>
-        <v>15.3061224489796</v>
-      </c>
-      <c r="M84" s="5"/>
+        <v>3.125</v>
+      </c>
+      <c r="M84" s="6"/>
       <c r="N84" t="s">
         <v>584</v>
       </c>
@@ -13326,6 +13724,7 @@
         <v>220</v>
       </c>
       <c r="G85">
+        <f>F85+G75</f>
         <v>370</v>
       </c>
       <c r="H85" t="s">
@@ -13334,18 +13733,17 @@
       <c r="I85">
         <v>65</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J85" s="7">
         <v>1</v>
       </c>
-      <c r="K85" s="3">
+      <c r="K85" s="4">
+        <v>120</v>
+      </c>
+      <c r="L85" s="5">
         <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
-      <c r="L85" s="4">
-        <f t="shared" si="6"/>
-        <v>5.69230769230769</v>
-      </c>
-      <c r="M85" s="5"/>
+        <v>3.08333333333333</v>
+      </c>
+      <c r="M85" s="6"/>
       <c r="N85" t="s">
         <v>585</v>
       </c>
@@ -13370,6 +13768,7 @@
         <v>260</v>
       </c>
       <c r="G86">
+        <f>F86+G76</f>
         <v>540</v>
       </c>
       <c r="H86" t="s">
@@ -13378,18 +13777,17 @@
       <c r="I86">
         <v>95</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J86" s="7">
         <v>1</v>
       </c>
-      <c r="K86" s="3">
+      <c r="K86" s="4">
+        <v>160</v>
+      </c>
+      <c r="L86" s="5">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="L86" s="4">
-        <f t="shared" si="6"/>
-        <v>5.68421052631579</v>
-      </c>
-      <c r="M86" s="5"/>
+        <v>3.375</v>
+      </c>
+      <c r="M86" s="6"/>
       <c r="N86" t="s">
         <v>586</v>
       </c>
@@ -13414,7 +13812,8 @@
         <v>450</v>
       </c>
       <c r="G87">
-        <v>900</v>
+        <f>F87+G77</f>
+        <v>1000</v>
       </c>
       <c r="H87" t="s">
         <v>12</v>
@@ -13422,18 +13821,17 @@
       <c r="I87">
         <v>167</v>
       </c>
-      <c r="J87" s="6">
+      <c r="J87" s="7">
         <v>1</v>
       </c>
-      <c r="K87" s="3">
+      <c r="K87" s="4">
+        <v>300</v>
+      </c>
+      <c r="L87" s="5">
         <f t="shared" si="5"/>
-        <v>167</v>
-      </c>
-      <c r="L87" s="4">
-        <f t="shared" si="6"/>
-        <v>5.38922155688623</v>
-      </c>
-      <c r="M87" s="5"/>
+        <v>3.33333333333333</v>
+      </c>
+      <c r="M87" s="6"/>
       <c r="N87" t="s">
         <v>587</v>
       </c>
@@ -13458,7 +13856,8 @@
         <v>1300</v>
       </c>
       <c r="G88">
-        <v>2100</v>
+        <f>F88+G78</f>
+        <v>2200</v>
       </c>
       <c r="H88" t="s">
         <v>210</v>
@@ -13466,18 +13865,17 @@
       <c r="I88">
         <v>383</v>
       </c>
-      <c r="J88" s="6">
+      <c r="J88" s="7">
         <v>1</v>
       </c>
-      <c r="K88" s="3">
+      <c r="K88" s="4">
+        <v>700</v>
+      </c>
+      <c r="L88" s="5">
         <f t="shared" si="5"/>
-        <v>383</v>
-      </c>
-      <c r="L88" s="4">
-        <f t="shared" si="6"/>
-        <v>5.48302872062663</v>
-      </c>
-      <c r="M88" s="5"/>
+        <v>3.14285714285714</v>
+      </c>
+      <c r="M88" s="6"/>
       <c r="N88" t="s">
         <v>588</v>
       </c>
@@ -13502,7 +13900,8 @@
         <v>1700</v>
       </c>
       <c r="G89">
-        <v>3500</v>
+        <f>F89+G79</f>
+        <v>3600</v>
       </c>
       <c r="H89" t="s">
         <v>210</v>
@@ -13510,18 +13909,17 @@
       <c r="I89">
         <v>623</v>
       </c>
-      <c r="J89" s="6">
+      <c r="J89" s="7">
         <v>1</v>
       </c>
-      <c r="K89" s="3">
+      <c r="K89" s="4">
+        <v>1100</v>
+      </c>
+      <c r="L89" s="5">
         <f t="shared" si="5"/>
-        <v>623</v>
-      </c>
-      <c r="L89" s="4">
-        <f t="shared" si="6"/>
-        <v>5.61797752808989</v>
-      </c>
-      <c r="M89" s="5"/>
+        <v>3.27272727272727</v>
+      </c>
+      <c r="M89" s="6"/>
       <c r="N89" t="s">
         <v>589</v>
       </c>
@@ -13546,7 +13944,8 @@
         <v>2300</v>
       </c>
       <c r="G90">
-        <v>4100</v>
+        <f>F90+G79</f>
+        <v>4200</v>
       </c>
       <c r="H90" t="s">
         <v>347</v>
@@ -13554,18 +13953,17 @@
       <c r="I90">
         <v>727</v>
       </c>
-      <c r="J90" s="6">
+      <c r="J90" s="7">
         <v>1</v>
       </c>
-      <c r="K90" s="3">
+      <c r="K90" s="4">
+        <v>1200</v>
+      </c>
+      <c r="L90" s="5">
         <f t="shared" si="5"/>
-        <v>727</v>
-      </c>
-      <c r="L90" s="4">
-        <f t="shared" si="6"/>
-        <v>5.63961485557084</v>
-      </c>
-      <c r="M90" s="5"/>
+        <v>3.5</v>
+      </c>
+      <c r="M90" s="6"/>
       <c r="N90" t="s">
         <v>582</v>
       </c>
@@ -13590,7 +13988,8 @@
         <v>700</v>
       </c>
       <c r="G91">
-        <v>3700</v>
+        <f>F91+G90</f>
+        <v>4900</v>
       </c>
       <c r="H91" t="s">
         <v>210</v>
@@ -13598,18 +13997,17 @@
       <c r="I91">
         <v>1019</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J91" s="7">
         <v>1</v>
       </c>
-      <c r="K91" s="3">
+      <c r="K91" s="4">
+        <v>1300</v>
+      </c>
+      <c r="L91" s="5">
         <f t="shared" si="5"/>
-        <v>1019</v>
-      </c>
-      <c r="L91" s="4">
-        <f t="shared" si="6"/>
-        <v>3.63101079489696</v>
-      </c>
-      <c r="M91" s="5"/>
+        <v>3.76923076923077</v>
+      </c>
+      <c r="M91" s="6"/>
       <c r="N91" t="s">
         <v>590</v>
       </c>
@@ -13634,6 +14032,7 @@
         <v>2600</v>
       </c>
       <c r="G92">
+        <f>F92+G80</f>
         <v>5600</v>
       </c>
       <c r="H92" t="s">
@@ -13642,18 +14041,17 @@
       <c r="I92">
         <v>1189</v>
       </c>
-      <c r="J92" s="6">
+      <c r="J92" s="7">
         <v>1</v>
       </c>
-      <c r="K92" s="3">
+      <c r="K92" s="4">
+        <v>1400</v>
+      </c>
+      <c r="L92" s="5">
         <f t="shared" si="5"/>
-        <v>1189</v>
-      </c>
-      <c r="L92" s="4">
-        <f t="shared" si="6"/>
-        <v>4.70984020185029</v>
-      </c>
-      <c r="M92" s="5"/>
+        <v>4</v>
+      </c>
+      <c r="M92" s="6"/>
       <c r="N92" t="s">
         <v>591</v>
       </c>
@@ -13678,6 +14076,7 @@
         <v>400</v>
       </c>
       <c r="G93">
+        <f>F93+G92</f>
         <v>6000</v>
       </c>
       <c r="H93" t="s">
@@ -13686,18 +14085,18 @@
       <c r="I93">
         <v>1319</v>
       </c>
-      <c r="J93" s="6">
+      <c r="J93" s="7">
         <v>1</v>
       </c>
-      <c r="K93" s="3">
+      <c r="K93" s="4">
+        <f>I93/J93</f>
+        <v>1319</v>
+      </c>
+      <c r="L93" s="5">
         <f t="shared" si="5"/>
-        <v>1319</v>
-      </c>
-      <c r="L93" s="4">
-        <f t="shared" si="6"/>
         <v>4.5489006823351</v>
       </c>
-      <c r="M93" s="5"/>
+      <c r="M93" s="6"/>
       <c r="N93" t="s">
         <v>592</v>
       </c>
@@ -13722,6 +14121,7 @@
         <v>1200</v>
       </c>
       <c r="G94">
+        <f>F94+G92</f>
         <v>6800</v>
       </c>
       <c r="H94" t="s">
@@ -13730,18 +14130,18 @@
       <c r="I94">
         <v>1583</v>
       </c>
-      <c r="J94" s="6">
+      <c r="J94" s="7">
         <v>1</v>
       </c>
-      <c r="K94" s="3">
+      <c r="K94" s="4">
+        <f>I94/J94</f>
+        <v>1583</v>
+      </c>
+      <c r="L94" s="5">
         <f t="shared" si="5"/>
-        <v>1583</v>
-      </c>
-      <c r="L94" s="4">
-        <f t="shared" si="6"/>
         <v>4.29564118761845</v>
       </c>
-      <c r="M94" s="5"/>
+      <c r="M94" s="6"/>
       <c r="N94" t="s">
         <v>589</v>
       </c>
@@ -13766,7 +14166,8 @@
         <v>2700</v>
       </c>
       <c r="G95">
-        <v>6400</v>
+        <f>F95+G91</f>
+        <v>7600</v>
       </c>
       <c r="H95" t="s">
         <v>347</v>
@@ -13774,18 +14175,18 @@
       <c r="I95">
         <v>1847</v>
       </c>
-      <c r="J95" s="6">
+      <c r="J95" s="7">
         <v>1</v>
       </c>
-      <c r="K95" s="3">
+      <c r="K95" s="4">
+        <f>I95/J95</f>
+        <v>1847</v>
+      </c>
+      <c r="L95" s="5">
         <f t="shared" si="5"/>
-        <v>1847</v>
-      </c>
-      <c r="L95" s="4">
-        <f t="shared" si="6"/>
-        <v>3.46507850568489</v>
-      </c>
-      <c r="M95" s="5"/>
+        <v>4.11478072550081</v>
+      </c>
+      <c r="M95" s="6"/>
       <c r="N95" t="s">
         <v>593</v>
       </c>
@@ -13810,7 +14211,8 @@
         <v>2400</v>
       </c>
       <c r="G96">
-        <v>6100</v>
+        <f>F96+G91</f>
+        <v>7300</v>
       </c>
       <c r="H96" t="s">
         <v>347</v>
@@ -13818,18 +14220,18 @@
       <c r="I96">
         <v>1715</v>
       </c>
-      <c r="J96" s="6">
+      <c r="J96" s="7">
         <v>1</v>
       </c>
-      <c r="K96" s="3">
+      <c r="K96" s="4">
+        <f>I96/J96</f>
+        <v>1715</v>
+      </c>
+      <c r="L96" s="5">
         <f t="shared" si="5"/>
-        <v>1715</v>
-      </c>
-      <c r="L96" s="4">
-        <f t="shared" si="6"/>
-        <v>3.55685131195335</v>
-      </c>
-      <c r="M96" s="5"/>
+        <v>4.25655976676385</v>
+      </c>
+      <c r="M96" s="6"/>
       <c r="N96" t="s">
         <v>591</v>
       </c>
@@ -13854,6 +14256,7 @@
         <v>2300</v>
       </c>
       <c r="G97">
+        <f>F97+G81</f>
         <v>6300</v>
       </c>
       <c r="H97" t="s">
@@ -13862,18 +14265,18 @@
       <c r="I97">
         <v>1451</v>
       </c>
-      <c r="J97" s="6">
+      <c r="J97" s="7">
         <v>1</v>
       </c>
-      <c r="K97" s="3">
+      <c r="K97" s="4">
+        <f>I97/J97</f>
+        <v>1451</v>
+      </c>
+      <c r="L97" s="5">
         <f t="shared" si="5"/>
-        <v>1451</v>
-      </c>
-      <c r="L97" s="4">
-        <f t="shared" si="6"/>
         <v>4.34183321847002</v>
       </c>
-      <c r="M97" s="5"/>
+      <c r="M97" s="6"/>
       <c r="N97" t="s">
         <v>594</v>
       </c>
@@ -13898,6 +14301,7 @@
         <v>2500</v>
       </c>
       <c r="G98">
+        <f>F98+G97</f>
         <v>8800</v>
       </c>
       <c r="H98" t="s">
@@ -13906,18 +14310,18 @@
       <c r="I98">
         <v>2059</v>
       </c>
-      <c r="J98" s="6">
+      <c r="J98" s="7">
         <v>1</v>
       </c>
-      <c r="K98" s="3">
+      <c r="K98" s="4">
+        <f>I98/J98</f>
+        <v>2059</v>
+      </c>
+      <c r="L98" s="5">
         <f t="shared" si="5"/>
-        <v>2059</v>
-      </c>
-      <c r="L98" s="4">
-        <f t="shared" si="6"/>
         <v>4.273919378339</v>
       </c>
-      <c r="M98" s="5"/>
+      <c r="M98" s="6"/>
       <c r="N98" t="s">
         <v>595</v>
       </c>
@@ -13942,26 +14346,27 @@
         <v>6200</v>
       </c>
       <c r="G99">
+        <f>F99+G98</f>
         <v>15000</v>
       </c>
       <c r="H99" t="s">
         <v>456</v>
       </c>
       <c r="I99">
-        <v>3749</v>
-      </c>
-      <c r="J99" s="6">
+        <v>4000</v>
+      </c>
+      <c r="J99" s="7">
         <v>1</v>
       </c>
-      <c r="K99" s="3">
-        <f t="shared" ref="K99:K127" si="7">I99/J99</f>
-        <v>3749</v>
-      </c>
-      <c r="L99" s="4">
-        <f t="shared" si="6"/>
-        <v>4.00106695118698</v>
-      </c>
-      <c r="M99" s="5"/>
+      <c r="K99" s="4">
+        <f t="shared" ref="K99:K127" si="6">I99/J99</f>
+        <v>4000</v>
+      </c>
+      <c r="L99" s="5">
+        <f>G99/K99</f>
+        <v>3.75</v>
+      </c>
+      <c r="M99" s="6"/>
       <c r="N99" t="s">
         <v>596</v>
       </c>
@@ -13997,15 +14402,15 @@
       <c r="J100">
         <v>1.1</v>
       </c>
-      <c r="K100" s="3">
-        <f t="shared" si="7"/>
+      <c r="K100" s="4">
+        <f t="shared" si="6"/>
         <v>11.8181818181818</v>
       </c>
-      <c r="L100" s="4">
-        <f t="shared" si="6"/>
+      <c r="L100" s="5">
+        <f t="shared" si="5"/>
         <v>6.76923076923077</v>
       </c>
-      <c r="M100" s="5">
+      <c r="M100" s="6">
         <v>3.69</v>
       </c>
       <c r="N100" t="s">
@@ -14043,15 +14448,15 @@
       <c r="J101">
         <v>1.1</v>
       </c>
-      <c r="K101" s="3">
-        <f t="shared" si="7"/>
+      <c r="K101" s="4">
+        <f t="shared" si="6"/>
         <v>26.3636363636364</v>
       </c>
-      <c r="L101" s="4">
-        <f t="shared" si="6"/>
+      <c r="L101" s="5">
+        <f t="shared" si="5"/>
         <v>6.06896551724138</v>
       </c>
-      <c r="M101" s="5"/>
+      <c r="M101" s="6"/>
       <c r="N101" t="s">
         <v>597</v>
       </c>
@@ -14087,15 +14492,15 @@
       <c r="J102">
         <v>1.1</v>
       </c>
-      <c r="K102" s="3">
-        <f t="shared" si="7"/>
+      <c r="K102" s="4">
+        <f t="shared" si="6"/>
         <v>62.7272727272727</v>
       </c>
-      <c r="L102" s="4">
-        <f t="shared" si="6"/>
+      <c r="L102" s="5">
+        <f t="shared" si="5"/>
         <v>5.10144927536232</v>
       </c>
-      <c r="M102" s="5"/>
+      <c r="M102" s="6"/>
       <c r="N102" t="s">
         <v>597</v>
       </c>
@@ -14131,15 +14536,15 @@
       <c r="J103">
         <v>1.1</v>
       </c>
-      <c r="K103" s="3">
-        <f t="shared" si="7"/>
+      <c r="K103" s="4">
+        <f t="shared" si="6"/>
         <v>43.6363636363636</v>
       </c>
-      <c r="L103" s="4">
-        <f t="shared" si="6"/>
+      <c r="L103" s="5">
+        <f t="shared" si="5"/>
         <v>5.72916666666667</v>
       </c>
-      <c r="M103" s="5"/>
+      <c r="M103" s="6"/>
       <c r="N103" t="s">
         <v>598</v>
       </c>
@@ -14175,15 +14580,15 @@
       <c r="J104">
         <v>1.1</v>
       </c>
-      <c r="K104" s="3">
-        <f t="shared" si="7"/>
+      <c r="K104" s="4">
+        <f t="shared" si="6"/>
         <v>121.818181818182</v>
       </c>
-      <c r="L104" s="4">
-        <f t="shared" si="6"/>
+      <c r="L104" s="5">
+        <f t="shared" si="5"/>
         <v>3.94029850746269</v>
       </c>
-      <c r="M104" s="5"/>
+      <c r="M104" s="6"/>
       <c r="N104" t="s">
         <v>598</v>
       </c>
@@ -14219,15 +14624,15 @@
       <c r="J105">
         <v>1.1</v>
       </c>
-      <c r="K105" s="3">
-        <f t="shared" si="7"/>
+      <c r="K105" s="4">
+        <f t="shared" si="6"/>
         <v>408.181818181818</v>
       </c>
-      <c r="L105" s="4">
-        <f t="shared" si="6"/>
+      <c r="L105" s="5">
+        <f t="shared" si="5"/>
         <v>2.25389755011136</v>
       </c>
-      <c r="M105" s="5"/>
+      <c r="M105" s="6"/>
       <c r="N105" t="s">
         <v>598</v>
       </c>
@@ -14263,15 +14668,15 @@
       <c r="J106">
         <v>1.1</v>
       </c>
-      <c r="K106" s="3">
-        <f t="shared" si="7"/>
+      <c r="K106" s="4">
+        <f t="shared" si="6"/>
         <v>299.090909090909</v>
       </c>
-      <c r="L106" s="4">
-        <f t="shared" si="6"/>
+      <c r="L106" s="5">
+        <f t="shared" si="5"/>
         <v>2.67477203647416</v>
       </c>
-      <c r="M106" s="5"/>
+      <c r="M106" s="6"/>
       <c r="N106" t="s">
         <v>599</v>
       </c>
@@ -14307,15 +14712,15 @@
       <c r="J107">
         <v>1.1</v>
       </c>
-      <c r="K107" s="3">
-        <f t="shared" si="7"/>
+      <c r="K107" s="4">
+        <f t="shared" si="6"/>
         <v>599.090909090909</v>
       </c>
-      <c r="L107" s="4">
-        <f t="shared" si="6"/>
+      <c r="L107" s="5">
+        <f t="shared" si="5"/>
         <v>2.16995447647951</v>
       </c>
-      <c r="M107" s="5"/>
+      <c r="M107" s="6"/>
       <c r="N107" t="s">
         <v>600</v>
       </c>
@@ -14351,15 +14756,15 @@
       <c r="J108">
         <v>1.1</v>
       </c>
-      <c r="K108" s="3">
-        <f t="shared" si="7"/>
+      <c r="K108" s="4">
+        <f t="shared" si="6"/>
         <v>899.090909090909</v>
       </c>
-      <c r="L108" s="4">
-        <f t="shared" si="6"/>
+      <c r="L108" s="5">
+        <f t="shared" si="5"/>
         <v>2.11324570273003</v>
       </c>
-      <c r="M108" s="5"/>
+      <c r="M108" s="6"/>
       <c r="N108" t="s">
         <v>600</v>
       </c>
@@ -14395,15 +14800,15 @@
       <c r="J109">
         <v>1.1</v>
       </c>
-      <c r="K109" s="3">
-        <f t="shared" si="7"/>
+      <c r="K109" s="4">
+        <f t="shared" si="6"/>
         <v>1199.09090909091</v>
       </c>
-      <c r="L109" s="4">
-        <f t="shared" si="6"/>
+      <c r="L109" s="5">
+        <f t="shared" si="5"/>
         <v>2.41849886277483</v>
       </c>
-      <c r="M109" s="5"/>
+      <c r="M109" s="6"/>
       <c r="N109" t="s">
         <v>600</v>
       </c>
@@ -14439,15 +14844,15 @@
       <c r="J110">
         <v>1.1</v>
       </c>
-      <c r="K110" s="3">
-        <f t="shared" si="7"/>
+      <c r="K110" s="4">
+        <f t="shared" si="6"/>
         <v>762.727272727273</v>
       </c>
-      <c r="L110" s="4">
-        <f t="shared" si="6"/>
+      <c r="L110" s="5">
+        <f t="shared" si="5"/>
         <v>4.71990464839094</v>
       </c>
-      <c r="M110" s="5"/>
+      <c r="M110" s="6"/>
       <c r="N110" t="s">
         <v>601</v>
       </c>
@@ -14483,15 +14888,15 @@
       <c r="J111">
         <v>1.1</v>
       </c>
-      <c r="K111" s="3">
-        <f t="shared" si="7"/>
+      <c r="K111" s="4">
+        <f t="shared" si="6"/>
         <v>2344.54545454545</v>
       </c>
-      <c r="L111" s="4">
-        <f t="shared" si="6"/>
+      <c r="L111" s="5">
+        <f t="shared" si="5"/>
         <v>2.85769678169833</v>
       </c>
-      <c r="M111" s="5"/>
+      <c r="M111" s="6"/>
       <c r="N111" t="s">
         <v>602</v>
       </c>
@@ -14527,15 +14932,15 @@
       <c r="J112">
         <v>1.1</v>
       </c>
-      <c r="K112" s="3">
-        <f t="shared" si="7"/>
+      <c r="K112" s="4">
+        <f t="shared" si="6"/>
         <v>944.545454545455</v>
       </c>
-      <c r="L112" s="4">
-        <f t="shared" ref="L112:L127" si="8">G112/K112</f>
+      <c r="L112" s="5">
+        <f t="shared" ref="L112:L127" si="7">G112/K112</f>
         <v>4.02309913378248</v>
       </c>
-      <c r="M112" s="5"/>
+      <c r="M112" s="6"/>
       <c r="N112" t="s">
         <v>603</v>
       </c>
@@ -14571,15 +14976,15 @@
       <c r="J113">
         <v>1.1</v>
       </c>
-      <c r="K113" s="3">
+      <c r="K113" s="4">
+        <f t="shared" si="6"/>
+        <v>1708.18181818182</v>
+      </c>
+      <c r="L113" s="5">
         <f t="shared" si="7"/>
-        <v>1708.18181818182</v>
-      </c>
-      <c r="L113" s="4">
-        <f t="shared" si="8"/>
         <v>3.39542309739223</v>
       </c>
-      <c r="M113" s="5"/>
+      <c r="M113" s="6"/>
       <c r="N113" t="s">
         <v>604</v>
       </c>
@@ -14615,15 +15020,15 @@
       <c r="J114">
         <v>1.1</v>
       </c>
-      <c r="K114" s="3">
+      <c r="K114" s="4">
+        <f t="shared" si="6"/>
+        <v>1135.45454545455</v>
+      </c>
+      <c r="L114" s="5">
         <f t="shared" si="7"/>
-        <v>1135.45454545455</v>
-      </c>
-      <c r="L114" s="4">
-        <f t="shared" si="8"/>
         <v>2.81825460368295</v>
       </c>
-      <c r="M114" s="5"/>
+      <c r="M114" s="6"/>
       <c r="N114" t="s">
         <v>605</v>
       </c>
@@ -14659,15 +15064,15 @@
       <c r="J115">
         <v>1.1</v>
       </c>
-      <c r="K115" s="3">
+      <c r="K115" s="4">
+        <f t="shared" si="6"/>
+        <v>1690</v>
+      </c>
+      <c r="L115" s="5">
         <f t="shared" si="7"/>
-        <v>1690</v>
-      </c>
-      <c r="L115" s="4">
-        <f t="shared" si="8"/>
         <v>3.43195266272189</v>
       </c>
-      <c r="M115" s="5"/>
+      <c r="M115" s="6"/>
       <c r="N115" t="s">
         <v>605</v>
       </c>
@@ -14703,15 +15108,15 @@
       <c r="J116">
         <v>1.1</v>
       </c>
-      <c r="K116" s="3">
+      <c r="K116" s="4">
+        <f t="shared" si="6"/>
+        <v>2226.36363636364</v>
+      </c>
+      <c r="L116" s="5">
         <f t="shared" si="7"/>
-        <v>2226.36363636364</v>
-      </c>
-      <c r="L116" s="4">
-        <f t="shared" si="8"/>
         <v>3.72805226623112</v>
       </c>
-      <c r="M116" s="5"/>
+      <c r="M116" s="6"/>
       <c r="N116" t="s">
         <v>605</v>
       </c>
@@ -14747,15 +15152,15 @@
       <c r="J117">
         <v>1.1</v>
       </c>
-      <c r="K117" s="3">
+      <c r="K117" s="4">
+        <f t="shared" si="6"/>
+        <v>4090</v>
+      </c>
+      <c r="L117" s="5">
         <f t="shared" si="7"/>
-        <v>4090</v>
-      </c>
-      <c r="L117" s="4">
-        <f t="shared" si="8"/>
         <v>2.3960880195599</v>
       </c>
-      <c r="M117" s="5"/>
+      <c r="M117" s="6"/>
       <c r="N117" t="s">
         <v>606</v>
       </c>
@@ -14791,15 +15196,15 @@
       <c r="J118">
         <v>1.1</v>
       </c>
-      <c r="K118" s="3">
+      <c r="K118" s="4">
+        <f t="shared" si="6"/>
+        <v>3817.27272727273</v>
+      </c>
+      <c r="L118" s="5">
         <f t="shared" si="7"/>
-        <v>3817.27272727273</v>
-      </c>
-      <c r="L118" s="4">
-        <f t="shared" si="8"/>
         <v>3.40557275541796</v>
       </c>
-      <c r="M118" s="5"/>
+      <c r="M118" s="6"/>
       <c r="N118" t="s">
         <v>607</v>
       </c>
@@ -14835,15 +15240,15 @@
       <c r="J119">
         <v>1.3</v>
       </c>
-      <c r="K119" s="3">
+      <c r="K119" s="4">
+        <f t="shared" si="6"/>
+        <v>37.6923076923077</v>
+      </c>
+      <c r="L119" s="5">
         <f t="shared" si="7"/>
-        <v>37.6923076923077</v>
-      </c>
-      <c r="L119" s="4">
-        <f t="shared" si="8"/>
         <v>6.63265306122449</v>
       </c>
-      <c r="M119" s="4"/>
+      <c r="M119" s="5"/>
       <c r="N119" t="s">
         <v>608</v>
       </c>
@@ -14879,15 +15284,15 @@
       <c r="J120">
         <v>1.1</v>
       </c>
-      <c r="K120" s="3">
+      <c r="K120" s="4">
+        <f t="shared" si="6"/>
+        <v>408.181818181818</v>
+      </c>
+      <c r="L120" s="5">
         <f t="shared" si="7"/>
-        <v>408.181818181818</v>
-      </c>
-      <c r="L120" s="4">
-        <f t="shared" si="8"/>
         <v>4.28730512249443</v>
       </c>
-      <c r="M120" s="4"/>
+      <c r="M120" s="5"/>
       <c r="N120" t="s">
         <v>608</v>
       </c>
@@ -14923,15 +15328,15 @@
       <c r="J121">
         <v>1.2</v>
       </c>
-      <c r="K121" s="3">
+      <c r="K121" s="4">
+        <f t="shared" si="6"/>
+        <v>124.166666666667</v>
+      </c>
+      <c r="L121" s="5">
         <f t="shared" si="7"/>
-        <v>124.166666666667</v>
-      </c>
-      <c r="L121" s="4">
-        <f t="shared" si="8"/>
         <v>6.04026845637584</v>
       </c>
-      <c r="M121" s="4"/>
+      <c r="M121" s="5"/>
       <c r="N121" t="s">
         <v>608</v>
       </c>
@@ -14964,18 +15369,18 @@
       <c r="I122">
         <v>1349</v>
       </c>
-      <c r="J122" s="6">
+      <c r="J122" s="7">
         <v>1</v>
       </c>
-      <c r="K122" s="3">
+      <c r="K122" s="4">
+        <f t="shared" si="6"/>
+        <v>1349</v>
+      </c>
+      <c r="L122" s="5">
         <f t="shared" si="7"/>
-        <v>1349</v>
-      </c>
-      <c r="L122" s="4">
-        <f t="shared" si="8"/>
         <v>2.77983691623425</v>
       </c>
-      <c r="M122" s="4"/>
+      <c r="M122" s="5"/>
       <c r="N122" t="s">
         <v>608</v>
       </c>
@@ -15011,15 +15416,15 @@
       <c r="J123">
         <v>0.9</v>
       </c>
-      <c r="K123" s="3">
+      <c r="K123" s="4">
+        <f t="shared" si="6"/>
+        <v>4498.88888888889</v>
+      </c>
+      <c r="L123" s="5">
         <f t="shared" si="7"/>
-        <v>4498.88888888889</v>
-      </c>
-      <c r="L123" s="4">
-        <f t="shared" si="8"/>
         <v>1.72264756730057</v>
       </c>
-      <c r="M123" s="4"/>
+      <c r="M123" s="5"/>
       <c r="N123" t="s">
         <v>608</v>
       </c>
@@ -15055,15 +15460,15 @@
       <c r="J124">
         <v>0.8</v>
       </c>
-      <c r="K124" s="3">
+      <c r="K124" s="4">
+        <f t="shared" si="6"/>
+        <v>15186.25</v>
+      </c>
+      <c r="L124" s="5">
         <f t="shared" si="7"/>
-        <v>15186.25</v>
-      </c>
-      <c r="L124" s="4">
-        <f t="shared" si="8"/>
         <v>0.905424314758416</v>
       </c>
-      <c r="M124" s="4"/>
+      <c r="M124" s="5"/>
       <c r="N124" t="s">
         <v>608</v>
       </c>
@@ -15099,15 +15504,15 @@
       <c r="J125">
         <v>0.8</v>
       </c>
-      <c r="K125" s="3">
+      <c r="K125" s="4">
+        <f t="shared" si="6"/>
+        <v>1.25</v>
+      </c>
+      <c r="L125" s="5">
         <f t="shared" si="7"/>
-        <v>1.25</v>
-      </c>
-      <c r="L125" s="4">
-        <f t="shared" si="8"/>
         <v>8000</v>
       </c>
-      <c r="M125" s="4"/>
+      <c r="M125" s="5"/>
       <c r="N125" t="s">
         <v>609</v>
       </c>
@@ -15143,15 +15548,15 @@
       <c r="J126">
         <v>1.1</v>
       </c>
-      <c r="K126" s="3">
+      <c r="K126" s="4">
+        <f t="shared" si="6"/>
+        <v>953.636363636364</v>
+      </c>
+      <c r="L126" s="5">
         <f t="shared" si="7"/>
-        <v>953.636363636364</v>
-      </c>
-      <c r="L126" s="4">
-        <f t="shared" si="8"/>
         <v>4.19447092469018</v>
       </c>
-      <c r="M126" s="4"/>
+      <c r="M126" s="5"/>
       <c r="N126" t="s">
         <v>610</v>
       </c>
@@ -15187,15 +15592,15 @@
       <c r="J127">
         <v>1.1</v>
       </c>
-      <c r="K127" s="3">
+      <c r="K127" s="4">
+        <f t="shared" si="6"/>
+        <v>453.636363636364</v>
+      </c>
+      <c r="L127" s="5">
         <f t="shared" si="7"/>
-        <v>453.636363636364</v>
-      </c>
-      <c r="L127" s="4">
-        <f t="shared" si="8"/>
         <v>4.40881763527054</v>
       </c>
-      <c r="M127" s="4"/>
+      <c r="M127" s="5"/>
       <c r="N127" t="s">
         <v>611</v>
       </c>
@@ -15225,7 +15630,7 @@
       <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="5" max="5" width="8.5" customWidth="1"/>
     <col min="6" max="6" width="13.75"/>
@@ -15279,11 +15684,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="3">
         <f t="shared" ref="E2:E33" si="0">0.06*C2/(1+0.06*C2)</f>
         <v>-0.136363636363636</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <f>B2/(1-E2)</f>
         <v>20.24</v>
       </c>
@@ -15295,11 +15700,11 @@
         <f>C2+19*D2</f>
         <v>17</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="3">
         <f>0.06*H2/(1+0.06*H2)</f>
         <v>0.504950495049505</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="4">
         <f>G2/(1-I2)</f>
         <v>223.008</v>
       </c>
@@ -15321,11 +15726,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="3">
         <f t="shared" si="0"/>
         <v>0.0566037735849057</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F34" si="1">B3/(1-E3)</f>
         <v>79.5</v>
       </c>
@@ -15337,11 +15742,11 @@
         <f t="shared" ref="H3:H34" si="3">C3+19*D3</f>
         <v>20</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="3">
         <f t="shared" ref="I3:I34" si="4">0.06*H3/(1+0.06*H3)</f>
         <v>0.545454545454545</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="4">
         <f t="shared" ref="J3:J34" si="5">G3/(1-I3)</f>
         <v>792</v>
       </c>
@@ -15363,11 +15768,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>0.107142857142857</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="4">
         <f t="shared" si="1"/>
         <v>176.96</v>
       </c>
@@ -15379,11 +15784,11 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="3">
         <f t="shared" si="4"/>
         <v>0.557522123893805</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="4">
         <f t="shared" si="5"/>
         <v>1713.984</v>
       </c>
@@ -15405,11 +15810,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>0.193548387096774</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="4">
         <f t="shared" si="1"/>
         <v>334.8</v>
       </c>
@@ -15421,11 +15826,11 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <f t="shared" si="4"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="4">
         <f t="shared" si="5"/>
         <v>3084.48</v>
       </c>
@@ -15447,11 +15852,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
         <v>0.264705882352941</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="4">
         <f t="shared" si="1"/>
         <v>561.68</v>
       </c>
@@ -15463,11 +15868,11 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="4">
         <f t="shared" si="5"/>
         <v>4956</v>
       </c>
@@ -15489,11 +15894,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>0.324324324324324</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <f t="shared" si="1"/>
         <v>865.8</v>
       </c>
@@ -15505,11 +15910,11 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <f t="shared" si="4"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="4">
         <f t="shared" si="5"/>
         <v>7356.96</v>
       </c>
@@ -15531,11 +15936,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <f t="shared" si="1"/>
         <v>1260.8</v>
       </c>
@@ -15547,11 +15952,11 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <f t="shared" si="4"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="4">
         <f t="shared" si="5"/>
         <v>10363.776</v>
       </c>
@@ -15573,11 +15978,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
         <v>0.350649350649351</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <f t="shared" si="1"/>
         <v>1570.8</v>
       </c>
@@ -15589,11 +15994,11 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <f t="shared" si="4"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="4">
         <f t="shared" si="5"/>
         <v>13121.28</v>
       </c>
@@ -15615,11 +16020,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>0.350649350649351</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <f t="shared" si="1"/>
         <v>1975.82</v>
       </c>
@@ -15631,11 +16036,11 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <f t="shared" si="4"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="4">
         <f t="shared" si="5"/>
         <v>16504.512</v>
       </c>
@@ -15657,11 +16062,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="4">
         <f t="shared" si="1"/>
         <v>2520</v>
       </c>
@@ -15673,11 +16078,11 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <f t="shared" si="4"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="4">
         <f t="shared" si="5"/>
         <v>20714.4</v>
       </c>
@@ -15699,11 +16104,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="4">
         <f t="shared" si="1"/>
         <v>3012.8</v>
       </c>
@@ -15715,11 +16120,11 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="3">
         <f t="shared" si="4"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="4">
         <f t="shared" si="5"/>
         <v>24765.216</v>
       </c>
@@ -15741,11 +16146,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
         <v>0.397590361445783</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="4">
         <f t="shared" si="1"/>
         <v>3685.2</v>
       </c>
@@ -15757,11 +16162,11 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="3">
         <f t="shared" si="4"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="4">
         <f t="shared" si="5"/>
         <v>29836.8</v>
       </c>
@@ -15783,11 +16188,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
         <v>0.397590361445783</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="4">
         <f t="shared" si="1"/>
         <v>4233</v>
       </c>
@@ -15799,11 +16204,11 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="3">
         <f t="shared" si="4"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="4">
         <f t="shared" si="5"/>
         <v>34272</v>
       </c>
@@ -15825,11 +16230,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="3">
         <f t="shared" si="0"/>
         <v>0.418604651162791</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="4">
         <f t="shared" si="1"/>
         <v>5070.56</v>
       </c>
@@ -15841,11 +16246,11 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="3">
         <f t="shared" si="4"/>
         <v>0.65034965034965</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="4">
         <f t="shared" si="5"/>
         <v>40470.144</v>
       </c>
@@ -15867,11 +16272,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="3">
         <f t="shared" si="0"/>
         <v>0.438202247191011</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="4">
         <f t="shared" si="1"/>
         <v>6007.5</v>
       </c>
@@ -15883,11 +16288,11 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="3">
         <f t="shared" si="4"/>
         <v>0.657534246575342</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="4">
         <f t="shared" si="5"/>
         <v>47304</v>
       </c>
@@ -15909,11 +16314,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="3">
         <f t="shared" si="0"/>
         <v>0.438202247191011</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="4">
         <f t="shared" si="1"/>
         <v>7075.5</v>
       </c>
@@ -15925,11 +16330,11 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="3">
         <f t="shared" si="4"/>
         <v>0.657534246575342</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="4">
         <f t="shared" si="5"/>
         <v>55713.6</v>
       </c>
@@ -15951,11 +16356,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="3">
         <f t="shared" si="0"/>
         <v>0.456521739130435</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="4">
         <f t="shared" si="1"/>
         <v>8832</v>
       </c>
@@ -15967,11 +16372,11 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="3">
         <f t="shared" si="4"/>
         <v>0.664429530201342</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="4">
         <f t="shared" si="5"/>
         <v>68659.2</v>
       </c>
@@ -15993,11 +16398,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="3">
         <f t="shared" si="0"/>
         <v>0.473684210526316</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="4">
         <f t="shared" si="1"/>
         <v>10972.5</v>
       </c>
@@ -16009,11 +16414,11 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="3">
         <f t="shared" si="4"/>
         <v>0.671052631578947</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="4">
         <f t="shared" si="5"/>
         <v>84268.8</v>
       </c>
@@ -16035,11 +16440,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="3">
         <f t="shared" si="0"/>
         <v>0.489795918367347</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="4">
         <f t="shared" si="1"/>
         <v>13524</v>
       </c>
@@ -16051,11 +16456,11 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="3">
         <f t="shared" si="4"/>
         <v>0.67741935483871</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="4">
         <f t="shared" si="5"/>
         <v>102672</v>
       </c>
@@ -16077,11 +16482,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="3">
         <f t="shared" si="0"/>
         <v>0.504950495049505</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="4">
         <f t="shared" si="1"/>
         <v>16513.5</v>
       </c>
@@ -16093,11 +16498,11 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="3">
         <f t="shared" si="4"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="4">
         <f t="shared" si="5"/>
         <v>123998.4</v>
       </c>
@@ -16119,11 +16524,11 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="3">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="4">
         <f t="shared" si="1"/>
         <v>20592</v>
       </c>
@@ -16135,11 +16540,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="3">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="4">
         <f t="shared" si="5"/>
         <v>153014.4</v>
       </c>
@@ -16161,11 +16566,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="3">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="4">
         <f t="shared" si="1"/>
         <v>24648</v>
       </c>
@@ -16177,11 +16582,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="3">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="4">
         <f t="shared" si="5"/>
         <v>183153.6</v>
       </c>
@@ -16203,11 +16608,11 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="3">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="4">
         <f t="shared" si="1"/>
         <v>29796</v>
       </c>
@@ -16219,11 +16624,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="3">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="4">
         <f t="shared" si="5"/>
         <v>221407.2</v>
       </c>
@@ -16245,11 +16650,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="3">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="4">
         <f t="shared" si="1"/>
         <v>34684</v>
       </c>
@@ -16261,11 +16666,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="3">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="4">
         <f t="shared" si="5"/>
         <v>257728.8</v>
       </c>
@@ -16287,11 +16692,11 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="3">
         <f t="shared" si="0"/>
         <v>0.532710280373832</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="4">
         <f t="shared" si="1"/>
         <v>40606.5</v>
       </c>
@@ -16303,11 +16708,11 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="3">
         <f t="shared" si="4"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="4">
         <f t="shared" si="5"/>
         <v>298742.4</v>
       </c>
@@ -16329,11 +16734,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="3">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="4">
         <f t="shared" si="1"/>
         <v>44928</v>
       </c>
@@ -16345,11 +16750,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="3">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="4">
         <f t="shared" si="5"/>
         <v>333849.6</v>
       </c>
@@ -16371,11 +16776,11 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="3">
         <f t="shared" si="0"/>
         <v>0.557522123893805</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="4">
         <f t="shared" si="1"/>
         <v>55426.5</v>
       </c>
@@ -16387,11 +16792,11 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="3">
         <f t="shared" si="4"/>
         <v>0.705882352941177</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="4">
         <f t="shared" si="5"/>
         <v>400248</v>
       </c>
@@ -16413,11 +16818,11 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="3">
         <f t="shared" si="0"/>
         <v>0.545454545454545</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="4">
         <f t="shared" si="1"/>
         <v>61050</v>
       </c>
@@ -16429,11 +16834,11 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="3">
         <f t="shared" si="4"/>
         <v>0.70059880239521</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="4">
         <f t="shared" si="5"/>
         <v>444888</v>
       </c>
@@ -16455,11 +16860,11 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="3">
         <f t="shared" si="0"/>
         <v>0.568965517241379</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="4">
         <f t="shared" si="1"/>
         <v>73080</v>
       </c>
@@ -16471,11 +16876,11 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="3">
         <f t="shared" si="4"/>
         <v>0.710982658959538</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="4">
         <f t="shared" si="5"/>
         <v>523152</v>
       </c>
@@ -16497,11 +16902,11 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="3">
         <f t="shared" si="0"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="4">
         <f t="shared" si="1"/>
         <v>85323</v>
       </c>
@@ -16513,11 +16918,11 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="3">
         <f t="shared" si="4"/>
         <v>0.715909090909091</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="4">
         <f t="shared" si="5"/>
         <v>605721.6</v>
       </c>
@@ -16539,11 +16944,11 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="3">
         <f t="shared" si="0"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="F32" s="3">
+      <c r="F32" s="4">
         <f t="shared" si="1"/>
         <v>97104</v>
       </c>
@@ -16555,11 +16960,11 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="3">
         <f t="shared" si="4"/>
         <v>0.715909090909091</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="4">
         <f t="shared" si="5"/>
         <v>689356.8</v>
       </c>
@@ -16581,11 +16986,11 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="3">
         <f t="shared" si="0"/>
         <v>0.609375</v>
       </c>
-      <c r="F33" s="3">
+      <c r="F33" s="4">
         <f t="shared" si="1"/>
         <v>118656</v>
       </c>
@@ -16597,11 +17002,11 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="3">
         <f t="shared" si="4"/>
         <v>0.72972972972973</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="4">
         <f t="shared" si="5"/>
         <v>823176</v>
       </c>
@@ -16623,11 +17028,11 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="3">
         <f t="shared" ref="E34:E56" si="7">0.06*C34/(1+0.06*C34)</f>
         <v>0.609375</v>
       </c>
-      <c r="F34" s="3">
+      <c r="F34" s="4">
         <f t="shared" si="1"/>
         <v>134400</v>
       </c>
@@ -16639,11 +17044,11 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="3">
         <f t="shared" si="4"/>
         <v>0.72972972972973</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="4">
         <f t="shared" si="5"/>
         <v>932400</v>
       </c>
@@ -16665,11 +17070,11 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="3">
         <f t="shared" si="7"/>
         <v>0.609375</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="4">
         <f t="shared" ref="F35:F56" si="8">B35/(1-E35)</f>
         <v>151680</v>
       </c>
@@ -16681,11 +17086,11 @@
         <f t="shared" ref="H35:H56" si="10">C35+19*D35</f>
         <v>45</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="3">
         <f t="shared" ref="I35:I56" si="11">0.06*H35/(1+0.06*H35)</f>
         <v>0.72972972972973</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="4">
         <f t="shared" ref="J35:J56" si="12">G35/(1-I35)</f>
         <v>1052280</v>
       </c>
@@ -16707,11 +17112,11 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="3">
         <f t="shared" si="7"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="F36" s="3">
+      <c r="F36" s="4">
         <f t="shared" si="8"/>
         <v>170955</v>
       </c>
@@ -16723,11 +17128,11 @@
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="3">
         <f t="shared" si="11"/>
         <v>0.734042553191489</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="4">
         <f t="shared" si="12"/>
         <v>1177632</v>
       </c>
@@ -16749,11 +17154,11 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="3">
         <f t="shared" si="7"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F37" s="4">
         <f t="shared" si="8"/>
         <v>188640</v>
       </c>
@@ -16765,11 +17170,11 @@
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="3">
         <f t="shared" si="11"/>
         <v>0.734042553191489</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="4">
         <f t="shared" si="12"/>
         <v>1299456</v>
       </c>
@@ -16791,11 +17196,11 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="3">
         <f t="shared" si="7"/>
         <v>0.609375</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F38" s="4">
         <f t="shared" si="8"/>
         <v>199680</v>
       </c>
@@ -16807,11 +17212,11 @@
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="3">
         <f t="shared" si="11"/>
         <v>0.72972972972973</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="4">
         <f t="shared" si="12"/>
         <v>1385280</v>
       </c>
@@ -16833,11 +17238,11 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="3">
         <f t="shared" si="7"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F39" s="4">
         <f t="shared" si="8"/>
         <v>225924</v>
       </c>
@@ -16849,11 +17254,11 @@
         <f t="shared" si="10"/>
         <v>47</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="3">
         <f t="shared" si="11"/>
         <v>0.738219895287958</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="4">
         <f t="shared" si="12"/>
         <v>1545724.8</v>
       </c>
@@ -16875,11 +17280,11 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="3">
         <f t="shared" si="7"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F40" s="4">
         <f t="shared" si="8"/>
         <v>249477</v>
       </c>
@@ -16891,11 +17296,11 @@
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="3">
         <f t="shared" si="11"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="4">
         <f t="shared" si="12"/>
         <v>1695715.2</v>
       </c>
@@ -16917,11 +17322,11 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="3">
         <f t="shared" si="7"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F41" s="3">
+      <c r="F41" s="4">
         <f t="shared" si="8"/>
         <v>268794</v>
       </c>
@@ -16933,11 +17338,11 @@
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="3">
         <f t="shared" si="11"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="4">
         <f t="shared" si="12"/>
         <v>1827014.4</v>
       </c>
@@ -16959,11 +17364,11 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="3">
         <f t="shared" si="7"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F42" s="3">
+      <c r="F42" s="4">
         <f t="shared" si="8"/>
         <v>289344</v>
       </c>
@@ -16975,11 +17380,11 @@
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="3">
         <f t="shared" si="11"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="4">
         <f t="shared" si="12"/>
         <v>1966694.4</v>
       </c>
@@ -17001,11 +17406,11 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="3">
         <f t="shared" si="7"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="4">
         <f t="shared" si="8"/>
         <v>310716</v>
       </c>
@@ -17017,11 +17422,11 @@
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="3">
         <f t="shared" si="11"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="4">
         <f t="shared" si="12"/>
         <v>2111961.6</v>
       </c>
@@ -17043,11 +17448,11 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" s="2">
+      <c r="E44" s="3">
         <f t="shared" si="7"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="F44" s="3">
+      <c r="F44" s="4">
         <f t="shared" si="8"/>
         <v>340200</v>
       </c>
@@ -17059,11 +17464,11 @@
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="3">
         <f t="shared" si="11"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="J44" s="3">
+      <c r="J44" s="4">
         <f t="shared" si="12"/>
         <v>2297808</v>
       </c>
@@ -17085,11 +17490,11 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="2">
+      <c r="E45" s="3">
         <f t="shared" si="7"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="F45" s="3">
+      <c r="F45" s="4">
         <f t="shared" si="8"/>
         <v>364140</v>
       </c>
@@ -17101,11 +17506,11 @@
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="3">
         <f t="shared" si="11"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="J45" s="3">
+      <c r="J45" s="4">
         <f t="shared" si="12"/>
         <v>2459505.6</v>
       </c>
@@ -17127,11 +17532,11 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="3">
         <f t="shared" si="7"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="F46" s="3">
+      <c r="F46" s="4">
         <f t="shared" si="8"/>
         <v>389760</v>
       </c>
@@ -17143,11 +17548,11 @@
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="3">
         <f t="shared" si="11"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="J46" s="3">
+      <c r="J46" s="4">
         <f t="shared" si="12"/>
         <v>2632550.4</v>
       </c>
@@ -17169,11 +17574,11 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="3">
         <f t="shared" si="7"/>
         <v>0.65034965034965</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="4">
         <f t="shared" si="8"/>
         <v>425568</v>
       </c>
@@ -17185,11 +17590,11 @@
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="3">
         <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="4">
         <f t="shared" si="12"/>
         <v>2856960</v>
       </c>
@@ -17208,11 +17613,11 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="3">
         <f t="shared" si="7"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -17224,11 +17629,11 @@
         <f t="shared" si="10"/>
         <v>519</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="3">
         <f t="shared" si="11"/>
         <v>0.968886123210952</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -17250,11 +17655,11 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="3">
         <f t="shared" si="7"/>
         <v>0.664429530201342</v>
       </c>
-      <c r="F49" s="3">
+      <c r="F49" s="4">
         <f t="shared" si="8"/>
         <v>522990</v>
       </c>
@@ -17266,11 +17671,11 @@
         <f t="shared" si="10"/>
         <v>52</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="3">
         <f t="shared" si="11"/>
         <v>0.757281553398058</v>
       </c>
-      <c r="J49" s="3">
+      <c r="J49" s="4">
         <f t="shared" si="12"/>
         <v>3470688</v>
       </c>
@@ -17292,11 +17697,11 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="3">
         <f t="shared" si="7"/>
         <v>0.664429530201342</v>
       </c>
-      <c r="F50" s="3">
+      <c r="F50" s="4">
         <f t="shared" si="8"/>
         <v>558750</v>
       </c>
@@ -17308,11 +17713,11 @@
         <f t="shared" si="10"/>
         <v>52</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="3">
         <f t="shared" si="11"/>
         <v>0.757281553398058</v>
       </c>
-      <c r="J50" s="3">
+      <c r="J50" s="4">
         <f t="shared" si="12"/>
         <v>3708000</v>
       </c>
@@ -17334,11 +17739,11 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="3">
         <f t="shared" si="7"/>
         <v>0.67741935483871</v>
       </c>
-      <c r="F51" s="3">
+      <c r="F51" s="4">
         <f t="shared" si="8"/>
         <v>632400</v>
       </c>
@@ -17350,11 +17755,11 @@
         <f t="shared" si="10"/>
         <v>54</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="3">
         <f t="shared" si="11"/>
         <v>0.764150943396226</v>
       </c>
-      <c r="J51" s="3">
+      <c r="J51" s="4">
         <f t="shared" si="12"/>
         <v>4151808</v>
       </c>
@@ -17376,11 +17781,11 @@
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="3">
         <f t="shared" si="7"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="F52" s="3">
+      <c r="F52" s="4">
         <f t="shared" si="8"/>
         <v>681928</v>
       </c>
@@ -17392,11 +17797,11 @@
         <f t="shared" si="10"/>
         <v>55</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="3">
         <f t="shared" si="11"/>
         <v>0.767441860465116</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="4">
         <f t="shared" si="12"/>
         <v>4454112</v>
       </c>
@@ -17418,11 +17823,11 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="3">
         <f t="shared" si="7"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="F53" s="3">
+      <c r="F53" s="4">
         <f t="shared" si="8"/>
         <v>729960</v>
       </c>
@@ -17434,11 +17839,11 @@
         <f t="shared" si="10"/>
         <v>55</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="3">
         <f t="shared" si="11"/>
         <v>0.767441860465116</v>
       </c>
-      <c r="J53" s="3">
+      <c r="J53" s="4">
         <f t="shared" si="12"/>
         <v>4767840</v>
       </c>
@@ -17460,11 +17865,11 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="3">
         <f t="shared" si="7"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="F54" s="3">
+      <c r="F54" s="4">
         <f t="shared" si="8"/>
         <v>779240</v>
       </c>
@@ -17476,11 +17881,11 @@
         <f t="shared" si="10"/>
         <v>56</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="3">
         <f t="shared" si="11"/>
         <v>0.770642201834862</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="4">
         <f t="shared" si="12"/>
         <v>5064576</v>
       </c>
@@ -17502,11 +17907,11 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="3">
         <f t="shared" si="7"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="F55" s="3">
+      <c r="F55" s="4">
         <f t="shared" si="8"/>
         <v>846240</v>
       </c>
@@ -17518,11 +17923,11 @@
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="3">
         <f t="shared" si="11"/>
         <v>0.773755656108597</v>
       </c>
-      <c r="J55" s="3">
+      <c r="J55" s="4">
         <f t="shared" si="12"/>
         <v>5473728</v>
       </c>
@@ -17544,11 +17949,11 @@
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="3">
         <f t="shared" si="7"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="F56" s="3">
+      <c r="F56" s="4">
         <f t="shared" si="8"/>
         <v>918400</v>
       </c>
@@ -17560,11 +17965,11 @@
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="3">
         <f t="shared" si="11"/>
         <v>0.773755656108597</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J56" s="4">
         <f t="shared" si="12"/>
         <v>5940480</v>
       </c>
@@ -17589,7 +17994,7 @@
       <selection activeCell="B12" sqref="B12:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="12.625"/>
   </cols>
@@ -17649,7 +18054,7 @@
         <f>A2/(A2+B2)</f>
         <v>0.833333333333333</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>626</v>
       </c>
       <c r="G2">
@@ -17694,7 +18099,7 @@
         <f>A3/(A3+B3)</f>
         <v>0.869565217391304</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>627</v>
       </c>
       <c r="G3">
@@ -17739,7 +18144,7 @@
         <f t="shared" ref="C4:C11" si="0">A4/(A4+B4)</f>
         <v>0.882352941176471</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>628</v>
       </c>
       <c r="G4">
@@ -17784,7 +18189,7 @@
         <f t="shared" si="0"/>
         <v>0.888888888888889</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>629</v>
       </c>
       <c r="G5">
@@ -17829,7 +18234,7 @@
         <f t="shared" si="0"/>
         <v>0.892857142857143</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>630</v>
       </c>
       <c r="G6">
@@ -17874,7 +18279,7 @@
         <f t="shared" si="0"/>
         <v>0.895522388059702</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>631</v>
       </c>
       <c r="G7">
@@ -18038,6 +18443,1459 @@
       <c r="C22">
         <f t="shared" si="1"/>
         <v>0.943952802359882</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
+    <col min="5" max="6" width="9.375"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="10" max="10" width="23.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F1" t="s">
+        <v>636</v>
+      </c>
+      <c r="G1" t="s">
+        <v>637</v>
+      </c>
+      <c r="H1" t="s">
+        <v>638</v>
+      </c>
+      <c r="I1" t="s">
+        <v>639</v>
+      </c>
+      <c r="J1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>536</v>
+      </c>
+      <c r="B2" t="s">
+        <v>641</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>539</v>
+      </c>
+      <c r="B3" t="s">
+        <v>642</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <v>50</v>
+      </c>
+      <c r="G3">
+        <v>21</v>
+      </c>
+      <c r="H3">
+        <v>500</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>542</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
+        <v>644</v>
+      </c>
+      <c r="I4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>543</v>
+      </c>
+      <c r="B5" t="s">
+        <v>645</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>646</v>
+      </c>
+      <c r="B6" t="s">
+        <v>647</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>6000</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="I6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>649</v>
+      </c>
+      <c r="B7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>800</v>
+      </c>
+      <c r="E7">
+        <v>15</v>
+      </c>
+      <c r="F7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>651</v>
+      </c>
+      <c r="I7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>548</v>
+      </c>
+      <c r="B8" t="s">
+        <v>652</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>549</v>
+      </c>
+      <c r="B9" t="s">
+        <v>653</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="H9" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>654</v>
+      </c>
+      <c r="B10" t="s">
+        <v>655</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>657</v>
+      </c>
+      <c r="B11" t="s">
+        <v>658</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>30</v>
+      </c>
+      <c r="I11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>553</v>
+      </c>
+      <c r="B12" t="s">
+        <v>659</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>100</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" t="s">
+        <v>554</v>
+      </c>
+      <c r="B13" t="s">
+        <v>660</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>661</v>
+      </c>
+      <c r="I13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>555</v>
+      </c>
+      <c r="B14" t="s">
+        <v>662</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>663</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>665</v>
+      </c>
+      <c r="B15" t="s">
+        <v>666</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1500</v>
+      </c>
+      <c r="G15">
+        <v>26</v>
+      </c>
+      <c r="I15">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>557</v>
+      </c>
+      <c r="B16" t="s">
+        <v>668</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" t="s">
+        <v>670</v>
+      </c>
+      <c r="B17" t="s">
+        <v>671</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="F17">
+        <v>9</v>
+      </c>
+      <c r="I17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>559</v>
+      </c>
+      <c r="B18" t="s">
+        <v>672</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>500</v>
+      </c>
+      <c r="G18">
+        <v>18</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>563</v>
+      </c>
+      <c r="B19" t="s">
+        <v>674</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="H19" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" t="s">
+        <v>561</v>
+      </c>
+      <c r="B20" t="s">
+        <v>675</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="G20">
+        <v>25</v>
+      </c>
+      <c r="I20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>677</v>
+      </c>
+      <c r="B21" t="s">
+        <v>678</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="H21" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" t="s">
+        <v>565</v>
+      </c>
+      <c r="B22" t="s">
+        <v>679</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1000</v>
+      </c>
+      <c r="G22">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>680</v>
+      </c>
+      <c r="I22">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>681</v>
+      </c>
+      <c r="B23" t="s">
+        <v>682</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" t="s">
+        <v>569</v>
+      </c>
+      <c r="B24" t="s">
+        <v>684</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>400</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="I24">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" t="s">
+        <v>570</v>
+      </c>
+      <c r="B25" t="s">
+        <v>685</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>686</v>
+      </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26" t="s">
+        <v>571</v>
+      </c>
+      <c r="B26" t="s">
+        <v>687</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>500</v>
+      </c>
+      <c r="G26">
+        <v>19</v>
+      </c>
+      <c r="I26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" t="s">
+        <v>572</v>
+      </c>
+      <c r="B27" t="s">
+        <v>688</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>100</v>
+      </c>
+      <c r="E27">
+        <v>10</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>689</v>
+      </c>
+      <c r="I27">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28" t="s">
+        <v>573</v>
+      </c>
+      <c r="B28" t="s">
+        <v>690</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="H28">
+        <v>800</v>
+      </c>
+      <c r="I28">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29" t="s">
+        <v>574</v>
+      </c>
+      <c r="B29" t="s">
+        <v>691</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>12</v>
+      </c>
+      <c r="I29">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" t="s">
+        <v>575</v>
+      </c>
+      <c r="B30" t="s">
+        <v>692</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="I30">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>576</v>
+      </c>
+      <c r="B31" t="s">
+        <v>694</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>1200</v>
+      </c>
+      <c r="G31">
+        <v>21</v>
+      </c>
+      <c r="H31">
+        <v>350</v>
+      </c>
+      <c r="I31">
+        <v>50</v>
+      </c>
+      <c r="J31" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>577</v>
+      </c>
+      <c r="B32" t="s">
+        <v>696</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>2250</v>
+      </c>
+      <c r="G32">
+        <v>18</v>
+      </c>
+      <c r="H32">
+        <v>250</v>
+      </c>
+      <c r="I32">
+        <v>60</v>
+      </c>
+      <c r="J32" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>578</v>
+      </c>
+      <c r="B33" t="s">
+        <v>697</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>698</v>
+      </c>
+      <c r="B34" t="s">
+        <v>699</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" t="s">
+        <v>701</v>
+      </c>
+      <c r="B35" t="s">
+        <v>702</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>10</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36" t="s">
+        <v>703</v>
+      </c>
+      <c r="B36" t="s">
+        <v>704</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>5000</v>
+      </c>
+      <c r="F36">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>10</v>
+      </c>
+      <c r="H36">
+        <v>400</v>
+      </c>
+      <c r="I36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" t="s">
+        <v>581</v>
+      </c>
+      <c r="B37" t="s">
+        <v>642</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>30</v>
+      </c>
+      <c r="G37">
+        <v>27</v>
+      </c>
+      <c r="H37">
+        <v>400</v>
+      </c>
+      <c r="I37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" t="s">
+        <v>582</v>
+      </c>
+      <c r="B38" t="s">
+        <v>705</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>1000</v>
+      </c>
+      <c r="G38">
+        <v>25</v>
+      </c>
+      <c r="H38">
+        <v>1200</v>
+      </c>
+      <c r="I38">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" t="s">
+        <v>583</v>
+      </c>
+      <c r="B39" t="s">
+        <v>706</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>500</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>686</v>
+      </c>
+      <c r="I39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" t="s">
+        <v>584</v>
+      </c>
+      <c r="B40" t="s">
+        <v>707</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>708</v>
+      </c>
+      <c r="E40">
+        <v>10</v>
+      </c>
+      <c r="F40">
+        <v>5</v>
+      </c>
+      <c r="H40">
+        <v>800</v>
+      </c>
+      <c r="I40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" t="s">
+        <v>709</v>
+      </c>
+      <c r="B41" t="s">
+        <v>666</v>
+      </c>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>2000</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="I41">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>710</v>
+      </c>
+      <c r="B42" t="s">
+        <v>711</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>2000</v>
+      </c>
+      <c r="F42">
+        <v>5</v>
+      </c>
+      <c r="G42">
+        <v>20</v>
+      </c>
+      <c r="I42">
+        <v>50</v>
+      </c>
+      <c r="J42" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" t="s">
+        <v>713</v>
+      </c>
+      <c r="B43" t="s">
+        <v>714</v>
+      </c>
+      <c r="C43">
+        <v>4</v>
+      </c>
+      <c r="D43">
+        <v>10000</v>
+      </c>
+      <c r="E43">
+        <v>15</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>715</v>
+      </c>
+      <c r="I43">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" t="s">
+        <v>716</v>
+      </c>
+      <c r="B44" t="s">
+        <v>717</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="G44">
+        <v>23</v>
+      </c>
+      <c r="I44">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" t="s">
+        <v>718</v>
+      </c>
+      <c r="B45" t="s">
+        <v>719</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>720</v>
+      </c>
+      <c r="G45">
+        <v>14</v>
+      </c>
+      <c r="I45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" t="s">
+        <v>721</v>
+      </c>
+      <c r="B46" t="s">
+        <v>722</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>7</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="I46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" t="s">
+        <v>723</v>
+      </c>
+      <c r="B47" t="s">
+        <v>724</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>725</v>
+      </c>
+      <c r="I47">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" t="s">
+        <v>726</v>
+      </c>
+      <c r="B48" t="s">
+        <v>727</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="G48">
+        <v>13</v>
+      </c>
+      <c r="I48">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" t="s">
+        <v>728</v>
+      </c>
+      <c r="B49" t="s">
+        <v>729</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="E49">
+        <v>40</v>
+      </c>
+      <c r="F49">
+        <v>30</v>
+      </c>
+      <c r="H49">
+        <v>800</v>
+      </c>
+      <c r="I49">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" t="s">
+        <v>597</v>
+      </c>
+      <c r="B50" t="s">
+        <v>730</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <v>100</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" t="s">
+        <v>598</v>
+      </c>
+      <c r="B51" t="s">
+        <v>731</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>400</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>732</v>
+      </c>
+      <c r="H51">
+        <v>400</v>
+      </c>
+      <c r="I51">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
+      <c r="A52" t="s">
+        <v>599</v>
+      </c>
+      <c r="B52" t="s">
+        <v>733</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <v>1000</v>
+      </c>
+      <c r="G52">
+        <v>16</v>
+      </c>
+      <c r="H52">
+        <v>1000</v>
+      </c>
+      <c r="I52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" t="s">
+        <v>734</v>
+      </c>
+      <c r="B53" t="s">
+        <v>735</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>200</v>
+      </c>
+      <c r="G53">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <v>500</v>
+      </c>
+      <c r="I53">
+        <v>45</v>
+      </c>
+      <c r="J53" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" t="s">
+        <v>601</v>
+      </c>
+      <c r="B54" t="s">
+        <v>733</v>
+      </c>
+      <c r="C54">
+        <v>10</v>
+      </c>
+      <c r="D54">
+        <v>2000</v>
+      </c>
+      <c r="G54">
+        <v>26</v>
+      </c>
+      <c r="H54">
+        <v>800</v>
+      </c>
+      <c r="I54">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
+      <c r="A55" t="s">
+        <v>602</v>
+      </c>
+      <c r="B55" t="s">
+        <v>737</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>50</v>
+      </c>
+      <c r="F55" t="s">
+        <v>738</v>
+      </c>
+      <c r="I55">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>603</v>
+      </c>
+      <c r="B56" t="s">
+        <v>739</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56">
+        <v>4000</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>500</v>
+      </c>
+      <c r="I56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>740</v>
+      </c>
+      <c r="B57" t="s">
+        <v>741</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <v>2000</v>
+      </c>
+      <c r="G57">
+        <v>14</v>
+      </c>
+      <c r="I57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" t="s">
+        <v>605</v>
+      </c>
+      <c r="B58" t="s">
+        <v>742</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>6000</v>
+      </c>
+      <c r="E58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>45</v>
+      </c>
+      <c r="J58" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>744</v>
+      </c>
+      <c r="B59" t="s">
+        <v>745</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="G59">
+        <v>17</v>
+      </c>
+      <c r="I59">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>746</v>
+      </c>
+      <c r="B60" t="s">
+        <v>687</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>2000</v>
+      </c>
+      <c r="G60">
+        <v>100</v>
+      </c>
+      <c r="I60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>747</v>
+      </c>
+      <c r="B61" t="s">
+        <v>748</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>749</v>
+      </c>
+      <c r="B62" t="s">
+        <v>750</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>6000</v>
+      </c>
+      <c r="E62">
+        <v>15</v>
+      </c>
+      <c r="I62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" t="s">
+        <v>608</v>
+      </c>
+      <c r="B63" t="s">
+        <v>751</v>
+      </c>
+      <c r="C63">
+        <v>6</v>
+      </c>
+      <c r="D63">
+        <v>100</v>
+      </c>
+      <c r="G63">
+        <v>25</v>
+      </c>
+      <c r="H63">
+        <v>800</v>
+      </c>
+      <c r="I63" t="s">
+        <v>752</v>
+      </c>
+      <c r="J63" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" t="s">
+        <v>754</v>
+      </c>
+      <c r="B64" t="s">
+        <v>733</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="G64">
+        <v>18</v>
+      </c>
+      <c r="H64">
+        <v>700</v>
+      </c>
+      <c r="I64" t="s">
+        <v>755</v>
+      </c>
+      <c r="J64" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>757</v>
+      </c>
+      <c r="B65" t="s">
+        <v>741</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <v>2000</v>
+      </c>
+      <c r="G65">
+        <v>19</v>
+      </c>
+      <c r="H65">
+        <v>700</v>
+      </c>
+      <c r="I65">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>758</v>
+      </c>
+      <c r="B66" t="s">
+        <v>759</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
+      <c r="A67" t="s">
+        <v>610</v>
+      </c>
+      <c r="B67" t="s">
+        <v>760</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67">
+        <v>25000</v>
+      </c>
+      <c r="G67">
+        <v>28</v>
+      </c>
+      <c r="H67">
+        <v>1000</v>
+      </c>
+      <c r="I67">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
+      <c r="A68" t="s">
+        <v>611</v>
+      </c>
+      <c r="B68" t="s">
+        <v>761</v>
+      </c>
+      <c r="C68">
+        <v>3</v>
+      </c>
+      <c r="F68" t="s">
+        <v>762</v>
+      </c>
+      <c r="G68">
+        <v>15</v>
+      </c>
+      <c r="H68">
+        <v>1000</v>
+      </c>
+      <c r="I68">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17790" activeTab="4"/>
+    <workbookView windowHeight="17940" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="塔的价值" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="763">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="764">
   <si>
     <t>序号</t>
   </si>
@@ -1925,6 +1925,9 @@
     <t>基础伤害</t>
   </si>
   <si>
+    <t>上限</t>
+  </si>
+  <si>
     <t>CD</t>
   </si>
   <si>
@@ -1949,7 +1952,7 @@
     <t>小范围AOE</t>
   </si>
   <si>
-    <t>九阳8倍，北冥100%（掌门）</t>
+    <t>九阳8倍，北冥200%（掌门），5级以上2倍</t>
   </si>
   <si>
     <t>600/800/1000</t>
@@ -2926,12 +2929,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -9779,7 +9788,7 @@
       <c r="U1" t="s">
         <v>534</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="V1" s="10" t="s">
         <v>535</v>
       </c>
     </row>
@@ -9814,15 +9823,15 @@
       <c r="J2">
         <v>1.2</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="6">
         <f>I2/J2</f>
         <v>60</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="7">
         <f>G2/K2</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="8">
         <v>3.48</v>
       </c>
       <c r="N2" t="s">
@@ -9866,15 +9875,15 @@
       <c r="J3">
         <v>1.2</v>
       </c>
-      <c r="K3" s="4">
+      <c r="K3" s="6">
         <f t="shared" ref="K3:K34" si="0">I3/J3</f>
         <v>28.3333333333333</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="7">
         <f t="shared" ref="L3:L47" si="1">G3/K3</f>
         <v>3.52941176470588</v>
       </c>
-      <c r="M3" s="6"/>
+      <c r="M3" s="8"/>
       <c r="N3" t="s">
         <v>539</v>
       </c>
@@ -9885,7 +9894,7 @@
         <f>O3*8</f>
         <v>400</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="7">
         <f t="shared" ref="Q3:Q17" si="2">G3/O3</f>
         <v>2</v>
       </c>
@@ -9927,15 +9936,15 @@
       <c r="J4">
         <v>1.2</v>
       </c>
-      <c r="K4" s="4">
+      <c r="K4" s="6">
         <f t="shared" si="0"/>
         <v>73.3333333333333</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="7">
         <f t="shared" si="1"/>
         <v>3.40909090909091</v>
       </c>
-      <c r="M4" s="6"/>
+      <c r="M4" s="8"/>
       <c r="N4" t="s">
         <v>539</v>
       </c>
@@ -9946,7 +9955,7 @@
         <f>O4*8</f>
         <v>1600</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="7">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
@@ -9988,15 +9997,15 @@
       <c r="J5">
         <v>1.2</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="6">
         <f t="shared" si="0"/>
         <v>133.333333333333</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="7">
         <f t="shared" si="1"/>
         <v>3.375</v>
       </c>
-      <c r="M5" s="6"/>
+      <c r="M5" s="8"/>
       <c r="N5" t="s">
         <v>539</v>
       </c>
@@ -10007,7 +10016,7 @@
         <f>O5*8</f>
         <v>3600</v>
       </c>
-      <c r="Q5" s="5">
+      <c r="Q5" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -10049,15 +10058,15 @@
       <c r="J6">
         <v>0.9</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="6">
         <f t="shared" si="0"/>
         <v>266.666666666667</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="7">
         <f t="shared" si="1"/>
         <v>2.8125</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="8"/>
       <c r="N6" t="s">
         <v>539</v>
       </c>
@@ -10068,7 +10077,7 @@
         <f>O6*8</f>
         <v>6400</v>
       </c>
-      <c r="Q6" s="5">
+      <c r="Q6" s="7">
         <f t="shared" si="2"/>
         <v>0.9375</v>
       </c>
@@ -10113,15 +10122,15 @@
       <c r="J7">
         <v>1.2</v>
       </c>
-      <c r="K7" s="4">
+      <c r="K7" s="6">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="7">
         <f t="shared" si="1"/>
         <v>3.52</v>
       </c>
-      <c r="M7" s="6"/>
+      <c r="M7" s="8"/>
       <c r="N7" t="s">
         <v>542</v>
       </c>
@@ -10131,7 +10140,7 @@
       <c r="P7">
         <v>80</v>
       </c>
-      <c r="Q7" s="5">
+      <c r="Q7" s="7">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
@@ -10173,15 +10182,15 @@
       <c r="J8">
         <v>1.2</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="6">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="L8" s="5">
+      <c r="L8" s="7">
         <f t="shared" si="1"/>
         <v>3.52</v>
       </c>
-      <c r="M8" s="6"/>
+      <c r="M8" s="8"/>
       <c r="N8" t="s">
         <v>542</v>
       </c>
@@ -10191,7 +10200,7 @@
       <c r="P8">
         <v>320</v>
       </c>
-      <c r="Q8" s="5">
+      <c r="Q8" s="7">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
@@ -10233,15 +10242,15 @@
       <c r="J9">
         <v>1.2</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="6">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="L9" s="5">
+      <c r="L9" s="7">
         <f t="shared" si="1"/>
         <v>3.08</v>
       </c>
-      <c r="M9" s="6"/>
+      <c r="M9" s="8"/>
       <c r="N9" t="s">
         <v>542</v>
       </c>
@@ -10251,7 +10260,7 @@
       <c r="P9">
         <v>720</v>
       </c>
-      <c r="Q9" s="5">
+      <c r="Q9" s="7">
         <f t="shared" si="2"/>
         <v>2.13888888888889</v>
       </c>
@@ -10293,15 +10302,15 @@
       <c r="J10">
         <v>1.2</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="6">
         <f t="shared" si="0"/>
         <v>365.833333333333</v>
       </c>
-      <c r="L10" s="5">
+      <c r="L10" s="7">
         <f t="shared" si="1"/>
         <v>3.49886104783599</v>
       </c>
-      <c r="M10" s="6"/>
+      <c r="M10" s="8"/>
       <c r="N10" t="s">
         <v>543</v>
       </c>
@@ -10311,7 +10320,7 @@
       <c r="P10">
         <v>1000</v>
       </c>
-      <c r="Q10" s="5">
+      <c r="Q10" s="7">
         <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
@@ -10353,15 +10362,15 @@
       <c r="J11">
         <v>1.2</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="6">
         <f t="shared" si="0"/>
         <v>732.5</v>
       </c>
-      <c r="L11" s="5">
+      <c r="L11" s="7">
         <f t="shared" si="1"/>
         <v>3.1098976109215</v>
       </c>
-      <c r="M11" s="6"/>
+      <c r="M11" s="8"/>
       <c r="N11" t="s">
         <v>543</v>
       </c>
@@ -10371,7 +10380,7 @@
       <c r="P11">
         <v>4000</v>
       </c>
-      <c r="Q11" s="5">
+      <c r="Q11" s="7">
         <f t="shared" si="2"/>
         <v>0.5695</v>
       </c>
@@ -10413,15 +10422,15 @@
       <c r="J12">
         <v>1.2</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="6">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="L12" s="5">
+      <c r="L12" s="7">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="M12" s="6"/>
+      <c r="M12" s="8"/>
       <c r="N12" t="s">
         <v>545</v>
       </c>
@@ -10431,7 +10440,7 @@
       <c r="P12">
         <v>6000</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="7">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
@@ -10473,15 +10482,15 @@
       <c r="J13">
         <v>1.2</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="6">
         <f t="shared" si="0"/>
         <v>1333.33333333333</v>
       </c>
-      <c r="L13" s="5">
+      <c r="L13" s="7">
         <f t="shared" si="1"/>
         <v>3.675</v>
       </c>
-      <c r="M13" s="6"/>
+      <c r="M13" s="8"/>
       <c r="N13" t="s">
         <v>545</v>
       </c>
@@ -10491,7 +10500,7 @@
       <c r="P13">
         <v>24000</v>
       </c>
-      <c r="Q13" s="5">
+      <c r="Q13" s="7">
         <f t="shared" si="2"/>
         <v>0.204166666666667</v>
       </c>
@@ -10533,15 +10542,15 @@
       <c r="J14">
         <v>1.2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="6">
         <f t="shared" si="0"/>
         <v>916.666666666667</v>
       </c>
-      <c r="L14" s="5">
+      <c r="L14" s="7">
         <f t="shared" si="1"/>
         <v>3.81818181818182</v>
       </c>
-      <c r="M14" s="6"/>
+      <c r="M14" s="8"/>
       <c r="N14" t="s">
         <v>546</v>
       </c>
@@ -10551,7 +10560,7 @@
       <c r="P14">
         <v>800</v>
       </c>
-      <c r="Q14" s="5">
+      <c r="Q14" s="7">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
@@ -10596,15 +10605,15 @@
       <c r="J15">
         <v>1.2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="6">
         <f t="shared" si="0"/>
         <v>1583.33333333333</v>
       </c>
-      <c r="L15" s="5">
+      <c r="L15" s="7">
         <f t="shared" si="1"/>
         <v>4.10526315789474</v>
       </c>
-      <c r="M15" s="6"/>
+      <c r="M15" s="8"/>
       <c r="N15" t="s">
         <v>546</v>
       </c>
@@ -10614,7 +10623,7 @@
       <c r="P15">
         <v>3200</v>
       </c>
-      <c r="Q15" s="5">
+      <c r="Q15" s="7">
         <f t="shared" si="2"/>
         <v>2.03125</v>
       </c>
@@ -10656,15 +10665,15 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="K16" s="4" t="e">
+      <c r="K16" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="5" t="e">
+      <c r="L16" s="7" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="6"/>
+      <c r="M16" s="8"/>
       <c r="N16" t="s">
         <v>548</v>
       </c>
@@ -10674,7 +10683,7 @@
       <c r="P16">
         <v>300</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="7">
         <f t="shared" si="2"/>
         <v>23.3333333333333</v>
       </c>
@@ -10716,15 +10725,15 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="K17" s="4" t="e">
+      <c r="K17" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="5" t="e">
+      <c r="L17" s="7" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="6"/>
+      <c r="M17" s="8"/>
       <c r="N17" t="s">
         <v>548</v>
       </c>
@@ -10734,7 +10743,7 @@
       <c r="P17">
         <v>1200</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="7">
         <f t="shared" si="2"/>
         <v>9.83333333333333</v>
       </c>
@@ -10779,15 +10788,15 @@
       <c r="J18">
         <v>1.2</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="6">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="L18" s="5">
+      <c r="L18" s="7">
         <f t="shared" si="1"/>
         <v>3.86666666666667</v>
       </c>
-      <c r="M18" s="6"/>
+      <c r="M18" s="8"/>
       <c r="N18" t="s">
         <v>549</v>
       </c>
@@ -10826,15 +10835,15 @@
       <c r="J19">
         <v>1.2</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="6">
         <f t="shared" si="0"/>
         <v>2666.66666666667</v>
       </c>
-      <c r="L19" s="5">
+      <c r="L19" s="7">
         <f t="shared" si="1"/>
         <v>4.2375</v>
       </c>
-      <c r="M19" s="6"/>
+      <c r="M19" s="8"/>
       <c r="N19" t="s">
         <v>549</v>
       </c>
@@ -10873,15 +10882,15 @@
       <c r="J20">
         <v>1.2</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="6">
         <f t="shared" si="0"/>
         <v>1833.33333333333</v>
       </c>
-      <c r="L20" s="5">
+      <c r="L20" s="7">
         <f t="shared" si="1"/>
         <v>3.92727272727273</v>
       </c>
-      <c r="M20" s="6"/>
+      <c r="M20" s="8"/>
       <c r="N20" t="s">
         <v>551</v>
       </c>
@@ -10917,15 +10926,15 @@
       <c r="J21">
         <v>0.9</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="6">
         <f t="shared" si="0"/>
         <v>5776.66666666667</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L21" s="7">
         <f t="shared" si="1"/>
         <v>2.25043277553376</v>
       </c>
-      <c r="M21" s="6"/>
+      <c r="M21" s="8"/>
       <c r="N21" t="s">
         <v>552</v>
       </c>
@@ -10961,15 +10970,15 @@
       <c r="J22">
         <v>1.1</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="6">
         <f t="shared" si="0"/>
         <v>27.2727272727273</v>
       </c>
-      <c r="L22" s="5">
+      <c r="L22" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22" s="8">
         <v>3.44</v>
       </c>
       <c r="N22" t="s">
@@ -11007,15 +11016,15 @@
       <c r="J23">
         <v>1.1</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="6">
         <f t="shared" si="0"/>
         <v>54.5454545454545</v>
       </c>
-      <c r="L23" s="5">
+      <c r="L23" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M23" s="6"/>
+      <c r="M23" s="8"/>
       <c r="N23" t="s">
         <v>553</v>
       </c>
@@ -11051,15 +11060,15 @@
       <c r="J24">
         <v>1.1</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="6">
         <f t="shared" si="0"/>
         <v>81.8181818181818</v>
       </c>
-      <c r="L24" s="5">
+      <c r="L24" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M24" s="6"/>
+      <c r="M24" s="8"/>
       <c r="N24" t="s">
         <v>553</v>
       </c>
@@ -11095,15 +11104,15 @@
       <c r="J25">
         <v>1.1</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="6">
         <f t="shared" si="0"/>
         <v>63.6363636363636</v>
       </c>
-      <c r="L25" s="5">
+      <c r="L25" s="7">
         <f t="shared" si="1"/>
         <v>3.14285714285714</v>
       </c>
-      <c r="M25" s="6"/>
+      <c r="M25" s="8"/>
       <c r="N25" t="s">
         <v>554</v>
       </c>
@@ -11139,15 +11148,15 @@
       <c r="J26">
         <v>1.1</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="6">
         <f t="shared" si="0"/>
         <v>127.272727272727</v>
       </c>
-      <c r="L26" s="5">
+      <c r="L26" s="7">
         <f t="shared" si="1"/>
         <v>2.98571428571429</v>
       </c>
-      <c r="M26" s="6"/>
+      <c r="M26" s="8"/>
       <c r="N26" t="s">
         <v>554</v>
       </c>
@@ -11183,15 +11192,15 @@
       <c r="J27">
         <v>1.1</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="6">
         <f t="shared" si="0"/>
         <v>271.818181818182</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="7">
         <f t="shared" si="1"/>
         <v>2.75919732441472</v>
       </c>
-      <c r="M27" s="6"/>
+      <c r="M27" s="8"/>
       <c r="N27" t="s">
         <v>554</v>
       </c>
@@ -11227,15 +11236,15 @@
       <c r="J28">
         <v>1.1</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="6">
         <f t="shared" si="0"/>
         <v>63.6363636363636</v>
       </c>
-      <c r="L28" s="5">
+      <c r="L28" s="7">
         <f t="shared" si="1"/>
         <v>3.45714285714286</v>
       </c>
-      <c r="M28" s="6"/>
+      <c r="M28" s="8"/>
       <c r="N28" t="s">
         <v>555</v>
       </c>
@@ -11271,15 +11280,15 @@
       <c r="J29">
         <v>1.1</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="6">
         <f t="shared" si="0"/>
         <v>190.909090909091</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="7">
         <f t="shared" si="1"/>
         <v>3.45714285714286</v>
       </c>
-      <c r="M29" s="6"/>
+      <c r="M29" s="8"/>
       <c r="N29" t="s">
         <v>556</v>
       </c>
@@ -11315,15 +11324,15 @@
       <c r="J30">
         <v>1.1</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="6">
         <f t="shared" si="0"/>
         <v>909.090909090909</v>
       </c>
-      <c r="L30" s="5">
+      <c r="L30" s="7">
         <f t="shared" si="1"/>
         <v>3.63</v>
       </c>
-      <c r="M30" s="6"/>
+      <c r="M30" s="8"/>
       <c r="N30" t="s">
         <v>556</v>
       </c>
@@ -11359,15 +11368,15 @@
       <c r="J31">
         <v>1.1</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="6">
         <f t="shared" si="0"/>
         <v>163.636363636364</v>
       </c>
-      <c r="L31" s="5">
+      <c r="L31" s="7">
         <f t="shared" si="1"/>
         <v>3.11666666666667</v>
       </c>
-      <c r="M31" s="6"/>
+      <c r="M31" s="8"/>
       <c r="N31" t="s">
         <v>557</v>
       </c>
@@ -11403,15 +11412,15 @@
       <c r="J32">
         <v>1.1</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="6">
         <f t="shared" si="0"/>
         <v>545.454545454545</v>
       </c>
-      <c r="L32" s="5">
+      <c r="L32" s="7">
         <f t="shared" si="1"/>
         <v>4.05166666666667</v>
       </c>
-      <c r="M32" s="6"/>
+      <c r="M32" s="8"/>
       <c r="N32" t="s">
         <v>558</v>
       </c>
@@ -11447,15 +11456,15 @@
       <c r="J33">
         <v>1.1</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="6">
         <f t="shared" si="0"/>
         <v>1454.54545454545</v>
       </c>
-      <c r="L33" s="5">
+      <c r="L33" s="7">
         <f t="shared" si="1"/>
         <v>3.64375</v>
       </c>
-      <c r="M33" s="6"/>
+      <c r="M33" s="8"/>
       <c r="N33" t="s">
         <v>558</v>
       </c>
@@ -11491,15 +11500,15 @@
       <c r="J34">
         <v>1.1</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K34" s="6">
         <f t="shared" si="0"/>
         <v>363.636363636364</v>
       </c>
-      <c r="L34" s="5">
+      <c r="L34" s="7">
         <f t="shared" si="1"/>
         <v>2.8875</v>
       </c>
-      <c r="M34" s="6"/>
+      <c r="M34" s="8"/>
       <c r="N34" t="s">
         <v>559</v>
       </c>
@@ -11535,15 +11544,15 @@
       <c r="J35">
         <v>1.1</v>
       </c>
-      <c r="K35" s="4">
-        <f t="shared" ref="K35:K66" si="3">I35/J35</f>
+      <c r="K35" s="6">
+        <f t="shared" ref="K35:K73" si="3">I35/J35</f>
         <v>727.272727272727</v>
       </c>
-      <c r="L35" s="5">
+      <c r="L35" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M35" s="6"/>
+      <c r="M35" s="8"/>
       <c r="N35" t="s">
         <v>559</v>
       </c>
@@ -11579,15 +11588,15 @@
       <c r="J36">
         <v>1.1</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="6">
         <f t="shared" si="3"/>
         <v>1636.36363636364</v>
       </c>
-      <c r="L36" s="5">
+      <c r="L36" s="7">
         <f t="shared" si="1"/>
         <v>3.42222222222222</v>
       </c>
-      <c r="M36" s="6"/>
+      <c r="M36" s="8"/>
       <c r="N36" t="s">
         <v>560</v>
       </c>
@@ -11623,15 +11632,15 @@
       <c r="J37">
         <v>1.1</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="6">
         <f t="shared" si="3"/>
         <v>545.454545454545</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M37" s="6"/>
+      <c r="M37" s="8"/>
       <c r="N37" t="s">
         <v>561</v>
       </c>
@@ -11667,15 +11676,15 @@
       <c r="J38">
         <v>1.1</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="6">
         <f t="shared" si="3"/>
         <v>1090.90909090909</v>
       </c>
-      <c r="L38" s="5">
+      <c r="L38" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M38" s="6"/>
+      <c r="M38" s="8"/>
       <c r="N38" t="s">
         <v>561</v>
       </c>
@@ -11711,15 +11720,15 @@
       <c r="J39">
         <v>1.1</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="6">
         <f t="shared" si="3"/>
         <v>2090.90909090909</v>
       </c>
-      <c r="L39" s="5">
+      <c r="L39" s="7">
         <f t="shared" si="1"/>
         <v>3.20434782608696</v>
       </c>
-      <c r="M39" s="6"/>
+      <c r="M39" s="8"/>
       <c r="N39" t="s">
         <v>562</v>
       </c>
@@ -11755,15 +11764,15 @@
       <c r="J40">
         <v>1.1</v>
       </c>
-      <c r="K40" s="4">
+      <c r="K40" s="6">
         <f t="shared" si="3"/>
         <v>818.181818181818</v>
       </c>
-      <c r="L40" s="5">
+      <c r="L40" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M40" s="6"/>
+      <c r="M40" s="8"/>
       <c r="N40" t="s">
         <v>563</v>
       </c>
@@ -11799,15 +11808,15 @@
       <c r="J41">
         <v>1.1</v>
       </c>
-      <c r="K41" s="4">
+      <c r="K41" s="6">
         <f t="shared" si="3"/>
         <v>1636.36363636364</v>
       </c>
-      <c r="L41" s="5">
+      <c r="L41" s="7">
         <f t="shared" si="1"/>
         <v>3.36111111111111</v>
       </c>
-      <c r="M41" s="6"/>
+      <c r="M41" s="8"/>
       <c r="N41" t="s">
         <v>563</v>
       </c>
@@ -11843,15 +11852,15 @@
       <c r="J42">
         <v>1.1</v>
       </c>
-      <c r="K42" s="4">
+      <c r="K42" s="6">
         <f t="shared" si="3"/>
         <v>2727.27272727273</v>
       </c>
-      <c r="L42" s="5">
+      <c r="L42" s="7">
         <f t="shared" si="1"/>
         <v>3.26333333333333</v>
       </c>
-      <c r="M42" s="6"/>
+      <c r="M42" s="8"/>
       <c r="N42" t="s">
         <v>564</v>
       </c>
@@ -11887,15 +11896,15 @@
       <c r="J43">
         <v>1.1</v>
       </c>
-      <c r="K43" s="4">
+      <c r="K43" s="6">
         <f t="shared" si="3"/>
         <v>1181.81818181818</v>
       </c>
-      <c r="L43" s="5">
+      <c r="L43" s="7">
         <f t="shared" si="1"/>
         <v>3.21538461538462</v>
       </c>
-      <c r="M43" s="6"/>
+      <c r="M43" s="8"/>
       <c r="N43" t="s">
         <v>565</v>
       </c>
@@ -11931,15 +11940,15 @@
       <c r="J44">
         <v>1.1</v>
       </c>
-      <c r="K44" s="4">
+      <c r="K44" s="6">
         <f t="shared" si="3"/>
         <v>1818.18181818182</v>
       </c>
-      <c r="L44" s="5">
+      <c r="L44" s="7">
         <f t="shared" si="1"/>
         <v>3.41</v>
       </c>
-      <c r="M44" s="6"/>
+      <c r="M44" s="8"/>
       <c r="N44" t="s">
         <v>565</v>
       </c>
@@ -11975,15 +11984,15 @@
       <c r="J45">
         <v>1.1</v>
       </c>
-      <c r="K45" s="4">
+      <c r="K45" s="6">
         <f t="shared" si="3"/>
         <v>2290</v>
       </c>
-      <c r="L45" s="5">
+      <c r="L45" s="7">
         <f t="shared" si="1"/>
         <v>4.36681222707424</v>
       </c>
-      <c r="M45" s="6"/>
+      <c r="M45" s="8"/>
       <c r="N45" t="s">
         <v>566</v>
       </c>
@@ -12019,15 +12028,15 @@
       <c r="J46">
         <v>1.1</v>
       </c>
-      <c r="K46" s="4">
+      <c r="K46" s="6">
         <f t="shared" si="3"/>
         <v>2890</v>
       </c>
-      <c r="L46" s="5">
+      <c r="L46" s="7">
         <f t="shared" si="1"/>
         <v>4.84429065743945</v>
       </c>
-      <c r="M46" s="6"/>
+      <c r="M46" s="8"/>
       <c r="N46" t="s">
         <v>567</v>
       </c>
@@ -12063,15 +12072,15 @@
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="6">
         <f t="shared" si="3"/>
         <v>3299</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="7">
         <f t="shared" si="1"/>
         <v>4.24371021521673</v>
       </c>
-      <c r="M47" s="6"/>
+      <c r="M47" s="8"/>
       <c r="N47" t="s">
         <v>568</v>
       </c>
@@ -12107,15 +12116,15 @@
       <c r="J48">
         <v>1.3</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="6">
         <f t="shared" si="3"/>
         <v>20.7692307692308</v>
       </c>
-      <c r="L48" s="5">
+      <c r="L48" s="7">
         <f t="shared" ref="L48:L79" si="4">G48/K48</f>
         <v>3.37037037037037</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M48" s="8">
         <v>3.43</v>
       </c>
       <c r="N48" t="s">
@@ -12153,15 +12162,15 @@
       <c r="J49">
         <v>1.3</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="6">
         <f t="shared" si="3"/>
         <v>39.2307692307692</v>
       </c>
-      <c r="L49" s="5">
+      <c r="L49" s="7">
         <f t="shared" si="4"/>
         <v>3.56862745098039</v>
       </c>
-      <c r="M49" s="6"/>
+      <c r="M49" s="8"/>
       <c r="N49" t="s">
         <v>569</v>
       </c>
@@ -12197,15 +12206,15 @@
       <c r="J50">
         <v>1.3</v>
       </c>
-      <c r="K50" s="4">
+      <c r="K50" s="6">
         <f t="shared" si="3"/>
         <v>76.9230769230769</v>
       </c>
-      <c r="L50" s="5">
+      <c r="L50" s="7">
         <f t="shared" si="4"/>
         <v>2.86</v>
       </c>
-      <c r="M50" s="6"/>
+      <c r="M50" s="8"/>
       <c r="N50" t="s">
         <v>569</v>
       </c>
@@ -12241,15 +12250,15 @@
       <c r="J51">
         <v>1.3</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="6">
         <f t="shared" si="3"/>
         <v>33.8461538461538</v>
       </c>
-      <c r="L51" s="5">
+      <c r="L51" s="7">
         <f t="shared" si="4"/>
         <v>3.54545454545455</v>
       </c>
-      <c r="M51" s="6"/>
+      <c r="M51" s="8"/>
       <c r="N51" t="s">
         <v>570</v>
       </c>
@@ -12285,15 +12294,15 @@
       <c r="J52">
         <v>1.3</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="6">
         <f t="shared" si="3"/>
         <v>71.5384615384615</v>
       </c>
-      <c r="L52" s="5">
+      <c r="L52" s="7">
         <f t="shared" si="4"/>
         <v>3.49462365591398</v>
       </c>
-      <c r="M52" s="6"/>
+      <c r="M52" s="8"/>
       <c r="N52" t="s">
         <v>570</v>
       </c>
@@ -12329,15 +12338,15 @@
       <c r="J53">
         <v>1.3</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="6">
         <f t="shared" si="3"/>
         <v>138.461538461538</v>
       </c>
-      <c r="L53" s="5">
+      <c r="L53" s="7">
         <f t="shared" si="4"/>
         <v>2.88888888888889</v>
       </c>
-      <c r="M53" s="6"/>
+      <c r="M53" s="8"/>
       <c r="N53" t="s">
         <v>570</v>
       </c>
@@ -12373,15 +12382,15 @@
       <c r="J54">
         <v>1.3</v>
       </c>
-      <c r="K54" s="4">
+      <c r="K54" s="6">
         <f t="shared" si="3"/>
         <v>41.5384615384615</v>
       </c>
-      <c r="L54" s="5">
+      <c r="L54" s="7">
         <f t="shared" si="4"/>
         <v>4.81481481481481</v>
       </c>
-      <c r="M54" s="6"/>
+      <c r="M54" s="8"/>
       <c r="N54" t="s">
         <v>571</v>
       </c>
@@ -12417,15 +12426,15 @@
       <c r="J55">
         <v>1.3</v>
       </c>
-      <c r="K55" s="4">
+      <c r="K55" s="6">
         <f t="shared" si="3"/>
         <v>92.3076923076923</v>
       </c>
-      <c r="L55" s="5">
+      <c r="L55" s="7">
         <f t="shared" si="4"/>
         <v>4.875</v>
       </c>
-      <c r="M55" s="6"/>
+      <c r="M55" s="8"/>
       <c r="N55" t="s">
         <v>571</v>
       </c>
@@ -12461,15 +12470,15 @@
       <c r="J56">
         <v>1.3</v>
       </c>
-      <c r="K56" s="4">
+      <c r="K56" s="6">
         <f t="shared" si="3"/>
         <v>207.692307692308</v>
       </c>
-      <c r="L56" s="5">
+      <c r="L56" s="7">
         <f t="shared" si="4"/>
         <v>3.37037037037037</v>
       </c>
-      <c r="M56" s="6"/>
+      <c r="M56" s="8"/>
       <c r="N56" t="s">
         <v>571</v>
       </c>
@@ -12505,15 +12514,15 @@
       <c r="J57">
         <v>1.3</v>
       </c>
-      <c r="K57" s="4">
+      <c r="K57" s="6">
         <f t="shared" si="3"/>
         <v>92.3076923076923</v>
       </c>
-      <c r="L57" s="5">
+      <c r="L57" s="7">
         <f t="shared" si="4"/>
         <v>3.46666666666667</v>
       </c>
-      <c r="M57" s="6"/>
+      <c r="M57" s="8"/>
       <c r="N57" t="s">
         <v>572</v>
       </c>
@@ -12549,15 +12558,15 @@
       <c r="J58">
         <v>1.3</v>
       </c>
-      <c r="K58" s="4">
+      <c r="K58" s="6">
         <f t="shared" si="3"/>
         <v>230.769230769231</v>
       </c>
-      <c r="L58" s="5">
+      <c r="L58" s="7">
         <f t="shared" si="4"/>
         <v>3.46666666666667</v>
       </c>
-      <c r="M58" s="6"/>
+      <c r="M58" s="8"/>
       <c r="N58" t="s">
         <v>572</v>
       </c>
@@ -12593,15 +12602,15 @@
       <c r="J59">
         <v>1.3</v>
       </c>
-      <c r="K59" s="4">
+      <c r="K59" s="6">
         <f t="shared" si="3"/>
         <v>307.692307692308</v>
       </c>
-      <c r="L59" s="5">
+      <c r="L59" s="7">
         <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="M59" s="6"/>
+      <c r="M59" s="8"/>
       <c r="N59" t="s">
         <v>573</v>
       </c>
@@ -12637,15 +12646,15 @@
       <c r="J60">
         <v>1.3</v>
       </c>
-      <c r="K60" s="4">
+      <c r="K60" s="6">
         <f t="shared" si="3"/>
         <v>538.461538461538</v>
       </c>
-      <c r="L60" s="5">
+      <c r="L60" s="7">
         <f t="shared" si="4"/>
         <v>3.06428571428571</v>
       </c>
-      <c r="M60" s="6"/>
+      <c r="M60" s="8"/>
       <c r="N60" t="s">
         <v>573</v>
       </c>
@@ -12681,15 +12690,15 @@
       <c r="J61">
         <v>1.3</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K61" s="6">
         <f t="shared" si="3"/>
         <v>692.307692307692</v>
       </c>
-      <c r="L61" s="5">
+      <c r="L61" s="7">
         <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="M61" s="6"/>
+      <c r="M61" s="8"/>
       <c r="N61" t="s">
         <v>573</v>
       </c>
@@ -12725,15 +12734,15 @@
       <c r="J62">
         <v>1.3</v>
       </c>
-      <c r="K62" s="4">
+      <c r="K62" s="6">
         <f t="shared" si="3"/>
         <v>323.076923076923</v>
       </c>
-      <c r="L62" s="5">
+      <c r="L62" s="7">
         <f t="shared" si="4"/>
         <v>2.94047619047619</v>
       </c>
-      <c r="M62" s="6"/>
+      <c r="M62" s="8"/>
       <c r="N62" t="s">
         <v>574</v>
       </c>
@@ -12769,15 +12778,15 @@
       <c r="J63">
         <v>1.3</v>
       </c>
-      <c r="K63" s="4">
+      <c r="K63" s="6">
         <f t="shared" si="3"/>
         <v>523.076923076923</v>
       </c>
-      <c r="L63" s="5">
+      <c r="L63" s="7">
         <f t="shared" si="4"/>
         <v>3.44117647058823</v>
       </c>
-      <c r="M63" s="6"/>
+      <c r="M63" s="8"/>
       <c r="N63" t="s">
         <v>574</v>
       </c>
@@ -12813,15 +12822,15 @@
       <c r="J64">
         <v>1.3</v>
       </c>
-      <c r="K64" s="4">
+      <c r="K64" s="6">
         <f t="shared" si="3"/>
         <v>384.615384615385</v>
       </c>
-      <c r="L64" s="5">
+      <c r="L64" s="7">
         <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
-      <c r="M64" s="6"/>
+      <c r="M64" s="8"/>
       <c r="N64" t="s">
         <v>575</v>
       </c>
@@ -12857,15 +12866,15 @@
       <c r="J65">
         <v>1.3</v>
       </c>
-      <c r="K65" s="4">
+      <c r="K65" s="6">
         <f t="shared" si="3"/>
         <v>769.230769230769</v>
       </c>
-      <c r="L65" s="5">
+      <c r="L65" s="7">
         <f t="shared" si="4"/>
         <v>3.77</v>
       </c>
-      <c r="M65" s="6"/>
+      <c r="M65" s="8"/>
       <c r="N65" t="s">
         <v>575</v>
       </c>
@@ -12901,15 +12910,15 @@
       <c r="J66">
         <v>1.3</v>
       </c>
-      <c r="K66" s="4">
+      <c r="K66" s="6">
         <f t="shared" si="3"/>
         <v>1384.61538461538</v>
       </c>
-      <c r="L66" s="5">
+      <c r="L66" s="7">
         <f t="shared" si="4"/>
         <v>3.17777777777778</v>
       </c>
-      <c r="M66" s="6"/>
+      <c r="M66" s="8"/>
       <c r="N66" t="s">
         <v>575</v>
       </c>
@@ -12945,15 +12954,15 @@
       <c r="J67">
         <v>1.3</v>
       </c>
-      <c r="K67" s="4">
-        <f>I67/J67</f>
+      <c r="K67" s="6">
+        <f t="shared" si="3"/>
         <v>769.230769230769</v>
       </c>
-      <c r="L67" s="5">
+      <c r="L67" s="7">
         <f t="shared" si="4"/>
         <v>3.51</v>
       </c>
-      <c r="M67" s="6"/>
+      <c r="M67" s="8"/>
       <c r="N67" t="s">
         <v>576</v>
       </c>
@@ -12989,15 +12998,15 @@
       <c r="J68">
         <v>1.3</v>
       </c>
-      <c r="K68" s="4">
-        <f>I68/J68</f>
+      <c r="K68" s="6">
+        <f t="shared" si="3"/>
         <v>1538.46153846154</v>
       </c>
-      <c r="L68" s="5">
+      <c r="L68" s="7">
         <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="M68" s="6"/>
+      <c r="M68" s="8"/>
       <c r="N68" t="s">
         <v>576</v>
       </c>
@@ -13033,15 +13042,15 @@
       <c r="J69">
         <v>1.3</v>
       </c>
-      <c r="K69" s="4">
-        <f>I69/J69</f>
+      <c r="K69" s="6">
+        <f t="shared" si="3"/>
         <v>1615.38461538462</v>
       </c>
-      <c r="L69" s="5">
+      <c r="L69" s="7">
         <f t="shared" si="4"/>
         <v>2.97142857142857</v>
       </c>
-      <c r="M69" s="6"/>
+      <c r="M69" s="8"/>
       <c r="N69" t="s">
         <v>577</v>
       </c>
@@ -13077,15 +13086,15 @@
       <c r="J70">
         <v>1.3</v>
       </c>
-      <c r="K70" s="4">
-        <f>I70/J70</f>
+      <c r="K70" s="6">
+        <f t="shared" si="3"/>
         <v>2307.69230769231</v>
       </c>
-      <c r="L70" s="5">
+      <c r="L70" s="7">
         <f t="shared" si="4"/>
         <v>3.38</v>
       </c>
-      <c r="M70" s="6"/>
+      <c r="M70" s="8"/>
       <c r="N70" t="s">
         <v>577</v>
       </c>
@@ -13121,15 +13130,15 @@
       <c r="J71">
         <v>1.3</v>
       </c>
-      <c r="K71" s="4">
-        <f>I71/J71</f>
+      <c r="K71" s="6">
+        <f t="shared" si="3"/>
         <v>3076.92307692308</v>
       </c>
-      <c r="L71" s="5">
+      <c r="L71" s="7">
         <f t="shared" si="4"/>
         <v>3.0225</v>
       </c>
-      <c r="M71" s="6"/>
+      <c r="M71" s="8"/>
       <c r="N71" t="s">
         <v>578</v>
       </c>
@@ -13165,15 +13174,15 @@
       <c r="J72">
         <v>1.3</v>
       </c>
-      <c r="K72" s="4">
-        <f>I72/J72</f>
+      <c r="K72" s="6">
+        <f t="shared" si="3"/>
         <v>3230.76923076923</v>
       </c>
-      <c r="L72" s="5">
+      <c r="L72" s="7">
         <f t="shared" si="4"/>
         <v>2.97142857142857</v>
       </c>
-      <c r="M72" s="6"/>
+      <c r="M72" s="8"/>
       <c r="N72" t="s">
         <v>579</v>
       </c>
@@ -13209,15 +13218,15 @@
       <c r="J73">
         <v>1.3</v>
       </c>
-      <c r="K73" s="4">
-        <f>I73/J73</f>
+      <c r="K73" s="6">
+        <f t="shared" si="3"/>
         <v>3461.53846153846</v>
       </c>
-      <c r="L73" s="5">
+      <c r="L73" s="7">
         <f t="shared" si="4"/>
         <v>3.17777777777778</v>
       </c>
-      <c r="M73" s="6"/>
+      <c r="M73" s="8"/>
       <c r="N73" t="s">
         <v>580</v>
       </c>
@@ -13250,17 +13259,17 @@
       <c r="I74">
         <v>10</v>
       </c>
-      <c r="J74" s="7">
+      <c r="J74" s="9">
         <v>1</v>
       </c>
-      <c r="K74" s="4">
+      <c r="K74" s="6">
         <v>20</v>
       </c>
-      <c r="L74" s="5">
+      <c r="L74" s="7">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M74" s="6">
+      <c r="M74" s="8">
         <v>3.55</v>
       </c>
       <c r="N74" t="s">
@@ -13296,17 +13305,17 @@
       <c r="I75">
         <v>29</v>
       </c>
-      <c r="J75" s="7">
+      <c r="J75" s="9">
         <v>1</v>
       </c>
-      <c r="K75" s="4">
+      <c r="K75" s="6">
         <v>50</v>
       </c>
-      <c r="L75" s="5">
+      <c r="L75" s="7">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M75" s="6"/>
+      <c r="M75" s="8"/>
       <c r="N75" t="s">
         <v>581</v>
       </c>
@@ -13340,17 +13349,17 @@
       <c r="I76">
         <v>54</v>
       </c>
-      <c r="J76" s="7">
+      <c r="J76" s="9">
         <v>1</v>
       </c>
-      <c r="K76" s="4">
+      <c r="K76" s="6">
         <v>80</v>
       </c>
-      <c r="L76" s="5">
+      <c r="L76" s="7">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="M76" s="6"/>
+      <c r="M76" s="8"/>
       <c r="N76" t="s">
         <v>581</v>
       </c>
@@ -13383,17 +13392,17 @@
       <c r="I77">
         <v>79</v>
       </c>
-      <c r="J77" s="7">
+      <c r="J77" s="9">
         <v>1</v>
       </c>
-      <c r="K77" s="4">
+      <c r="K77" s="6">
         <v>180</v>
       </c>
-      <c r="L77" s="5">
+      <c r="L77" s="7">
         <f t="shared" si="4"/>
         <v>3.05555555555556</v>
       </c>
-      <c r="M77" s="6"/>
+      <c r="M77" s="8"/>
       <c r="N77" t="s">
         <v>581</v>
       </c>
@@ -13427,17 +13436,17 @@
       <c r="I78">
         <v>139</v>
       </c>
-      <c r="J78" s="7">
+      <c r="J78" s="9">
         <v>1</v>
       </c>
-      <c r="K78" s="4">
+      <c r="K78" s="6">
         <v>280</v>
       </c>
-      <c r="L78" s="5">
+      <c r="L78" s="7">
         <f t="shared" si="4"/>
         <v>3.21428571428571</v>
       </c>
-      <c r="M78" s="6"/>
+      <c r="M78" s="8"/>
       <c r="N78" t="s">
         <v>581</v>
       </c>
@@ -13471,17 +13480,17 @@
       <c r="I79">
         <v>319</v>
       </c>
-      <c r="J79" s="7">
+      <c r="J79" s="9">
         <v>1</v>
       </c>
-      <c r="K79" s="4">
+      <c r="K79" s="6">
         <v>600</v>
       </c>
-      <c r="L79" s="5">
+      <c r="L79" s="7">
         <f t="shared" si="4"/>
         <v>3.16666666666667</v>
       </c>
-      <c r="M79" s="6"/>
+      <c r="M79" s="8"/>
       <c r="N79" t="s">
         <v>582</v>
       </c>
@@ -13514,17 +13523,17 @@
       <c r="I80">
         <v>519</v>
       </c>
-      <c r="J80" s="7">
+      <c r="J80" s="9">
         <v>1</v>
       </c>
-      <c r="K80" s="4">
+      <c r="K80" s="6">
         <v>900</v>
       </c>
-      <c r="L80" s="5">
+      <c r="L80" s="7">
         <f t="shared" ref="L80:L111" si="5">G80/K80</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="M80" s="6"/>
+      <c r="M80" s="8"/>
       <c r="N80" t="s">
         <v>582</v>
       </c>
@@ -13558,17 +13567,17 @@
       <c r="I81">
         <v>549</v>
       </c>
-      <c r="J81" s="7">
+      <c r="J81" s="9">
         <v>1</v>
       </c>
-      <c r="K81" s="4">
+      <c r="K81" s="6">
         <v>1200</v>
       </c>
-      <c r="L81" s="5">
+      <c r="L81" s="7">
         <f t="shared" si="5"/>
         <v>3.33333333333333</v>
       </c>
-      <c r="M81" s="6"/>
+      <c r="M81" s="8"/>
       <c r="N81" t="s">
         <v>582</v>
       </c>
@@ -13601,17 +13610,17 @@
       <c r="I82">
         <v>12</v>
       </c>
-      <c r="J82" s="7">
+      <c r="J82" s="9">
         <v>1</v>
       </c>
-      <c r="K82" s="4">
+      <c r="K82" s="6">
         <v>24</v>
       </c>
-      <c r="L82" s="5">
+      <c r="L82" s="7">
         <f t="shared" si="5"/>
         <v>3.125</v>
       </c>
-      <c r="M82" s="6"/>
+      <c r="M82" s="8"/>
       <c r="N82" t="s">
         <v>583</v>
       </c>
@@ -13645,17 +13654,17 @@
       <c r="I83">
         <v>42</v>
       </c>
-      <c r="J83" s="7">
+      <c r="J83" s="9">
         <v>1</v>
       </c>
-      <c r="K83" s="4">
+      <c r="K83" s="6">
         <v>75</v>
       </c>
-      <c r="L83" s="5">
+      <c r="L83" s="7">
         <f t="shared" si="5"/>
         <v>3.26666666666667</v>
       </c>
-      <c r="M83" s="6"/>
+      <c r="M83" s="8"/>
       <c r="N83" t="s">
         <v>583</v>
       </c>
@@ -13689,17 +13698,17 @@
       <c r="I84">
         <v>49</v>
       </c>
-      <c r="J84" s="7">
+      <c r="J84" s="9">
         <v>1</v>
       </c>
-      <c r="K84" s="4">
+      <c r="K84" s="6">
         <v>240</v>
       </c>
-      <c r="L84" s="5">
+      <c r="L84" s="7">
         <f t="shared" si="5"/>
         <v>3.125</v>
       </c>
-      <c r="M84" s="6"/>
+      <c r="M84" s="8"/>
       <c r="N84" t="s">
         <v>584</v>
       </c>
@@ -13733,17 +13742,17 @@
       <c r="I85">
         <v>65</v>
       </c>
-      <c r="J85" s="7">
+      <c r="J85" s="9">
         <v>1</v>
       </c>
-      <c r="K85" s="4">
+      <c r="K85" s="6">
         <v>120</v>
       </c>
-      <c r="L85" s="5">
+      <c r="L85" s="7">
         <f t="shared" si="5"/>
         <v>3.08333333333333</v>
       </c>
-      <c r="M85" s="6"/>
+      <c r="M85" s="8"/>
       <c r="N85" t="s">
         <v>585</v>
       </c>
@@ -13777,17 +13786,17 @@
       <c r="I86">
         <v>95</v>
       </c>
-      <c r="J86" s="7">
+      <c r="J86" s="9">
         <v>1</v>
       </c>
-      <c r="K86" s="4">
+      <c r="K86" s="6">
         <v>160</v>
       </c>
-      <c r="L86" s="5">
+      <c r="L86" s="7">
         <f t="shared" si="5"/>
         <v>3.375</v>
       </c>
-      <c r="M86" s="6"/>
+      <c r="M86" s="8"/>
       <c r="N86" t="s">
         <v>586</v>
       </c>
@@ -13821,17 +13830,17 @@
       <c r="I87">
         <v>167</v>
       </c>
-      <c r="J87" s="7">
+      <c r="J87" s="9">
         <v>1</v>
       </c>
-      <c r="K87" s="4">
+      <c r="K87" s="6">
         <v>300</v>
       </c>
-      <c r="L87" s="5">
+      <c r="L87" s="7">
         <f t="shared" si="5"/>
         <v>3.33333333333333</v>
       </c>
-      <c r="M87" s="6"/>
+      <c r="M87" s="8"/>
       <c r="N87" t="s">
         <v>587</v>
       </c>
@@ -13865,17 +13874,17 @@
       <c r="I88">
         <v>383</v>
       </c>
-      <c r="J88" s="7">
+      <c r="J88" s="9">
         <v>1</v>
       </c>
-      <c r="K88" s="4">
+      <c r="K88" s="6">
         <v>700</v>
       </c>
-      <c r="L88" s="5">
+      <c r="L88" s="7">
         <f t="shared" si="5"/>
         <v>3.14285714285714</v>
       </c>
-      <c r="M88" s="6"/>
+      <c r="M88" s="8"/>
       <c r="N88" t="s">
         <v>588</v>
       </c>
@@ -13909,17 +13918,17 @@
       <c r="I89">
         <v>623</v>
       </c>
-      <c r="J89" s="7">
+      <c r="J89" s="9">
         <v>1</v>
       </c>
-      <c r="K89" s="4">
+      <c r="K89" s="6">
         <v>1100</v>
       </c>
-      <c r="L89" s="5">
+      <c r="L89" s="7">
         <f t="shared" si="5"/>
         <v>3.27272727272727</v>
       </c>
-      <c r="M89" s="6"/>
+      <c r="M89" s="8"/>
       <c r="N89" t="s">
         <v>589</v>
       </c>
@@ -13953,17 +13962,17 @@
       <c r="I90">
         <v>727</v>
       </c>
-      <c r="J90" s="7">
+      <c r="J90" s="9">
         <v>1</v>
       </c>
-      <c r="K90" s="4">
+      <c r="K90" s="6">
         <v>1200</v>
       </c>
-      <c r="L90" s="5">
+      <c r="L90" s="7">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="M90" s="6"/>
+      <c r="M90" s="8"/>
       <c r="N90" t="s">
         <v>582</v>
       </c>
@@ -13997,17 +14006,17 @@
       <c r="I91">
         <v>1019</v>
       </c>
-      <c r="J91" s="7">
+      <c r="J91" s="9">
         <v>1</v>
       </c>
-      <c r="K91" s="4">
+      <c r="K91" s="6">
         <v>1300</v>
       </c>
-      <c r="L91" s="5">
+      <c r="L91" s="7">
         <f t="shared" si="5"/>
         <v>3.76923076923077</v>
       </c>
-      <c r="M91" s="6"/>
+      <c r="M91" s="8"/>
       <c r="N91" t="s">
         <v>590</v>
       </c>
@@ -14041,17 +14050,17 @@
       <c r="I92">
         <v>1189</v>
       </c>
-      <c r="J92" s="7">
+      <c r="J92" s="9">
         <v>1</v>
       </c>
-      <c r="K92" s="4">
+      <c r="K92" s="6">
         <v>1400</v>
       </c>
-      <c r="L92" s="5">
+      <c r="L92" s="7">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M92" s="6"/>
+      <c r="M92" s="8"/>
       <c r="N92" t="s">
         <v>591</v>
       </c>
@@ -14085,18 +14094,18 @@
       <c r="I93">
         <v>1319</v>
       </c>
-      <c r="J93" s="7">
+      <c r="J93" s="9">
         <v>1</v>
       </c>
-      <c r="K93" s="4">
-        <f>I93/J93</f>
+      <c r="K93" s="6">
+        <f t="shared" ref="K93:K98" si="6">I93/J93</f>
         <v>1319</v>
       </c>
-      <c r="L93" s="5">
+      <c r="L93" s="7">
         <f t="shared" si="5"/>
         <v>4.5489006823351</v>
       </c>
-      <c r="M93" s="6"/>
+      <c r="M93" s="8"/>
       <c r="N93" t="s">
         <v>592</v>
       </c>
@@ -14130,18 +14139,18 @@
       <c r="I94">
         <v>1583</v>
       </c>
-      <c r="J94" s="7">
+      <c r="J94" s="9">
         <v>1</v>
       </c>
-      <c r="K94" s="4">
-        <f>I94/J94</f>
+      <c r="K94" s="6">
+        <f t="shared" si="6"/>
         <v>1583</v>
       </c>
-      <c r="L94" s="5">
+      <c r="L94" s="7">
         <f t="shared" si="5"/>
         <v>4.29564118761845</v>
       </c>
-      <c r="M94" s="6"/>
+      <c r="M94" s="8"/>
       <c r="N94" t="s">
         <v>589</v>
       </c>
@@ -14175,18 +14184,18 @@
       <c r="I95">
         <v>1847</v>
       </c>
-      <c r="J95" s="7">
+      <c r="J95" s="9">
         <v>1</v>
       </c>
-      <c r="K95" s="4">
-        <f>I95/J95</f>
+      <c r="K95" s="6">
+        <f t="shared" si="6"/>
         <v>1847</v>
       </c>
-      <c r="L95" s="5">
+      <c r="L95" s="7">
         <f t="shared" si="5"/>
         <v>4.11478072550081</v>
       </c>
-      <c r="M95" s="6"/>
+      <c r="M95" s="8"/>
       <c r="N95" t="s">
         <v>593</v>
       </c>
@@ -14220,18 +14229,18 @@
       <c r="I96">
         <v>1715</v>
       </c>
-      <c r="J96" s="7">
+      <c r="J96" s="9">
         <v>1</v>
       </c>
-      <c r="K96" s="4">
-        <f>I96/J96</f>
+      <c r="K96" s="6">
+        <f t="shared" si="6"/>
         <v>1715</v>
       </c>
-      <c r="L96" s="5">
+      <c r="L96" s="7">
         <f t="shared" si="5"/>
         <v>4.25655976676385</v>
       </c>
-      <c r="M96" s="6"/>
+      <c r="M96" s="8"/>
       <c r="N96" t="s">
         <v>591</v>
       </c>
@@ -14265,18 +14274,18 @@
       <c r="I97">
         <v>1451</v>
       </c>
-      <c r="J97" s="7">
+      <c r="J97" s="9">
         <v>1</v>
       </c>
-      <c r="K97" s="4">
-        <f>I97/J97</f>
+      <c r="K97" s="6">
+        <f t="shared" si="6"/>
         <v>1451</v>
       </c>
-      <c r="L97" s="5">
+      <c r="L97" s="7">
         <f t="shared" si="5"/>
         <v>4.34183321847002</v>
       </c>
-      <c r="M97" s="6"/>
+      <c r="M97" s="8"/>
       <c r="N97" t="s">
         <v>594</v>
       </c>
@@ -14310,18 +14319,18 @@
       <c r="I98">
         <v>2059</v>
       </c>
-      <c r="J98" s="7">
+      <c r="J98" s="9">
         <v>1</v>
       </c>
-      <c r="K98" s="4">
-        <f>I98/J98</f>
+      <c r="K98" s="6">
+        <f t="shared" si="6"/>
         <v>2059</v>
       </c>
-      <c r="L98" s="5">
+      <c r="L98" s="7">
         <f t="shared" si="5"/>
         <v>4.273919378339</v>
       </c>
-      <c r="M98" s="6"/>
+      <c r="M98" s="8"/>
       <c r="N98" t="s">
         <v>595</v>
       </c>
@@ -14355,18 +14364,18 @@
       <c r="I99">
         <v>4000</v>
       </c>
-      <c r="J99" s="7">
+      <c r="J99" s="9">
         <v>1</v>
       </c>
-      <c r="K99" s="4">
-        <f t="shared" ref="K99:K127" si="6">I99/J99</f>
+      <c r="K99" s="6">
+        <f t="shared" ref="K99:K127" si="7">I99/J99</f>
         <v>4000</v>
       </c>
-      <c r="L99" s="5">
-        <f>G99/K99</f>
+      <c r="L99" s="7">
+        <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
-      <c r="M99" s="6"/>
+      <c r="M99" s="8"/>
       <c r="N99" t="s">
         <v>596</v>
       </c>
@@ -14402,15 +14411,15 @@
       <c r="J100">
         <v>1.1</v>
       </c>
-      <c r="K100" s="4">
-        <f t="shared" si="6"/>
+      <c r="K100" s="6">
+        <f t="shared" si="7"/>
         <v>11.8181818181818</v>
       </c>
-      <c r="L100" s="5">
+      <c r="L100" s="7">
         <f t="shared" si="5"/>
         <v>6.76923076923077</v>
       </c>
-      <c r="M100" s="6">
+      <c r="M100" s="8">
         <v>3.69</v>
       </c>
       <c r="N100" t="s">
@@ -14448,15 +14457,15 @@
       <c r="J101">
         <v>1.1</v>
       </c>
-      <c r="K101" s="4">
-        <f t="shared" si="6"/>
+      <c r="K101" s="6">
+        <f t="shared" si="7"/>
         <v>26.3636363636364</v>
       </c>
-      <c r="L101" s="5">
+      <c r="L101" s="7">
         <f t="shared" si="5"/>
         <v>6.06896551724138</v>
       </c>
-      <c r="M101" s="6"/>
+      <c r="M101" s="8"/>
       <c r="N101" t="s">
         <v>597</v>
       </c>
@@ -14492,15 +14501,15 @@
       <c r="J102">
         <v>1.1</v>
       </c>
-      <c r="K102" s="4">
-        <f t="shared" si="6"/>
+      <c r="K102" s="6">
+        <f t="shared" si="7"/>
         <v>62.7272727272727</v>
       </c>
-      <c r="L102" s="5">
+      <c r="L102" s="7">
         <f t="shared" si="5"/>
         <v>5.10144927536232</v>
       </c>
-      <c r="M102" s="6"/>
+      <c r="M102" s="8"/>
       <c r="N102" t="s">
         <v>597</v>
       </c>
@@ -14536,15 +14545,15 @@
       <c r="J103">
         <v>1.1</v>
       </c>
-      <c r="K103" s="4">
-        <f t="shared" si="6"/>
+      <c r="K103" s="6">
+        <f t="shared" si="7"/>
         <v>43.6363636363636</v>
       </c>
-      <c r="L103" s="5">
+      <c r="L103" s="7">
         <f t="shared" si="5"/>
         <v>5.72916666666667</v>
       </c>
-      <c r="M103" s="6"/>
+      <c r="M103" s="8"/>
       <c r="N103" t="s">
         <v>598</v>
       </c>
@@ -14580,15 +14589,15 @@
       <c r="J104">
         <v>1.1</v>
       </c>
-      <c r="K104" s="4">
-        <f t="shared" si="6"/>
+      <c r="K104" s="6">
+        <f t="shared" si="7"/>
         <v>121.818181818182</v>
       </c>
-      <c r="L104" s="5">
+      <c r="L104" s="7">
         <f t="shared" si="5"/>
         <v>3.94029850746269</v>
       </c>
-      <c r="M104" s="6"/>
+      <c r="M104" s="8"/>
       <c r="N104" t="s">
         <v>598</v>
       </c>
@@ -14624,15 +14633,15 @@
       <c r="J105">
         <v>1.1</v>
       </c>
-      <c r="K105" s="4">
-        <f t="shared" si="6"/>
+      <c r="K105" s="6">
+        <f t="shared" si="7"/>
         <v>408.181818181818</v>
       </c>
-      <c r="L105" s="5">
+      <c r="L105" s="7">
         <f t="shared" si="5"/>
         <v>2.25389755011136</v>
       </c>
-      <c r="M105" s="6"/>
+      <c r="M105" s="8"/>
       <c r="N105" t="s">
         <v>598</v>
       </c>
@@ -14668,15 +14677,15 @@
       <c r="J106">
         <v>1.1</v>
       </c>
-      <c r="K106" s="4">
-        <f t="shared" si="6"/>
+      <c r="K106" s="6">
+        <f t="shared" si="7"/>
         <v>299.090909090909</v>
       </c>
-      <c r="L106" s="5">
+      <c r="L106" s="7">
         <f t="shared" si="5"/>
         <v>2.67477203647416</v>
       </c>
-      <c r="M106" s="6"/>
+      <c r="M106" s="8"/>
       <c r="N106" t="s">
         <v>599</v>
       </c>
@@ -14712,15 +14721,15 @@
       <c r="J107">
         <v>1.1</v>
       </c>
-      <c r="K107" s="4">
-        <f t="shared" si="6"/>
+      <c r="K107" s="6">
+        <f t="shared" si="7"/>
         <v>599.090909090909</v>
       </c>
-      <c r="L107" s="5">
+      <c r="L107" s="7">
         <f t="shared" si="5"/>
         <v>2.16995447647951</v>
       </c>
-      <c r="M107" s="6"/>
+      <c r="M107" s="8"/>
       <c r="N107" t="s">
         <v>600</v>
       </c>
@@ -14756,15 +14765,15 @@
       <c r="J108">
         <v>1.1</v>
       </c>
-      <c r="K108" s="4">
-        <f t="shared" si="6"/>
+      <c r="K108" s="6">
+        <f t="shared" si="7"/>
         <v>899.090909090909</v>
       </c>
-      <c r="L108" s="5">
+      <c r="L108" s="7">
         <f t="shared" si="5"/>
         <v>2.11324570273003</v>
       </c>
-      <c r="M108" s="6"/>
+      <c r="M108" s="8"/>
       <c r="N108" t="s">
         <v>600</v>
       </c>
@@ -14800,15 +14809,15 @@
       <c r="J109">
         <v>1.1</v>
       </c>
-      <c r="K109" s="4">
-        <f t="shared" si="6"/>
+      <c r="K109" s="6">
+        <f t="shared" si="7"/>
         <v>1199.09090909091</v>
       </c>
-      <c r="L109" s="5">
+      <c r="L109" s="7">
         <f t="shared" si="5"/>
         <v>2.41849886277483</v>
       </c>
-      <c r="M109" s="6"/>
+      <c r="M109" s="8"/>
       <c r="N109" t="s">
         <v>600</v>
       </c>
@@ -14844,15 +14853,15 @@
       <c r="J110">
         <v>1.1</v>
       </c>
-      <c r="K110" s="4">
-        <f t="shared" si="6"/>
+      <c r="K110" s="6">
+        <f t="shared" si="7"/>
         <v>762.727272727273</v>
       </c>
-      <c r="L110" s="5">
+      <c r="L110" s="7">
         <f t="shared" si="5"/>
         <v>4.71990464839094</v>
       </c>
-      <c r="M110" s="6"/>
+      <c r="M110" s="8"/>
       <c r="N110" t="s">
         <v>601</v>
       </c>
@@ -14888,15 +14897,15 @@
       <c r="J111">
         <v>1.1</v>
       </c>
-      <c r="K111" s="4">
-        <f t="shared" si="6"/>
+      <c r="K111" s="6">
+        <f t="shared" si="7"/>
         <v>2344.54545454545</v>
       </c>
-      <c r="L111" s="5">
+      <c r="L111" s="7">
         <f t="shared" si="5"/>
         <v>2.85769678169833</v>
       </c>
-      <c r="M111" s="6"/>
+      <c r="M111" s="8"/>
       <c r="N111" t="s">
         <v>602</v>
       </c>
@@ -14932,15 +14941,15 @@
       <c r="J112">
         <v>1.1</v>
       </c>
-      <c r="K112" s="4">
-        <f t="shared" si="6"/>
+      <c r="K112" s="6">
+        <f t="shared" si="7"/>
         <v>944.545454545455</v>
       </c>
-      <c r="L112" s="5">
-        <f t="shared" ref="L112:L127" si="7">G112/K112</f>
+      <c r="L112" s="7">
+        <f t="shared" ref="L112:L127" si="8">G112/K112</f>
         <v>4.02309913378248</v>
       </c>
-      <c r="M112" s="6"/>
+      <c r="M112" s="8"/>
       <c r="N112" t="s">
         <v>603</v>
       </c>
@@ -14976,15 +14985,15 @@
       <c r="J113">
         <v>1.1</v>
       </c>
-      <c r="K113" s="4">
-        <f t="shared" si="6"/>
+      <c r="K113" s="6">
+        <f t="shared" si="7"/>
         <v>1708.18181818182</v>
       </c>
-      <c r="L113" s="5">
-        <f t="shared" si="7"/>
+      <c r="L113" s="7">
+        <f t="shared" si="8"/>
         <v>3.39542309739223</v>
       </c>
-      <c r="M113" s="6"/>
+      <c r="M113" s="8"/>
       <c r="N113" t="s">
         <v>604</v>
       </c>
@@ -15020,15 +15029,15 @@
       <c r="J114">
         <v>1.1</v>
       </c>
-      <c r="K114" s="4">
-        <f t="shared" si="6"/>
+      <c r="K114" s="6">
+        <f t="shared" si="7"/>
         <v>1135.45454545455</v>
       </c>
-      <c r="L114" s="5">
-        <f t="shared" si="7"/>
+      <c r="L114" s="7">
+        <f t="shared" si="8"/>
         <v>2.81825460368295</v>
       </c>
-      <c r="M114" s="6"/>
+      <c r="M114" s="8"/>
       <c r="N114" t="s">
         <v>605</v>
       </c>
@@ -15064,15 +15073,15 @@
       <c r="J115">
         <v>1.1</v>
       </c>
-      <c r="K115" s="4">
-        <f t="shared" si="6"/>
+      <c r="K115" s="6">
+        <f t="shared" si="7"/>
         <v>1690</v>
       </c>
-      <c r="L115" s="5">
-        <f t="shared" si="7"/>
+      <c r="L115" s="7">
+        <f t="shared" si="8"/>
         <v>3.43195266272189</v>
       </c>
-      <c r="M115" s="6"/>
+      <c r="M115" s="8"/>
       <c r="N115" t="s">
         <v>605</v>
       </c>
@@ -15108,15 +15117,15 @@
       <c r="J116">
         <v>1.1</v>
       </c>
-      <c r="K116" s="4">
-        <f t="shared" si="6"/>
+      <c r="K116" s="6">
+        <f t="shared" si="7"/>
         <v>2226.36363636364</v>
       </c>
-      <c r="L116" s="5">
-        <f t="shared" si="7"/>
+      <c r="L116" s="7">
+        <f t="shared" si="8"/>
         <v>3.72805226623112</v>
       </c>
-      <c r="M116" s="6"/>
+      <c r="M116" s="8"/>
       <c r="N116" t="s">
         <v>605</v>
       </c>
@@ -15152,15 +15161,15 @@
       <c r="J117">
         <v>1.1</v>
       </c>
-      <c r="K117" s="4">
-        <f t="shared" si="6"/>
+      <c r="K117" s="6">
+        <f t="shared" si="7"/>
         <v>4090</v>
       </c>
-      <c r="L117" s="5">
-        <f t="shared" si="7"/>
+      <c r="L117" s="7">
+        <f t="shared" si="8"/>
         <v>2.3960880195599</v>
       </c>
-      <c r="M117" s="6"/>
+      <c r="M117" s="8"/>
       <c r="N117" t="s">
         <v>606</v>
       </c>
@@ -15196,15 +15205,15 @@
       <c r="J118">
         <v>1.1</v>
       </c>
-      <c r="K118" s="4">
-        <f t="shared" si="6"/>
+      <c r="K118" s="6">
+        <f t="shared" si="7"/>
         <v>3817.27272727273</v>
       </c>
-      <c r="L118" s="5">
-        <f t="shared" si="7"/>
+      <c r="L118" s="7">
+        <f t="shared" si="8"/>
         <v>3.40557275541796</v>
       </c>
-      <c r="M118" s="6"/>
+      <c r="M118" s="8"/>
       <c r="N118" t="s">
         <v>607</v>
       </c>
@@ -15240,15 +15249,15 @@
       <c r="J119">
         <v>1.3</v>
       </c>
-      <c r="K119" s="4">
-        <f t="shared" si="6"/>
+      <c r="K119" s="6">
+        <f t="shared" si="7"/>
         <v>37.6923076923077</v>
       </c>
-      <c r="L119" s="5">
-        <f t="shared" si="7"/>
+      <c r="L119" s="7">
+        <f t="shared" si="8"/>
         <v>6.63265306122449</v>
       </c>
-      <c r="M119" s="5"/>
+      <c r="M119" s="7"/>
       <c r="N119" t="s">
         <v>608</v>
       </c>
@@ -15284,15 +15293,15 @@
       <c r="J120">
         <v>1.1</v>
       </c>
-      <c r="K120" s="4">
-        <f t="shared" si="6"/>
+      <c r="K120" s="6">
+        <f t="shared" si="7"/>
         <v>408.181818181818</v>
       </c>
-      <c r="L120" s="5">
-        <f t="shared" si="7"/>
+      <c r="L120" s="7">
+        <f t="shared" si="8"/>
         <v>4.28730512249443</v>
       </c>
-      <c r="M120" s="5"/>
+      <c r="M120" s="7"/>
       <c r="N120" t="s">
         <v>608</v>
       </c>
@@ -15328,15 +15337,15 @@
       <c r="J121">
         <v>1.2</v>
       </c>
-      <c r="K121" s="4">
-        <f t="shared" si="6"/>
+      <c r="K121" s="6">
+        <f t="shared" si="7"/>
         <v>124.166666666667</v>
       </c>
-      <c r="L121" s="5">
-        <f t="shared" si="7"/>
+      <c r="L121" s="7">
+        <f t="shared" si="8"/>
         <v>6.04026845637584</v>
       </c>
-      <c r="M121" s="5"/>
+      <c r="M121" s="7"/>
       <c r="N121" t="s">
         <v>608</v>
       </c>
@@ -15369,18 +15378,18 @@
       <c r="I122">
         <v>1349</v>
       </c>
-      <c r="J122" s="7">
+      <c r="J122" s="9">
         <v>1</v>
       </c>
-      <c r="K122" s="4">
-        <f t="shared" si="6"/>
+      <c r="K122" s="6">
+        <f t="shared" si="7"/>
         <v>1349</v>
       </c>
-      <c r="L122" s="5">
-        <f t="shared" si="7"/>
+      <c r="L122" s="7">
+        <f t="shared" si="8"/>
         <v>2.77983691623425</v>
       </c>
-      <c r="M122" s="5"/>
+      <c r="M122" s="7"/>
       <c r="N122" t="s">
         <v>608</v>
       </c>
@@ -15416,15 +15425,15 @@
       <c r="J123">
         <v>0.9</v>
       </c>
-      <c r="K123" s="4">
-        <f t="shared" si="6"/>
+      <c r="K123" s="6">
+        <f t="shared" si="7"/>
         <v>4498.88888888889</v>
       </c>
-      <c r="L123" s="5">
-        <f t="shared" si="7"/>
+      <c r="L123" s="7">
+        <f t="shared" si="8"/>
         <v>1.72264756730057</v>
       </c>
-      <c r="M123" s="5"/>
+      <c r="M123" s="7"/>
       <c r="N123" t="s">
         <v>608</v>
       </c>
@@ -15460,15 +15469,15 @@
       <c r="J124">
         <v>0.8</v>
       </c>
-      <c r="K124" s="4">
-        <f t="shared" si="6"/>
+      <c r="K124" s="6">
+        <f t="shared" si="7"/>
         <v>15186.25</v>
       </c>
-      <c r="L124" s="5">
-        <f t="shared" si="7"/>
+      <c r="L124" s="7">
+        <f t="shared" si="8"/>
         <v>0.905424314758416</v>
       </c>
-      <c r="M124" s="5"/>
+      <c r="M124" s="7"/>
       <c r="N124" t="s">
         <v>608</v>
       </c>
@@ -15504,15 +15513,15 @@
       <c r="J125">
         <v>0.8</v>
       </c>
-      <c r="K125" s="4">
-        <f t="shared" si="6"/>
+      <c r="K125" s="6">
+        <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
-      <c r="L125" s="5">
-        <f t="shared" si="7"/>
+      <c r="L125" s="7">
+        <f t="shared" si="8"/>
         <v>8000</v>
       </c>
-      <c r="M125" s="5"/>
+      <c r="M125" s="7"/>
       <c r="N125" t="s">
         <v>609</v>
       </c>
@@ -15548,15 +15557,15 @@
       <c r="J126">
         <v>1.1</v>
       </c>
-      <c r="K126" s="4">
-        <f t="shared" si="6"/>
+      <c r="K126" s="6">
+        <f t="shared" si="7"/>
         <v>953.636363636364</v>
       </c>
-      <c r="L126" s="5">
-        <f t="shared" si="7"/>
+      <c r="L126" s="7">
+        <f t="shared" si="8"/>
         <v>4.19447092469018</v>
       </c>
-      <c r="M126" s="5"/>
+      <c r="M126" s="7"/>
       <c r="N126" t="s">
         <v>610</v>
       </c>
@@ -15592,15 +15601,15 @@
       <c r="J127">
         <v>1.1</v>
       </c>
-      <c r="K127" s="4">
-        <f t="shared" si="6"/>
+      <c r="K127" s="6">
+        <f t="shared" si="7"/>
         <v>453.636363636364</v>
       </c>
-      <c r="L127" s="5">
-        <f t="shared" si="7"/>
+      <c r="L127" s="7">
+        <f t="shared" si="8"/>
         <v>4.40881763527054</v>
       </c>
-      <c r="M127" s="5"/>
+      <c r="M127" s="7"/>
       <c r="N127" t="s">
         <v>611</v>
       </c>
@@ -15684,11 +15693,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <f t="shared" ref="E2:E33" si="0">0.06*C2/(1+0.06*C2)</f>
         <v>-0.136363636363636</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <f>B2/(1-E2)</f>
         <v>20.24</v>
       </c>
@@ -15700,11 +15709,11 @@
         <f>C2+19*D2</f>
         <v>17</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="5">
         <f>0.06*H2/(1+0.06*H2)</f>
         <v>0.504950495049505</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="6">
         <f>G2/(1-I2)</f>
         <v>223.008</v>
       </c>
@@ -15726,11 +15735,11 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="5">
         <f t="shared" si="0"/>
         <v>0.0566037735849057</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <f t="shared" ref="F3:F34" si="1">B3/(1-E3)</f>
         <v>79.5</v>
       </c>
@@ -15742,11 +15751,11 @@
         <f t="shared" ref="H3:H34" si="3">C3+19*D3</f>
         <v>20</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="5">
         <f t="shared" ref="I3:I34" si="4">0.06*H3/(1+0.06*H3)</f>
         <v>0.545454545454545</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="6">
         <f t="shared" ref="J3:J34" si="5">G3/(1-I3)</f>
         <v>792</v>
       </c>
@@ -15768,11 +15777,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="5">
         <f t="shared" si="0"/>
         <v>0.107142857142857</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <f t="shared" si="1"/>
         <v>176.96</v>
       </c>
@@ -15784,11 +15793,11 @@
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="5">
         <f t="shared" si="4"/>
         <v>0.557522123893805</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="6">
         <f t="shared" si="5"/>
         <v>1713.984</v>
       </c>
@@ -15810,11 +15819,11 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="5">
         <f t="shared" si="0"/>
         <v>0.193548387096774</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <f t="shared" si="1"/>
         <v>334.8</v>
       </c>
@@ -15826,11 +15835,11 @@
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="5">
         <f t="shared" si="4"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="6">
         <f t="shared" si="5"/>
         <v>3084.48</v>
       </c>
@@ -15852,11 +15861,11 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <f t="shared" si="0"/>
         <v>0.264705882352941</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>561.68</v>
       </c>
@@ -15868,11 +15877,11 @@
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="5">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="6">
         <f t="shared" si="5"/>
         <v>4956</v>
       </c>
@@ -15894,11 +15903,11 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="5">
         <f t="shared" si="0"/>
         <v>0.324324324324324</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <f t="shared" si="1"/>
         <v>865.8</v>
       </c>
@@ -15910,11 +15919,11 @@
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="5">
         <f t="shared" si="4"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="6">
         <f t="shared" si="5"/>
         <v>7356.96</v>
       </c>
@@ -15936,11 +15945,11 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="5">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <f t="shared" si="1"/>
         <v>1260.8</v>
       </c>
@@ -15952,11 +15961,11 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="5">
         <f t="shared" si="4"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="6">
         <f t="shared" si="5"/>
         <v>10363.776</v>
       </c>
@@ -15978,11 +15987,11 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="5">
         <f t="shared" si="0"/>
         <v>0.350649350649351</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <f t="shared" si="1"/>
         <v>1570.8</v>
       </c>
@@ -15994,11 +16003,11 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="5">
         <f t="shared" si="4"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="6">
         <f t="shared" si="5"/>
         <v>13121.28</v>
       </c>
@@ -16020,11 +16029,11 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="5">
         <f t="shared" si="0"/>
         <v>0.350649350649351</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <f t="shared" si="1"/>
         <v>1975.82</v>
       </c>
@@ -16036,11 +16045,11 @@
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="5">
         <f t="shared" si="4"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="6">
         <f t="shared" si="5"/>
         <v>16504.512</v>
       </c>
@@ -16062,11 +16071,11 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="5">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <f t="shared" si="1"/>
         <v>2520</v>
       </c>
@@ -16078,11 +16087,11 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="5">
         <f t="shared" si="4"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="6">
         <f t="shared" si="5"/>
         <v>20714.4</v>
       </c>
@@ -16104,11 +16113,11 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="5">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <f t="shared" si="1"/>
         <v>3012.8</v>
       </c>
@@ -16120,11 +16129,11 @@
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="5">
         <f t="shared" si="4"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="6">
         <f t="shared" si="5"/>
         <v>24765.216</v>
       </c>
@@ -16146,11 +16155,11 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <f t="shared" si="0"/>
         <v>0.397590361445783</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <f t="shared" si="1"/>
         <v>3685.2</v>
       </c>
@@ -16162,11 +16171,11 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="5">
         <f t="shared" si="4"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="6">
         <f t="shared" si="5"/>
         <v>29836.8</v>
       </c>
@@ -16188,11 +16197,11 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <f t="shared" si="0"/>
         <v>0.397590361445783</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
         <f t="shared" si="1"/>
         <v>4233</v>
       </c>
@@ -16204,11 +16213,11 @@
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="5">
         <f t="shared" si="4"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="6">
         <f t="shared" si="5"/>
         <v>34272</v>
       </c>
@@ -16230,11 +16239,11 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="5">
         <f t="shared" si="0"/>
         <v>0.418604651162791</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="6">
         <f t="shared" si="1"/>
         <v>5070.56</v>
       </c>
@@ -16246,11 +16255,11 @@
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="5">
         <f t="shared" si="4"/>
         <v>0.65034965034965</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="6">
         <f t="shared" si="5"/>
         <v>40470.144</v>
       </c>
@@ -16272,11 +16281,11 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <f t="shared" si="0"/>
         <v>0.438202247191011</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="6">
         <f t="shared" si="1"/>
         <v>6007.5</v>
       </c>
@@ -16288,11 +16297,11 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="5">
         <f t="shared" si="4"/>
         <v>0.657534246575342</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="6">
         <f t="shared" si="5"/>
         <v>47304</v>
       </c>
@@ -16314,11 +16323,11 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="5">
         <f t="shared" si="0"/>
         <v>0.438202247191011</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="6">
         <f t="shared" si="1"/>
         <v>7075.5</v>
       </c>
@@ -16330,11 +16339,11 @@
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="5">
         <f t="shared" si="4"/>
         <v>0.657534246575342</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="6">
         <f t="shared" si="5"/>
         <v>55713.6</v>
       </c>
@@ -16356,11 +16365,11 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="5">
         <f t="shared" si="0"/>
         <v>0.456521739130435</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="6">
         <f t="shared" si="1"/>
         <v>8832</v>
       </c>
@@ -16372,11 +16381,11 @@
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="I18" s="3">
+      <c r="I18" s="5">
         <f t="shared" si="4"/>
         <v>0.664429530201342</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="6">
         <f t="shared" si="5"/>
         <v>68659.2</v>
       </c>
@@ -16398,11 +16407,11 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="5">
         <f t="shared" si="0"/>
         <v>0.473684210526316</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="6">
         <f t="shared" si="1"/>
         <v>10972.5</v>
       </c>
@@ -16414,11 +16423,11 @@
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="5">
         <f t="shared" si="4"/>
         <v>0.671052631578947</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="6">
         <f t="shared" si="5"/>
         <v>84268.8</v>
       </c>
@@ -16440,11 +16449,11 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="5">
         <f t="shared" si="0"/>
         <v>0.489795918367347</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="6">
         <f t="shared" si="1"/>
         <v>13524</v>
       </c>
@@ -16456,11 +16465,11 @@
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="5">
         <f t="shared" si="4"/>
         <v>0.67741935483871</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="6">
         <f t="shared" si="5"/>
         <v>102672</v>
       </c>
@@ -16482,11 +16491,11 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="5">
         <f t="shared" si="0"/>
         <v>0.504950495049505</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="6">
         <f t="shared" si="1"/>
         <v>16513.5</v>
       </c>
@@ -16498,11 +16507,11 @@
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="5">
         <f t="shared" si="4"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="6">
         <f t="shared" si="5"/>
         <v>123998.4</v>
       </c>
@@ -16524,11 +16533,11 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="5">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="6">
         <f t="shared" si="1"/>
         <v>20592</v>
       </c>
@@ -16540,11 +16549,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="5">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="6">
         <f t="shared" si="5"/>
         <v>153014.4</v>
       </c>
@@ -16566,11 +16575,11 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="5">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="6">
         <f t="shared" si="1"/>
         <v>24648</v>
       </c>
@@ -16582,11 +16591,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="5">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="6">
         <f t="shared" si="5"/>
         <v>183153.6</v>
       </c>
@@ -16608,11 +16617,11 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="5">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="6">
         <f t="shared" si="1"/>
         <v>29796</v>
       </c>
@@ -16624,11 +16633,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="5">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="6">
         <f t="shared" si="5"/>
         <v>221407.2</v>
       </c>
@@ -16650,11 +16659,11 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="5">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="6">
         <f t="shared" si="1"/>
         <v>34684</v>
       </c>
@@ -16666,11 +16675,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="5">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="6">
         <f t="shared" si="5"/>
         <v>257728.8</v>
       </c>
@@ -16692,11 +16701,11 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="5">
         <f t="shared" si="0"/>
         <v>0.532710280373832</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="6">
         <f t="shared" si="1"/>
         <v>40606.5</v>
       </c>
@@ -16708,11 +16717,11 @@
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="I26" s="3">
+      <c r="I26" s="5">
         <f t="shared" si="4"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="6">
         <f t="shared" si="5"/>
         <v>298742.4</v>
       </c>
@@ -16734,11 +16743,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="5">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="6">
         <f t="shared" si="1"/>
         <v>44928</v>
       </c>
@@ -16750,11 +16759,11 @@
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="5">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="6">
         <f t="shared" si="5"/>
         <v>333849.6</v>
       </c>
@@ -16776,11 +16785,11 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="5">
         <f t="shared" si="0"/>
         <v>0.557522123893805</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="6">
         <f t="shared" si="1"/>
         <v>55426.5</v>
       </c>
@@ -16792,11 +16801,11 @@
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="5">
         <f t="shared" si="4"/>
         <v>0.705882352941177</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="6">
         <f t="shared" si="5"/>
         <v>400248</v>
       </c>
@@ -16818,11 +16827,11 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="5">
         <f t="shared" si="0"/>
         <v>0.545454545454545</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="6">
         <f t="shared" si="1"/>
         <v>61050</v>
       </c>
@@ -16834,11 +16843,11 @@
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="5">
         <f t="shared" si="4"/>
         <v>0.70059880239521</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="6">
         <f t="shared" si="5"/>
         <v>444888</v>
       </c>
@@ -16860,11 +16869,11 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="5">
         <f t="shared" si="0"/>
         <v>0.568965517241379</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="6">
         <f t="shared" si="1"/>
         <v>73080</v>
       </c>
@@ -16876,11 +16885,11 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="5">
         <f t="shared" si="4"/>
         <v>0.710982658959538</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="6">
         <f t="shared" si="5"/>
         <v>523152</v>
       </c>
@@ -16902,11 +16911,11 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="5">
         <f t="shared" si="0"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="6">
         <f t="shared" si="1"/>
         <v>85323</v>
       </c>
@@ -16918,11 +16927,11 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="5">
         <f t="shared" si="4"/>
         <v>0.715909090909091</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="6">
         <f t="shared" si="5"/>
         <v>605721.6</v>
       </c>
@@ -16944,11 +16953,11 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E32" s="5">
         <f t="shared" si="0"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="6">
         <f t="shared" si="1"/>
         <v>97104</v>
       </c>
@@ -16960,11 +16969,11 @@
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="I32" s="3">
+      <c r="I32" s="5">
         <f t="shared" si="4"/>
         <v>0.715909090909091</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="6">
         <f t="shared" si="5"/>
         <v>689356.8</v>
       </c>
@@ -16986,11 +16995,11 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E33" s="5">
         <f t="shared" si="0"/>
         <v>0.609375</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="6">
         <f t="shared" si="1"/>
         <v>118656</v>
       </c>
@@ -17002,11 +17011,11 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I33" s="3">
+      <c r="I33" s="5">
         <f t="shared" si="4"/>
         <v>0.72972972972973</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="6">
         <f t="shared" si="5"/>
         <v>823176</v>
       </c>
@@ -17028,11 +17037,11 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E34" s="5">
         <f t="shared" ref="E34:E56" si="7">0.06*C34/(1+0.06*C34)</f>
         <v>0.609375</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="6">
         <f t="shared" si="1"/>
         <v>134400</v>
       </c>
@@ -17044,11 +17053,11 @@
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I34" s="3">
+      <c r="I34" s="5">
         <f t="shared" si="4"/>
         <v>0.72972972972973</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="6">
         <f t="shared" si="5"/>
         <v>932400</v>
       </c>
@@ -17070,11 +17079,11 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="5">
         <f t="shared" si="7"/>
         <v>0.609375</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="6">
         <f t="shared" ref="F35:F56" si="8">B35/(1-E35)</f>
         <v>151680</v>
       </c>
@@ -17086,11 +17095,11 @@
         <f t="shared" ref="H35:H56" si="10">C35+19*D35</f>
         <v>45</v>
       </c>
-      <c r="I35" s="3">
+      <c r="I35" s="5">
         <f t="shared" ref="I35:I56" si="11">0.06*H35/(1+0.06*H35)</f>
         <v>0.72972972972973</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="6">
         <f t="shared" ref="J35:J56" si="12">G35/(1-I35)</f>
         <v>1052280</v>
       </c>
@@ -17112,11 +17121,11 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E36" s="5">
         <f t="shared" si="7"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="6">
         <f t="shared" si="8"/>
         <v>170955</v>
       </c>
@@ -17128,11 +17137,11 @@
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="I36" s="3">
+      <c r="I36" s="5">
         <f t="shared" si="11"/>
         <v>0.734042553191489</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="6">
         <f t="shared" si="12"/>
         <v>1177632</v>
       </c>
@@ -17154,11 +17163,11 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E37" s="5">
         <f t="shared" si="7"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="6">
         <f t="shared" si="8"/>
         <v>188640</v>
       </c>
@@ -17170,11 +17179,11 @@
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I37" s="5">
         <f t="shared" si="11"/>
         <v>0.734042553191489</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="6">
         <f t="shared" si="12"/>
         <v>1299456</v>
       </c>
@@ -17196,11 +17205,11 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E38" s="5">
         <f t="shared" si="7"/>
         <v>0.609375</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="6">
         <f t="shared" si="8"/>
         <v>199680</v>
       </c>
@@ -17212,11 +17221,11 @@
         <f t="shared" si="10"/>
         <v>45</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I38" s="5">
         <f t="shared" si="11"/>
         <v>0.72972972972973</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="6">
         <f t="shared" si="12"/>
         <v>1385280</v>
       </c>
@@ -17238,11 +17247,11 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E39" s="5">
         <f t="shared" si="7"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="6">
         <f t="shared" si="8"/>
         <v>225924</v>
       </c>
@@ -17254,11 +17263,11 @@
         <f t="shared" si="10"/>
         <v>47</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I39" s="5">
         <f t="shared" si="11"/>
         <v>0.738219895287958</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="6">
         <f t="shared" si="12"/>
         <v>1545724.8</v>
       </c>
@@ -17280,11 +17289,11 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E40" s="5">
         <f t="shared" si="7"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="6">
         <f t="shared" si="8"/>
         <v>249477</v>
       </c>
@@ -17296,11 +17305,11 @@
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I40" s="5">
         <f t="shared" si="11"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="6">
         <f t="shared" si="12"/>
         <v>1695715.2</v>
       </c>
@@ -17322,11 +17331,11 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="3">
+      <c r="E41" s="5">
         <f t="shared" si="7"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="6">
         <f t="shared" si="8"/>
         <v>268794</v>
       </c>
@@ -17338,11 +17347,11 @@
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="I41" s="3">
+      <c r="I41" s="5">
         <f t="shared" si="11"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="6">
         <f t="shared" si="12"/>
         <v>1827014.4</v>
       </c>
@@ -17364,11 +17373,11 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="5">
         <f t="shared" si="7"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="6">
         <f t="shared" si="8"/>
         <v>289344</v>
       </c>
@@ -17380,11 +17389,11 @@
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="5">
         <f t="shared" si="11"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="6">
         <f t="shared" si="12"/>
         <v>1966694.4</v>
       </c>
@@ -17406,11 +17415,11 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" s="3">
+      <c r="E43" s="5">
         <f t="shared" si="7"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="6">
         <f t="shared" si="8"/>
         <v>310716</v>
       </c>
@@ -17422,11 +17431,11 @@
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="5">
         <f t="shared" si="11"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="6">
         <f t="shared" si="12"/>
         <v>2111961.6</v>
       </c>
@@ -17448,11 +17457,11 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" s="3">
+      <c r="E44" s="5">
         <f t="shared" si="7"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="6">
         <f t="shared" si="8"/>
         <v>340200</v>
       </c>
@@ -17464,11 +17473,11 @@
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="I44" s="3">
+      <c r="I44" s="5">
         <f t="shared" si="11"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="6">
         <f t="shared" si="12"/>
         <v>2297808</v>
       </c>
@@ -17490,11 +17499,11 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="5">
         <f t="shared" si="7"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="6">
         <f t="shared" si="8"/>
         <v>364140</v>
       </c>
@@ -17506,11 +17515,11 @@
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="I45" s="3">
+      <c r="I45" s="5">
         <f t="shared" si="11"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="6">
         <f t="shared" si="12"/>
         <v>2459505.6</v>
       </c>
@@ -17532,11 +17541,11 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" s="3">
+      <c r="E46" s="5">
         <f t="shared" si="7"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="6">
         <f t="shared" si="8"/>
         <v>389760</v>
       </c>
@@ -17548,11 +17557,11 @@
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="I46" s="3">
+      <c r="I46" s="5">
         <f t="shared" si="11"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="6">
         <f t="shared" si="12"/>
         <v>2632550.4</v>
       </c>
@@ -17574,11 +17583,11 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="5">
         <f t="shared" si="7"/>
         <v>0.65034965034965</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="6">
         <f t="shared" si="8"/>
         <v>425568</v>
       </c>
@@ -17590,11 +17599,11 @@
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="5">
         <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="6">
         <f t="shared" si="12"/>
         <v>2856960</v>
       </c>
@@ -17613,11 +17622,11 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="3">
+      <c r="E48" s="5">
         <f t="shared" si="7"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -17629,11 +17638,11 @@
         <f t="shared" si="10"/>
         <v>519</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="5">
         <f t="shared" si="11"/>
         <v>0.968886123210952</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
@@ -17655,11 +17664,11 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="3">
+      <c r="E49" s="5">
         <f t="shared" si="7"/>
         <v>0.664429530201342</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="6">
         <f t="shared" si="8"/>
         <v>522990</v>
       </c>
@@ -17671,11 +17680,11 @@
         <f t="shared" si="10"/>
         <v>52</v>
       </c>
-      <c r="I49" s="3">
+      <c r="I49" s="5">
         <f t="shared" si="11"/>
         <v>0.757281553398058</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="6">
         <f t="shared" si="12"/>
         <v>3470688</v>
       </c>
@@ -17697,11 +17706,11 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" s="3">
+      <c r="E50" s="5">
         <f t="shared" si="7"/>
         <v>0.664429530201342</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="6">
         <f t="shared" si="8"/>
         <v>558750</v>
       </c>
@@ -17713,11 +17722,11 @@
         <f t="shared" si="10"/>
         <v>52</v>
       </c>
-      <c r="I50" s="3">
+      <c r="I50" s="5">
         <f t="shared" si="11"/>
         <v>0.757281553398058</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="6">
         <f t="shared" si="12"/>
         <v>3708000</v>
       </c>
@@ -17739,11 +17748,11 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" s="3">
+      <c r="E51" s="5">
         <f t="shared" si="7"/>
         <v>0.67741935483871</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="6">
         <f t="shared" si="8"/>
         <v>632400</v>
       </c>
@@ -17755,11 +17764,11 @@
         <f t="shared" si="10"/>
         <v>54</v>
       </c>
-      <c r="I51" s="3">
+      <c r="I51" s="5">
         <f t="shared" si="11"/>
         <v>0.764150943396226</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="6">
         <f t="shared" si="12"/>
         <v>4151808</v>
       </c>
@@ -17781,11 +17790,11 @@
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="3">
+      <c r="E52" s="5">
         <f t="shared" si="7"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="6">
         <f t="shared" si="8"/>
         <v>681928</v>
       </c>
@@ -17797,11 +17806,11 @@
         <f t="shared" si="10"/>
         <v>55</v>
       </c>
-      <c r="I52" s="3">
+      <c r="I52" s="5">
         <f t="shared" si="11"/>
         <v>0.767441860465116</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="6">
         <f t="shared" si="12"/>
         <v>4454112</v>
       </c>
@@ -17823,11 +17832,11 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" s="3">
+      <c r="E53" s="5">
         <f t="shared" si="7"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="6">
         <f t="shared" si="8"/>
         <v>729960</v>
       </c>
@@ -17839,11 +17848,11 @@
         <f t="shared" si="10"/>
         <v>55</v>
       </c>
-      <c r="I53" s="3">
+      <c r="I53" s="5">
         <f t="shared" si="11"/>
         <v>0.767441860465116</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="6">
         <f t="shared" si="12"/>
         <v>4767840</v>
       </c>
@@ -17865,11 +17874,11 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E54" s="5">
         <f t="shared" si="7"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="6">
         <f t="shared" si="8"/>
         <v>779240</v>
       </c>
@@ -17881,11 +17890,11 @@
         <f t="shared" si="10"/>
         <v>56</v>
       </c>
-      <c r="I54" s="3">
+      <c r="I54" s="5">
         <f t="shared" si="11"/>
         <v>0.770642201834862</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="6">
         <f t="shared" si="12"/>
         <v>5064576</v>
       </c>
@@ -17907,11 +17916,11 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E55" s="5">
         <f t="shared" si="7"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="6">
         <f t="shared" si="8"/>
         <v>846240</v>
       </c>
@@ -17923,11 +17932,11 @@
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
-      <c r="I55" s="3">
+      <c r="I55" s="5">
         <f t="shared" si="11"/>
         <v>0.773755656108597</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="6">
         <f t="shared" si="12"/>
         <v>5473728</v>
       </c>
@@ -17949,11 +17958,11 @@
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E56" s="5">
         <f t="shared" si="7"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="6">
         <f t="shared" si="8"/>
         <v>918400</v>
       </c>
@@ -17965,11 +17974,11 @@
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
-      <c r="I56" s="3">
+      <c r="I56" s="5">
         <f t="shared" si="11"/>
         <v>0.773755656108597</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="6">
         <f t="shared" si="12"/>
         <v>5940480</v>
       </c>
@@ -18054,7 +18063,7 @@
         <f>A2/(A2+B2)</f>
         <v>0.833333333333333</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="11" t="s">
         <v>626</v>
       </c>
       <c r="G2">
@@ -18099,7 +18108,7 @@
         <f>A3/(A3+B3)</f>
         <v>0.869565217391304</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="10" t="s">
         <v>627</v>
       </c>
       <c r="G3">
@@ -18144,7 +18153,7 @@
         <f t="shared" ref="C4:C11" si="0">A4/(A4+B4)</f>
         <v>0.882352941176471</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="10" t="s">
         <v>628</v>
       </c>
       <c r="G4">
@@ -18189,7 +18198,7 @@
         <f t="shared" si="0"/>
         <v>0.888888888888889</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="10" t="s">
         <v>629</v>
       </c>
       <c r="G5">
@@ -18234,7 +18243,7 @@
         <f t="shared" si="0"/>
         <v>0.892857142857143</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="10" t="s">
         <v>630</v>
       </c>
       <c r="G6">
@@ -18279,7 +18288,7 @@
         <f t="shared" si="0"/>
         <v>0.895522388059702</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="10" t="s">
         <v>631</v>
       </c>
       <c r="G7">
@@ -18454,1451 +18463,1555 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.125" customWidth="1"/>
-    <col min="2" max="2" width="42.625" customWidth="1"/>
-    <col min="5" max="6" width="9.375"/>
-    <col min="8" max="8" width="19.625" customWidth="1"/>
-    <col min="10" max="10" width="23.125" customWidth="1"/>
+    <col min="2" max="2" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="42.625" customWidth="1"/>
+    <col min="7" max="8" width="9.375"/>
+    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="12" max="12" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>632</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>633</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>634</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>635</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>636</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>637</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>638</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>639</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
+      <c r="L1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>536</v>
       </c>
-      <c r="B2" t="s">
-        <v>641</v>
-      </c>
-      <c r="E2">
+      <c r="C2" t="s">
+        <v>642</v>
+      </c>
+      <c r="G2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2">
+      <c r="K2">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+    <row r="3" spans="1:12">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
         <v>539</v>
       </c>
-      <c r="B3" t="s">
-        <v>642</v>
-      </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>643</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
+      </c>
+      <c r="F3">
+        <f>12800*24</f>
+        <v>307200</v>
+      </c>
+      <c r="I3">
+        <v>21</v>
+      </c>
+      <c r="J3">
+        <v>500</v>
+      </c>
+      <c r="K3">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1"/>
+      <c r="B4" t="s">
+        <v>542</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>80</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>645</v>
+      </c>
+      <c r="K4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1"/>
+      <c r="B5" t="s">
+        <v>543</v>
+      </c>
+      <c r="C5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="K5">
         <v>50</v>
       </c>
-      <c r="G3">
-        <v>21</v>
-      </c>
-      <c r="H3">
-        <v>500</v>
-      </c>
-      <c r="I3">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>542</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>80</v>
-      </c>
-      <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>8</v>
-      </c>
-      <c r="H4" t="s">
-        <v>644</v>
-      </c>
-      <c r="I4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>543</v>
-      </c>
-      <c r="B5" t="s">
-        <v>645</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1000</v>
-      </c>
-      <c r="E5">
-        <v>10</v>
-      </c>
-      <c r="F5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>646</v>
-      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
       <c r="B6" t="s">
         <v>647</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>648</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6000</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>648</v>
-      </c>
-      <c r="I6">
+      <c r="G6" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="K6">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>649</v>
-      </c>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
       <c r="B7" t="s">
         <v>650</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>651</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>800</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>15</v>
       </c>
-      <c r="F7">
+      <c r="H7">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
-        <v>651</v>
-      </c>
-      <c r="I7">
+      <c r="J7" t="s">
+        <v>652</v>
+      </c>
+      <c r="K7">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
         <v>548</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>653</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>1200</v>
+      </c>
+      <c r="F8">
+        <f>1200*16</f>
+        <v>19200</v>
+      </c>
+      <c r="J8">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>549</v>
+      </c>
+      <c r="C9" t="s">
+        <v>654</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="J9" t="s">
         <v>652</v>
       </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>300</v>
-      </c>
-      <c r="H8">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>549</v>
-      </c>
-      <c r="B9" t="s">
-        <v>653</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="H9" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>654</v>
-      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
         <v>655</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="s">
+        <v>656</v>
+      </c>
+      <c r="D10">
         <v>3</v>
       </c>
-      <c r="F10">
+      <c r="H10">
         <v>2</v>
       </c>
-      <c r="G10" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
+      <c r="I10" t="s">
         <v>657</v>
       </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
         <v>658</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="s">
+        <v>659</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>40</v>
       </c>
-      <c r="F11">
+      <c r="H11">
         <v>30</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+    <row r="12" spans="1:11">
+      <c r="A12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
         <v>553</v>
       </c>
-      <c r="B12" t="s">
-        <v>659</v>
-      </c>
-      <c r="C12">
+      <c r="C12" t="s">
+        <v>660</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>100</v>
       </c>
-      <c r="F12">
+      <c r="H12">
         <v>3</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+    <row r="13" spans="1:11">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
         <v>554</v>
       </c>
-      <c r="B13" t="s">
-        <v>660</v>
-      </c>
-      <c r="C13">
+      <c r="C13" t="s">
+        <v>661</v>
+      </c>
+      <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>10</v>
       </c>
-      <c r="F13" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="I13">
+      <c r="H13" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="K13">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" t="s">
+    <row r="14" spans="1:12">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
         <v>555</v>
       </c>
-      <c r="B14" t="s">
-        <v>662</v>
-      </c>
-      <c r="C14">
+      <c r="C14" t="s">
+        <v>663</v>
+      </c>
+      <c r="D14">
         <v>3</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>3</v>
       </c>
-      <c r="F14" t="s">
-        <v>663</v>
-      </c>
-      <c r="I14">
+      <c r="H14" t="s">
+        <v>664</v>
+      </c>
+      <c r="K14">
         <v>25</v>
       </c>
-      <c r="J14" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" t="s">
+      <c r="L14" t="s">
         <v>665</v>
       </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="3"/>
       <c r="B15" t="s">
         <v>666</v>
       </c>
-      <c r="C15">
+      <c r="C15" t="s">
+        <v>667</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1500</v>
       </c>
-      <c r="G15">
+      <c r="I15">
         <v>26</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>25</v>
       </c>
-      <c r="J15" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="L15" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
         <v>557</v>
       </c>
-      <c r="B16" t="s">
-        <v>668</v>
-      </c>
-      <c r="C16">
+      <c r="C16" t="s">
+        <v>669</v>
+      </c>
+      <c r="D16">
         <v>4</v>
       </c>
-      <c r="G16" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
+      <c r="I16" t="s">
         <v>670</v>
       </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="3"/>
       <c r="B17" t="s">
         <v>671</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="s">
+        <v>672</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>100</v>
       </c>
-      <c r="E17">
+      <c r="G17">
         <v>10</v>
       </c>
-      <c r="F17">
+      <c r="H17">
         <v>9</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
-      <c r="A18" t="s">
+    <row r="18" spans="1:12">
+      <c r="A18" s="3"/>
+      <c r="B18" t="s">
         <v>559</v>
       </c>
-      <c r="B18" t="s">
-        <v>672</v>
-      </c>
-      <c r="C18">
+      <c r="C18" t="s">
+        <v>673</v>
+      </c>
+      <c r="D18">
         <v>4</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>500</v>
       </c>
-      <c r="G18">
+      <c r="I18">
         <v>18</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>50</v>
       </c>
-      <c r="J18" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" t="s">
+      <c r="L18" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3"/>
+      <c r="B19" t="s">
         <v>563</v>
       </c>
-      <c r="B19" t="s">
-        <v>674</v>
-      </c>
-      <c r="C19">
+      <c r="C19" t="s">
+        <v>675</v>
+      </c>
+      <c r="D19">
         <v>3</v>
       </c>
-      <c r="H19" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
+      <c r="J19" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="3"/>
+      <c r="B20" t="s">
         <v>561</v>
       </c>
-      <c r="B20" t="s">
-        <v>675</v>
-      </c>
-      <c r="C20">
+      <c r="C20" t="s">
+        <v>676</v>
+      </c>
+      <c r="D20">
         <v>3</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>676</v>
-      </c>
-      <c r="G20">
-        <v>25</v>
+      <c r="H20" s="10" t="s">
+        <v>677</v>
       </c>
       <c r="I20">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" t="s">
-        <v>677</v>
-      </c>
+      <c r="K20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="3"/>
       <c r="B21" t="s">
         <v>678</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="s">
+        <v>679</v>
+      </c>
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="H21" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" t="s">
+      <c r="J21" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="3"/>
+      <c r="B22" t="s">
         <v>565</v>
       </c>
-      <c r="B22" t="s">
-        <v>679</v>
-      </c>
-      <c r="C22">
+      <c r="C22" t="s">
+        <v>680</v>
+      </c>
+      <c r="D22">
         <v>4</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1000</v>
       </c>
-      <c r="G22">
+      <c r="I22">
         <v>17</v>
       </c>
-      <c r="H22" t="s">
-        <v>680</v>
-      </c>
-      <c r="I22">
+      <c r="J22" t="s">
+        <v>681</v>
+      </c>
+      <c r="K22">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
-      <c r="A23" t="s">
-        <v>681</v>
-      </c>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3"/>
       <c r="B23" t="s">
         <v>682</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="s">
+        <v>683</v>
+      </c>
+      <c r="D23">
         <v>3</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>10</v>
       </c>
-      <c r="H23" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" t="s">
+      <c r="J23" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" t="s">
         <v>569</v>
       </c>
-      <c r="B24" t="s">
-        <v>684</v>
-      </c>
-      <c r="C24">
+      <c r="C24" t="s">
+        <v>685</v>
+      </c>
+      <c r="D24">
         <v>3</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>400</v>
       </c>
-      <c r="E24">
+      <c r="G24">
         <v>8</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>15</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" t="s">
+    <row r="25" spans="1:11">
+      <c r="A25" s="1"/>
+      <c r="B25" t="s">
         <v>570</v>
       </c>
-      <c r="B25" t="s">
-        <v>685</v>
-      </c>
-      <c r="C25">
+      <c r="C25" t="s">
+        <v>686</v>
+      </c>
+      <c r="D25">
         <v>3</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>50</v>
       </c>
-      <c r="E25">
+      <c r="G25">
         <v>2</v>
       </c>
-      <c r="H25" t="s">
-        <v>686</v>
-      </c>
-      <c r="I25">
+      <c r="J25" t="s">
+        <v>687</v>
+      </c>
+      <c r="K25">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
-      <c r="A26" t="s">
+    <row r="26" spans="1:11">
+      <c r="A26" s="1"/>
+      <c r="B26" t="s">
         <v>571</v>
       </c>
-      <c r="B26" t="s">
-        <v>687</v>
-      </c>
-      <c r="C26">
+      <c r="C26" t="s">
+        <v>688</v>
+      </c>
+      <c r="D26">
         <v>3</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>500</v>
       </c>
-      <c r="G26">
+      <c r="I26">
         <v>19</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" t="s">
+    <row r="27" spans="1:11">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
         <v>572</v>
       </c>
-      <c r="B27" t="s">
-        <v>688</v>
-      </c>
-      <c r="C27">
+      <c r="C27" t="s">
+        <v>689</v>
+      </c>
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>100</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>10</v>
       </c>
-      <c r="F27" s="8" t="s">
-        <v>689</v>
-      </c>
-      <c r="I27">
+      <c r="H27" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="K27">
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" t="s">
+    <row r="28" spans="1:11">
+      <c r="A28" s="1"/>
+      <c r="B28" t="s">
         <v>573</v>
       </c>
-      <c r="B28" t="s">
-        <v>690</v>
-      </c>
-      <c r="C28">
+      <c r="C28" t="s">
+        <v>691</v>
+      </c>
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28">
+      <c r="G28">
         <v>30</v>
       </c>
-      <c r="F28">
+      <c r="H28">
         <v>20</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>800</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" t="s">
+    <row r="29" spans="1:11">
+      <c r="A29" s="1"/>
+      <c r="B29" t="s">
         <v>574</v>
       </c>
-      <c r="B29" t="s">
-        <v>691</v>
-      </c>
-      <c r="C29">
+      <c r="C29" t="s">
+        <v>692</v>
+      </c>
+      <c r="D29">
         <v>4</v>
       </c>
-      <c r="E29">
+      <c r="G29">
         <v>12</v>
       </c>
-      <c r="F29">
+      <c r="H29">
         <v>12</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" t="s">
+    <row r="30" spans="1:11">
+      <c r="A30" s="1"/>
+      <c r="B30" t="s">
         <v>575</v>
       </c>
-      <c r="B30" t="s">
-        <v>692</v>
-      </c>
-      <c r="C30">
+      <c r="C30" t="s">
+        <v>693</v>
+      </c>
+      <c r="D30">
         <v>4</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="G30">
+      <c r="H30" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="I30">
         <v>15</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>70</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
-      <c r="A31" t="s">
+    <row r="31" spans="1:12">
+      <c r="A31" s="1"/>
+      <c r="B31" t="s">
         <v>576</v>
       </c>
-      <c r="B31" t="s">
-        <v>694</v>
-      </c>
-      <c r="C31">
+      <c r="C31" t="s">
+        <v>695</v>
+      </c>
+      <c r="D31">
         <v>4</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1200</v>
       </c>
-      <c r="G31">
+      <c r="I31">
         <v>21</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>350</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>50</v>
       </c>
-      <c r="J31" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" t="s">
+      <c r="L31" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="1"/>
+      <c r="B32" t="s">
         <v>577</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>697</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>2250</v>
+      </c>
+      <c r="I32">
+        <v>18</v>
+      </c>
+      <c r="J32">
+        <v>250</v>
+      </c>
+      <c r="K32">
+        <v>60</v>
+      </c>
+      <c r="L32" t="s">
         <v>696</v>
       </c>
-      <c r="C32">
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1"/>
+      <c r="B33" t="s">
+        <v>578</v>
+      </c>
+      <c r="C33" t="s">
+        <v>698</v>
+      </c>
+      <c r="D33">
         <v>4</v>
       </c>
-      <c r="D32">
-        <v>2250</v>
-      </c>
-      <c r="G32">
-        <v>18</v>
-      </c>
-      <c r="H32">
-        <v>250</v>
-      </c>
-      <c r="I32">
-        <v>60</v>
-      </c>
-      <c r="J32" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
-        <v>578</v>
-      </c>
-      <c r="B33" t="s">
-        <v>697</v>
-      </c>
-      <c r="C33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" t="s">
-        <v>698</v>
-      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1"/>
       <c r="B34" t="s">
         <v>699</v>
       </c>
-      <c r="C34">
+      <c r="C34" t="s">
+        <v>700</v>
+      </c>
+      <c r="D34">
         <v>3</v>
       </c>
-      <c r="H34" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" t="s">
+      <c r="J34" t="s">
         <v>701</v>
       </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="1"/>
       <c r="B35" t="s">
         <v>702</v>
       </c>
-      <c r="C35">
+      <c r="C35" t="s">
+        <v>703</v>
+      </c>
+      <c r="D35">
         <v>3</v>
       </c>
-      <c r="E35">
+      <c r="G35">
         <v>10</v>
       </c>
-      <c r="F35">
+      <c r="H35">
         <v>6</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
-      <c r="A36" t="s">
-        <v>703</v>
-      </c>
+    <row r="36" spans="1:11">
+      <c r="A36" s="1"/>
       <c r="B36" t="s">
         <v>704</v>
       </c>
-      <c r="C36">
+      <c r="C36" t="s">
+        <v>705</v>
+      </c>
+      <c r="D36">
         <v>3</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>5000</v>
       </c>
-      <c r="F36">
+      <c r="H36">
         <v>15</v>
       </c>
-      <c r="G36">
+      <c r="I36">
         <v>10</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>400</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" t="s">
+    <row r="37" spans="1:11">
+      <c r="A37" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" t="s">
         <v>581</v>
       </c>
-      <c r="B37" t="s">
-        <v>642</v>
-      </c>
-      <c r="C37">
+      <c r="C37" t="s">
+        <v>643</v>
+      </c>
+      <c r="D37">
         <v>5</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>30</v>
       </c>
-      <c r="G37">
+      <c r="I37">
         <v>27</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>400</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
-      <c r="A38" t="s">
+    <row r="38" spans="1:11">
+      <c r="A38" s="1"/>
+      <c r="B38" t="s">
         <v>582</v>
       </c>
-      <c r="B38" t="s">
-        <v>705</v>
-      </c>
-      <c r="C38">
+      <c r="C38" t="s">
+        <v>706</v>
+      </c>
+      <c r="D38">
         <v>3</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1000</v>
       </c>
-      <c r="G38">
+      <c r="I38">
         <v>25</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>1200</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" t="s">
+    <row r="39" spans="1:11">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
         <v>583</v>
       </c>
-      <c r="B39" t="s">
-        <v>706</v>
-      </c>
-      <c r="C39">
+      <c r="C39" t="s">
+        <v>707</v>
+      </c>
+      <c r="D39">
         <v>3</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>500</v>
       </c>
-      <c r="E39">
+      <c r="G39">
         <v>6</v>
       </c>
-      <c r="F39">
+      <c r="H39">
         <v>3</v>
       </c>
-      <c r="H39" t="s">
-        <v>686</v>
-      </c>
-      <c r="I39">
+      <c r="J39" t="s">
+        <v>687</v>
+      </c>
+      <c r="K39">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
-      <c r="A40" t="s">
+    <row r="40" spans="1:11">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
         <v>584</v>
       </c>
-      <c r="B40" t="s">
-        <v>707</v>
-      </c>
-      <c r="C40">
+      <c r="C40" t="s">
+        <v>708</v>
+      </c>
+      <c r="D40">
         <v>3</v>
       </c>
-      <c r="D40" t="s">
-        <v>708</v>
-      </c>
-      <c r="E40">
+      <c r="E40" t="s">
+        <v>709</v>
+      </c>
+      <c r="G40">
         <v>10</v>
       </c>
-      <c r="F40">
+      <c r="H40">
         <v>5</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>800</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
-      <c r="A41" t="s">
-        <v>709</v>
-      </c>
+    <row r="41" spans="1:11">
+      <c r="A41" s="1"/>
       <c r="B41" t="s">
-        <v>666</v>
-      </c>
-      <c r="C41">
+        <v>710</v>
+      </c>
+      <c r="C41" t="s">
+        <v>667</v>
+      </c>
+      <c r="D41">
         <v>4</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>2000</v>
       </c>
-      <c r="E41">
+      <c r="G41">
         <v>2</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
-      <c r="A42" t="s">
-        <v>710</v>
-      </c>
+    <row r="42" spans="1:12">
+      <c r="A42" s="1"/>
       <c r="B42" t="s">
         <v>711</v>
       </c>
-      <c r="C42">
+      <c r="C42" t="s">
+        <v>712</v>
+      </c>
+      <c r="D42">
         <v>3</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>2000</v>
       </c>
-      <c r="F42">
+      <c r="H42">
         <v>5</v>
       </c>
-      <c r="G42">
+      <c r="I42">
         <v>20</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>50</v>
       </c>
-      <c r="J42" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" t="s">
+      <c r="L42" t="s">
         <v>713</v>
       </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="1"/>
       <c r="B43" t="s">
         <v>714</v>
       </c>
-      <c r="C43">
+      <c r="C43" t="s">
+        <v>715</v>
+      </c>
+      <c r="D43">
         <v>4</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>10000</v>
       </c>
-      <c r="E43">
+      <c r="G43">
         <v>15</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="I43">
+      <c r="H43" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="K43">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
-      <c r="A44" t="s">
-        <v>716</v>
-      </c>
+    <row r="44" spans="1:11">
+      <c r="A44" s="1"/>
       <c r="B44" t="s">
         <v>717</v>
       </c>
-      <c r="C44">
+      <c r="C44" t="s">
+        <v>718</v>
+      </c>
+      <c r="D44">
         <v>3</v>
       </c>
-      <c r="G44">
+      <c r="I44">
         <v>23</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>50</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
-      <c r="A45" t="s">
-        <v>718</v>
-      </c>
+    <row r="45" spans="1:11">
+      <c r="A45" s="1"/>
       <c r="B45" t="s">
         <v>719</v>
       </c>
-      <c r="C45">
+      <c r="C45" t="s">
+        <v>720</v>
+      </c>
+      <c r="D45">
         <v>3</v>
       </c>
-      <c r="F45" t="s">
-        <v>720</v>
-      </c>
-      <c r="G45">
+      <c r="H45" t="s">
+        <v>721</v>
+      </c>
+      <c r="I45">
         <v>14</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" t="s">
-        <v>721</v>
-      </c>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1"/>
       <c r="B46" t="s">
         <v>722</v>
       </c>
-      <c r="C46">
+      <c r="C46" t="s">
+        <v>723</v>
+      </c>
+      <c r="D46">
         <v>3</v>
       </c>
-      <c r="E46">
+      <c r="G46">
         <v>7</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>5</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>50</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
-      <c r="A47" t="s">
-        <v>723</v>
-      </c>
+    <row r="47" spans="1:11">
+      <c r="A47" s="1"/>
       <c r="B47" t="s">
         <v>724</v>
       </c>
-      <c r="C47">
+      <c r="C47" t="s">
+        <v>725</v>
+      </c>
+      <c r="D47">
         <v>4</v>
       </c>
-      <c r="G47" t="s">
-        <v>725</v>
-      </c>
-      <c r="I47">
+      <c r="I47" t="s">
+        <v>726</v>
+      </c>
+      <c r="K47">
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" t="s">
-        <v>726</v>
-      </c>
+    <row r="48" spans="1:11">
+      <c r="A48" s="1"/>
       <c r="B48" t="s">
         <v>727</v>
       </c>
-      <c r="C48">
+      <c r="C48" t="s">
+        <v>728</v>
+      </c>
+      <c r="D48">
         <v>4</v>
       </c>
-      <c r="G48">
+      <c r="I48">
         <v>13</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>120</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
-      <c r="A49" t="s">
-        <v>728</v>
-      </c>
+    <row r="49" spans="1:11">
+      <c r="A49" s="1"/>
       <c r="B49" t="s">
         <v>729</v>
       </c>
-      <c r="C49">
+      <c r="C49" t="s">
+        <v>730</v>
+      </c>
+      <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49">
+      <c r="G49">
         <v>40</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>30</v>
       </c>
-      <c r="H49">
+      <c r="J49">
         <v>800</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>120</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" t="s">
+    <row r="50" spans="1:11">
+      <c r="A50" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B50" t="s">
         <v>597</v>
       </c>
-      <c r="B50" t="s">
-        <v>730</v>
-      </c>
-      <c r="C50">
+      <c r="C50" t="s">
+        <v>731</v>
+      </c>
+      <c r="D50">
         <v>3</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>100</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>3</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
-      <c r="A51" t="s">
+    <row r="51" spans="1:11">
+      <c r="A51" s="1"/>
+      <c r="B51" t="s">
         <v>598</v>
       </c>
-      <c r="B51" t="s">
-        <v>731</v>
-      </c>
-      <c r="C51">
+      <c r="C51" t="s">
+        <v>732</v>
+      </c>
+      <c r="D51">
         <v>4</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>400</v>
       </c>
-      <c r="E51">
+      <c r="G51">
         <v>15</v>
       </c>
-      <c r="F51" t="s">
-        <v>732</v>
-      </c>
-      <c r="H51">
+      <c r="H51" t="s">
+        <v>733</v>
+      </c>
+      <c r="J51">
         <v>400</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
-      <c r="A52" t="s">
+    <row r="52" spans="1:11">
+      <c r="A52" s="1"/>
+      <c r="B52" t="s">
         <v>599</v>
       </c>
-      <c r="B52" t="s">
-        <v>733</v>
-      </c>
-      <c r="C52">
+      <c r="C52" t="s">
+        <v>734</v>
+      </c>
+      <c r="D52">
         <v>3</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1000</v>
       </c>
-      <c r="G52">
+      <c r="I52">
         <v>16</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>1000</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
-      <c r="A53" t="s">
-        <v>734</v>
-      </c>
+    <row r="53" spans="1:12">
+      <c r="A53" s="1"/>
       <c r="B53" t="s">
         <v>735</v>
       </c>
-      <c r="C53">
+      <c r="C53" t="s">
+        <v>736</v>
+      </c>
+      <c r="D53">
         <v>3</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>200</v>
       </c>
-      <c r="G53">
+      <c r="I53">
         <v>15</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>500</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>45</v>
       </c>
-      <c r="J53" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" t="s">
+      <c r="L53" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="1"/>
+      <c r="B54" t="s">
         <v>601</v>
       </c>
-      <c r="B54" t="s">
-        <v>733</v>
-      </c>
-      <c r="C54">
+      <c r="C54" t="s">
+        <v>734</v>
+      </c>
+      <c r="D54">
         <v>10</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>2000</v>
       </c>
-      <c r="G54">
+      <c r="F54">
+        <v>200000</v>
+      </c>
+      <c r="I54">
         <v>26</v>
       </c>
-      <c r="H54">
+      <c r="J54">
         <v>800</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
-      <c r="A55" t="s">
+    <row r="55" spans="1:11">
+      <c r="A55" s="1"/>
+      <c r="B55" t="s">
         <v>602</v>
       </c>
-      <c r="B55" t="s">
-        <v>737</v>
-      </c>
-      <c r="C55">
+      <c r="C55" t="s">
+        <v>738</v>
+      </c>
+      <c r="D55">
         <v>7</v>
       </c>
-      <c r="E55">
+      <c r="G55">
         <v>50</v>
       </c>
-      <c r="F55" t="s">
-        <v>738</v>
-      </c>
-      <c r="I55">
+      <c r="H55" t="s">
+        <v>739</v>
+      </c>
+      <c r="K55">
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
-      <c r="A56" t="s">
+    <row r="56" spans="1:11">
+      <c r="A56" s="1"/>
+      <c r="B56" t="s">
         <v>603</v>
       </c>
-      <c r="B56" t="s">
-        <v>739</v>
-      </c>
-      <c r="C56">
+      <c r="C56" t="s">
+        <v>740</v>
+      </c>
+      <c r="D56">
         <v>3</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>4000</v>
       </c>
-      <c r="E56">
+      <c r="G56">
         <v>5</v>
       </c>
-      <c r="H56">
+      <c r="J56">
         <v>500</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
-      <c r="A57" t="s">
-        <v>740</v>
-      </c>
+    <row r="57" spans="1:11">
+      <c r="A57" s="1"/>
       <c r="B57" t="s">
         <v>741</v>
       </c>
-      <c r="C57">
+      <c r="C57" t="s">
+        <v>742</v>
+      </c>
+      <c r="D57">
         <v>3</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>2000</v>
       </c>
-      <c r="G57">
+      <c r="I57">
         <v>14</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:10">
-      <c r="A58" t="s">
+    <row r="58" spans="1:12">
+      <c r="A58" s="1"/>
+      <c r="B58" t="s">
         <v>605</v>
       </c>
-      <c r="B58" t="s">
-        <v>742</v>
-      </c>
-      <c r="C58">
+      <c r="C58" t="s">
+        <v>743</v>
+      </c>
+      <c r="D58">
         <v>3</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>6000</v>
       </c>
-      <c r="E58">
+      <c r="G58">
         <v>6</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>45</v>
       </c>
-      <c r="J58" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
-      <c r="A59" t="s">
+      <c r="L58" t="s">
         <v>744</v>
       </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="1"/>
       <c r="B59" t="s">
         <v>745</v>
       </c>
-      <c r="C59">
+      <c r="C59" t="s">
+        <v>746</v>
+      </c>
+      <c r="D59">
         <v>4</v>
       </c>
-      <c r="G59">
+      <c r="I59">
         <v>17</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
-      <c r="A60" t="s">
-        <v>746</v>
-      </c>
+    <row r="60" spans="1:11">
+      <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>687</v>
-      </c>
-      <c r="C60">
+        <v>747</v>
+      </c>
+      <c r="C60" t="s">
+        <v>688</v>
+      </c>
+      <c r="D60">
         <v>4</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>2000</v>
       </c>
-      <c r="G60">
+      <c r="I60">
         <v>100</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
-        <v>747</v>
-      </c>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1"/>
       <c r="B61" t="s">
         <v>748</v>
       </c>
-      <c r="C61">
+      <c r="C61" t="s">
+        <v>749</v>
+      </c>
+      <c r="D61">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
-      <c r="A62" t="s">
-        <v>749</v>
-      </c>
+    <row r="62" spans="1:11">
+      <c r="A62" s="1"/>
       <c r="B62" t="s">
         <v>750</v>
       </c>
-      <c r="C62">
+      <c r="C62" t="s">
+        <v>751</v>
+      </c>
+      <c r="D62">
         <v>3</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>6000</v>
       </c>
-      <c r="E62">
+      <c r="G62">
         <v>15</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:10">
-      <c r="A63" t="s">
+    <row r="63" spans="1:12">
+      <c r="A63" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B63" t="s">
         <v>608</v>
       </c>
-      <c r="B63" t="s">
-        <v>751</v>
-      </c>
-      <c r="C63">
+      <c r="C63" t="s">
+        <v>752</v>
+      </c>
+      <c r="D63">
         <v>6</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>100</v>
       </c>
-      <c r="G63">
+      <c r="I63">
         <v>25</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>800</v>
       </c>
-      <c r="I63" t="s">
-        <v>752</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="A64" t="s">
+      <c r="L63" t="s">
         <v>754</v>
       </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64" s="1"/>
       <c r="B64" t="s">
-        <v>733</v>
-      </c>
-      <c r="C64">
+        <v>755</v>
+      </c>
+      <c r="C64" t="s">
+        <v>734</v>
+      </c>
+      <c r="D64">
         <v>3</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>10</v>
       </c>
-      <c r="G64">
+      <c r="I64">
         <v>18</v>
       </c>
-      <c r="H64">
+      <c r="J64">
         <v>700</v>
       </c>
-      <c r="I64" t="s">
-        <v>755</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
-      <c r="A65" t="s">
+      <c r="L64" t="s">
         <v>757</v>
       </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="1"/>
       <c r="B65" t="s">
-        <v>741</v>
-      </c>
-      <c r="C65">
+        <v>758</v>
+      </c>
+      <c r="C65" t="s">
+        <v>742</v>
+      </c>
+      <c r="D65">
         <v>3</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>2000</v>
       </c>
-      <c r="G65">
+      <c r="I65">
         <v>19</v>
       </c>
-      <c r="H65">
+      <c r="J65">
         <v>700</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="s">
-        <v>758</v>
-      </c>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1"/>
       <c r="B66" t="s">
         <v>759</v>
       </c>
-      <c r="C66">
+      <c r="C66" t="s">
+        <v>760</v>
+      </c>
+      <c r="D66">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
-      <c r="A67" t="s">
+    <row r="67" spans="1:11">
+      <c r="A67" s="1"/>
+      <c r="B67" t="s">
         <v>610</v>
       </c>
-      <c r="B67" t="s">
-        <v>760</v>
-      </c>
-      <c r="C67">
+      <c r="C67" t="s">
+        <v>761</v>
+      </c>
+      <c r="D67">
         <v>3</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>25000</v>
       </c>
-      <c r="G67">
+      <c r="I67">
         <v>28</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>1000</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>30</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
-      <c r="A68" t="s">
+    <row r="68" spans="1:11">
+      <c r="A68" s="1"/>
+      <c r="B68" t="s">
         <v>611</v>
       </c>
-      <c r="B68" t="s">
-        <v>761</v>
-      </c>
-      <c r="C68">
+      <c r="C68" t="s">
+        <v>762</v>
+      </c>
+      <c r="D68">
         <v>3</v>
       </c>
-      <c r="F68" t="s">
-        <v>762</v>
-      </c>
-      <c r="G68">
+      <c r="H68" t="s">
+        <v>763</v>
+      </c>
+      <c r="I68">
         <v>15</v>
       </c>
-      <c r="H68">
+      <c r="J68">
         <v>1000</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A11"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="A24:A36"/>
+    <mergeCell ref="A37:A49"/>
+    <mergeCell ref="A50:A62"/>
+    <mergeCell ref="A63:A68"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -1724,7 +1724,7 @@
     <t>虎爪绝户手、武当心法、真武七截阵</t>
   </si>
   <si>
-    <t>太极拳法、太极剑法、武当身法</t>
+    <t>太极拳法、铁画银钩、武当身法</t>
   </si>
   <si>
     <t>峨眉入门剑法</t>
@@ -2027,7 +2027,7 @@
     <t>九阳变成500AOE</t>
   </si>
   <si>
-    <t>单体物理暴击6/9/12/15，减自己攻速5/10/15/10</t>
+    <t>单体物理暴击10/15/20/30，减自己攻速10/15/20/10</t>
   </si>
   <si>
     <t>25/30/35/40</t>
@@ -9708,10 +9708,10 @@
   <sheetPr/>
   <dimension ref="A1:V127"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N2" sqref="N2:N127"/>
+      <selection pane="bottomLeft" activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18466,7 +18466,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -18858,7 +18858,7 @@
         <v>3</v>
       </c>
       <c r="E17">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -18882,7 +18882,7 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I18">
         <v>18</v>

--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="4"/>
+    <workbookView windowHeight="17940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="塔的价值" sheetId="1" r:id="rId1"/>
@@ -2929,7 +2929,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2938,9 +2938,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -3172,169 +3169,169 @@
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>20.24</c:v>
+                  <c:v>1117.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>79.5</c:v>
+                  <c:v>1727.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>176.96</c:v>
+                  <c:v>2340.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>334.8</c:v>
+                  <c:v>3298.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>561.68</c:v>
+                  <c:v>4556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>865.8</c:v>
+                  <c:v>6186.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1260.8</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1570.8</c:v>
+                  <c:v>9671.2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1975.82</c:v>
+                  <c:v>11673.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2520</c:v>
+                  <c:v>20800</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3012.8</c:v>
+                  <c:v>36000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3685.2</c:v>
+                  <c:v>42662</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4233</c:v>
+                  <c:v>48140</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5070.56</c:v>
+                  <c:v>56760</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>6007.5</c:v>
+                  <c:v>65860</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7075.5</c:v>
+                  <c:v>72980</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8832</c:v>
+                  <c:v>228000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10972.5</c:v>
+                  <c:v>96900</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>13524</c:v>
+                  <c:v>121520</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>16513.5</c:v>
+                  <c:v>161600</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20592</c:v>
+                  <c:v>218400</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>24648</c:v>
+                  <c:v>237120</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29796</c:v>
+                  <c:v>255840</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>34684</c:v>
+                  <c:v>276640</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40606.5</c:v>
+                  <c:v>306020</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>44928</c:v>
+                  <c:v>318240</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>55426.5</c:v>
+                  <c:v>854999.999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>61050</c:v>
+                  <c:v>389400</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>73080</c:v>
+                  <c:v>438480</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>85323</c:v>
+                  <c:v>535500</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>97104</c:v>
+                  <c:v>595000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>118656</c:v>
+                  <c:v>768000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>134400</c:v>
+                  <c:v>832000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>151680</c:v>
+                  <c:v>883200</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>170955</c:v>
+                  <c:v>956300</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>188640</c:v>
+                  <c:v>1008700</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>199680</c:v>
+                  <c:v>2625000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>225924</c:v>
+                  <c:v>1139000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>249477</c:v>
+                  <c:v>1233000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>268794</c:v>
+                  <c:v>1397400</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>289344</c:v>
+                  <c:v>1698800</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>310716</c:v>
+                  <c:v>1781000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>340200</c:v>
+                  <c:v>1904000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>364140</c:v>
+                  <c:v>1988000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>389760</c:v>
+                  <c:v>2072000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>425568</c:v>
+                  <c:v>2173600</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>6200000.00000001</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>522990</c:v>
+                  <c:v>2503200</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>558750</c:v>
+                  <c:v>2592600</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>632400</c:v>
+                  <c:v>2945000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>681928</c:v>
+                  <c:v>3476000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>729960</c:v>
+                  <c:v>3792000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>779240</c:v>
+                  <c:v>4025000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>846240</c:v>
+                  <c:v>4264000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>918400</c:v>
+                  <c:v>4428000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3688,166 +3685,169 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>1270</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>1630</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>158</c:v>
+                  <c:v>2090</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>270</c:v>
+                  <c:v>2660</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>413</c:v>
+                  <c:v>3350</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>585</c:v>
+                  <c:v>4180</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>788</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1020</c:v>
+                  <c:v>6280</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1283</c:v>
+                  <c:v>7580</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1575</c:v>
+                  <c:v>13000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1883</c:v>
+                  <c:v>22500</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2220</c:v>
+                  <c:v>25700</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2550</c:v>
+                  <c:v>29000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2948</c:v>
+                  <c:v>33000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3375</c:v>
+                  <c:v>37000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3975</c:v>
+                  <c:v>41000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4800</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5775</c:v>
+                  <c:v>51000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6900</c:v>
+                  <c:v>62000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8175</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>9900</c:v>
+                  <c:v>105000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11850</c:v>
+                  <c:v>114000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>14325</c:v>
+                  <c:v>123000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16675</c:v>
+                  <c:v>133000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18975</c:v>
+                  <c:v>143000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21600</c:v>
+                  <c:v>153000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>24525</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27750</c:v>
+                  <c:v>177000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>31500</c:v>
+                  <c:v>189000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>35850</c:v>
+                  <c:v>225000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>40800</c:v>
+                  <c:v>250000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>46350</c:v>
+                  <c:v>300000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>52500</c:v>
+                  <c:v>325000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>59250</c:v>
+                  <c:v>345000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>65250</c:v>
+                  <c:v>365000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>72000</c:v>
+                  <c:v>385000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>78000</c:v>
+                  <c:v>105000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>84300</c:v>
+                  <c:v>425000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>91050</c:v>
+                  <c:v>450000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>98100</c:v>
+                  <c:v>510000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>105600</c:v>
+                  <c:v>620000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>113400</c:v>
+                  <c:v>650000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>121500</c:v>
+                  <c:v>680000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>130050</c:v>
+                  <c:v>710000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>139200</c:v>
+                  <c:v>740000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>148800</c:v>
+                  <c:v>760000</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>200000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>175500</c:v>
+                  <c:v>840000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>187500</c:v>
+                  <c:v>870000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>204000</c:v>
+                  <c:v>950000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>215800</c:v>
+                  <c:v>1100000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>231000</c:v>
+                  <c:v>1200000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>242000</c:v>
+                  <c:v>1250000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>258000</c:v>
+                  <c:v>1300000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>280000</c:v>
+                  <c:v>1350000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9788,7 +9788,7 @@
       <c r="U1" t="s">
         <v>534</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>535</v>
       </c>
     </row>
@@ -9823,15 +9823,15 @@
       <c r="J2">
         <v>1.2</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="5">
         <f>I2/J2</f>
         <v>60</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="6">
         <f>G2/K2</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="M2" s="8">
+      <c r="M2" s="7">
         <v>3.48</v>
       </c>
       <c r="N2" t="s">
@@ -9875,15 +9875,15 @@
       <c r="J3">
         <v>1.2</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="5">
         <f t="shared" ref="K3:K34" si="0">I3/J3</f>
         <v>28.3333333333333</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <f t="shared" ref="L3:L47" si="1">G3/K3</f>
         <v>3.52941176470588</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="7"/>
       <c r="N3" t="s">
         <v>539</v>
       </c>
@@ -9894,7 +9894,7 @@
         <f>O3*8</f>
         <v>400</v>
       </c>
-      <c r="Q3" s="7">
+      <c r="Q3" s="6">
         <f t="shared" ref="Q3:Q17" si="2">G3/O3</f>
         <v>2</v>
       </c>
@@ -9936,15 +9936,15 @@
       <c r="J4">
         <v>1.2</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="5">
         <f t="shared" si="0"/>
         <v>73.3333333333333</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <f t="shared" si="1"/>
         <v>3.40909090909091</v>
       </c>
-      <c r="M4" s="8"/>
+      <c r="M4" s="7"/>
       <c r="N4" t="s">
         <v>539</v>
       </c>
@@ -9955,7 +9955,7 @@
         <f>O4*8</f>
         <v>1600</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="6">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
@@ -9997,15 +9997,15 @@
       <c r="J5">
         <v>1.2</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="5">
         <f t="shared" si="0"/>
         <v>133.333333333333</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <f t="shared" si="1"/>
         <v>3.375</v>
       </c>
-      <c r="M5" s="8"/>
+      <c r="M5" s="7"/>
       <c r="N5" t="s">
         <v>539</v>
       </c>
@@ -10016,7 +10016,7 @@
         <f>O5*8</f>
         <v>3600</v>
       </c>
-      <c r="Q5" s="7">
+      <c r="Q5" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -10058,15 +10058,15 @@
       <c r="J6">
         <v>0.9</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
         <v>266.666666666667</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <f t="shared" si="1"/>
         <v>2.8125</v>
       </c>
-      <c r="M6" s="8"/>
+      <c r="M6" s="7"/>
       <c r="N6" t="s">
         <v>539</v>
       </c>
@@ -10077,7 +10077,7 @@
         <f>O6*8</f>
         <v>6400</v>
       </c>
-      <c r="Q6" s="7">
+      <c r="Q6" s="6">
         <f t="shared" si="2"/>
         <v>0.9375</v>
       </c>
@@ -10122,15 +10122,15 @@
       <c r="J7">
         <v>1.2</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <f t="shared" si="1"/>
         <v>3.52</v>
       </c>
-      <c r="M7" s="8"/>
+      <c r="M7" s="7"/>
       <c r="N7" t="s">
         <v>542</v>
       </c>
@@ -10140,7 +10140,7 @@
       <c r="P7">
         <v>80</v>
       </c>
-      <c r="Q7" s="7">
+      <c r="Q7" s="6">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
@@ -10182,15 +10182,15 @@
       <c r="J8">
         <v>1.2</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="5">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="6">
         <f t="shared" si="1"/>
         <v>3.52</v>
       </c>
-      <c r="M8" s="8"/>
+      <c r="M8" s="7"/>
       <c r="N8" t="s">
         <v>542</v>
       </c>
@@ -10200,7 +10200,7 @@
       <c r="P8">
         <v>320</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="6">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
@@ -10242,15 +10242,15 @@
       <c r="J9">
         <v>1.2</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="6">
         <f t="shared" si="1"/>
         <v>3.08</v>
       </c>
-      <c r="M9" s="8"/>
+      <c r="M9" s="7"/>
       <c r="N9" t="s">
         <v>542</v>
       </c>
@@ -10260,7 +10260,7 @@
       <c r="P9">
         <v>720</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="6">
         <f t="shared" si="2"/>
         <v>2.13888888888889</v>
       </c>
@@ -10302,15 +10302,15 @@
       <c r="J10">
         <v>1.2</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="5">
         <f t="shared" si="0"/>
         <v>365.833333333333</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="6">
         <f t="shared" si="1"/>
         <v>3.49886104783599</v>
       </c>
-      <c r="M10" s="8"/>
+      <c r="M10" s="7"/>
       <c r="N10" t="s">
         <v>543</v>
       </c>
@@ -10320,7 +10320,7 @@
       <c r="P10">
         <v>1000</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="6">
         <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
@@ -10362,15 +10362,15 @@
       <c r="J11">
         <v>1.2</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="5">
         <f t="shared" si="0"/>
         <v>732.5</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="6">
         <f t="shared" si="1"/>
         <v>3.1098976109215</v>
       </c>
-      <c r="M11" s="8"/>
+      <c r="M11" s="7"/>
       <c r="N11" t="s">
         <v>543</v>
       </c>
@@ -10380,7 +10380,7 @@
       <c r="P11">
         <v>4000</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="6">
         <f t="shared" si="2"/>
         <v>0.5695</v>
       </c>
@@ -10422,15 +10422,15 @@
       <c r="J12">
         <v>1.2</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="5">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="6">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="M12" s="8"/>
+      <c r="M12" s="7"/>
       <c r="N12" t="s">
         <v>545</v>
       </c>
@@ -10440,7 +10440,7 @@
       <c r="P12">
         <v>6000</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="6">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
@@ -10482,15 +10482,15 @@
       <c r="J13">
         <v>1.2</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="5">
         <f t="shared" si="0"/>
         <v>1333.33333333333</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="6">
         <f t="shared" si="1"/>
         <v>3.675</v>
       </c>
-      <c r="M13" s="8"/>
+      <c r="M13" s="7"/>
       <c r="N13" t="s">
         <v>545</v>
       </c>
@@ -10500,7 +10500,7 @@
       <c r="P13">
         <v>24000</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="6">
         <f t="shared" si="2"/>
         <v>0.204166666666667</v>
       </c>
@@ -10542,15 +10542,15 @@
       <c r="J14">
         <v>1.2</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="5">
         <f t="shared" si="0"/>
         <v>916.666666666667</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="6">
         <f t="shared" si="1"/>
         <v>3.81818181818182</v>
       </c>
-      <c r="M14" s="8"/>
+      <c r="M14" s="7"/>
       <c r="N14" t="s">
         <v>546</v>
       </c>
@@ -10560,7 +10560,7 @@
       <c r="P14">
         <v>800</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="6">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
@@ -10605,15 +10605,15 @@
       <c r="J15">
         <v>1.2</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="5">
         <f t="shared" si="0"/>
         <v>1583.33333333333</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="6">
         <f t="shared" si="1"/>
         <v>4.10526315789474</v>
       </c>
-      <c r="M15" s="8"/>
+      <c r="M15" s="7"/>
       <c r="N15" t="s">
         <v>546</v>
       </c>
@@ -10623,7 +10623,7 @@
       <c r="P15">
         <v>3200</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="6">
         <f t="shared" si="2"/>
         <v>2.03125</v>
       </c>
@@ -10665,15 +10665,15 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="K16" s="6" t="e">
+      <c r="K16" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="7" t="e">
+      <c r="L16" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="8"/>
+      <c r="M16" s="7"/>
       <c r="N16" t="s">
         <v>548</v>
       </c>
@@ -10683,7 +10683,7 @@
       <c r="P16">
         <v>300</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="6">
         <f t="shared" si="2"/>
         <v>23.3333333333333</v>
       </c>
@@ -10725,15 +10725,15 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="K17" s="6" t="e">
+      <c r="K17" s="5" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="7" t="e">
+      <c r="L17" s="6" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="8"/>
+      <c r="M17" s="7"/>
       <c r="N17" t="s">
         <v>548</v>
       </c>
@@ -10743,7 +10743,7 @@
       <c r="P17">
         <v>1200</v>
       </c>
-      <c r="Q17" s="7">
+      <c r="Q17" s="6">
         <f t="shared" si="2"/>
         <v>9.83333333333333</v>
       </c>
@@ -10788,15 +10788,15 @@
       <c r="J18">
         <v>1.2</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="5">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L18" s="6">
         <f t="shared" si="1"/>
         <v>3.86666666666667</v>
       </c>
-      <c r="M18" s="8"/>
+      <c r="M18" s="7"/>
       <c r="N18" t="s">
         <v>549</v>
       </c>
@@ -10835,15 +10835,15 @@
       <c r="J19">
         <v>1.2</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="5">
         <f t="shared" si="0"/>
         <v>2666.66666666667</v>
       </c>
-      <c r="L19" s="7">
+      <c r="L19" s="6">
         <f t="shared" si="1"/>
         <v>4.2375</v>
       </c>
-      <c r="M19" s="8"/>
+      <c r="M19" s="7"/>
       <c r="N19" t="s">
         <v>549</v>
       </c>
@@ -10882,15 +10882,15 @@
       <c r="J20">
         <v>1.2</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="5">
         <f t="shared" si="0"/>
         <v>1833.33333333333</v>
       </c>
-      <c r="L20" s="7">
+      <c r="L20" s="6">
         <f t="shared" si="1"/>
         <v>3.92727272727273</v>
       </c>
-      <c r="M20" s="8"/>
+      <c r="M20" s="7"/>
       <c r="N20" t="s">
         <v>551</v>
       </c>
@@ -10926,15 +10926,15 @@
       <c r="J21">
         <v>0.9</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="5">
         <f t="shared" si="0"/>
         <v>5776.66666666667</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="6">
         <f t="shared" si="1"/>
         <v>2.25043277553376</v>
       </c>
-      <c r="M21" s="8"/>
+      <c r="M21" s="7"/>
       <c r="N21" t="s">
         <v>552</v>
       </c>
@@ -10970,15 +10970,15 @@
       <c r="J22">
         <v>1.1</v>
       </c>
-      <c r="K22" s="6">
+      <c r="K22" s="5">
         <f t="shared" si="0"/>
         <v>27.2727272727273</v>
       </c>
-      <c r="L22" s="7">
+      <c r="L22" s="6">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="7">
         <v>3.44</v>
       </c>
       <c r="N22" t="s">
@@ -11016,15 +11016,15 @@
       <c r="J23">
         <v>1.1</v>
       </c>
-      <c r="K23" s="6">
+      <c r="K23" s="5">
         <f t="shared" si="0"/>
         <v>54.5454545454545</v>
       </c>
-      <c r="L23" s="7">
+      <c r="L23" s="6">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M23" s="8"/>
+      <c r="M23" s="7"/>
       <c r="N23" t="s">
         <v>553</v>
       </c>
@@ -11060,15 +11060,15 @@
       <c r="J24">
         <v>1.1</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="5">
         <f t="shared" si="0"/>
         <v>81.8181818181818</v>
       </c>
-      <c r="L24" s="7">
+      <c r="L24" s="6">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M24" s="8"/>
+      <c r="M24" s="7"/>
       <c r="N24" t="s">
         <v>553</v>
       </c>
@@ -11104,15 +11104,15 @@
       <c r="J25">
         <v>1.1</v>
       </c>
-      <c r="K25" s="6">
+      <c r="K25" s="5">
         <f t="shared" si="0"/>
         <v>63.6363636363636</v>
       </c>
-      <c r="L25" s="7">
+      <c r="L25" s="6">
         <f t="shared" si="1"/>
         <v>3.14285714285714</v>
       </c>
-      <c r="M25" s="8"/>
+      <c r="M25" s="7"/>
       <c r="N25" t="s">
         <v>554</v>
       </c>
@@ -11148,15 +11148,15 @@
       <c r="J26">
         <v>1.1</v>
       </c>
-      <c r="K26" s="6">
+      <c r="K26" s="5">
         <f t="shared" si="0"/>
         <v>127.272727272727</v>
       </c>
-      <c r="L26" s="7">
+      <c r="L26" s="6">
         <f t="shared" si="1"/>
         <v>2.98571428571429</v>
       </c>
-      <c r="M26" s="8"/>
+      <c r="M26" s="7"/>
       <c r="N26" t="s">
         <v>554</v>
       </c>
@@ -11192,15 +11192,15 @@
       <c r="J27">
         <v>1.1</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="5">
         <f t="shared" si="0"/>
         <v>271.818181818182</v>
       </c>
-      <c r="L27" s="7">
+      <c r="L27" s="6">
         <f t="shared" si="1"/>
         <v>2.75919732441472</v>
       </c>
-      <c r="M27" s="8"/>
+      <c r="M27" s="7"/>
       <c r="N27" t="s">
         <v>554</v>
       </c>
@@ -11236,15 +11236,15 @@
       <c r="J28">
         <v>1.1</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="5">
         <f t="shared" si="0"/>
         <v>63.6363636363636</v>
       </c>
-      <c r="L28" s="7">
+      <c r="L28" s="6">
         <f t="shared" si="1"/>
         <v>3.45714285714286</v>
       </c>
-      <c r="M28" s="8"/>
+      <c r="M28" s="7"/>
       <c r="N28" t="s">
         <v>555</v>
       </c>
@@ -11280,15 +11280,15 @@
       <c r="J29">
         <v>1.1</v>
       </c>
-      <c r="K29" s="6">
+      <c r="K29" s="5">
         <f t="shared" si="0"/>
         <v>190.909090909091</v>
       </c>
-      <c r="L29" s="7">
+      <c r="L29" s="6">
         <f t="shared" si="1"/>
         <v>3.45714285714286</v>
       </c>
-      <c r="M29" s="8"/>
+      <c r="M29" s="7"/>
       <c r="N29" t="s">
         <v>556</v>
       </c>
@@ -11324,15 +11324,15 @@
       <c r="J30">
         <v>1.1</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="5">
         <f t="shared" si="0"/>
         <v>909.090909090909</v>
       </c>
-      <c r="L30" s="7">
+      <c r="L30" s="6">
         <f t="shared" si="1"/>
         <v>3.63</v>
       </c>
-      <c r="M30" s="8"/>
+      <c r="M30" s="7"/>
       <c r="N30" t="s">
         <v>556</v>
       </c>
@@ -11368,15 +11368,15 @@
       <c r="J31">
         <v>1.1</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="5">
         <f t="shared" si="0"/>
         <v>163.636363636364</v>
       </c>
-      <c r="L31" s="7">
+      <c r="L31" s="6">
         <f t="shared" si="1"/>
         <v>3.11666666666667</v>
       </c>
-      <c r="M31" s="8"/>
+      <c r="M31" s="7"/>
       <c r="N31" t="s">
         <v>557</v>
       </c>
@@ -11412,15 +11412,15 @@
       <c r="J32">
         <v>1.1</v>
       </c>
-      <c r="K32" s="6">
+      <c r="K32" s="5">
         <f t="shared" si="0"/>
         <v>545.454545454545</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="6">
         <f t="shared" si="1"/>
         <v>4.05166666666667</v>
       </c>
-      <c r="M32" s="8"/>
+      <c r="M32" s="7"/>
       <c r="N32" t="s">
         <v>558</v>
       </c>
@@ -11456,15 +11456,15 @@
       <c r="J33">
         <v>1.1</v>
       </c>
-      <c r="K33" s="6">
+      <c r="K33" s="5">
         <f t="shared" si="0"/>
         <v>1454.54545454545</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="6">
         <f t="shared" si="1"/>
         <v>3.64375</v>
       </c>
-      <c r="M33" s="8"/>
+      <c r="M33" s="7"/>
       <c r="N33" t="s">
         <v>558</v>
       </c>
@@ -11500,15 +11500,15 @@
       <c r="J34">
         <v>1.1</v>
       </c>
-      <c r="K34" s="6">
+      <c r="K34" s="5">
         <f t="shared" si="0"/>
         <v>363.636363636364</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="6">
         <f t="shared" si="1"/>
         <v>2.8875</v>
       </c>
-      <c r="M34" s="8"/>
+      <c r="M34" s="7"/>
       <c r="N34" t="s">
         <v>559</v>
       </c>
@@ -11544,15 +11544,15 @@
       <c r="J35">
         <v>1.1</v>
       </c>
-      <c r="K35" s="6">
+      <c r="K35" s="5">
         <f t="shared" ref="K35:K73" si="3">I35/J35</f>
         <v>727.272727272727</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="6">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M35" s="8"/>
+      <c r="M35" s="7"/>
       <c r="N35" t="s">
         <v>559</v>
       </c>
@@ -11588,15 +11588,15 @@
       <c r="J36">
         <v>1.1</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="5">
         <f t="shared" si="3"/>
         <v>1636.36363636364</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="6">
         <f t="shared" si="1"/>
         <v>3.42222222222222</v>
       </c>
-      <c r="M36" s="8"/>
+      <c r="M36" s="7"/>
       <c r="N36" t="s">
         <v>560</v>
       </c>
@@ -11632,15 +11632,15 @@
       <c r="J37">
         <v>1.1</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="5">
         <f t="shared" si="3"/>
         <v>545.454545454545</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="6">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M37" s="8"/>
+      <c r="M37" s="7"/>
       <c r="N37" t="s">
         <v>561</v>
       </c>
@@ -11676,15 +11676,15 @@
       <c r="J38">
         <v>1.1</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="5">
         <f t="shared" si="3"/>
         <v>1090.90909090909</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="6">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M38" s="8"/>
+      <c r="M38" s="7"/>
       <c r="N38" t="s">
         <v>561</v>
       </c>
@@ -11720,15 +11720,15 @@
       <c r="J39">
         <v>1.1</v>
       </c>
-      <c r="K39" s="6">
+      <c r="K39" s="5">
         <f t="shared" si="3"/>
         <v>2090.90909090909</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="6">
         <f t="shared" si="1"/>
         <v>3.20434782608696</v>
       </c>
-      <c r="M39" s="8"/>
+      <c r="M39" s="7"/>
       <c r="N39" t="s">
         <v>562</v>
       </c>
@@ -11764,15 +11764,15 @@
       <c r="J40">
         <v>1.1</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="5">
         <f t="shared" si="3"/>
         <v>818.181818181818</v>
       </c>
-      <c r="L40" s="7">
+      <c r="L40" s="6">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M40" s="8"/>
+      <c r="M40" s="7"/>
       <c r="N40" t="s">
         <v>563</v>
       </c>
@@ -11808,15 +11808,15 @@
       <c r="J41">
         <v>1.1</v>
       </c>
-      <c r="K41" s="6">
+      <c r="K41" s="5">
         <f t="shared" si="3"/>
         <v>1636.36363636364</v>
       </c>
-      <c r="L41" s="7">
+      <c r="L41" s="6">
         <f t="shared" si="1"/>
         <v>3.36111111111111</v>
       </c>
-      <c r="M41" s="8"/>
+      <c r="M41" s="7"/>
       <c r="N41" t="s">
         <v>563</v>
       </c>
@@ -11852,15 +11852,15 @@
       <c r="J42">
         <v>1.1</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="5">
         <f t="shared" si="3"/>
         <v>2727.27272727273</v>
       </c>
-      <c r="L42" s="7">
+      <c r="L42" s="6">
         <f t="shared" si="1"/>
         <v>3.26333333333333</v>
       </c>
-      <c r="M42" s="8"/>
+      <c r="M42" s="7"/>
       <c r="N42" t="s">
         <v>564</v>
       </c>
@@ -11896,15 +11896,15 @@
       <c r="J43">
         <v>1.1</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="5">
         <f t="shared" si="3"/>
         <v>1181.81818181818</v>
       </c>
-      <c r="L43" s="7">
+      <c r="L43" s="6">
         <f t="shared" si="1"/>
         <v>3.21538461538462</v>
       </c>
-      <c r="M43" s="8"/>
+      <c r="M43" s="7"/>
       <c r="N43" t="s">
         <v>565</v>
       </c>
@@ -11940,15 +11940,15 @@
       <c r="J44">
         <v>1.1</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="5">
         <f t="shared" si="3"/>
         <v>1818.18181818182</v>
       </c>
-      <c r="L44" s="7">
+      <c r="L44" s="6">
         <f t="shared" si="1"/>
         <v>3.41</v>
       </c>
-      <c r="M44" s="8"/>
+      <c r="M44" s="7"/>
       <c r="N44" t="s">
         <v>565</v>
       </c>
@@ -11984,15 +11984,15 @@
       <c r="J45">
         <v>1.1</v>
       </c>
-      <c r="K45" s="6">
+      <c r="K45" s="5">
         <f t="shared" si="3"/>
         <v>2290</v>
       </c>
-      <c r="L45" s="7">
+      <c r="L45" s="6">
         <f t="shared" si="1"/>
         <v>4.36681222707424</v>
       </c>
-      <c r="M45" s="8"/>
+      <c r="M45" s="7"/>
       <c r="N45" t="s">
         <v>566</v>
       </c>
@@ -12028,15 +12028,15 @@
       <c r="J46">
         <v>1.1</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="5">
         <f t="shared" si="3"/>
         <v>2890</v>
       </c>
-      <c r="L46" s="7">
+      <c r="L46" s="6">
         <f t="shared" si="1"/>
         <v>4.84429065743945</v>
       </c>
-      <c r="M46" s="8"/>
+      <c r="M46" s="7"/>
       <c r="N46" t="s">
         <v>567</v>
       </c>
@@ -12072,15 +12072,15 @@
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="5">
         <f t="shared" si="3"/>
         <v>3299</v>
       </c>
-      <c r="L47" s="7">
+      <c r="L47" s="6">
         <f t="shared" si="1"/>
         <v>4.24371021521673</v>
       </c>
-      <c r="M47" s="8"/>
+      <c r="M47" s="7"/>
       <c r="N47" t="s">
         <v>568</v>
       </c>
@@ -12116,15 +12116,15 @@
       <c r="J48">
         <v>1.3</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="5">
         <f t="shared" si="3"/>
         <v>20.7692307692308</v>
       </c>
-      <c r="L48" s="7">
+      <c r="L48" s="6">
         <f t="shared" ref="L48:L79" si="4">G48/K48</f>
         <v>3.37037037037037</v>
       </c>
-      <c r="M48" s="8">
+      <c r="M48" s="7">
         <v>3.43</v>
       </c>
       <c r="N48" t="s">
@@ -12162,15 +12162,15 @@
       <c r="J49">
         <v>1.3</v>
       </c>
-      <c r="K49" s="6">
+      <c r="K49" s="5">
         <f t="shared" si="3"/>
         <v>39.2307692307692</v>
       </c>
-      <c r="L49" s="7">
+      <c r="L49" s="6">
         <f t="shared" si="4"/>
         <v>3.56862745098039</v>
       </c>
-      <c r="M49" s="8"/>
+      <c r="M49" s="7"/>
       <c r="N49" t="s">
         <v>569</v>
       </c>
@@ -12206,15 +12206,15 @@
       <c r="J50">
         <v>1.3</v>
       </c>
-      <c r="K50" s="6">
+      <c r="K50" s="5">
         <f t="shared" si="3"/>
         <v>76.9230769230769</v>
       </c>
-      <c r="L50" s="7">
+      <c r="L50" s="6">
         <f t="shared" si="4"/>
         <v>2.86</v>
       </c>
-      <c r="M50" s="8"/>
+      <c r="M50" s="7"/>
       <c r="N50" t="s">
         <v>569</v>
       </c>
@@ -12250,15 +12250,15 @@
       <c r="J51">
         <v>1.3</v>
       </c>
-      <c r="K51" s="6">
+      <c r="K51" s="5">
         <f t="shared" si="3"/>
         <v>33.8461538461538</v>
       </c>
-      <c r="L51" s="7">
+      <c r="L51" s="6">
         <f t="shared" si="4"/>
         <v>3.54545454545455</v>
       </c>
-      <c r="M51" s="8"/>
+      <c r="M51" s="7"/>
       <c r="N51" t="s">
         <v>570</v>
       </c>
@@ -12294,15 +12294,15 @@
       <c r="J52">
         <v>1.3</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="5">
         <f t="shared" si="3"/>
         <v>71.5384615384615</v>
       </c>
-      <c r="L52" s="7">
+      <c r="L52" s="6">
         <f t="shared" si="4"/>
         <v>3.49462365591398</v>
       </c>
-      <c r="M52" s="8"/>
+      <c r="M52" s="7"/>
       <c r="N52" t="s">
         <v>570</v>
       </c>
@@ -12338,15 +12338,15 @@
       <c r="J53">
         <v>1.3</v>
       </c>
-      <c r="K53" s="6">
+      <c r="K53" s="5">
         <f t="shared" si="3"/>
         <v>138.461538461538</v>
       </c>
-      <c r="L53" s="7">
+      <c r="L53" s="6">
         <f t="shared" si="4"/>
         <v>2.88888888888889</v>
       </c>
-      <c r="M53" s="8"/>
+      <c r="M53" s="7"/>
       <c r="N53" t="s">
         <v>570</v>
       </c>
@@ -12382,15 +12382,15 @@
       <c r="J54">
         <v>1.3</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="5">
         <f t="shared" si="3"/>
         <v>41.5384615384615</v>
       </c>
-      <c r="L54" s="7">
+      <c r="L54" s="6">
         <f t="shared" si="4"/>
         <v>4.81481481481481</v>
       </c>
-      <c r="M54" s="8"/>
+      <c r="M54" s="7"/>
       <c r="N54" t="s">
         <v>571</v>
       </c>
@@ -12426,15 +12426,15 @@
       <c r="J55">
         <v>1.3</v>
       </c>
-      <c r="K55" s="6">
+      <c r="K55" s="5">
         <f t="shared" si="3"/>
         <v>92.3076923076923</v>
       </c>
-      <c r="L55" s="7">
+      <c r="L55" s="6">
         <f t="shared" si="4"/>
         <v>4.875</v>
       </c>
-      <c r="M55" s="8"/>
+      <c r="M55" s="7"/>
       <c r="N55" t="s">
         <v>571</v>
       </c>
@@ -12470,15 +12470,15 @@
       <c r="J56">
         <v>1.3</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="5">
         <f t="shared" si="3"/>
         <v>207.692307692308</v>
       </c>
-      <c r="L56" s="7">
+      <c r="L56" s="6">
         <f t="shared" si="4"/>
         <v>3.37037037037037</v>
       </c>
-      <c r="M56" s="8"/>
+      <c r="M56" s="7"/>
       <c r="N56" t="s">
         <v>571</v>
       </c>
@@ -12514,15 +12514,15 @@
       <c r="J57">
         <v>1.3</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="5">
         <f t="shared" si="3"/>
         <v>92.3076923076923</v>
       </c>
-      <c r="L57" s="7">
+      <c r="L57" s="6">
         <f t="shared" si="4"/>
         <v>3.46666666666667</v>
       </c>
-      <c r="M57" s="8"/>
+      <c r="M57" s="7"/>
       <c r="N57" t="s">
         <v>572</v>
       </c>
@@ -12558,15 +12558,15 @@
       <c r="J58">
         <v>1.3</v>
       </c>
-      <c r="K58" s="6">
+      <c r="K58" s="5">
         <f t="shared" si="3"/>
         <v>230.769230769231</v>
       </c>
-      <c r="L58" s="7">
+      <c r="L58" s="6">
         <f t="shared" si="4"/>
         <v>3.46666666666667</v>
       </c>
-      <c r="M58" s="8"/>
+      <c r="M58" s="7"/>
       <c r="N58" t="s">
         <v>572</v>
       </c>
@@ -12602,15 +12602,15 @@
       <c r="J59">
         <v>1.3</v>
       </c>
-      <c r="K59" s="6">
+      <c r="K59" s="5">
         <f t="shared" si="3"/>
         <v>307.692307692308</v>
       </c>
-      <c r="L59" s="7">
+      <c r="L59" s="6">
         <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="M59" s="8"/>
+      <c r="M59" s="7"/>
       <c r="N59" t="s">
         <v>573</v>
       </c>
@@ -12646,15 +12646,15 @@
       <c r="J60">
         <v>1.3</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="5">
         <f t="shared" si="3"/>
         <v>538.461538461538</v>
       </c>
-      <c r="L60" s="7">
+      <c r="L60" s="6">
         <f t="shared" si="4"/>
         <v>3.06428571428571</v>
       </c>
-      <c r="M60" s="8"/>
+      <c r="M60" s="7"/>
       <c r="N60" t="s">
         <v>573</v>
       </c>
@@ -12690,15 +12690,15 @@
       <c r="J61">
         <v>1.3</v>
       </c>
-      <c r="K61" s="6">
+      <c r="K61" s="5">
         <f t="shared" si="3"/>
         <v>692.307692307692</v>
       </c>
-      <c r="L61" s="7">
+      <c r="L61" s="6">
         <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="M61" s="8"/>
+      <c r="M61" s="7"/>
       <c r="N61" t="s">
         <v>573</v>
       </c>
@@ -12734,15 +12734,15 @@
       <c r="J62">
         <v>1.3</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="5">
         <f t="shared" si="3"/>
         <v>323.076923076923</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="6">
         <f t="shared" si="4"/>
         <v>2.94047619047619</v>
       </c>
-      <c r="M62" s="8"/>
+      <c r="M62" s="7"/>
       <c r="N62" t="s">
         <v>574</v>
       </c>
@@ -12778,15 +12778,15 @@
       <c r="J63">
         <v>1.3</v>
       </c>
-      <c r="K63" s="6">
+      <c r="K63" s="5">
         <f t="shared" si="3"/>
         <v>523.076923076923</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="6">
         <f t="shared" si="4"/>
         <v>3.44117647058823</v>
       </c>
-      <c r="M63" s="8"/>
+      <c r="M63" s="7"/>
       <c r="N63" t="s">
         <v>574</v>
       </c>
@@ -12822,15 +12822,15 @@
       <c r="J64">
         <v>1.3</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="5">
         <f t="shared" si="3"/>
         <v>384.615384615385</v>
       </c>
-      <c r="L64" s="7">
+      <c r="L64" s="6">
         <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
-      <c r="M64" s="8"/>
+      <c r="M64" s="7"/>
       <c r="N64" t="s">
         <v>575</v>
       </c>
@@ -12866,15 +12866,15 @@
       <c r="J65">
         <v>1.3</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="5">
         <f t="shared" si="3"/>
         <v>769.230769230769</v>
       </c>
-      <c r="L65" s="7">
+      <c r="L65" s="6">
         <f t="shared" si="4"/>
         <v>3.77</v>
       </c>
-      <c r="M65" s="8"/>
+      <c r="M65" s="7"/>
       <c r="N65" t="s">
         <v>575</v>
       </c>
@@ -12910,15 +12910,15 @@
       <c r="J66">
         <v>1.3</v>
       </c>
-      <c r="K66" s="6">
+      <c r="K66" s="5">
         <f t="shared" si="3"/>
         <v>1384.61538461538</v>
       </c>
-      <c r="L66" s="7">
+      <c r="L66" s="6">
         <f t="shared" si="4"/>
         <v>3.17777777777778</v>
       </c>
-      <c r="M66" s="8"/>
+      <c r="M66" s="7"/>
       <c r="N66" t="s">
         <v>575</v>
       </c>
@@ -12954,15 +12954,15 @@
       <c r="J67">
         <v>1.3</v>
       </c>
-      <c r="K67" s="6">
+      <c r="K67" s="5">
         <f t="shared" si="3"/>
         <v>769.230769230769</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67" s="6">
         <f t="shared" si="4"/>
         <v>3.51</v>
       </c>
-      <c r="M67" s="8"/>
+      <c r="M67" s="7"/>
       <c r="N67" t="s">
         <v>576</v>
       </c>
@@ -12998,15 +12998,15 @@
       <c r="J68">
         <v>1.3</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="5">
         <f t="shared" si="3"/>
         <v>1538.46153846154</v>
       </c>
-      <c r="L68" s="7">
+      <c r="L68" s="6">
         <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="M68" s="8"/>
+      <c r="M68" s="7"/>
       <c r="N68" t="s">
         <v>576</v>
       </c>
@@ -13042,15 +13042,15 @@
       <c r="J69">
         <v>1.3</v>
       </c>
-      <c r="K69" s="6">
+      <c r="K69" s="5">
         <f t="shared" si="3"/>
         <v>1615.38461538462</v>
       </c>
-      <c r="L69" s="7">
+      <c r="L69" s="6">
         <f t="shared" si="4"/>
         <v>2.97142857142857</v>
       </c>
-      <c r="M69" s="8"/>
+      <c r="M69" s="7"/>
       <c r="N69" t="s">
         <v>577</v>
       </c>
@@ -13086,15 +13086,15 @@
       <c r="J70">
         <v>1.3</v>
       </c>
-      <c r="K70" s="6">
+      <c r="K70" s="5">
         <f t="shared" si="3"/>
         <v>2307.69230769231</v>
       </c>
-      <c r="L70" s="7">
+      <c r="L70" s="6">
         <f t="shared" si="4"/>
         <v>3.38</v>
       </c>
-      <c r="M70" s="8"/>
+      <c r="M70" s="7"/>
       <c r="N70" t="s">
         <v>577</v>
       </c>
@@ -13130,15 +13130,15 @@
       <c r="J71">
         <v>1.3</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="5">
         <f t="shared" si="3"/>
         <v>3076.92307692308</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="6">
         <f t="shared" si="4"/>
         <v>3.0225</v>
       </c>
-      <c r="M71" s="8"/>
+      <c r="M71" s="7"/>
       <c r="N71" t="s">
         <v>578</v>
       </c>
@@ -13174,15 +13174,15 @@
       <c r="J72">
         <v>1.3</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72" s="5">
         <f t="shared" si="3"/>
         <v>3230.76923076923</v>
       </c>
-      <c r="L72" s="7">
+      <c r="L72" s="6">
         <f t="shared" si="4"/>
         <v>2.97142857142857</v>
       </c>
-      <c r="M72" s="8"/>
+      <c r="M72" s="7"/>
       <c r="N72" t="s">
         <v>579</v>
       </c>
@@ -13218,15 +13218,15 @@
       <c r="J73">
         <v>1.3</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="5">
         <f t="shared" si="3"/>
         <v>3461.53846153846</v>
       </c>
-      <c r="L73" s="7">
+      <c r="L73" s="6">
         <f t="shared" si="4"/>
         <v>3.17777777777778</v>
       </c>
-      <c r="M73" s="8"/>
+      <c r="M73" s="7"/>
       <c r="N73" t="s">
         <v>580</v>
       </c>
@@ -13259,17 +13259,17 @@
       <c r="I74">
         <v>10</v>
       </c>
-      <c r="J74" s="9">
+      <c r="J74" s="8">
         <v>1</v>
       </c>
-      <c r="K74" s="6">
+      <c r="K74" s="5">
         <v>20</v>
       </c>
-      <c r="L74" s="7">
+      <c r="L74" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M74" s="8">
+      <c r="M74" s="7">
         <v>3.55</v>
       </c>
       <c r="N74" t="s">
@@ -13305,17 +13305,17 @@
       <c r="I75">
         <v>29</v>
       </c>
-      <c r="J75" s="9">
+      <c r="J75" s="8">
         <v>1</v>
       </c>
-      <c r="K75" s="6">
+      <c r="K75" s="5">
         <v>50</v>
       </c>
-      <c r="L75" s="7">
+      <c r="L75" s="6">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M75" s="8"/>
+      <c r="M75" s="7"/>
       <c r="N75" t="s">
         <v>581</v>
       </c>
@@ -13349,17 +13349,17 @@
       <c r="I76">
         <v>54</v>
       </c>
-      <c r="J76" s="9">
+      <c r="J76" s="8">
         <v>1</v>
       </c>
-      <c r="K76" s="6">
+      <c r="K76" s="5">
         <v>80</v>
       </c>
-      <c r="L76" s="7">
+      <c r="L76" s="6">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="M76" s="8"/>
+      <c r="M76" s="7"/>
       <c r="N76" t="s">
         <v>581</v>
       </c>
@@ -13392,17 +13392,17 @@
       <c r="I77">
         <v>79</v>
       </c>
-      <c r="J77" s="9">
+      <c r="J77" s="8">
         <v>1</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77" s="5">
         <v>180</v>
       </c>
-      <c r="L77" s="7">
+      <c r="L77" s="6">
         <f t="shared" si="4"/>
         <v>3.05555555555556</v>
       </c>
-      <c r="M77" s="8"/>
+      <c r="M77" s="7"/>
       <c r="N77" t="s">
         <v>581</v>
       </c>
@@ -13436,17 +13436,17 @@
       <c r="I78">
         <v>139</v>
       </c>
-      <c r="J78" s="9">
+      <c r="J78" s="8">
         <v>1</v>
       </c>
-      <c r="K78" s="6">
+      <c r="K78" s="5">
         <v>280</v>
       </c>
-      <c r="L78" s="7">
+      <c r="L78" s="6">
         <f t="shared" si="4"/>
         <v>3.21428571428571</v>
       </c>
-      <c r="M78" s="8"/>
+      <c r="M78" s="7"/>
       <c r="N78" t="s">
         <v>581</v>
       </c>
@@ -13480,17 +13480,17 @@
       <c r="I79">
         <v>319</v>
       </c>
-      <c r="J79" s="9">
+      <c r="J79" s="8">
         <v>1</v>
       </c>
-      <c r="K79" s="6">
+      <c r="K79" s="5">
         <v>600</v>
       </c>
-      <c r="L79" s="7">
+      <c r="L79" s="6">
         <f t="shared" si="4"/>
         <v>3.16666666666667</v>
       </c>
-      <c r="M79" s="8"/>
+      <c r="M79" s="7"/>
       <c r="N79" t="s">
         <v>582</v>
       </c>
@@ -13523,17 +13523,17 @@
       <c r="I80">
         <v>519</v>
       </c>
-      <c r="J80" s="9">
+      <c r="J80" s="8">
         <v>1</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K80" s="5">
         <v>900</v>
       </c>
-      <c r="L80" s="7">
+      <c r="L80" s="6">
         <f t="shared" ref="L80:L111" si="5">G80/K80</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="M80" s="8"/>
+      <c r="M80" s="7"/>
       <c r="N80" t="s">
         <v>582</v>
       </c>
@@ -13567,17 +13567,17 @@
       <c r="I81">
         <v>549</v>
       </c>
-      <c r="J81" s="9">
+      <c r="J81" s="8">
         <v>1</v>
       </c>
-      <c r="K81" s="6">
+      <c r="K81" s="5">
         <v>1200</v>
       </c>
-      <c r="L81" s="7">
+      <c r="L81" s="6">
         <f t="shared" si="5"/>
         <v>3.33333333333333</v>
       </c>
-      <c r="M81" s="8"/>
+      <c r="M81" s="7"/>
       <c r="N81" t="s">
         <v>582</v>
       </c>
@@ -13610,17 +13610,17 @@
       <c r="I82">
         <v>12</v>
       </c>
-      <c r="J82" s="9">
+      <c r="J82" s="8">
         <v>1</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K82" s="5">
         <v>24</v>
       </c>
-      <c r="L82" s="7">
+      <c r="L82" s="6">
         <f t="shared" si="5"/>
         <v>3.125</v>
       </c>
-      <c r="M82" s="8"/>
+      <c r="M82" s="7"/>
       <c r="N82" t="s">
         <v>583</v>
       </c>
@@ -13654,17 +13654,17 @@
       <c r="I83">
         <v>42</v>
       </c>
-      <c r="J83" s="9">
+      <c r="J83" s="8">
         <v>1</v>
       </c>
-      <c r="K83" s="6">
+      <c r="K83" s="5">
         <v>75</v>
       </c>
-      <c r="L83" s="7">
+      <c r="L83" s="6">
         <f t="shared" si="5"/>
         <v>3.26666666666667</v>
       </c>
-      <c r="M83" s="8"/>
+      <c r="M83" s="7"/>
       <c r="N83" t="s">
         <v>583</v>
       </c>
@@ -13698,17 +13698,17 @@
       <c r="I84">
         <v>49</v>
       </c>
-      <c r="J84" s="9">
+      <c r="J84" s="8">
         <v>1</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K84" s="5">
         <v>240</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L84" s="6">
         <f t="shared" si="5"/>
         <v>3.125</v>
       </c>
-      <c r="M84" s="8"/>
+      <c r="M84" s="7"/>
       <c r="N84" t="s">
         <v>584</v>
       </c>
@@ -13742,17 +13742,17 @@
       <c r="I85">
         <v>65</v>
       </c>
-      <c r="J85" s="9">
+      <c r="J85" s="8">
         <v>1</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K85" s="5">
         <v>120</v>
       </c>
-      <c r="L85" s="7">
+      <c r="L85" s="6">
         <f t="shared" si="5"/>
         <v>3.08333333333333</v>
       </c>
-      <c r="M85" s="8"/>
+      <c r="M85" s="7"/>
       <c r="N85" t="s">
         <v>585</v>
       </c>
@@ -13786,17 +13786,17 @@
       <c r="I86">
         <v>95</v>
       </c>
-      <c r="J86" s="9">
+      <c r="J86" s="8">
         <v>1</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K86" s="5">
         <v>160</v>
       </c>
-      <c r="L86" s="7">
+      <c r="L86" s="6">
         <f t="shared" si="5"/>
         <v>3.375</v>
       </c>
-      <c r="M86" s="8"/>
+      <c r="M86" s="7"/>
       <c r="N86" t="s">
         <v>586</v>
       </c>
@@ -13830,17 +13830,17 @@
       <c r="I87">
         <v>167</v>
       </c>
-      <c r="J87" s="9">
+      <c r="J87" s="8">
         <v>1</v>
       </c>
-      <c r="K87" s="6">
+      <c r="K87" s="5">
         <v>300</v>
       </c>
-      <c r="L87" s="7">
+      <c r="L87" s="6">
         <f t="shared" si="5"/>
         <v>3.33333333333333</v>
       </c>
-      <c r="M87" s="8"/>
+      <c r="M87" s="7"/>
       <c r="N87" t="s">
         <v>587</v>
       </c>
@@ -13874,17 +13874,17 @@
       <c r="I88">
         <v>383</v>
       </c>
-      <c r="J88" s="9">
+      <c r="J88" s="8">
         <v>1</v>
       </c>
-      <c r="K88" s="6">
+      <c r="K88" s="5">
         <v>700</v>
       </c>
-      <c r="L88" s="7">
+      <c r="L88" s="6">
         <f t="shared" si="5"/>
         <v>3.14285714285714</v>
       </c>
-      <c r="M88" s="8"/>
+      <c r="M88" s="7"/>
       <c r="N88" t="s">
         <v>588</v>
       </c>
@@ -13918,17 +13918,17 @@
       <c r="I89">
         <v>623</v>
       </c>
-      <c r="J89" s="9">
+      <c r="J89" s="8">
         <v>1</v>
       </c>
-      <c r="K89" s="6">
+      <c r="K89" s="5">
         <v>1100</v>
       </c>
-      <c r="L89" s="7">
+      <c r="L89" s="6">
         <f t="shared" si="5"/>
         <v>3.27272727272727</v>
       </c>
-      <c r="M89" s="8"/>
+      <c r="M89" s="7"/>
       <c r="N89" t="s">
         <v>589</v>
       </c>
@@ -13962,17 +13962,17 @@
       <c r="I90">
         <v>727</v>
       </c>
-      <c r="J90" s="9">
+      <c r="J90" s="8">
         <v>1</v>
       </c>
-      <c r="K90" s="6">
+      <c r="K90" s="5">
         <v>1200</v>
       </c>
-      <c r="L90" s="7">
+      <c r="L90" s="6">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="M90" s="8"/>
+      <c r="M90" s="7"/>
       <c r="N90" t="s">
         <v>582</v>
       </c>
@@ -14006,17 +14006,17 @@
       <c r="I91">
         <v>1019</v>
       </c>
-      <c r="J91" s="9">
+      <c r="J91" s="8">
         <v>1</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K91" s="5">
         <v>1300</v>
       </c>
-      <c r="L91" s="7">
+      <c r="L91" s="6">
         <f t="shared" si="5"/>
         <v>3.76923076923077</v>
       </c>
-      <c r="M91" s="8"/>
+      <c r="M91" s="7"/>
       <c r="N91" t="s">
         <v>590</v>
       </c>
@@ -14050,17 +14050,17 @@
       <c r="I92">
         <v>1189</v>
       </c>
-      <c r="J92" s="9">
+      <c r="J92" s="8">
         <v>1</v>
       </c>
-      <c r="K92" s="6">
+      <c r="K92" s="5">
         <v>1400</v>
       </c>
-      <c r="L92" s="7">
+      <c r="L92" s="6">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M92" s="8"/>
+      <c r="M92" s="7"/>
       <c r="N92" t="s">
         <v>591</v>
       </c>
@@ -14094,18 +14094,18 @@
       <c r="I93">
         <v>1319</v>
       </c>
-      <c r="J93" s="9">
+      <c r="J93" s="8">
         <v>1</v>
       </c>
-      <c r="K93" s="6">
+      <c r="K93" s="5">
         <f t="shared" ref="K93:K98" si="6">I93/J93</f>
         <v>1319</v>
       </c>
-      <c r="L93" s="7">
+      <c r="L93" s="6">
         <f t="shared" si="5"/>
         <v>4.5489006823351</v>
       </c>
-      <c r="M93" s="8"/>
+      <c r="M93" s="7"/>
       <c r="N93" t="s">
         <v>592</v>
       </c>
@@ -14139,18 +14139,18 @@
       <c r="I94">
         <v>1583</v>
       </c>
-      <c r="J94" s="9">
+      <c r="J94" s="8">
         <v>1</v>
       </c>
-      <c r="K94" s="6">
+      <c r="K94" s="5">
         <f t="shared" si="6"/>
         <v>1583</v>
       </c>
-      <c r="L94" s="7">
+      <c r="L94" s="6">
         <f t="shared" si="5"/>
         <v>4.29564118761845</v>
       </c>
-      <c r="M94" s="8"/>
+      <c r="M94" s="7"/>
       <c r="N94" t="s">
         <v>589</v>
       </c>
@@ -14184,18 +14184,18 @@
       <c r="I95">
         <v>1847</v>
       </c>
-      <c r="J95" s="9">
+      <c r="J95" s="8">
         <v>1</v>
       </c>
-      <c r="K95" s="6">
+      <c r="K95" s="5">
         <f t="shared" si="6"/>
         <v>1847</v>
       </c>
-      <c r="L95" s="7">
+      <c r="L95" s="6">
         <f t="shared" si="5"/>
         <v>4.11478072550081</v>
       </c>
-      <c r="M95" s="8"/>
+      <c r="M95" s="7"/>
       <c r="N95" t="s">
         <v>593</v>
       </c>
@@ -14229,18 +14229,18 @@
       <c r="I96">
         <v>1715</v>
       </c>
-      <c r="J96" s="9">
+      <c r="J96" s="8">
         <v>1</v>
       </c>
-      <c r="K96" s="6">
+      <c r="K96" s="5">
         <f t="shared" si="6"/>
         <v>1715</v>
       </c>
-      <c r="L96" s="7">
+      <c r="L96" s="6">
         <f t="shared" si="5"/>
         <v>4.25655976676385</v>
       </c>
-      <c r="M96" s="8"/>
+      <c r="M96" s="7"/>
       <c r="N96" t="s">
         <v>591</v>
       </c>
@@ -14274,18 +14274,18 @@
       <c r="I97">
         <v>1451</v>
       </c>
-      <c r="J97" s="9">
+      <c r="J97" s="8">
         <v>1</v>
       </c>
-      <c r="K97" s="6">
+      <c r="K97" s="5">
         <f t="shared" si="6"/>
         <v>1451</v>
       </c>
-      <c r="L97" s="7">
+      <c r="L97" s="6">
         <f t="shared" si="5"/>
         <v>4.34183321847002</v>
       </c>
-      <c r="M97" s="8"/>
+      <c r="M97" s="7"/>
       <c r="N97" t="s">
         <v>594</v>
       </c>
@@ -14319,18 +14319,18 @@
       <c r="I98">
         <v>2059</v>
       </c>
-      <c r="J98" s="9">
+      <c r="J98" s="8">
         <v>1</v>
       </c>
-      <c r="K98" s="6">
+      <c r="K98" s="5">
         <f t="shared" si="6"/>
         <v>2059</v>
       </c>
-      <c r="L98" s="7">
+      <c r="L98" s="6">
         <f t="shared" si="5"/>
         <v>4.273919378339</v>
       </c>
-      <c r="M98" s="8"/>
+      <c r="M98" s="7"/>
       <c r="N98" t="s">
         <v>595</v>
       </c>
@@ -14364,18 +14364,18 @@
       <c r="I99">
         <v>4000</v>
       </c>
-      <c r="J99" s="9">
+      <c r="J99" s="8">
         <v>1</v>
       </c>
-      <c r="K99" s="6">
+      <c r="K99" s="5">
         <f t="shared" ref="K99:K127" si="7">I99/J99</f>
         <v>4000</v>
       </c>
-      <c r="L99" s="7">
+      <c r="L99" s="6">
         <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
-      <c r="M99" s="8"/>
+      <c r="M99" s="7"/>
       <c r="N99" t="s">
         <v>596</v>
       </c>
@@ -14411,15 +14411,15 @@
       <c r="J100">
         <v>1.1</v>
       </c>
-      <c r="K100" s="6">
+      <c r="K100" s="5">
         <f t="shared" si="7"/>
         <v>11.8181818181818</v>
       </c>
-      <c r="L100" s="7">
+      <c r="L100" s="6">
         <f t="shared" si="5"/>
         <v>6.76923076923077</v>
       </c>
-      <c r="M100" s="8">
+      <c r="M100" s="7">
         <v>3.69</v>
       </c>
       <c r="N100" t="s">
@@ -14457,15 +14457,15 @@
       <c r="J101">
         <v>1.1</v>
       </c>
-      <c r="K101" s="6">
+      <c r="K101" s="5">
         <f t="shared" si="7"/>
         <v>26.3636363636364</v>
       </c>
-      <c r="L101" s="7">
+      <c r="L101" s="6">
         <f t="shared" si="5"/>
         <v>6.06896551724138</v>
       </c>
-      <c r="M101" s="8"/>
+      <c r="M101" s="7"/>
       <c r="N101" t="s">
         <v>597</v>
       </c>
@@ -14501,15 +14501,15 @@
       <c r="J102">
         <v>1.1</v>
       </c>
-      <c r="K102" s="6">
+      <c r="K102" s="5">
         <f t="shared" si="7"/>
         <v>62.7272727272727</v>
       </c>
-      <c r="L102" s="7">
+      <c r="L102" s="6">
         <f t="shared" si="5"/>
         <v>5.10144927536232</v>
       </c>
-      <c r="M102" s="8"/>
+      <c r="M102" s="7"/>
       <c r="N102" t="s">
         <v>597</v>
       </c>
@@ -14545,15 +14545,15 @@
       <c r="J103">
         <v>1.1</v>
       </c>
-      <c r="K103" s="6">
+      <c r="K103" s="5">
         <f t="shared" si="7"/>
         <v>43.6363636363636</v>
       </c>
-      <c r="L103" s="7">
+      <c r="L103" s="6">
         <f t="shared" si="5"/>
         <v>5.72916666666667</v>
       </c>
-      <c r="M103" s="8"/>
+      <c r="M103" s="7"/>
       <c r="N103" t="s">
         <v>598</v>
       </c>
@@ -14589,15 +14589,15 @@
       <c r="J104">
         <v>1.1</v>
       </c>
-      <c r="K104" s="6">
+      <c r="K104" s="5">
         <f t="shared" si="7"/>
         <v>121.818181818182</v>
       </c>
-      <c r="L104" s="7">
+      <c r="L104" s="6">
         <f t="shared" si="5"/>
         <v>3.94029850746269</v>
       </c>
-      <c r="M104" s="8"/>
+      <c r="M104" s="7"/>
       <c r="N104" t="s">
         <v>598</v>
       </c>
@@ -14633,15 +14633,15 @@
       <c r="J105">
         <v>1.1</v>
       </c>
-      <c r="K105" s="6">
+      <c r="K105" s="5">
         <f t="shared" si="7"/>
         <v>408.181818181818</v>
       </c>
-      <c r="L105" s="7">
+      <c r="L105" s="6">
         <f t="shared" si="5"/>
         <v>2.25389755011136</v>
       </c>
-      <c r="M105" s="8"/>
+      <c r="M105" s="7"/>
       <c r="N105" t="s">
         <v>598</v>
       </c>
@@ -14677,15 +14677,15 @@
       <c r="J106">
         <v>1.1</v>
       </c>
-      <c r="K106" s="6">
+      <c r="K106" s="5">
         <f t="shared" si="7"/>
         <v>299.090909090909</v>
       </c>
-      <c r="L106" s="7">
+      <c r="L106" s="6">
         <f t="shared" si="5"/>
         <v>2.67477203647416</v>
       </c>
-      <c r="M106" s="8"/>
+      <c r="M106" s="7"/>
       <c r="N106" t="s">
         <v>599</v>
       </c>
@@ -14721,15 +14721,15 @@
       <c r="J107">
         <v>1.1</v>
       </c>
-      <c r="K107" s="6">
+      <c r="K107" s="5">
         <f t="shared" si="7"/>
         <v>599.090909090909</v>
       </c>
-      <c r="L107" s="7">
+      <c r="L107" s="6">
         <f t="shared" si="5"/>
         <v>2.16995447647951</v>
       </c>
-      <c r="M107" s="8"/>
+      <c r="M107" s="7"/>
       <c r="N107" t="s">
         <v>600</v>
       </c>
@@ -14765,15 +14765,15 @@
       <c r="J108">
         <v>1.1</v>
       </c>
-      <c r="K108" s="6">
+      <c r="K108" s="5">
         <f t="shared" si="7"/>
         <v>899.090909090909</v>
       </c>
-      <c r="L108" s="7">
+      <c r="L108" s="6">
         <f t="shared" si="5"/>
         <v>2.11324570273003</v>
       </c>
-      <c r="M108" s="8"/>
+      <c r="M108" s="7"/>
       <c r="N108" t="s">
         <v>600</v>
       </c>
@@ -14809,15 +14809,15 @@
       <c r="J109">
         <v>1.1</v>
       </c>
-      <c r="K109" s="6">
+      <c r="K109" s="5">
         <f t="shared" si="7"/>
         <v>1199.09090909091</v>
       </c>
-      <c r="L109" s="7">
+      <c r="L109" s="6">
         <f t="shared" si="5"/>
         <v>2.41849886277483</v>
       </c>
-      <c r="M109" s="8"/>
+      <c r="M109" s="7"/>
       <c r="N109" t="s">
         <v>600</v>
       </c>
@@ -14853,15 +14853,15 @@
       <c r="J110">
         <v>1.1</v>
       </c>
-      <c r="K110" s="6">
+      <c r="K110" s="5">
         <f t="shared" si="7"/>
         <v>762.727272727273</v>
       </c>
-      <c r="L110" s="7">
+      <c r="L110" s="6">
         <f t="shared" si="5"/>
         <v>4.71990464839094</v>
       </c>
-      <c r="M110" s="8"/>
+      <c r="M110" s="7"/>
       <c r="N110" t="s">
         <v>601</v>
       </c>
@@ -14897,15 +14897,15 @@
       <c r="J111">
         <v>1.1</v>
       </c>
-      <c r="K111" s="6">
+      <c r="K111" s="5">
         <f t="shared" si="7"/>
         <v>2344.54545454545</v>
       </c>
-      <c r="L111" s="7">
+      <c r="L111" s="6">
         <f t="shared" si="5"/>
         <v>2.85769678169833</v>
       </c>
-      <c r="M111" s="8"/>
+      <c r="M111" s="7"/>
       <c r="N111" t="s">
         <v>602</v>
       </c>
@@ -14941,15 +14941,15 @@
       <c r="J112">
         <v>1.1</v>
       </c>
-      <c r="K112" s="6">
+      <c r="K112" s="5">
         <f t="shared" si="7"/>
         <v>944.545454545455</v>
       </c>
-      <c r="L112" s="7">
+      <c r="L112" s="6">
         <f t="shared" ref="L112:L127" si="8">G112/K112</f>
         <v>4.02309913378248</v>
       </c>
-      <c r="M112" s="8"/>
+      <c r="M112" s="7"/>
       <c r="N112" t="s">
         <v>603</v>
       </c>
@@ -14985,15 +14985,15 @@
       <c r="J113">
         <v>1.1</v>
       </c>
-      <c r="K113" s="6">
+      <c r="K113" s="5">
         <f t="shared" si="7"/>
         <v>1708.18181818182</v>
       </c>
-      <c r="L113" s="7">
+      <c r="L113" s="6">
         <f t="shared" si="8"/>
         <v>3.39542309739223</v>
       </c>
-      <c r="M113" s="8"/>
+      <c r="M113" s="7"/>
       <c r="N113" t="s">
         <v>604</v>
       </c>
@@ -15029,15 +15029,15 @@
       <c r="J114">
         <v>1.1</v>
       </c>
-      <c r="K114" s="6">
+      <c r="K114" s="5">
         <f t="shared" si="7"/>
         <v>1135.45454545455</v>
       </c>
-      <c r="L114" s="7">
+      <c r="L114" s="6">
         <f t="shared" si="8"/>
         <v>2.81825460368295</v>
       </c>
-      <c r="M114" s="8"/>
+      <c r="M114" s="7"/>
       <c r="N114" t="s">
         <v>605</v>
       </c>
@@ -15073,15 +15073,15 @@
       <c r="J115">
         <v>1.1</v>
       </c>
-      <c r="K115" s="6">
+      <c r="K115" s="5">
         <f t="shared" si="7"/>
         <v>1690</v>
       </c>
-      <c r="L115" s="7">
+      <c r="L115" s="6">
         <f t="shared" si="8"/>
         <v>3.43195266272189</v>
       </c>
-      <c r="M115" s="8"/>
+      <c r="M115" s="7"/>
       <c r="N115" t="s">
         <v>605</v>
       </c>
@@ -15117,15 +15117,15 @@
       <c r="J116">
         <v>1.1</v>
       </c>
-      <c r="K116" s="6">
+      <c r="K116" s="5">
         <f t="shared" si="7"/>
         <v>2226.36363636364</v>
       </c>
-      <c r="L116" s="7">
+      <c r="L116" s="6">
         <f t="shared" si="8"/>
         <v>3.72805226623112</v>
       </c>
-      <c r="M116" s="8"/>
+      <c r="M116" s="7"/>
       <c r="N116" t="s">
         <v>605</v>
       </c>
@@ -15161,15 +15161,15 @@
       <c r="J117">
         <v>1.1</v>
       </c>
-      <c r="K117" s="6">
+      <c r="K117" s="5">
         <f t="shared" si="7"/>
         <v>4090</v>
       </c>
-      <c r="L117" s="7">
+      <c r="L117" s="6">
         <f t="shared" si="8"/>
         <v>2.3960880195599</v>
       </c>
-      <c r="M117" s="8"/>
+      <c r="M117" s="7"/>
       <c r="N117" t="s">
         <v>606</v>
       </c>
@@ -15205,15 +15205,15 @@
       <c r="J118">
         <v>1.1</v>
       </c>
-      <c r="K118" s="6">
+      <c r="K118" s="5">
         <f t="shared" si="7"/>
         <v>3817.27272727273</v>
       </c>
-      <c r="L118" s="7">
+      <c r="L118" s="6">
         <f t="shared" si="8"/>
         <v>3.40557275541796</v>
       </c>
-      <c r="M118" s="8"/>
+      <c r="M118" s="7"/>
       <c r="N118" t="s">
         <v>607</v>
       </c>
@@ -15249,15 +15249,15 @@
       <c r="J119">
         <v>1.3</v>
       </c>
-      <c r="K119" s="6">
+      <c r="K119" s="5">
         <f t="shared" si="7"/>
         <v>37.6923076923077</v>
       </c>
-      <c r="L119" s="7">
+      <c r="L119" s="6">
         <f t="shared" si="8"/>
         <v>6.63265306122449</v>
       </c>
-      <c r="M119" s="7"/>
+      <c r="M119" s="6"/>
       <c r="N119" t="s">
         <v>608</v>
       </c>
@@ -15293,15 +15293,15 @@
       <c r="J120">
         <v>1.1</v>
       </c>
-      <c r="K120" s="6">
+      <c r="K120" s="5">
         <f t="shared" si="7"/>
         <v>408.181818181818</v>
       </c>
-      <c r="L120" s="7">
+      <c r="L120" s="6">
         <f t="shared" si="8"/>
         <v>4.28730512249443</v>
       </c>
-      <c r="M120" s="7"/>
+      <c r="M120" s="6"/>
       <c r="N120" t="s">
         <v>608</v>
       </c>
@@ -15337,15 +15337,15 @@
       <c r="J121">
         <v>1.2</v>
       </c>
-      <c r="K121" s="6">
+      <c r="K121" s="5">
         <f t="shared" si="7"/>
         <v>124.166666666667</v>
       </c>
-      <c r="L121" s="7">
+      <c r="L121" s="6">
         <f t="shared" si="8"/>
         <v>6.04026845637584</v>
       </c>
-      <c r="M121" s="7"/>
+      <c r="M121" s="6"/>
       <c r="N121" t="s">
         <v>608</v>
       </c>
@@ -15378,18 +15378,18 @@
       <c r="I122">
         <v>1349</v>
       </c>
-      <c r="J122" s="9">
+      <c r="J122" s="8">
         <v>1</v>
       </c>
-      <c r="K122" s="6">
+      <c r="K122" s="5">
         <f t="shared" si="7"/>
         <v>1349</v>
       </c>
-      <c r="L122" s="7">
+      <c r="L122" s="6">
         <f t="shared" si="8"/>
         <v>2.77983691623425</v>
       </c>
-      <c r="M122" s="7"/>
+      <c r="M122" s="6"/>
       <c r="N122" t="s">
         <v>608</v>
       </c>
@@ -15425,15 +15425,15 @@
       <c r="J123">
         <v>0.9</v>
       </c>
-      <c r="K123" s="6">
+      <c r="K123" s="5">
         <f t="shared" si="7"/>
         <v>4498.88888888889</v>
       </c>
-      <c r="L123" s="7">
+      <c r="L123" s="6">
         <f t="shared" si="8"/>
         <v>1.72264756730057</v>
       </c>
-      <c r="M123" s="7"/>
+      <c r="M123" s="6"/>
       <c r="N123" t="s">
         <v>608</v>
       </c>
@@ -15469,15 +15469,15 @@
       <c r="J124">
         <v>0.8</v>
       </c>
-      <c r="K124" s="6">
+      <c r="K124" s="5">
         <f t="shared" si="7"/>
         <v>15186.25</v>
       </c>
-      <c r="L124" s="7">
+      <c r="L124" s="6">
         <f t="shared" si="8"/>
         <v>0.905424314758416</v>
       </c>
-      <c r="M124" s="7"/>
+      <c r="M124" s="6"/>
       <c r="N124" t="s">
         <v>608</v>
       </c>
@@ -15513,15 +15513,15 @@
       <c r="J125">
         <v>0.8</v>
       </c>
-      <c r="K125" s="6">
+      <c r="K125" s="5">
         <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
-      <c r="L125" s="7">
+      <c r="L125" s="6">
         <f t="shared" si="8"/>
         <v>8000</v>
       </c>
-      <c r="M125" s="7"/>
+      <c r="M125" s="6"/>
       <c r="N125" t="s">
         <v>609</v>
       </c>
@@ -15557,15 +15557,15 @@
       <c r="J126">
         <v>1.1</v>
       </c>
-      <c r="K126" s="6">
+      <c r="K126" s="5">
         <f t="shared" si="7"/>
         <v>953.636363636364</v>
       </c>
-      <c r="L126" s="7">
+      <c r="L126" s="6">
         <f t="shared" si="8"/>
         <v>4.19447092469018</v>
       </c>
-      <c r="M126" s="7"/>
+      <c r="M126" s="6"/>
       <c r="N126" t="s">
         <v>610</v>
       </c>
@@ -15601,15 +15601,15 @@
       <c r="J127">
         <v>1.1</v>
       </c>
-      <c r="K127" s="6">
+      <c r="K127" s="5">
         <f t="shared" si="7"/>
         <v>453.636363636364</v>
       </c>
-      <c r="L127" s="7">
+      <c r="L127" s="6">
         <f t="shared" si="8"/>
         <v>4.40881763527054</v>
       </c>
-      <c r="M127" s="7"/>
+      <c r="M127" s="6"/>
       <c r="N127" t="s">
         <v>611</v>
       </c>
@@ -15635,8 +15635,8 @@
   <sheetPr/>
   <dimension ref="A1:K56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -15685,7 +15685,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>23</v>
+        <v>1270</v>
       </c>
       <c r="C2">
         <v>-2</v>
@@ -15693,29 +15693,29 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <f t="shared" ref="E2:E33" si="0">0.06*C2/(1+0.06*C2)</f>
         <v>-0.136363636363636</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <f>B2/(1-E2)</f>
-        <v>20.24</v>
+        <v>1117.6</v>
       </c>
       <c r="G2">
         <f>B2*4.8</f>
-        <v>110.4</v>
+        <v>6096</v>
       </c>
       <c r="H2">
         <f>C2+19*D2</f>
         <v>17</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <f>0.06*H2/(1+0.06*H2)</f>
         <v>0.504950495049505</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <f>G2/(1-I2)</f>
-        <v>223.008</v>
+        <v>12313.92</v>
       </c>
       <c r="K2">
         <f>7.6591*A2*A2*A2-108.55*A2*A2+798.28*A2-518.31</f>
@@ -15727,7 +15727,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>1630</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -15735,29 +15735,29 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <f t="shared" si="0"/>
         <v>0.0566037735849057</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f t="shared" ref="F3:F34" si="1">B3/(1-E3)</f>
-        <v>79.5</v>
+        <v>1727.8</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G34" si="2">B3*4.8</f>
-        <v>360</v>
+        <v>7824</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H34" si="3">C3+19*D3</f>
         <v>20</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <f t="shared" ref="I3:I34" si="4">0.06*H3/(1+0.06*H3)</f>
         <v>0.545454545454545</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J34" si="5">G3/(1-I3)</f>
-        <v>792</v>
+        <v>17212.8</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:K34" si="6">7.6591*A3*A3*A3-108.55*A3*A3+798.28*A3-518.31</f>
@@ -15769,7 +15769,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>158</v>
+        <v>2090</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -15777,29 +15777,29 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <f t="shared" si="0"/>
         <v>0.107142857142857</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f t="shared" si="1"/>
-        <v>176.96</v>
+        <v>2340.8</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>758.4</v>
+        <v>10032</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <f t="shared" si="4"/>
         <v>0.557522123893805</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="5">
         <f t="shared" si="5"/>
-        <v>1713.984</v>
+        <v>22672.32</v>
       </c>
       <c r="K4">
         <f t="shared" si="6"/>
@@ -15811,7 +15811,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>270</v>
+        <v>2660</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -15819,29 +15819,29 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <f t="shared" si="0"/>
         <v>0.193548387096774</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f t="shared" si="1"/>
-        <v>334.8</v>
+        <v>3298.4</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>1296</v>
+        <v>12768</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
         <v>23</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="4">
         <f t="shared" si="4"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <f t="shared" si="5"/>
-        <v>3084.48</v>
+        <v>30387.84</v>
       </c>
       <c r="K5">
         <f t="shared" si="6"/>
@@ -15853,7 +15853,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>413</v>
+        <v>3350</v>
       </c>
       <c r="C6">
         <v>6</v>
@@ -15861,29 +15861,29 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="4">
         <f t="shared" si="0"/>
         <v>0.264705882352941</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="5">
         <f t="shared" si="1"/>
-        <v>561.68</v>
+        <v>4556</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>1982.4</v>
+        <v>16080</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="4">
         <f t="shared" si="4"/>
         <v>0.6</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="5">
         <f t="shared" si="5"/>
-        <v>4956</v>
+        <v>40200</v>
       </c>
       <c r="K6">
         <f t="shared" si="6"/>
@@ -15895,7 +15895,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>585</v>
+        <v>4180</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -15903,29 +15903,29 @@
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <f t="shared" si="0"/>
         <v>0.324324324324324</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <f t="shared" si="1"/>
-        <v>865.8</v>
+        <v>6186.4</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>2808</v>
+        <v>20064</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="4">
         <f t="shared" si="4"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <f t="shared" si="5"/>
-        <v>7356.96</v>
+        <v>52567.68</v>
       </c>
       <c r="K7">
         <f t="shared" si="6"/>
@@ -15937,37 +15937,37 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>788</v>
+        <v>2000</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>200</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-      <c r="F8" s="6">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="F8" s="5">
         <f t="shared" si="1"/>
-        <v>1260.8</v>
+        <v>26000</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>3782.4</v>
+        <v>9600</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
-        <v>29</v>
-      </c>
-      <c r="I8" s="5">
+        <v>219</v>
+      </c>
+      <c r="I8" s="4">
         <f t="shared" si="4"/>
-        <v>0.635036496350365</v>
-      </c>
-      <c r="J8" s="6">
+        <v>0.929278642149929</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="5"/>
-        <v>10363.776</v>
+        <v>135744</v>
       </c>
       <c r="K8">
         <f t="shared" si="6"/>
@@ -15979,7 +15979,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1020</v>
+        <v>6280</v>
       </c>
       <c r="C9">
         <v>9</v>
@@ -15987,29 +15987,29 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <f t="shared" si="0"/>
         <v>0.350649350649351</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>1570.8</v>
+        <v>9671.2</v>
       </c>
       <c r="G9">
         <f t="shared" si="2"/>
-        <v>4896</v>
+        <v>30144</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="4">
         <f t="shared" si="4"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="5">
         <f t="shared" si="5"/>
-        <v>13121.28</v>
+        <v>80785.92</v>
       </c>
       <c r="K9">
         <f t="shared" si="6"/>
@@ -16021,7 +16021,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>1283</v>
+        <v>7580</v>
       </c>
       <c r="C10">
         <v>9</v>
@@ -16029,29 +16029,29 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <f t="shared" si="0"/>
         <v>0.350649350649351</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f t="shared" si="1"/>
-        <v>1975.82</v>
+        <v>11673.2</v>
       </c>
       <c r="G10">
         <f t="shared" si="2"/>
-        <v>6158.4</v>
+        <v>36384</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="4">
         <f t="shared" si="4"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="5">
         <f t="shared" si="5"/>
-        <v>16504.512</v>
+        <v>97509.12</v>
       </c>
       <c r="K10">
         <f t="shared" si="6"/>
@@ -16063,7 +16063,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1575</v>
+        <v>13000</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -16071,29 +16071,29 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f t="shared" si="1"/>
-        <v>2520</v>
+        <v>20800</v>
       </c>
       <c r="G11">
         <f t="shared" si="2"/>
-        <v>7560</v>
+        <v>62400</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f t="shared" si="4"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="5">
         <f t="shared" si="5"/>
-        <v>20714.4</v>
+        <v>170976</v>
       </c>
       <c r="K11">
         <f t="shared" si="6"/>
@@ -16105,7 +16105,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1883</v>
+        <v>22500</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -16113,29 +16113,29 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <f t="shared" si="1"/>
-        <v>3012.8</v>
+        <v>36000</v>
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>9038.4</v>
+        <v>108000</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <f t="shared" si="4"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="5">
         <f t="shared" si="5"/>
-        <v>24765.216</v>
+        <v>295920</v>
       </c>
       <c r="K12">
         <f t="shared" si="6"/>
@@ -16147,7 +16147,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2220</v>
+        <v>25700</v>
       </c>
       <c r="C13">
         <v>11</v>
@@ -16155,29 +16155,29 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
         <v>0.397590361445783</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="5">
         <f t="shared" si="1"/>
-        <v>3685.2</v>
+        <v>42662</v>
       </c>
       <c r="G13">
         <f t="shared" si="2"/>
-        <v>10656</v>
+        <v>123360</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="4">
         <f t="shared" si="4"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="5">
         <f t="shared" si="5"/>
-        <v>29836.8</v>
+        <v>345408</v>
       </c>
       <c r="K13">
         <f t="shared" si="6"/>
@@ -16189,7 +16189,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2550</v>
+        <v>29000</v>
       </c>
       <c r="C14">
         <v>11</v>
@@ -16197,29 +16197,29 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <f t="shared" si="0"/>
         <v>0.397590361445783</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="5">
         <f t="shared" si="1"/>
-        <v>4233</v>
+        <v>48140</v>
       </c>
       <c r="G14">
         <f t="shared" si="2"/>
-        <v>12240</v>
+        <v>139200</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="4">
         <f t="shared" si="4"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="5">
         <f t="shared" si="5"/>
-        <v>34272</v>
+        <v>389760</v>
       </c>
       <c r="K14">
         <f t="shared" si="6"/>
@@ -16231,7 +16231,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2948</v>
+        <v>33000</v>
       </c>
       <c r="C15">
         <v>12</v>
@@ -16239,29 +16239,29 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <f t="shared" si="0"/>
         <v>0.418604651162791</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f t="shared" si="1"/>
-        <v>5070.56</v>
+        <v>56760</v>
       </c>
       <c r="G15">
         <f t="shared" si="2"/>
-        <v>14150.4</v>
+        <v>158400</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
         <v>31</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <f t="shared" si="4"/>
         <v>0.65034965034965</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="5">
         <f t="shared" si="5"/>
-        <v>40470.144</v>
+        <v>453024</v>
       </c>
       <c r="K15">
         <f t="shared" si="6"/>
@@ -16273,7 +16273,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>3375</v>
+        <v>37000</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -16281,29 +16281,29 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <f t="shared" si="0"/>
         <v>0.438202247191011</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f t="shared" si="1"/>
-        <v>6007.5</v>
+        <v>65860</v>
       </c>
       <c r="G16">
         <f t="shared" si="2"/>
-        <v>16200</v>
+        <v>177600</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <f t="shared" si="4"/>
         <v>0.657534246575342</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="5">
         <f t="shared" si="5"/>
-        <v>47304</v>
+        <v>518592</v>
       </c>
       <c r="K16">
         <f t="shared" si="6"/>
@@ -16315,7 +16315,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>3975</v>
+        <v>41000</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -16323,29 +16323,29 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
         <v>0.438202247191011</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f t="shared" si="1"/>
-        <v>7075.5</v>
+        <v>72980</v>
       </c>
       <c r="G17">
         <f t="shared" si="2"/>
-        <v>19080</v>
+        <v>196800</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
         <v>32</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <f t="shared" si="4"/>
         <v>0.657534246575342</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="5">
         <f t="shared" si="5"/>
-        <v>55713.6</v>
+        <v>574656</v>
       </c>
       <c r="K17">
         <f t="shared" si="6"/>
@@ -16357,37 +16357,37 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4800</v>
+        <v>12000</v>
       </c>
       <c r="C18">
-        <v>14</v>
+        <v>300</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
-        <v>0.456521739130435</v>
-      </c>
-      <c r="F18" s="6">
+        <v>0.947368421052632</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="1"/>
-        <v>8832</v>
+        <v>228000</v>
       </c>
       <c r="G18">
         <f t="shared" si="2"/>
-        <v>23040</v>
+        <v>57600</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
-        <v>33</v>
-      </c>
-      <c r="I18" s="5">
+        <v>319</v>
+      </c>
+      <c r="I18" s="4">
         <f t="shared" si="4"/>
-        <v>0.664429530201342</v>
-      </c>
-      <c r="J18" s="6">
+        <v>0.950347567030784</v>
+      </c>
+      <c r="J18" s="5">
         <f t="shared" si="5"/>
-        <v>68659.2</v>
+        <v>1160064</v>
       </c>
       <c r="K18">
         <f t="shared" si="6"/>
@@ -16399,7 +16399,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>5775</v>
+        <v>51000</v>
       </c>
       <c r="C19">
         <v>15</v>
@@ -16407,29 +16407,29 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="4">
         <f t="shared" si="0"/>
         <v>0.473684210526316</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="5">
         <f t="shared" si="1"/>
-        <v>10972.5</v>
+        <v>96900</v>
       </c>
       <c r="G19">
         <f t="shared" si="2"/>
-        <v>27720</v>
+        <v>244800</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
         <v>34</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="4">
         <f t="shared" si="4"/>
         <v>0.671052631578947</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="5">
         <f t="shared" si="5"/>
-        <v>84268.8</v>
+        <v>744192</v>
       </c>
       <c r="K19">
         <f t="shared" si="6"/>
@@ -16441,7 +16441,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6900</v>
+        <v>62000</v>
       </c>
       <c r="C20">
         <v>16</v>
@@ -16449,29 +16449,29 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <f t="shared" si="0"/>
         <v>0.489795918367347</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="5">
         <f t="shared" si="1"/>
-        <v>13524</v>
+        <v>121520</v>
       </c>
       <c r="G20">
         <f t="shared" si="2"/>
-        <v>33120</v>
+        <v>297600</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="4">
         <f t="shared" si="4"/>
         <v>0.67741935483871</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="5">
         <f t="shared" si="5"/>
-        <v>102672</v>
+        <v>922560</v>
       </c>
       <c r="K20">
         <f t="shared" si="6"/>
@@ -16483,7 +16483,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>8175</v>
+        <v>80000</v>
       </c>
       <c r="C21">
         <v>17</v>
@@ -16491,29 +16491,29 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <f t="shared" si="0"/>
         <v>0.504950495049505</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f t="shared" si="1"/>
-        <v>16513.5</v>
+        <v>161600</v>
       </c>
       <c r="G21">
         <f t="shared" si="2"/>
-        <v>39240</v>
+        <v>384000</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
         <v>36</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="4">
         <f t="shared" si="4"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <f t="shared" si="5"/>
-        <v>123998.4</v>
+        <v>1213440</v>
       </c>
       <c r="K21">
         <f t="shared" si="6"/>
@@ -16525,7 +16525,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>9900</v>
+        <v>105000</v>
       </c>
       <c r="C22">
         <v>18</v>
@@ -16533,29 +16533,29 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="4">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f t="shared" si="1"/>
-        <v>20592</v>
+        <v>218400</v>
       </c>
       <c r="G22">
         <f t="shared" si="2"/>
-        <v>47520</v>
+        <v>504000</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="4">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="5">
         <f t="shared" si="5"/>
-        <v>153014.4</v>
+        <v>1622880</v>
       </c>
       <c r="K22">
         <f t="shared" si="6"/>
@@ -16567,7 +16567,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>11850</v>
+        <v>114000</v>
       </c>
       <c r="C23">
         <v>18</v>
@@ -16575,29 +16575,29 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="4">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f t="shared" si="1"/>
-        <v>24648</v>
+        <v>237120</v>
       </c>
       <c r="G23">
         <f t="shared" si="2"/>
-        <v>56880</v>
+        <v>547200</v>
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="4">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <f t="shared" si="5"/>
-        <v>183153.6</v>
+        <v>1761984</v>
       </c>
       <c r="K23">
         <f t="shared" si="6"/>
@@ -16609,7 +16609,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>14325</v>
+        <v>123000</v>
       </c>
       <c r="C24">
         <v>18</v>
@@ -16617,29 +16617,29 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="5">
         <f t="shared" si="1"/>
-        <v>29796</v>
+        <v>255840</v>
       </c>
       <c r="G24">
         <f t="shared" si="2"/>
-        <v>68760</v>
+        <v>590400</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="4">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <f t="shared" si="5"/>
-        <v>221407.2</v>
+        <v>1901088</v>
       </c>
       <c r="K24">
         <f t="shared" si="6"/>
@@ -16651,7 +16651,7 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>16675</v>
+        <v>133000</v>
       </c>
       <c r="C25">
         <v>18</v>
@@ -16659,29 +16659,29 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25" s="5">
         <f t="shared" si="1"/>
-        <v>34684</v>
+        <v>276640</v>
       </c>
       <c r="G25">
         <f t="shared" si="2"/>
-        <v>80040</v>
+        <v>638400</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="4">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <f t="shared" si="5"/>
-        <v>257728.8</v>
+        <v>2055648</v>
       </c>
       <c r="K25">
         <f t="shared" si="6"/>
@@ -16693,7 +16693,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>18975</v>
+        <v>143000</v>
       </c>
       <c r="C26">
         <v>19</v>
@@ -16701,29 +16701,29 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <f t="shared" si="0"/>
         <v>0.532710280373832</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="5">
         <f t="shared" si="1"/>
-        <v>40606.5</v>
+        <v>306020</v>
       </c>
       <c r="G26">
         <f t="shared" si="2"/>
-        <v>91080</v>
+        <v>686400</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
         <v>38</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="4">
         <f t="shared" si="4"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <f t="shared" si="5"/>
-        <v>298742.4</v>
+        <v>2251392</v>
       </c>
       <c r="K26">
         <f t="shared" si="6"/>
@@ -16735,7 +16735,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>21600</v>
+        <v>153000</v>
       </c>
       <c r="C27">
         <v>18</v>
@@ -16743,29 +16743,29 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f t="shared" si="1"/>
-        <v>44928</v>
+        <v>318240</v>
       </c>
       <c r="G27">
         <f t="shared" si="2"/>
-        <v>103680</v>
+        <v>734400</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
         <v>37</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="4">
         <f t="shared" si="4"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <f t="shared" si="5"/>
-        <v>333849.6</v>
+        <v>2364768</v>
       </c>
       <c r="K27">
         <f t="shared" si="6"/>
@@ -16777,37 +16777,37 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>24525</v>
+        <v>45000</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>300</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <f t="shared" si="0"/>
-        <v>0.557522123893805</v>
-      </c>
-      <c r="F28" s="6">
+        <v>0.947368421052632</v>
+      </c>
+      <c r="F28" s="5">
         <f t="shared" si="1"/>
-        <v>55426.5</v>
+        <v>854999.999999999</v>
       </c>
       <c r="G28">
         <f t="shared" si="2"/>
-        <v>117720</v>
+        <v>216000</v>
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
-        <v>40</v>
-      </c>
-      <c r="I28" s="5">
+        <v>319</v>
+      </c>
+      <c r="I28" s="4">
         <f t="shared" si="4"/>
-        <v>0.705882352941177</v>
-      </c>
-      <c r="J28" s="6">
+        <v>0.950347567030784</v>
+      </c>
+      <c r="J28" s="5">
         <f t="shared" si="5"/>
-        <v>400248</v>
+        <v>4350240</v>
       </c>
       <c r="K28">
         <f t="shared" si="6"/>
@@ -16819,7 +16819,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>27750</v>
+        <v>177000</v>
       </c>
       <c r="C29">
         <v>20</v>
@@ -16827,29 +16827,29 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <f t="shared" si="0"/>
         <v>0.545454545454545</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f t="shared" si="1"/>
-        <v>61050</v>
+        <v>389400</v>
       </c>
       <c r="G29">
         <f t="shared" si="2"/>
-        <v>133200</v>
+        <v>849600</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
         <v>39</v>
       </c>
-      <c r="I29" s="5">
+      <c r="I29" s="4">
         <f t="shared" si="4"/>
         <v>0.70059880239521</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <f t="shared" si="5"/>
-        <v>444888</v>
+        <v>2837664</v>
       </c>
       <c r="K29">
         <f t="shared" si="6"/>
@@ -16861,7 +16861,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>31500</v>
+        <v>189000</v>
       </c>
       <c r="C30">
         <v>22</v>
@@ -16869,29 +16869,29 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <f t="shared" si="0"/>
         <v>0.568965517241379</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f t="shared" si="1"/>
-        <v>73080</v>
+        <v>438480</v>
       </c>
       <c r="G30">
         <f t="shared" si="2"/>
-        <v>151200</v>
+        <v>907200</v>
       </c>
       <c r="H30">
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="I30" s="5">
+      <c r="I30" s="4">
         <f t="shared" si="4"/>
         <v>0.710982658959538</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <f t="shared" si="5"/>
-        <v>523152</v>
+        <v>3138912</v>
       </c>
       <c r="K30">
         <f t="shared" si="6"/>
@@ -16903,7 +16903,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>35850</v>
+        <v>225000</v>
       </c>
       <c r="C31">
         <v>23</v>
@@ -16911,29 +16911,29 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <f t="shared" si="0"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F31" s="5">
         <f t="shared" si="1"/>
-        <v>85323</v>
+        <v>535500</v>
       </c>
       <c r="G31">
         <f t="shared" si="2"/>
-        <v>172080</v>
+        <v>1080000</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="4">
         <f t="shared" si="4"/>
         <v>0.715909090909091</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <f t="shared" si="5"/>
-        <v>605721.6</v>
+        <v>3801600</v>
       </c>
       <c r="K31">
         <f t="shared" si="6"/>
@@ -16945,7 +16945,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>40800</v>
+        <v>250000</v>
       </c>
       <c r="C32">
         <v>23</v>
@@ -16953,29 +16953,29 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <f t="shared" si="0"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="5">
         <f t="shared" si="1"/>
-        <v>97104</v>
+        <v>595000</v>
       </c>
       <c r="G32">
         <f t="shared" si="2"/>
-        <v>195840</v>
+        <v>1200000</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
         <v>42</v>
       </c>
-      <c r="I32" s="5">
+      <c r="I32" s="4">
         <f t="shared" si="4"/>
         <v>0.715909090909091</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <f t="shared" si="5"/>
-        <v>689356.8</v>
+        <v>4224000</v>
       </c>
       <c r="K32">
         <f t="shared" si="6"/>
@@ -16987,7 +16987,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>46350</v>
+        <v>300000</v>
       </c>
       <c r="C33">
         <v>26</v>
@@ -16995,29 +16995,29 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E33" s="4">
         <f t="shared" si="0"/>
         <v>0.609375</v>
       </c>
-      <c r="F33" s="6">
+      <c r="F33" s="5">
         <f t="shared" si="1"/>
-        <v>118656</v>
+        <v>768000</v>
       </c>
       <c r="G33">
         <f t="shared" si="2"/>
-        <v>222480</v>
+        <v>1440000</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="4">
         <f t="shared" si="4"/>
         <v>0.72972972972973</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <f t="shared" si="5"/>
-        <v>823176</v>
+        <v>5328000</v>
       </c>
       <c r="K33">
         <f t="shared" si="6"/>
@@ -17029,7 +17029,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>52500</v>
+        <v>325000</v>
       </c>
       <c r="C34">
         <v>26</v>
@@ -17037,29 +17037,29 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <f t="shared" ref="E34:E56" si="7">0.06*C34/(1+0.06*C34)</f>
         <v>0.609375</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="5">
         <f t="shared" si="1"/>
-        <v>134400</v>
+        <v>832000</v>
       </c>
       <c r="G34">
         <f t="shared" si="2"/>
-        <v>252000</v>
+        <v>1560000</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="I34" s="5">
+      <c r="I34" s="4">
         <f t="shared" si="4"/>
         <v>0.72972972972973</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <f t="shared" si="5"/>
-        <v>932400</v>
+        <v>5772000</v>
       </c>
       <c r="K34">
         <f t="shared" si="6"/>
@@ -17071,7 +17071,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>59250</v>
+        <v>345000</v>
       </c>
       <c r="C35">
         <v>26</v>
@@ -17079,29 +17079,29 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <f t="shared" si="7"/>
         <v>0.609375</v>
       </c>
-      <c r="F35" s="6">
+      <c r="F35" s="5">
         <f t="shared" ref="F35:F56" si="8">B35/(1-E35)</f>
-        <v>151680</v>
+        <v>883200</v>
       </c>
       <c r="G35">
         <f t="shared" ref="G35:G56" si="9">B35*4.8</f>
-        <v>284400</v>
+        <v>1656000</v>
       </c>
       <c r="H35">
         <f t="shared" ref="H35:H56" si="10">C35+19*D35</f>
         <v>45</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <f t="shared" ref="I35:I56" si="11">0.06*H35/(1+0.06*H35)</f>
         <v>0.72972972972973</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <f t="shared" ref="J35:J56" si="12">G35/(1-I35)</f>
-        <v>1052280</v>
+        <v>6127200</v>
       </c>
       <c r="K35">
         <f t="shared" ref="K35:K56" si="13">7.6591*A35*A35*A35-108.55*A35*A35+798.28*A35-518.31</f>
@@ -17113,7 +17113,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>65250</v>
+        <v>365000</v>
       </c>
       <c r="C36">
         <v>27</v>
@@ -17121,29 +17121,29 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E36" s="4">
         <f t="shared" si="7"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="5">
         <f t="shared" si="8"/>
-        <v>170955</v>
+        <v>956300</v>
       </c>
       <c r="G36">
         <f t="shared" si="9"/>
-        <v>313200</v>
+        <v>1752000</v>
       </c>
       <c r="H36">
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="I36" s="5">
+      <c r="I36" s="4">
         <f t="shared" si="11"/>
         <v>0.734042553191489</v>
       </c>
-      <c r="J36" s="6">
+      <c r="J36" s="5">
         <f t="shared" si="12"/>
-        <v>1177632</v>
+        <v>6587520</v>
       </c>
       <c r="K36">
         <f t="shared" si="13"/>
@@ -17155,7 +17155,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>72000</v>
+        <v>385000</v>
       </c>
       <c r="C37">
         <v>27</v>
@@ -17163,29 +17163,29 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="4">
         <f t="shared" si="7"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="F37" s="6">
+      <c r="F37" s="5">
         <f t="shared" si="8"/>
-        <v>188640</v>
+        <v>1008700</v>
       </c>
       <c r="G37">
         <f t="shared" si="9"/>
-        <v>345600</v>
+        <v>1848000</v>
       </c>
       <c r="H37">
         <f t="shared" si="10"/>
         <v>46</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="4">
         <f t="shared" si="11"/>
         <v>0.734042553191489</v>
       </c>
-      <c r="J37" s="6">
+      <c r="J37" s="5">
         <f t="shared" si="12"/>
-        <v>1299456</v>
+        <v>6948480</v>
       </c>
       <c r="K37">
         <f t="shared" si="13"/>
@@ -17197,37 +17197,37 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>78000</v>
+        <v>105000</v>
       </c>
       <c r="C38">
-        <v>26</v>
+        <v>400</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="4">
         <f t="shared" si="7"/>
-        <v>0.609375</v>
-      </c>
-      <c r="F38" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="F38" s="5">
         <f t="shared" si="8"/>
-        <v>199680</v>
+        <v>2625000</v>
       </c>
       <c r="G38">
         <f t="shared" si="9"/>
-        <v>374400</v>
+        <v>504000</v>
       </c>
       <c r="H38">
         <f t="shared" si="10"/>
-        <v>45</v>
-      </c>
-      <c r="I38" s="5">
+        <v>419</v>
+      </c>
+      <c r="I38" s="4">
         <f t="shared" si="11"/>
-        <v>0.72972972972973</v>
-      </c>
-      <c r="J38" s="6">
+        <v>0.961744452945677</v>
+      </c>
+      <c r="J38" s="5">
         <f t="shared" si="12"/>
-        <v>1385280</v>
+        <v>13174560</v>
       </c>
       <c r="K38">
         <f t="shared" si="13"/>
@@ -17239,7 +17239,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>84300</v>
+        <v>425000</v>
       </c>
       <c r="C39">
         <v>28</v>
@@ -17247,29 +17247,29 @@
       <c r="D39">
         <v>1</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="4">
         <f t="shared" si="7"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="F39" s="6">
+      <c r="F39" s="5">
         <f t="shared" si="8"/>
-        <v>225924</v>
+        <v>1139000</v>
       </c>
       <c r="G39">
         <f t="shared" si="9"/>
-        <v>404640</v>
+        <v>2040000</v>
       </c>
       <c r="H39">
         <f t="shared" si="10"/>
         <v>47</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="4">
         <f t="shared" si="11"/>
         <v>0.738219895287958</v>
       </c>
-      <c r="J39" s="6">
+      <c r="J39" s="5">
         <f t="shared" si="12"/>
-        <v>1545724.8</v>
+        <v>7792800</v>
       </c>
       <c r="K39">
         <f t="shared" si="13"/>
@@ -17281,7 +17281,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>91050</v>
+        <v>450000</v>
       </c>
       <c r="C40">
         <v>29</v>
@@ -17289,29 +17289,29 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="4">
         <f t="shared" si="7"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="5">
         <f t="shared" si="8"/>
-        <v>249477</v>
+        <v>1233000</v>
       </c>
       <c r="G40">
         <f t="shared" si="9"/>
-        <v>437040</v>
+        <v>2160000</v>
       </c>
       <c r="H40">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="4">
         <f t="shared" si="11"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J40" s="6">
+      <c r="J40" s="5">
         <f t="shared" si="12"/>
-        <v>1695715.2</v>
+        <v>8380800</v>
       </c>
       <c r="K40">
         <f t="shared" si="13"/>
@@ -17323,7 +17323,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>98100</v>
+        <v>510000</v>
       </c>
       <c r="C41">
         <v>29</v>
@@ -17331,29 +17331,29 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="4">
         <f t="shared" si="7"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="5">
         <f t="shared" si="8"/>
-        <v>268794</v>
+        <v>1397400</v>
       </c>
       <c r="G41">
         <f t="shared" si="9"/>
-        <v>470880</v>
+        <v>2448000</v>
       </c>
       <c r="H41">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="4">
         <f t="shared" si="11"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J41" s="6">
+      <c r="J41" s="5">
         <f t="shared" si="12"/>
-        <v>1827014.4</v>
+        <v>9498240</v>
       </c>
       <c r="K41">
         <f t="shared" si="13"/>
@@ -17365,7 +17365,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>105600</v>
+        <v>620000</v>
       </c>
       <c r="C42">
         <v>29</v>
@@ -17373,29 +17373,29 @@
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="4">
         <f t="shared" si="7"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F42" s="5">
         <f t="shared" si="8"/>
-        <v>289344</v>
+        <v>1698800</v>
       </c>
       <c r="G42">
         <f t="shared" si="9"/>
-        <v>506880</v>
+        <v>2976000</v>
       </c>
       <c r="H42">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="4">
         <f t="shared" si="11"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="5">
         <f t="shared" si="12"/>
-        <v>1966694.4</v>
+        <v>11546880</v>
       </c>
       <c r="K42">
         <f t="shared" si="13"/>
@@ -17407,7 +17407,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>113400</v>
+        <v>650000</v>
       </c>
       <c r="C43">
         <v>29</v>
@@ -17415,29 +17415,29 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E43" s="4">
         <f t="shared" si="7"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="5">
         <f t="shared" si="8"/>
-        <v>310716</v>
+        <v>1781000</v>
       </c>
       <c r="G43">
         <f t="shared" si="9"/>
-        <v>544320</v>
+        <v>3120000</v>
       </c>
       <c r="H43">
         <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="4">
         <f t="shared" si="11"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="5">
         <f t="shared" si="12"/>
-        <v>2111961.6</v>
+        <v>12105600</v>
       </c>
       <c r="K43">
         <f t="shared" si="13"/>
@@ -17449,7 +17449,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>121500</v>
+        <v>680000</v>
       </c>
       <c r="C44">
         <v>30</v>
@@ -17457,29 +17457,29 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E44" s="4">
         <f t="shared" si="7"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="5">
         <f t="shared" si="8"/>
-        <v>340200</v>
+        <v>1904000</v>
       </c>
       <c r="G44">
         <f t="shared" si="9"/>
-        <v>583200</v>
+        <v>3264000</v>
       </c>
       <c r="H44">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="4">
         <f t="shared" si="11"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="5">
         <f t="shared" si="12"/>
-        <v>2297808</v>
+        <v>12860160</v>
       </c>
       <c r="K44">
         <f t="shared" si="13"/>
@@ -17491,7 +17491,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>130050</v>
+        <v>710000</v>
       </c>
       <c r="C45">
         <v>30</v>
@@ -17499,29 +17499,29 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E45" s="4">
         <f t="shared" si="7"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="5">
         <f t="shared" si="8"/>
-        <v>364140</v>
+        <v>1988000</v>
       </c>
       <c r="G45">
         <f t="shared" si="9"/>
-        <v>624240</v>
+        <v>3408000</v>
       </c>
       <c r="H45">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="4">
         <f t="shared" si="11"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="J45" s="6">
+      <c r="J45" s="5">
         <f t="shared" si="12"/>
-        <v>2459505.6</v>
+        <v>13427520</v>
       </c>
       <c r="K45">
         <f t="shared" si="13"/>
@@ -17533,7 +17533,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>139200</v>
+        <v>740000</v>
       </c>
       <c r="C46">
         <v>30</v>
@@ -17541,29 +17541,29 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" s="5">
+      <c r="E46" s="4">
         <f t="shared" si="7"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="5">
         <f t="shared" si="8"/>
-        <v>389760</v>
+        <v>2072000</v>
       </c>
       <c r="G46">
         <f t="shared" si="9"/>
-        <v>668160</v>
+        <v>3552000</v>
       </c>
       <c r="H46">
         <f t="shared" si="10"/>
         <v>49</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="4">
         <f t="shared" si="11"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="5">
         <f t="shared" si="12"/>
-        <v>2632550.4</v>
+        <v>13994880</v>
       </c>
       <c r="K46">
         <f t="shared" si="13"/>
@@ -17575,7 +17575,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>148800</v>
+        <v>760000</v>
       </c>
       <c r="C47">
         <v>31</v>
@@ -17583,29 +17583,29 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" s="5">
+      <c r="E47" s="4">
         <f t="shared" si="7"/>
         <v>0.65034965034965</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="5">
         <f t="shared" si="8"/>
-        <v>425568</v>
+        <v>2173600</v>
       </c>
       <c r="G47">
         <f t="shared" si="9"/>
-        <v>714240</v>
+        <v>3648000</v>
       </c>
       <c r="H47">
         <f t="shared" si="10"/>
         <v>50</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="4">
         <f t="shared" si="11"/>
         <v>0.75</v>
       </c>
-      <c r="J47" s="6">
+      <c r="J47" s="5">
         <f t="shared" si="12"/>
-        <v>2856960</v>
+        <v>14592000</v>
       </c>
       <c r="K47">
         <f t="shared" si="13"/>
@@ -17616,35 +17616,38 @@
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48">
+        <v>200000</v>
+      </c>
       <c r="C48">
         <v>500</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" s="5">
+      <c r="E48" s="4">
         <f t="shared" si="7"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>6200000.00000001</v>
       </c>
       <c r="G48">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>960000</v>
       </c>
       <c r="H48">
         <f t="shared" si="10"/>
         <v>519</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="4">
         <f t="shared" si="11"/>
         <v>0.968886123210952</v>
       </c>
-      <c r="J48" s="6">
+      <c r="J48" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>30854400</v>
       </c>
       <c r="K48">
         <f t="shared" si="13"/>
@@ -17656,7 +17659,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>175500</v>
+        <v>840000</v>
       </c>
       <c r="C49">
         <v>33</v>
@@ -17664,29 +17667,29 @@
       <c r="D49">
         <v>1</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="4">
         <f t="shared" si="7"/>
         <v>0.664429530201342</v>
       </c>
-      <c r="F49" s="6">
+      <c r="F49" s="5">
         <f t="shared" si="8"/>
-        <v>522990</v>
+        <v>2503200</v>
       </c>
       <c r="G49">
         <f t="shared" si="9"/>
-        <v>842400</v>
+        <v>4032000</v>
       </c>
       <c r="H49">
         <f t="shared" si="10"/>
         <v>52</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="4">
         <f t="shared" si="11"/>
         <v>0.757281553398058</v>
       </c>
-      <c r="J49" s="6">
+      <c r="J49" s="5">
         <f t="shared" si="12"/>
-        <v>3470688</v>
+        <v>16611840</v>
       </c>
       <c r="K49">
         <f t="shared" si="13"/>
@@ -17698,7 +17701,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>187500</v>
+        <v>870000</v>
       </c>
       <c r="C50">
         <v>33</v>
@@ -17706,29 +17709,29 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" s="5">
+      <c r="E50" s="4">
         <f t="shared" si="7"/>
         <v>0.664429530201342</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="5">
         <f t="shared" si="8"/>
-        <v>558750</v>
+        <v>2592600</v>
       </c>
       <c r="G50">
         <f t="shared" si="9"/>
-        <v>900000</v>
+        <v>4176000</v>
       </c>
       <c r="H50">
         <f t="shared" si="10"/>
         <v>52</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="4">
         <f t="shared" si="11"/>
         <v>0.757281553398058</v>
       </c>
-      <c r="J50" s="6">
+      <c r="J50" s="5">
         <f t="shared" si="12"/>
-        <v>3708000</v>
+        <v>17205120</v>
       </c>
       <c r="K50">
         <f t="shared" si="13"/>
@@ -17740,7 +17743,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>204000</v>
+        <v>950000</v>
       </c>
       <c r="C51">
         <v>35</v>
@@ -17748,29 +17751,29 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" s="5">
+      <c r="E51" s="4">
         <f t="shared" si="7"/>
         <v>0.67741935483871</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="5">
         <f t="shared" si="8"/>
-        <v>632400</v>
+        <v>2945000</v>
       </c>
       <c r="G51">
         <f t="shared" si="9"/>
-        <v>979200</v>
+        <v>4560000</v>
       </c>
       <c r="H51">
         <f t="shared" si="10"/>
         <v>54</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="4">
         <f t="shared" si="11"/>
         <v>0.764150943396226</v>
       </c>
-      <c r="J51" s="6">
+      <c r="J51" s="5">
         <f t="shared" si="12"/>
-        <v>4151808</v>
+        <v>19334400</v>
       </c>
       <c r="K51">
         <f t="shared" si="13"/>
@@ -17782,7 +17785,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>215800</v>
+        <v>1100000</v>
       </c>
       <c r="C52">
         <v>36</v>
@@ -17790,29 +17793,29 @@
       <c r="D52">
         <v>1</v>
       </c>
-      <c r="E52" s="5">
+      <c r="E52" s="4">
         <f t="shared" si="7"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="5">
         <f t="shared" si="8"/>
-        <v>681928</v>
+        <v>3476000</v>
       </c>
       <c r="G52">
         <f t="shared" si="9"/>
-        <v>1035840</v>
+        <v>5280000</v>
       </c>
       <c r="H52">
         <f t="shared" si="10"/>
         <v>55</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="4">
         <f t="shared" si="11"/>
         <v>0.767441860465116</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="5">
         <f t="shared" si="12"/>
-        <v>4454112</v>
+        <v>22704000</v>
       </c>
       <c r="K52">
         <f t="shared" si="13"/>
@@ -17824,7 +17827,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>231000</v>
+        <v>1200000</v>
       </c>
       <c r="C53">
         <v>36</v>
@@ -17832,29 +17835,29 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" s="5">
+      <c r="E53" s="4">
         <f t="shared" si="7"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="5">
         <f t="shared" si="8"/>
-        <v>729960</v>
+        <v>3792000</v>
       </c>
       <c r="G53">
         <f t="shared" si="9"/>
-        <v>1108800</v>
+        <v>5760000</v>
       </c>
       <c r="H53">
         <f t="shared" si="10"/>
         <v>55</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="4">
         <f t="shared" si="11"/>
         <v>0.767441860465116</v>
       </c>
-      <c r="J53" s="6">
+      <c r="J53" s="5">
         <f t="shared" si="12"/>
-        <v>4767840</v>
+        <v>24768000</v>
       </c>
       <c r="K53">
         <f t="shared" si="13"/>
@@ -17866,7 +17869,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>242000</v>
+        <v>1250000</v>
       </c>
       <c r="C54">
         <v>37</v>
@@ -17874,29 +17877,29 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54" s="5">
+      <c r="E54" s="4">
         <f t="shared" si="7"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="F54" s="6">
+      <c r="F54" s="5">
         <f t="shared" si="8"/>
-        <v>779240</v>
+        <v>4025000</v>
       </c>
       <c r="G54">
         <f t="shared" si="9"/>
-        <v>1161600</v>
+        <v>6000000</v>
       </c>
       <c r="H54">
         <f t="shared" si="10"/>
         <v>56</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="4">
         <f t="shared" si="11"/>
         <v>0.770642201834862</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="5">
         <f t="shared" si="12"/>
-        <v>5064576</v>
+        <v>26160000</v>
       </c>
       <c r="K54">
         <f t="shared" si="13"/>
@@ -17908,7 +17911,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>258000</v>
+        <v>1300000</v>
       </c>
       <c r="C55">
         <v>38</v>
@@ -17916,29 +17919,29 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="4">
         <f t="shared" si="7"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="5">
         <f t="shared" si="8"/>
-        <v>846240</v>
+        <v>4264000</v>
       </c>
       <c r="G55">
         <f t="shared" si="9"/>
-        <v>1238400</v>
+        <v>6240000</v>
       </c>
       <c r="H55">
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="4">
         <f t="shared" si="11"/>
         <v>0.773755656108597</v>
       </c>
-      <c r="J55" s="6">
+      <c r="J55" s="5">
         <f t="shared" si="12"/>
-        <v>5473728</v>
+        <v>27580800</v>
       </c>
       <c r="K55">
         <f t="shared" si="13"/>
@@ -17950,7 +17953,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>280000</v>
+        <v>1350000</v>
       </c>
       <c r="C56">
         <v>38</v>
@@ -17958,29 +17961,29 @@
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56" s="5">
+      <c r="E56" s="4">
         <f t="shared" si="7"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="5">
         <f t="shared" si="8"/>
-        <v>918400</v>
+        <v>4428000</v>
       </c>
       <c r="G56">
         <f t="shared" si="9"/>
-        <v>1344000</v>
+        <v>6480000</v>
       </c>
       <c r="H56">
         <f t="shared" si="10"/>
         <v>57</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="4">
         <f t="shared" si="11"/>
         <v>0.773755656108597</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="5">
         <f t="shared" si="12"/>
-        <v>5940480</v>
+        <v>28641600</v>
       </c>
       <c r="K56">
         <f t="shared" si="13"/>
@@ -18063,7 +18066,7 @@
         <f>A2/(A2+B2)</f>
         <v>0.833333333333333</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>626</v>
       </c>
       <c r="G2">
@@ -18108,7 +18111,7 @@
         <f>A3/(A3+B3)</f>
         <v>0.869565217391304</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="9" t="s">
         <v>627</v>
       </c>
       <c r="G3">
@@ -18153,7 +18156,7 @@
         <f t="shared" ref="C4:C11" si="0">A4/(A4+B4)</f>
         <v>0.882352941176471</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="9" t="s">
         <v>628</v>
       </c>
       <c r="G4">
@@ -18198,7 +18201,7 @@
         <f t="shared" si="0"/>
         <v>0.888888888888889</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>629</v>
       </c>
       <c r="G5">
@@ -18243,7 +18246,7 @@
         <f t="shared" si="0"/>
         <v>0.892857142857143</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>630</v>
       </c>
       <c r="G6">
@@ -18288,7 +18291,7 @@
         <f t="shared" si="0"/>
         <v>0.895522388059702</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="9" t="s">
         <v>631</v>
       </c>
       <c r="G7">
@@ -18465,7 +18468,7 @@
   <sheetPr/>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -18629,7 +18632,7 @@
       <c r="E6">
         <v>6000</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>649</v>
       </c>
       <c r="K6">
@@ -18740,7 +18743,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
@@ -18763,7 +18766,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="3"/>
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
         <v>554</v>
       </c>
@@ -18776,7 +18779,7 @@
       <c r="G13">
         <v>10</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>662</v>
       </c>
       <c r="K13">
@@ -18784,7 +18787,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="1"/>
       <c r="B14" t="s">
         <v>555</v>
       </c>
@@ -18808,7 +18811,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="1"/>
       <c r="B15" t="s">
         <v>666</v>
       </c>
@@ -18832,7 +18835,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="3"/>
+      <c r="A16" s="1"/>
       <c r="B16" t="s">
         <v>557</v>
       </c>
@@ -18847,7 +18850,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="3"/>
+      <c r="A17" s="1"/>
       <c r="B17" t="s">
         <v>671</v>
       </c>
@@ -18871,7 +18874,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3"/>
+      <c r="A18" s="1"/>
       <c r="B18" t="s">
         <v>559</v>
       </c>
@@ -18895,7 +18898,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="3"/>
+      <c r="A19" s="1"/>
       <c r="B19" t="s">
         <v>563</v>
       </c>
@@ -18910,7 +18913,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="3"/>
+      <c r="A20" s="1"/>
       <c r="B20" t="s">
         <v>561</v>
       </c>
@@ -18920,7 +18923,7 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="9" t="s">
         <v>677</v>
       </c>
       <c r="I20">
@@ -18931,7 +18934,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="3"/>
+      <c r="A21" s="1"/>
       <c r="B21" t="s">
         <v>678</v>
       </c>
@@ -18946,7 +18949,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="3"/>
+      <c r="A22" s="1"/>
       <c r="B22" t="s">
         <v>565</v>
       </c>
@@ -18970,7 +18973,7 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="3"/>
+      <c r="A23" s="1"/>
       <c r="B23" t="s">
         <v>682</v>
       </c>
@@ -19075,7 +19078,7 @@
       <c r="G27">
         <v>10</v>
       </c>
-      <c r="H27" s="10" t="s">
+      <c r="H27" s="9" t="s">
         <v>690</v>
       </c>
       <c r="K27">
@@ -19138,7 +19141,7 @@
       <c r="D30">
         <v>4</v>
       </c>
-      <c r="H30" s="10" t="s">
+      <c r="H30" s="9" t="s">
         <v>694</v>
       </c>
       <c r="I30">
@@ -19446,7 +19449,7 @@
       <c r="G43">
         <v>15</v>
       </c>
-      <c r="H43" s="10" t="s">
+      <c r="H43" s="9" t="s">
         <v>716</v>
       </c>
       <c r="K43">

--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="764">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="765">
   <si>
     <t>序号</t>
   </si>
@@ -1857,6 +1857,9 @@
   </si>
   <si>
     <t>波数</t>
+  </si>
+  <si>
+    <t>血量模型</t>
   </si>
   <si>
     <t>血量</t>
@@ -3082,7 +3085,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>进攻怪!$F$1</c:f>
+              <c:f>进攻怪!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3164,7 +3167,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>进攻怪!$F$2:$F$56</c:f>
+              <c:f>进攻怪!$G$2:$G$56</c:f>
               <c:numCache>
                 <c:formatCode>0_ </c:formatCode>
                 <c:ptCount val="55"/>
@@ -3259,79 +3262,79 @@
                   <c:v>535500</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>595000</c:v>
+                  <c:v>535500</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>768000</c:v>
+                  <c:v>204800</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>832000</c:v>
+                  <c:v>576000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>883200</c:v>
+                  <c:v>576000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>956300</c:v>
+                  <c:v>589500</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1008700</c:v>
+                  <c:v>589500</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2625000</c:v>
+                  <c:v>1312500</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1139000</c:v>
+                  <c:v>603000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1233000</c:v>
+                  <c:v>616500</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1397400</c:v>
+                  <c:v>698700</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1698800</c:v>
+                  <c:v>849400</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1781000</c:v>
+                  <c:v>890500</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1904000</c:v>
+                  <c:v>952000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1988000</c:v>
+                  <c:v>994000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2072000</c:v>
+                  <c:v>1036000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2173600</c:v>
+                  <c:v>1086800</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>6200000.00000001</c:v>
+                  <c:v>3100000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2503200</c:v>
+                  <c:v>1251600</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2592600</c:v>
+                  <c:v>1296300</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2945000</c:v>
+                  <c:v>1472500</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>3476000</c:v>
+                  <c:v>1738000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>3792000</c:v>
+                  <c:v>1896000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>4025000</c:v>
+                  <c:v>2012500</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>4264000</c:v>
+                  <c:v>2132000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>4428000</c:v>
+                  <c:v>2214000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3600,7 +3603,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>进攻怪!$B$1</c:f>
+              <c:f>进攻怪!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3680,7 +3683,7 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>进攻怪!$B$2:$B$56</c:f>
+              <c:f>进攻怪!$C$2:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="55"/>
@@ -3775,79 +3778,79 @@
                   <c:v>225000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>250000</c:v>
+                  <c:v>225000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>300000</c:v>
+                  <c:v>80000</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>52500</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>225000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>255000</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>310000</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>325000</c:v>
                 </c:pt>
-                <c:pt idx="33">
-                  <c:v>345000</c:v>
+                <c:pt idx="42">
+                  <c:v>340000</c:v>
                 </c:pt>
-                <c:pt idx="34">
-                  <c:v>365000</c:v>
+                <c:pt idx="43">
+                  <c:v>355000</c:v>
                 </c:pt>
-                <c:pt idx="35">
-                  <c:v>385000</c:v>
+                <c:pt idx="44">
+                  <c:v>370000</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>105000</c:v>
+                <c:pt idx="45">
+                  <c:v>380000</c:v>
                 </c:pt>
-                <c:pt idx="37">
-                  <c:v>425000</c:v>
+                <c:pt idx="46">
+                  <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="38">
-                  <c:v>450000</c:v>
+                <c:pt idx="47">
+                  <c:v>420000</c:v>
                 </c:pt>
-                <c:pt idx="39">
-                  <c:v>510000</c:v>
+                <c:pt idx="48">
+                  <c:v>435000</c:v>
                 </c:pt>
-                <c:pt idx="40">
-                  <c:v>620000</c:v>
+                <c:pt idx="49">
+                  <c:v>475000</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="50">
+                  <c:v>550000</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>600000</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>625000</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>650000</c:v>
                 </c:pt>
-                <c:pt idx="42">
-                  <c:v>680000</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>710000</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>740000</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>760000</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>200000</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>840000</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>870000</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>950000</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1100000</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1200000</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1250000</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1300000</c:v>
-                </c:pt>
                 <c:pt idx="54">
-                  <c:v>1350000</c:v>
+                  <c:v>675000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5177,13 +5180,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>536575</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>73025</xdr:rowOff>
@@ -5194,7 +5197,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9213850" y="4016375"/>
+        <a:off x="9947275" y="4016375"/>
         <a:ext cx="4848225" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -5207,13 +5210,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
@@ -5224,7 +5227,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="10061575" y="796925"/>
+        <a:off x="10795000" y="796925"/>
         <a:ext cx="4572000" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -15633,22 +15636,23 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K56"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="13.75"/>
-    <col min="9" max="9" width="12.125" customWidth="1"/>
-    <col min="10" max="10" width="12.875" customWidth="1"/>
-    <col min="11" max="11" width="12.625"/>
+    <col min="2" max="2" width="9.625" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="13.75"/>
+    <col min="10" max="10" width="12.125" customWidth="1"/>
+    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="12" max="12" width="12.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>612</v>
       </c>
@@ -15679,2314 +15683,2537 @@
       <c r="J1" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="K1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <f>8.8835*A2^3-82.212*A2^2+2388.7*A2-8265.5</f>
+        <v>-5950.1285</v>
+      </c>
+      <c r="C2">
         <v>1270</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-2</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2" s="4">
-        <f t="shared" ref="E2:E33" si="0">0.06*C2/(1+0.06*C2)</f>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F33" si="0">0.06*D2/(1+0.06*D2)</f>
         <v>-0.136363636363636</v>
       </c>
-      <c r="F2" s="5">
-        <f>B2/(1-E2)</f>
+      <c r="G2" s="5">
+        <f>C2/(1-F2)</f>
         <v>1117.6</v>
       </c>
-      <c r="G2">
-        <f>B2*4.8</f>
+      <c r="H2">
+        <f>C2*4.8</f>
         <v>6096</v>
       </c>
-      <c r="H2">
-        <f>C2+19*D2</f>
+      <c r="I2">
+        <f>D2+19*E2</f>
         <v>17</v>
       </c>
-      <c r="I2" s="4">
-        <f>0.06*H2/(1+0.06*H2)</f>
+      <c r="J2" s="4">
+        <f>0.06*I2/(1+0.06*I2)</f>
         <v>0.504950495049505</v>
       </c>
-      <c r="J2" s="5">
-        <f>G2/(1-I2)</f>
+      <c r="K2" s="5">
+        <f>H2/(1-J2)</f>
         <v>12313.92</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <f>7.6591*A2*A2*A2-108.55*A2*A2+798.28*A2-518.31</f>
         <v>179.0791</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <f t="shared" ref="B3:B34" si="1">8.8835*A3^3-82.212*A3^2+2388.7*A3-8265.5</f>
+        <v>-3745.88</v>
+      </c>
+      <c r="C3">
         <v>1630</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4">
         <f t="shared" si="0"/>
         <v>0.0566037735849057</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" ref="F3:F34" si="1">B3/(1-E3)</f>
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G34" si="2">C3/(1-F3)</f>
         <v>1727.8</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G34" si="2">B3*4.8</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H34" si="3">C3*4.8</f>
         <v>7824</v>
       </c>
-      <c r="H3">
-        <f t="shared" ref="H3:H34" si="3">C3+19*D3</f>
+      <c r="I3">
+        <f t="shared" ref="I3:I34" si="4">D3+19*E3</f>
         <v>20</v>
       </c>
-      <c r="I3" s="4">
-        <f t="shared" ref="I3:I34" si="4">0.06*H3/(1+0.06*H3)</f>
+      <c r="J3" s="4">
+        <f t="shared" ref="J3:J34" si="5">0.06*I3/(1+0.06*I3)</f>
         <v>0.545454545454545</v>
       </c>
-      <c r="J3" s="5">
-        <f t="shared" ref="J3:J34" si="5">G3/(1-I3)</f>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K34" si="6">H3/(1-J3)</f>
         <v>17212.8</v>
       </c>
-      <c r="K3">
-        <f t="shared" ref="K3:K34" si="6">7.6591*A3*A3*A3-108.55*A3*A3+798.28*A3-518.31</f>
+      <c r="L3">
+        <f t="shared" ref="L3:L34" si="7">7.6591*A3*A3*A3-108.55*A3*A3+798.28*A3-518.31</f>
         <v>705.3228</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <f t="shared" si="1"/>
+        <v>-1599.4535</v>
+      </c>
+      <c r="C4">
         <v>2090</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <f t="shared" si="0"/>
         <v>0.107142857142857</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" si="1"/>
+      <c r="G4" s="5">
+        <f t="shared" si="2"/>
         <v>2340.8</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="2"/>
-        <v>10032</v>
       </c>
       <c r="H4">
         <f t="shared" si="3"/>
+        <v>10032</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="I4" s="4">
-        <f t="shared" si="4"/>
+      <c r="J4" s="4">
+        <f t="shared" si="5"/>
         <v>0.557522123893805</v>
       </c>
-      <c r="J4" s="5">
-        <f t="shared" si="5"/>
+      <c r="K4" s="5">
+        <f t="shared" si="6"/>
         <v>22672.32</v>
       </c>
-      <c r="K4">
-        <f t="shared" si="6"/>
+      <c r="L4">
+        <f t="shared" si="7"/>
         <v>1106.3757</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <f t="shared" si="1"/>
+        <v>542.451999999999</v>
+      </c>
+      <c r="C5">
         <v>2660</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <f t="shared" si="0"/>
         <v>0.193548387096774</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" si="1"/>
+      <c r="G5" s="5">
+        <f t="shared" si="2"/>
         <v>3298.4</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="2"/>
-        <v>12768</v>
       </c>
       <c r="H5">
         <f t="shared" si="3"/>
+        <v>12768</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="I5" s="4">
-        <f t="shared" si="4"/>
+      <c r="J5" s="4">
+        <f t="shared" si="5"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="J5" s="5">
-        <f t="shared" si="5"/>
+      <c r="K5" s="5">
+        <f t="shared" si="6"/>
         <v>30387.84</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="6"/>
+      <c r="L5">
+        <f t="shared" si="7"/>
         <v>1428.1924</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <f t="shared" si="1"/>
+        <v>2733.1375</v>
+      </c>
+      <c r="C6">
         <v>3350</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <f t="shared" si="0"/>
         <v>0.264705882352941</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="1"/>
+      <c r="G6" s="5">
+        <f t="shared" si="2"/>
         <v>4556</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="2"/>
-        <v>16080</v>
       </c>
       <c r="H6">
         <f t="shared" si="3"/>
+        <v>16080</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="I6" s="4">
-        <f t="shared" si="4"/>
+      <c r="J6" s="4">
+        <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="J6" s="5">
-        <f t="shared" si="5"/>
+      <c r="K6" s="5">
+        <f t="shared" si="6"/>
         <v>40200</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="6"/>
+      <c r="L6">
+        <f t="shared" si="7"/>
         <v>1716.7275</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>5025.904</v>
+      </c>
+      <c r="C7">
         <v>4180</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>8</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <f t="shared" si="0"/>
         <v>0.324324324324324</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="1"/>
+      <c r="G7" s="5">
+        <f t="shared" si="2"/>
         <v>6186.4</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="2"/>
-        <v>20064</v>
       </c>
       <c r="H7">
         <f t="shared" si="3"/>
+        <v>20064</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="I7" s="4">
-        <f t="shared" si="4"/>
+      <c r="J7" s="4">
+        <f t="shared" si="5"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="J7" s="5">
-        <f t="shared" si="5"/>
+      <c r="K7" s="5">
+        <f t="shared" si="6"/>
         <v>52567.68</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="6"/>
+      <c r="L7">
+        <f t="shared" si="7"/>
         <v>2017.9356</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
+        <v>7474.0525</v>
+      </c>
+      <c r="C8">
         <v>2000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>200</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <f t="shared" si="0"/>
         <v>0.923076923076923</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="1"/>
+      <c r="G8" s="5">
+        <f t="shared" si="2"/>
         <v>26000</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="2"/>
-        <v>9600</v>
       </c>
       <c r="H8">
         <f t="shared" si="3"/>
+        <v>9600</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="4"/>
         <v>219</v>
       </c>
-      <c r="I8" s="4">
-        <f t="shared" si="4"/>
+      <c r="J8" s="4">
+        <f t="shared" si="5"/>
         <v>0.929278642149929</v>
       </c>
-      <c r="J8" s="5">
-        <f t="shared" si="5"/>
+      <c r="K8" s="5">
+        <f t="shared" si="6"/>
         <v>135744</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="6"/>
+      <c r="L8">
+        <f t="shared" si="7"/>
         <v>2377.7713</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
+        <v>10130.884</v>
+      </c>
+      <c r="C9">
         <v>6280</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>1</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <f t="shared" si="0"/>
         <v>0.350649350649351</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="1"/>
+      <c r="G9" s="5">
+        <f t="shared" si="2"/>
         <v>9671.2</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="2"/>
-        <v>30144</v>
       </c>
       <c r="H9">
         <f t="shared" si="3"/>
+        <v>30144</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="I9" s="4">
-        <f t="shared" si="4"/>
+      <c r="J9" s="4">
+        <f t="shared" si="5"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="J9" s="5">
-        <f t="shared" si="5"/>
+      <c r="K9" s="5">
+        <f t="shared" si="6"/>
         <v>80785.92</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="6"/>
+      <c r="L9">
+        <f t="shared" si="7"/>
         <v>2842.1892</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <f t="shared" si="1"/>
+        <v>13049.6995</v>
+      </c>
+      <c r="C10">
         <v>7580</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <f t="shared" si="0"/>
         <v>0.350649350649351</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="1"/>
+      <c r="G10" s="5">
+        <f t="shared" si="2"/>
         <v>11673.2</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>36384</v>
       </c>
       <c r="H10">
         <f t="shared" si="3"/>
+        <v>36384</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="I10" s="4">
-        <f t="shared" si="4"/>
+      <c r="J10" s="4">
+        <f t="shared" si="5"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="J10" s="5">
-        <f t="shared" si="5"/>
+      <c r="K10" s="5">
+        <f t="shared" si="6"/>
         <v>97509.12</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="6"/>
+      <c r="L10">
+        <f t="shared" si="7"/>
         <v>3457.1439</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <f t="shared" si="1"/>
+        <v>16283.8</v>
+      </c>
+      <c r="C11">
         <v>13000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="1"/>
+      <c r="G11" s="5">
+        <f t="shared" si="2"/>
         <v>20800</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>62400</v>
       </c>
       <c r="H11">
         <f t="shared" si="3"/>
+        <v>62400</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="I11" s="4">
-        <f t="shared" si="4"/>
+      <c r="J11" s="4">
+        <f t="shared" si="5"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="J11" s="5">
-        <f t="shared" si="5"/>
+      <c r="K11" s="5">
+        <f t="shared" si="6"/>
         <v>170976</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="6"/>
+      <c r="L11">
+        <f t="shared" si="7"/>
         <v>4268.59</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <f t="shared" si="1"/>
+        <v>19886.4865</v>
+      </c>
+      <c r="C12">
         <v>22500</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>10</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1</v>
       </c>
-      <c r="E12" s="4">
+      <c r="F12" s="4">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="F12" s="5">
-        <f t="shared" si="1"/>
+      <c r="G12" s="5">
+        <f t="shared" si="2"/>
         <v>36000</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>108000</v>
       </c>
       <c r="H12">
         <f t="shared" si="3"/>
+        <v>108000</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="I12" s="4">
-        <f t="shared" si="4"/>
+      <c r="J12" s="4">
+        <f t="shared" si="5"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="J12" s="5">
-        <f t="shared" si="5"/>
+      <c r="K12" s="5">
+        <f t="shared" si="6"/>
         <v>295920</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="6"/>
+      <c r="L12">
+        <f t="shared" si="7"/>
         <v>5322.4821</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <f t="shared" si="1"/>
+        <v>23911.06</v>
+      </c>
+      <c r="C13">
         <v>25700</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>11</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="F13" s="4">
         <f t="shared" si="0"/>
         <v>0.397590361445783</v>
       </c>
-      <c r="F13" s="5">
-        <f t="shared" si="1"/>
+      <c r="G13" s="5">
+        <f t="shared" si="2"/>
         <v>42662</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>123360</v>
       </c>
       <c r="H13">
         <f t="shared" si="3"/>
+        <v>123360</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="I13" s="4">
-        <f t="shared" si="4"/>
+      <c r="J13" s="4">
+        <f t="shared" si="5"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="J13" s="5">
-        <f t="shared" si="5"/>
+      <c r="K13" s="5">
+        <f t="shared" si="6"/>
         <v>345408</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="6"/>
+      <c r="L13">
+        <f t="shared" si="7"/>
         <v>6664.7748</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <f t="shared" si="1"/>
+        <v>28410.8215</v>
+      </c>
+      <c r="C14">
         <v>29000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>11</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>1</v>
       </c>
-      <c r="E14" s="4">
+      <c r="F14" s="4">
         <f t="shared" si="0"/>
         <v>0.397590361445783</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" si="1"/>
+      <c r="G14" s="5">
+        <f t="shared" si="2"/>
         <v>48140</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="2"/>
-        <v>139200</v>
       </c>
       <c r="H14">
         <f t="shared" si="3"/>
+        <v>139200</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="I14" s="4">
-        <f t="shared" si="4"/>
+      <c r="J14" s="4">
+        <f t="shared" si="5"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="J14" s="5">
-        <f t="shared" si="5"/>
+      <c r="K14" s="5">
+        <f t="shared" si="6"/>
         <v>389760</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="6"/>
+      <c r="L14">
+        <f t="shared" si="7"/>
         <v>8341.4227</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <f t="shared" si="1"/>
+        <v>33439.072</v>
+      </c>
+      <c r="C15">
         <v>33000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>12</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>1</v>
       </c>
-      <c r="E15" s="4">
+      <c r="F15" s="4">
         <f t="shared" si="0"/>
         <v>0.418604651162791</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="1"/>
+      <c r="G15" s="5">
+        <f t="shared" si="2"/>
         <v>56760</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="2"/>
-        <v>158400</v>
       </c>
       <c r="H15">
         <f t="shared" si="3"/>
+        <v>158400</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" si="4"/>
+      <c r="J15" s="4">
+        <f t="shared" si="5"/>
         <v>0.65034965034965</v>
       </c>
-      <c r="J15" s="5">
-        <f t="shared" si="5"/>
+      <c r="K15" s="5">
+        <f t="shared" si="6"/>
         <v>453024</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="6"/>
+      <c r="L15">
+        <f t="shared" si="7"/>
         <v>10398.3804</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <f t="shared" si="1"/>
+        <v>39049.1125</v>
+      </c>
+      <c r="C16">
         <v>37000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>13</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1</v>
       </c>
-      <c r="E16" s="4">
+      <c r="F16" s="4">
         <f t="shared" si="0"/>
         <v>0.438202247191011</v>
       </c>
-      <c r="F16" s="5">
-        <f t="shared" si="1"/>
+      <c r="G16" s="5">
+        <f t="shared" si="2"/>
         <v>65860</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="2"/>
-        <v>177600</v>
       </c>
       <c r="H16">
         <f t="shared" si="3"/>
+        <v>177600</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="I16" s="4">
-        <f t="shared" si="4"/>
+      <c r="J16" s="4">
+        <f t="shared" si="5"/>
         <v>0.657534246575342</v>
       </c>
-      <c r="J16" s="5">
-        <f t="shared" si="5"/>
+      <c r="K16" s="5">
+        <f t="shared" si="6"/>
         <v>518592</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="6"/>
+      <c r="L16">
+        <f t="shared" si="7"/>
         <v>12881.6025</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <f t="shared" si="1"/>
+        <v>45294.244</v>
+      </c>
+      <c r="C17">
         <v>41000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>13</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1</v>
       </c>
-      <c r="E17" s="4">
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>0.438202247191011</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="1"/>
+      <c r="G17" s="5">
+        <f t="shared" si="2"/>
         <v>72980</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="2"/>
-        <v>196800</v>
       </c>
       <c r="H17">
         <f t="shared" si="3"/>
+        <v>196800</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="I17" s="4">
-        <f t="shared" si="4"/>
+      <c r="J17" s="4">
+        <f t="shared" si="5"/>
         <v>0.657534246575342</v>
       </c>
-      <c r="J17" s="5">
-        <f t="shared" si="5"/>
+      <c r="K17" s="5">
+        <f t="shared" si="6"/>
         <v>574656</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="6"/>
+      <c r="L17">
+        <f t="shared" si="7"/>
         <v>15837.0436</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <f t="shared" si="1"/>
+        <v>52227.7675</v>
+      </c>
+      <c r="C18">
         <v>12000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>300</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1</v>
       </c>
-      <c r="E18" s="4">
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>0.947368421052632</v>
       </c>
-      <c r="F18" s="5">
-        <f t="shared" si="1"/>
+      <c r="G18" s="5">
+        <f t="shared" si="2"/>
         <v>228000</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="2"/>
-        <v>57600</v>
       </c>
       <c r="H18">
         <f t="shared" si="3"/>
+        <v>57600</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
-      <c r="I18" s="4">
-        <f t="shared" si="4"/>
+      <c r="J18" s="4">
+        <f t="shared" si="5"/>
         <v>0.950347567030784</v>
       </c>
-      <c r="J18" s="5">
-        <f t="shared" si="5"/>
+      <c r="K18" s="5">
+        <f t="shared" si="6"/>
         <v>1160064</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="6"/>
+      <c r="L18">
+        <f t="shared" si="7"/>
         <v>19310.6583</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <f t="shared" si="1"/>
+        <v>59902.984</v>
+      </c>
+      <c r="C19">
         <v>51000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>15</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>1</v>
       </c>
-      <c r="E19" s="4">
+      <c r="F19" s="4">
         <f t="shared" si="0"/>
         <v>0.473684210526316</v>
       </c>
-      <c r="F19" s="5">
-        <f t="shared" si="1"/>
+      <c r="G19" s="5">
+        <f t="shared" si="2"/>
         <v>96900</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="2"/>
-        <v>244800</v>
       </c>
       <c r="H19">
         <f t="shared" si="3"/>
+        <v>244800</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="I19" s="4">
-        <f t="shared" si="4"/>
+      <c r="J19" s="4">
+        <f t="shared" si="5"/>
         <v>0.671052631578947</v>
       </c>
-      <c r="J19" s="5">
-        <f t="shared" si="5"/>
+      <c r="K19" s="5">
+        <f t="shared" si="6"/>
         <v>744192</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="6"/>
+      <c r="L19">
+        <f t="shared" si="7"/>
         <v>23348.4012</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <f t="shared" si="1"/>
+        <v>68373.1945</v>
+      </c>
+      <c r="C20">
         <v>62000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>16</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>1</v>
       </c>
-      <c r="E20" s="4">
+      <c r="F20" s="4">
         <f t="shared" si="0"/>
         <v>0.489795918367347</v>
       </c>
-      <c r="F20" s="5">
-        <f t="shared" si="1"/>
+      <c r="G20" s="5">
+        <f t="shared" si="2"/>
         <v>121520</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="2"/>
-        <v>297600</v>
       </c>
       <c r="H20">
         <f t="shared" si="3"/>
+        <v>297600</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="I20" s="4">
-        <f t="shared" si="4"/>
+      <c r="J20" s="4">
+        <f t="shared" si="5"/>
         <v>0.67741935483871</v>
       </c>
-      <c r="J20" s="5">
-        <f t="shared" si="5"/>
+      <c r="K20" s="5">
+        <f t="shared" si="6"/>
         <v>922560</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="6"/>
+      <c r="L20">
+        <f t="shared" si="7"/>
         <v>27996.2269</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <f t="shared" si="1"/>
+        <v>77691.7</v>
+      </c>
+      <c r="C21">
         <v>80000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>17</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>1</v>
       </c>
-      <c r="E21" s="4">
+      <c r="F21" s="4">
         <f t="shared" si="0"/>
         <v>0.504950495049505</v>
       </c>
-      <c r="F21" s="5">
-        <f t="shared" si="1"/>
+      <c r="G21" s="5">
+        <f t="shared" si="2"/>
         <v>161600</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="2"/>
-        <v>384000</v>
       </c>
       <c r="H21">
         <f t="shared" si="3"/>
+        <v>384000</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="I21" s="4">
-        <f t="shared" si="4"/>
+      <c r="J21" s="4">
+        <f t="shared" si="5"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="J21" s="5">
-        <f t="shared" si="5"/>
+      <c r="K21" s="5">
+        <f t="shared" si="6"/>
         <v>1213440</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="6"/>
+      <c r="L21">
+        <f t="shared" si="7"/>
         <v>33300.09</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
+        <f t="shared" si="1"/>
+        <v>87911.8015</v>
+      </c>
+      <c r="C22">
         <v>105000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>18</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>1</v>
       </c>
-      <c r="E22" s="4">
+      <c r="F22" s="4">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F22" s="5">
-        <f t="shared" si="1"/>
+      <c r="G22" s="5">
+        <f t="shared" si="2"/>
         <v>218400</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="2"/>
-        <v>504000</v>
       </c>
       <c r="H22">
         <f t="shared" si="3"/>
+        <v>504000</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="I22" s="4">
-        <f t="shared" si="4"/>
+      <c r="J22" s="4">
+        <f t="shared" si="5"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J22" s="5">
-        <f t="shared" si="5"/>
+      <c r="K22" s="5">
+        <f t="shared" si="6"/>
         <v>1622880</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="6"/>
+      <c r="L22">
+        <f t="shared" si="7"/>
         <v>39305.9451</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <f t="shared" si="1"/>
+        <v>99086.8</v>
+      </c>
+      <c r="C23">
         <v>114000</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>18</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>1</v>
       </c>
-      <c r="E23" s="4">
+      <c r="F23" s="4">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F23" s="5">
-        <f t="shared" si="1"/>
+      <c r="G23" s="5">
+        <f t="shared" si="2"/>
         <v>237120</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="2"/>
-        <v>547200</v>
       </c>
       <c r="H23">
         <f t="shared" si="3"/>
+        <v>547200</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="I23" s="4">
-        <f t="shared" si="4"/>
+      <c r="J23" s="4">
+        <f t="shared" si="5"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J23" s="5">
-        <f t="shared" si="5"/>
+      <c r="K23" s="5">
+        <f t="shared" si="6"/>
         <v>1761984</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="6"/>
+      <c r="L23">
+        <f t="shared" si="7"/>
         <v>46059.7468</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <f t="shared" si="1"/>
+        <v>111269.9965</v>
+      </c>
+      <c r="C24">
         <v>123000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>18</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="E24" s="4">
+      <c r="F24" s="4">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F24" s="5">
-        <f t="shared" si="1"/>
+      <c r="G24" s="5">
+        <f t="shared" si="2"/>
         <v>255840</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="2"/>
-        <v>590400</v>
       </c>
       <c r="H24">
         <f t="shared" si="3"/>
+        <v>590400</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="I24" s="4">
-        <f t="shared" si="4"/>
+      <c r="J24" s="4">
+        <f t="shared" si="5"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J24" s="5">
-        <f t="shared" si="5"/>
+      <c r="K24" s="5">
+        <f t="shared" si="6"/>
         <v>1901088</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="6"/>
+      <c r="L24">
+        <f t="shared" si="7"/>
         <v>53607.4497</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <f t="shared" si="1"/>
+        <v>124514.692</v>
+      </c>
+      <c r="C25">
         <v>133000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>18</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1</v>
       </c>
-      <c r="E25" s="4">
+      <c r="F25" s="4">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F25" s="5">
-        <f t="shared" si="1"/>
+      <c r="G25" s="5">
+        <f t="shared" si="2"/>
         <v>276640</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>638400</v>
       </c>
       <c r="H25">
         <f t="shared" si="3"/>
+        <v>638400</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="I25" s="4">
-        <f t="shared" si="4"/>
+      <c r="J25" s="4">
+        <f t="shared" si="5"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J25" s="5">
-        <f t="shared" si="5"/>
+      <c r="K25" s="5">
+        <f t="shared" si="6"/>
         <v>2055648</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="6"/>
+      <c r="L25">
+        <f t="shared" si="7"/>
         <v>61995.0084</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
+        <f t="shared" si="1"/>
+        <v>138874.1875</v>
+      </c>
+      <c r="C26">
         <v>143000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>19</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1</v>
       </c>
-      <c r="E26" s="4">
+      <c r="F26" s="4">
         <f t="shared" si="0"/>
         <v>0.532710280373832</v>
       </c>
-      <c r="F26" s="5">
-        <f t="shared" si="1"/>
+      <c r="G26" s="5">
+        <f t="shared" si="2"/>
         <v>306020</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>686400</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
+        <v>686400</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="I26" s="4">
-        <f t="shared" si="4"/>
+      <c r="J26" s="4">
+        <f t="shared" si="5"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="J26" s="5">
-        <f t="shared" si="5"/>
+      <c r="K26" s="5">
+        <f t="shared" si="6"/>
         <v>2251392</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="6"/>
+      <c r="L26">
+        <f t="shared" si="7"/>
         <v>71268.3775</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
+        <f t="shared" si="1"/>
+        <v>154401.784</v>
+      </c>
+      <c r="C27">
         <v>153000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>18</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="E27" s="4">
+      <c r="F27" s="4">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="F27" s="5">
-        <f t="shared" si="1"/>
+      <c r="G27" s="5">
+        <f t="shared" si="2"/>
         <v>318240</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="2"/>
-        <v>734400</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
+        <v>734400</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="I27" s="4">
-        <f t="shared" si="4"/>
+      <c r="J27" s="4">
+        <f t="shared" si="5"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="J27" s="5">
-        <f t="shared" si="5"/>
+      <c r="K27" s="5">
+        <f t="shared" si="6"/>
         <v>2364768</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="6"/>
+      <c r="L27">
+        <f t="shared" si="7"/>
         <v>81473.5116</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
+        <f t="shared" si="1"/>
+        <v>171150.7825</v>
+      </c>
+      <c r="C28">
         <v>45000</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>300</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1</v>
       </c>
-      <c r="E28" s="4">
+      <c r="F28" s="4">
         <f t="shared" si="0"/>
         <v>0.947368421052632</v>
       </c>
-      <c r="F28" s="5">
-        <f t="shared" si="1"/>
+      <c r="G28" s="5">
+        <f t="shared" si="2"/>
         <v>854999.999999999</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="2"/>
-        <v>216000</v>
       </c>
       <c r="H28">
         <f t="shared" si="3"/>
+        <v>216000</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="4"/>
         <v>319</v>
       </c>
-      <c r="I28" s="4">
-        <f t="shared" si="4"/>
+      <c r="J28" s="4">
+        <f t="shared" si="5"/>
         <v>0.950347567030784</v>
       </c>
-      <c r="J28" s="5">
-        <f t="shared" si="5"/>
+      <c r="K28" s="5">
+        <f t="shared" si="6"/>
         <v>4350240</v>
       </c>
-      <c r="K28">
-        <f t="shared" si="6"/>
+      <c r="L28">
+        <f t="shared" si="7"/>
         <v>92656.3653</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
+        <f t="shared" si="1"/>
+        <v>189174.484</v>
+      </c>
+      <c r="C29">
         <v>177000</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>20</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1</v>
       </c>
-      <c r="E29" s="4">
+      <c r="F29" s="4">
         <f t="shared" si="0"/>
         <v>0.545454545454545</v>
       </c>
-      <c r="F29" s="5">
-        <f t="shared" si="1"/>
+      <c r="G29" s="5">
+        <f t="shared" si="2"/>
         <v>389400</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="2"/>
-        <v>849600</v>
       </c>
       <c r="H29">
         <f t="shared" si="3"/>
+        <v>849600</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="I29" s="4">
-        <f t="shared" si="4"/>
+      <c r="J29" s="4">
+        <f t="shared" si="5"/>
         <v>0.70059880239521</v>
       </c>
-      <c r="J29" s="5">
-        <f t="shared" si="5"/>
+      <c r="K29" s="5">
+        <f t="shared" si="6"/>
         <v>2837664</v>
       </c>
-      <c r="K29">
-        <f t="shared" si="6"/>
+      <c r="L29">
+        <f t="shared" si="7"/>
         <v>104862.8932</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
+        <f t="shared" si="1"/>
+        <v>208526.1895</v>
+      </c>
+      <c r="C30">
         <v>189000</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>22</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="E30" s="4">
+      <c r="F30" s="4">
         <f t="shared" si="0"/>
         <v>0.568965517241379</v>
       </c>
-      <c r="F30" s="5">
-        <f t="shared" si="1"/>
+      <c r="G30" s="5">
+        <f t="shared" si="2"/>
         <v>438480</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="2"/>
-        <v>907200</v>
       </c>
       <c r="H30">
         <f t="shared" si="3"/>
+        <v>907200</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="I30" s="4">
-        <f t="shared" si="4"/>
+      <c r="J30" s="4">
+        <f t="shared" si="5"/>
         <v>0.710982658959538</v>
       </c>
-      <c r="J30" s="5">
-        <f t="shared" si="5"/>
+      <c r="K30" s="5">
+        <f t="shared" si="6"/>
         <v>3138912</v>
       </c>
-      <c r="K30">
-        <f t="shared" si="6"/>
+      <c r="L30">
+        <f t="shared" si="7"/>
         <v>118139.0499</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
+        <f t="shared" si="1"/>
+        <v>229259.2</v>
+      </c>
+      <c r="C31">
         <v>225000</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>23</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1</v>
       </c>
-      <c r="E31" s="4">
+      <c r="F31" s="4">
         <f t="shared" si="0"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="F31" s="5">
-        <f t="shared" si="1"/>
+      <c r="G31" s="5">
+        <f t="shared" si="2"/>
         <v>535500</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="2"/>
-        <v>1080000</v>
       </c>
       <c r="H31">
         <f t="shared" si="3"/>
+        <v>1080000</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="I31" s="4">
-        <f t="shared" si="4"/>
+      <c r="J31" s="4">
+        <f t="shared" si="5"/>
         <v>0.715909090909091</v>
       </c>
-      <c r="J31" s="5">
-        <f t="shared" si="5"/>
+      <c r="K31" s="5">
+        <f t="shared" si="6"/>
         <v>3801600</v>
       </c>
-      <c r="K31">
-        <f t="shared" si="6"/>
+      <c r="L31">
+        <f t="shared" si="7"/>
         <v>132530.79</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>250000</v>
+        <f t="shared" si="1"/>
+        <v>251426.8165</v>
       </c>
       <c r="C32">
+        <v>225000</v>
+      </c>
+      <c r="D32">
         <v>23</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="E32" s="4">
+      <c r="F32" s="4">
         <f t="shared" si="0"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="F32" s="5">
-        <f t="shared" si="1"/>
-        <v>595000</v>
-      </c>
-      <c r="G32">
+      <c r="G32" s="5">
         <f t="shared" si="2"/>
-        <v>1200000</v>
+        <v>535500</v>
       </c>
       <c r="H32">
         <f t="shared" si="3"/>
+        <v>1080000</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="I32" s="4">
-        <f t="shared" si="4"/>
+      <c r="J32" s="4">
+        <f t="shared" si="5"/>
         <v>0.715909090909091</v>
       </c>
-      <c r="J32" s="5">
-        <f t="shared" si="5"/>
-        <v>4224000</v>
-      </c>
-      <c r="K32">
+      <c r="K32" s="5">
         <f t="shared" si="6"/>
+        <v>3801600</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="7"/>
         <v>148084.0681</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>300000</v>
+        <f t="shared" si="1"/>
+        <v>275082.34</v>
       </c>
       <c r="C33">
+        <v>80000</v>
+      </c>
+      <c r="D33">
         <v>26</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1</v>
       </c>
-      <c r="E33" s="4">
+      <c r="F33" s="4">
         <f t="shared" si="0"/>
         <v>0.609375</v>
       </c>
-      <c r="F33" s="5">
-        <f t="shared" si="1"/>
-        <v>768000</v>
-      </c>
-      <c r="G33">
+      <c r="G33" s="5">
         <f t="shared" si="2"/>
-        <v>1440000</v>
+        <v>204800</v>
       </c>
       <c r="H33">
         <f t="shared" si="3"/>
+        <v>384000</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="I33" s="4">
-        <f t="shared" si="4"/>
+      <c r="J33" s="4">
+        <f t="shared" si="5"/>
         <v>0.72972972972973</v>
       </c>
-      <c r="J33" s="5">
-        <f t="shared" si="5"/>
-        <v>5328000</v>
-      </c>
-      <c r="K33">
+      <c r="K33" s="5">
         <f t="shared" si="6"/>
+        <v>1420800</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="7"/>
         <v>164844.8388</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>325000</v>
+        <f t="shared" si="1"/>
+        <v>300279.0715</v>
       </c>
       <c r="C34">
+        <v>225000</v>
+      </c>
+      <c r="D34">
         <v>26</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1</v>
       </c>
-      <c r="E34" s="4">
-        <f t="shared" ref="E34:E56" si="7">0.06*C34/(1+0.06*C34)</f>
+      <c r="F34" s="4">
+        <f t="shared" ref="F34:F56" si="8">0.06*D34/(1+0.06*D34)</f>
         <v>0.609375</v>
       </c>
-      <c r="F34" s="5">
-        <f t="shared" si="1"/>
-        <v>832000</v>
-      </c>
-      <c r="G34">
+      <c r="G34" s="5">
         <f t="shared" si="2"/>
-        <v>1560000</v>
+        <v>576000</v>
       </c>
       <c r="H34">
         <f t="shared" si="3"/>
+        <v>1080000</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="I34" s="4">
-        <f t="shared" si="4"/>
+      <c r="J34" s="4">
+        <f t="shared" si="5"/>
         <v>0.72972972972973</v>
       </c>
-      <c r="J34" s="5">
-        <f t="shared" si="5"/>
-        <v>5772000</v>
-      </c>
-      <c r="K34">
+      <c r="K34" s="5">
         <f t="shared" si="6"/>
+        <v>3996000</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="7"/>
         <v>182859.0567</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>345000</v>
+        <f t="shared" ref="B35:B56" si="9">8.8835*A35^3-82.212*A35^2+2388.7*A35-8265.5</f>
+        <v>327070.312</v>
       </c>
       <c r="C35">
+        <v>225000</v>
+      </c>
+      <c r="D35">
         <v>26</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1</v>
       </c>
-      <c r="E35" s="4">
-        <f t="shared" si="7"/>
+      <c r="F35" s="4">
+        <f t="shared" si="8"/>
         <v>0.609375</v>
       </c>
-      <c r="F35" s="5">
-        <f t="shared" ref="F35:F56" si="8">B35/(1-E35)</f>
-        <v>883200</v>
-      </c>
-      <c r="G35">
-        <f t="shared" ref="G35:G56" si="9">B35*4.8</f>
-        <v>1656000</v>
+      <c r="G35" s="5">
+        <f t="shared" ref="G35:G56" si="10">C35/(1-F35)</f>
+        <v>576000</v>
       </c>
       <c r="H35">
-        <f t="shared" ref="H35:H56" si="10">C35+19*D35</f>
+        <f t="shared" ref="H35:H56" si="11">C35*4.8</f>
+        <v>1080000</v>
+      </c>
+      <c r="I35">
+        <f t="shared" ref="I35:I56" si="12">D35+19*E35</f>
         <v>45</v>
       </c>
-      <c r="I35" s="4">
-        <f t="shared" ref="I35:I56" si="11">0.06*H35/(1+0.06*H35)</f>
+      <c r="J35" s="4">
+        <f t="shared" ref="J35:J56" si="13">0.06*I35/(1+0.06*I35)</f>
         <v>0.72972972972973</v>
       </c>
-      <c r="J35" s="5">
-        <f t="shared" ref="J35:J56" si="12">G35/(1-I35)</f>
-        <v>6127200</v>
-      </c>
-      <c r="K35">
-        <f t="shared" ref="K35:K56" si="13">7.6591*A35*A35*A35-108.55*A35*A35+798.28*A35-518.31</f>
+      <c r="K35" s="5">
+        <f t="shared" ref="K35:K56" si="14">H35/(1-J35)</f>
+        <v>3996000</v>
+      </c>
+      <c r="L35">
+        <f t="shared" ref="L35:L56" si="15">7.6591*A35*A35*A35-108.55*A35*A35+798.28*A35-518.31</f>
         <v>202172.6764</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36">
-        <v>365000</v>
+        <f t="shared" si="9"/>
+        <v>355509.3625</v>
       </c>
       <c r="C36">
+        <v>225000</v>
+      </c>
+      <c r="D36">
         <v>27</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>1</v>
       </c>
-      <c r="E36" s="4">
-        <f t="shared" si="7"/>
+      <c r="F36" s="4">
+        <f t="shared" si="8"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="F36" s="5">
-        <f t="shared" si="8"/>
-        <v>956300</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="9"/>
-        <v>1752000</v>
+      <c r="G36" s="5">
+        <f t="shared" si="10"/>
+        <v>589500</v>
       </c>
       <c r="H36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>1080000</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
-      <c r="I36" s="4">
-        <f t="shared" si="11"/>
+      <c r="J36" s="4">
+        <f t="shared" si="13"/>
         <v>0.734042553191489</v>
       </c>
-      <c r="J36" s="5">
-        <f t="shared" si="12"/>
-        <v>6587520</v>
-      </c>
-      <c r="K36">
-        <f t="shared" si="13"/>
+      <c r="K36" s="5">
+        <f t="shared" si="14"/>
+        <v>4060800</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="15"/>
         <v>222831.6525</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>385000</v>
+        <f t="shared" si="9"/>
+        <v>385649.524</v>
       </c>
       <c r="C37">
+        <v>225000</v>
+      </c>
+      <c r="D37">
         <v>27</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>1</v>
       </c>
-      <c r="E37" s="4">
-        <f t="shared" si="7"/>
+      <c r="F37" s="4">
+        <f t="shared" si="8"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="F37" s="5">
-        <f t="shared" si="8"/>
-        <v>1008700</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="9"/>
-        <v>1848000</v>
+      <c r="G37" s="5">
+        <f t="shared" si="10"/>
+        <v>589500</v>
       </c>
       <c r="H37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>1080000</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
-      <c r="I37" s="4">
-        <f t="shared" si="11"/>
+      <c r="J37" s="4">
+        <f t="shared" si="13"/>
         <v>0.734042553191489</v>
       </c>
-      <c r="J37" s="5">
-        <f t="shared" si="12"/>
-        <v>6948480</v>
-      </c>
-      <c r="K37">
-        <f t="shared" si="13"/>
+      <c r="K37" s="5">
+        <f t="shared" si="14"/>
+        <v>4060800</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="15"/>
         <v>244881.9396</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38">
-        <v>105000</v>
+        <f t="shared" si="9"/>
+        <v>417544.0975</v>
       </c>
       <c r="C38">
+        <v>52500</v>
+      </c>
+      <c r="D38">
         <v>400</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>1</v>
       </c>
-      <c r="E38" s="4">
-        <f t="shared" si="7"/>
+      <c r="F38" s="4">
+        <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="F38" s="5">
-        <f t="shared" si="8"/>
-        <v>2625000</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="9"/>
-        <v>504000</v>
+      <c r="G38" s="5">
+        <f t="shared" si="10"/>
+        <v>1312500</v>
       </c>
       <c r="H38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>252000</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="12"/>
         <v>419</v>
       </c>
-      <c r="I38" s="4">
-        <f t="shared" si="11"/>
+      <c r="J38" s="4">
+        <f t="shared" si="13"/>
         <v>0.961744452945677</v>
       </c>
-      <c r="J38" s="5">
-        <f t="shared" si="12"/>
-        <v>13174560</v>
-      </c>
-      <c r="K38">
-        <f t="shared" si="13"/>
+      <c r="K38" s="5">
+        <f t="shared" si="14"/>
+        <v>6587280</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="15"/>
         <v>268369.4923</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>425000</v>
+        <f t="shared" si="9"/>
+        <v>451246.384</v>
       </c>
       <c r="C39">
+        <v>225000</v>
+      </c>
+      <c r="D39">
         <v>28</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>1</v>
       </c>
-      <c r="E39" s="4">
-        <f t="shared" si="7"/>
+      <c r="F39" s="4">
+        <f t="shared" si="8"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="F39" s="5">
-        <f t="shared" si="8"/>
-        <v>1139000</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="9"/>
-        <v>2040000</v>
+      <c r="G39" s="5">
+        <f t="shared" si="10"/>
+        <v>603000</v>
       </c>
       <c r="H39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>1080000</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
-      <c r="I39" s="4">
-        <f t="shared" si="11"/>
+      <c r="J39" s="4">
+        <f t="shared" si="13"/>
         <v>0.738219895287958</v>
       </c>
-      <c r="J39" s="5">
-        <f t="shared" si="12"/>
-        <v>7792800</v>
-      </c>
-      <c r="K39">
-        <f t="shared" si="13"/>
+      <c r="K39" s="5">
+        <f t="shared" si="14"/>
+        <v>4125600</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="15"/>
         <v>293340.2652</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40">
-        <v>450000</v>
+        <f t="shared" si="9"/>
+        <v>486809.6845</v>
       </c>
       <c r="C40">
+        <v>225000</v>
+      </c>
+      <c r="D40">
         <v>29</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>1</v>
       </c>
-      <c r="E40" s="4">
-        <f t="shared" si="7"/>
+      <c r="F40" s="4">
+        <f t="shared" si="8"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F40" s="5">
-        <f t="shared" si="8"/>
-        <v>1233000</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="9"/>
-        <v>2160000</v>
+      <c r="G40" s="5">
+        <f t="shared" si="10"/>
+        <v>616500</v>
       </c>
       <c r="H40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>1080000</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="I40" s="4">
-        <f t="shared" si="11"/>
+      <c r="J40" s="4">
+        <f t="shared" si="13"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J40" s="5">
-        <f t="shared" si="12"/>
-        <v>8380800</v>
-      </c>
-      <c r="K40">
-        <f t="shared" si="13"/>
+      <c r="K40" s="5">
+        <f t="shared" si="14"/>
+        <v>4190400</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="15"/>
         <v>319840.2129</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41">
-        <v>510000</v>
+        <f t="shared" si="9"/>
+        <v>524287.3</v>
       </c>
       <c r="C41">
+        <v>255000</v>
+      </c>
+      <c r="D41">
         <v>29</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>1</v>
       </c>
-      <c r="E41" s="4">
-        <f t="shared" si="7"/>
+      <c r="F41" s="4">
+        <f t="shared" si="8"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F41" s="5">
-        <f t="shared" si="8"/>
-        <v>1397400</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="9"/>
-        <v>2448000</v>
+      <c r="G41" s="5">
+        <f t="shared" si="10"/>
+        <v>698700</v>
       </c>
       <c r="H41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>1224000</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="I41" s="4">
-        <f t="shared" si="11"/>
+      <c r="J41" s="4">
+        <f t="shared" si="13"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J41" s="5">
-        <f t="shared" si="12"/>
-        <v>9498240</v>
-      </c>
-      <c r="K41">
-        <f t="shared" si="13"/>
+      <c r="K41" s="5">
+        <f t="shared" si="14"/>
+        <v>4749120</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="15"/>
         <v>347915.29</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>620000</v>
+        <f t="shared" si="9"/>
+        <v>563732.5315</v>
       </c>
       <c r="C42">
+        <v>310000</v>
+      </c>
+      <c r="D42">
         <v>29</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>1</v>
       </c>
-      <c r="E42" s="4">
-        <f t="shared" si="7"/>
+      <c r="F42" s="4">
+        <f t="shared" si="8"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F42" s="5">
-        <f t="shared" si="8"/>
-        <v>1698800</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="9"/>
-        <v>2976000</v>
+      <c r="G42" s="5">
+        <f t="shared" si="10"/>
+        <v>849400</v>
       </c>
       <c r="H42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>1488000</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="I42" s="4">
-        <f t="shared" si="11"/>
+      <c r="J42" s="4">
+        <f t="shared" si="13"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J42" s="5">
-        <f t="shared" si="12"/>
-        <v>11546880</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="13"/>
+      <c r="K42" s="5">
+        <f t="shared" si="14"/>
+        <v>5773440</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="15"/>
         <v>377611.4511</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>650000</v>
+        <f t="shared" si="9"/>
+        <v>605198.68</v>
       </c>
       <c r="C43">
+        <v>325000</v>
+      </c>
+      <c r="D43">
         <v>29</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>1</v>
       </c>
-      <c r="E43" s="4">
-        <f t="shared" si="7"/>
+      <c r="F43" s="4">
+        <f t="shared" si="8"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="F43" s="5">
-        <f t="shared" si="8"/>
-        <v>1781000</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="9"/>
-        <v>3120000</v>
+      <c r="G43" s="5">
+        <f t="shared" si="10"/>
+        <v>890500</v>
       </c>
       <c r="H43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>1560000</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="I43" s="4">
-        <f t="shared" si="11"/>
+      <c r="J43" s="4">
+        <f t="shared" si="13"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="J43" s="5">
-        <f t="shared" si="12"/>
-        <v>12105600</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="13"/>
+      <c r="K43" s="5">
+        <f t="shared" si="14"/>
+        <v>6052800</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="15"/>
         <v>408974.6508</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44">
-        <v>680000</v>
+        <f t="shared" si="9"/>
+        <v>648739.0465</v>
       </c>
       <c r="C44">
+        <v>340000</v>
+      </c>
+      <c r="D44">
         <v>30</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>1</v>
       </c>
-      <c r="E44" s="4">
-        <f t="shared" si="7"/>
+      <c r="F44" s="4">
+        <f t="shared" si="8"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="F44" s="5">
-        <f t="shared" si="8"/>
-        <v>1904000</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="9"/>
-        <v>3264000</v>
+      <c r="G44" s="5">
+        <f t="shared" si="10"/>
+        <v>952000</v>
       </c>
       <c r="H44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>1632000</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
-      <c r="I44" s="4">
-        <f t="shared" si="11"/>
+      <c r="J44" s="4">
+        <f t="shared" si="13"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="J44" s="5">
-        <f t="shared" si="12"/>
-        <v>12860160</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="13"/>
+      <c r="K44" s="5">
+        <f t="shared" si="14"/>
+        <v>6430080</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="15"/>
         <v>442050.8437</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45">
-        <v>710000</v>
+        <f t="shared" si="9"/>
+        <v>694406.932</v>
       </c>
       <c r="C45">
+        <v>355000</v>
+      </c>
+      <c r="D45">
         <v>30</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>1</v>
       </c>
-      <c r="E45" s="4">
-        <f t="shared" si="7"/>
+      <c r="F45" s="4">
+        <f t="shared" si="8"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="F45" s="5">
-        <f t="shared" si="8"/>
-        <v>1988000</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="9"/>
-        <v>3408000</v>
+      <c r="G45" s="5">
+        <f t="shared" si="10"/>
+        <v>994000</v>
       </c>
       <c r="H45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>1704000</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
-      <c r="I45" s="4">
-        <f t="shared" si="11"/>
+      <c r="J45" s="4">
+        <f t="shared" si="13"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="J45" s="5">
-        <f t="shared" si="12"/>
-        <v>13427520</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="13"/>
+      <c r="K45" s="5">
+        <f t="shared" si="14"/>
+        <v>6713760</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="15"/>
         <v>476885.9844</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46">
-        <v>740000</v>
+        <f t="shared" si="9"/>
+        <v>742255.6375</v>
       </c>
       <c r="C46">
+        <v>370000</v>
+      </c>
+      <c r="D46">
         <v>30</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>1</v>
       </c>
-      <c r="E46" s="4">
-        <f t="shared" si="7"/>
+      <c r="F46" s="4">
+        <f t="shared" si="8"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="F46" s="5">
-        <f t="shared" si="8"/>
-        <v>2072000</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="9"/>
-        <v>3552000</v>
+      <c r="G46" s="5">
+        <f t="shared" si="10"/>
+        <v>1036000</v>
       </c>
       <c r="H46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>1776000</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
-      <c r="I46" s="4">
-        <f t="shared" si="11"/>
+      <c r="J46" s="4">
+        <f t="shared" si="13"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="J46" s="5">
-        <f t="shared" si="12"/>
-        <v>13994880</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="13"/>
+      <c r="K46" s="5">
+        <f t="shared" si="14"/>
+        <v>6997440</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="15"/>
         <v>513526.0275</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47">
-        <v>760000</v>
+        <f t="shared" si="9"/>
+        <v>792338.464</v>
       </c>
       <c r="C47">
+        <v>380000</v>
+      </c>
+      <c r="D47">
         <v>31</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>1</v>
       </c>
-      <c r="E47" s="4">
-        <f t="shared" si="7"/>
+      <c r="F47" s="4">
+        <f t="shared" si="8"/>
         <v>0.65034965034965</v>
       </c>
-      <c r="F47" s="5">
-        <f t="shared" si="8"/>
-        <v>2173600</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="9"/>
-        <v>3648000</v>
+      <c r="G47" s="5">
+        <f t="shared" si="10"/>
+        <v>1086800</v>
       </c>
       <c r="H47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>1824000</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="I47" s="4">
-        <f t="shared" si="11"/>
+      <c r="J47" s="4">
+        <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="J47" s="5">
-        <f t="shared" si="12"/>
-        <v>14592000</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="13"/>
+      <c r="K47" s="5">
+        <f t="shared" si="14"/>
+        <v>7296000</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="15"/>
         <v>552016.9276</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48">
-        <v>200000</v>
+        <f t="shared" si="9"/>
+        <v>844708.7125</v>
       </c>
       <c r="C48">
+        <v>100000</v>
+      </c>
+      <c r="D48">
         <v>500</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>1</v>
       </c>
-      <c r="E48" s="4">
-        <f t="shared" si="7"/>
+      <c r="F48" s="4">
+        <f t="shared" si="8"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="F48" s="5">
-        <f t="shared" si="8"/>
-        <v>6200000.00000001</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="9"/>
-        <v>960000</v>
+      <c r="G48" s="5">
+        <f t="shared" si="10"/>
+        <v>3100000</v>
       </c>
       <c r="H48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>480000</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="12"/>
         <v>519</v>
       </c>
-      <c r="I48" s="4">
-        <f t="shared" si="11"/>
+      <c r="J48" s="4">
+        <f t="shared" si="13"/>
         <v>0.968886123210952</v>
       </c>
-      <c r="J48" s="5">
-        <f t="shared" si="12"/>
-        <v>30854400</v>
-      </c>
-      <c r="K48">
-        <f t="shared" si="13"/>
+      <c r="K48" s="5">
+        <f t="shared" si="14"/>
+        <v>15427200</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="15"/>
         <v>592404.6393</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>840000</v>
+        <f t="shared" si="9"/>
+        <v>899419.684</v>
       </c>
       <c r="C49">
+        <v>420000</v>
+      </c>
+      <c r="D49">
         <v>33</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>1</v>
       </c>
-      <c r="E49" s="4">
-        <f t="shared" si="7"/>
+      <c r="F49" s="4">
+        <f t="shared" si="8"/>
         <v>0.664429530201342</v>
       </c>
-      <c r="F49" s="5">
-        <f t="shared" si="8"/>
-        <v>2503200</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="9"/>
-        <v>4032000</v>
+      <c r="G49" s="5">
+        <f t="shared" si="10"/>
+        <v>1251600</v>
       </c>
       <c r="H49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>2016000</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
-      <c r="I49" s="4">
-        <f t="shared" si="11"/>
+      <c r="J49" s="4">
+        <f t="shared" si="13"/>
         <v>0.757281553398058</v>
       </c>
-      <c r="J49" s="5">
-        <f t="shared" si="12"/>
-        <v>16611840</v>
-      </c>
-      <c r="K49">
-        <f t="shared" si="13"/>
+      <c r="K49" s="5">
+        <f t="shared" si="14"/>
+        <v>8305920</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="15"/>
         <v>634735.1172</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>870000</v>
+        <f t="shared" si="9"/>
+        <v>956524.6795</v>
       </c>
       <c r="C50">
+        <v>435000</v>
+      </c>
+      <c r="D50">
         <v>33</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>1</v>
       </c>
-      <c r="E50" s="4">
-        <f t="shared" si="7"/>
+      <c r="F50" s="4">
+        <f t="shared" si="8"/>
         <v>0.664429530201342</v>
       </c>
-      <c r="F50" s="5">
-        <f t="shared" si="8"/>
-        <v>2592600</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="9"/>
-        <v>4176000</v>
+      <c r="G50" s="5">
+        <f t="shared" si="10"/>
+        <v>1296300</v>
       </c>
       <c r="H50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>2088000</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
-      <c r="I50" s="4">
-        <f t="shared" si="11"/>
+      <c r="J50" s="4">
+        <f t="shared" si="13"/>
         <v>0.757281553398058</v>
       </c>
-      <c r="J50" s="5">
-        <f t="shared" si="12"/>
-        <v>17205120</v>
-      </c>
-      <c r="K50">
-        <f t="shared" si="13"/>
+      <c r="K50" s="5">
+        <f t="shared" si="14"/>
+        <v>8602560</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="15"/>
         <v>679054.3159</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51">
-        <v>950000</v>
+        <f t="shared" si="9"/>
+        <v>1016077</v>
       </c>
       <c r="C51">
+        <v>475000</v>
+      </c>
+      <c r="D51">
         <v>35</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>1</v>
       </c>
-      <c r="E51" s="4">
-        <f t="shared" si="7"/>
+      <c r="F51" s="4">
+        <f t="shared" si="8"/>
         <v>0.67741935483871</v>
       </c>
-      <c r="F51" s="5">
-        <f t="shared" si="8"/>
-        <v>2945000</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="9"/>
-        <v>4560000</v>
+      <c r="G51" s="5">
+        <f t="shared" si="10"/>
+        <v>1472500</v>
       </c>
       <c r="H51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>2280000</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
-      <c r="I51" s="4">
-        <f t="shared" si="11"/>
+      <c r="J51" s="4">
+        <f t="shared" si="13"/>
         <v>0.764150943396226</v>
       </c>
-      <c r="J51" s="5">
-        <f t="shared" si="12"/>
-        <v>19334400</v>
-      </c>
-      <c r="K51">
-        <f t="shared" si="13"/>
+      <c r="K51" s="5">
+        <f t="shared" si="14"/>
+        <v>9667200</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="15"/>
         <v>725408.19</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52">
-        <v>1100000</v>
+        <f t="shared" si="9"/>
+        <v>1078129.9465</v>
       </c>
       <c r="C52">
+        <v>550000</v>
+      </c>
+      <c r="D52">
         <v>36</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>1</v>
       </c>
-      <c r="E52" s="4">
-        <f t="shared" si="7"/>
+      <c r="F52" s="4">
+        <f t="shared" si="8"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="F52" s="5">
-        <f t="shared" si="8"/>
-        <v>3476000</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="9"/>
-        <v>5280000</v>
+      <c r="G52" s="5">
+        <f t="shared" si="10"/>
+        <v>1738000</v>
       </c>
       <c r="H52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>2640000</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
-      <c r="I52" s="4">
-        <f t="shared" si="11"/>
+      <c r="J52" s="4">
+        <f t="shared" si="13"/>
         <v>0.767441860465116</v>
       </c>
-      <c r="J52" s="5">
-        <f t="shared" si="12"/>
-        <v>22704000</v>
-      </c>
-      <c r="K52">
-        <f t="shared" si="13"/>
+      <c r="K52" s="5">
+        <f t="shared" si="14"/>
+        <v>11352000</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="15"/>
         <v>773842.6941</v>
       </c>
     </row>
-    <row r="53" spans="1:11">
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53">
-        <v>1200000</v>
+        <f t="shared" si="9"/>
+        <v>1142736.82</v>
       </c>
       <c r="C53">
+        <v>600000</v>
+      </c>
+      <c r="D53">
         <v>36</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>1</v>
       </c>
-      <c r="E53" s="4">
-        <f t="shared" si="7"/>
+      <c r="F53" s="4">
+        <f t="shared" si="8"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="F53" s="5">
-        <f t="shared" si="8"/>
-        <v>3792000</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="9"/>
-        <v>5760000</v>
+      <c r="G53" s="5">
+        <f t="shared" si="10"/>
+        <v>1896000</v>
       </c>
       <c r="H53">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>2880000</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
-      <c r="I53" s="4">
-        <f t="shared" si="11"/>
+      <c r="J53" s="4">
+        <f t="shared" si="13"/>
         <v>0.767441860465116</v>
       </c>
-      <c r="J53" s="5">
-        <f t="shared" si="12"/>
-        <v>24768000</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="13"/>
+      <c r="K53" s="5">
+        <f t="shared" si="14"/>
+        <v>12384000</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="15"/>
         <v>824403.7828</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54">
-        <v>1250000</v>
+        <f t="shared" si="9"/>
+        <v>1209950.9215</v>
       </c>
       <c r="C54">
+        <v>625000</v>
+      </c>
+      <c r="D54">
         <v>37</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>1</v>
       </c>
-      <c r="E54" s="4">
-        <f t="shared" si="7"/>
+      <c r="F54" s="4">
+        <f t="shared" si="8"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="F54" s="5">
-        <f t="shared" si="8"/>
-        <v>4025000</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="9"/>
-        <v>6000000</v>
+      <c r="G54" s="5">
+        <f t="shared" si="10"/>
+        <v>2012500</v>
       </c>
       <c r="H54">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>3000000</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
-      <c r="I54" s="4">
-        <f t="shared" si="11"/>
+      <c r="J54" s="4">
+        <f t="shared" si="13"/>
         <v>0.770642201834862</v>
       </c>
-      <c r="J54" s="5">
-        <f t="shared" si="12"/>
-        <v>26160000</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="13"/>
+      <c r="K54" s="5">
+        <f t="shared" si="14"/>
+        <v>13080000</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="15"/>
         <v>877137.4107</v>
       </c>
     </row>
-    <row r="55" spans="1:11">
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55">
-        <v>1300000</v>
+        <f t="shared" si="9"/>
+        <v>1279825.552</v>
       </c>
       <c r="C55">
+        <v>650000</v>
+      </c>
+      <c r="D55">
         <v>38</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>1</v>
       </c>
-      <c r="E55" s="4">
-        <f t="shared" si="7"/>
+      <c r="F55" s="4">
+        <f t="shared" si="8"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="F55" s="5">
-        <f t="shared" si="8"/>
-        <v>4264000</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="9"/>
-        <v>6240000</v>
+      <c r="G55" s="5">
+        <f t="shared" si="10"/>
+        <v>2132000</v>
       </c>
       <c r="H55">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>3120000</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
-      <c r="I55" s="4">
-        <f t="shared" si="11"/>
+      <c r="J55" s="4">
+        <f t="shared" si="13"/>
         <v>0.773755656108597</v>
       </c>
-      <c r="J55" s="5">
-        <f t="shared" si="12"/>
-        <v>27580800</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="13"/>
+      <c r="K55" s="5">
+        <f t="shared" si="14"/>
+        <v>13790400</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="15"/>
         <v>932089.5324</v>
       </c>
     </row>
-    <row r="56" spans="1:11">
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56">
-        <v>1350000</v>
+        <f t="shared" si="9"/>
+        <v>1352414.0125</v>
       </c>
       <c r="C56">
+        <v>675000</v>
+      </c>
+      <c r="D56">
         <v>38</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>1</v>
       </c>
-      <c r="E56" s="4">
-        <f t="shared" si="7"/>
+      <c r="F56" s="4">
+        <f t="shared" si="8"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="F56" s="5">
-        <f t="shared" si="8"/>
-        <v>4428000</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="9"/>
-        <v>6480000</v>
+      <c r="G56" s="5">
+        <f t="shared" si="10"/>
+        <v>2214000</v>
       </c>
       <c r="H56">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
+        <v>3240000</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
-      <c r="I56" s="4">
-        <f t="shared" si="11"/>
+      <c r="J56" s="4">
+        <f t="shared" si="13"/>
         <v>0.773755656108597</v>
       </c>
-      <c r="J56" s="5">
-        <f t="shared" si="12"/>
-        <v>28641600</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="13"/>
+      <c r="K56" s="5">
+        <f t="shared" si="14"/>
+        <v>14320800</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="15"/>
         <v>989306.1025</v>
       </c>
     </row>
@@ -18013,16 +18240,16 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="B1" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C1" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F1" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="G1">
         <v>1</v>
@@ -18067,7 +18294,7 @@
         <v>0.833333333333333</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -18112,7 +18339,7 @@
         <v>0.869565217391304</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -18157,7 +18384,7 @@
         <v>0.882352941176471</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G4">
         <v>20</v>
@@ -18202,7 +18429,7 @@
         <v>0.888888888888889</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="G5">
         <v>30</v>
@@ -18247,7 +18474,7 @@
         <v>0.892857142857143</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="G6">
         <v>40</v>
@@ -18292,7 +18519,7 @@
         <v>0.895522388059702</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="G7">
         <v>50</v>
@@ -18489,34 +18716,34 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D1" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="E1" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F1" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="G1" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="H1" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="I1" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J1" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K1" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="L1" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -18527,7 +18754,7 @@
         <v>536</v>
       </c>
       <c r="C2" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -18545,7 +18772,7 @@
         <v>539</v>
       </c>
       <c r="C3" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D3">
         <v>8</v>
@@ -18567,7 +18794,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -18588,7 +18815,7 @@
         <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="K4">
         <v>40</v>
@@ -18600,7 +18827,7 @@
         <v>543</v>
       </c>
       <c r="C5" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -18621,10 +18848,10 @@
     <row r="6" spans="1:11">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C6" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -18633,7 +18860,7 @@
         <v>6000</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="K6">
         <v>30</v>
@@ -18642,10 +18869,10 @@
     <row r="7" spans="1:11">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D7">
         <v>4</v>
@@ -18660,7 +18887,7 @@
         <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="K7">
         <v>65</v>
@@ -18672,7 +18899,7 @@
         <v>548</v>
       </c>
       <c r="C8" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D8">
         <v>4</v>
@@ -18694,22 +18921,22 @@
         <v>549</v>
       </c>
       <c r="C9" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D9">
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -18718,16 +18945,16 @@
         <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C11" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D11">
         <v>3</v>
@@ -18750,7 +18977,7 @@
         <v>553</v>
       </c>
       <c r="C12" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D12">
         <v>3</v>
@@ -18771,7 +18998,7 @@
         <v>554</v>
       </c>
       <c r="C13" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D13">
         <v>3</v>
@@ -18780,7 +19007,7 @@
         <v>10</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="K13">
         <v>30</v>
@@ -18792,7 +19019,7 @@
         <v>555</v>
       </c>
       <c r="C14" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -18801,22 +19028,22 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="K14">
         <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1"/>
       <c r="B15" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C15" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D15">
         <v>3</v>
@@ -18831,7 +19058,7 @@
         <v>25</v>
       </c>
       <c r="L15" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -18840,22 +19067,22 @@
         <v>557</v>
       </c>
       <c r="C16" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
       <c r="I16" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="1"/>
       <c r="B17" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C17" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D17">
         <v>3</v>
@@ -18879,7 +19106,7 @@
         <v>559</v>
       </c>
       <c r="C18" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D18">
         <v>4</v>
@@ -18894,7 +19121,7 @@
         <v>50</v>
       </c>
       <c r="L18" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -18903,13 +19130,13 @@
         <v>563</v>
       </c>
       <c r="C19" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -18918,13 +19145,13 @@
         <v>561</v>
       </c>
       <c r="C20" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D20">
         <v>3</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I20">
         <v>25</v>
@@ -18936,16 +19163,16 @@
     <row r="21" spans="1:10">
       <c r="A21" s="1"/>
       <c r="B21" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C21" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -18954,7 +19181,7 @@
         <v>565</v>
       </c>
       <c r="C22" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -18966,7 +19193,7 @@
         <v>17</v>
       </c>
       <c r="J22" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="K22">
         <v>60</v>
@@ -18975,10 +19202,10 @@
     <row r="23" spans="1:10">
       <c r="A23" s="1"/>
       <c r="B23" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C23" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D23">
         <v>3</v>
@@ -18987,7 +19214,7 @@
         <v>10</v>
       </c>
       <c r="J23" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -18998,7 +19225,7 @@
         <v>569</v>
       </c>
       <c r="C24" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D24">
         <v>3</v>
@@ -19022,7 +19249,7 @@
         <v>570</v>
       </c>
       <c r="C25" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D25">
         <v>3</v>
@@ -19034,7 +19261,7 @@
         <v>2</v>
       </c>
       <c r="J25" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K25">
         <v>20</v>
@@ -19046,7 +19273,7 @@
         <v>571</v>
       </c>
       <c r="C26" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D26">
         <v>3</v>
@@ -19067,7 +19294,7 @@
         <v>572</v>
       </c>
       <c r="C27" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D27">
         <v>3</v>
@@ -19079,7 +19306,7 @@
         <v>10</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="K27">
         <v>55</v>
@@ -19091,7 +19318,7 @@
         <v>573</v>
       </c>
       <c r="C28" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D28">
         <v>4</v>
@@ -19115,7 +19342,7 @@
         <v>574</v>
       </c>
       <c r="C29" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D29">
         <v>4</v>
@@ -19136,13 +19363,13 @@
         <v>575</v>
       </c>
       <c r="C30" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="H30" s="9" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="I30">
         <v>15</v>
@@ -19157,7 +19384,7 @@
         <v>576</v>
       </c>
       <c r="C31" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D31">
         <v>4</v>
@@ -19175,7 +19402,7 @@
         <v>50</v>
       </c>
       <c r="L31" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -19184,7 +19411,7 @@
         <v>577</v>
       </c>
       <c r="C32" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D32">
         <v>4</v>
@@ -19202,7 +19429,7 @@
         <v>60</v>
       </c>
       <c r="L32" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -19211,7 +19438,7 @@
         <v>578</v>
       </c>
       <c r="C33" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D33">
         <v>4</v>
@@ -19220,25 +19447,25 @@
     <row r="34" spans="1:10">
       <c r="A34" s="1"/>
       <c r="B34" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C34" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="1"/>
       <c r="B35" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C35" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -19256,10 +19483,10 @@
     <row r="36" spans="1:11">
       <c r="A36" s="1"/>
       <c r="B36" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C36" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -19288,7 +19515,7 @@
         <v>581</v>
       </c>
       <c r="C37" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D37">
         <v>5</v>
@@ -19312,7 +19539,7 @@
         <v>582</v>
       </c>
       <c r="C38" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D38">
         <v>3</v>
@@ -19336,7 +19563,7 @@
         <v>583</v>
       </c>
       <c r="C39" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D39">
         <v>3</v>
@@ -19351,7 +19578,7 @@
         <v>3</v>
       </c>
       <c r="J39" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K39">
         <v>30</v>
@@ -19363,13 +19590,13 @@
         <v>584</v>
       </c>
       <c r="C40" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D40">
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="G40">
         <v>10</v>
@@ -19387,10 +19614,10 @@
     <row r="41" spans="1:11">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C41" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D41">
         <v>4</v>
@@ -19408,10 +19635,10 @@
     <row r="42" spans="1:12">
       <c r="A42" s="1"/>
       <c r="B42" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C42" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D42">
         <v>3</v>
@@ -19429,16 +19656,16 @@
         <v>50</v>
       </c>
       <c r="L42" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" s="1"/>
       <c r="B43" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C43" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D43">
         <v>4</v>
@@ -19450,7 +19677,7 @@
         <v>15</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K43">
         <v>60</v>
@@ -19459,10 +19686,10 @@
     <row r="44" spans="1:11">
       <c r="A44" s="1"/>
       <c r="B44" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C44" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="D44">
         <v>3</v>
@@ -19477,16 +19704,16 @@
     <row r="45" spans="1:11">
       <c r="A45" s="1"/>
       <c r="B45" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C45" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="I45">
         <v>14</v>
@@ -19498,10 +19725,10 @@
     <row r="46" spans="1:11">
       <c r="A46" s="1"/>
       <c r="B46" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C46" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D46">
         <v>3</v>
@@ -19519,16 +19746,16 @@
     <row r="47" spans="1:11">
       <c r="A47" s="1"/>
       <c r="B47" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C47" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D47">
         <v>4</v>
       </c>
       <c r="I47" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="K47">
         <v>30</v>
@@ -19537,10 +19764,10 @@
     <row r="48" spans="1:11">
       <c r="A48" s="1"/>
       <c r="B48" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C48" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="D48">
         <v>4</v>
@@ -19555,10 +19782,10 @@
     <row r="49" spans="1:11">
       <c r="A49" s="1"/>
       <c r="B49" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C49" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="D49">
         <v>3</v>
@@ -19584,7 +19811,7 @@
         <v>597</v>
       </c>
       <c r="C50" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="D50">
         <v>3</v>
@@ -19605,7 +19832,7 @@
         <v>598</v>
       </c>
       <c r="C51" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="D51">
         <v>4</v>
@@ -19617,7 +19844,7 @@
         <v>15</v>
       </c>
       <c r="H51" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="J51">
         <v>400</v>
@@ -19632,7 +19859,7 @@
         <v>599</v>
       </c>
       <c r="C52" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D52">
         <v>3</v>
@@ -19653,10 +19880,10 @@
     <row r="53" spans="1:12">
       <c r="A53" s="1"/>
       <c r="B53" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C53" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D53">
         <v>3</v>
@@ -19674,7 +19901,7 @@
         <v>45</v>
       </c>
       <c r="L53" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -19683,7 +19910,7 @@
         <v>601</v>
       </c>
       <c r="C54" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D54">
         <v>10</v>
@@ -19710,7 +19937,7 @@
         <v>602</v>
       </c>
       <c r="C55" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D55">
         <v>7</v>
@@ -19719,7 +19946,7 @@
         <v>50</v>
       </c>
       <c r="H55" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="K55">
         <v>60</v>
@@ -19731,7 +19958,7 @@
         <v>603</v>
       </c>
       <c r="C56" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D56">
         <v>3</v>
@@ -19752,10 +19979,10 @@
     <row r="57" spans="1:11">
       <c r="A57" s="1"/>
       <c r="B57" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C57" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D57">
         <v>3</v>
@@ -19776,7 +20003,7 @@
         <v>605</v>
       </c>
       <c r="C58" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D58">
         <v>3</v>
@@ -19791,16 +20018,16 @@
         <v>45</v>
       </c>
       <c r="L58" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="1"/>
       <c r="B59" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C59" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D59">
         <v>4</v>
@@ -19815,10 +20042,10 @@
     <row r="60" spans="1:11">
       <c r="A60" s="1"/>
       <c r="B60" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C60" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D60">
         <v>4</v>
@@ -19836,10 +20063,10 @@
     <row r="61" spans="1:4">
       <c r="A61" s="1"/>
       <c r="B61" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C61" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D61">
         <v>3</v>
@@ -19848,10 +20075,10 @@
     <row r="62" spans="1:11">
       <c r="A62" s="1"/>
       <c r="B62" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C62" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="D62">
         <v>3</v>
@@ -19874,7 +20101,7 @@
         <v>608</v>
       </c>
       <c r="C63" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D63">
         <v>6</v>
@@ -19889,19 +20116,19 @@
         <v>800</v>
       </c>
       <c r="K63" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="L63" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="1"/>
       <c r="B64" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C64" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D64">
         <v>3</v>
@@ -19916,19 +20143,19 @@
         <v>700</v>
       </c>
       <c r="K64" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="L64" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="65" spans="1:11">
       <c r="A65" s="1"/>
       <c r="B65" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C65" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D65">
         <v>3</v>
@@ -19949,10 +20176,10 @@
     <row r="66" spans="1:4">
       <c r="A66" s="1"/>
       <c r="B66" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C66" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D66">
         <v>3</v>
@@ -19964,7 +20191,7 @@
         <v>610</v>
       </c>
       <c r="C67" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -19988,13 +20215,13 @@
         <v>611</v>
       </c>
       <c r="C68" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="I68">
         <v>15</v>

--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -3289,7 +3289,7 @@
                   <c:v>616500</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>698700</c:v>
+                  <c:v>274000</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>849400</c:v>
@@ -3313,7 +3313,7 @@
                   <c:v>3100000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1251600</c:v>
+                  <c:v>447000</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>1296300</c:v>
@@ -3805,7 +3805,7 @@
                   <c:v>225000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>255000</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>310000</c:v>
@@ -3829,7 +3829,7 @@
                   <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>420000</c:v>
+                  <c:v>150000</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>435000</c:v>
@@ -15639,7 +15639,7 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -17490,7 +17490,7 @@
         <v>524287.3</v>
       </c>
       <c r="C41">
-        <v>255000</v>
+        <v>100000</v>
       </c>
       <c r="D41">
         <v>29</v>
@@ -17504,11 +17504,11 @@
       </c>
       <c r="G41" s="5">
         <f t="shared" si="10"/>
-        <v>698700</v>
+        <v>274000</v>
       </c>
       <c r="H41">
         <f t="shared" si="11"/>
-        <v>1224000</v>
+        <v>480000</v>
       </c>
       <c r="I41">
         <f t="shared" si="12"/>
@@ -17520,7 +17520,7 @@
       </c>
       <c r="K41" s="5">
         <f t="shared" si="14"/>
-        <v>4749120</v>
+        <v>1862400</v>
       </c>
       <c r="L41">
         <f t="shared" si="15"/>
@@ -17858,7 +17858,7 @@
         <v>899419.684</v>
       </c>
       <c r="C49">
-        <v>420000</v>
+        <v>150000</v>
       </c>
       <c r="D49">
         <v>33</v>
@@ -17872,11 +17872,11 @@
       </c>
       <c r="G49" s="5">
         <f t="shared" si="10"/>
-        <v>1251600</v>
+        <v>447000</v>
       </c>
       <c r="H49">
         <f t="shared" si="11"/>
-        <v>2016000</v>
+        <v>720000</v>
       </c>
       <c r="I49">
         <f t="shared" si="12"/>
@@ -17888,7 +17888,7 @@
       </c>
       <c r="K49" s="5">
         <f t="shared" si="14"/>
-        <v>8305920</v>
+        <v>2966400</v>
       </c>
       <c r="L49">
         <f t="shared" si="15"/>

--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" activeTab="2"/>
+    <workbookView windowHeight="17940" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="塔的价值" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="进攻怪" sheetId="3" r:id="rId3"/>
     <sheet name="命中公式" sheetId="4" r:id="rId4"/>
     <sheet name="技能" sheetId="5" r:id="rId5"/>
+    <sheet name="兑换商店" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1766" uniqueCount="765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1991" uniqueCount="889">
   <si>
     <t>序号</t>
   </si>
@@ -2313,6 +2314,378 @@
   </si>
   <si>
     <t>0.5/1/1.5</t>
+  </si>
+  <si>
+    <t>总序号</t>
+  </si>
+  <si>
+    <t>页数</t>
+  </si>
+  <si>
+    <t>木材</t>
+  </si>
+  <si>
+    <t>物品ID</t>
+  </si>
+  <si>
+    <t>属性</t>
+  </si>
+  <si>
+    <t>数值</t>
+  </si>
+  <si>
+    <t>属性中文</t>
+  </si>
+  <si>
+    <t>命中+20</t>
+  </si>
+  <si>
+    <t>I069</t>
+  </si>
+  <si>
+    <t>exchangeHit</t>
+  </si>
+  <si>
+    <t>暴击率+0.5</t>
+  </si>
+  <si>
+    <t>I06A</t>
+  </si>
+  <si>
+    <t>exchangeCriticalRate</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>暴击倍数+0.02</t>
+  </si>
+  <si>
+    <t>I06B</t>
+  </si>
+  <si>
+    <t>exchangeCriticalDamage</t>
+  </si>
+  <si>
+    <t>暴击倍数</t>
+  </si>
+  <si>
+    <t>力量+5</t>
+  </si>
+  <si>
+    <t>I06C</t>
+  </si>
+  <si>
+    <t>exchangeStr</t>
+  </si>
+  <si>
+    <t>力量</t>
+  </si>
+  <si>
+    <t>敏捷+5</t>
+  </si>
+  <si>
+    <t>I06D</t>
+  </si>
+  <si>
+    <t>exchangeAgi</t>
+  </si>
+  <si>
+    <t>敏捷</t>
+  </si>
+  <si>
+    <t>智力+5</t>
+  </si>
+  <si>
+    <t>I06E</t>
+  </si>
+  <si>
+    <t>exchangeInt</t>
+  </si>
+  <si>
+    <t>智力</t>
+  </si>
+  <si>
+    <t>内力回复+0.2</t>
+  </si>
+  <si>
+    <t>I06F</t>
+  </si>
+  <si>
+    <t>exchangeManaRecovery</t>
+  </si>
+  <si>
+    <t>内力回复</t>
+  </si>
+  <si>
+    <t>伤害加成+0.005</t>
+  </si>
+  <si>
+    <t>I06G</t>
+  </si>
+  <si>
+    <t>exchangeDamage</t>
+  </si>
+  <si>
+    <t>伤害加成</t>
+  </si>
+  <si>
+    <t>冷却缩减+2</t>
+  </si>
+  <si>
+    <t>I06H</t>
+  </si>
+  <si>
+    <t>exchangeCooldownReduction</t>
+  </si>
+  <si>
+    <t>冷却缩减</t>
+  </si>
+  <si>
+    <t>杀怪金钱+1</t>
+  </si>
+  <si>
+    <t>I06I</t>
+  </si>
+  <si>
+    <t>exchangeKillGold</t>
+  </si>
+  <si>
+    <t>杀怪金钱</t>
+  </si>
+  <si>
+    <t>一键兑换</t>
+  </si>
+  <si>
+    <t>I06J</t>
+  </si>
+  <si>
+    <t>命中+50</t>
+  </si>
+  <si>
+    <t>I06K</t>
+  </si>
+  <si>
+    <t>暴击率+1</t>
+  </si>
+  <si>
+    <t>I06L</t>
+  </si>
+  <si>
+    <t>暴击倍数+0.05</t>
+  </si>
+  <si>
+    <t>I06M</t>
+  </si>
+  <si>
+    <t>力量+10</t>
+  </si>
+  <si>
+    <t>I06N</t>
+  </si>
+  <si>
+    <t>敏捷+10</t>
+  </si>
+  <si>
+    <t>I06O</t>
+  </si>
+  <si>
+    <t>智力+10</t>
+  </si>
+  <si>
+    <t>I06P</t>
+  </si>
+  <si>
+    <t>内力回复+0.5</t>
+  </si>
+  <si>
+    <t>I06Q</t>
+  </si>
+  <si>
+    <t>I06R</t>
+  </si>
+  <si>
+    <t>I06S</t>
+  </si>
+  <si>
+    <t>杀怪金钱+2</t>
+  </si>
+  <si>
+    <t>I06T</t>
+  </si>
+  <si>
+    <t>I06U</t>
+  </si>
+  <si>
+    <t>命中+100</t>
+  </si>
+  <si>
+    <t>I06V</t>
+  </si>
+  <si>
+    <t>暴击率+2</t>
+  </si>
+  <si>
+    <t>I06W</t>
+  </si>
+  <si>
+    <t>暴击倍数+0.1</t>
+  </si>
+  <si>
+    <t>I06X</t>
+  </si>
+  <si>
+    <t>力量+20</t>
+  </si>
+  <si>
+    <t>I06Y</t>
+  </si>
+  <si>
+    <t>敏捷+20</t>
+  </si>
+  <si>
+    <t>I06Z</t>
+  </si>
+  <si>
+    <t>智力+20</t>
+  </si>
+  <si>
+    <t>I070</t>
+  </si>
+  <si>
+    <t>内力回复+1</t>
+  </si>
+  <si>
+    <t>I071</t>
+  </si>
+  <si>
+    <t>I072</t>
+  </si>
+  <si>
+    <t>I073</t>
+  </si>
+  <si>
+    <t>杀怪金钱+3</t>
+  </si>
+  <si>
+    <t>I074</t>
+  </si>
+  <si>
+    <t>I075</t>
+  </si>
+  <si>
+    <t>命中+200</t>
+  </si>
+  <si>
+    <t>I076</t>
+  </si>
+  <si>
+    <t>暴击率+4</t>
+  </si>
+  <si>
+    <t>I077</t>
+  </si>
+  <si>
+    <t>暴击倍数+0.2</t>
+  </si>
+  <si>
+    <t>I078</t>
+  </si>
+  <si>
+    <t>力量+40</t>
+  </si>
+  <si>
+    <t>I079</t>
+  </si>
+  <si>
+    <t>敏捷+40</t>
+  </si>
+  <si>
+    <t>I07A</t>
+  </si>
+  <si>
+    <t>智力+40</t>
+  </si>
+  <si>
+    <t>I07B</t>
+  </si>
+  <si>
+    <t>内力回复+1.5</t>
+  </si>
+  <si>
+    <t>I07C</t>
+  </si>
+  <si>
+    <t>I07D</t>
+  </si>
+  <si>
+    <t>I07E</t>
+  </si>
+  <si>
+    <t>杀怪金钱+4</t>
+  </si>
+  <si>
+    <t>I07F</t>
+  </si>
+  <si>
+    <t>I07G</t>
+  </si>
+  <si>
+    <t>命中+400</t>
+  </si>
+  <si>
+    <t>I07H</t>
+  </si>
+  <si>
+    <t>暴击率+8</t>
+  </si>
+  <si>
+    <t>I07I</t>
+  </si>
+  <si>
+    <t>暴击倍数+0.4</t>
+  </si>
+  <si>
+    <t>I07J</t>
+  </si>
+  <si>
+    <t>力量+80</t>
+  </si>
+  <si>
+    <t>I07K</t>
+  </si>
+  <si>
+    <t>敏捷+80</t>
+  </si>
+  <si>
+    <t>I07L</t>
+  </si>
+  <si>
+    <t>智力+80</t>
+  </si>
+  <si>
+    <t>I07M</t>
+  </si>
+  <si>
+    <t>内力回复+2</t>
+  </si>
+  <si>
+    <t>I07N</t>
+  </si>
+  <si>
+    <t>I07O</t>
+  </si>
+  <si>
+    <t>I07P</t>
+  </si>
+  <si>
+    <t>杀怪金钱+5</t>
+  </si>
+  <si>
+    <t>I07Q</t>
+  </si>
+  <si>
+    <t>I07R</t>
   </si>
 </sst>
 </file>
@@ -2932,9 +3305,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9791,7 +10167,7 @@
       <c r="U1" t="s">
         <v>534</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="V1" s="10" t="s">
         <v>535</v>
       </c>
     </row>
@@ -9826,15 +10202,15 @@
       <c r="J2">
         <v>1.2</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <f>I2/J2</f>
         <v>60</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="7">
         <f>G2/K2</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="8">
         <v>3.48</v>
       </c>
       <c r="N2" t="s">
@@ -9878,15 +10254,15 @@
       <c r="J3">
         <v>1.2</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <f t="shared" ref="K3:K34" si="0">I3/J3</f>
         <v>28.3333333333333</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="7">
         <f t="shared" ref="L3:L47" si="1">G3/K3</f>
         <v>3.52941176470588</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="8"/>
       <c r="N3" t="s">
         <v>539</v>
       </c>
@@ -9897,7 +10273,7 @@
         <f>O3*8</f>
         <v>400</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="7">
         <f t="shared" ref="Q3:Q17" si="2">G3/O3</f>
         <v>2</v>
       </c>
@@ -9939,15 +10315,15 @@
       <c r="J4">
         <v>1.2</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <f t="shared" si="0"/>
         <v>73.3333333333333</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="7">
         <f t="shared" si="1"/>
         <v>3.40909090909091</v>
       </c>
-      <c r="M4" s="7"/>
+      <c r="M4" s="8"/>
       <c r="N4" t="s">
         <v>539</v>
       </c>
@@ -9958,7 +10334,7 @@
         <f>O4*8</f>
         <v>1600</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="7">
         <f t="shared" si="2"/>
         <v>1.25</v>
       </c>
@@ -10000,15 +10376,15 @@
       <c r="J5">
         <v>1.2</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <f t="shared" si="0"/>
         <v>133.333333333333</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="7">
         <f t="shared" si="1"/>
         <v>3.375</v>
       </c>
-      <c r="M5" s="7"/>
+      <c r="M5" s="8"/>
       <c r="N5" t="s">
         <v>539</v>
       </c>
@@ -10019,7 +10395,7 @@
         <f>O5*8</f>
         <v>3600</v>
       </c>
-      <c r="Q5" s="6">
+      <c r="Q5" s="7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -10061,15 +10437,15 @@
       <c r="J6">
         <v>0.9</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <f t="shared" si="0"/>
         <v>266.666666666667</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="7">
         <f t="shared" si="1"/>
         <v>2.8125</v>
       </c>
-      <c r="M6" s="7"/>
+      <c r="M6" s="8"/>
       <c r="N6" t="s">
         <v>539</v>
       </c>
@@ -10080,7 +10456,7 @@
         <f>O6*8</f>
         <v>6400</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="7">
         <f t="shared" si="2"/>
         <v>0.9375</v>
       </c>
@@ -10125,15 +10501,15 @@
       <c r="J7">
         <v>1.2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="7">
         <f t="shared" si="1"/>
         <v>3.52</v>
       </c>
-      <c r="M7" s="7"/>
+      <c r="M7" s="8"/>
       <c r="N7" t="s">
         <v>542</v>
       </c>
@@ -10143,7 +10519,7 @@
       <c r="P7">
         <v>80</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="7">
         <f t="shared" si="2"/>
         <v>5.5</v>
       </c>
@@ -10185,15 +10561,15 @@
       <c r="J8">
         <v>1.2</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="7">
         <f t="shared" si="1"/>
         <v>3.52</v>
       </c>
-      <c r="M8" s="7"/>
+      <c r="M8" s="8"/>
       <c r="N8" t="s">
         <v>542</v>
       </c>
@@ -10203,7 +10579,7 @@
       <c r="P8">
         <v>320</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="7">
         <f t="shared" si="2"/>
         <v>2.75</v>
       </c>
@@ -10245,15 +10621,15 @@
       <c r="J9">
         <v>1.2</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="7">
         <f t="shared" si="1"/>
         <v>3.08</v>
       </c>
-      <c r="M9" s="7"/>
+      <c r="M9" s="8"/>
       <c r="N9" t="s">
         <v>542</v>
       </c>
@@ -10263,7 +10639,7 @@
       <c r="P9">
         <v>720</v>
       </c>
-      <c r="Q9" s="6">
+      <c r="Q9" s="7">
         <f t="shared" si="2"/>
         <v>2.13888888888889</v>
       </c>
@@ -10305,15 +10681,15 @@
       <c r="J10">
         <v>1.2</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <f t="shared" si="0"/>
         <v>365.833333333333</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="7">
         <f t="shared" si="1"/>
         <v>3.49886104783599</v>
       </c>
-      <c r="M10" s="7"/>
+      <c r="M10" s="8"/>
       <c r="N10" t="s">
         <v>543</v>
       </c>
@@ -10323,7 +10699,7 @@
       <c r="P10">
         <v>1000</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="7">
         <f t="shared" si="2"/>
         <v>1.28</v>
       </c>
@@ -10365,15 +10741,15 @@
       <c r="J11">
         <v>1.2</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <f t="shared" si="0"/>
         <v>732.5</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="7">
         <f t="shared" si="1"/>
         <v>3.1098976109215</v>
       </c>
-      <c r="M11" s="7"/>
+      <c r="M11" s="8"/>
       <c r="N11" t="s">
         <v>543</v>
       </c>
@@ -10383,7 +10759,7 @@
       <c r="P11">
         <v>4000</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="7">
         <f t="shared" si="2"/>
         <v>0.5695</v>
       </c>
@@ -10425,15 +10801,15 @@
       <c r="J12">
         <v>1.2</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="7">
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="M12" s="7"/>
+      <c r="M12" s="8"/>
       <c r="N12" t="s">
         <v>545</v>
       </c>
@@ -10443,7 +10819,7 @@
       <c r="P12">
         <v>6000</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="7">
         <f t="shared" si="2"/>
         <v>0.45</v>
       </c>
@@ -10485,15 +10861,15 @@
       <c r="J13">
         <v>1.2</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <f t="shared" si="0"/>
         <v>1333.33333333333</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="7">
         <f t="shared" si="1"/>
         <v>3.675</v>
       </c>
-      <c r="M13" s="7"/>
+      <c r="M13" s="8"/>
       <c r="N13" t="s">
         <v>545</v>
       </c>
@@ -10503,7 +10879,7 @@
       <c r="P13">
         <v>24000</v>
       </c>
-      <c r="Q13" s="6">
+      <c r="Q13" s="7">
         <f t="shared" si="2"/>
         <v>0.204166666666667</v>
       </c>
@@ -10545,15 +10921,15 @@
       <c r="J14">
         <v>1.2</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <f t="shared" si="0"/>
         <v>916.666666666667</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="7">
         <f t="shared" si="1"/>
         <v>3.81818181818182</v>
       </c>
-      <c r="M14" s="7"/>
+      <c r="M14" s="8"/>
       <c r="N14" t="s">
         <v>546</v>
       </c>
@@ -10563,7 +10939,7 @@
       <c r="P14">
         <v>800</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="7">
         <f t="shared" si="2"/>
         <v>4.375</v>
       </c>
@@ -10608,15 +10984,15 @@
       <c r="J15">
         <v>1.2</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <f t="shared" si="0"/>
         <v>1583.33333333333</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="7">
         <f t="shared" si="1"/>
         <v>4.10526315789474</v>
       </c>
-      <c r="M15" s="7"/>
+      <c r="M15" s="8"/>
       <c r="N15" t="s">
         <v>546</v>
       </c>
@@ -10626,7 +11002,7 @@
       <c r="P15">
         <v>3200</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="7">
         <f t="shared" si="2"/>
         <v>2.03125</v>
       </c>
@@ -10668,15 +11044,15 @@
       <c r="I16">
         <v>0</v>
       </c>
-      <c r="K16" s="5" t="e">
+      <c r="K16" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L16" s="6" t="e">
+      <c r="L16" s="7" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="7"/>
+      <c r="M16" s="8"/>
       <c r="N16" t="s">
         <v>548</v>
       </c>
@@ -10686,7 +11062,7 @@
       <c r="P16">
         <v>300</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="7">
         <f t="shared" si="2"/>
         <v>23.3333333333333</v>
       </c>
@@ -10728,15 +11104,15 @@
       <c r="I17">
         <v>0</v>
       </c>
-      <c r="K17" s="5" t="e">
+      <c r="K17" s="6" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="6" t="e">
+      <c r="L17" s="7" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="7"/>
+      <c r="M17" s="8"/>
       <c r="N17" t="s">
         <v>548</v>
       </c>
@@ -10746,7 +11122,7 @@
       <c r="P17">
         <v>1200</v>
       </c>
-      <c r="Q17" s="6">
+      <c r="Q17" s="7">
         <f t="shared" si="2"/>
         <v>9.83333333333333</v>
       </c>
@@ -10791,15 +11167,15 @@
       <c r="J18">
         <v>1.2</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="7">
         <f t="shared" si="1"/>
         <v>3.86666666666667</v>
       </c>
-      <c r="M18" s="7"/>
+      <c r="M18" s="8"/>
       <c r="N18" t="s">
         <v>549</v>
       </c>
@@ -10838,15 +11214,15 @@
       <c r="J19">
         <v>1.2</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="6">
         <f t="shared" si="0"/>
         <v>2666.66666666667</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="7">
         <f t="shared" si="1"/>
         <v>4.2375</v>
       </c>
-      <c r="M19" s="7"/>
+      <c r="M19" s="8"/>
       <c r="N19" t="s">
         <v>549</v>
       </c>
@@ -10885,15 +11261,15 @@
       <c r="J20">
         <v>1.2</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="6">
         <f t="shared" si="0"/>
         <v>1833.33333333333</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="7">
         <f t="shared" si="1"/>
         <v>3.92727272727273</v>
       </c>
-      <c r="M20" s="7"/>
+      <c r="M20" s="8"/>
       <c r="N20" t="s">
         <v>551</v>
       </c>
@@ -10929,15 +11305,15 @@
       <c r="J21">
         <v>0.9</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="6">
         <f t="shared" si="0"/>
         <v>5776.66666666667</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="7">
         <f t="shared" si="1"/>
         <v>2.25043277553376</v>
       </c>
-      <c r="M21" s="7"/>
+      <c r="M21" s="8"/>
       <c r="N21" t="s">
         <v>552</v>
       </c>
@@ -10973,15 +11349,15 @@
       <c r="J22">
         <v>1.1</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="6">
         <f t="shared" si="0"/>
         <v>27.2727272727273</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M22" s="7">
+      <c r="M22" s="8">
         <v>3.44</v>
       </c>
       <c r="N22" t="s">
@@ -11019,15 +11395,15 @@
       <c r="J23">
         <v>1.1</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="6">
         <f t="shared" si="0"/>
         <v>54.5454545454545</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M23" s="7"/>
+      <c r="M23" s="8"/>
       <c r="N23" t="s">
         <v>553</v>
       </c>
@@ -11063,15 +11439,15 @@
       <c r="J24">
         <v>1.1</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="6">
         <f t="shared" si="0"/>
         <v>81.8181818181818</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M24" s="7"/>
+      <c r="M24" s="8"/>
       <c r="N24" t="s">
         <v>553</v>
       </c>
@@ -11107,15 +11483,15 @@
       <c r="J25">
         <v>1.1</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="6">
         <f t="shared" si="0"/>
         <v>63.6363636363636</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="7">
         <f t="shared" si="1"/>
         <v>3.14285714285714</v>
       </c>
-      <c r="M25" s="7"/>
+      <c r="M25" s="8"/>
       <c r="N25" t="s">
         <v>554</v>
       </c>
@@ -11151,15 +11527,15 @@
       <c r="J26">
         <v>1.1</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="6">
         <f t="shared" si="0"/>
         <v>127.272727272727</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="7">
         <f t="shared" si="1"/>
         <v>2.98571428571429</v>
       </c>
-      <c r="M26" s="7"/>
+      <c r="M26" s="8"/>
       <c r="N26" t="s">
         <v>554</v>
       </c>
@@ -11195,15 +11571,15 @@
       <c r="J27">
         <v>1.1</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="6">
         <f t="shared" si="0"/>
         <v>271.818181818182</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="7">
         <f t="shared" si="1"/>
         <v>2.75919732441472</v>
       </c>
-      <c r="M27" s="7"/>
+      <c r="M27" s="8"/>
       <c r="N27" t="s">
         <v>554</v>
       </c>
@@ -11239,15 +11615,15 @@
       <c r="J28">
         <v>1.1</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="6">
         <f t="shared" si="0"/>
         <v>63.6363636363636</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="7">
         <f t="shared" si="1"/>
         <v>3.45714285714286</v>
       </c>
-      <c r="M28" s="7"/>
+      <c r="M28" s="8"/>
       <c r="N28" t="s">
         <v>555</v>
       </c>
@@ -11283,15 +11659,15 @@
       <c r="J29">
         <v>1.1</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="6">
         <f t="shared" si="0"/>
         <v>190.909090909091</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="7">
         <f t="shared" si="1"/>
         <v>3.45714285714286</v>
       </c>
-      <c r="M29" s="7"/>
+      <c r="M29" s="8"/>
       <c r="N29" t="s">
         <v>556</v>
       </c>
@@ -11327,15 +11703,15 @@
       <c r="J30">
         <v>1.1</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <f t="shared" si="0"/>
         <v>909.090909090909</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="7">
         <f t="shared" si="1"/>
         <v>3.63</v>
       </c>
-      <c r="M30" s="7"/>
+      <c r="M30" s="8"/>
       <c r="N30" t="s">
         <v>556</v>
       </c>
@@ -11371,15 +11747,15 @@
       <c r="J31">
         <v>1.1</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="6">
         <f t="shared" si="0"/>
         <v>163.636363636364</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="7">
         <f t="shared" si="1"/>
         <v>3.11666666666667</v>
       </c>
-      <c r="M31" s="7"/>
+      <c r="M31" s="8"/>
       <c r="N31" t="s">
         <v>557</v>
       </c>
@@ -11415,15 +11791,15 @@
       <c r="J32">
         <v>1.1</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="6">
         <f t="shared" si="0"/>
         <v>545.454545454545</v>
       </c>
-      <c r="L32" s="6">
+      <c r="L32" s="7">
         <f t="shared" si="1"/>
         <v>4.05166666666667</v>
       </c>
-      <c r="M32" s="7"/>
+      <c r="M32" s="8"/>
       <c r="N32" t="s">
         <v>558</v>
       </c>
@@ -11459,15 +11835,15 @@
       <c r="J33">
         <v>1.1</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="6">
         <f t="shared" si="0"/>
         <v>1454.54545454545</v>
       </c>
-      <c r="L33" s="6">
+      <c r="L33" s="7">
         <f t="shared" si="1"/>
         <v>3.64375</v>
       </c>
-      <c r="M33" s="7"/>
+      <c r="M33" s="8"/>
       <c r="N33" t="s">
         <v>558</v>
       </c>
@@ -11503,15 +11879,15 @@
       <c r="J34">
         <v>1.1</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="6">
         <f t="shared" si="0"/>
         <v>363.636363636364</v>
       </c>
-      <c r="L34" s="6">
+      <c r="L34" s="7">
         <f t="shared" si="1"/>
         <v>2.8875</v>
       </c>
-      <c r="M34" s="7"/>
+      <c r="M34" s="8"/>
       <c r="N34" t="s">
         <v>559</v>
       </c>
@@ -11547,15 +11923,15 @@
       <c r="J35">
         <v>1.1</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="6">
         <f t="shared" ref="K35:K73" si="3">I35/J35</f>
         <v>727.272727272727</v>
       </c>
-      <c r="L35" s="6">
+      <c r="L35" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M35" s="7"/>
+      <c r="M35" s="8"/>
       <c r="N35" t="s">
         <v>559</v>
       </c>
@@ -11591,15 +11967,15 @@
       <c r="J36">
         <v>1.1</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="6">
         <f t="shared" si="3"/>
         <v>1636.36363636364</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="7">
         <f t="shared" si="1"/>
         <v>3.42222222222222</v>
       </c>
-      <c r="M36" s="7"/>
+      <c r="M36" s="8"/>
       <c r="N36" t="s">
         <v>560</v>
       </c>
@@ -11635,15 +12011,15 @@
       <c r="J37">
         <v>1.1</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="6">
         <f t="shared" si="3"/>
         <v>545.454545454545</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M37" s="7"/>
+      <c r="M37" s="8"/>
       <c r="N37" t="s">
         <v>561</v>
       </c>
@@ -11679,15 +12055,15 @@
       <c r="J38">
         <v>1.1</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="6">
         <f t="shared" si="3"/>
         <v>1090.90909090909</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M38" s="7"/>
+      <c r="M38" s="8"/>
       <c r="N38" t="s">
         <v>561</v>
       </c>
@@ -11723,15 +12099,15 @@
       <c r="J39">
         <v>1.1</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="6">
         <f t="shared" si="3"/>
         <v>2090.90909090909</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39" s="7">
         <f t="shared" si="1"/>
         <v>3.20434782608696</v>
       </c>
-      <c r="M39" s="7"/>
+      <c r="M39" s="8"/>
       <c r="N39" t="s">
         <v>562</v>
       </c>
@@ -11767,15 +12143,15 @@
       <c r="J40">
         <v>1.1</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="6">
         <f t="shared" si="3"/>
         <v>818.181818181818</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="7">
         <f t="shared" si="1"/>
         <v>3.3</v>
       </c>
-      <c r="M40" s="7"/>
+      <c r="M40" s="8"/>
       <c r="N40" t="s">
         <v>563</v>
       </c>
@@ -11811,15 +12187,15 @@
       <c r="J41">
         <v>1.1</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="6">
         <f t="shared" si="3"/>
         <v>1636.36363636364</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41" s="7">
         <f t="shared" si="1"/>
         <v>3.36111111111111</v>
       </c>
-      <c r="M41" s="7"/>
+      <c r="M41" s="8"/>
       <c r="N41" t="s">
         <v>563</v>
       </c>
@@ -11855,15 +12231,15 @@
       <c r="J42">
         <v>1.1</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="6">
         <f t="shared" si="3"/>
         <v>2727.27272727273</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="7">
         <f t="shared" si="1"/>
         <v>3.26333333333333</v>
       </c>
-      <c r="M42" s="7"/>
+      <c r="M42" s="8"/>
       <c r="N42" t="s">
         <v>564</v>
       </c>
@@ -11899,15 +12275,15 @@
       <c r="J43">
         <v>1.1</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="6">
         <f t="shared" si="3"/>
         <v>1181.81818181818</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="7">
         <f t="shared" si="1"/>
         <v>3.21538461538462</v>
       </c>
-      <c r="M43" s="7"/>
+      <c r="M43" s="8"/>
       <c r="N43" t="s">
         <v>565</v>
       </c>
@@ -11943,15 +12319,15 @@
       <c r="J44">
         <v>1.1</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="6">
         <f t="shared" si="3"/>
         <v>1818.18181818182</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="7">
         <f t="shared" si="1"/>
         <v>3.41</v>
       </c>
-      <c r="M44" s="7"/>
+      <c r="M44" s="8"/>
       <c r="N44" t="s">
         <v>565</v>
       </c>
@@ -11987,15 +12363,15 @@
       <c r="J45">
         <v>1.1</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="6">
         <f t="shared" si="3"/>
         <v>2290</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45" s="7">
         <f t="shared" si="1"/>
         <v>4.36681222707424</v>
       </c>
-      <c r="M45" s="7"/>
+      <c r="M45" s="8"/>
       <c r="N45" t="s">
         <v>566</v>
       </c>
@@ -12031,15 +12407,15 @@
       <c r="J46">
         <v>1.1</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="6">
         <f t="shared" si="3"/>
         <v>2890</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="7">
         <f t="shared" si="1"/>
         <v>4.84429065743945</v>
       </c>
-      <c r="M46" s="7"/>
+      <c r="M46" s="8"/>
       <c r="N46" t="s">
         <v>567</v>
       </c>
@@ -12075,15 +12451,15 @@
       <c r="J47">
         <v>1</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="6">
         <f t="shared" si="3"/>
         <v>3299</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="7">
         <f t="shared" si="1"/>
         <v>4.24371021521673</v>
       </c>
-      <c r="M47" s="7"/>
+      <c r="M47" s="8"/>
       <c r="N47" t="s">
         <v>568</v>
       </c>
@@ -12119,15 +12495,15 @@
       <c r="J48">
         <v>1.3</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="6">
         <f t="shared" si="3"/>
         <v>20.7692307692308</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="7">
         <f t="shared" ref="L48:L79" si="4">G48/K48</f>
         <v>3.37037037037037</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="8">
         <v>3.43</v>
       </c>
       <c r="N48" t="s">
@@ -12165,15 +12541,15 @@
       <c r="J49">
         <v>1.3</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="6">
         <f t="shared" si="3"/>
         <v>39.2307692307692</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L49" s="7">
         <f t="shared" si="4"/>
         <v>3.56862745098039</v>
       </c>
-      <c r="M49" s="7"/>
+      <c r="M49" s="8"/>
       <c r="N49" t="s">
         <v>569</v>
       </c>
@@ -12209,15 +12585,15 @@
       <c r="J50">
         <v>1.3</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="6">
         <f t="shared" si="3"/>
         <v>76.9230769230769</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L50" s="7">
         <f t="shared" si="4"/>
         <v>2.86</v>
       </c>
-      <c r="M50" s="7"/>
+      <c r="M50" s="8"/>
       <c r="N50" t="s">
         <v>569</v>
       </c>
@@ -12253,15 +12629,15 @@
       <c r="J51">
         <v>1.3</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="6">
         <f t="shared" si="3"/>
         <v>33.8461538461538</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51" s="7">
         <f t="shared" si="4"/>
         <v>3.54545454545455</v>
       </c>
-      <c r="M51" s="7"/>
+      <c r="M51" s="8"/>
       <c r="N51" t="s">
         <v>570</v>
       </c>
@@ -12297,15 +12673,15 @@
       <c r="J52">
         <v>1.3</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="6">
         <f t="shared" si="3"/>
         <v>71.5384615384615</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52" s="7">
         <f t="shared" si="4"/>
         <v>3.49462365591398</v>
       </c>
-      <c r="M52" s="7"/>
+      <c r="M52" s="8"/>
       <c r="N52" t="s">
         <v>570</v>
       </c>
@@ -12341,15 +12717,15 @@
       <c r="J53">
         <v>1.3</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="6">
         <f t="shared" si="3"/>
         <v>138.461538461538</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53" s="7">
         <f t="shared" si="4"/>
         <v>2.88888888888889</v>
       </c>
-      <c r="M53" s="7"/>
+      <c r="M53" s="8"/>
       <c r="N53" t="s">
         <v>570</v>
       </c>
@@ -12385,15 +12761,15 @@
       <c r="J54">
         <v>1.3</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="6">
         <f t="shared" si="3"/>
         <v>41.5384615384615</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54" s="7">
         <f t="shared" si="4"/>
         <v>4.81481481481481</v>
       </c>
-      <c r="M54" s="7"/>
+      <c r="M54" s="8"/>
       <c r="N54" t="s">
         <v>571</v>
       </c>
@@ -12429,15 +12805,15 @@
       <c r="J55">
         <v>1.3</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55" s="6">
         <f t="shared" si="3"/>
         <v>92.3076923076923</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L55" s="7">
         <f t="shared" si="4"/>
         <v>4.875</v>
       </c>
-      <c r="M55" s="7"/>
+      <c r="M55" s="8"/>
       <c r="N55" t="s">
         <v>571</v>
       </c>
@@ -12473,15 +12849,15 @@
       <c r="J56">
         <v>1.3</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <f t="shared" si="3"/>
         <v>207.692307692308</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L56" s="7">
         <f t="shared" si="4"/>
         <v>3.37037037037037</v>
       </c>
-      <c r="M56" s="7"/>
+      <c r="M56" s="8"/>
       <c r="N56" t="s">
         <v>571</v>
       </c>
@@ -12517,15 +12893,15 @@
       <c r="J57">
         <v>1.3</v>
       </c>
-      <c r="K57" s="5">
+      <c r="K57" s="6">
         <f t="shared" si="3"/>
         <v>92.3076923076923</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57" s="7">
         <f t="shared" si="4"/>
         <v>3.46666666666667</v>
       </c>
-      <c r="M57" s="7"/>
+      <c r="M57" s="8"/>
       <c r="N57" t="s">
         <v>572</v>
       </c>
@@ -12561,15 +12937,15 @@
       <c r="J58">
         <v>1.3</v>
       </c>
-      <c r="K58" s="5">
+      <c r="K58" s="6">
         <f t="shared" si="3"/>
         <v>230.769230769231</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L58" s="7">
         <f t="shared" si="4"/>
         <v>3.46666666666667</v>
       </c>
-      <c r="M58" s="7"/>
+      <c r="M58" s="8"/>
       <c r="N58" t="s">
         <v>572</v>
       </c>
@@ -12605,15 +12981,15 @@
       <c r="J59">
         <v>1.3</v>
       </c>
-      <c r="K59" s="5">
+      <c r="K59" s="6">
         <f t="shared" si="3"/>
         <v>307.692307692308</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59" s="7">
         <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="M59" s="7"/>
+      <c r="M59" s="8"/>
       <c r="N59" t="s">
         <v>573</v>
       </c>
@@ -12649,15 +13025,15 @@
       <c r="J60">
         <v>1.3</v>
       </c>
-      <c r="K60" s="5">
+      <c r="K60" s="6">
         <f t="shared" si="3"/>
         <v>538.461538461538</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="7">
         <f t="shared" si="4"/>
         <v>3.06428571428571</v>
       </c>
-      <c r="M60" s="7"/>
+      <c r="M60" s="8"/>
       <c r="N60" t="s">
         <v>573</v>
       </c>
@@ -12693,15 +13069,15 @@
       <c r="J61">
         <v>1.3</v>
       </c>
-      <c r="K61" s="5">
+      <c r="K61" s="6">
         <f t="shared" si="3"/>
         <v>692.307692307692</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61" s="7">
         <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="M61" s="7"/>
+      <c r="M61" s="8"/>
       <c r="N61" t="s">
         <v>573</v>
       </c>
@@ -12737,15 +13113,15 @@
       <c r="J62">
         <v>1.3</v>
       </c>
-      <c r="K62" s="5">
+      <c r="K62" s="6">
         <f t="shared" si="3"/>
         <v>323.076923076923</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="7">
         <f t="shared" si="4"/>
         <v>2.94047619047619</v>
       </c>
-      <c r="M62" s="7"/>
+      <c r="M62" s="8"/>
       <c r="N62" t="s">
         <v>574</v>
       </c>
@@ -12781,15 +13157,15 @@
       <c r="J63">
         <v>1.3</v>
       </c>
-      <c r="K63" s="5">
+      <c r="K63" s="6">
         <f t="shared" si="3"/>
         <v>523.076923076923</v>
       </c>
-      <c r="L63" s="6">
+      <c r="L63" s="7">
         <f t="shared" si="4"/>
         <v>3.44117647058823</v>
       </c>
-      <c r="M63" s="7"/>
+      <c r="M63" s="8"/>
       <c r="N63" t="s">
         <v>574</v>
       </c>
@@ -12825,15 +13201,15 @@
       <c r="J64">
         <v>1.3</v>
       </c>
-      <c r="K64" s="5">
+      <c r="K64" s="6">
         <f t="shared" si="3"/>
         <v>384.615384615385</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="7">
         <f t="shared" si="4"/>
         <v>4.16</v>
       </c>
-      <c r="M64" s="7"/>
+      <c r="M64" s="8"/>
       <c r="N64" t="s">
         <v>575</v>
       </c>
@@ -12869,15 +13245,15 @@
       <c r="J65">
         <v>1.3</v>
       </c>
-      <c r="K65" s="5">
+      <c r="K65" s="6">
         <f t="shared" si="3"/>
         <v>769.230769230769</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65" s="7">
         <f t="shared" si="4"/>
         <v>3.77</v>
       </c>
-      <c r="M65" s="7"/>
+      <c r="M65" s="8"/>
       <c r="N65" t="s">
         <v>575</v>
       </c>
@@ -12913,15 +13289,15 @@
       <c r="J66">
         <v>1.3</v>
       </c>
-      <c r="K66" s="5">
+      <c r="K66" s="6">
         <f t="shared" si="3"/>
         <v>1384.61538461538</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L66" s="7">
         <f t="shared" si="4"/>
         <v>3.17777777777778</v>
       </c>
-      <c r="M66" s="7"/>
+      <c r="M66" s="8"/>
       <c r="N66" t="s">
         <v>575</v>
       </c>
@@ -12957,15 +13333,15 @@
       <c r="J67">
         <v>1.3</v>
       </c>
-      <c r="K67" s="5">
+      <c r="K67" s="6">
         <f t="shared" si="3"/>
         <v>769.230769230769</v>
       </c>
-      <c r="L67" s="6">
+      <c r="L67" s="7">
         <f t="shared" si="4"/>
         <v>3.51</v>
       </c>
-      <c r="M67" s="7"/>
+      <c r="M67" s="8"/>
       <c r="N67" t="s">
         <v>576</v>
       </c>
@@ -13001,15 +13377,15 @@
       <c r="J68">
         <v>1.3</v>
       </c>
-      <c r="K68" s="5">
+      <c r="K68" s="6">
         <f t="shared" si="3"/>
         <v>1538.46153846154</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L68" s="7">
         <f t="shared" si="4"/>
         <v>3.25</v>
       </c>
-      <c r="M68" s="7"/>
+      <c r="M68" s="8"/>
       <c r="N68" t="s">
         <v>576</v>
       </c>
@@ -13045,15 +13421,15 @@
       <c r="J69">
         <v>1.3</v>
       </c>
-      <c r="K69" s="5">
+      <c r="K69" s="6">
         <f t="shared" si="3"/>
         <v>1615.38461538462</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L69" s="7">
         <f t="shared" si="4"/>
         <v>2.97142857142857</v>
       </c>
-      <c r="M69" s="7"/>
+      <c r="M69" s="8"/>
       <c r="N69" t="s">
         <v>577</v>
       </c>
@@ -13089,15 +13465,15 @@
       <c r="J70">
         <v>1.3</v>
       </c>
-      <c r="K70" s="5">
+      <c r="K70" s="6">
         <f t="shared" si="3"/>
         <v>2307.69230769231</v>
       </c>
-      <c r="L70" s="6">
+      <c r="L70" s="7">
         <f t="shared" si="4"/>
         <v>3.38</v>
       </c>
-      <c r="M70" s="7"/>
+      <c r="M70" s="8"/>
       <c r="N70" t="s">
         <v>577</v>
       </c>
@@ -13133,15 +13509,15 @@
       <c r="J71">
         <v>1.3</v>
       </c>
-      <c r="K71" s="5">
+      <c r="K71" s="6">
         <f t="shared" si="3"/>
         <v>3076.92307692308</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L71" s="7">
         <f t="shared" si="4"/>
         <v>3.0225</v>
       </c>
-      <c r="M71" s="7"/>
+      <c r="M71" s="8"/>
       <c r="N71" t="s">
         <v>578</v>
       </c>
@@ -13177,15 +13553,15 @@
       <c r="J72">
         <v>1.3</v>
       </c>
-      <c r="K72" s="5">
+      <c r="K72" s="6">
         <f t="shared" si="3"/>
         <v>3230.76923076923</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L72" s="7">
         <f t="shared" si="4"/>
         <v>2.97142857142857</v>
       </c>
-      <c r="M72" s="7"/>
+      <c r="M72" s="8"/>
       <c r="N72" t="s">
         <v>579</v>
       </c>
@@ -13221,15 +13597,15 @@
       <c r="J73">
         <v>1.3</v>
       </c>
-      <c r="K73" s="5">
+      <c r="K73" s="6">
         <f t="shared" si="3"/>
         <v>3461.53846153846</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L73" s="7">
         <f t="shared" si="4"/>
         <v>3.17777777777778</v>
       </c>
-      <c r="M73" s="7"/>
+      <c r="M73" s="8"/>
       <c r="N73" t="s">
         <v>580</v>
       </c>
@@ -13262,17 +13638,17 @@
       <c r="I74">
         <v>10</v>
       </c>
-      <c r="J74" s="8">
+      <c r="J74" s="9">
         <v>1</v>
       </c>
-      <c r="K74" s="5">
+      <c r="K74" s="6">
         <v>20</v>
       </c>
-      <c r="L74" s="6">
+      <c r="L74" s="7">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M74" s="7">
+      <c r="M74" s="8">
         <v>3.55</v>
       </c>
       <c r="N74" t="s">
@@ -13308,17 +13684,17 @@
       <c r="I75">
         <v>29</v>
       </c>
-      <c r="J75" s="8">
+      <c r="J75" s="9">
         <v>1</v>
       </c>
-      <c r="K75" s="5">
+      <c r="K75" s="6">
         <v>50</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L75" s="7">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="M75" s="7"/>
+      <c r="M75" s="8"/>
       <c r="N75" t="s">
         <v>581</v>
       </c>
@@ -13352,17 +13728,17 @@
       <c r="I76">
         <v>54</v>
       </c>
-      <c r="J76" s="8">
+      <c r="J76" s="9">
         <v>1</v>
       </c>
-      <c r="K76" s="5">
+      <c r="K76" s="6">
         <v>80</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L76" s="7">
         <f t="shared" si="4"/>
         <v>3.5</v>
       </c>
-      <c r="M76" s="7"/>
+      <c r="M76" s="8"/>
       <c r="N76" t="s">
         <v>581</v>
       </c>
@@ -13395,17 +13771,17 @@
       <c r="I77">
         <v>79</v>
       </c>
-      <c r="J77" s="8">
+      <c r="J77" s="9">
         <v>1</v>
       </c>
-      <c r="K77" s="5">
+      <c r="K77" s="6">
         <v>180</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L77" s="7">
         <f t="shared" si="4"/>
         <v>3.05555555555556</v>
       </c>
-      <c r="M77" s="7"/>
+      <c r="M77" s="8"/>
       <c r="N77" t="s">
         <v>581</v>
       </c>
@@ -13439,17 +13815,17 @@
       <c r="I78">
         <v>139</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J78" s="9">
         <v>1</v>
       </c>
-      <c r="K78" s="5">
+      <c r="K78" s="6">
         <v>280</v>
       </c>
-      <c r="L78" s="6">
+      <c r="L78" s="7">
         <f t="shared" si="4"/>
         <v>3.21428571428571</v>
       </c>
-      <c r="M78" s="7"/>
+      <c r="M78" s="8"/>
       <c r="N78" t="s">
         <v>581</v>
       </c>
@@ -13483,17 +13859,17 @@
       <c r="I79">
         <v>319</v>
       </c>
-      <c r="J79" s="8">
+      <c r="J79" s="9">
         <v>1</v>
       </c>
-      <c r="K79" s="5">
+      <c r="K79" s="6">
         <v>600</v>
       </c>
-      <c r="L79" s="6">
+      <c r="L79" s="7">
         <f t="shared" si="4"/>
         <v>3.16666666666667</v>
       </c>
-      <c r="M79" s="7"/>
+      <c r="M79" s="8"/>
       <c r="N79" t="s">
         <v>582</v>
       </c>
@@ -13526,17 +13902,17 @@
       <c r="I80">
         <v>519</v>
       </c>
-      <c r="J80" s="8">
+      <c r="J80" s="9">
         <v>1</v>
       </c>
-      <c r="K80" s="5">
+      <c r="K80" s="6">
         <v>900</v>
       </c>
-      <c r="L80" s="6">
+      <c r="L80" s="7">
         <f t="shared" ref="L80:L111" si="5">G80/K80</f>
         <v>3.33333333333333</v>
       </c>
-      <c r="M80" s="7"/>
+      <c r="M80" s="8"/>
       <c r="N80" t="s">
         <v>582</v>
       </c>
@@ -13570,17 +13946,17 @@
       <c r="I81">
         <v>549</v>
       </c>
-      <c r="J81" s="8">
+      <c r="J81" s="9">
         <v>1</v>
       </c>
-      <c r="K81" s="5">
+      <c r="K81" s="6">
         <v>1200</v>
       </c>
-      <c r="L81" s="6">
+      <c r="L81" s="7">
         <f t="shared" si="5"/>
         <v>3.33333333333333</v>
       </c>
-      <c r="M81" s="7"/>
+      <c r="M81" s="8"/>
       <c r="N81" t="s">
         <v>582</v>
       </c>
@@ -13613,17 +13989,17 @@
       <c r="I82">
         <v>12</v>
       </c>
-      <c r="J82" s="8">
+      <c r="J82" s="9">
         <v>1</v>
       </c>
-      <c r="K82" s="5">
+      <c r="K82" s="6">
         <v>24</v>
       </c>
-      <c r="L82" s="6">
+      <c r="L82" s="7">
         <f t="shared" si="5"/>
         <v>3.125</v>
       </c>
-      <c r="M82" s="7"/>
+      <c r="M82" s="8"/>
       <c r="N82" t="s">
         <v>583</v>
       </c>
@@ -13657,17 +14033,17 @@
       <c r="I83">
         <v>42</v>
       </c>
-      <c r="J83" s="8">
+      <c r="J83" s="9">
         <v>1</v>
       </c>
-      <c r="K83" s="5">
+      <c r="K83" s="6">
         <v>75</v>
       </c>
-      <c r="L83" s="6">
+      <c r="L83" s="7">
         <f t="shared" si="5"/>
         <v>3.26666666666667</v>
       </c>
-      <c r="M83" s="7"/>
+      <c r="M83" s="8"/>
       <c r="N83" t="s">
         <v>583</v>
       </c>
@@ -13701,17 +14077,17 @@
       <c r="I84">
         <v>49</v>
       </c>
-      <c r="J84" s="8">
+      <c r="J84" s="9">
         <v>1</v>
       </c>
-      <c r="K84" s="5">
+      <c r="K84" s="6">
         <v>240</v>
       </c>
-      <c r="L84" s="6">
+      <c r="L84" s="7">
         <f t="shared" si="5"/>
         <v>3.125</v>
       </c>
-      <c r="M84" s="7"/>
+      <c r="M84" s="8"/>
       <c r="N84" t="s">
         <v>584</v>
       </c>
@@ -13745,17 +14121,17 @@
       <c r="I85">
         <v>65</v>
       </c>
-      <c r="J85" s="8">
+      <c r="J85" s="9">
         <v>1</v>
       </c>
-      <c r="K85" s="5">
+      <c r="K85" s="6">
         <v>120</v>
       </c>
-      <c r="L85" s="6">
+      <c r="L85" s="7">
         <f t="shared" si="5"/>
         <v>3.08333333333333</v>
       </c>
-      <c r="M85" s="7"/>
+      <c r="M85" s="8"/>
       <c r="N85" t="s">
         <v>585</v>
       </c>
@@ -13789,17 +14165,17 @@
       <c r="I86">
         <v>95</v>
       </c>
-      <c r="J86" s="8">
+      <c r="J86" s="9">
         <v>1</v>
       </c>
-      <c r="K86" s="5">
+      <c r="K86" s="6">
         <v>160</v>
       </c>
-      <c r="L86" s="6">
+      <c r="L86" s="7">
         <f t="shared" si="5"/>
         <v>3.375</v>
       </c>
-      <c r="M86" s="7"/>
+      <c r="M86" s="8"/>
       <c r="N86" t="s">
         <v>586</v>
       </c>
@@ -13833,17 +14209,17 @@
       <c r="I87">
         <v>167</v>
       </c>
-      <c r="J87" s="8">
+      <c r="J87" s="9">
         <v>1</v>
       </c>
-      <c r="K87" s="5">
+      <c r="K87" s="6">
         <v>300</v>
       </c>
-      <c r="L87" s="6">
+      <c r="L87" s="7">
         <f t="shared" si="5"/>
         <v>3.33333333333333</v>
       </c>
-      <c r="M87" s="7"/>
+      <c r="M87" s="8"/>
       <c r="N87" t="s">
         <v>587</v>
       </c>
@@ -13877,17 +14253,17 @@
       <c r="I88">
         <v>383</v>
       </c>
-      <c r="J88" s="8">
+      <c r="J88" s="9">
         <v>1</v>
       </c>
-      <c r="K88" s="5">
+      <c r="K88" s="6">
         <v>700</v>
       </c>
-      <c r="L88" s="6">
+      <c r="L88" s="7">
         <f t="shared" si="5"/>
         <v>3.14285714285714</v>
       </c>
-      <c r="M88" s="7"/>
+      <c r="M88" s="8"/>
       <c r="N88" t="s">
         <v>588</v>
       </c>
@@ -13921,17 +14297,17 @@
       <c r="I89">
         <v>623</v>
       </c>
-      <c r="J89" s="8">
+      <c r="J89" s="9">
         <v>1</v>
       </c>
-      <c r="K89" s="5">
+      <c r="K89" s="6">
         <v>1100</v>
       </c>
-      <c r="L89" s="6">
+      <c r="L89" s="7">
         <f t="shared" si="5"/>
         <v>3.27272727272727</v>
       </c>
-      <c r="M89" s="7"/>
+      <c r="M89" s="8"/>
       <c r="N89" t="s">
         <v>589</v>
       </c>
@@ -13965,17 +14341,17 @@
       <c r="I90">
         <v>727</v>
       </c>
-      <c r="J90" s="8">
+      <c r="J90" s="9">
         <v>1</v>
       </c>
-      <c r="K90" s="5">
+      <c r="K90" s="6">
         <v>1200</v>
       </c>
-      <c r="L90" s="6">
+      <c r="L90" s="7">
         <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
-      <c r="M90" s="7"/>
+      <c r="M90" s="8"/>
       <c r="N90" t="s">
         <v>582</v>
       </c>
@@ -14009,17 +14385,17 @@
       <c r="I91">
         <v>1019</v>
       </c>
-      <c r="J91" s="8">
+      <c r="J91" s="9">
         <v>1</v>
       </c>
-      <c r="K91" s="5">
+      <c r="K91" s="6">
         <v>1300</v>
       </c>
-      <c r="L91" s="6">
+      <c r="L91" s="7">
         <f t="shared" si="5"/>
         <v>3.76923076923077</v>
       </c>
-      <c r="M91" s="7"/>
+      <c r="M91" s="8"/>
       <c r="N91" t="s">
         <v>590</v>
       </c>
@@ -14053,17 +14429,17 @@
       <c r="I92">
         <v>1189</v>
       </c>
-      <c r="J92" s="8">
+      <c r="J92" s="9">
         <v>1</v>
       </c>
-      <c r="K92" s="5">
+      <c r="K92" s="6">
         <v>1400</v>
       </c>
-      <c r="L92" s="6">
+      <c r="L92" s="7">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="M92" s="7"/>
+      <c r="M92" s="8"/>
       <c r="N92" t="s">
         <v>591</v>
       </c>
@@ -14097,18 +14473,18 @@
       <c r="I93">
         <v>1319</v>
       </c>
-      <c r="J93" s="8">
+      <c r="J93" s="9">
         <v>1</v>
       </c>
-      <c r="K93" s="5">
+      <c r="K93" s="6">
         <f t="shared" ref="K93:K98" si="6">I93/J93</f>
         <v>1319</v>
       </c>
-      <c r="L93" s="6">
+      <c r="L93" s="7">
         <f t="shared" si="5"/>
         <v>4.5489006823351</v>
       </c>
-      <c r="M93" s="7"/>
+      <c r="M93" s="8"/>
       <c r="N93" t="s">
         <v>592</v>
       </c>
@@ -14142,18 +14518,18 @@
       <c r="I94">
         <v>1583</v>
       </c>
-      <c r="J94" s="8">
+      <c r="J94" s="9">
         <v>1</v>
       </c>
-      <c r="K94" s="5">
+      <c r="K94" s="6">
         <f t="shared" si="6"/>
         <v>1583</v>
       </c>
-      <c r="L94" s="6">
+      <c r="L94" s="7">
         <f t="shared" si="5"/>
         <v>4.29564118761845</v>
       </c>
-      <c r="M94" s="7"/>
+      <c r="M94" s="8"/>
       <c r="N94" t="s">
         <v>589</v>
       </c>
@@ -14187,18 +14563,18 @@
       <c r="I95">
         <v>1847</v>
       </c>
-      <c r="J95" s="8">
+      <c r="J95" s="9">
         <v>1</v>
       </c>
-      <c r="K95" s="5">
+      <c r="K95" s="6">
         <f t="shared" si="6"/>
         <v>1847</v>
       </c>
-      <c r="L95" s="6">
+      <c r="L95" s="7">
         <f t="shared" si="5"/>
         <v>4.11478072550081</v>
       </c>
-      <c r="M95" s="7"/>
+      <c r="M95" s="8"/>
       <c r="N95" t="s">
         <v>593</v>
       </c>
@@ -14232,18 +14608,18 @@
       <c r="I96">
         <v>1715</v>
       </c>
-      <c r="J96" s="8">
+      <c r="J96" s="9">
         <v>1</v>
       </c>
-      <c r="K96" s="5">
+      <c r="K96" s="6">
         <f t="shared" si="6"/>
         <v>1715</v>
       </c>
-      <c r="L96" s="6">
+      <c r="L96" s="7">
         <f t="shared" si="5"/>
         <v>4.25655976676385</v>
       </c>
-      <c r="M96" s="7"/>
+      <c r="M96" s="8"/>
       <c r="N96" t="s">
         <v>591</v>
       </c>
@@ -14277,18 +14653,18 @@
       <c r="I97">
         <v>1451</v>
       </c>
-      <c r="J97" s="8">
+      <c r="J97" s="9">
         <v>1</v>
       </c>
-      <c r="K97" s="5">
+      <c r="K97" s="6">
         <f t="shared" si="6"/>
         <v>1451</v>
       </c>
-      <c r="L97" s="6">
+      <c r="L97" s="7">
         <f t="shared" si="5"/>
         <v>4.34183321847002</v>
       </c>
-      <c r="M97" s="7"/>
+      <c r="M97" s="8"/>
       <c r="N97" t="s">
         <v>594</v>
       </c>
@@ -14322,18 +14698,18 @@
       <c r="I98">
         <v>2059</v>
       </c>
-      <c r="J98" s="8">
+      <c r="J98" s="9">
         <v>1</v>
       </c>
-      <c r="K98" s="5">
+      <c r="K98" s="6">
         <f t="shared" si="6"/>
         <v>2059</v>
       </c>
-      <c r="L98" s="6">
+      <c r="L98" s="7">
         <f t="shared" si="5"/>
         <v>4.273919378339</v>
       </c>
-      <c r="M98" s="7"/>
+      <c r="M98" s="8"/>
       <c r="N98" t="s">
         <v>595</v>
       </c>
@@ -14367,18 +14743,18 @@
       <c r="I99">
         <v>4000</v>
       </c>
-      <c r="J99" s="8">
+      <c r="J99" s="9">
         <v>1</v>
       </c>
-      <c r="K99" s="5">
+      <c r="K99" s="6">
         <f t="shared" ref="K99:K127" si="7">I99/J99</f>
         <v>4000</v>
       </c>
-      <c r="L99" s="6">
+      <c r="L99" s="7">
         <f t="shared" si="5"/>
         <v>3.75</v>
       </c>
-      <c r="M99" s="7"/>
+      <c r="M99" s="8"/>
       <c r="N99" t="s">
         <v>596</v>
       </c>
@@ -14414,15 +14790,15 @@
       <c r="J100">
         <v>1.1</v>
       </c>
-      <c r="K100" s="5">
+      <c r="K100" s="6">
         <f t="shared" si="7"/>
         <v>11.8181818181818</v>
       </c>
-      <c r="L100" s="6">
+      <c r="L100" s="7">
         <f t="shared" si="5"/>
         <v>6.76923076923077</v>
       </c>
-      <c r="M100" s="7">
+      <c r="M100" s="8">
         <v>3.69</v>
       </c>
       <c r="N100" t="s">
@@ -14460,15 +14836,15 @@
       <c r="J101">
         <v>1.1</v>
       </c>
-      <c r="K101" s="5">
+      <c r="K101" s="6">
         <f t="shared" si="7"/>
         <v>26.3636363636364</v>
       </c>
-      <c r="L101" s="6">
+      <c r="L101" s="7">
         <f t="shared" si="5"/>
         <v>6.06896551724138</v>
       </c>
-      <c r="M101" s="7"/>
+      <c r="M101" s="8"/>
       <c r="N101" t="s">
         <v>597</v>
       </c>
@@ -14504,15 +14880,15 @@
       <c r="J102">
         <v>1.1</v>
       </c>
-      <c r="K102" s="5">
+      <c r="K102" s="6">
         <f t="shared" si="7"/>
         <v>62.7272727272727</v>
       </c>
-      <c r="L102" s="6">
+      <c r="L102" s="7">
         <f t="shared" si="5"/>
         <v>5.10144927536232</v>
       </c>
-      <c r="M102" s="7"/>
+      <c r="M102" s="8"/>
       <c r="N102" t="s">
         <v>597</v>
       </c>
@@ -14548,15 +14924,15 @@
       <c r="J103">
         <v>1.1</v>
       </c>
-      <c r="K103" s="5">
+      <c r="K103" s="6">
         <f t="shared" si="7"/>
         <v>43.6363636363636</v>
       </c>
-      <c r="L103" s="6">
+      <c r="L103" s="7">
         <f t="shared" si="5"/>
         <v>5.72916666666667</v>
       </c>
-      <c r="M103" s="7"/>
+      <c r="M103" s="8"/>
       <c r="N103" t="s">
         <v>598</v>
       </c>
@@ -14592,15 +14968,15 @@
       <c r="J104">
         <v>1.1</v>
       </c>
-      <c r="K104" s="5">
+      <c r="K104" s="6">
         <f t="shared" si="7"/>
         <v>121.818181818182</v>
       </c>
-      <c r="L104" s="6">
+      <c r="L104" s="7">
         <f t="shared" si="5"/>
         <v>3.94029850746269</v>
       </c>
-      <c r="M104" s="7"/>
+      <c r="M104" s="8"/>
       <c r="N104" t="s">
         <v>598</v>
       </c>
@@ -14636,15 +15012,15 @@
       <c r="J105">
         <v>1.1</v>
       </c>
-      <c r="K105" s="5">
+      <c r="K105" s="6">
         <f t="shared" si="7"/>
         <v>408.181818181818</v>
       </c>
-      <c r="L105" s="6">
+      <c r="L105" s="7">
         <f t="shared" si="5"/>
         <v>2.25389755011136</v>
       </c>
-      <c r="M105" s="7"/>
+      <c r="M105" s="8"/>
       <c r="N105" t="s">
         <v>598</v>
       </c>
@@ -14680,15 +15056,15 @@
       <c r="J106">
         <v>1.1</v>
       </c>
-      <c r="K106" s="5">
+      <c r="K106" s="6">
         <f t="shared" si="7"/>
         <v>299.090909090909</v>
       </c>
-      <c r="L106" s="6">
+      <c r="L106" s="7">
         <f t="shared" si="5"/>
         <v>2.67477203647416</v>
       </c>
-      <c r="M106" s="7"/>
+      <c r="M106" s="8"/>
       <c r="N106" t="s">
         <v>599</v>
       </c>
@@ -14724,15 +15100,15 @@
       <c r="J107">
         <v>1.1</v>
       </c>
-      <c r="K107" s="5">
+      <c r="K107" s="6">
         <f t="shared" si="7"/>
         <v>599.090909090909</v>
       </c>
-      <c r="L107" s="6">
+      <c r="L107" s="7">
         <f t="shared" si="5"/>
         <v>2.16995447647951</v>
       </c>
-      <c r="M107" s="7"/>
+      <c r="M107" s="8"/>
       <c r="N107" t="s">
         <v>600</v>
       </c>
@@ -14768,15 +15144,15 @@
       <c r="J108">
         <v>1.1</v>
       </c>
-      <c r="K108" s="5">
+      <c r="K108" s="6">
         <f t="shared" si="7"/>
         <v>899.090909090909</v>
       </c>
-      <c r="L108" s="6">
+      <c r="L108" s="7">
         <f t="shared" si="5"/>
         <v>2.11324570273003</v>
       </c>
-      <c r="M108" s="7"/>
+      <c r="M108" s="8"/>
       <c r="N108" t="s">
         <v>600</v>
       </c>
@@ -14812,15 +15188,15 @@
       <c r="J109">
         <v>1.1</v>
       </c>
-      <c r="K109" s="5">
+      <c r="K109" s="6">
         <f t="shared" si="7"/>
         <v>1199.09090909091</v>
       </c>
-      <c r="L109" s="6">
+      <c r="L109" s="7">
         <f t="shared" si="5"/>
         <v>2.41849886277483</v>
       </c>
-      <c r="M109" s="7"/>
+      <c r="M109" s="8"/>
       <c r="N109" t="s">
         <v>600</v>
       </c>
@@ -14856,15 +15232,15 @@
       <c r="J110">
         <v>1.1</v>
       </c>
-      <c r="K110" s="5">
+      <c r="K110" s="6">
         <f t="shared" si="7"/>
         <v>762.727272727273</v>
       </c>
-      <c r="L110" s="6">
+      <c r="L110" s="7">
         <f t="shared" si="5"/>
         <v>4.71990464839094</v>
       </c>
-      <c r="M110" s="7"/>
+      <c r="M110" s="8"/>
       <c r="N110" t="s">
         <v>601</v>
       </c>
@@ -14900,15 +15276,15 @@
       <c r="J111">
         <v>1.1</v>
       </c>
-      <c r="K111" s="5">
+      <c r="K111" s="6">
         <f t="shared" si="7"/>
         <v>2344.54545454545</v>
       </c>
-      <c r="L111" s="6">
+      <c r="L111" s="7">
         <f t="shared" si="5"/>
         <v>2.85769678169833</v>
       </c>
-      <c r="M111" s="7"/>
+      <c r="M111" s="8"/>
       <c r="N111" t="s">
         <v>602</v>
       </c>
@@ -14944,15 +15320,15 @@
       <c r="J112">
         <v>1.1</v>
       </c>
-      <c r="K112" s="5">
+      <c r="K112" s="6">
         <f t="shared" si="7"/>
         <v>944.545454545455</v>
       </c>
-      <c r="L112" s="6">
+      <c r="L112" s="7">
         <f t="shared" ref="L112:L127" si="8">G112/K112</f>
         <v>4.02309913378248</v>
       </c>
-      <c r="M112" s="7"/>
+      <c r="M112" s="8"/>
       <c r="N112" t="s">
         <v>603</v>
       </c>
@@ -14988,15 +15364,15 @@
       <c r="J113">
         <v>1.1</v>
       </c>
-      <c r="K113" s="5">
+      <c r="K113" s="6">
         <f t="shared" si="7"/>
         <v>1708.18181818182</v>
       </c>
-      <c r="L113" s="6">
+      <c r="L113" s="7">
         <f t="shared" si="8"/>
         <v>3.39542309739223</v>
       </c>
-      <c r="M113" s="7"/>
+      <c r="M113" s="8"/>
       <c r="N113" t="s">
         <v>604</v>
       </c>
@@ -15032,15 +15408,15 @@
       <c r="J114">
         <v>1.1</v>
       </c>
-      <c r="K114" s="5">
+      <c r="K114" s="6">
         <f t="shared" si="7"/>
         <v>1135.45454545455</v>
       </c>
-      <c r="L114" s="6">
+      <c r="L114" s="7">
         <f t="shared" si="8"/>
         <v>2.81825460368295</v>
       </c>
-      <c r="M114" s="7"/>
+      <c r="M114" s="8"/>
       <c r="N114" t="s">
         <v>605</v>
       </c>
@@ -15076,15 +15452,15 @@
       <c r="J115">
         <v>1.1</v>
       </c>
-      <c r="K115" s="5">
+      <c r="K115" s="6">
         <f t="shared" si="7"/>
         <v>1690</v>
       </c>
-      <c r="L115" s="6">
+      <c r="L115" s="7">
         <f t="shared" si="8"/>
         <v>3.43195266272189</v>
       </c>
-      <c r="M115" s="7"/>
+      <c r="M115" s="8"/>
       <c r="N115" t="s">
         <v>605</v>
       </c>
@@ -15120,15 +15496,15 @@
       <c r="J116">
         <v>1.1</v>
       </c>
-      <c r="K116" s="5">
+      <c r="K116" s="6">
         <f t="shared" si="7"/>
         <v>2226.36363636364</v>
       </c>
-      <c r="L116" s="6">
+      <c r="L116" s="7">
         <f t="shared" si="8"/>
         <v>3.72805226623112</v>
       </c>
-      <c r="M116" s="7"/>
+      <c r="M116" s="8"/>
       <c r="N116" t="s">
         <v>605</v>
       </c>
@@ -15164,15 +15540,15 @@
       <c r="J117">
         <v>1.1</v>
       </c>
-      <c r="K117" s="5">
+      <c r="K117" s="6">
         <f t="shared" si="7"/>
         <v>4090</v>
       </c>
-      <c r="L117" s="6">
+      <c r="L117" s="7">
         <f t="shared" si="8"/>
         <v>2.3960880195599</v>
       </c>
-      <c r="M117" s="7"/>
+      <c r="M117" s="8"/>
       <c r="N117" t="s">
         <v>606</v>
       </c>
@@ -15208,15 +15584,15 @@
       <c r="J118">
         <v>1.1</v>
       </c>
-      <c r="K118" s="5">
+      <c r="K118" s="6">
         <f t="shared" si="7"/>
         <v>3817.27272727273</v>
       </c>
-      <c r="L118" s="6">
+      <c r="L118" s="7">
         <f t="shared" si="8"/>
         <v>3.40557275541796</v>
       </c>
-      <c r="M118" s="7"/>
+      <c r="M118" s="8"/>
       <c r="N118" t="s">
         <v>607</v>
       </c>
@@ -15252,15 +15628,15 @@
       <c r="J119">
         <v>1.3</v>
       </c>
-      <c r="K119" s="5">
+      <c r="K119" s="6">
         <f t="shared" si="7"/>
         <v>37.6923076923077</v>
       </c>
-      <c r="L119" s="6">
+      <c r="L119" s="7">
         <f t="shared" si="8"/>
         <v>6.63265306122449</v>
       </c>
-      <c r="M119" s="6"/>
+      <c r="M119" s="7"/>
       <c r="N119" t="s">
         <v>608</v>
       </c>
@@ -15296,15 +15672,15 @@
       <c r="J120">
         <v>1.1</v>
       </c>
-      <c r="K120" s="5">
+      <c r="K120" s="6">
         <f t="shared" si="7"/>
         <v>408.181818181818</v>
       </c>
-      <c r="L120" s="6">
+      <c r="L120" s="7">
         <f t="shared" si="8"/>
         <v>4.28730512249443</v>
       </c>
-      <c r="M120" s="6"/>
+      <c r="M120" s="7"/>
       <c r="N120" t="s">
         <v>608</v>
       </c>
@@ -15340,15 +15716,15 @@
       <c r="J121">
         <v>1.2</v>
       </c>
-      <c r="K121" s="5">
+      <c r="K121" s="6">
         <f t="shared" si="7"/>
         <v>124.166666666667</v>
       </c>
-      <c r="L121" s="6">
+      <c r="L121" s="7">
         <f t="shared" si="8"/>
         <v>6.04026845637584</v>
       </c>
-      <c r="M121" s="6"/>
+      <c r="M121" s="7"/>
       <c r="N121" t="s">
         <v>608</v>
       </c>
@@ -15381,18 +15757,18 @@
       <c r="I122">
         <v>1349</v>
       </c>
-      <c r="J122" s="8">
+      <c r="J122" s="9">
         <v>1</v>
       </c>
-      <c r="K122" s="5">
+      <c r="K122" s="6">
         <f t="shared" si="7"/>
         <v>1349</v>
       </c>
-      <c r="L122" s="6">
+      <c r="L122" s="7">
         <f t="shared" si="8"/>
         <v>2.77983691623425</v>
       </c>
-      <c r="M122" s="6"/>
+      <c r="M122" s="7"/>
       <c r="N122" t="s">
         <v>608</v>
       </c>
@@ -15428,15 +15804,15 @@
       <c r="J123">
         <v>0.9</v>
       </c>
-      <c r="K123" s="5">
+      <c r="K123" s="6">
         <f t="shared" si="7"/>
         <v>4498.88888888889</v>
       </c>
-      <c r="L123" s="6">
+      <c r="L123" s="7">
         <f t="shared" si="8"/>
         <v>1.72264756730057</v>
       </c>
-      <c r="M123" s="6"/>
+      <c r="M123" s="7"/>
       <c r="N123" t="s">
         <v>608</v>
       </c>
@@ -15472,15 +15848,15 @@
       <c r="J124">
         <v>0.8</v>
       </c>
-      <c r="K124" s="5">
+      <c r="K124" s="6">
         <f t="shared" si="7"/>
         <v>15186.25</v>
       </c>
-      <c r="L124" s="6">
+      <c r="L124" s="7">
         <f t="shared" si="8"/>
         <v>0.905424314758416</v>
       </c>
-      <c r="M124" s="6"/>
+      <c r="M124" s="7"/>
       <c r="N124" t="s">
         <v>608</v>
       </c>
@@ -15516,15 +15892,15 @@
       <c r="J125">
         <v>0.8</v>
       </c>
-      <c r="K125" s="5">
+      <c r="K125" s="6">
         <f t="shared" si="7"/>
         <v>1.25</v>
       </c>
-      <c r="L125" s="6">
+      <c r="L125" s="7">
         <f t="shared" si="8"/>
         <v>8000</v>
       </c>
-      <c r="M125" s="6"/>
+      <c r="M125" s="7"/>
       <c r="N125" t="s">
         <v>609</v>
       </c>
@@ -15560,15 +15936,15 @@
       <c r="J126">
         <v>1.1</v>
       </c>
-      <c r="K126" s="5">
+      <c r="K126" s="6">
         <f t="shared" si="7"/>
         <v>953.636363636364</v>
       </c>
-      <c r="L126" s="6">
+      <c r="L126" s="7">
         <f t="shared" si="8"/>
         <v>4.19447092469018</v>
       </c>
-      <c r="M126" s="6"/>
+      <c r="M126" s="7"/>
       <c r="N126" t="s">
         <v>610</v>
       </c>
@@ -15604,15 +15980,15 @@
       <c r="J127">
         <v>1.1</v>
       </c>
-      <c r="K127" s="5">
+      <c r="K127" s="6">
         <f t="shared" si="7"/>
         <v>453.636363636364</v>
       </c>
-      <c r="L127" s="6">
+      <c r="L127" s="7">
         <f t="shared" si="8"/>
         <v>4.40881763527054</v>
       </c>
-      <c r="M127" s="6"/>
+      <c r="M127" s="7"/>
       <c r="N127" t="s">
         <v>611</v>
       </c>
@@ -15638,7 +16014,7 @@
   <sheetPr/>
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
@@ -15704,11 +16080,11 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="5">
         <f t="shared" ref="F2:F33" si="0">0.06*D2/(1+0.06*D2)</f>
         <v>-0.136363636363636</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="6">
         <f>C2/(1-F2)</f>
         <v>1117.6</v>
       </c>
@@ -15720,11 +16096,11 @@
         <f>D2+19*E2</f>
         <v>17</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="5">
         <f>0.06*I2/(1+0.06*I2)</f>
         <v>0.504950495049505</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="6">
         <f>H2/(1-J2)</f>
         <v>12313.92</v>
       </c>
@@ -15750,11 +16126,11 @@
       <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <f t="shared" si="0"/>
         <v>0.0566037735849057</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="6">
         <f t="shared" ref="G3:G34" si="2">C3/(1-F3)</f>
         <v>1727.8</v>
       </c>
@@ -15766,11 +16142,11 @@
         <f t="shared" ref="I3:I34" si="4">D3+19*E3</f>
         <v>20</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="5">
         <f t="shared" ref="J3:J34" si="5">0.06*I3/(1+0.06*I3)</f>
         <v>0.545454545454545</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="6">
         <f t="shared" ref="K3:K34" si="6">H3/(1-J3)</f>
         <v>17212.8</v>
       </c>
@@ -15796,11 +16172,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="5">
         <f t="shared" si="0"/>
         <v>0.107142857142857</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="6">
         <f t="shared" si="2"/>
         <v>2340.8</v>
       </c>
@@ -15812,11 +16188,11 @@
         <f t="shared" si="4"/>
         <v>21</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="5">
         <f t="shared" si="5"/>
         <v>0.557522123893805</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="6">
         <f t="shared" si="6"/>
         <v>22672.32</v>
       </c>
@@ -15842,11 +16218,11 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="5">
         <f t="shared" si="0"/>
         <v>0.193548387096774</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="6">
         <f t="shared" si="2"/>
         <v>3298.4</v>
       </c>
@@ -15858,11 +16234,11 @@
         <f t="shared" si="4"/>
         <v>23</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="5">
         <f t="shared" si="5"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="6">
         <f t="shared" si="6"/>
         <v>30387.84</v>
       </c>
@@ -15888,11 +16264,11 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <f t="shared" si="0"/>
         <v>0.264705882352941</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="6">
         <f t="shared" si="2"/>
         <v>4556</v>
       </c>
@@ -15904,11 +16280,11 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="5">
         <f t="shared" si="5"/>
         <v>0.6</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="6">
         <f t="shared" si="6"/>
         <v>40200</v>
       </c>
@@ -15934,11 +16310,11 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <f t="shared" si="0"/>
         <v>0.324324324324324</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="6">
         <f t="shared" si="2"/>
         <v>6186.4</v>
       </c>
@@ -15950,11 +16326,11 @@
         <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="5">
         <f t="shared" si="5"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="6">
         <f t="shared" si="6"/>
         <v>52567.68</v>
       </c>
@@ -15980,11 +16356,11 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <f t="shared" si="0"/>
         <v>0.923076923076923</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="6">
         <f t="shared" si="2"/>
         <v>26000</v>
       </c>
@@ -15996,11 +16372,11 @@
         <f t="shared" si="4"/>
         <v>219</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="5">
         <f t="shared" si="5"/>
         <v>0.929278642149929</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K8" s="6">
         <f t="shared" si="6"/>
         <v>135744</v>
       </c>
@@ -16026,11 +16402,11 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <f t="shared" si="0"/>
         <v>0.350649350649351</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="6">
         <f t="shared" si="2"/>
         <v>9671.2</v>
       </c>
@@ -16042,11 +16418,11 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="5">
         <f t="shared" si="5"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="K9" s="5">
+      <c r="K9" s="6">
         <f t="shared" si="6"/>
         <v>80785.92</v>
       </c>
@@ -16072,11 +16448,11 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <f t="shared" si="0"/>
         <v>0.350649350649351</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="6">
         <f t="shared" si="2"/>
         <v>11673.2</v>
       </c>
@@ -16088,11 +16464,11 @@
         <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="5">
         <f t="shared" si="5"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="6">
         <f t="shared" si="6"/>
         <v>97509.12</v>
       </c>
@@ -16118,11 +16494,11 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="6">
         <f t="shared" si="2"/>
         <v>20800</v>
       </c>
@@ -16134,11 +16510,11 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="5">
         <f t="shared" si="5"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="6">
         <f t="shared" si="6"/>
         <v>170976</v>
       </c>
@@ -16164,11 +16540,11 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="5">
         <f t="shared" si="0"/>
         <v>0.375</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="6">
         <f t="shared" si="2"/>
         <v>36000</v>
       </c>
@@ -16180,11 +16556,11 @@
         <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="5">
         <f t="shared" si="5"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="6">
         <f t="shared" si="6"/>
         <v>295920</v>
       </c>
@@ -16210,11 +16586,11 @@
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>0.397590361445783</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="6">
         <f t="shared" si="2"/>
         <v>42662</v>
       </c>
@@ -16226,11 +16602,11 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="5">
         <f t="shared" si="5"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="6">
         <f t="shared" si="6"/>
         <v>345408</v>
       </c>
@@ -16256,11 +16632,11 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>0.397590361445783</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="6">
         <f t="shared" si="2"/>
         <v>48140</v>
       </c>
@@ -16272,11 +16648,11 @@
         <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="J14" s="4">
+      <c r="J14" s="5">
         <f t="shared" si="5"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="K14" s="5">
+      <c r="K14" s="6">
         <f t="shared" si="6"/>
         <v>389760</v>
       </c>
@@ -16302,11 +16678,11 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>0.418604651162791</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="6">
         <f t="shared" si="2"/>
         <v>56760</v>
       </c>
@@ -16318,11 +16694,11 @@
         <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="5">
         <f t="shared" si="5"/>
         <v>0.65034965034965</v>
       </c>
-      <c r="K15" s="5">
+      <c r="K15" s="6">
         <f t="shared" si="6"/>
         <v>453024</v>
       </c>
@@ -16348,11 +16724,11 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>0.438202247191011</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="6">
         <f t="shared" si="2"/>
         <v>65860</v>
       </c>
@@ -16364,11 +16740,11 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="5">
         <f t="shared" si="5"/>
         <v>0.657534246575342</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K16" s="6">
         <f t="shared" si="6"/>
         <v>518592</v>
       </c>
@@ -16394,11 +16770,11 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>0.438202247191011</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="6">
         <f t="shared" si="2"/>
         <v>72980</v>
       </c>
@@ -16410,11 +16786,11 @@
         <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="J17" s="4">
+      <c r="J17" s="5">
         <f t="shared" si="5"/>
         <v>0.657534246575342</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="6">
         <f t="shared" si="6"/>
         <v>574656</v>
       </c>
@@ -16440,11 +16816,11 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>0.947368421052632</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="6">
         <f t="shared" si="2"/>
         <v>228000</v>
       </c>
@@ -16456,11 +16832,11 @@
         <f t="shared" si="4"/>
         <v>319</v>
       </c>
-      <c r="J18" s="4">
+      <c r="J18" s="5">
         <f t="shared" si="5"/>
         <v>0.950347567030784</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="6">
         <f t="shared" si="6"/>
         <v>1160064</v>
       </c>
@@ -16486,11 +16862,11 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <f t="shared" si="0"/>
         <v>0.473684210526316</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="6">
         <f t="shared" si="2"/>
         <v>96900</v>
       </c>
@@ -16502,11 +16878,11 @@
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="5">
         <f t="shared" si="5"/>
         <v>0.671052631578947</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="6">
         <f t="shared" si="6"/>
         <v>744192</v>
       </c>
@@ -16532,11 +16908,11 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="5">
         <f t="shared" si="0"/>
         <v>0.489795918367347</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="6">
         <f t="shared" si="2"/>
         <v>121520</v>
       </c>
@@ -16548,11 +16924,11 @@
         <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="5">
         <f t="shared" si="5"/>
         <v>0.67741935483871</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="6">
         <f t="shared" si="6"/>
         <v>922560</v>
       </c>
@@ -16578,11 +16954,11 @@
       <c r="E21">
         <v>1</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <f t="shared" si="0"/>
         <v>0.504950495049505</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="6">
         <f t="shared" si="2"/>
         <v>161600</v>
       </c>
@@ -16594,11 +16970,11 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="5">
         <f t="shared" si="5"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="6">
         <f t="shared" si="6"/>
         <v>1213440</v>
       </c>
@@ -16624,11 +17000,11 @@
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="5">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="G22" s="5">
+      <c r="G22" s="6">
         <f t="shared" si="2"/>
         <v>218400</v>
       </c>
@@ -16640,11 +17016,11 @@
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="5">
         <f t="shared" si="5"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="K22" s="5">
+      <c r="K22" s="6">
         <f t="shared" si="6"/>
         <v>1622880</v>
       </c>
@@ -16670,11 +17046,11 @@
       <c r="E23">
         <v>1</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="G23" s="5">
+      <c r="G23" s="6">
         <f t="shared" si="2"/>
         <v>237120</v>
       </c>
@@ -16686,11 +17062,11 @@
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="5">
         <f t="shared" si="5"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="K23" s="5">
+      <c r="K23" s="6">
         <f t="shared" si="6"/>
         <v>1761984</v>
       </c>
@@ -16716,11 +17092,11 @@
       <c r="E24">
         <v>1</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="5">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="G24" s="5">
+      <c r="G24" s="6">
         <f t="shared" si="2"/>
         <v>255840</v>
       </c>
@@ -16732,11 +17108,11 @@
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="5">
         <f t="shared" si="5"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="K24" s="5">
+      <c r="K24" s="6">
         <f t="shared" si="6"/>
         <v>1901088</v>
       </c>
@@ -16762,11 +17138,11 @@
       <c r="E25">
         <v>1</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="6">
         <f t="shared" si="2"/>
         <v>276640</v>
       </c>
@@ -16778,11 +17154,11 @@
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="5">
         <f t="shared" si="5"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="K25" s="5">
+      <c r="K25" s="6">
         <f t="shared" si="6"/>
         <v>2055648</v>
       </c>
@@ -16808,11 +17184,11 @@
       <c r="E26">
         <v>1</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="5">
         <f t="shared" si="0"/>
         <v>0.532710280373832</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="6">
         <f t="shared" si="2"/>
         <v>306020</v>
       </c>
@@ -16824,11 +17200,11 @@
         <f t="shared" si="4"/>
         <v>38</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="5">
         <f t="shared" si="5"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="K26" s="5">
+      <c r="K26" s="6">
         <f t="shared" si="6"/>
         <v>2251392</v>
       </c>
@@ -16854,11 +17230,11 @@
       <c r="E27">
         <v>1</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="5">
         <f t="shared" si="0"/>
         <v>0.519230769230769</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="6">
         <f t="shared" si="2"/>
         <v>318240</v>
       </c>
@@ -16870,11 +17246,11 @@
         <f t="shared" si="4"/>
         <v>37</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="5">
         <f t="shared" si="5"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="6">
         <f t="shared" si="6"/>
         <v>2364768</v>
       </c>
@@ -16900,11 +17276,11 @@
       <c r="E28">
         <v>1</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="5">
         <f t="shared" si="0"/>
         <v>0.947368421052632</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="6">
         <f t="shared" si="2"/>
         <v>854999.999999999</v>
       </c>
@@ -16916,11 +17292,11 @@
         <f t="shared" si="4"/>
         <v>319</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="5">
         <f t="shared" si="5"/>
         <v>0.950347567030784</v>
       </c>
-      <c r="K28" s="5">
+      <c r="K28" s="6">
         <f t="shared" si="6"/>
         <v>4350240</v>
       </c>
@@ -16946,11 +17322,11 @@
       <c r="E29">
         <v>1</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="5">
         <f t="shared" si="0"/>
         <v>0.545454545454545</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="6">
         <f t="shared" si="2"/>
         <v>389400</v>
       </c>
@@ -16962,11 +17338,11 @@
         <f t="shared" si="4"/>
         <v>39</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="5">
         <f t="shared" si="5"/>
         <v>0.70059880239521</v>
       </c>
-      <c r="K29" s="5">
+      <c r="K29" s="6">
         <f t="shared" si="6"/>
         <v>2837664</v>
       </c>
@@ -16992,11 +17368,11 @@
       <c r="E30">
         <v>1</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <f t="shared" si="0"/>
         <v>0.568965517241379</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="6">
         <f t="shared" si="2"/>
         <v>438480</v>
       </c>
@@ -17008,11 +17384,11 @@
         <f t="shared" si="4"/>
         <v>41</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="5">
         <f t="shared" si="5"/>
         <v>0.710982658959538</v>
       </c>
-      <c r="K30" s="5">
+      <c r="K30" s="6">
         <f t="shared" si="6"/>
         <v>3138912</v>
       </c>
@@ -17038,11 +17414,11 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <f t="shared" si="0"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="6">
         <f t="shared" si="2"/>
         <v>535500</v>
       </c>
@@ -17054,11 +17430,11 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="J31" s="4">
+      <c r="J31" s="5">
         <f t="shared" si="5"/>
         <v>0.715909090909091</v>
       </c>
-      <c r="K31" s="5">
+      <c r="K31" s="6">
         <f t="shared" si="6"/>
         <v>3801600</v>
       </c>
@@ -17084,11 +17460,11 @@
       <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <f t="shared" si="0"/>
         <v>0.579831932773109</v>
       </c>
-      <c r="G32" s="5">
+      <c r="G32" s="6">
         <f t="shared" si="2"/>
         <v>535500</v>
       </c>
@@ -17100,11 +17476,11 @@
         <f t="shared" si="4"/>
         <v>42</v>
       </c>
-      <c r="J32" s="4">
+      <c r="J32" s="5">
         <f t="shared" si="5"/>
         <v>0.715909090909091</v>
       </c>
-      <c r="K32" s="5">
+      <c r="K32" s="6">
         <f t="shared" si="6"/>
         <v>3801600</v>
       </c>
@@ -17130,11 +17506,11 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <f t="shared" si="0"/>
         <v>0.609375</v>
       </c>
-      <c r="G33" s="5">
+      <c r="G33" s="6">
         <f t="shared" si="2"/>
         <v>204800</v>
       </c>
@@ -17146,11 +17522,11 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="5">
         <f t="shared" si="5"/>
         <v>0.72972972972973</v>
       </c>
-      <c r="K33" s="5">
+      <c r="K33" s="6">
         <f t="shared" si="6"/>
         <v>1420800</v>
       </c>
@@ -17176,11 +17552,11 @@
       <c r="E34">
         <v>1</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <f t="shared" ref="F34:F56" si="8">0.06*D34/(1+0.06*D34)</f>
         <v>0.609375</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="6">
         <f t="shared" si="2"/>
         <v>576000</v>
       </c>
@@ -17192,11 +17568,11 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J34" s="5">
         <f t="shared" si="5"/>
         <v>0.72972972972973</v>
       </c>
-      <c r="K34" s="5">
+      <c r="K34" s="6">
         <f t="shared" si="6"/>
         <v>3996000</v>
       </c>
@@ -17222,11 +17598,11 @@
       <c r="E35">
         <v>1</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="5">
         <f t="shared" si="8"/>
         <v>0.609375</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="6">
         <f t="shared" ref="G35:G56" si="10">C35/(1-F35)</f>
         <v>576000</v>
       </c>
@@ -17238,11 +17614,11 @@
         <f t="shared" ref="I35:I56" si="12">D35+19*E35</f>
         <v>45</v>
       </c>
-      <c r="J35" s="4">
+      <c r="J35" s="5">
         <f t="shared" ref="J35:J56" si="13">0.06*I35/(1+0.06*I35)</f>
         <v>0.72972972972973</v>
       </c>
-      <c r="K35" s="5">
+      <c r="K35" s="6">
         <f t="shared" ref="K35:K56" si="14">H35/(1-J35)</f>
         <v>3996000</v>
       </c>
@@ -17268,11 +17644,11 @@
       <c r="E36">
         <v>1</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <f t="shared" si="8"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="G36" s="5">
+      <c r="G36" s="6">
         <f t="shared" si="10"/>
         <v>589500</v>
       </c>
@@ -17284,11 +17660,11 @@
         <f t="shared" si="12"/>
         <v>46</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="5">
         <f t="shared" si="13"/>
         <v>0.734042553191489</v>
       </c>
-      <c r="K36" s="5">
+      <c r="K36" s="6">
         <f t="shared" si="14"/>
         <v>4060800</v>
       </c>
@@ -17314,11 +17690,11 @@
       <c r="E37">
         <v>1</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <f t="shared" si="8"/>
         <v>0.618320610687023</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="6">
         <f t="shared" si="10"/>
         <v>589500</v>
       </c>
@@ -17330,11 +17706,11 @@
         <f t="shared" si="12"/>
         <v>46</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J37" s="5">
         <f t="shared" si="13"/>
         <v>0.734042553191489</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="6">
         <f t="shared" si="14"/>
         <v>4060800</v>
       </c>
@@ -17360,11 +17736,11 @@
       <c r="E38">
         <v>1</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="5">
         <f t="shared" si="8"/>
         <v>0.96</v>
       </c>
-      <c r="G38" s="5">
+      <c r="G38" s="6">
         <f t="shared" si="10"/>
         <v>1312500</v>
       </c>
@@ -17376,11 +17752,11 @@
         <f t="shared" si="12"/>
         <v>419</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J38" s="5">
         <f t="shared" si="13"/>
         <v>0.961744452945677</v>
       </c>
-      <c r="K38" s="5">
+      <c r="K38" s="6">
         <f t="shared" si="14"/>
         <v>6587280</v>
       </c>
@@ -17406,11 +17782,11 @@
       <c r="E39">
         <v>1</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="5">
         <f t="shared" si="8"/>
         <v>0.626865671641791</v>
       </c>
-      <c r="G39" s="5">
+      <c r="G39" s="6">
         <f t="shared" si="10"/>
         <v>603000</v>
       </c>
@@ -17422,11 +17798,11 @@
         <f t="shared" si="12"/>
         <v>47</v>
       </c>
-      <c r="J39" s="4">
+      <c r="J39" s="5">
         <f t="shared" si="13"/>
         <v>0.738219895287958</v>
       </c>
-      <c r="K39" s="5">
+      <c r="K39" s="6">
         <f t="shared" si="14"/>
         <v>4125600</v>
       </c>
@@ -17452,11 +17828,11 @@
       <c r="E40">
         <v>1</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="5">
         <f t="shared" si="8"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="G40" s="5">
+      <c r="G40" s="6">
         <f t="shared" si="10"/>
         <v>616500</v>
       </c>
@@ -17468,11 +17844,11 @@
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="J40" s="4">
+      <c r="J40" s="5">
         <f t="shared" si="13"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="K40" s="5">
+      <c r="K40" s="6">
         <f t="shared" si="14"/>
         <v>4190400</v>
       </c>
@@ -17498,11 +17874,11 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="5">
         <f t="shared" si="8"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="G41" s="5">
+      <c r="G41" s="6">
         <f t="shared" si="10"/>
         <v>274000</v>
       </c>
@@ -17514,11 +17890,11 @@
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="J41" s="4">
+      <c r="J41" s="5">
         <f t="shared" si="13"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="K41" s="5">
+      <c r="K41" s="6">
         <f t="shared" si="14"/>
         <v>1862400</v>
       </c>
@@ -17544,11 +17920,11 @@
       <c r="E42">
         <v>1</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="5">
         <f t="shared" si="8"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="6">
         <f t="shared" si="10"/>
         <v>849400</v>
       </c>
@@ -17560,11 +17936,11 @@
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="J42" s="4">
+      <c r="J42" s="5">
         <f t="shared" si="13"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="K42" s="5">
+      <c r="K42" s="6">
         <f t="shared" si="14"/>
         <v>5773440</v>
       </c>
@@ -17590,11 +17966,11 @@
       <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="5">
         <f t="shared" si="8"/>
         <v>0.635036496350365</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="6">
         <f t="shared" si="10"/>
         <v>890500</v>
       </c>
@@ -17606,11 +17982,11 @@
         <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="J43" s="4">
+      <c r="J43" s="5">
         <f t="shared" si="13"/>
         <v>0.742268041237113</v>
       </c>
-      <c r="K43" s="5">
+      <c r="K43" s="6">
         <f t="shared" si="14"/>
         <v>6052800</v>
       </c>
@@ -17636,11 +18012,11 @@
       <c r="E44">
         <v>1</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="5">
         <f t="shared" si="8"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="6">
         <f t="shared" si="10"/>
         <v>952000</v>
       </c>
@@ -17652,11 +18028,11 @@
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
-      <c r="J44" s="4">
+      <c r="J44" s="5">
         <f t="shared" si="13"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="K44" s="5">
+      <c r="K44" s="6">
         <f t="shared" si="14"/>
         <v>6430080</v>
       </c>
@@ -17682,11 +18058,11 @@
       <c r="E45">
         <v>1</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="5">
         <f t="shared" si="8"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="G45" s="5">
+      <c r="G45" s="6">
         <f t="shared" si="10"/>
         <v>994000</v>
       </c>
@@ -17698,11 +18074,11 @@
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
-      <c r="J45" s="4">
+      <c r="J45" s="5">
         <f t="shared" si="13"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="K45" s="5">
+      <c r="K45" s="6">
         <f t="shared" si="14"/>
         <v>6713760</v>
       </c>
@@ -17728,11 +18104,11 @@
       <c r="E46">
         <v>1</v>
       </c>
-      <c r="F46" s="4">
+      <c r="F46" s="5">
         <f t="shared" si="8"/>
         <v>0.642857142857143</v>
       </c>
-      <c r="G46" s="5">
+      <c r="G46" s="6">
         <f t="shared" si="10"/>
         <v>1036000</v>
       </c>
@@ -17744,11 +18120,11 @@
         <f t="shared" si="12"/>
         <v>49</v>
       </c>
-      <c r="J46" s="4">
+      <c r="J46" s="5">
         <f t="shared" si="13"/>
         <v>0.746192893401015</v>
       </c>
-      <c r="K46" s="5">
+      <c r="K46" s="6">
         <f t="shared" si="14"/>
         <v>6997440</v>
       </c>
@@ -17774,11 +18150,11 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="5">
         <f t="shared" si="8"/>
         <v>0.65034965034965</v>
       </c>
-      <c r="G47" s="5">
+      <c r="G47" s="6">
         <f t="shared" si="10"/>
         <v>1086800</v>
       </c>
@@ -17790,11 +18166,11 @@
         <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="J47" s="4">
+      <c r="J47" s="5">
         <f t="shared" si="13"/>
         <v>0.75</v>
       </c>
-      <c r="K47" s="5">
+      <c r="K47" s="6">
         <f t="shared" si="14"/>
         <v>7296000</v>
       </c>
@@ -17820,11 +18196,11 @@
       <c r="E48">
         <v>1</v>
       </c>
-      <c r="F48" s="4">
+      <c r="F48" s="5">
         <f t="shared" si="8"/>
         <v>0.967741935483871</v>
       </c>
-      <c r="G48" s="5">
+      <c r="G48" s="6">
         <f t="shared" si="10"/>
         <v>3100000</v>
       </c>
@@ -17836,11 +18212,11 @@
         <f t="shared" si="12"/>
         <v>519</v>
       </c>
-      <c r="J48" s="4">
+      <c r="J48" s="5">
         <f t="shared" si="13"/>
         <v>0.968886123210952</v>
       </c>
-      <c r="K48" s="5">
+      <c r="K48" s="6">
         <f t="shared" si="14"/>
         <v>15427200</v>
       </c>
@@ -17866,11 +18242,11 @@
       <c r="E49">
         <v>1</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="5">
         <f t="shared" si="8"/>
         <v>0.664429530201342</v>
       </c>
-      <c r="G49" s="5">
+      <c r="G49" s="6">
         <f t="shared" si="10"/>
         <v>447000</v>
       </c>
@@ -17882,11 +18258,11 @@
         <f t="shared" si="12"/>
         <v>52</v>
       </c>
-      <c r="J49" s="4">
+      <c r="J49" s="5">
         <f t="shared" si="13"/>
         <v>0.757281553398058</v>
       </c>
-      <c r="K49" s="5">
+      <c r="K49" s="6">
         <f t="shared" si="14"/>
         <v>2966400</v>
       </c>
@@ -17912,11 +18288,11 @@
       <c r="E50">
         <v>1</v>
       </c>
-      <c r="F50" s="4">
+      <c r="F50" s="5">
         <f t="shared" si="8"/>
         <v>0.664429530201342</v>
       </c>
-      <c r="G50" s="5">
+      <c r="G50" s="6">
         <f t="shared" si="10"/>
         <v>1296300</v>
       </c>
@@ -17928,11 +18304,11 @@
         <f t="shared" si="12"/>
         <v>52</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J50" s="5">
         <f t="shared" si="13"/>
         <v>0.757281553398058</v>
       </c>
-      <c r="K50" s="5">
+      <c r="K50" s="6">
         <f t="shared" si="14"/>
         <v>8602560</v>
       </c>
@@ -17958,11 +18334,11 @@
       <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="5">
         <f t="shared" si="8"/>
         <v>0.67741935483871</v>
       </c>
-      <c r="G51" s="5">
+      <c r="G51" s="6">
         <f t="shared" si="10"/>
         <v>1472500</v>
       </c>
@@ -17974,11 +18350,11 @@
         <f t="shared" si="12"/>
         <v>54</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J51" s="5">
         <f t="shared" si="13"/>
         <v>0.764150943396226</v>
       </c>
-      <c r="K51" s="5">
+      <c r="K51" s="6">
         <f t="shared" si="14"/>
         <v>9667200</v>
       </c>
@@ -18004,11 +18380,11 @@
       <c r="E52">
         <v>1</v>
       </c>
-      <c r="F52" s="4">
+      <c r="F52" s="5">
         <f t="shared" si="8"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="G52" s="5">
+      <c r="G52" s="6">
         <f t="shared" si="10"/>
         <v>1738000</v>
       </c>
@@ -18020,11 +18396,11 @@
         <f t="shared" si="12"/>
         <v>55</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J52" s="5">
         <f t="shared" si="13"/>
         <v>0.767441860465116</v>
       </c>
-      <c r="K52" s="5">
+      <c r="K52" s="6">
         <f t="shared" si="14"/>
         <v>11352000</v>
       </c>
@@ -18050,11 +18426,11 @@
       <c r="E53">
         <v>1</v>
       </c>
-      <c r="F53" s="4">
+      <c r="F53" s="5">
         <f t="shared" si="8"/>
         <v>0.683544303797468</v>
       </c>
-      <c r="G53" s="5">
+      <c r="G53" s="6">
         <f t="shared" si="10"/>
         <v>1896000</v>
       </c>
@@ -18066,11 +18442,11 @@
         <f t="shared" si="12"/>
         <v>55</v>
       </c>
-      <c r="J53" s="4">
+      <c r="J53" s="5">
         <f t="shared" si="13"/>
         <v>0.767441860465116</v>
       </c>
-      <c r="K53" s="5">
+      <c r="K53" s="6">
         <f t="shared" si="14"/>
         <v>12384000</v>
       </c>
@@ -18096,11 +18472,11 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54" s="4">
+      <c r="F54" s="5">
         <f t="shared" si="8"/>
         <v>0.68944099378882</v>
       </c>
-      <c r="G54" s="5">
+      <c r="G54" s="6">
         <f t="shared" si="10"/>
         <v>2012500</v>
       </c>
@@ -18112,11 +18488,11 @@
         <f t="shared" si="12"/>
         <v>56</v>
       </c>
-      <c r="J54" s="4">
+      <c r="J54" s="5">
         <f t="shared" si="13"/>
         <v>0.770642201834862</v>
       </c>
-      <c r="K54" s="5">
+      <c r="K54" s="6">
         <f t="shared" si="14"/>
         <v>13080000</v>
       </c>
@@ -18142,11 +18518,11 @@
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="5">
         <f t="shared" si="8"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="G55" s="5">
+      <c r="G55" s="6">
         <f t="shared" si="10"/>
         <v>2132000</v>
       </c>
@@ -18158,11 +18534,11 @@
         <f t="shared" si="12"/>
         <v>57</v>
       </c>
-      <c r="J55" s="4">
+      <c r="J55" s="5">
         <f t="shared" si="13"/>
         <v>0.773755656108597</v>
       </c>
-      <c r="K55" s="5">
+      <c r="K55" s="6">
         <f t="shared" si="14"/>
         <v>13790400</v>
       </c>
@@ -18188,11 +18564,11 @@
       <c r="E56">
         <v>1</v>
       </c>
-      <c r="F56" s="4">
+      <c r="F56" s="5">
         <f t="shared" si="8"/>
         <v>0.695121951219512</v>
       </c>
-      <c r="G56" s="5">
+      <c r="G56" s="6">
         <f t="shared" si="10"/>
         <v>2214000</v>
       </c>
@@ -18204,11 +18580,11 @@
         <f t="shared" si="12"/>
         <v>57</v>
       </c>
-      <c r="J56" s="4">
+      <c r="J56" s="5">
         <f t="shared" si="13"/>
         <v>0.773755656108597</v>
       </c>
-      <c r="K56" s="5">
+      <c r="K56" s="6">
         <f t="shared" si="14"/>
         <v>14320800</v>
       </c>
@@ -18293,7 +18669,7 @@
         <f>A2/(A2+B2)</f>
         <v>0.833333333333333</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>627</v>
       </c>
       <c r="G2">
@@ -18338,7 +18714,7 @@
         <f>A3/(A3+B3)</f>
         <v>0.869565217391304</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>628</v>
       </c>
       <c r="G3">
@@ -18383,7 +18759,7 @@
         <f t="shared" ref="C4:C11" si="0">A4/(A4+B4)</f>
         <v>0.882352941176471</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>629</v>
       </c>
       <c r="G4">
@@ -18428,7 +18804,7 @@
         <f t="shared" si="0"/>
         <v>0.888888888888889</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>630</v>
       </c>
       <c r="G5">
@@ -18473,7 +18849,7 @@
         <f t="shared" si="0"/>
         <v>0.892857142857143</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>631</v>
       </c>
       <c r="G6">
@@ -18518,7 +18894,7 @@
         <f t="shared" si="0"/>
         <v>0.895522388059702</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>632</v>
       </c>
       <c r="G7">
@@ -18747,7 +19123,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B2" t="s">
@@ -18767,7 +19143,7 @@
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="1"/>
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>539</v>
       </c>
@@ -18798,7 +19174,7 @@
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>542</v>
       </c>
@@ -18822,7 +19198,7 @@
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>543</v>
       </c>
@@ -18846,7 +19222,7 @@
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
+      <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>648</v>
       </c>
@@ -18859,7 +19235,7 @@
       <c r="E6">
         <v>6000</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="12" t="s">
         <v>650</v>
       </c>
       <c r="K6">
@@ -18867,7 +19243,7 @@
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>651</v>
       </c>
@@ -18894,7 +19270,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>548</v>
       </c>
@@ -18916,7 +19292,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="1"/>
+      <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>549</v>
       </c>
@@ -18931,7 +19307,7 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>656</v>
       </c>
@@ -18949,7 +19325,7 @@
       </c>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>659</v>
       </c>
@@ -18970,7 +19346,7 @@
       </c>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B12" t="s">
@@ -18993,7 +19369,7 @@
       </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
+      <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>554</v>
       </c>
@@ -19006,7 +19382,7 @@
       <c r="G13">
         <v>10</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="H13" s="12" t="s">
         <v>663</v>
       </c>
       <c r="K13">
@@ -19014,7 +19390,7 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="1"/>
+      <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>555</v>
       </c>
@@ -19038,7 +19414,7 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>667</v>
       </c>
@@ -19062,7 +19438,7 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
+      <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>557</v>
       </c>
@@ -19077,7 +19453,7 @@
       </c>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="1"/>
+      <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>672</v>
       </c>
@@ -19101,7 +19477,7 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="1"/>
+      <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>559</v>
       </c>
@@ -19125,7 +19501,7 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="1"/>
+      <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>563</v>
       </c>
@@ -19140,7 +19516,7 @@
       </c>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="1"/>
+      <c r="A20" s="2"/>
       <c r="B20" t="s">
         <v>561</v>
       </c>
@@ -19150,7 +19526,7 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="H20" s="9" t="s">
+      <c r="H20" s="10" t="s">
         <v>678</v>
       </c>
       <c r="I20">
@@ -19161,7 +19537,7 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="1"/>
+      <c r="A21" s="2"/>
       <c r="B21" t="s">
         <v>679</v>
       </c>
@@ -19176,7 +19552,7 @@
       </c>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="1"/>
+      <c r="A22" s="2"/>
       <c r="B22" t="s">
         <v>565</v>
       </c>
@@ -19200,7 +19576,7 @@
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2"/>
       <c r="B23" t="s">
         <v>683</v>
       </c>
@@ -19218,7 +19594,7 @@
       </c>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B24" t="s">
@@ -19244,7 +19620,7 @@
       </c>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>570</v>
       </c>
@@ -19268,7 +19644,7 @@
       </c>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>571</v>
       </c>
@@ -19289,7 +19665,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2"/>
       <c r="B27" t="s">
         <v>572</v>
       </c>
@@ -19305,7 +19681,7 @@
       <c r="G27">
         <v>10</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="10" t="s">
         <v>691</v>
       </c>
       <c r="K27">
@@ -19313,7 +19689,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2"/>
       <c r="B28" t="s">
         <v>573</v>
       </c>
@@ -19337,7 +19713,7 @@
       </c>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="1"/>
+      <c r="A29" s="2"/>
       <c r="B29" t="s">
         <v>574</v>
       </c>
@@ -19358,7 +19734,7 @@
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="1"/>
+      <c r="A30" s="2"/>
       <c r="B30" t="s">
         <v>575</v>
       </c>
@@ -19368,7 +19744,7 @@
       <c r="D30">
         <v>4</v>
       </c>
-      <c r="H30" s="9" t="s">
+      <c r="H30" s="10" t="s">
         <v>695</v>
       </c>
       <c r="I30">
@@ -19379,7 +19755,7 @@
       </c>
     </row>
     <row r="31" spans="1:12">
-      <c r="A31" s="1"/>
+      <c r="A31" s="2"/>
       <c r="B31" t="s">
         <v>576</v>
       </c>
@@ -19406,7 +19782,7 @@
       </c>
     </row>
     <row r="32" spans="1:12">
-      <c r="A32" s="1"/>
+      <c r="A32" s="2"/>
       <c r="B32" t="s">
         <v>577</v>
       </c>
@@ -19433,7 +19809,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="1"/>
+      <c r="A33" s="2"/>
       <c r="B33" t="s">
         <v>578</v>
       </c>
@@ -19445,7 +19821,7 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2"/>
       <c r="B34" t="s">
         <v>700</v>
       </c>
@@ -19460,7 +19836,7 @@
       </c>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="1"/>
+      <c r="A35" s="2"/>
       <c r="B35" t="s">
         <v>703</v>
       </c>
@@ -19481,7 +19857,7 @@
       </c>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="1"/>
+      <c r="A36" s="2"/>
       <c r="B36" t="s">
         <v>705</v>
       </c>
@@ -19508,7 +19884,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B37" t="s">
@@ -19534,7 +19910,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="1"/>
+      <c r="A38" s="2"/>
       <c r="B38" t="s">
         <v>582</v>
       </c>
@@ -19558,7 +19934,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="1"/>
+      <c r="A39" s="2"/>
       <c r="B39" t="s">
         <v>583</v>
       </c>
@@ -19585,7 +19961,7 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="1"/>
+      <c r="A40" s="2"/>
       <c r="B40" t="s">
         <v>584</v>
       </c>
@@ -19612,7 +19988,7 @@
       </c>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="1"/>
+      <c r="A41" s="2"/>
       <c r="B41" t="s">
         <v>711</v>
       </c>
@@ -19633,7 +20009,7 @@
       </c>
     </row>
     <row r="42" spans="1:12">
-      <c r="A42" s="1"/>
+      <c r="A42" s="2"/>
       <c r="B42" t="s">
         <v>712</v>
       </c>
@@ -19660,7 +20036,7 @@
       </c>
     </row>
     <row r="43" spans="1:11">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2"/>
       <c r="B43" t="s">
         <v>715</v>
       </c>
@@ -19676,7 +20052,7 @@
       <c r="G43">
         <v>15</v>
       </c>
-      <c r="H43" s="9" t="s">
+      <c r="H43" s="10" t="s">
         <v>717</v>
       </c>
       <c r="K43">
@@ -19684,7 +20060,7 @@
       </c>
     </row>
     <row r="44" spans="1:11">
-      <c r="A44" s="1"/>
+      <c r="A44" s="2"/>
       <c r="B44" t="s">
         <v>718</v>
       </c>
@@ -19702,7 +20078,7 @@
       </c>
     </row>
     <row r="45" spans="1:11">
-      <c r="A45" s="1"/>
+      <c r="A45" s="2"/>
       <c r="B45" t="s">
         <v>720</v>
       </c>
@@ -19723,7 +20099,7 @@
       </c>
     </row>
     <row r="46" spans="1:11">
-      <c r="A46" s="1"/>
+      <c r="A46" s="2"/>
       <c r="B46" t="s">
         <v>723</v>
       </c>
@@ -19744,7 +20120,7 @@
       </c>
     </row>
     <row r="47" spans="1:11">
-      <c r="A47" s="1"/>
+      <c r="A47" s="2"/>
       <c r="B47" t="s">
         <v>725</v>
       </c>
@@ -19762,7 +20138,7 @@
       </c>
     </row>
     <row r="48" spans="1:11">
-      <c r="A48" s="1"/>
+      <c r="A48" s="2"/>
       <c r="B48" t="s">
         <v>728</v>
       </c>
@@ -19780,7 +20156,7 @@
       </c>
     </row>
     <row r="49" spans="1:11">
-      <c r="A49" s="1"/>
+      <c r="A49" s="2"/>
       <c r="B49" t="s">
         <v>730</v>
       </c>
@@ -19804,7 +20180,7 @@
       </c>
     </row>
     <row r="50" spans="1:11">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B50" t="s">
@@ -19827,7 +20203,7 @@
       </c>
     </row>
     <row r="51" spans="1:11">
-      <c r="A51" s="1"/>
+      <c r="A51" s="2"/>
       <c r="B51" t="s">
         <v>598</v>
       </c>
@@ -19854,7 +20230,7 @@
       </c>
     </row>
     <row r="52" spans="1:11">
-      <c r="A52" s="1"/>
+      <c r="A52" s="2"/>
       <c r="B52" t="s">
         <v>599</v>
       </c>
@@ -19878,7 +20254,7 @@
       </c>
     </row>
     <row r="53" spans="1:12">
-      <c r="A53" s="1"/>
+      <c r="A53" s="2"/>
       <c r="B53" t="s">
         <v>736</v>
       </c>
@@ -19905,7 +20281,7 @@
       </c>
     </row>
     <row r="54" spans="1:11">
-      <c r="A54" s="1"/>
+      <c r="A54" s="2"/>
       <c r="B54" t="s">
         <v>601</v>
       </c>
@@ -19932,7 +20308,7 @@
       </c>
     </row>
     <row r="55" spans="1:11">
-      <c r="A55" s="1"/>
+      <c r="A55" s="2"/>
       <c r="B55" t="s">
         <v>602</v>
       </c>
@@ -19953,7 +20329,7 @@
       </c>
     </row>
     <row r="56" spans="1:11">
-      <c r="A56" s="1"/>
+      <c r="A56" s="2"/>
       <c r="B56" t="s">
         <v>603</v>
       </c>
@@ -19977,7 +20353,7 @@
       </c>
     </row>
     <row r="57" spans="1:11">
-      <c r="A57" s="1"/>
+      <c r="A57" s="2"/>
       <c r="B57" t="s">
         <v>742</v>
       </c>
@@ -19998,7 +20374,7 @@
       </c>
     </row>
     <row r="58" spans="1:12">
-      <c r="A58" s="1"/>
+      <c r="A58" s="2"/>
       <c r="B58" t="s">
         <v>605</v>
       </c>
@@ -20022,7 +20398,7 @@
       </c>
     </row>
     <row r="59" spans="1:11">
-      <c r="A59" s="1"/>
+      <c r="A59" s="2"/>
       <c r="B59" t="s">
         <v>746</v>
       </c>
@@ -20040,7 +20416,7 @@
       </c>
     </row>
     <row r="60" spans="1:11">
-      <c r="A60" s="1"/>
+      <c r="A60" s="2"/>
       <c r="B60" t="s">
         <v>748</v>
       </c>
@@ -20061,7 +20437,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="1"/>
+      <c r="A61" s="2"/>
       <c r="B61" t="s">
         <v>749</v>
       </c>
@@ -20073,7 +20449,7 @@
       </c>
     </row>
     <row r="62" spans="1:11">
-      <c r="A62" s="1"/>
+      <c r="A62" s="2"/>
       <c r="B62" t="s">
         <v>751</v>
       </c>
@@ -20094,7 +20470,7 @@
       </c>
     </row>
     <row r="63" spans="1:12">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B63" t="s">
@@ -20123,7 +20499,7 @@
       </c>
     </row>
     <row r="64" spans="1:12">
-      <c r="A64" s="1"/>
+      <c r="A64" s="2"/>
       <c r="B64" t="s">
         <v>756</v>
       </c>
@@ -20150,7 +20526,7 @@
       </c>
     </row>
     <row r="65" spans="1:11">
-      <c r="A65" s="1"/>
+      <c r="A65" s="2"/>
       <c r="B65" t="s">
         <v>759</v>
       </c>
@@ -20174,7 +20550,7 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="1"/>
+      <c r="A66" s="2"/>
       <c r="B66" t="s">
         <v>760</v>
       </c>
@@ -20186,7 +20562,7 @@
       </c>
     </row>
     <row r="67" spans="1:11">
-      <c r="A67" s="1"/>
+      <c r="A67" s="2"/>
       <c r="B67" t="s">
         <v>610</v>
       </c>
@@ -20210,7 +20586,7 @@
       </c>
     </row>
     <row r="68" spans="1:11">
-      <c r="A68" s="1"/>
+      <c r="A68" s="2"/>
       <c r="B68" t="s">
         <v>611</v>
       </c>
@@ -20245,4 +20621,1931 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="6" width="16.75" customWidth="1"/>
+    <col min="7" max="7" width="26.625" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="53.25" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>765</v>
+      </c>
+      <c r="B1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>767</v>
+      </c>
+      <c r="E1" t="s">
+        <v>633</v>
+      </c>
+      <c r="F1" t="s">
+        <v>768</v>
+      </c>
+      <c r="G1" t="s">
+        <v>769</v>
+      </c>
+      <c r="H1" t="s">
+        <v>770</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="2" ht="86" customHeight="1" spans="1:10">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>772</v>
+      </c>
+      <c r="F2" t="s">
+        <v>773</v>
+      </c>
+      <c r="G2" t="s">
+        <v>774</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2" s="1" t="str">
+        <f>"if id == exchangeItemId["&amp;A2&amp;"] then
+        set "&amp;G2&amp;"[i] = "&amp;G2&amp;"[i] + "&amp;H2&amp;"
+    endif"</f>
+        <v>if id == exchangeItemId[1] then
+        set exchangeHit[i] = exchangeHit[i] + 20
+    endif</v>
+      </c>
+      <c r="J2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="3" ht="54" spans="1:10">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F3" t="s">
+        <v>776</v>
+      </c>
+      <c r="G3" t="s">
+        <v>777</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="1" t="str">
+        <f t="shared" ref="I3:I34" si="0">"if id == exchangeItemId["&amp;A3&amp;"] then
+        set "&amp;G3&amp;"[i] = "&amp;G3&amp;"[i] + "&amp;H3&amp;"
+    endif"</f>
+        <v>if id == exchangeItemId[2] then
+        set exchangeCriticalRate[i] = exchangeCriticalRate[i] + 0.5
+    endif</v>
+      </c>
+      <c r="J3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="4" ht="54" spans="1:10">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>779</v>
+      </c>
+      <c r="F4" t="s">
+        <v>780</v>
+      </c>
+      <c r="G4" t="s">
+        <v>781</v>
+      </c>
+      <c r="H4">
+        <v>0.02</v>
+      </c>
+      <c r="I4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[3] then
+        set exchangeCriticalDamage[i] = exchangeCriticalDamage[i] + 0.02
+    endif</v>
+      </c>
+      <c r="J4" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="5" ht="40.5" spans="1:10">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>783</v>
+      </c>
+      <c r="F5" t="s">
+        <v>784</v>
+      </c>
+      <c r="G5" t="s">
+        <v>785</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[4] then
+        set exchangeStr[i] = exchangeStr[i] + 5
+    endif</v>
+      </c>
+      <c r="J5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="6" ht="40.5" spans="1:10">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>787</v>
+      </c>
+      <c r="F6" t="s">
+        <v>788</v>
+      </c>
+      <c r="G6" t="s">
+        <v>789</v>
+      </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[5] then
+        set exchangeAgi[i] = exchangeAgi[i] + 5
+    endif</v>
+      </c>
+      <c r="J6" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="7" ht="40.5" spans="1:10">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>791</v>
+      </c>
+      <c r="F7" t="s">
+        <v>792</v>
+      </c>
+      <c r="G7" t="s">
+        <v>793</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[6] then
+        set exchangeInt[i] = exchangeInt[i] + 5
+    endif</v>
+      </c>
+      <c r="J7" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="8" ht="54" spans="1:10">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>795</v>
+      </c>
+      <c r="F8" t="s">
+        <v>796</v>
+      </c>
+      <c r="G8" t="s">
+        <v>797</v>
+      </c>
+      <c r="H8">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[7] then
+        set exchangeManaRecovery[i] = exchangeManaRecovery[i] + 0.2
+    endif</v>
+      </c>
+      <c r="J8" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="9" ht="54" spans="1:10">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>799</v>
+      </c>
+      <c r="F9" t="s">
+        <v>800</v>
+      </c>
+      <c r="G9" t="s">
+        <v>801</v>
+      </c>
+      <c r="H9">
+        <v>0.005</v>
+      </c>
+      <c r="I9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[8] then
+        set exchangeDamage[i] = exchangeDamage[i] + 0.005
+    endif</v>
+      </c>
+      <c r="J9" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="10" ht="54" spans="1:10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>45</v>
+      </c>
+      <c r="E10" t="s">
+        <v>803</v>
+      </c>
+      <c r="F10" t="s">
+        <v>804</v>
+      </c>
+      <c r="G10" t="s">
+        <v>805</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[9] then
+        set exchangeCooldownReduction[i] = exchangeCooldownReduction[i] + 2
+    endif</v>
+      </c>
+      <c r="J10" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="11" ht="54" spans="1:10">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>807</v>
+      </c>
+      <c r="F11" t="s">
+        <v>808</v>
+      </c>
+      <c r="G11" t="s">
+        <v>809</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[10] then
+        set exchangeKillGold[i] = exchangeKillGold[i] + 1
+    endif</v>
+      </c>
+      <c r="J11" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="12" ht="40.5" spans="2:10">
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>811</v>
+      </c>
+      <c r="F12" t="s">
+        <v>812</v>
+      </c>
+      <c r="I12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[] then
+        set [i] = [i] + 
+    endif</v>
+      </c>
+      <c r="J12" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="13" ht="40.5" spans="1:10">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>813</v>
+      </c>
+      <c r="F13" t="s">
+        <v>814</v>
+      </c>
+      <c r="G13" t="s">
+        <v>774</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
+      </c>
+      <c r="I13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[11] then
+        set exchangeHit[i] = exchangeHit[i] + 50
+    endif</v>
+      </c>
+      <c r="J13" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="14" ht="54" spans="1:10">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>60</v>
+      </c>
+      <c r="E14" t="s">
+        <v>815</v>
+      </c>
+      <c r="F14" t="s">
+        <v>816</v>
+      </c>
+      <c r="G14" t="s">
+        <v>777</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[12] then
+        set exchangeCriticalRate[i] = exchangeCriticalRate[i] + 1
+    endif</v>
+      </c>
+      <c r="J14" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="15" ht="54" spans="1:10">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>65</v>
+      </c>
+      <c r="E15" t="s">
+        <v>817</v>
+      </c>
+      <c r="F15" t="s">
+        <v>818</v>
+      </c>
+      <c r="G15" t="s">
+        <v>781</v>
+      </c>
+      <c r="H15">
+        <v>0.05</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[13] then
+        set exchangeCriticalDamage[i] = exchangeCriticalDamage[i] + 0.05
+    endif</v>
+      </c>
+      <c r="J15" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="16" ht="40.5" spans="1:10">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>70</v>
+      </c>
+      <c r="E16" t="s">
+        <v>819</v>
+      </c>
+      <c r="F16" t="s">
+        <v>820</v>
+      </c>
+      <c r="G16" t="s">
+        <v>785</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[14] then
+        set exchangeStr[i] = exchangeStr[i] + 10
+    endif</v>
+      </c>
+      <c r="J16" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="17" ht="40.5" spans="1:10">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>75</v>
+      </c>
+      <c r="E17" t="s">
+        <v>821</v>
+      </c>
+      <c r="F17" t="s">
+        <v>822</v>
+      </c>
+      <c r="G17" t="s">
+        <v>789</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[15] then
+        set exchangeAgi[i] = exchangeAgi[i] + 10
+    endif</v>
+      </c>
+      <c r="J17" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="18" ht="40.5" spans="1:10">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>823</v>
+      </c>
+      <c r="F18" t="s">
+        <v>824</v>
+      </c>
+      <c r="G18" t="s">
+        <v>793</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[16] then
+        set exchangeInt[i] = exchangeInt[i] + 10
+    endif</v>
+      </c>
+      <c r="J18" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="19" ht="54" spans="1:10">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>85</v>
+      </c>
+      <c r="E19" t="s">
+        <v>825</v>
+      </c>
+      <c r="F19" t="s">
+        <v>826</v>
+      </c>
+      <c r="G19" t="s">
+        <v>797</v>
+      </c>
+      <c r="H19">
+        <v>0.5</v>
+      </c>
+      <c r="I19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[17] then
+        set exchangeManaRecovery[i] = exchangeManaRecovery[i] + 0.5
+    endif</v>
+      </c>
+      <c r="J19" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="20" ht="54" spans="1:10">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>799</v>
+      </c>
+      <c r="F20" t="s">
+        <v>827</v>
+      </c>
+      <c r="G20" t="s">
+        <v>801</v>
+      </c>
+      <c r="H20">
+        <v>0.005</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[18] then
+        set exchangeDamage[i] = exchangeDamage[i] + 0.005
+    endif</v>
+      </c>
+      <c r="J20" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="21" ht="54" spans="1:10">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>95</v>
+      </c>
+      <c r="E21" t="s">
+        <v>803</v>
+      </c>
+      <c r="F21" t="s">
+        <v>828</v>
+      </c>
+      <c r="G21" t="s">
+        <v>805</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[19] then
+        set exchangeCooldownReduction[i] = exchangeCooldownReduction[i] + 2
+    endif</v>
+      </c>
+      <c r="J21" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="22" ht="54" spans="1:10">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22" t="s">
+        <v>829</v>
+      </c>
+      <c r="F22" t="s">
+        <v>830</v>
+      </c>
+      <c r="G22" t="s">
+        <v>809</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[20] then
+        set exchangeKillGold[i] = exchangeKillGold[i] + 2
+    endif</v>
+      </c>
+      <c r="J22" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="23" ht="40.5" spans="2:10">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>811</v>
+      </c>
+      <c r="F23" t="s">
+        <v>831</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[] then
+        set [i] = [i] + 
+    endif</v>
+      </c>
+      <c r="J23" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="24" ht="40.5" spans="1:10">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>105</v>
+      </c>
+      <c r="E24" t="s">
+        <v>832</v>
+      </c>
+      <c r="F24" t="s">
+        <v>833</v>
+      </c>
+      <c r="G24" t="s">
+        <v>774</v>
+      </c>
+      <c r="H24">
+        <v>100</v>
+      </c>
+      <c r="I24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[21] then
+        set exchangeHit[i] = exchangeHit[i] + 100
+    endif</v>
+      </c>
+      <c r="J24" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="25" ht="54" spans="1:10">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>834</v>
+      </c>
+      <c r="F25" t="s">
+        <v>835</v>
+      </c>
+      <c r="G25" t="s">
+        <v>777</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[22] then
+        set exchangeCriticalRate[i] = exchangeCriticalRate[i] + 2
+    endif</v>
+      </c>
+      <c r="J25" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="26" ht="54" spans="1:10">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>115</v>
+      </c>
+      <c r="E26" t="s">
+        <v>836</v>
+      </c>
+      <c r="F26" t="s">
+        <v>837</v>
+      </c>
+      <c r="G26" t="s">
+        <v>781</v>
+      </c>
+      <c r="H26">
+        <v>0.1</v>
+      </c>
+      <c r="I26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[23] then
+        set exchangeCriticalDamage[i] = exchangeCriticalDamage[i] + 0.1
+    endif</v>
+      </c>
+      <c r="J26" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="27" ht="40.5" spans="1:10">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>120</v>
+      </c>
+      <c r="E27" t="s">
+        <v>838</v>
+      </c>
+      <c r="F27" t="s">
+        <v>839</v>
+      </c>
+      <c r="G27" t="s">
+        <v>785</v>
+      </c>
+      <c r="H27">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[24] then
+        set exchangeStr[i] = exchangeStr[i] + 20
+    endif</v>
+      </c>
+      <c r="J27" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="28" ht="40.5" spans="1:10">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>125</v>
+      </c>
+      <c r="E28" t="s">
+        <v>840</v>
+      </c>
+      <c r="F28" t="s">
+        <v>841</v>
+      </c>
+      <c r="G28" t="s">
+        <v>789</v>
+      </c>
+      <c r="H28">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[25] then
+        set exchangeAgi[i] = exchangeAgi[i] + 20
+    endif</v>
+      </c>
+      <c r="J28" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="29" ht="40.5" spans="1:10">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>130</v>
+      </c>
+      <c r="E29" t="s">
+        <v>842</v>
+      </c>
+      <c r="F29" t="s">
+        <v>843</v>
+      </c>
+      <c r="G29" t="s">
+        <v>793</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[26] then
+        set exchangeInt[i] = exchangeInt[i] + 20
+    endif</v>
+      </c>
+      <c r="J29" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="30" ht="54" spans="1:10">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>7</v>
+      </c>
+      <c r="D30">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>844</v>
+      </c>
+      <c r="F30" t="s">
+        <v>845</v>
+      </c>
+      <c r="G30" t="s">
+        <v>797</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[27] then
+        set exchangeManaRecovery[i] = exchangeManaRecovery[i] + 1
+    endif</v>
+      </c>
+      <c r="J30" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="31" ht="54" spans="1:10">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>8</v>
+      </c>
+      <c r="D31">
+        <v>140</v>
+      </c>
+      <c r="E31" t="s">
+        <v>799</v>
+      </c>
+      <c r="F31" t="s">
+        <v>846</v>
+      </c>
+      <c r="G31" t="s">
+        <v>801</v>
+      </c>
+      <c r="H31">
+        <v>0.005</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[28] then
+        set exchangeDamage[i] = exchangeDamage[i] + 0.005
+    endif</v>
+      </c>
+      <c r="J31" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="32" ht="54" spans="1:10">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>9</v>
+      </c>
+      <c r="D32">
+        <v>145</v>
+      </c>
+      <c r="E32" t="s">
+        <v>803</v>
+      </c>
+      <c r="F32" t="s">
+        <v>847</v>
+      </c>
+      <c r="G32" t="s">
+        <v>805</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[29] then
+        set exchangeCooldownReduction[i] = exchangeCooldownReduction[i] + 2
+    endif</v>
+      </c>
+      <c r="J32" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="33" ht="54" spans="1:10">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>3</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
+      <c r="D33">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
+        <v>848</v>
+      </c>
+      <c r="F33" t="s">
+        <v>849</v>
+      </c>
+      <c r="G33" t="s">
+        <v>809</v>
+      </c>
+      <c r="H33">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[30] then
+        set exchangeKillGold[i] = exchangeKillGold[i] + 3
+    endif</v>
+      </c>
+      <c r="J33" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="34" ht="40.5" spans="2:10">
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>811</v>
+      </c>
+      <c r="F34" t="s">
+        <v>850</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>if id == exchangeItemId[] then
+        set [i] = [i] + 
+    endif</v>
+      </c>
+      <c r="J34" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="35" ht="40.5" spans="1:10">
+      <c r="A35">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>155</v>
+      </c>
+      <c r="E35" t="s">
+        <v>851</v>
+      </c>
+      <c r="F35" t="s">
+        <v>852</v>
+      </c>
+      <c r="G35" t="s">
+        <v>774</v>
+      </c>
+      <c r="H35">
+        <v>200</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" ref="I35:I56" si="1">"if id == exchangeItemId["&amp;A35&amp;"] then
+        set "&amp;G35&amp;"[i] = "&amp;G35&amp;"[i] + "&amp;H35&amp;"
+    endif"</f>
+        <v>if id == exchangeItemId[31] then
+        set exchangeHit[i] = exchangeHit[i] + 200
+    endif</v>
+      </c>
+      <c r="J35" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="36" ht="54" spans="1:10">
+      <c r="A36">
+        <v>32</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <v>160</v>
+      </c>
+      <c r="E36" t="s">
+        <v>853</v>
+      </c>
+      <c r="F36" t="s">
+        <v>854</v>
+      </c>
+      <c r="G36" t="s">
+        <v>777</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[32] then
+        set exchangeCriticalRate[i] = exchangeCriticalRate[i] + 4
+    endif</v>
+      </c>
+      <c r="J36" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="37" ht="54" spans="1:10">
+      <c r="A37">
+        <v>33</v>
+      </c>
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>165</v>
+      </c>
+      <c r="E37" t="s">
+        <v>855</v>
+      </c>
+      <c r="F37" t="s">
+        <v>856</v>
+      </c>
+      <c r="G37" t="s">
+        <v>781</v>
+      </c>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+      <c r="I37" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[33] then
+        set exchangeCriticalDamage[i] = exchangeCriticalDamage[i] + 0.2
+    endif</v>
+      </c>
+      <c r="J37" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="38" ht="40.5" spans="1:10">
+      <c r="A38">
+        <v>34</v>
+      </c>
+      <c r="B38">
+        <v>4</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>170</v>
+      </c>
+      <c r="E38" t="s">
+        <v>857</v>
+      </c>
+      <c r="F38" t="s">
+        <v>858</v>
+      </c>
+      <c r="G38" t="s">
+        <v>785</v>
+      </c>
+      <c r="H38">
+        <v>40</v>
+      </c>
+      <c r="I38" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[34] then
+        set exchangeStr[i] = exchangeStr[i] + 40
+    endif</v>
+      </c>
+      <c r="J38" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="39" ht="40.5" spans="1:10">
+      <c r="A39">
+        <v>35</v>
+      </c>
+      <c r="B39">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>5</v>
+      </c>
+      <c r="D39">
+        <v>175</v>
+      </c>
+      <c r="E39" t="s">
+        <v>859</v>
+      </c>
+      <c r="F39" t="s">
+        <v>860</v>
+      </c>
+      <c r="G39" t="s">
+        <v>789</v>
+      </c>
+      <c r="H39">
+        <v>40</v>
+      </c>
+      <c r="I39" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[35] then
+        set exchangeAgi[i] = exchangeAgi[i] + 40
+    endif</v>
+      </c>
+      <c r="J39" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="40" ht="40.5" spans="1:10">
+      <c r="A40">
+        <v>36</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>180</v>
+      </c>
+      <c r="E40" t="s">
+        <v>861</v>
+      </c>
+      <c r="F40" t="s">
+        <v>862</v>
+      </c>
+      <c r="G40" t="s">
+        <v>793</v>
+      </c>
+      <c r="H40">
+        <v>40</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[36] then
+        set exchangeInt[i] = exchangeInt[i] + 40
+    endif</v>
+      </c>
+      <c r="J40" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="41" ht="54" spans="1:10">
+      <c r="A41">
+        <v>37</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>185</v>
+      </c>
+      <c r="E41" t="s">
+        <v>863</v>
+      </c>
+      <c r="F41" t="s">
+        <v>864</v>
+      </c>
+      <c r="G41" t="s">
+        <v>797</v>
+      </c>
+      <c r="H41">
+        <v>1.5</v>
+      </c>
+      <c r="I41" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[37] then
+        set exchangeManaRecovery[i] = exchangeManaRecovery[i] + 1.5
+    endif</v>
+      </c>
+      <c r="J41" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="42" ht="54" spans="1:10">
+      <c r="A42">
+        <v>38</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>190</v>
+      </c>
+      <c r="E42" t="s">
+        <v>799</v>
+      </c>
+      <c r="F42" t="s">
+        <v>865</v>
+      </c>
+      <c r="G42" t="s">
+        <v>801</v>
+      </c>
+      <c r="H42">
+        <v>0.005</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[38] then
+        set exchangeDamage[i] = exchangeDamage[i] + 0.005
+    endif</v>
+      </c>
+      <c r="J42" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="43" ht="54" spans="1:10">
+      <c r="A43">
+        <v>39</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <v>195</v>
+      </c>
+      <c r="E43" t="s">
+        <v>803</v>
+      </c>
+      <c r="F43" t="s">
+        <v>866</v>
+      </c>
+      <c r="G43" t="s">
+        <v>805</v>
+      </c>
+      <c r="H43">
+        <v>2</v>
+      </c>
+      <c r="I43" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[39] then
+        set exchangeCooldownReduction[i] = exchangeCooldownReduction[i] + 2
+    endif</v>
+      </c>
+      <c r="J43" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="44" ht="54" spans="1:10">
+      <c r="A44">
+        <v>40</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>10</v>
+      </c>
+      <c r="D44">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
+        <v>867</v>
+      </c>
+      <c r="F44" t="s">
+        <v>868</v>
+      </c>
+      <c r="G44" t="s">
+        <v>809</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+      <c r="I44" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[40] then
+        set exchangeKillGold[i] = exchangeKillGold[i] + 4
+    endif</v>
+      </c>
+      <c r="J44" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="45" ht="40.5" spans="2:10">
+      <c r="B45">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>811</v>
+      </c>
+      <c r="F45" t="s">
+        <v>869</v>
+      </c>
+      <c r="I45" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[] then
+        set [i] = [i] + 
+    endif</v>
+      </c>
+      <c r="J45" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="46" ht="40.5" spans="1:10">
+      <c r="A46">
+        <v>41</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>205</v>
+      </c>
+      <c r="E46" t="s">
+        <v>870</v>
+      </c>
+      <c r="F46" t="s">
+        <v>871</v>
+      </c>
+      <c r="G46" t="s">
+        <v>774</v>
+      </c>
+      <c r="H46">
+        <v>400</v>
+      </c>
+      <c r="I46" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[41] then
+        set exchangeHit[i] = exchangeHit[i] + 400
+    endif</v>
+      </c>
+      <c r="J46" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="47" ht="54" spans="1:10">
+      <c r="A47">
+        <v>42</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>210</v>
+      </c>
+      <c r="E47" t="s">
+        <v>872</v>
+      </c>
+      <c r="F47" t="s">
+        <v>873</v>
+      </c>
+      <c r="G47" t="s">
+        <v>777</v>
+      </c>
+      <c r="H47">
+        <v>8</v>
+      </c>
+      <c r="I47" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[42] then
+        set exchangeCriticalRate[i] = exchangeCriticalRate[i] + 8
+    endif</v>
+      </c>
+      <c r="J47" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="48" ht="54" spans="1:10">
+      <c r="A48">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>215</v>
+      </c>
+      <c r="E48" t="s">
+        <v>874</v>
+      </c>
+      <c r="F48" t="s">
+        <v>875</v>
+      </c>
+      <c r="G48" t="s">
+        <v>781</v>
+      </c>
+      <c r="H48">
+        <v>0.4</v>
+      </c>
+      <c r="I48" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[43] then
+        set exchangeCriticalDamage[i] = exchangeCriticalDamage[i] + 0.4
+    endif</v>
+      </c>
+      <c r="J48" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="49" ht="40.5" spans="1:10">
+      <c r="A49">
+        <v>44</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>220</v>
+      </c>
+      <c r="E49" t="s">
+        <v>876</v>
+      </c>
+      <c r="F49" t="s">
+        <v>877</v>
+      </c>
+      <c r="G49" t="s">
+        <v>785</v>
+      </c>
+      <c r="H49">
+        <v>80</v>
+      </c>
+      <c r="I49" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[44] then
+        set exchangeStr[i] = exchangeStr[i] + 80
+    endif</v>
+      </c>
+      <c r="J49" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="50" ht="40.5" spans="1:10">
+      <c r="A50">
+        <v>45</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>5</v>
+      </c>
+      <c r="D50">
+        <v>225</v>
+      </c>
+      <c r="E50" t="s">
+        <v>878</v>
+      </c>
+      <c r="F50" t="s">
+        <v>879</v>
+      </c>
+      <c r="G50" t="s">
+        <v>789</v>
+      </c>
+      <c r="H50">
+        <v>80</v>
+      </c>
+      <c r="I50" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[45] then
+        set exchangeAgi[i] = exchangeAgi[i] + 80
+    endif</v>
+      </c>
+      <c r="J50" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="51" ht="40.5" spans="1:10">
+      <c r="A51">
+        <v>46</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>6</v>
+      </c>
+      <c r="D51">
+        <v>230</v>
+      </c>
+      <c r="E51" t="s">
+        <v>880</v>
+      </c>
+      <c r="F51" t="s">
+        <v>881</v>
+      </c>
+      <c r="G51" t="s">
+        <v>793</v>
+      </c>
+      <c r="H51">
+        <v>80</v>
+      </c>
+      <c r="I51" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[46] then
+        set exchangeInt[i] = exchangeInt[i] + 80
+    endif</v>
+      </c>
+      <c r="J51" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="52" ht="54" spans="1:10">
+      <c r="A52">
+        <v>47</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>7</v>
+      </c>
+      <c r="D52">
+        <v>235</v>
+      </c>
+      <c r="E52" t="s">
+        <v>882</v>
+      </c>
+      <c r="F52" t="s">
+        <v>883</v>
+      </c>
+      <c r="G52" t="s">
+        <v>797</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[47] then
+        set exchangeManaRecovery[i] = exchangeManaRecovery[i] + 2
+    endif</v>
+      </c>
+      <c r="J52" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="53" ht="54" spans="1:10">
+      <c r="A53">
+        <v>48</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>8</v>
+      </c>
+      <c r="D53">
+        <v>240</v>
+      </c>
+      <c r="E53" t="s">
+        <v>799</v>
+      </c>
+      <c r="F53" t="s">
+        <v>884</v>
+      </c>
+      <c r="G53" t="s">
+        <v>801</v>
+      </c>
+      <c r="H53">
+        <v>0.005</v>
+      </c>
+      <c r="I53" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[48] then
+        set exchangeDamage[i] = exchangeDamage[i] + 0.005
+    endif</v>
+      </c>
+      <c r="J53" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="54" ht="54" spans="1:10">
+      <c r="A54">
+        <v>49</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>9</v>
+      </c>
+      <c r="D54">
+        <v>245</v>
+      </c>
+      <c r="E54" t="s">
+        <v>803</v>
+      </c>
+      <c r="F54" t="s">
+        <v>885</v>
+      </c>
+      <c r="G54" t="s">
+        <v>805</v>
+      </c>
+      <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[49] then
+        set exchangeCooldownReduction[i] = exchangeCooldownReduction[i] + 2
+    endif</v>
+      </c>
+      <c r="J54" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="55" ht="54" spans="1:10">
+      <c r="A55">
+        <v>50</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>250</v>
+      </c>
+      <c r="E55" t="s">
+        <v>886</v>
+      </c>
+      <c r="F55" t="s">
+        <v>887</v>
+      </c>
+      <c r="G55" t="s">
+        <v>809</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+      <c r="I55" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[50] then
+        set exchangeKillGold[i] = exchangeKillGold[i] + 5
+    endif</v>
+      </c>
+      <c r="J55" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="56" ht="40.5" spans="2:10">
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>811</v>
+      </c>
+      <c r="F56" t="s">
+        <v>888</v>
+      </c>
+      <c r="I56" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>if id == exchangeItemId[] then
+        set [i] = [i] + 
+    endif</v>
+      </c>
+      <c r="J56" t="s">
+        <v>811</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" firstSheet="1" activeTab="7"/>
+    <workbookView windowWidth="18525" windowHeight="17790" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="塔的价值" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1029">
   <si>
     <t>序号</t>
   </si>
@@ -22974,10 +22974,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U59"/>
+  <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:T59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -22989,7 +22989,7 @@
     <col min="20" max="20" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23053,8 +23053,11 @@
       <c r="U1" t="s">
         <v>898</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>1</v>
       </c>
@@ -23118,8 +23121,12 @@
       <c r="T2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="V2" t="str">
+        <f>"call SaveStr(NHT, '"&amp;B2&amp;"', 1, """&amp;J2&amp;""")"</f>
+        <v>call SaveStr(NHT, 'O100', 1, "少林")</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>2</v>
       </c>
@@ -23183,8 +23190,12 @@
       <c r="T3" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="4" spans="1:20">
+      <c r="V3" t="str">
+        <f t="shared" ref="V3:V34" si="5">"call SaveStr(NHT, '"&amp;B3&amp;"', 1, """&amp;J3&amp;""")"</f>
+        <v>call SaveStr(NHT, 'O101', 1, "少林")</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>3</v>
       </c>
@@ -23248,8 +23259,12 @@
       <c r="T4" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="5" spans="1:20">
+      <c r="V4" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O102', 1, "少林")</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>4</v>
       </c>
@@ -23279,7 +23294,7 @@
         <v>|CFFFF00FF藏经阁弟子|r</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I36" si="5">_xlfn.IFS(F5="N",10,F5="R",20,F5="SR",40,F5="SSR",100)</f>
+        <f t="shared" ref="I5:I36" si="6">_xlfn.IFS(F5="N",10,F5="R",20,F5="SR",40,F5="SSR",100)</f>
         <v>20</v>
       </c>
       <c r="J5" t="s">
@@ -23313,8 +23328,12 @@
       <c r="T5" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
+      <c r="V5" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O103', 1, "少林")</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>5</v>
       </c>
@@ -23344,7 +23363,7 @@
         <v>|CFFFF00FF罗汉堂弟子|r</v>
       </c>
       <c r="I6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J6" t="s">
@@ -23378,8 +23397,12 @@
       <c r="T6" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
+      <c r="V6" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O104', 1, "少林")</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>6</v>
       </c>
@@ -23409,7 +23432,7 @@
         <v>|CFFFF8000般若堂弟子|r</v>
       </c>
       <c r="I7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J7" t="s">
@@ -23443,8 +23466,12 @@
       <c r="T7" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
+      <c r="V7" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O105', 1, "少林")</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>7</v>
       </c>
@@ -23474,7 +23501,7 @@
         <v>|CFFFF8000菩提院弟子|r</v>
       </c>
       <c r="I8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J8" t="s">
@@ -23508,8 +23535,12 @@
       <c r="T8" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
+      <c r="V8" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O106', 1, "少林")</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>8</v>
       </c>
@@ -23539,7 +23570,7 @@
         <v>|CFFFF0000醉世|r</v>
       </c>
       <c r="I9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J9" t="s">
@@ -23573,8 +23604,12 @@
       <c r="T9" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="10" spans="1:20">
+      <c r="V9" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O107', 1, "少林")</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>9</v>
       </c>
@@ -23604,7 +23639,7 @@
         <v>|CFFFF0000少林掌门|r</v>
       </c>
       <c r="I10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J10" t="s">
@@ -23638,8 +23673,12 @@
       <c r="T10" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="11" spans="1:20">
+      <c r="V10" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O108', 1, "少林")</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>10</v>
       </c>
@@ -23669,7 +23708,7 @@
         <v>|CFF0000FF武当三代弟子|r</v>
       </c>
       <c r="I11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J11" t="s">
@@ -23703,8 +23742,12 @@
       <c r="T11" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="12" spans="1:20">
+      <c r="V11" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O109', 1, "武当")</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>11</v>
       </c>
@@ -23734,7 +23777,7 @@
         <v>|CFF0000FF知客道人|r</v>
       </c>
       <c r="I12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J12" t="s">
@@ -23768,8 +23811,12 @@
       <c r="T12" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="13" spans="1:20">
+      <c r="V12" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10A', 1, "武当")</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>12</v>
       </c>
@@ -23799,7 +23846,7 @@
         <v>|CFF0000FF莫声谷|r</v>
       </c>
       <c r="I13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J13" t="s">
@@ -23833,8 +23880,12 @@
       <c r="T13" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="14" spans="1:20">
+      <c r="V13" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10B', 1, "武当")</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>13</v>
       </c>
@@ -23864,7 +23915,7 @@
         <v>|CFFFF00FF殷梨亭|r</v>
       </c>
       <c r="I14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J14" t="s">
@@ -23898,8 +23949,12 @@
       <c r="T14" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="15" spans="1:20">
+      <c r="V14" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10C', 1, "武当")</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>14</v>
       </c>
@@ -23929,7 +23984,7 @@
         <v>|CFFFF00FF张翠山|r</v>
       </c>
       <c r="I15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J15" t="s">
@@ -23963,8 +24018,12 @@
       <c r="T15" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="16" spans="1:20">
+      <c r="V15" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10D', 1, "武当")</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>15</v>
       </c>
@@ -23994,7 +24053,7 @@
         <v>|CFFFF8000张松溪|r</v>
       </c>
       <c r="I16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J16" t="s">
@@ -24028,8 +24087,12 @@
       <c r="T16" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="17" spans="1:20">
+      <c r="V16" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10E', 1, "武当")</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>16</v>
       </c>
@@ -24059,7 +24122,7 @@
         <v>|CFFFF8000俞岱岩|r</v>
       </c>
       <c r="I17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J17" t="s">
@@ -24093,8 +24156,12 @@
       <c r="T17" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="18" spans="1:20">
+      <c r="V17" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10F', 1, "武当")</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>17</v>
       </c>
@@ -24124,7 +24191,7 @@
         <v>|CFFFF8000俞莲舟|r</v>
       </c>
       <c r="I18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J18" t="s">
@@ -24161,8 +24228,12 @@
       <c r="T18" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="19" spans="1:20">
+      <c r="V18" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10G', 1, "武当")</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>18</v>
       </c>
@@ -24192,7 +24263,7 @@
         <v>|CFFFF0000宋远桥|r</v>
       </c>
       <c r="I19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J19" t="s">
@@ -24226,8 +24297,13 @@
       <c r="T19" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="20" spans="1:20">
+      <c r="U19"/>
+      <c r="V19" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10H', 1, "武当")</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>19</v>
       </c>
@@ -24257,7 +24333,7 @@
         <v>|CFFFF0000武当掌门|r</v>
       </c>
       <c r="I20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J20" t="s">
@@ -24291,8 +24367,12 @@
       <c r="T20" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="21" spans="1:20">
+      <c r="V20" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10I', 1, "武当")</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>20</v>
       </c>
@@ -24322,7 +24402,7 @@
         <v>|CFF0000FF峨眉小师太|r</v>
       </c>
       <c r="I21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J21" t="s">
@@ -24356,8 +24436,12 @@
       <c r="T21" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="22" spans="1:20">
+      <c r="V21" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10J', 1, "峨眉")</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>21</v>
       </c>
@@ -24387,7 +24471,7 @@
         <v>|CFF0000FF纪晓芙|r</v>
       </c>
       <c r="I22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J22" t="s">
@@ -24421,8 +24505,12 @@
       <c r="T22" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="23" spans="1:20">
+      <c r="V22" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10K', 1, "峨眉")</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>22</v>
       </c>
@@ -24452,7 +24540,7 @@
         <v>|CFF0000FF静慧|r</v>
       </c>
       <c r="I23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J23" t="s">
@@ -24486,8 +24574,12 @@
       <c r="T23" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="24" spans="1:20">
+      <c r="V23" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10L', 1, "峨眉")</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>23</v>
       </c>
@@ -24517,7 +24609,7 @@
         <v>|CFFFF00FF苏梦清|r</v>
       </c>
       <c r="I24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J24" t="s">
@@ -24551,8 +24643,12 @@
       <c r="T24" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="25" spans="1:20">
+      <c r="V24" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10M', 1, "峨眉")</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>24</v>
       </c>
@@ -24582,7 +24678,7 @@
         <v>|CFFFF00FF静空|r</v>
       </c>
       <c r="I25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J25" t="s">
@@ -24616,8 +24712,12 @@
       <c r="T25" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="26" spans="1:20">
+      <c r="V25" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10N', 1, "峨眉")</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>25</v>
       </c>
@@ -24647,7 +24747,7 @@
         <v>|CFFFF00FF贝锦仪|r</v>
       </c>
       <c r="I26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J26" t="s">
@@ -24681,8 +24781,12 @@
       <c r="T26" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="27" spans="1:20">
+      <c r="V26" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10O', 1, "峨眉")</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>26</v>
       </c>
@@ -24712,7 +24816,7 @@
         <v>|CFFFF8000静虚|r</v>
       </c>
       <c r="I27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J27" t="s">
@@ -24746,8 +24850,12 @@
       <c r="T27" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="28" spans="1:20">
+      <c r="V27" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10P', 1, "峨眉")</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>27</v>
       </c>
@@ -24777,7 +24885,7 @@
         <v>|CFFFF8000丁敏君|r</v>
       </c>
       <c r="I28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J28" t="s">
@@ -24811,8 +24919,12 @@
       <c r="T28" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="V28" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10Q', 1, "峨眉")</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>28</v>
       </c>
@@ -24842,7 +24954,7 @@
         <v>|CFFFF8000静玄|r</v>
       </c>
       <c r="I29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="J29" t="s">
@@ -24876,8 +24988,12 @@
       <c r="T29" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="30" spans="1:20">
+      <c r="V29" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10R', 1, "峨眉")</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>29</v>
       </c>
@@ -24907,7 +25023,7 @@
         <v>|CFFFF0000周芷若|r</v>
       </c>
       <c r="I30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J30" t="s">
@@ -24941,8 +25057,12 @@
       <c r="T30" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="31" spans="1:20">
+      <c r="V30" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10S', 1, "峨眉")</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>30</v>
       </c>
@@ -24972,7 +25092,7 @@
         <v>|CFFFF0000峨眉掌门|r</v>
       </c>
       <c r="I31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>100</v>
       </c>
       <c r="J31" t="s">
@@ -25009,8 +25129,12 @@
       <c r="T31" t="s">
         <v>942</v>
       </c>
-    </row>
-    <row r="32" spans="1:20">
+      <c r="V31" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10T', 1, "峨眉")</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>31</v>
       </c>
@@ -25040,7 +25164,7 @@
         <v>|CFF0000FF丐帮白莲使者|r</v>
       </c>
       <c r="I32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J32" t="s">
@@ -25074,8 +25198,12 @@
       <c r="T32" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="33" spans="1:20">
+      <c r="V32" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10U', 1, "丐帮")</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33">
         <v>32</v>
       </c>
@@ -25105,7 +25233,7 @@
         <v>|CFF0000FF大勇分舵舵主|r</v>
       </c>
       <c r="I33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J33" t="s">
@@ -25139,8 +25267,12 @@
       <c r="T33" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="V33" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10V', 1, "丐帮")</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34">
         <v>33</v>
       </c>
@@ -25170,7 +25302,7 @@
         <v>|CFF0000FF大信分舵舵主|r</v>
       </c>
       <c r="I34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="J34" t="s">
@@ -25204,8 +25336,12 @@
       <c r="T34" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="V34" t="str">
+        <f t="shared" si="5"/>
+        <v>call SaveStr(NHT, 'O10W', 1, "丐帮")</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>34</v>
       </c>
@@ -25213,11 +25349,11 @@
         <v>970</v>
       </c>
       <c r="C35" t="str">
-        <f t="shared" ref="C35:C59" si="6">SUBSTITUTE(B35,"O","A")</f>
+        <f t="shared" ref="C35:C59" si="7">SUBSTITUTE(B35,"O","A")</f>
         <v>A10X</v>
       </c>
       <c r="D35" t="str">
-        <f t="shared" ref="D35:D59" si="7">SUBSTITUTE(B35,"O","I")</f>
+        <f t="shared" ref="D35:D59" si="8">SUBSTITUTE(B35,"O","I")</f>
         <v>I10X</v>
       </c>
       <c r="E35" t="s">
@@ -25227,22 +25363,22 @@
         <v>41</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" ref="G35:G59" si="8">_xlfn.IFS(F35="N","|CFF0000FF",F35="R","|CFFFF00FF",F35="SR","|CFFFF8000",F35="SSR","|CFFFF0000")</f>
+        <f t="shared" ref="G35:G59" si="9">_xlfn.IFS(F35="N","|CFF0000FF",F35="R","|CFFFF00FF",F35="SR","|CFFFF8000",F35="SSR","|CFFFF0000")</f>
         <v>|CFFFF00FF</v>
       </c>
       <c r="H35" t="str">
-        <f t="shared" ref="H35:H59" si="9">G35&amp;E35&amp;"|r"</f>
+        <f t="shared" ref="H35:H59" si="10">G35&amp;E35&amp;"|r"</f>
         <v>|CFFFF00FF大智分舵舵主|r</v>
       </c>
       <c r="I35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J35" t="s">
         <v>306</v>
       </c>
       <c r="K35">
-        <f t="shared" ref="K35:K59" si="10">I35*5</f>
+        <f t="shared" ref="K35:K59" si="11">I35*5</f>
         <v>100</v>
       </c>
       <c r="L35">
@@ -25269,8 +25405,12 @@
       <c r="T35" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="V35" t="str">
+        <f t="shared" ref="V35:V59" si="12">"call SaveStr(NHT, '"&amp;B35&amp;"', 1, """&amp;J35&amp;""")"</f>
+        <v>call SaveStr(NHT, 'O10X', 1, "丐帮")</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>35</v>
       </c>
@@ -25278,11 +25418,11 @@
         <v>972</v>
       </c>
       <c r="C36" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A10Y</v>
       </c>
       <c r="D36" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I10Y</v>
       </c>
       <c r="E36" t="s">
@@ -25292,22 +25432,22 @@
         <v>41</v>
       </c>
       <c r="G36" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="H36" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>|CFFFF00FF大礼分舵舵主|r</v>
       </c>
       <c r="I36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>20</v>
       </c>
       <c r="J36" t="s">
         <v>306</v>
       </c>
       <c r="K36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="L36">
@@ -25334,8 +25474,12 @@
       <c r="T36" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="37" spans="1:20">
+      <c r="V36" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O10Y', 1, "丐帮")</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>36</v>
       </c>
@@ -25343,11 +25487,11 @@
         <v>974</v>
       </c>
       <c r="C37" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A10Z</v>
       </c>
       <c r="D37" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I10Z</v>
       </c>
       <c r="E37" t="s">
@@ -25357,22 +25501,22 @@
         <v>41</v>
       </c>
       <c r="G37" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="H37" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>|CFFFF00FF大义分舵舵主|r</v>
       </c>
       <c r="I37">
-        <f t="shared" ref="I37:I59" si="11">_xlfn.IFS(F37="N",10,F37="R",20,F37="SR",40,F37="SSR",100)</f>
+        <f t="shared" ref="I37:I59" si="13">_xlfn.IFS(F37="N",10,F37="R",20,F37="SR",40,F37="SSR",100)</f>
         <v>20</v>
       </c>
       <c r="J37" t="s">
         <v>306</v>
       </c>
       <c r="K37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="L37">
@@ -25399,8 +25543,12 @@
       <c r="T37" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="38" spans="1:20">
+      <c r="V37" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O10Z', 1, "丐帮")</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>37</v>
       </c>
@@ -25408,11 +25556,11 @@
         <v>976</v>
       </c>
       <c r="C38" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A110</v>
       </c>
       <c r="D38" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I110</v>
       </c>
       <c r="E38" t="s">
@@ -25422,22 +25570,22 @@
         <v>58</v>
       </c>
       <c r="G38" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="H38" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>|CFFFF8000大仁分舵舵主|r</v>
       </c>
       <c r="I38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="J38" t="s">
         <v>306</v>
       </c>
       <c r="K38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="L38">
@@ -25464,8 +25612,12 @@
       <c r="T38" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="39" spans="1:20">
+      <c r="V38" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O110', 1, "丐帮")</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39">
         <v>38</v>
       </c>
@@ -25473,11 +25625,11 @@
         <v>978</v>
       </c>
       <c r="C39" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A111</v>
       </c>
       <c r="D39" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I111</v>
       </c>
       <c r="E39" t="s">
@@ -25487,22 +25639,22 @@
         <v>58</v>
       </c>
       <c r="G39" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="H39" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>|CFFFF8000护法长老|r</v>
       </c>
       <c r="I39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="J39" t="s">
         <v>306</v>
       </c>
       <c r="K39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="L39">
@@ -25529,8 +25681,12 @@
       <c r="T39" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="40" spans="1:20">
+      <c r="V39" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O111', 1, "丐帮")</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>39</v>
       </c>
@@ -25538,11 +25694,11 @@
         <v>980</v>
       </c>
       <c r="C40" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A112</v>
       </c>
       <c r="D40" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I112</v>
       </c>
       <c r="E40" t="s">
@@ -25552,22 +25708,22 @@
         <v>58</v>
       </c>
       <c r="G40" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="H40" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>|CFFFF8000执法长老|r</v>
       </c>
       <c r="I40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="J40" t="s">
         <v>306</v>
       </c>
       <c r="K40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="L40">
@@ -25594,8 +25750,12 @@
       <c r="T40" t="s">
         <v>965</v>
       </c>
-    </row>
-    <row r="41" spans="1:20">
+      <c r="V40" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O112', 1, "丐帮")</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41">
         <v>40</v>
       </c>
@@ -25603,11 +25763,11 @@
         <v>982</v>
       </c>
       <c r="C41" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A113</v>
       </c>
       <c r="D41" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I113</v>
       </c>
       <c r="E41" t="s">
@@ -25617,414 +25777,438 @@
         <v>75</v>
       </c>
       <c r="G41" t="str">
+        <f t="shared" si="9"/>
+        <v>|CFFFF0000</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="10"/>
+        <v>|CFFFF0000传功长老|r</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="J41" t="s">
+        <v>306</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="L41">
+        <v>1.2</v>
+      </c>
+      <c r="M41">
+        <v>800</v>
+      </c>
+      <c r="N41" t="s">
+        <v>904</v>
+      </c>
+      <c r="O41">
+        <v>30</v>
+      </c>
+      <c r="P41">
+        <v>50</v>
+      </c>
+      <c r="Q41">
+        <v>20</v>
+      </c>
+      <c r="R41" t="s">
+        <v>725</v>
+      </c>
+      <c r="T41" t="s">
+        <v>965</v>
+      </c>
+      <c r="V41" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O113', 1, "丐帮")</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>984</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="7"/>
+        <v>A114</v>
+      </c>
+      <c r="D42" t="str">
         <f t="shared" si="8"/>
+        <v>I114</v>
+      </c>
+      <c r="E42" t="s">
+        <v>985</v>
+      </c>
+      <c r="F42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G42" t="str">
+        <f t="shared" si="9"/>
         <v>|CFFFF0000</v>
       </c>
-      <c r="H41" t="str">
+      <c r="H42" t="str">
+        <f t="shared" si="10"/>
+        <v>|CFFFF0000丐帮帮主|r</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="J42" t="s">
+        <v>306</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="L42">
+        <v>1.2</v>
+      </c>
+      <c r="M42">
+        <v>800</v>
+      </c>
+      <c r="N42" t="s">
+        <v>901</v>
+      </c>
+      <c r="O42">
+        <v>50</v>
+      </c>
+      <c r="P42">
+        <v>30</v>
+      </c>
+      <c r="Q42">
+        <v>20</v>
+      </c>
+      <c r="R42" t="s">
+        <v>730</v>
+      </c>
+      <c r="S42" t="s">
+        <v>728</v>
+      </c>
+      <c r="T42" t="s">
+        <v>965</v>
+      </c>
+      <c r="V42" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O114', 1, "丐帮")</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>986</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="7"/>
+        <v>A115</v>
+      </c>
+      <c r="D43" t="str">
+        <f t="shared" si="8"/>
+        <v>I115</v>
+      </c>
+      <c r="E43" t="s">
+        <v>987</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" t="str">
         <f t="shared" si="9"/>
-        <v>|CFFFF0000传功长老|r</v>
-      </c>
-      <c r="I41">
+        <v>|CFF0000FF</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="10"/>
+        <v>|CFF0000FF全真大道士|r</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="J43" t="s">
+        <v>411</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="L43">
+        <v>1.2</v>
+      </c>
+      <c r="M43">
+        <v>800</v>
+      </c>
+      <c r="N43" t="s">
+        <v>904</v>
+      </c>
+      <c r="O43">
+        <v>2</v>
+      </c>
+      <c r="P43">
+        <v>5</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43" t="s">
+        <v>597</v>
+      </c>
+      <c r="T43" t="s">
+        <v>736</v>
+      </c>
+      <c r="V43" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O115', 1, "全真")</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>988</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="7"/>
+        <v>A116</v>
+      </c>
+      <c r="D44" t="str">
+        <f t="shared" si="8"/>
+        <v>I116</v>
+      </c>
+      <c r="E44" t="s">
+        <v>989</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" t="str">
+        <f t="shared" si="9"/>
+        <v>|CFF0000FF</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="10"/>
+        <v>|CFF0000FF苗道一|r</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="J44" t="s">
+        <v>411</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="L44">
+        <v>1.2</v>
+      </c>
+      <c r="M44">
+        <v>800</v>
+      </c>
+      <c r="N44" t="s">
+        <v>904</v>
+      </c>
+      <c r="O44">
+        <v>3</v>
+      </c>
+      <c r="P44">
+        <v>5</v>
+      </c>
+      <c r="Q44">
+        <v>2</v>
+      </c>
+      <c r="T44" t="s">
+        <v>736</v>
+      </c>
+      <c r="V44" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O116', 1, "全真")</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>990</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="7"/>
+        <v>A117</v>
+      </c>
+      <c r="D45" t="str">
+        <f t="shared" si="8"/>
+        <v>I117</v>
+      </c>
+      <c r="E45" t="s">
+        <v>991</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" t="str">
+        <f t="shared" si="9"/>
+        <v>|CFF0000FF</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="10"/>
+        <v>|CFF0000FF尹志平|r</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="13"/>
+        <v>10</v>
+      </c>
+      <c r="J45" t="s">
+        <v>411</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="L45">
+        <v>1.2</v>
+      </c>
+      <c r="M45">
+        <v>800</v>
+      </c>
+      <c r="N45" t="s">
+        <v>901</v>
+      </c>
+      <c r="O45">
+        <v>5</v>
+      </c>
+      <c r="P45">
+        <v>2</v>
+      </c>
+      <c r="Q45">
+        <v>3</v>
+      </c>
+      <c r="R45" t="s">
+        <v>599</v>
+      </c>
+      <c r="T45" t="s">
+        <v>736</v>
+      </c>
+      <c r="V45" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O117', 1, "全真")</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>992</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="7"/>
+        <v>A118</v>
+      </c>
+      <c r="D46" t="str">
+        <f t="shared" si="8"/>
+        <v>I118</v>
+      </c>
+      <c r="E46" t="s">
+        <v>993</v>
+      </c>
+      <c r="F46" t="s">
+        <v>41</v>
+      </c>
+      <c r="G46" t="str">
+        <f t="shared" si="9"/>
+        <v>|CFFFF00FF</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="10"/>
+        <v>|CFFFF00FF孙不二|r</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
+        <v>411</v>
+      </c>
+      <c r="K46">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="J41" t="s">
-        <v>306</v>
-      </c>
-      <c r="K41">
+      <c r="L46">
+        <v>1.2</v>
+      </c>
+      <c r="M46">
+        <v>800</v>
+      </c>
+      <c r="N46" t="s">
+        <v>901</v>
+      </c>
+      <c r="O46">
+        <v>10</v>
+      </c>
+      <c r="P46">
+        <v>6</v>
+      </c>
+      <c r="Q46">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s">
+        <v>751</v>
+      </c>
+      <c r="T46" t="s">
+        <v>736</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O118', 1, "全真")</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>994</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="7"/>
+        <v>A119</v>
+      </c>
+      <c r="D47" t="str">
+        <f t="shared" si="8"/>
+        <v>I119</v>
+      </c>
+      <c r="E47" t="s">
+        <v>995</v>
+      </c>
+      <c r="F47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" t="str">
+        <f t="shared" si="9"/>
+        <v>|CFFFF00FF</v>
+      </c>
+      <c r="H47" t="str">
         <f t="shared" si="10"/>
-        <v>500</v>
-      </c>
-      <c r="L41">
-        <v>1.2</v>
-      </c>
-      <c r="M41">
-        <v>800</v>
-      </c>
-      <c r="N41" t="s">
-        <v>904</v>
-      </c>
-      <c r="O41">
-        <v>30</v>
-      </c>
-      <c r="P41">
-        <v>50</v>
-      </c>
-      <c r="Q41">
+        <v>|CFFFF00FF郝大通|r</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="R41" t="s">
-        <v>725</v>
-      </c>
-      <c r="T41" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>984</v>
-      </c>
-      <c r="C42" t="str">
-        <f t="shared" si="6"/>
-        <v>A114</v>
-      </c>
-      <c r="D42" t="str">
-        <f t="shared" si="7"/>
-        <v>I114</v>
-      </c>
-      <c r="E42" t="s">
-        <v>985</v>
-      </c>
-      <c r="F42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G42" t="str">
-        <f t="shared" si="8"/>
-        <v>|CFFFF0000</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="9"/>
-        <v>|CFFFF0000丐帮帮主|r</v>
-      </c>
-      <c r="I42">
+      <c r="J47" t="s">
+        <v>411</v>
+      </c>
+      <c r="K47">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="J42" t="s">
-        <v>306</v>
-      </c>
-      <c r="K42">
-        <f t="shared" si="10"/>
-        <v>500</v>
-      </c>
-      <c r="L42">
-        <v>1.2</v>
-      </c>
-      <c r="M42">
-        <v>800</v>
-      </c>
-      <c r="N42" t="s">
-        <v>901</v>
-      </c>
-      <c r="O42">
-        <v>50</v>
-      </c>
-      <c r="P42">
-        <v>30</v>
-      </c>
-      <c r="Q42">
-        <v>20</v>
-      </c>
-      <c r="R42" t="s">
-        <v>730</v>
-      </c>
-      <c r="S42" t="s">
-        <v>728</v>
-      </c>
-      <c r="T42" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>986</v>
-      </c>
-      <c r="C43" t="str">
-        <f t="shared" si="6"/>
-        <v>A115</v>
-      </c>
-      <c r="D43" t="str">
-        <f t="shared" si="7"/>
-        <v>I115</v>
-      </c>
-      <c r="E43" t="s">
-        <v>987</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" t="str">
-        <f t="shared" si="8"/>
-        <v>|CFF0000FF</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="9"/>
-        <v>|CFF0000FF全真大道士|r</v>
-      </c>
-      <c r="I43">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="J43" t="s">
-        <v>411</v>
-      </c>
-      <c r="K43">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="L43">
-        <v>1.2</v>
-      </c>
-      <c r="M43">
-        <v>800</v>
-      </c>
-      <c r="N43" t="s">
-        <v>904</v>
-      </c>
-      <c r="O43">
-        <v>2</v>
-      </c>
-      <c r="P43">
-        <v>5</v>
-      </c>
-      <c r="Q43">
-        <v>3</v>
-      </c>
-      <c r="R43" t="s">
-        <v>597</v>
-      </c>
-      <c r="T43" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="44" spans="1:20">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>988</v>
-      </c>
-      <c r="C44" t="str">
-        <f t="shared" si="6"/>
-        <v>A116</v>
-      </c>
-      <c r="D44" t="str">
-        <f t="shared" si="7"/>
-        <v>I116</v>
-      </c>
-      <c r="E44" t="s">
-        <v>989</v>
-      </c>
-      <c r="F44" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" t="str">
-        <f t="shared" si="8"/>
-        <v>|CFF0000FF</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="9"/>
-        <v>|CFF0000FF苗道一|r</v>
-      </c>
-      <c r="I44">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="J44" t="s">
-        <v>411</v>
-      </c>
-      <c r="K44">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="L44">
-        <v>1.2</v>
-      </c>
-      <c r="M44">
-        <v>800</v>
-      </c>
-      <c r="N44" t="s">
-        <v>904</v>
-      </c>
-      <c r="O44">
-        <v>3</v>
-      </c>
-      <c r="P44">
-        <v>5</v>
-      </c>
-      <c r="Q44">
-        <v>2</v>
-      </c>
-      <c r="T44" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="45" spans="1:20">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>990</v>
-      </c>
-      <c r="C45" t="str">
-        <f t="shared" si="6"/>
-        <v>A117</v>
-      </c>
-      <c r="D45" t="str">
-        <f t="shared" si="7"/>
-        <v>I117</v>
-      </c>
-      <c r="E45" t="s">
-        <v>991</v>
-      </c>
-      <c r="F45" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" t="str">
-        <f t="shared" si="8"/>
-        <v>|CFF0000FF</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="9"/>
-        <v>|CFF0000FF尹志平|r</v>
-      </c>
-      <c r="I45">
-        <f t="shared" si="11"/>
-        <v>10</v>
-      </c>
-      <c r="J45" t="s">
-        <v>411</v>
-      </c>
-      <c r="K45">
-        <f t="shared" si="10"/>
-        <v>50</v>
-      </c>
-      <c r="L45">
-        <v>1.2</v>
-      </c>
-      <c r="M45">
-        <v>800</v>
-      </c>
-      <c r="N45" t="s">
-        <v>901</v>
-      </c>
-      <c r="O45">
-        <v>5</v>
-      </c>
-      <c r="P45">
-        <v>2</v>
-      </c>
-      <c r="Q45">
-        <v>3</v>
-      </c>
-      <c r="R45" t="s">
-        <v>599</v>
-      </c>
-      <c r="T45" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="46" spans="1:20">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>992</v>
-      </c>
-      <c r="C46" t="str">
-        <f t="shared" si="6"/>
-        <v>A118</v>
-      </c>
-      <c r="D46" t="str">
-        <f t="shared" si="7"/>
-        <v>I118</v>
-      </c>
-      <c r="E46" t="s">
-        <v>993</v>
-      </c>
-      <c r="F46" t="s">
-        <v>41</v>
-      </c>
-      <c r="G46" t="str">
-        <f t="shared" si="8"/>
-        <v>|CFFFF00FF</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="9"/>
-        <v>|CFFFF00FF孙不二|r</v>
-      </c>
-      <c r="I46">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="J46" t="s">
-        <v>411</v>
-      </c>
-      <c r="K46">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
-      <c r="L46">
-        <v>1.2</v>
-      </c>
-      <c r="M46">
-        <v>800</v>
-      </c>
-      <c r="N46" t="s">
-        <v>901</v>
-      </c>
-      <c r="O46">
-        <v>10</v>
-      </c>
-      <c r="P46">
-        <v>6</v>
-      </c>
-      <c r="Q46">
-        <v>4</v>
-      </c>
-      <c r="R46" t="s">
-        <v>751</v>
-      </c>
-      <c r="T46" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="47" spans="1:20">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>994</v>
-      </c>
-      <c r="C47" t="str">
-        <f t="shared" si="6"/>
-        <v>A119</v>
-      </c>
-      <c r="D47" t="str">
-        <f t="shared" si="7"/>
-        <v>I119</v>
-      </c>
-      <c r="E47" t="s">
-        <v>995</v>
-      </c>
-      <c r="F47" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" t="str">
-        <f t="shared" si="8"/>
-        <v>|CFFFF00FF</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="9"/>
-        <v>|CFFFF00FF郝大通|r</v>
-      </c>
-      <c r="I47">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="J47" t="s">
-        <v>411</v>
-      </c>
-      <c r="K47">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
       <c r="L47">
         <v>1.2</v>
       </c>
@@ -26046,8 +26230,12 @@
       <c r="T47" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="48" spans="1:20">
+      <c r="V47" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O119', 1, "全真")</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>47</v>
       </c>
@@ -26055,11 +26243,11 @@
         <v>996</v>
       </c>
       <c r="C48" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A11A</v>
       </c>
       <c r="D48" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I11A</v>
       </c>
       <c r="E48" t="s">
@@ -26069,22 +26257,22 @@
         <v>41</v>
       </c>
       <c r="G48" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="H48" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>|CFFFF00FF谭处端|r</v>
       </c>
       <c r="I48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="J48" t="s">
         <v>411</v>
       </c>
       <c r="K48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="L48">
@@ -26111,8 +26299,12 @@
       <c r="T48" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="49" spans="1:20">
+      <c r="V48" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O11A', 1, "全真")</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49">
         <v>48</v>
       </c>
@@ -26120,11 +26312,11 @@
         <v>998</v>
       </c>
       <c r="C49" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A11B</v>
       </c>
       <c r="D49" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I11B</v>
       </c>
       <c r="E49" t="s">
@@ -26134,22 +26326,22 @@
         <v>41</v>
       </c>
       <c r="G49" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="H49" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>|CFFFF00FF刘处玄|r</v>
       </c>
       <c r="I49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>20</v>
       </c>
       <c r="J49" t="s">
         <v>411</v>
       </c>
       <c r="K49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>100</v>
       </c>
       <c r="L49">
@@ -26176,8 +26368,12 @@
       <c r="T49" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="50" spans="1:20">
+      <c r="V49" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O11B', 1, "全真")</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50">
         <v>49</v>
       </c>
@@ -26185,11 +26381,11 @@
         <v>1000</v>
       </c>
       <c r="C50" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A11C</v>
       </c>
       <c r="D50" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I11C</v>
       </c>
       <c r="E50" t="s">
@@ -26199,22 +26395,22 @@
         <v>58</v>
       </c>
       <c r="G50" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="H50" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>|CFFFF8000王处一|r</v>
       </c>
       <c r="I50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="J50" t="s">
         <v>411</v>
       </c>
       <c r="K50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="L50">
@@ -26241,8 +26437,12 @@
       <c r="T50" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="51" spans="1:20">
+      <c r="V50" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O11C', 1, "全真")</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51">
         <v>50</v>
       </c>
@@ -26250,11 +26450,11 @@
         <v>1002</v>
       </c>
       <c r="C51" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A11D</v>
       </c>
       <c r="D51" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I11D</v>
       </c>
       <c r="E51" t="s">
@@ -26264,22 +26464,22 @@
         <v>58</v>
       </c>
       <c r="G51" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="H51" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>|CFFFF8000丘处机|r</v>
       </c>
       <c r="I51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="J51" t="s">
         <v>411</v>
       </c>
       <c r="K51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="L51">
@@ -26306,8 +26506,12 @@
       <c r="T51" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="52" spans="1:20">
+      <c r="V51" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O11D', 1, "全真")</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52">
         <v>51</v>
       </c>
@@ -26315,11 +26519,11 @@
         <v>1004</v>
       </c>
       <c r="C52" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A11E</v>
       </c>
       <c r="D52" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I11E</v>
       </c>
       <c r="E52" t="s">
@@ -26329,22 +26533,22 @@
         <v>58</v>
       </c>
       <c r="G52" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="H52" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>|CFFFF8000马钰|r</v>
       </c>
       <c r="I52">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="J52" t="s">
         <v>411</v>
       </c>
       <c r="K52">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="L52">
@@ -26371,8 +26575,12 @@
       <c r="T52" t="s">
         <v>736</v>
       </c>
-    </row>
-    <row r="53" spans="1:20">
+      <c r="V52" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O11E', 1, "全真")</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53">
         <v>52</v>
       </c>
@@ -26380,11 +26588,11 @@
         <v>1006</v>
       </c>
       <c r="C53" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A11F</v>
       </c>
       <c r="D53" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I11F</v>
       </c>
       <c r="E53" t="s">
@@ -26394,290 +26602,306 @@
         <v>75</v>
       </c>
       <c r="G53" t="str">
+        <f t="shared" si="9"/>
+        <v>|CFFFF0000</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="10"/>
+        <v>|CFFFF0000周伯通|r</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="J53" t="s">
+        <v>411</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="L53">
+        <v>1.2</v>
+      </c>
+      <c r="M53">
+        <v>800</v>
+      </c>
+      <c r="N53" t="s">
+        <v>901</v>
+      </c>
+      <c r="O53">
+        <v>50</v>
+      </c>
+      <c r="P53">
+        <v>30</v>
+      </c>
+      <c r="Q53">
+        <v>20</v>
+      </c>
+      <c r="R53" t="s">
+        <v>748</v>
+      </c>
+      <c r="S53" t="s">
+        <v>746</v>
+      </c>
+      <c r="T53" t="s">
+        <v>736</v>
+      </c>
+      <c r="V53" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O11F', 1, "全真")</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="7"/>
+        <v>A11G</v>
+      </c>
+      <c r="D54" t="str">
         <f t="shared" si="8"/>
+        <v>I11G</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F54" t="s">
+        <v>75</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="9"/>
         <v>|CFFFF0000</v>
       </c>
-      <c r="H53" t="str">
+      <c r="H54" t="str">
+        <f t="shared" si="10"/>
+        <v>|CFFFF0000全真掌教|r</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="J54" t="s">
+        <v>411</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="L54">
+        <v>1.2</v>
+      </c>
+      <c r="M54">
+        <v>800</v>
+      </c>
+      <c r="N54" t="s">
+        <v>904</v>
+      </c>
+      <c r="O54">
+        <v>30</v>
+      </c>
+      <c r="P54">
+        <v>50</v>
+      </c>
+      <c r="Q54">
+        <v>20</v>
+      </c>
+      <c r="R54" t="s">
+        <v>598</v>
+      </c>
+      <c r="S54" t="s">
+        <v>749</v>
+      </c>
+      <c r="T54" t="s">
+        <v>736</v>
+      </c>
+      <c r="V54" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O11G', 1, "全真")</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="7"/>
+        <v>A11H</v>
+      </c>
+      <c r="D55" t="str">
+        <f t="shared" si="8"/>
+        <v>I11H</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F55" t="s">
+        <v>75</v>
+      </c>
+      <c r="G55" t="str">
         <f t="shared" si="9"/>
-        <v>|CFFFF0000周伯通|r</v>
-      </c>
-      <c r="I53">
+        <v>|CFFFF0000</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="10"/>
+        <v>|CFFFF0000江湖巨侠|r</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="J55" t="s">
+        <v>488</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="L55">
+        <v>1.2</v>
+      </c>
+      <c r="M55">
+        <v>800</v>
+      </c>
+      <c r="N55" t="s">
+        <v>904</v>
+      </c>
+      <c r="O55">
+        <v>30</v>
+      </c>
+      <c r="P55">
+        <v>50</v>
+      </c>
+      <c r="Q55">
+        <v>20</v>
+      </c>
+      <c r="R55" t="s">
+        <v>608</v>
+      </c>
+      <c r="S55" t="s">
+        <v>759</v>
+      </c>
+      <c r="V55" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O11H', 1, "江湖")</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="7"/>
+        <v>A11I</v>
+      </c>
+      <c r="D56" t="str">
+        <f t="shared" si="8"/>
+        <v>I11I</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F56" t="s">
+        <v>75</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="9"/>
+        <v>|CFFFF0000</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="10"/>
+        <v>|CFFFF0000茅盈|r</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="J56" t="s">
+        <v>488</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="11"/>
+        <v>500</v>
+      </c>
+      <c r="L56">
+        <v>1.2</v>
+      </c>
+      <c r="M56">
+        <v>800</v>
+      </c>
+      <c r="N56" t="s">
+        <v>909</v>
+      </c>
+      <c r="O56">
+        <v>20</v>
+      </c>
+      <c r="P56">
+        <v>30</v>
+      </c>
+      <c r="Q56">
+        <v>50</v>
+      </c>
+      <c r="R56" t="s">
+        <v>756</v>
+      </c>
+      <c r="S56" t="s">
+        <v>760</v>
+      </c>
+      <c r="V56" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O11I', 1, "江湖")</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="7"/>
+        <v>A11J</v>
+      </c>
+      <c r="D57" t="str">
+        <f t="shared" si="8"/>
+        <v>I11J</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="9"/>
+        <v>|CFFFF00FF</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="10"/>
+        <v>|CFFFF00FF韦小宝|r</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="13"/>
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
+        <v>488</v>
+      </c>
+      <c r="K57">
         <f t="shared" si="11"/>
         <v>100</v>
       </c>
-      <c r="J53" t="s">
-        <v>411</v>
-      </c>
-      <c r="K53">
-        <f t="shared" si="10"/>
-        <v>500</v>
-      </c>
-      <c r="L53">
-        <v>1.2</v>
-      </c>
-      <c r="M53">
-        <v>800</v>
-      </c>
-      <c r="N53" t="s">
-        <v>901</v>
-      </c>
-      <c r="O53">
-        <v>50</v>
-      </c>
-      <c r="P53">
-        <v>30</v>
-      </c>
-      <c r="Q53">
-        <v>20</v>
-      </c>
-      <c r="R53" t="s">
-        <v>748</v>
-      </c>
-      <c r="S53" t="s">
-        <v>746</v>
-      </c>
-      <c r="T53" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="54" spans="1:20">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1008</v>
-      </c>
-      <c r="C54" t="str">
-        <f t="shared" si="6"/>
-        <v>A11G</v>
-      </c>
-      <c r="D54" t="str">
-        <f t="shared" si="7"/>
-        <v>I11G</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1009</v>
-      </c>
-      <c r="F54" t="s">
-        <v>75</v>
-      </c>
-      <c r="G54" t="str">
-        <f t="shared" si="8"/>
-        <v>|CFFFF0000</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="9"/>
-        <v>|CFFFF0000全真掌教|r</v>
-      </c>
-      <c r="I54">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="J54" t="s">
-        <v>411</v>
-      </c>
-      <c r="K54">
-        <f t="shared" si="10"/>
-        <v>500</v>
-      </c>
-      <c r="L54">
-        <v>1.2</v>
-      </c>
-      <c r="M54">
-        <v>800</v>
-      </c>
-      <c r="N54" t="s">
-        <v>904</v>
-      </c>
-      <c r="O54">
-        <v>30</v>
-      </c>
-      <c r="P54">
-        <v>50</v>
-      </c>
-      <c r="Q54">
-        <v>20</v>
-      </c>
-      <c r="R54" t="s">
-        <v>598</v>
-      </c>
-      <c r="S54" t="s">
-        <v>749</v>
-      </c>
-      <c r="T54" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C55" t="str">
-        <f t="shared" si="6"/>
-        <v>A11H</v>
-      </c>
-      <c r="D55" t="str">
-        <f t="shared" si="7"/>
-        <v>I11H</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1011</v>
-      </c>
-      <c r="F55" t="s">
-        <v>75</v>
-      </c>
-      <c r="G55" t="str">
-        <f t="shared" si="8"/>
-        <v>|CFFFF0000</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="9"/>
-        <v>|CFFFF0000江湖巨侠|r</v>
-      </c>
-      <c r="I55">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="J55" t="s">
-        <v>488</v>
-      </c>
-      <c r="K55">
-        <f t="shared" si="10"/>
-        <v>500</v>
-      </c>
-      <c r="L55">
-        <v>1.2</v>
-      </c>
-      <c r="M55">
-        <v>800</v>
-      </c>
-      <c r="N55" t="s">
-        <v>904</v>
-      </c>
-      <c r="O55">
-        <v>30</v>
-      </c>
-      <c r="P55">
-        <v>50</v>
-      </c>
-      <c r="Q55">
-        <v>20</v>
-      </c>
-      <c r="R55" t="s">
-        <v>608</v>
-      </c>
-      <c r="S55" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1012</v>
-      </c>
-      <c r="C56" t="str">
-        <f t="shared" si="6"/>
-        <v>A11I</v>
-      </c>
-      <c r="D56" t="str">
-        <f t="shared" si="7"/>
-        <v>I11I</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F56" t="s">
-        <v>75</v>
-      </c>
-      <c r="G56" t="str">
-        <f t="shared" si="8"/>
-        <v>|CFFFF0000</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="9"/>
-        <v>|CFFFF0000茅盈|r</v>
-      </c>
-      <c r="I56">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-      <c r="J56" t="s">
-        <v>488</v>
-      </c>
-      <c r="K56">
-        <f t="shared" si="10"/>
-        <v>500</v>
-      </c>
-      <c r="L56">
-        <v>1.2</v>
-      </c>
-      <c r="M56">
-        <v>800</v>
-      </c>
-      <c r="N56" t="s">
-        <v>909</v>
-      </c>
-      <c r="O56">
-        <v>20</v>
-      </c>
-      <c r="P56">
-        <v>30</v>
-      </c>
-      <c r="Q56">
-        <v>50</v>
-      </c>
-      <c r="R56" t="s">
-        <v>756</v>
-      </c>
-      <c r="S56" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1014</v>
-      </c>
-      <c r="C57" t="str">
-        <f t="shared" si="6"/>
-        <v>A11J</v>
-      </c>
-      <c r="D57" t="str">
-        <f t="shared" si="7"/>
-        <v>I11J</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1015</v>
-      </c>
-      <c r="F57" t="s">
-        <v>41</v>
-      </c>
-      <c r="G57" t="str">
-        <f t="shared" si="8"/>
-        <v>|CFFFF00FF</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="9"/>
-        <v>|CFFFF00FF韦小宝|r</v>
-      </c>
-      <c r="I57">
-        <f t="shared" si="11"/>
-        <v>20</v>
-      </c>
-      <c r="J57" t="s">
-        <v>488</v>
-      </c>
-      <c r="K57">
-        <f t="shared" si="10"/>
-        <v>100</v>
-      </c>
       <c r="L57">
         <v>1.2</v>
       </c>
@@ -26702,8 +26926,12 @@
       <c r="S57" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="58" spans="1:18">
+      <c r="V57" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O11J', 1, "江湖")</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58">
         <v>57</v>
       </c>
@@ -26711,11 +26939,11 @@
         <v>1017</v>
       </c>
       <c r="C58" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A11K</v>
       </c>
       <c r="D58" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I11K</v>
       </c>
       <c r="E58" t="s">
@@ -26725,22 +26953,22 @@
         <v>58</v>
       </c>
       <c r="G58" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="H58" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>|CFFFF8000云中鹤|r</v>
       </c>
       <c r="I58">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
       <c r="J58" t="s">
         <v>488</v>
       </c>
       <c r="K58">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>200</v>
       </c>
       <c r="L58">
@@ -26764,8 +26992,12 @@
       <c r="R58" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="59" spans="1:19">
+      <c r="V58" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O11K', 1, "江湖")</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59">
         <v>58</v>
       </c>
@@ -26773,11 +27005,11 @@
         <v>1019</v>
       </c>
       <c r="C59" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>A11L</v>
       </c>
       <c r="D59" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>I11L</v>
       </c>
       <c r="E59" t="s">
@@ -26787,22 +27019,22 @@
         <v>75</v>
       </c>
       <c r="G59" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="H59" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>|CFFFF0000虚竹子|r</v>
       </c>
       <c r="I59">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>100</v>
       </c>
       <c r="J59" t="s">
         <v>488</v>
       </c>
       <c r="K59">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>500</v>
       </c>
       <c r="L59">
@@ -26828,6 +27060,10 @@
       </c>
       <c r="S59" t="s">
         <v>1022</v>
+      </c>
+      <c r="V59" t="str">
+        <f t="shared" si="12"/>
+        <v>call SaveStr(NHT, 'O11L', 1, "江湖")</v>
       </c>
     </row>
   </sheetData>
@@ -26841,8 +27077,8 @@
   <sheetPr/>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:W59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17790" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="18525" windowHeight="17790" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="塔的价值" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2910" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="1029">
   <si>
     <t>序号</t>
   </si>
@@ -22976,8 +22976,8 @@
   <sheetPr/>
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="R47" sqref="R47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -26023,6 +26023,9 @@
       <c r="Q44">
         <v>2</v>
       </c>
+      <c r="R44" t="s">
+        <v>597</v>
+      </c>
       <c r="T44" t="s">
         <v>736</v>
       </c>
@@ -26226,6 +26229,9 @@
       </c>
       <c r="Q47">
         <v>6</v>
+      </c>
+      <c r="R47" t="s">
+        <v>601</v>
       </c>
       <c r="T47" t="s">
         <v>736</v>
@@ -27077,8 +27083,8 @@
   <sheetPr/>
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W59"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U52" sqref="U52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18525" windowHeight="17790" firstSheet="2" activeTab="6"/>
+    <workbookView windowHeight="17940" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="塔的价值" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2912" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2909" uniqueCount="1029">
   <si>
     <t>序号</t>
   </si>
@@ -2849,15 +2849,15 @@
     <t>峨眉小师太</t>
   </si>
   <si>
+    <t>O10K</t>
+  </si>
+  <si>
+    <t>纪晓芙</t>
+  </si>
+  <si>
     <t>峨眉剑法</t>
   </si>
   <si>
-    <t>O10K</t>
-  </si>
-  <si>
-    <t>纪晓芙</t>
-  </si>
-  <si>
     <t>O10L</t>
   </si>
   <si>
@@ -2918,187 +2918,187 @@
     <t>丐帮白莲使者</t>
   </si>
   <si>
+    <t>O10V</t>
+  </si>
+  <si>
+    <t>大勇分舵舵主</t>
+  </si>
+  <si>
+    <t>O10W</t>
+  </si>
+  <si>
+    <t>大信分舵舵主</t>
+  </si>
+  <si>
+    <t>O10X</t>
+  </si>
+  <si>
+    <t>大智分舵舵主</t>
+  </si>
+  <si>
+    <t>O10Y</t>
+  </si>
+  <si>
+    <t>大礼分舵舵主</t>
+  </si>
+  <si>
+    <t>O10Z</t>
+  </si>
+  <si>
+    <t>大义分舵舵主</t>
+  </si>
+  <si>
+    <t>O110</t>
+  </si>
+  <si>
+    <t>大仁分舵舵主</t>
+  </si>
+  <si>
+    <t>O111</t>
+  </si>
+  <si>
+    <t>护法长老</t>
+  </si>
+  <si>
+    <t>O112</t>
+  </si>
+  <si>
+    <t>执法长老</t>
+  </si>
+  <si>
+    <t>O113</t>
+  </si>
+  <si>
+    <t>传功长老</t>
+  </si>
+  <si>
+    <t>O114</t>
+  </si>
+  <si>
+    <t>丐帮帮主</t>
+  </si>
+  <si>
+    <t>O115</t>
+  </si>
+  <si>
+    <t>全真大道士</t>
+  </si>
+  <si>
+    <t>O116</t>
+  </si>
+  <si>
+    <t>苗道一</t>
+  </si>
+  <si>
+    <t>O117</t>
+  </si>
+  <si>
+    <t>尹志平</t>
+  </si>
+  <si>
+    <t>O118</t>
+  </si>
+  <si>
+    <t>孙不二</t>
+  </si>
+  <si>
+    <t>O119</t>
+  </si>
+  <si>
+    <t>郝大通</t>
+  </si>
+  <si>
+    <t>O11A</t>
+  </si>
+  <si>
+    <t>谭处端</t>
+  </si>
+  <si>
+    <t>O11B</t>
+  </si>
+  <si>
+    <t>刘处玄</t>
+  </si>
+  <si>
+    <t>O11C</t>
+  </si>
+  <si>
+    <t>王处一</t>
+  </si>
+  <si>
+    <t>O11D</t>
+  </si>
+  <si>
+    <t>丘处机</t>
+  </si>
+  <si>
+    <t>O11E</t>
+  </si>
+  <si>
+    <t>马钰</t>
+  </si>
+  <si>
+    <t>O11F</t>
+  </si>
+  <si>
+    <t>周伯通</t>
+  </si>
+  <si>
+    <t>O11G</t>
+  </si>
+  <si>
+    <t>全真掌教</t>
+  </si>
+  <si>
+    <t>O11H</t>
+  </si>
+  <si>
+    <t>江湖巨侠</t>
+  </si>
+  <si>
+    <t>O11I</t>
+  </si>
+  <si>
+    <t>茅盈</t>
+  </si>
+  <si>
+    <t>O11J</t>
+  </si>
+  <si>
+    <t>韦小宝</t>
+  </si>
+  <si>
+    <t>神行百变</t>
+  </si>
+  <si>
+    <t>O11K</t>
+  </si>
+  <si>
+    <t>云中鹤</t>
+  </si>
+  <si>
+    <t>O11L</t>
+  </si>
+  <si>
+    <t>虚竹子</t>
+  </si>
+  <si>
+    <t>天山折梅手</t>
+  </si>
+  <si>
+    <t>生死符</t>
+  </si>
+  <si>
+    <t>分序号</t>
+  </si>
+  <si>
+    <t>变量</t>
+  </si>
+  <si>
+    <t>low_towers</t>
+  </si>
+  <si>
     <t>丐帮棍法</t>
-  </si>
-  <si>
-    <t>O10V</t>
-  </si>
-  <si>
-    <t>大勇分舵舵主</t>
-  </si>
-  <si>
-    <t>O10W</t>
-  </si>
-  <si>
-    <t>大信分舵舵主</t>
-  </si>
-  <si>
-    <t>O10X</t>
-  </si>
-  <si>
-    <t>大智分舵舵主</t>
-  </si>
-  <si>
-    <t>O10Y</t>
-  </si>
-  <si>
-    <t>大礼分舵舵主</t>
-  </si>
-  <si>
-    <t>O10Z</t>
-  </si>
-  <si>
-    <t>大义分舵舵主</t>
-  </si>
-  <si>
-    <t>O110</t>
-  </si>
-  <si>
-    <t>大仁分舵舵主</t>
-  </si>
-  <si>
-    <t>O111</t>
-  </si>
-  <si>
-    <t>护法长老</t>
-  </si>
-  <si>
-    <t>O112</t>
-  </si>
-  <si>
-    <t>执法长老</t>
-  </si>
-  <si>
-    <t>O113</t>
-  </si>
-  <si>
-    <t>传功长老</t>
-  </si>
-  <si>
-    <t>O114</t>
-  </si>
-  <si>
-    <t>丐帮帮主</t>
-  </si>
-  <si>
-    <t>O115</t>
-  </si>
-  <si>
-    <t>全真大道士</t>
-  </si>
-  <si>
-    <t>O116</t>
-  </si>
-  <si>
-    <t>苗道一</t>
-  </si>
-  <si>
-    <t>O117</t>
-  </si>
-  <si>
-    <t>尹志平</t>
-  </si>
-  <si>
-    <t>O118</t>
-  </si>
-  <si>
-    <t>孙不二</t>
-  </si>
-  <si>
-    <t>O119</t>
-  </si>
-  <si>
-    <t>郝大通</t>
-  </si>
-  <si>
-    <t>O11A</t>
-  </si>
-  <si>
-    <t>谭处端</t>
-  </si>
-  <si>
-    <t>O11B</t>
-  </si>
-  <si>
-    <t>刘处玄</t>
-  </si>
-  <si>
-    <t>O11C</t>
-  </si>
-  <si>
-    <t>王处一</t>
-  </si>
-  <si>
-    <t>O11D</t>
-  </si>
-  <si>
-    <t>丘处机</t>
-  </si>
-  <si>
-    <t>O11E</t>
-  </si>
-  <si>
-    <t>马钰</t>
-  </si>
-  <si>
-    <t>O11F</t>
-  </si>
-  <si>
-    <t>周伯通</t>
-  </si>
-  <si>
-    <t>O11G</t>
-  </si>
-  <si>
-    <t>全真掌教</t>
-  </si>
-  <si>
-    <t>O11H</t>
-  </si>
-  <si>
-    <t>江湖巨侠</t>
-  </si>
-  <si>
-    <t>O11I</t>
-  </si>
-  <si>
-    <t>茅盈</t>
-  </si>
-  <si>
-    <t>O11J</t>
-  </si>
-  <si>
-    <t>韦小宝</t>
-  </si>
-  <si>
-    <t>神行百变</t>
-  </si>
-  <si>
-    <t>O11K</t>
-  </si>
-  <si>
-    <t>云中鹤</t>
-  </si>
-  <si>
-    <t>O11L</t>
-  </si>
-  <si>
-    <t>虚竹子</t>
-  </si>
-  <si>
-    <t>天山折梅手</t>
-  </si>
-  <si>
-    <t>生死符</t>
-  </si>
-  <si>
-    <t>分序号</t>
-  </si>
-  <si>
-    <t>变量</t>
-  </si>
-  <si>
-    <t>low_towers</t>
   </si>
   <si>
     <t>normal_towers</t>
@@ -3119,9 +3119,9 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0.000_ "/>
-    <numFmt numFmtId="178" formatCode="0_ "/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
@@ -3746,13 +3746,13 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -6365,7 +6365,7 @@
         <v>13</v>
       </c>
       <c r="J2" t="str">
-        <f>I2&amp;"'"&amp;C2&amp;"'"</f>
+        <f t="shared" ref="J2:J65" si="0">I2&amp;"'"&amp;C2&amp;"'"</f>
         <v>set low_towers[2] = 'I02N'</v>
       </c>
     </row>
@@ -6398,7 +6398,7 @@
         <v>17</v>
       </c>
       <c r="J3" t="str">
-        <f>I3&amp;"'"&amp;C3&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[3] = 'I02O'</v>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
         <v>21</v>
       </c>
       <c r="J4" t="str">
-        <f>I4&amp;"'"&amp;C4&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[4] = 'I02P'</v>
       </c>
     </row>
@@ -6464,7 +6464,7 @@
         <v>25</v>
       </c>
       <c r="J5" t="str">
-        <f>I5&amp;"'"&amp;C5&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[5] = 'I02Q'</v>
       </c>
     </row>
@@ -6497,7 +6497,7 @@
         <v>29</v>
       </c>
       <c r="J6" t="str">
-        <f>I6&amp;"'"&amp;C6&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[6] = 'I02R'</v>
       </c>
     </row>
@@ -6530,7 +6530,7 @@
         <v>33</v>
       </c>
       <c r="J7" t="str">
-        <f>I7&amp;"'"&amp;C7&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[7] = 'I02S'</v>
       </c>
     </row>
@@ -6563,7 +6563,7 @@
         <v>37</v>
       </c>
       <c r="J8" t="str">
-        <f>I8&amp;"'"&amp;C8&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[8] = 'I02T'</v>
       </c>
     </row>
@@ -6596,7 +6596,7 @@
         <v>42</v>
       </c>
       <c r="J9" t="str">
-        <f>I9&amp;"'"&amp;C9&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[2] = 'I02U'</v>
       </c>
     </row>
@@ -6629,7 +6629,7 @@
         <v>46</v>
       </c>
       <c r="J10" t="str">
-        <f>I10&amp;"'"&amp;C10&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[3] = 'I02V'</v>
       </c>
     </row>
@@ -6662,7 +6662,7 @@
         <v>50</v>
       </c>
       <c r="J11" t="str">
-        <f>I11&amp;"'"&amp;C11&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[4] = 'I02W'</v>
       </c>
     </row>
@@ -6695,7 +6695,7 @@
         <v>54</v>
       </c>
       <c r="J12" t="str">
-        <f>I12&amp;"'"&amp;C12&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[5] = 'I02X'</v>
       </c>
     </row>
@@ -6728,7 +6728,7 @@
         <v>59</v>
       </c>
       <c r="J13" t="str">
-        <f>I13&amp;"'"&amp;C13&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set fine_towers[2] = 'I02Y'</v>
       </c>
     </row>
@@ -6761,7 +6761,7 @@
         <v>63</v>
       </c>
       <c r="J14" t="str">
-        <f>I14&amp;"'"&amp;C14&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[6] = 'I02Z'</v>
       </c>
     </row>
@@ -6794,7 +6794,7 @@
         <v>67</v>
       </c>
       <c r="J15" t="str">
-        <f>I15&amp;"'"&amp;C15&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set fine_towers[3] = 'I030'</v>
       </c>
     </row>
@@ -6827,7 +6827,7 @@
         <v>71</v>
       </c>
       <c r="J16" t="str">
-        <f>I16&amp;"'"&amp;C16&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set fine_towers[4] = 'I031'</v>
       </c>
     </row>
@@ -6860,7 +6860,7 @@
         <v>76</v>
       </c>
       <c r="J17" t="str">
-        <f>I17&amp;"'"&amp;C17&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set perfect_towers[2] = 'I032'</v>
       </c>
     </row>
@@ -6893,7 +6893,7 @@
         <v>80</v>
       </c>
       <c r="J18" t="str">
-        <f>I18&amp;"'"&amp;C18&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set fine_towers[5] = 'I033'</v>
       </c>
     </row>
@@ -6926,7 +6926,7 @@
         <v>84</v>
       </c>
       <c r="J19" t="str">
-        <f>I19&amp;"'"&amp;C19&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set perfect_towers[3] = 'I034'</v>
       </c>
     </row>
@@ -6959,7 +6959,7 @@
         <v>88</v>
       </c>
       <c r="J20" t="str">
-        <f>I20&amp;"'"&amp;C20&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set fine_towers[6] = 'I035'</v>
       </c>
     </row>
@@ -6992,7 +6992,7 @@
         <v>92</v>
       </c>
       <c r="J21" t="str">
-        <f>I21&amp;"'"&amp;C21&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set perfect_towers[4] = 'I036'</v>
       </c>
     </row>
@@ -7025,7 +7025,7 @@
         <v>97</v>
       </c>
       <c r="J22" t="str">
-        <f>I22&amp;"'"&amp;C22&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[9] = 'I037'</v>
       </c>
     </row>
@@ -7058,7 +7058,7 @@
         <v>101</v>
       </c>
       <c r="J23" t="str">
-        <f>I23&amp;"'"&amp;C23&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[10] = 'I038'</v>
       </c>
     </row>
@@ -7091,7 +7091,7 @@
         <v>105</v>
       </c>
       <c r="J24" t="str">
-        <f>I24&amp;"'"&amp;C24&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[11] = 'I039'</v>
       </c>
     </row>
@@ -7124,7 +7124,7 @@
         <v>109</v>
       </c>
       <c r="J25" t="str">
-        <f>I25&amp;"'"&amp;C25&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[12] = 'I03A'</v>
       </c>
     </row>
@@ -7157,7 +7157,7 @@
         <v>113</v>
       </c>
       <c r="J26" t="str">
-        <f>I26&amp;"'"&amp;C26&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[13] = 'I03B'</v>
       </c>
     </row>
@@ -7190,7 +7190,7 @@
         <v>117</v>
       </c>
       <c r="J27" t="str">
-        <f>I27&amp;"'"&amp;C27&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[14] = 'I03C'</v>
       </c>
     </row>
@@ -7223,7 +7223,7 @@
         <v>121</v>
       </c>
       <c r="J28" t="str">
-        <f>I28&amp;"'"&amp;C28&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[15] = 'I03D'</v>
       </c>
     </row>
@@ -7256,7 +7256,7 @@
         <v>125</v>
       </c>
       <c r="J29" t="str">
-        <f>I29&amp;"'"&amp;C29&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[16] = 'I03E'</v>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
         <v>129</v>
       </c>
       <c r="J30" t="str">
-        <f>I30&amp;"'"&amp;C30&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[7] = 'I03F'</v>
       </c>
     </row>
@@ -7322,7 +7322,7 @@
         <v>133</v>
       </c>
       <c r="J31" t="str">
-        <f>I31&amp;"'"&amp;C31&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[17] = 'I03G'</v>
       </c>
     </row>
@@ -7355,7 +7355,7 @@
         <v>137</v>
       </c>
       <c r="J32" t="str">
-        <f>I32&amp;"'"&amp;C32&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[8] = 'I03H'</v>
       </c>
     </row>
@@ -7388,7 +7388,7 @@
         <v>141</v>
       </c>
       <c r="J33" t="str">
-        <f>I33&amp;"'"&amp;C33&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set fine_towers[7] = 'I03I'</v>
       </c>
     </row>
@@ -7421,7 +7421,7 @@
         <v>145</v>
       </c>
       <c r="J34" t="str">
-        <f>I34&amp;"'"&amp;C34&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[9] = 'I03J'</v>
       </c>
     </row>
@@ -7454,7 +7454,7 @@
         <v>149</v>
       </c>
       <c r="J35" t="str">
-        <f>I35&amp;"'"&amp;C35&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[10] = 'I03K'</v>
       </c>
     </row>
@@ -7487,7 +7487,7 @@
         <v>153</v>
       </c>
       <c r="J36" t="str">
-        <f>I36&amp;"'"&amp;C36&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set fine_towers[8] = 'I03L'</v>
       </c>
     </row>
@@ -7520,7 +7520,7 @@
         <v>157</v>
       </c>
       <c r="J37" t="str">
-        <f>I37&amp;"'"&amp;C37&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[11] = 'I03M'</v>
       </c>
     </row>
@@ -7553,7 +7553,7 @@
         <v>161</v>
       </c>
       <c r="J38" t="str">
-        <f>I38&amp;"'"&amp;C38&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[12] = 'I03N'</v>
       </c>
     </row>
@@ -7586,7 +7586,7 @@
         <v>165</v>
       </c>
       <c r="J39" t="str">
-        <f>I39&amp;"'"&amp;C39&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set fine_towers[9] = 'I03O'</v>
       </c>
     </row>
@@ -7619,7 +7619,7 @@
         <v>169</v>
       </c>
       <c r="J40" t="str">
-        <f>I40&amp;"'"&amp;C40&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[13] = 'I03P'</v>
       </c>
     </row>
@@ -7652,7 +7652,7 @@
         <v>173</v>
       </c>
       <c r="J41" t="str">
-        <f>I41&amp;"'"&amp;C41&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set fine_towers[10] = 'I03Q'</v>
       </c>
     </row>
@@ -7685,7 +7685,7 @@
         <v>177</v>
       </c>
       <c r="J42" t="str">
-        <f>I42&amp;"'"&amp;C42&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set perfect_towers[5] = 'I03R'</v>
       </c>
     </row>
@@ -7718,7 +7718,7 @@
         <v>181</v>
       </c>
       <c r="J43" t="str">
-        <f>I43&amp;"'"&amp;C43&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[14] = 'I03S'</v>
       </c>
     </row>
@@ -7751,7 +7751,7 @@
         <v>185</v>
       </c>
       <c r="J44" t="str">
-        <f>I44&amp;"'"&amp;C44&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set fine_towers[11] = 'I03T'</v>
       </c>
     </row>
@@ -7784,7 +7784,7 @@
         <v>189</v>
       </c>
       <c r="J45" t="str">
-        <f>I45&amp;"'"&amp;C45&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set perfect_towers[6] = 'I03U'</v>
       </c>
     </row>
@@ -7817,7 +7817,7 @@
         <v>193</v>
       </c>
       <c r="J46" t="str">
-        <f>I46&amp;"'"&amp;C46&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set perfect_towers[7] = 'I03V'</v>
       </c>
     </row>
@@ -7850,7 +7850,7 @@
         <v>197</v>
       </c>
       <c r="J47" t="str">
-        <f>I47&amp;"'"&amp;C47&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set perfect_towers[8] = 'I03W'</v>
       </c>
     </row>
@@ -7883,7 +7883,7 @@
         <v>202</v>
       </c>
       <c r="J48" t="str">
-        <f>I48&amp;"'"&amp;C48&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[18] = 'I03X'</v>
       </c>
     </row>
@@ -7916,7 +7916,7 @@
         <v>206</v>
       </c>
       <c r="J49" t="str">
-        <f>I49&amp;"'"&amp;C49&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[19] = 'I03Y'</v>
       </c>
     </row>
@@ -7949,7 +7949,7 @@
         <v>210</v>
       </c>
       <c r="J50" t="str">
-        <f>I50&amp;"'"&amp;C50&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[20] = 'I03Z'</v>
       </c>
     </row>
@@ -7982,7 +7982,7 @@
         <v>214</v>
       </c>
       <c r="J51" t="str">
-        <f>I51&amp;"'"&amp;C51&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[21] = 'I040'</v>
       </c>
     </row>
@@ -8015,7 +8015,7 @@
         <v>218</v>
       </c>
       <c r="J52" t="str">
-        <f>I52&amp;"'"&amp;C52&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[22] = 'I041'</v>
       </c>
     </row>
@@ -8048,7 +8048,7 @@
         <v>222</v>
       </c>
       <c r="J53" t="str">
-        <f>I53&amp;"'"&amp;C53&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[23] = 'I042'</v>
       </c>
     </row>
@@ -8081,7 +8081,7 @@
         <v>226</v>
       </c>
       <c r="J54" t="str">
-        <f>I54&amp;"'"&amp;C54&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[24] = 'I043'</v>
       </c>
     </row>
@@ -8114,7 +8114,7 @@
         <v>230</v>
       </c>
       <c r="J55" t="str">
-        <f>I55&amp;"'"&amp;C55&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[25] = 'I044'</v>
       </c>
     </row>
@@ -8147,7 +8147,7 @@
         <v>234</v>
       </c>
       <c r="J56" t="str">
-        <f>I56&amp;"'"&amp;C56&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[26] = 'I045'</v>
       </c>
     </row>
@@ -8180,7 +8180,7 @@
         <v>238</v>
       </c>
       <c r="J57" t="str">
-        <f>I57&amp;"'"&amp;C57&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[27] = 'I046'</v>
       </c>
     </row>
@@ -8213,7 +8213,7 @@
         <v>242</v>
       </c>
       <c r="J58" t="str">
-        <f>I58&amp;"'"&amp;C58&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[28] = 'I047'</v>
       </c>
     </row>
@@ -8246,7 +8246,7 @@
         <v>246</v>
       </c>
       <c r="J59" t="str">
-        <f>I59&amp;"'"&amp;C59&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[15] = 'I048'</v>
       </c>
     </row>
@@ -8279,7 +8279,7 @@
         <v>250</v>
       </c>
       <c r="J60" t="str">
-        <f>I60&amp;"'"&amp;C60&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[16] = 'I049'</v>
       </c>
     </row>
@@ -8312,7 +8312,7 @@
         <v>254</v>
       </c>
       <c r="J61" t="str">
-        <f>I61&amp;"'"&amp;C61&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[17] = 'I04A'</v>
       </c>
     </row>
@@ -8345,7 +8345,7 @@
         <v>258</v>
       </c>
       <c r="J62" t="str">
-        <f>I62&amp;"'"&amp;C62&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set low_towers[29] = 'I04B'</v>
       </c>
     </row>
@@ -8378,7 +8378,7 @@
         <v>262</v>
       </c>
       <c r="J63" t="str">
-        <f>I63&amp;"'"&amp;C63&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[18] = 'I04C'</v>
       </c>
     </row>
@@ -8411,7 +8411,7 @@
         <v>266</v>
       </c>
       <c r="J64" t="str">
-        <f>I64&amp;"'"&amp;C64&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[19] = 'I04D'</v>
       </c>
     </row>
@@ -8444,7 +8444,7 @@
         <v>270</v>
       </c>
       <c r="J65" t="str">
-        <f>I65&amp;"'"&amp;C65&amp;"'"</f>
+        <f t="shared" si="0"/>
         <v>set normal_towers[20] = 'I04E'</v>
       </c>
     </row>
@@ -8477,7 +8477,7 @@
         <v>274</v>
       </c>
       <c r="J66" t="str">
-        <f>I66&amp;"'"&amp;C66&amp;"'"</f>
+        <f t="shared" ref="J66:J127" si="1">I66&amp;"'"&amp;C66&amp;"'"</f>
         <v>set fine_towers[12] = 'I04F'</v>
       </c>
     </row>
@@ -8510,7 +8510,7 @@
         <v>278</v>
       </c>
       <c r="J67" t="str">
-        <f>I67&amp;"'"&amp;C67&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[21] = 'I04G'</v>
       </c>
     </row>
@@ -8543,7 +8543,7 @@
         <v>282</v>
       </c>
       <c r="J68" t="str">
-        <f>I68&amp;"'"&amp;C68&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[13] = 'I04H'</v>
       </c>
     </row>
@@ -8576,7 +8576,7 @@
         <v>286</v>
       </c>
       <c r="J69" t="str">
-        <f>I69&amp;"'"&amp;C69&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[14] = 'I04I'</v>
       </c>
     </row>
@@ -8609,7 +8609,7 @@
         <v>290</v>
       </c>
       <c r="J70" t="str">
-        <f>I70&amp;"'"&amp;C70&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[15] = 'I04J'</v>
       </c>
     </row>
@@ -8642,7 +8642,7 @@
         <v>294</v>
       </c>
       <c r="J71" t="str">
-        <f>I71&amp;"'"&amp;C71&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set perfect_towers[9] = 'I04K'</v>
       </c>
     </row>
@@ -8675,7 +8675,7 @@
         <v>298</v>
       </c>
       <c r="J72" t="str">
-        <f>I72&amp;"'"&amp;C72&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set perfect_towers[10] = 'I04L'</v>
       </c>
     </row>
@@ -8708,7 +8708,7 @@
         <v>302</v>
       </c>
       <c r="J73" t="str">
-        <f>I73&amp;"'"&amp;C73&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set perfect_towers[11] = 'I04M'</v>
       </c>
     </row>
@@ -8741,7 +8741,7 @@
         <v>307</v>
       </c>
       <c r="J74" t="str">
-        <f>I74&amp;"'"&amp;C74&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[30] = 'I04N'</v>
       </c>
     </row>
@@ -8774,7 +8774,7 @@
         <v>311</v>
       </c>
       <c r="J75" t="str">
-        <f>I75&amp;"'"&amp;C75&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[31] = 'I04O'</v>
       </c>
     </row>
@@ -8807,7 +8807,7 @@
         <v>315</v>
       </c>
       <c r="J76" t="str">
-        <f>I76&amp;"'"&amp;C76&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[32] = 'I04P'</v>
       </c>
     </row>
@@ -8840,7 +8840,7 @@
         <v>319</v>
       </c>
       <c r="J77" t="str">
-        <f>I77&amp;"'"&amp;C77&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[33] = 'I04Q'</v>
       </c>
     </row>
@@ -8873,7 +8873,7 @@
         <v>323</v>
       </c>
       <c r="J78" t="str">
-        <f>I78&amp;"'"&amp;C78&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[34] = 'I04R'</v>
       </c>
     </row>
@@ -8906,7 +8906,7 @@
         <v>327</v>
       </c>
       <c r="J79" t="str">
-        <f>I79&amp;"'"&amp;C79&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[22] = 'I04S'</v>
       </c>
     </row>
@@ -8939,7 +8939,7 @@
         <v>331</v>
       </c>
       <c r="J80" t="str">
-        <f>I80&amp;"'"&amp;C80&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[23] = 'I04T'</v>
       </c>
     </row>
@@ -8972,7 +8972,7 @@
         <v>335</v>
       </c>
       <c r="J81" t="str">
-        <f>I81&amp;"'"&amp;C81&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[16] = 'I04U'</v>
       </c>
     </row>
@@ -9005,7 +9005,7 @@
         <v>339</v>
       </c>
       <c r="J82" t="str">
-        <f>I82&amp;"'"&amp;C82&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[35] = 'I04V'</v>
       </c>
     </row>
@@ -9038,7 +9038,7 @@
         <v>343</v>
       </c>
       <c r="J83" t="str">
-        <f>I83&amp;"'"&amp;C83&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[36] = 'I04W'</v>
       </c>
     </row>
@@ -9071,7 +9071,7 @@
         <v>347</v>
       </c>
       <c r="J84" t="str">
-        <f>I84&amp;"'"&amp;C84&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[37] = 'I04X'</v>
       </c>
     </row>
@@ -9104,7 +9104,7 @@
         <v>351</v>
       </c>
       <c r="J85" t="str">
-        <f>I85&amp;"'"&amp;C85&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[38] = 'I04Y'</v>
       </c>
     </row>
@@ -9137,7 +9137,7 @@
         <v>355</v>
       </c>
       <c r="J86" t="str">
-        <f>I86&amp;"'"&amp;C86&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[39] = 'I04Z'</v>
       </c>
     </row>
@@ -9170,7 +9170,7 @@
         <v>359</v>
       </c>
       <c r="J87" t="str">
-        <f>I87&amp;"'"&amp;C87&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[40] = 'I050'</v>
       </c>
     </row>
@@ -9203,7 +9203,7 @@
         <v>363</v>
       </c>
       <c r="J88" t="str">
-        <f>I88&amp;"'"&amp;C88&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[24] = 'I051'</v>
       </c>
     </row>
@@ -9236,7 +9236,7 @@
         <v>367</v>
       </c>
       <c r="J89" t="str">
-        <f>I89&amp;"'"&amp;C89&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[25] = 'I052'</v>
       </c>
     </row>
@@ -9269,7 +9269,7 @@
         <v>371</v>
       </c>
       <c r="J90" t="str">
-        <f>I90&amp;"'"&amp;C90&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[17] = 'I053'</v>
       </c>
     </row>
@@ -9302,7 +9302,7 @@
         <v>375</v>
       </c>
       <c r="J91" t="str">
-        <f>I91&amp;"'"&amp;C91&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[26] = 'I054'</v>
       </c>
     </row>
@@ -9335,7 +9335,7 @@
         <v>379</v>
       </c>
       <c r="J92" t="str">
-        <f>I92&amp;"'"&amp;C92&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[18] = 'I055'</v>
       </c>
     </row>
@@ -9368,7 +9368,7 @@
         <v>383</v>
       </c>
       <c r="J93" t="str">
-        <f>I93&amp;"'"&amp;C93&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[19] = 'I056'</v>
       </c>
     </row>
@@ -9401,7 +9401,7 @@
         <v>387</v>
       </c>
       <c r="J94" t="str">
-        <f>I94&amp;"'"&amp;C94&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[20] = 'I057'</v>
       </c>
     </row>
@@ -9434,7 +9434,7 @@
         <v>391</v>
       </c>
       <c r="J95" t="str">
-        <f>I95&amp;"'"&amp;C95&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[21] = 'I058'</v>
       </c>
     </row>
@@ -9467,7 +9467,7 @@
         <v>395</v>
       </c>
       <c r="J96" t="str">
-        <f>I96&amp;"'"&amp;C96&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[22] = 'I059'</v>
       </c>
     </row>
@@ -9500,7 +9500,7 @@
         <v>399</v>
       </c>
       <c r="J97" t="str">
-        <f>I97&amp;"'"&amp;C97&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[23] = 'I05A'</v>
       </c>
     </row>
@@ -9533,7 +9533,7 @@
         <v>403</v>
       </c>
       <c r="J98" t="str">
-        <f>I98&amp;"'"&amp;C98&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set perfect_towers[12] = 'I05B'</v>
       </c>
     </row>
@@ -9566,7 +9566,7 @@
         <v>407</v>
       </c>
       <c r="J99" t="str">
-        <f>I99&amp;"'"&amp;C99&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set perfect_towers[13] = 'I05C'</v>
       </c>
     </row>
@@ -9599,7 +9599,7 @@
         <v>412</v>
       </c>
       <c r="J100" t="str">
-        <f>I100&amp;"'"&amp;C100&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[41] = 'I05D'</v>
       </c>
     </row>
@@ -9632,7 +9632,7 @@
         <v>416</v>
       </c>
       <c r="J101" t="str">
-        <f>I101&amp;"'"&amp;C101&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[42] = 'I05E'</v>
       </c>
     </row>
@@ -9665,7 +9665,7 @@
         <v>420</v>
       </c>
       <c r="J102" t="str">
-        <f>I102&amp;"'"&amp;C102&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[43] = 'I05F'</v>
       </c>
     </row>
@@ -9698,7 +9698,7 @@
         <v>424</v>
       </c>
       <c r="J103" t="str">
-        <f>I103&amp;"'"&amp;C103&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[44] = 'I05G'</v>
       </c>
     </row>
@@ -9731,7 +9731,7 @@
         <v>428</v>
       </c>
       <c r="J104" t="str">
-        <f>I104&amp;"'"&amp;C104&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[45] = 'I05H'</v>
       </c>
     </row>
@@ -9764,7 +9764,7 @@
         <v>432</v>
       </c>
       <c r="J105" t="str">
-        <f>I105&amp;"'"&amp;C105&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[46] = 'I05I'</v>
       </c>
     </row>
@@ -9797,7 +9797,7 @@
         <v>436</v>
       </c>
       <c r="J106" t="str">
-        <f>I106&amp;"'"&amp;C106&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[47] = 'I05J'</v>
       </c>
     </row>
@@ -9830,7 +9830,7 @@
         <v>440</v>
       </c>
       <c r="J107" t="str">
-        <f>I107&amp;"'"&amp;C107&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[27] = 'I05K'</v>
       </c>
     </row>
@@ -9863,7 +9863,7 @@
         <v>444</v>
       </c>
       <c r="J108" t="str">
-        <f>I108&amp;"'"&amp;C108&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[28] = 'I05L'</v>
       </c>
     </row>
@@ -9896,7 +9896,7 @@
         <v>448</v>
       </c>
       <c r="J109" t="str">
-        <f>I109&amp;"'"&amp;C109&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[29] = 'I05M'</v>
       </c>
     </row>
@@ -9929,7 +9929,7 @@
         <v>452</v>
       </c>
       <c r="J110" t="str">
-        <f>I110&amp;"'"&amp;C110&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[30] = 'I05N'</v>
       </c>
     </row>
@@ -9962,7 +9962,7 @@
         <v>456</v>
       </c>
       <c r="J111" t="str">
-        <f>I111&amp;"'"&amp;C111&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[24] = 'I05O'</v>
       </c>
     </row>
@@ -9995,7 +9995,7 @@
         <v>460</v>
       </c>
       <c r="J112" t="str">
-        <f>I112&amp;"'"&amp;C112&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[31] = 'I05P'</v>
       </c>
     </row>
@@ -10028,7 +10028,7 @@
         <v>464</v>
       </c>
       <c r="J113" t="str">
-        <f>I113&amp;"'"&amp;C113&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[25] = 'I05Q'</v>
       </c>
     </row>
@@ -10061,7 +10061,7 @@
         <v>468</v>
       </c>
       <c r="J114" t="str">
-        <f>I114&amp;"'"&amp;C114&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[32] = 'I05R'</v>
       </c>
     </row>
@@ -10094,7 +10094,7 @@
         <v>472</v>
       </c>
       <c r="J115" t="str">
-        <f>I115&amp;"'"&amp;C115&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[26] = 'I05S'</v>
       </c>
     </row>
@@ -10127,7 +10127,7 @@
         <v>476</v>
       </c>
       <c r="J116" t="str">
-        <f>I116&amp;"'"&amp;C116&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set perfect_towers[14] = 'I05T'</v>
       </c>
     </row>
@@ -10160,7 +10160,7 @@
         <v>480</v>
       </c>
       <c r="J117" t="str">
-        <f>I117&amp;"'"&amp;C117&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set perfect_towers[15] = 'I05U'</v>
       </c>
     </row>
@@ -10193,7 +10193,7 @@
         <v>484</v>
       </c>
       <c r="J118" t="str">
-        <f>I118&amp;"'"&amp;C118&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set perfect_towers[16] = 'I05V'</v>
       </c>
     </row>
@@ -10226,7 +10226,7 @@
         <v>489</v>
       </c>
       <c r="J119" t="str">
-        <f>I119&amp;"'"&amp;C119&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[48] = 'I02F'</v>
       </c>
     </row>
@@ -10259,7 +10259,7 @@
         <v>493</v>
       </c>
       <c r="J120" t="str">
-        <f>I120&amp;"'"&amp;C120&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[33] = 'I05W'</v>
       </c>
     </row>
@@ -10292,7 +10292,7 @@
         <v>497</v>
       </c>
       <c r="J121" t="str">
-        <f>I121&amp;"'"&amp;C121&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set low_towers[49] = 'I05X'</v>
       </c>
     </row>
@@ -10325,7 +10325,7 @@
         <v>501</v>
       </c>
       <c r="J122" t="str">
-        <f>I122&amp;"'"&amp;C122&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[34] = 'I05Y'</v>
       </c>
     </row>
@@ -10358,7 +10358,7 @@
         <v>505</v>
       </c>
       <c r="J123" t="str">
-        <f>I123&amp;"'"&amp;C123&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[27] = 'I05Z'</v>
       </c>
     </row>
@@ -10391,7 +10391,7 @@
         <v>509</v>
       </c>
       <c r="J124" t="str">
-        <f>I124&amp;"'"&amp;C124&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set perfect_towers[17] = 'I060'</v>
       </c>
     </row>
@@ -10424,7 +10424,7 @@
         <v>513</v>
       </c>
       <c r="J125" t="str">
-        <f>I125&amp;"'"&amp;C125&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set perfect_towers[18] = 'I02I'</v>
       </c>
     </row>
@@ -10457,7 +10457,7 @@
         <v>517</v>
       </c>
       <c r="J126" t="str">
-        <f>I126&amp;"'"&amp;C126&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set fine_towers[28] = 'I02H'</v>
       </c>
     </row>
@@ -10490,7 +10490,7 @@
         <v>521</v>
       </c>
       <c r="J127" t="str">
-        <f>I127&amp;"'"&amp;C127&amp;"'"</f>
+        <f t="shared" si="1"/>
         <v>set normal_towers[35] = 'I02G'</v>
       </c>
     </row>
@@ -22977,7 +22977,7 @@
   <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R47" sqref="R47"/>
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23740,7 +23740,7 @@
         <v>553</v>
       </c>
       <c r="T11" t="s">
-        <v>557</v>
+        <v>672</v>
       </c>
       <c r="V11" t="str">
         <f t="shared" si="5"/>
@@ -23809,7 +23809,7 @@
         <v>555</v>
       </c>
       <c r="T12" t="s">
-        <v>557</v>
+        <v>672</v>
       </c>
       <c r="V12" t="str">
         <f t="shared" si="5"/>
@@ -23875,10 +23875,10 @@
         <v>5</v>
       </c>
       <c r="R13" t="s">
+        <v>557</v>
+      </c>
+      <c r="T13" t="s">
         <v>672</v>
-      </c>
-      <c r="T13" t="s">
-        <v>557</v>
       </c>
       <c r="V13" t="str">
         <f t="shared" si="5"/>
@@ -23947,7 +23947,7 @@
         <v>667</v>
       </c>
       <c r="T14" t="s">
-        <v>557</v>
+        <v>672</v>
       </c>
       <c r="V14" t="str">
         <f t="shared" si="5"/>
@@ -24016,7 +24016,7 @@
         <v>559</v>
       </c>
       <c r="T15" t="s">
-        <v>557</v>
+        <v>672</v>
       </c>
       <c r="V15" t="str">
         <f t="shared" si="5"/>
@@ -24085,7 +24085,7 @@
         <v>561</v>
       </c>
       <c r="T16" t="s">
-        <v>557</v>
+        <v>672</v>
       </c>
       <c r="V16" t="str">
         <f t="shared" si="5"/>
@@ -24154,7 +24154,7 @@
         <v>563</v>
       </c>
       <c r="T17" t="s">
-        <v>557</v>
+        <v>672</v>
       </c>
       <c r="V17" t="str">
         <f t="shared" si="5"/>
@@ -24226,7 +24226,7 @@
         <v>679</v>
       </c>
       <c r="T18" t="s">
-        <v>557</v>
+        <v>672</v>
       </c>
       <c r="V18" t="str">
         <f t="shared" si="5"/>
@@ -24295,9 +24295,8 @@
         <v>683</v>
       </c>
       <c r="T19" t="s">
-        <v>557</v>
-      </c>
-      <c r="U19"/>
+        <v>672</v>
+      </c>
       <c r="V19" t="str">
         <f t="shared" si="5"/>
         <v>call SaveStr(NHT, 'O10H', 1, "武当")</v>
@@ -24365,7 +24364,7 @@
         <v>554</v>
       </c>
       <c r="T20" t="s">
-        <v>557</v>
+        <v>672</v>
       </c>
       <c r="V20" t="str">
         <f t="shared" si="5"/>
@@ -24431,10 +24430,10 @@
         <v>2</v>
       </c>
       <c r="R21" t="s">
-        <v>700</v>
+        <v>569</v>
       </c>
       <c r="T21" t="s">
-        <v>942</v>
+        <v>570</v>
       </c>
       <c r="V21" t="str">
         <f t="shared" si="5"/>
@@ -24446,7 +24445,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -24457,7 +24456,7 @@
         <v>I10K</v>
       </c>
       <c r="E22" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F22" t="s">
         <v>12</v>
@@ -24500,10 +24499,10 @@
         <v>5</v>
       </c>
       <c r="R22" t="s">
+        <v>944</v>
+      </c>
+      <c r="T22" t="s">
         <v>570</v>
-      </c>
-      <c r="T22" t="s">
-        <v>942</v>
       </c>
       <c r="V22" t="str">
         <f t="shared" si="5"/>
@@ -24572,7 +24571,7 @@
         <v>571</v>
       </c>
       <c r="T23" t="s">
-        <v>942</v>
+        <v>570</v>
       </c>
       <c r="V23" t="str">
         <f t="shared" si="5"/>
@@ -24641,7 +24640,7 @@
         <v>572</v>
       </c>
       <c r="T24" t="s">
-        <v>942</v>
+        <v>570</v>
       </c>
       <c r="V24" t="str">
         <f t="shared" si="5"/>
@@ -24710,7 +24709,7 @@
         <v>573</v>
       </c>
       <c r="T25" t="s">
-        <v>942</v>
+        <v>570</v>
       </c>
       <c r="V25" t="str">
         <f t="shared" si="5"/>
@@ -24779,7 +24778,7 @@
         <v>574</v>
       </c>
       <c r="T26" t="s">
-        <v>942</v>
+        <v>570</v>
       </c>
       <c r="V26" t="str">
         <f t="shared" si="5"/>
@@ -24848,7 +24847,7 @@
         <v>575</v>
       </c>
       <c r="T27" t="s">
-        <v>942</v>
+        <v>570</v>
       </c>
       <c r="V27" t="str">
         <f t="shared" si="5"/>
@@ -24917,7 +24916,7 @@
         <v>576</v>
       </c>
       <c r="T28" t="s">
-        <v>942</v>
+        <v>570</v>
       </c>
       <c r="V28" t="str">
         <f t="shared" si="5"/>
@@ -24986,7 +24985,7 @@
         <v>577</v>
       </c>
       <c r="T29" t="s">
-        <v>942</v>
+        <v>570</v>
       </c>
       <c r="V29" t="str">
         <f t="shared" si="5"/>
@@ -25055,7 +25054,7 @@
         <v>703</v>
       </c>
       <c r="T30" t="s">
-        <v>942</v>
+        <v>570</v>
       </c>
       <c r="V30" t="str">
         <f t="shared" si="5"/>
@@ -25127,7 +25126,7 @@
         <v>705</v>
       </c>
       <c r="T31" t="s">
-        <v>942</v>
+        <v>570</v>
       </c>
       <c r="V31" t="str">
         <f t="shared" si="5"/>
@@ -25196,7 +25195,7 @@
         <v>584</v>
       </c>
       <c r="T32" t="s">
-        <v>965</v>
+        <v>582</v>
       </c>
       <c r="V32" t="str">
         <f t="shared" si="5"/>
@@ -25208,7 +25207,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" si="0"/>
@@ -25219,7 +25218,7 @@
         <v>I10V</v>
       </c>
       <c r="E33" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F33" t="s">
         <v>12</v>
@@ -25265,7 +25264,7 @@
         <v>723</v>
       </c>
       <c r="T33" t="s">
-        <v>965</v>
+        <v>582</v>
       </c>
       <c r="V33" t="str">
         <f t="shared" si="5"/>
@@ -25277,7 +25276,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" si="0"/>
@@ -25288,7 +25287,7 @@
         <v>I10W</v>
       </c>
       <c r="E34" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F34" t="s">
         <v>12</v>
@@ -25331,10 +25330,10 @@
         <v>5</v>
       </c>
       <c r="R34" t="s">
+        <v>725</v>
+      </c>
+      <c r="T34" t="s">
         <v>582</v>
-      </c>
-      <c r="T34" t="s">
-        <v>965</v>
       </c>
       <c r="V34" t="str">
         <f t="shared" si="5"/>
@@ -25346,7 +25345,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ref="C35:C59" si="7">SUBSTITUTE(B35,"O","A")</f>
@@ -25357,7 +25356,7 @@
         <v>I10X</v>
       </c>
       <c r="E35" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F35" t="s">
         <v>41</v>
@@ -25403,7 +25402,7 @@
         <v>583</v>
       </c>
       <c r="T35" t="s">
-        <v>965</v>
+        <v>582</v>
       </c>
       <c r="V35" t="str">
         <f t="shared" ref="V35:V59" si="12">"call SaveStr(NHT, '"&amp;B35&amp;"', 1, """&amp;J35&amp;""")"</f>
@@ -25415,7 +25414,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" si="7"/>
@@ -25426,7 +25425,7 @@
         <v>I10Y</v>
       </c>
       <c r="E36" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F36" t="s">
         <v>41</v>
@@ -25472,7 +25471,7 @@
         <v>711</v>
       </c>
       <c r="T36" t="s">
-        <v>965</v>
+        <v>582</v>
       </c>
       <c r="V36" t="str">
         <f t="shared" si="12"/>
@@ -25484,7 +25483,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C37" t="str">
         <f t="shared" si="7"/>
@@ -25495,7 +25494,7 @@
         <v>I10Z</v>
       </c>
       <c r="E37" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F37" t="s">
         <v>41</v>
@@ -25541,7 +25540,7 @@
         <v>712</v>
       </c>
       <c r="T37" t="s">
-        <v>965</v>
+        <v>582</v>
       </c>
       <c r="V37" t="str">
         <f t="shared" si="12"/>
@@ -25553,7 +25552,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C38" t="str">
         <f t="shared" si="7"/>
@@ -25564,7 +25563,7 @@
         <v>I110</v>
       </c>
       <c r="E38" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F38" t="s">
         <v>58</v>
@@ -25610,7 +25609,7 @@
         <v>715</v>
       </c>
       <c r="T38" t="s">
-        <v>965</v>
+        <v>582</v>
       </c>
       <c r="V38" t="str">
         <f t="shared" si="12"/>
@@ -25622,7 +25621,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C39" t="str">
         <f t="shared" si="7"/>
@@ -25633,7 +25632,7 @@
         <v>I111</v>
       </c>
       <c r="E39" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F39" t="s">
         <v>58</v>
@@ -25679,7 +25678,7 @@
         <v>718</v>
       </c>
       <c r="T39" t="s">
-        <v>965</v>
+        <v>582</v>
       </c>
       <c r="V39" t="str">
         <f t="shared" si="12"/>
@@ -25691,7 +25690,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C40" t="str">
         <f t="shared" si="7"/>
@@ -25702,7 +25701,7 @@
         <v>I112</v>
       </c>
       <c r="E40" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F40" t="s">
         <v>58</v>
@@ -25748,7 +25747,7 @@
         <v>720</v>
       </c>
       <c r="T40" t="s">
-        <v>965</v>
+        <v>582</v>
       </c>
       <c r="V40" t="str">
         <f t="shared" si="12"/>
@@ -25760,7 +25759,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C41" t="str">
         <f t="shared" si="7"/>
@@ -25771,7 +25770,7 @@
         <v>I113</v>
       </c>
       <c r="E41" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F41" t="s">
         <v>75</v>
@@ -25814,10 +25813,10 @@
         <v>20</v>
       </c>
       <c r="R41" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="T41" t="s">
-        <v>965</v>
+        <v>582</v>
       </c>
       <c r="V41" t="str">
         <f t="shared" si="12"/>
@@ -25829,7 +25828,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C42" t="str">
         <f t="shared" si="7"/>
@@ -25840,7 +25839,7 @@
         <v>I114</v>
       </c>
       <c r="E42" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F42" t="s">
         <v>75</v>
@@ -25883,13 +25882,10 @@
         <v>20</v>
       </c>
       <c r="R42" t="s">
-        <v>730</v>
-      </c>
-      <c r="S42" t="s">
         <v>728</v>
       </c>
       <c r="T42" t="s">
-        <v>965</v>
+        <v>582</v>
       </c>
       <c r="V42" t="str">
         <f t="shared" si="12"/>
@@ -25901,7 +25897,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="7"/>
@@ -25912,7 +25908,7 @@
         <v>I115</v>
       </c>
       <c r="E43" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F43" t="s">
         <v>12</v>
@@ -25970,7 +25966,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C44" t="str">
         <f t="shared" si="7"/>
@@ -25981,7 +25977,7 @@
         <v>I116</v>
       </c>
       <c r="E44" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F44" t="s">
         <v>12</v>
@@ -26024,7 +26020,7 @@
         <v>2</v>
       </c>
       <c r="R44" t="s">
-        <v>597</v>
+        <v>748</v>
       </c>
       <c r="T44" t="s">
         <v>736</v>
@@ -26039,7 +26035,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="C45" t="str">
         <f t="shared" si="7"/>
@@ -26050,7 +26046,7 @@
         <v>I117</v>
       </c>
       <c r="E45" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F45" t="s">
         <v>12</v>
@@ -26108,7 +26104,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="C46" t="str">
         <f t="shared" si="7"/>
@@ -26119,7 +26115,7 @@
         <v>I118</v>
       </c>
       <c r="E46" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="F46" t="s">
         <v>41</v>
@@ -26177,7 +26173,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="C47" t="str">
         <f t="shared" si="7"/>
@@ -26188,7 +26184,7 @@
         <v>I119</v>
       </c>
       <c r="E47" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="F47" t="s">
         <v>41</v>
@@ -26246,7 +26242,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C48" t="str">
         <f t="shared" si="7"/>
@@ -26257,7 +26253,7 @@
         <v>I11A</v>
       </c>
       <c r="E48" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F48" t="s">
         <v>41</v>
@@ -26300,7 +26296,7 @@
         <v>6</v>
       </c>
       <c r="R48" t="s">
-        <v>601</v>
+        <v>749</v>
       </c>
       <c r="T48" t="s">
         <v>736</v>
@@ -26315,7 +26311,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="C49" t="str">
         <f t="shared" si="7"/>
@@ -26326,7 +26322,7 @@
         <v>I11B</v>
       </c>
       <c r="E49" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F49" t="s">
         <v>41</v>
@@ -26384,7 +26380,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="C50" t="str">
         <f t="shared" si="7"/>
@@ -26395,7 +26391,7 @@
         <v>I11C</v>
       </c>
       <c r="E50" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F50" t="s">
         <v>58</v>
@@ -26453,7 +26449,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C51" t="str">
         <f t="shared" si="7"/>
@@ -26464,7 +26460,7 @@
         <v>I11D</v>
       </c>
       <c r="E51" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F51" t="s">
         <v>58</v>
@@ -26522,7 +26518,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="C52" t="str">
         <f t="shared" si="7"/>
@@ -26533,7 +26529,7 @@
         <v>I11E</v>
       </c>
       <c r="E52" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F52" t="s">
         <v>58</v>
@@ -26591,7 +26587,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C53" t="str">
         <f t="shared" si="7"/>
@@ -26602,7 +26598,7 @@
         <v>I11F</v>
       </c>
       <c r="E53" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F53" t="s">
         <v>75</v>
@@ -26645,9 +26641,6 @@
         <v>20</v>
       </c>
       <c r="R53" t="s">
-        <v>748</v>
-      </c>
-      <c r="S53" t="s">
         <v>746</v>
       </c>
       <c r="T53" t="s">
@@ -26663,7 +26656,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="C54" t="str">
         <f t="shared" si="7"/>
@@ -26674,7 +26667,7 @@
         <v>I11G</v>
       </c>
       <c r="E54" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F54" t="s">
         <v>75</v>
@@ -26719,9 +26712,6 @@
       <c r="R54" t="s">
         <v>598</v>
       </c>
-      <c r="S54" t="s">
-        <v>749</v>
-      </c>
       <c r="T54" t="s">
         <v>736</v>
       </c>
@@ -26735,7 +26725,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C55" t="str">
         <f t="shared" si="7"/>
@@ -26746,7 +26736,7 @@
         <v>I11H</v>
       </c>
       <c r="E55" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F55" t="s">
         <v>75</v>
@@ -26804,7 +26794,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C56" t="str">
         <f t="shared" si="7"/>
@@ -26815,7 +26805,7 @@
         <v>I11I</v>
       </c>
       <c r="E56" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F56" t="s">
         <v>75</v>
@@ -26873,7 +26863,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C57" t="str">
         <f t="shared" si="7"/>
@@ -26884,7 +26874,7 @@
         <v>I11J</v>
       </c>
       <c r="E57" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F57" t="s">
         <v>41</v>
@@ -26930,7 +26920,7 @@
         <v>610</v>
       </c>
       <c r="S57" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V57" t="str">
         <f t="shared" si="12"/>
@@ -26942,7 +26932,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C58" t="str">
         <f t="shared" si="7"/>
@@ -26953,7 +26943,7 @@
         <v>I11K</v>
       </c>
       <c r="E58" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F58" t="s">
         <v>58</v>
@@ -27008,7 +26998,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C59" t="str">
         <f t="shared" si="7"/>
@@ -27019,7 +27009,7 @@
         <v>I11L</v>
       </c>
       <c r="E59" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F59" t="s">
         <v>75</v>
@@ -27062,10 +27052,10 @@
         <v>20</v>
       </c>
       <c r="R59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="S59" t="s">
         <v>1021</v>
-      </c>
-      <c r="S59" t="s">
-        <v>1022</v>
       </c>
       <c r="V59" t="str">
         <f t="shared" si="12"/>
@@ -27084,7 +27074,7 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="U52" sqref="U52"/>
+      <selection activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -27099,10 +27089,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C1" t="s">
         <v>1023</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1024</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -27173,7 +27163,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D2" t="s">
         <v>899</v>
@@ -27193,22 +27183,22 @@
         <v>12</v>
       </c>
       <c r="I2" t="str">
-        <f>_xlfn.IFS(H2="N","|CFF0000FF",H2="R","|CFFFF00FF",H2="SR","|CFFFF8000",H2="SSR","|CFFFF0000")</f>
+        <f t="shared" ref="I2:I59" si="0">_xlfn.IFS(H2="N","|CFF0000FF",H2="R","|CFFFF00FF",H2="SR","|CFFFF8000",H2="SSR","|CFFFF0000")</f>
         <v>|CFF0000FF</v>
       </c>
       <c r="J2" t="str">
-        <f>I2&amp;G2&amp;"|r"</f>
+        <f t="shared" ref="J2:J59" si="1">I2&amp;G2&amp;"|r"</f>
         <v>|CFF0000FF少林四代弟子|r</v>
       </c>
       <c r="K2">
-        <f>_xlfn.IFS(H2="N",10,H2="R",20,H2="SR",40,H2="SSR",100)</f>
+        <f t="shared" ref="K2:K59" si="2">_xlfn.IFS(H2="N",10,H2="R",20,H2="SR",40,H2="SSR",100)</f>
         <v>10</v>
       </c>
       <c r="L2" t="s">
         <v>11</v>
       </c>
       <c r="M2">
-        <f>K2*5</f>
+        <f t="shared" ref="M2:M59" si="3">K2*5</f>
         <v>50</v>
       </c>
       <c r="N2">
@@ -27248,17 +27238,17 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D3" t="s">
         <v>902</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E34" si="0">SUBSTITUTE(D3,"O","A",1)</f>
+        <f t="shared" ref="E3:E34" si="4">SUBSTITUTE(D3,"O","A",1)</f>
         <v>A101</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F34" si="1">SUBSTITUTE(D3,"O","I",1)</f>
+        <f t="shared" ref="F3:F34" si="5">SUBSTITUTE(D3,"O","I",1)</f>
         <v>I101</v>
       </c>
       <c r="G3" t="s">
@@ -27268,22 +27258,22 @@
         <v>12</v>
       </c>
       <c r="I3" t="str">
-        <f>_xlfn.IFS(H3="N","|CFF0000FF",H3="R","|CFFFF00FF",H3="SR","|CFFFF8000",H3="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J3" t="str">
-        <f>I3&amp;G3&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF达摩院弟子|r</v>
       </c>
       <c r="K3">
-        <f>_xlfn.IFS(H3="N",10,H3="R",20,H3="SR",40,H3="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L3" t="s">
         <v>11</v>
       </c>
       <c r="M3">
-        <f>K3*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N3">
@@ -27311,7 +27301,7 @@
         <v>539</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" ref="W3:W34" si="2">"set "&amp;C3&amp;"["&amp;B3&amp;"] = '"&amp;F3&amp;"'"</f>
+        <f t="shared" ref="W3:W34" si="6">"set "&amp;C3&amp;"["&amp;B3&amp;"] = '"&amp;F3&amp;"'"</f>
         <v>set low_towers[2] = 'I101'</v>
       </c>
     </row>
@@ -27323,17 +27313,17 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D4" t="s">
         <v>905</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A102</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I102</v>
       </c>
       <c r="G4" t="s">
@@ -27343,22 +27333,22 @@
         <v>12</v>
       </c>
       <c r="I4" t="str">
-        <f>_xlfn.IFS(H4="N","|CFF0000FF",H4="R","|CFFFF00FF",H4="SR","|CFFFF8000",H4="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J4" t="str">
-        <f>I4&amp;G4&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF戒律院弟子|r</v>
       </c>
       <c r="K4">
-        <f>_xlfn.IFS(H4="N",10,H4="R",20,H4="SR",40,H4="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L4" t="s">
         <v>11</v>
       </c>
       <c r="M4">
-        <f>K4*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N4">
@@ -27386,7 +27376,7 @@
         <v>539</v>
       </c>
       <c r="W4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set low_towers[3] = 'I102'</v>
       </c>
     </row>
@@ -27398,17 +27388,17 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D5" t="s">
         <v>920</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A109</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I109</v>
       </c>
       <c r="G5" t="s">
@@ -27418,22 +27408,22 @@
         <v>12</v>
       </c>
       <c r="I5" t="str">
-        <f>_xlfn.IFS(H5="N","|CFF0000FF",H5="R","|CFFFF00FF",H5="SR","|CFFFF8000",H5="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J5" t="str">
-        <f>I5&amp;G5&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF武当三代弟子|r</v>
       </c>
       <c r="K5">
-        <f>_xlfn.IFS(H5="N",10,H5="R",20,H5="SR",40,H5="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L5" t="s">
         <v>96</v>
       </c>
       <c r="M5">
-        <f>K5*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N5">
@@ -27461,7 +27451,7 @@
         <v>557</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set low_towers[4] = 'I109'</v>
       </c>
     </row>
@@ -27473,17 +27463,17 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D6" t="s">
         <v>922</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A10A</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I10A</v>
       </c>
       <c r="G6" t="s">
@@ -27493,22 +27483,22 @@
         <v>12</v>
       </c>
       <c r="I6" t="str">
-        <f>_xlfn.IFS(H6="N","|CFF0000FF",H6="R","|CFFFF00FF",H6="SR","|CFFFF8000",H6="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J6" t="str">
-        <f>I6&amp;G6&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF知客道人|r</v>
       </c>
       <c r="K6">
-        <f>_xlfn.IFS(H6="N",10,H6="R",20,H6="SR",40,H6="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L6" t="s">
         <v>96</v>
       </c>
       <c r="M6">
-        <f>K6*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N6">
@@ -27536,7 +27526,7 @@
         <v>557</v>
       </c>
       <c r="W6" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set low_towers[5] = 'I10A'</v>
       </c>
     </row>
@@ -27548,17 +27538,17 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D7" t="s">
         <v>924</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A10B</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I10B</v>
       </c>
       <c r="G7" t="s">
@@ -27568,22 +27558,22 @@
         <v>12</v>
       </c>
       <c r="I7" t="str">
-        <f>_xlfn.IFS(H7="N","|CFF0000FF",H7="R","|CFFFF00FF",H7="SR","|CFFFF8000",H7="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J7" t="str">
-        <f>I7&amp;G7&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF莫声谷|r</v>
       </c>
       <c r="K7">
-        <f>_xlfn.IFS(H7="N",10,H7="R",20,H7="SR",40,H7="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L7" t="s">
         <v>96</v>
       </c>
       <c r="M7">
-        <f>K7*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N7">
@@ -27611,7 +27601,7 @@
         <v>557</v>
       </c>
       <c r="W7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set low_towers[6] = 'I10B'</v>
       </c>
     </row>
@@ -27623,17 +27613,17 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D8" t="s">
         <v>940</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A10J</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I10J</v>
       </c>
       <c r="G8" t="s">
@@ -27643,22 +27633,22 @@
         <v>12</v>
       </c>
       <c r="I8" t="str">
-        <f>_xlfn.IFS(H8="N","|CFF0000FF",H8="R","|CFFFF00FF",H8="SR","|CFFFF8000",H8="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J8" t="str">
-        <f>I8&amp;G8&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF峨眉小师太|r</v>
       </c>
       <c r="K8">
-        <f>_xlfn.IFS(H8="N",10,H8="R",20,H8="SR",40,H8="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L8" t="s">
         <v>201</v>
       </c>
       <c r="M8">
-        <f>K8*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N8">
@@ -27683,10 +27673,10 @@
         <v>700</v>
       </c>
       <c r="V8" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="W8" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set low_towers[7] = 'I10J'</v>
       </c>
     </row>
@@ -27698,42 +27688,42 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D9" t="s">
+        <v>942</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="4"/>
+        <v>A10K</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="5"/>
+        <v>I10K</v>
+      </c>
+      <c r="G9" t="s">
         <v>943</v>
-      </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>A10K</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>I10K</v>
-      </c>
-      <c r="G9" t="s">
-        <v>944</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
       </c>
       <c r="I9" t="str">
-        <f>_xlfn.IFS(H9="N","|CFF0000FF",H9="R","|CFFFF00FF",H9="SR","|CFFFF8000",H9="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J9" t="str">
-        <f>I9&amp;G9&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF纪晓芙|r</v>
       </c>
       <c r="K9">
-        <f>_xlfn.IFS(H9="N",10,H9="R",20,H9="SR",40,H9="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L9" t="s">
         <v>201</v>
       </c>
       <c r="M9">
-        <f>K9*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N9">
@@ -27758,10 +27748,10 @@
         <v>570</v>
       </c>
       <c r="V9" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="W9" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set low_towers[8] = 'I10K'</v>
       </c>
     </row>
@@ -27773,17 +27763,17 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D10" t="s">
         <v>945</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A10L</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I10L</v>
       </c>
       <c r="G10" t="s">
@@ -27793,22 +27783,22 @@
         <v>12</v>
       </c>
       <c r="I10" t="str">
-        <f>_xlfn.IFS(H10="N","|CFF0000FF",H10="R","|CFFFF00FF",H10="SR","|CFFFF8000",H10="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J10" t="str">
-        <f>I10&amp;G10&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF静慧|r</v>
       </c>
       <c r="K10">
-        <f>_xlfn.IFS(H10="N",10,H10="R",20,H10="SR",40,H10="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L10" t="s">
         <v>201</v>
       </c>
       <c r="M10">
-        <f>K10*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N10">
@@ -27833,10 +27823,10 @@
         <v>571</v>
       </c>
       <c r="V10" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="W10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set low_towers[9] = 'I10L'</v>
       </c>
     </row>
@@ -27848,17 +27838,17 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D11" t="s">
         <v>963</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A10U</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I10U</v>
       </c>
       <c r="G11" t="s">
@@ -27868,22 +27858,22 @@
         <v>12</v>
       </c>
       <c r="I11" t="str">
-        <f>_xlfn.IFS(H11="N","|CFF0000FF",H11="R","|CFFFF00FF",H11="SR","|CFFFF8000",H11="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J11" t="str">
-        <f>I11&amp;G11&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF丐帮白莲使者|r</v>
       </c>
       <c r="K11">
-        <f>_xlfn.IFS(H11="N",10,H11="R",20,H11="SR",40,H11="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L11" t="s">
         <v>306</v>
       </c>
       <c r="M11">
-        <f>K11*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N11">
@@ -27908,10 +27898,10 @@
         <v>584</v>
       </c>
       <c r="V11" t="s">
-        <v>965</v>
+        <v>1025</v>
       </c>
       <c r="W11" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set low_towers[10] = 'I10U'</v>
       </c>
     </row>
@@ -27923,42 +27913,42 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D12" t="s">
+        <v>965</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="4"/>
+        <v>A10V</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="5"/>
+        <v>I10V</v>
+      </c>
+      <c r="G12" t="s">
         <v>966</v>
-      </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>A10V</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>I10V</v>
-      </c>
-      <c r="G12" t="s">
-        <v>967</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
       </c>
       <c r="I12" t="str">
-        <f>_xlfn.IFS(H12="N","|CFF0000FF",H12="R","|CFFFF00FF",H12="SR","|CFFFF8000",H12="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J12" t="str">
-        <f>I12&amp;G12&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF大勇分舵舵主|r</v>
       </c>
       <c r="K12">
-        <f>_xlfn.IFS(H12="N",10,H12="R",20,H12="SR",40,H12="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L12" t="s">
         <v>306</v>
       </c>
       <c r="M12">
-        <f>K12*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N12">
@@ -27983,10 +27973,10 @@
         <v>723</v>
       </c>
       <c r="V12" t="s">
-        <v>965</v>
+        <v>1025</v>
       </c>
       <c r="W12" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set low_towers[11] = 'I10V'</v>
       </c>
     </row>
@@ -27998,42 +27988,42 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D13" t="s">
+        <v>967</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="4"/>
+        <v>A10W</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="5"/>
+        <v>I10W</v>
+      </c>
+      <c r="G13" t="s">
         <v>968</v>
-      </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>A10W</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>I10W</v>
-      </c>
-      <c r="G13" t="s">
-        <v>969</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
       </c>
       <c r="I13" t="str">
-        <f>_xlfn.IFS(H13="N","|CFF0000FF",H13="R","|CFFFF00FF",H13="SR","|CFFFF8000",H13="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J13" t="str">
-        <f>I13&amp;G13&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF大信分舵舵主|r</v>
       </c>
       <c r="K13">
-        <f>_xlfn.IFS(H13="N",10,H13="R",20,H13="SR",40,H13="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L13" t="s">
         <v>306</v>
       </c>
       <c r="M13">
-        <f>K13*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N13">
@@ -28058,10 +28048,10 @@
         <v>582</v>
       </c>
       <c r="V13" t="s">
-        <v>965</v>
+        <v>1025</v>
       </c>
       <c r="W13" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set low_towers[12] = 'I10W'</v>
       </c>
     </row>
@@ -28073,42 +28063,42 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D14" t="s">
+        <v>985</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="4"/>
+        <v>A115</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="5"/>
+        <v>I115</v>
+      </c>
+      <c r="G14" t="s">
         <v>986</v>
-      </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>A115</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>I115</v>
-      </c>
-      <c r="G14" t="s">
-        <v>987</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
       </c>
       <c r="I14" t="str">
-        <f>_xlfn.IFS(H14="N","|CFF0000FF",H14="R","|CFFFF00FF",H14="SR","|CFFFF8000",H14="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J14" t="str">
-        <f>I14&amp;G14&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF全真大道士|r</v>
       </c>
       <c r="K14">
-        <f>_xlfn.IFS(H14="N",10,H14="R",20,H14="SR",40,H14="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L14" t="s">
         <v>411</v>
       </c>
       <c r="M14">
-        <f>K14*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N14">
@@ -28136,7 +28126,7 @@
         <v>736</v>
       </c>
       <c r="W14" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set low_towers[13] = 'I115'</v>
       </c>
     </row>
@@ -28148,42 +28138,42 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D15" t="s">
+        <v>987</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="4"/>
+        <v>A116</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="5"/>
+        <v>I116</v>
+      </c>
+      <c r="G15" t="s">
         <v>988</v>
-      </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>A116</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>I116</v>
-      </c>
-      <c r="G15" t="s">
-        <v>989</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
       </c>
       <c r="I15" t="str">
-        <f>_xlfn.IFS(H15="N","|CFF0000FF",H15="R","|CFFFF00FF",H15="SR","|CFFFF8000",H15="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J15" t="str">
-        <f>I15&amp;G15&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF苗道一|r</v>
       </c>
       <c r="K15">
-        <f>_xlfn.IFS(H15="N",10,H15="R",20,H15="SR",40,H15="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L15" t="s">
         <v>411</v>
       </c>
       <c r="M15">
-        <f>K15*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N15">
@@ -28208,7 +28198,7 @@
         <v>736</v>
       </c>
       <c r="W15" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set low_towers[14] = 'I116'</v>
       </c>
     </row>
@@ -28220,42 +28210,42 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="D16" t="s">
+        <v>989</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="4"/>
+        <v>A117</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="5"/>
+        <v>I117</v>
+      </c>
+      <c r="G16" t="s">
         <v>990</v>
-      </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>A117</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
-        <v>I117</v>
-      </c>
-      <c r="G16" t="s">
-        <v>991</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
       </c>
       <c r="I16" t="str">
-        <f>_xlfn.IFS(H16="N","|CFF0000FF",H16="R","|CFFFF00FF",H16="SR","|CFFFF8000",H16="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFF0000FF</v>
       </c>
       <c r="J16" t="str">
-        <f>I16&amp;G16&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFF0000FF尹志平|r</v>
       </c>
       <c r="K16">
-        <f>_xlfn.IFS(H16="N",10,H16="R",20,H16="SR",40,H16="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="L16" t="s">
         <v>411</v>
       </c>
       <c r="M16">
-        <f>K16*5</f>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="N16">
@@ -28283,7 +28273,7 @@
         <v>736</v>
       </c>
       <c r="W16" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set low_towers[15] = 'I117'</v>
       </c>
     </row>
@@ -28301,11 +28291,11 @@
         <v>907</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A103</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I103</v>
       </c>
       <c r="G17" t="s">
@@ -28315,22 +28305,22 @@
         <v>41</v>
       </c>
       <c r="I17" t="str">
-        <f>_xlfn.IFS(H17="N","|CFF0000FF",H17="R","|CFFFF00FF",H17="SR","|CFFFF8000",H17="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J17" t="str">
-        <f>I17&amp;G17&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF藏经阁弟子|r</v>
       </c>
       <c r="K17">
-        <f>_xlfn.IFS(H17="N",10,H17="R",20,H17="SR",40,H17="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L17" t="s">
         <v>11</v>
       </c>
       <c r="M17">
-        <f>K17*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N17">
@@ -28358,7 +28348,7 @@
         <v>539</v>
       </c>
       <c r="W17" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[1] = 'I103'</v>
       </c>
     </row>
@@ -28376,11 +28366,11 @@
         <v>910</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A104</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I104</v>
       </c>
       <c r="G18" t="s">
@@ -28390,22 +28380,22 @@
         <v>41</v>
       </c>
       <c r="I18" t="str">
-        <f>_xlfn.IFS(H18="N","|CFF0000FF",H18="R","|CFFFF00FF",H18="SR","|CFFFF8000",H18="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J18" t="str">
-        <f>I18&amp;G18&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF罗汉堂弟子|r</v>
       </c>
       <c r="K18">
-        <f>_xlfn.IFS(H18="N",10,H18="R",20,H18="SR",40,H18="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L18" t="s">
         <v>11</v>
       </c>
       <c r="M18">
-        <f>K18*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N18">
@@ -28433,7 +28423,7 @@
         <v>539</v>
       </c>
       <c r="W18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[2] = 'I104'</v>
       </c>
     </row>
@@ -28451,11 +28441,11 @@
         <v>926</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A10C</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I10C</v>
       </c>
       <c r="G19" t="s">
@@ -28465,22 +28455,22 @@
         <v>41</v>
       </c>
       <c r="I19" t="str">
-        <f>_xlfn.IFS(H19="N","|CFF0000FF",H19="R","|CFFFF00FF",H19="SR","|CFFFF8000",H19="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J19" t="str">
-        <f>I19&amp;G19&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF殷梨亭|r</v>
       </c>
       <c r="K19">
-        <f>_xlfn.IFS(H19="N",10,H19="R",20,H19="SR",40,H19="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L19" t="s">
         <v>96</v>
       </c>
       <c r="M19">
-        <f>K19*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N19">
@@ -28508,7 +28498,7 @@
         <v>557</v>
       </c>
       <c r="W19" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[3] = 'I10C'</v>
       </c>
     </row>
@@ -28526,11 +28516,11 @@
         <v>928</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A10D</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I10D</v>
       </c>
       <c r="G20" t="s">
@@ -28540,22 +28530,22 @@
         <v>41</v>
       </c>
       <c r="I20" t="str">
-        <f>_xlfn.IFS(H20="N","|CFF0000FF",H20="R","|CFFFF00FF",H20="SR","|CFFFF8000",H20="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J20" t="str">
-        <f>I20&amp;G20&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF张翠山|r</v>
       </c>
       <c r="K20">
-        <f>_xlfn.IFS(H20="N",10,H20="R",20,H20="SR",40,H20="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L20" t="s">
         <v>96</v>
       </c>
       <c r="M20">
-        <f>K20*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N20">
@@ -28583,7 +28573,7 @@
         <v>557</v>
       </c>
       <c r="W20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[4] = 'I10D'</v>
       </c>
     </row>
@@ -28601,11 +28591,11 @@
         <v>947</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A10M</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I10M</v>
       </c>
       <c r="G21" t="s">
@@ -28615,22 +28605,22 @@
         <v>41</v>
       </c>
       <c r="I21" t="str">
-        <f>_xlfn.IFS(H21="N","|CFF0000FF",H21="R","|CFFFF00FF",H21="SR","|CFFFF8000",H21="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J21" t="str">
-        <f>I21&amp;G21&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF苏梦清|r</v>
       </c>
       <c r="K21">
-        <f>_xlfn.IFS(H21="N",10,H21="R",20,H21="SR",40,H21="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L21" t="s">
         <v>201</v>
       </c>
       <c r="M21">
-        <f>K21*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N21">
@@ -28655,10 +28645,10 @@
         <v>572</v>
       </c>
       <c r="V21" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="W21" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[5] = 'I10M'</v>
       </c>
     </row>
@@ -28676,11 +28666,11 @@
         <v>949</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A10N</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I10N</v>
       </c>
       <c r="G22" t="s">
@@ -28690,22 +28680,22 @@
         <v>41</v>
       </c>
       <c r="I22" t="str">
-        <f>_xlfn.IFS(H22="N","|CFF0000FF",H22="R","|CFFFF00FF",H22="SR","|CFFFF8000",H22="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J22" t="str">
-        <f>I22&amp;G22&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF静空|r</v>
       </c>
       <c r="K22">
-        <f>_xlfn.IFS(H22="N",10,H22="R",20,H22="SR",40,H22="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L22" t="s">
         <v>201</v>
       </c>
       <c r="M22">
-        <f>K22*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N22">
@@ -28730,10 +28720,10 @@
         <v>573</v>
       </c>
       <c r="V22" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="W22" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[6] = 'I10N'</v>
       </c>
     </row>
@@ -28751,11 +28741,11 @@
         <v>951</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A10O</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I10O</v>
       </c>
       <c r="G23" t="s">
@@ -28765,22 +28755,22 @@
         <v>41</v>
       </c>
       <c r="I23" t="str">
-        <f>_xlfn.IFS(H23="N","|CFF0000FF",H23="R","|CFFFF00FF",H23="SR","|CFFFF8000",H23="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J23" t="str">
-        <f>I23&amp;G23&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF贝锦仪|r</v>
       </c>
       <c r="K23">
-        <f>_xlfn.IFS(H23="N",10,H23="R",20,H23="SR",40,H23="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L23" t="s">
         <v>201</v>
       </c>
       <c r="M23">
-        <f>K23*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N23">
@@ -28805,10 +28795,10 @@
         <v>574</v>
       </c>
       <c r="V23" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="W23" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[7] = 'I10O'</v>
       </c>
     </row>
@@ -28823,39 +28813,39 @@
         <v>1026</v>
       </c>
       <c r="D24" t="s">
+        <v>969</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="4"/>
+        <v>A10X</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="5"/>
+        <v>I10X</v>
+      </c>
+      <c r="G24" t="s">
         <v>970</v>
-      </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>A10X</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>I10X</v>
-      </c>
-      <c r="G24" t="s">
-        <v>971</v>
       </c>
       <c r="H24" t="s">
         <v>41</v>
       </c>
       <c r="I24" t="str">
-        <f>_xlfn.IFS(H24="N","|CFF0000FF",H24="R","|CFFFF00FF",H24="SR","|CFFFF8000",H24="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J24" t="str">
-        <f>I24&amp;G24&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF大智分舵舵主|r</v>
       </c>
       <c r="K24">
-        <f>_xlfn.IFS(H24="N",10,H24="R",20,H24="SR",40,H24="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L24" t="s">
         <v>306</v>
       </c>
       <c r="M24">
-        <f>K24*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N24">
@@ -28880,10 +28870,10 @@
         <v>583</v>
       </c>
       <c r="V24" t="s">
-        <v>965</v>
+        <v>1025</v>
       </c>
       <c r="W24" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[8] = 'I10X'</v>
       </c>
     </row>
@@ -28898,39 +28888,39 @@
         <v>1026</v>
       </c>
       <c r="D25" t="s">
+        <v>971</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="4"/>
+        <v>A10Y</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="5"/>
+        <v>I10Y</v>
+      </c>
+      <c r="G25" t="s">
         <v>972</v>
-      </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>A10Y</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>I10Y</v>
-      </c>
-      <c r="G25" t="s">
-        <v>973</v>
       </c>
       <c r="H25" t="s">
         <v>41</v>
       </c>
       <c r="I25" t="str">
-        <f>_xlfn.IFS(H25="N","|CFF0000FF",H25="R","|CFFFF00FF",H25="SR","|CFFFF8000",H25="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J25" t="str">
-        <f>I25&amp;G25&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF大礼分舵舵主|r</v>
       </c>
       <c r="K25">
-        <f>_xlfn.IFS(H25="N",10,H25="R",20,H25="SR",40,H25="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L25" t="s">
         <v>306</v>
       </c>
       <c r="M25">
-        <f>K25*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N25">
@@ -28955,10 +28945,10 @@
         <v>711</v>
       </c>
       <c r="V25" t="s">
-        <v>965</v>
+        <v>1025</v>
       </c>
       <c r="W25" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[9] = 'I10Y'</v>
       </c>
     </row>
@@ -28973,39 +28963,39 @@
         <v>1026</v>
       </c>
       <c r="D26" t="s">
+        <v>973</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="4"/>
+        <v>A10Z</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="5"/>
+        <v>I10Z</v>
+      </c>
+      <c r="G26" t="s">
         <v>974</v>
-      </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>A10Z</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>I10Z</v>
-      </c>
-      <c r="G26" t="s">
-        <v>975</v>
       </c>
       <c r="H26" t="s">
         <v>41</v>
       </c>
       <c r="I26" t="str">
-        <f>_xlfn.IFS(H26="N","|CFF0000FF",H26="R","|CFFFF00FF",H26="SR","|CFFFF8000",H26="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J26" t="str">
-        <f>I26&amp;G26&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF大义分舵舵主|r</v>
       </c>
       <c r="K26">
-        <f>_xlfn.IFS(H26="N",10,H26="R",20,H26="SR",40,H26="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L26" t="s">
         <v>306</v>
       </c>
       <c r="M26">
-        <f>K26*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N26">
@@ -29030,10 +29020,10 @@
         <v>712</v>
       </c>
       <c r="V26" t="s">
-        <v>965</v>
+        <v>1025</v>
       </c>
       <c r="W26" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[10] = 'I10Z'</v>
       </c>
     </row>
@@ -29048,39 +29038,39 @@
         <v>1026</v>
       </c>
       <c r="D27" t="s">
+        <v>991</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="4"/>
+        <v>A118</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="5"/>
+        <v>I118</v>
+      </c>
+      <c r="G27" t="s">
         <v>992</v>
-      </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>A118</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>I118</v>
-      </c>
-      <c r="G27" t="s">
-        <v>993</v>
       </c>
       <c r="H27" t="s">
         <v>41</v>
       </c>
       <c r="I27" t="str">
-        <f>_xlfn.IFS(H27="N","|CFF0000FF",H27="R","|CFFFF00FF",H27="SR","|CFFFF8000",H27="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J27" t="str">
-        <f>I27&amp;G27&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF孙不二|r</v>
       </c>
       <c r="K27">
-        <f>_xlfn.IFS(H27="N",10,H27="R",20,H27="SR",40,H27="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L27" t="s">
         <v>411</v>
       </c>
       <c r="M27">
-        <f>K27*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N27">
@@ -29108,7 +29098,7 @@
         <v>736</v>
       </c>
       <c r="W27" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[11] = 'I118'</v>
       </c>
     </row>
@@ -29123,39 +29113,39 @@
         <v>1026</v>
       </c>
       <c r="D28" t="s">
+        <v>993</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="4"/>
+        <v>A119</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="5"/>
+        <v>I119</v>
+      </c>
+      <c r="G28" t="s">
         <v>994</v>
-      </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>A119</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v>I119</v>
-      </c>
-      <c r="G28" t="s">
-        <v>995</v>
       </c>
       <c r="H28" t="s">
         <v>41</v>
       </c>
       <c r="I28" t="str">
-        <f>_xlfn.IFS(H28="N","|CFF0000FF",H28="R","|CFFFF00FF",H28="SR","|CFFFF8000",H28="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J28" t="str">
-        <f>I28&amp;G28&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF郝大通|r</v>
       </c>
       <c r="K28">
-        <f>_xlfn.IFS(H28="N",10,H28="R",20,H28="SR",40,H28="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L28" t="s">
         <v>411</v>
       </c>
       <c r="M28">
-        <f>K28*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N28">
@@ -29180,7 +29170,7 @@
         <v>736</v>
       </c>
       <c r="W28" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[12] = 'I119'</v>
       </c>
     </row>
@@ -29195,39 +29185,39 @@
         <v>1026</v>
       </c>
       <c r="D29" t="s">
+        <v>995</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="4"/>
+        <v>A11A</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="5"/>
+        <v>I11A</v>
+      </c>
+      <c r="G29" t="s">
         <v>996</v>
-      </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>A11A</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v>I11A</v>
-      </c>
-      <c r="G29" t="s">
-        <v>997</v>
       </c>
       <c r="H29" t="s">
         <v>41</v>
       </c>
       <c r="I29" t="str">
-        <f>_xlfn.IFS(H29="N","|CFF0000FF",H29="R","|CFFFF00FF",H29="SR","|CFFFF8000",H29="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J29" t="str">
-        <f>I29&amp;G29&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF谭处端|r</v>
       </c>
       <c r="K29">
-        <f>_xlfn.IFS(H29="N",10,H29="R",20,H29="SR",40,H29="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L29" t="s">
         <v>411</v>
       </c>
       <c r="M29">
-        <f>K29*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N29">
@@ -29255,7 +29245,7 @@
         <v>736</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[13] = 'I11A'</v>
       </c>
     </row>
@@ -29270,39 +29260,39 @@
         <v>1026</v>
       </c>
       <c r="D30" t="s">
+        <v>997</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="4"/>
+        <v>A11B</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="5"/>
+        <v>I11B</v>
+      </c>
+      <c r="G30" t="s">
         <v>998</v>
-      </c>
-      <c r="E30" t="str">
-        <f t="shared" si="0"/>
-        <v>A11B</v>
-      </c>
-      <c r="F30" t="str">
-        <f t="shared" si="1"/>
-        <v>I11B</v>
-      </c>
-      <c r="G30" t="s">
-        <v>999</v>
       </c>
       <c r="H30" t="s">
         <v>41</v>
       </c>
       <c r="I30" t="str">
-        <f>_xlfn.IFS(H30="N","|CFF0000FF",H30="R","|CFFFF00FF",H30="SR","|CFFFF8000",H30="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J30" t="str">
-        <f>I30&amp;G30&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF刘处玄|r</v>
       </c>
       <c r="K30">
-        <f>_xlfn.IFS(H30="N",10,H30="R",20,H30="SR",40,H30="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L30" t="s">
         <v>411</v>
       </c>
       <c r="M30">
-        <f>K30*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N30">
@@ -29330,7 +29320,7 @@
         <v>736</v>
       </c>
       <c r="W30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[14] = 'I11B'</v>
       </c>
     </row>
@@ -29345,39 +29335,39 @@
         <v>1026</v>
       </c>
       <c r="D31" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="4"/>
+        <v>A11J</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="5"/>
+        <v>I11J</v>
+      </c>
+      <c r="G31" t="s">
         <v>1014</v>
-      </c>
-      <c r="E31" t="str">
-        <f t="shared" si="0"/>
-        <v>A11J</v>
-      </c>
-      <c r="F31" t="str">
-        <f t="shared" si="1"/>
-        <v>I11J</v>
-      </c>
-      <c r="G31" t="s">
-        <v>1015</v>
       </c>
       <c r="H31" t="s">
         <v>41</v>
       </c>
       <c r="I31" t="str">
-        <f>_xlfn.IFS(H31="N","|CFF0000FF",H31="R","|CFFFF00FF",H31="SR","|CFFFF8000",H31="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF00FF</v>
       </c>
       <c r="J31" t="str">
-        <f>I31&amp;G31&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF00FF韦小宝|r</v>
       </c>
       <c r="K31">
-        <f>_xlfn.IFS(H31="N",10,H31="R",20,H31="SR",40,H31="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="L31" t="s">
         <v>488</v>
       </c>
       <c r="M31">
-        <f>K31*5</f>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="N31">
@@ -29402,10 +29392,10 @@
         <v>610</v>
       </c>
       <c r="U31" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set normal_towers[15] = 'I11J'</v>
       </c>
     </row>
@@ -29423,11 +29413,11 @@
         <v>912</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A105</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I105</v>
       </c>
       <c r="G32" t="s">
@@ -29437,22 +29427,22 @@
         <v>58</v>
       </c>
       <c r="I32" t="str">
-        <f>_xlfn.IFS(H32="N","|CFF0000FF",H32="R","|CFFFF00FF",H32="SR","|CFFFF8000",H32="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J32" t="str">
-        <f>I32&amp;G32&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000般若堂弟子|r</v>
       </c>
       <c r="K32">
-        <f>_xlfn.IFS(H32="N",10,H32="R",20,H32="SR",40,H32="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L32" t="s">
         <v>11</v>
       </c>
       <c r="M32">
-        <f>K32*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N32">
@@ -29480,7 +29470,7 @@
         <v>539</v>
       </c>
       <c r="W32" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set fine_towers[1] = 'I105'</v>
       </c>
     </row>
@@ -29498,11 +29488,11 @@
         <v>914</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A106</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I106</v>
       </c>
       <c r="G33" t="s">
@@ -29512,22 +29502,22 @@
         <v>58</v>
       </c>
       <c r="I33" t="str">
-        <f>_xlfn.IFS(H33="N","|CFF0000FF",H33="R","|CFFFF00FF",H33="SR","|CFFFF8000",H33="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J33" t="str">
-        <f>I33&amp;G33&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000菩提院弟子|r</v>
       </c>
       <c r="K33">
-        <f>_xlfn.IFS(H33="N",10,H33="R",20,H33="SR",40,H33="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L33" t="s">
         <v>11</v>
       </c>
       <c r="M33">
-        <f>K33*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N33">
@@ -29555,7 +29545,7 @@
         <v>539</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set fine_towers[2] = 'I106'</v>
       </c>
     </row>
@@ -29573,11 +29563,11 @@
         <v>930</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>A10E</v>
       </c>
       <c r="F34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>I10E</v>
       </c>
       <c r="G34" t="s">
@@ -29587,22 +29577,22 @@
         <v>58</v>
       </c>
       <c r="I34" t="str">
-        <f>_xlfn.IFS(H34="N","|CFF0000FF",H34="R","|CFFFF00FF",H34="SR","|CFFFF8000",H34="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J34" t="str">
-        <f>I34&amp;G34&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000张松溪|r</v>
       </c>
       <c r="K34">
-        <f>_xlfn.IFS(H34="N",10,H34="R",20,H34="SR",40,H34="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L34" t="s">
         <v>96</v>
       </c>
       <c r="M34">
-        <f>K34*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N34">
@@ -29630,7 +29620,7 @@
         <v>557</v>
       </c>
       <c r="W34" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>set fine_towers[3] = 'I10E'</v>
       </c>
     </row>
@@ -29648,11 +29638,11 @@
         <v>932</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" ref="E35:E59" si="3">SUBSTITUTE(D35,"O","A",1)</f>
+        <f t="shared" ref="E35:E59" si="7">SUBSTITUTE(D35,"O","A",1)</f>
         <v>A10F</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" ref="F35:F59" si="4">SUBSTITUTE(D35,"O","I",1)</f>
+        <f t="shared" ref="F35:F59" si="8">SUBSTITUTE(D35,"O","I",1)</f>
         <v>I10F</v>
       </c>
       <c r="G35" t="s">
@@ -29662,22 +29652,22 @@
         <v>58</v>
       </c>
       <c r="I35" t="str">
-        <f>_xlfn.IFS(H35="N","|CFF0000FF",H35="R","|CFFFF00FF",H35="SR","|CFFFF8000",H35="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J35" t="str">
-        <f>I35&amp;G35&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000俞岱岩|r</v>
       </c>
       <c r="K35">
-        <f>_xlfn.IFS(H35="N",10,H35="R",20,H35="SR",40,H35="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L35" t="s">
         <v>96</v>
       </c>
       <c r="M35">
-        <f>K35*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N35">
@@ -29705,7 +29695,7 @@
         <v>557</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" ref="W35:W59" si="5">"set "&amp;C35&amp;"["&amp;B35&amp;"] = '"&amp;F35&amp;"'"</f>
+        <f t="shared" ref="W35:W59" si="9">"set "&amp;C35&amp;"["&amp;B35&amp;"] = '"&amp;F35&amp;"'"</f>
         <v>set fine_towers[4] = 'I10F'</v>
       </c>
     </row>
@@ -29723,11 +29713,11 @@
         <v>934</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>A10G</v>
       </c>
       <c r="F36" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>I10G</v>
       </c>
       <c r="G36" t="s">
@@ -29737,22 +29727,22 @@
         <v>58</v>
       </c>
       <c r="I36" t="str">
-        <f>_xlfn.IFS(H36="N","|CFF0000FF",H36="R","|CFFFF00FF",H36="SR","|CFFFF8000",H36="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J36" t="str">
-        <f>I36&amp;G36&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000俞莲舟|r</v>
       </c>
       <c r="K36">
-        <f>_xlfn.IFS(H36="N",10,H36="R",20,H36="SR",40,H36="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L36" t="s">
         <v>96</v>
       </c>
       <c r="M36">
-        <f>K36*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N36">
@@ -29783,7 +29773,7 @@
         <v>557</v>
       </c>
       <c r="W36" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set fine_towers[5] = 'I10G'</v>
       </c>
     </row>
@@ -29801,11 +29791,11 @@
         <v>953</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>A10P</v>
       </c>
       <c r="F37" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>I10P</v>
       </c>
       <c r="G37" t="s">
@@ -29815,22 +29805,22 @@
         <v>58</v>
       </c>
       <c r="I37" t="str">
-        <f>_xlfn.IFS(H37="N","|CFF0000FF",H37="R","|CFFFF00FF",H37="SR","|CFFFF8000",H37="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J37" t="str">
-        <f>I37&amp;G37&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000静虚|r</v>
       </c>
       <c r="K37">
-        <f>_xlfn.IFS(H37="N",10,H37="R",20,H37="SR",40,H37="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L37" t="s">
         <v>201</v>
       </c>
       <c r="M37">
-        <f>K37*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N37">
@@ -29855,10 +29845,10 @@
         <v>575</v>
       </c>
       <c r="V37" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set fine_towers[6] = 'I10P'</v>
       </c>
     </row>
@@ -29876,11 +29866,11 @@
         <v>955</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>A10Q</v>
       </c>
       <c r="F38" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>I10Q</v>
       </c>
       <c r="G38" t="s">
@@ -29890,22 +29880,22 @@
         <v>58</v>
       </c>
       <c r="I38" t="str">
-        <f>_xlfn.IFS(H38="N","|CFF0000FF",H38="R","|CFFFF00FF",H38="SR","|CFFFF8000",H38="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J38" t="str">
-        <f>I38&amp;G38&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000丁敏君|r</v>
       </c>
       <c r="K38">
-        <f>_xlfn.IFS(H38="N",10,H38="R",20,H38="SR",40,H38="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L38" t="s">
         <v>201</v>
       </c>
       <c r="M38">
-        <f>K38*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N38">
@@ -29930,10 +29920,10 @@
         <v>576</v>
       </c>
       <c r="V38" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set fine_towers[7] = 'I10Q'</v>
       </c>
     </row>
@@ -29951,11 +29941,11 @@
         <v>957</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>A10R</v>
       </c>
       <c r="F39" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>I10R</v>
       </c>
       <c r="G39" t="s">
@@ -29965,22 +29955,22 @@
         <v>58</v>
       </c>
       <c r="I39" t="str">
-        <f>_xlfn.IFS(H39="N","|CFF0000FF",H39="R","|CFFFF00FF",H39="SR","|CFFFF8000",H39="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J39" t="str">
-        <f>I39&amp;G39&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000静玄|r</v>
       </c>
       <c r="K39">
-        <f>_xlfn.IFS(H39="N",10,H39="R",20,H39="SR",40,H39="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L39" t="s">
         <v>201</v>
       </c>
       <c r="M39">
-        <f>K39*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N39">
@@ -30005,10 +29995,10 @@
         <v>577</v>
       </c>
       <c r="V39" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="W39" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set fine_towers[8] = 'I10R'</v>
       </c>
     </row>
@@ -30023,39 +30013,39 @@
         <v>1027</v>
       </c>
       <c r="D40" t="s">
+        <v>975</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="7"/>
+        <v>A110</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="8"/>
+        <v>I110</v>
+      </c>
+      <c r="G40" t="s">
         <v>976</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="3"/>
-        <v>A110</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="4"/>
-        <v>I110</v>
-      </c>
-      <c r="G40" t="s">
-        <v>977</v>
       </c>
       <c r="H40" t="s">
         <v>58</v>
       </c>
       <c r="I40" t="str">
-        <f>_xlfn.IFS(H40="N","|CFF0000FF",H40="R","|CFFFF00FF",H40="SR","|CFFFF8000",H40="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J40" t="str">
-        <f>I40&amp;G40&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000大仁分舵舵主|r</v>
       </c>
       <c r="K40">
-        <f>_xlfn.IFS(H40="N",10,H40="R",20,H40="SR",40,H40="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L40" t="s">
         <v>306</v>
       </c>
       <c r="M40">
-        <f>K40*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N40">
@@ -30080,10 +30070,10 @@
         <v>715</v>
       </c>
       <c r="V40" t="s">
-        <v>965</v>
+        <v>1025</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set fine_towers[9] = 'I110'</v>
       </c>
     </row>
@@ -30098,39 +30088,39 @@
         <v>1027</v>
       </c>
       <c r="D41" t="s">
+        <v>977</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="7"/>
+        <v>A111</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="8"/>
+        <v>I111</v>
+      </c>
+      <c r="G41" t="s">
         <v>978</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" si="3"/>
-        <v>A111</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" si="4"/>
-        <v>I111</v>
-      </c>
-      <c r="G41" t="s">
-        <v>979</v>
       </c>
       <c r="H41" t="s">
         <v>58</v>
       </c>
       <c r="I41" t="str">
-        <f>_xlfn.IFS(H41="N","|CFF0000FF",H41="R","|CFFFF00FF",H41="SR","|CFFFF8000",H41="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J41" t="str">
-        <f>I41&amp;G41&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000护法长老|r</v>
       </c>
       <c r="K41">
-        <f>_xlfn.IFS(H41="N",10,H41="R",20,H41="SR",40,H41="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L41" t="s">
         <v>306</v>
       </c>
       <c r="M41">
-        <f>K41*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N41">
@@ -30155,10 +30145,10 @@
         <v>718</v>
       </c>
       <c r="V41" t="s">
-        <v>965</v>
+        <v>1025</v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set fine_towers[10] = 'I111'</v>
       </c>
     </row>
@@ -30173,39 +30163,39 @@
         <v>1027</v>
       </c>
       <c r="D42" t="s">
+        <v>979</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="7"/>
+        <v>A112</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="8"/>
+        <v>I112</v>
+      </c>
+      <c r="G42" t="s">
         <v>980</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="3"/>
-        <v>A112</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="4"/>
-        <v>I112</v>
-      </c>
-      <c r="G42" t="s">
-        <v>981</v>
       </c>
       <c r="H42" t="s">
         <v>58</v>
       </c>
       <c r="I42" t="str">
-        <f>_xlfn.IFS(H42="N","|CFF0000FF",H42="R","|CFFFF00FF",H42="SR","|CFFFF8000",H42="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J42" t="str">
-        <f>I42&amp;G42&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000执法长老|r</v>
       </c>
       <c r="K42">
-        <f>_xlfn.IFS(H42="N",10,H42="R",20,H42="SR",40,H42="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L42" t="s">
         <v>306</v>
       </c>
       <c r="M42">
-        <f>K42*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N42">
@@ -30230,10 +30220,10 @@
         <v>720</v>
       </c>
       <c r="V42" t="s">
-        <v>965</v>
+        <v>1025</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set fine_towers[11] = 'I112'</v>
       </c>
     </row>
@@ -30248,39 +30238,39 @@
         <v>1027</v>
       </c>
       <c r="D43" t="s">
+        <v>999</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="7"/>
+        <v>A11C</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="8"/>
+        <v>I11C</v>
+      </c>
+      <c r="G43" t="s">
         <v>1000</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="3"/>
-        <v>A11C</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="4"/>
-        <v>I11C</v>
-      </c>
-      <c r="G43" t="s">
-        <v>1001</v>
       </c>
       <c r="H43" t="s">
         <v>58</v>
       </c>
       <c r="I43" t="str">
-        <f>_xlfn.IFS(H43="N","|CFF0000FF",H43="R","|CFFFF00FF",H43="SR","|CFFFF8000",H43="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J43" t="str">
-        <f>I43&amp;G43&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000王处一|r</v>
       </c>
       <c r="K43">
-        <f>_xlfn.IFS(H43="N",10,H43="R",20,H43="SR",40,H43="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L43" t="s">
         <v>411</v>
       </c>
       <c r="M43">
-        <f>K43*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N43">
@@ -30308,7 +30298,7 @@
         <v>736</v>
       </c>
       <c r="W43" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set fine_towers[12] = 'I11C'</v>
       </c>
     </row>
@@ -30323,39 +30313,39 @@
         <v>1027</v>
       </c>
       <c r="D44" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="7"/>
+        <v>A11D</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="8"/>
+        <v>I11D</v>
+      </c>
+      <c r="G44" t="s">
         <v>1002</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="3"/>
-        <v>A11D</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="4"/>
-        <v>I11D</v>
-      </c>
-      <c r="G44" t="s">
-        <v>1003</v>
       </c>
       <c r="H44" t="s">
         <v>58</v>
       </c>
       <c r="I44" t="str">
-        <f>_xlfn.IFS(H44="N","|CFF0000FF",H44="R","|CFFFF00FF",H44="SR","|CFFFF8000",H44="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J44" t="str">
-        <f>I44&amp;G44&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000丘处机|r</v>
       </c>
       <c r="K44">
-        <f>_xlfn.IFS(H44="N",10,H44="R",20,H44="SR",40,H44="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L44" t="s">
         <v>411</v>
       </c>
       <c r="M44">
-        <f>K44*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N44">
@@ -30383,7 +30373,7 @@
         <v>736</v>
       </c>
       <c r="W44" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set fine_towers[13] = 'I11D'</v>
       </c>
     </row>
@@ -30398,39 +30388,39 @@
         <v>1027</v>
       </c>
       <c r="D45" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="7"/>
+        <v>A11E</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="8"/>
+        <v>I11E</v>
+      </c>
+      <c r="G45" t="s">
         <v>1004</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="3"/>
-        <v>A11E</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="4"/>
-        <v>I11E</v>
-      </c>
-      <c r="G45" t="s">
-        <v>1005</v>
       </c>
       <c r="H45" t="s">
         <v>58</v>
       </c>
       <c r="I45" t="str">
-        <f>_xlfn.IFS(H45="N","|CFF0000FF",H45="R","|CFFFF00FF",H45="SR","|CFFFF8000",H45="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J45" t="str">
-        <f>I45&amp;G45&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000马钰|r</v>
       </c>
       <c r="K45">
-        <f>_xlfn.IFS(H45="N",10,H45="R",20,H45="SR",40,H45="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L45" t="s">
         <v>411</v>
       </c>
       <c r="M45">
-        <f>K45*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N45">
@@ -30458,7 +30448,7 @@
         <v>736</v>
       </c>
       <c r="W45" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set fine_towers[14] = 'I11E'</v>
       </c>
     </row>
@@ -30473,39 +30463,39 @@
         <v>1027</v>
       </c>
       <c r="D46" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="7"/>
+        <v>A11K</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="8"/>
+        <v>I11K</v>
+      </c>
+      <c r="G46" t="s">
         <v>1017</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="3"/>
-        <v>A11K</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="4"/>
-        <v>I11K</v>
-      </c>
-      <c r="G46" t="s">
-        <v>1018</v>
       </c>
       <c r="H46" t="s">
         <v>58</v>
       </c>
       <c r="I46" t="str">
-        <f>_xlfn.IFS(H46="N","|CFF0000FF",H46="R","|CFFFF00FF",H46="SR","|CFFFF8000",H46="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF8000</v>
       </c>
       <c r="J46" t="str">
-        <f>I46&amp;G46&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF8000云中鹤|r</v>
       </c>
       <c r="K46">
-        <f>_xlfn.IFS(H46="N",10,H46="R",20,H46="SR",40,H46="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="L46" t="s">
         <v>488</v>
       </c>
       <c r="M46">
-        <f>K46*5</f>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="N46">
@@ -30530,7 +30520,7 @@
         <v>611</v>
       </c>
       <c r="W46" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set fine_towers[15] = 'I11K'</v>
       </c>
     </row>
@@ -30548,11 +30538,11 @@
         <v>916</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>A107</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>I107</v>
       </c>
       <c r="G47" t="s">
@@ -30562,22 +30552,22 @@
         <v>75</v>
       </c>
       <c r="I47" t="str">
-        <f>_xlfn.IFS(H47="N","|CFF0000FF",H47="R","|CFFFF00FF",H47="SR","|CFFFF8000",H47="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="J47" t="str">
-        <f>I47&amp;G47&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF0000醉世|r</v>
       </c>
       <c r="K47">
-        <f>_xlfn.IFS(H47="N",10,H47="R",20,H47="SR",40,H47="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L47" t="s">
         <v>11</v>
       </c>
       <c r="M47">
-        <f>K47*5</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="N47">
@@ -30605,7 +30595,7 @@
         <v>539</v>
       </c>
       <c r="W47" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set perfect_towers[1] = 'I107'</v>
       </c>
     </row>
@@ -30623,11 +30613,11 @@
         <v>918</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>A108</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>I108</v>
       </c>
       <c r="G48" t="s">
@@ -30637,22 +30627,22 @@
         <v>75</v>
       </c>
       <c r="I48" t="str">
-        <f>_xlfn.IFS(H48="N","|CFF0000FF",H48="R","|CFFFF00FF",H48="SR","|CFFFF8000",H48="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="J48" t="str">
-        <f>I48&amp;G48&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF0000少林掌门|r</v>
       </c>
       <c r="K48">
-        <f>_xlfn.IFS(H48="N",10,H48="R",20,H48="SR",40,H48="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L48" t="s">
         <v>11</v>
       </c>
       <c r="M48">
-        <f>K48*5</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="N48">
@@ -30680,7 +30670,7 @@
         <v>539</v>
       </c>
       <c r="W48" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set perfect_towers[2] = 'I108'</v>
       </c>
     </row>
@@ -30698,11 +30688,11 @@
         <v>936</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>A10H</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>I10H</v>
       </c>
       <c r="G49" t="s">
@@ -30712,22 +30702,22 @@
         <v>75</v>
       </c>
       <c r="I49" t="str">
-        <f>_xlfn.IFS(H49="N","|CFF0000FF",H49="R","|CFFFF00FF",H49="SR","|CFFFF8000",H49="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="J49" t="str">
-        <f>I49&amp;G49&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF0000宋远桥|r</v>
       </c>
       <c r="K49">
-        <f>_xlfn.IFS(H49="N",10,H49="R",20,H49="SR",40,H49="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L49" t="s">
         <v>96</v>
       </c>
       <c r="M49">
-        <f>K49*5</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="N49">
@@ -30755,7 +30745,7 @@
         <v>557</v>
       </c>
       <c r="W49" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set perfect_towers[3] = 'I10H'</v>
       </c>
     </row>
@@ -30773,11 +30763,11 @@
         <v>938</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>A10I</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>I10I</v>
       </c>
       <c r="G50" t="s">
@@ -30787,22 +30777,22 @@
         <v>75</v>
       </c>
       <c r="I50" t="str">
-        <f>_xlfn.IFS(H50="N","|CFF0000FF",H50="R","|CFFFF00FF",H50="SR","|CFFFF8000",H50="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="J50" t="str">
-        <f>I50&amp;G50&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF0000武当掌门|r</v>
       </c>
       <c r="K50">
-        <f>_xlfn.IFS(H50="N",10,H50="R",20,H50="SR",40,H50="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L50" t="s">
         <v>96</v>
       </c>
       <c r="M50">
-        <f>K50*5</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="N50">
@@ -30830,7 +30820,7 @@
         <v>557</v>
       </c>
       <c r="W50" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set perfect_towers[4] = 'I10I'</v>
       </c>
     </row>
@@ -30848,11 +30838,11 @@
         <v>959</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>A10S</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>I10S</v>
       </c>
       <c r="G51" t="s">
@@ -30862,22 +30852,22 @@
         <v>75</v>
       </c>
       <c r="I51" t="str">
-        <f>_xlfn.IFS(H51="N","|CFF0000FF",H51="R","|CFFFF00FF",H51="SR","|CFFFF8000",H51="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="J51" t="str">
-        <f>I51&amp;G51&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF0000周芷若|r</v>
       </c>
       <c r="K51">
-        <f>_xlfn.IFS(H51="N",10,H51="R",20,H51="SR",40,H51="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L51" t="s">
         <v>201</v>
       </c>
       <c r="M51">
-        <f>K51*5</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="N51">
@@ -30902,10 +30892,10 @@
         <v>703</v>
       </c>
       <c r="V51" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="W51" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set perfect_towers[5] = 'I10S'</v>
       </c>
     </row>
@@ -30923,11 +30913,11 @@
         <v>961</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>A10T</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>I10T</v>
       </c>
       <c r="G52" t="s">
@@ -30937,22 +30927,22 @@
         <v>75</v>
       </c>
       <c r="I52" t="str">
-        <f>_xlfn.IFS(H52="N","|CFF0000FF",H52="R","|CFFFF00FF",H52="SR","|CFFFF8000",H52="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="J52" t="str">
-        <f>I52&amp;G52&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF0000峨眉掌门|r</v>
       </c>
       <c r="K52">
-        <f>_xlfn.IFS(H52="N",10,H52="R",20,H52="SR",40,H52="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L52" t="s">
         <v>201</v>
       </c>
       <c r="M52">
-        <f>K52*5</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="N52">
@@ -30980,10 +30970,10 @@
         <v>705</v>
       </c>
       <c r="V52" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="W52" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set perfect_towers[6] = 'I10T'</v>
       </c>
     </row>
@@ -30998,39 +30988,39 @@
         <v>1028</v>
       </c>
       <c r="D53" t="s">
+        <v>981</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="7"/>
+        <v>A113</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="8"/>
+        <v>I113</v>
+      </c>
+      <c r="G53" t="s">
         <v>982</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="3"/>
-        <v>A113</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="4"/>
-        <v>I113</v>
-      </c>
-      <c r="G53" t="s">
-        <v>983</v>
       </c>
       <c r="H53" t="s">
         <v>75</v>
       </c>
       <c r="I53" t="str">
-        <f>_xlfn.IFS(H53="N","|CFF0000FF",H53="R","|CFFFF00FF",H53="SR","|CFFFF8000",H53="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="J53" t="str">
-        <f>I53&amp;G53&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF0000传功长老|r</v>
       </c>
       <c r="K53">
-        <f>_xlfn.IFS(H53="N",10,H53="R",20,H53="SR",40,H53="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L53" t="s">
         <v>306</v>
       </c>
       <c r="M53">
-        <f>K53*5</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="N53">
@@ -31055,10 +31045,10 @@
         <v>725</v>
       </c>
       <c r="V53" t="s">
-        <v>965</v>
+        <v>1025</v>
       </c>
       <c r="W53" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set perfect_towers[7] = 'I113'</v>
       </c>
     </row>
@@ -31073,39 +31063,39 @@
         <v>1028</v>
       </c>
       <c r="D54" t="s">
+        <v>983</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="7"/>
+        <v>A114</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="8"/>
+        <v>I114</v>
+      </c>
+      <c r="G54" t="s">
         <v>984</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="3"/>
-        <v>A114</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="4"/>
-        <v>I114</v>
-      </c>
-      <c r="G54" t="s">
-        <v>985</v>
       </c>
       <c r="H54" t="s">
         <v>75</v>
       </c>
       <c r="I54" t="str">
-        <f>_xlfn.IFS(H54="N","|CFF0000FF",H54="R","|CFFFF00FF",H54="SR","|CFFFF8000",H54="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="J54" t="str">
-        <f>I54&amp;G54&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF0000丐帮帮主|r</v>
       </c>
       <c r="K54">
-        <f>_xlfn.IFS(H54="N",10,H54="R",20,H54="SR",40,H54="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L54" t="s">
         <v>306</v>
       </c>
       <c r="M54">
-        <f>K54*5</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="N54">
@@ -31133,10 +31123,10 @@
         <v>728</v>
       </c>
       <c r="V54" t="s">
-        <v>965</v>
+        <v>1025</v>
       </c>
       <c r="W54" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set perfect_towers[8] = 'I114'</v>
       </c>
     </row>
@@ -31151,39 +31141,39 @@
         <v>1028</v>
       </c>
       <c r="D55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="7"/>
+        <v>A11F</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="8"/>
+        <v>I11F</v>
+      </c>
+      <c r="G55" t="s">
         <v>1006</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="3"/>
-        <v>A11F</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="4"/>
-        <v>I11F</v>
-      </c>
-      <c r="G55" t="s">
-        <v>1007</v>
       </c>
       <c r="H55" t="s">
         <v>75</v>
       </c>
       <c r="I55" t="str">
-        <f>_xlfn.IFS(H55="N","|CFF0000FF",H55="R","|CFFFF00FF",H55="SR","|CFFFF8000",H55="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="J55" t="str">
-        <f>I55&amp;G55&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF0000周伯通|r</v>
       </c>
       <c r="K55">
-        <f>_xlfn.IFS(H55="N",10,H55="R",20,H55="SR",40,H55="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L55" t="s">
         <v>411</v>
       </c>
       <c r="M55">
-        <f>K55*5</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="N55">
@@ -31214,7 +31204,7 @@
         <v>736</v>
       </c>
       <c r="W55" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set perfect_towers[9] = 'I11F'</v>
       </c>
     </row>
@@ -31229,39 +31219,39 @@
         <v>1028</v>
       </c>
       <c r="D56" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="7"/>
+        <v>A11G</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="8"/>
+        <v>I11G</v>
+      </c>
+      <c r="G56" t="s">
         <v>1008</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="3"/>
-        <v>A11G</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="4"/>
-        <v>I11G</v>
-      </c>
-      <c r="G56" t="s">
-        <v>1009</v>
       </c>
       <c r="H56" t="s">
         <v>75</v>
       </c>
       <c r="I56" t="str">
-        <f>_xlfn.IFS(H56="N","|CFF0000FF",H56="R","|CFFFF00FF",H56="SR","|CFFFF8000",H56="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="J56" t="str">
-        <f>I56&amp;G56&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF0000全真掌教|r</v>
       </c>
       <c r="K56">
-        <f>_xlfn.IFS(H56="N",10,H56="R",20,H56="SR",40,H56="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L56" t="s">
         <v>411</v>
       </c>
       <c r="M56">
-        <f>K56*5</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="N56">
@@ -31292,7 +31282,7 @@
         <v>736</v>
       </c>
       <c r="W56" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set perfect_towers[10] = 'I11G'</v>
       </c>
     </row>
@@ -31307,39 +31297,39 @@
         <v>1028</v>
       </c>
       <c r="D57" t="s">
+        <v>1009</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="7"/>
+        <v>A11H</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="8"/>
+        <v>I11H</v>
+      </c>
+      <c r="G57" t="s">
         <v>1010</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="3"/>
-        <v>A11H</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="4"/>
-        <v>I11H</v>
-      </c>
-      <c r="G57" t="s">
-        <v>1011</v>
       </c>
       <c r="H57" t="s">
         <v>75</v>
       </c>
       <c r="I57" t="str">
-        <f>_xlfn.IFS(H57="N","|CFF0000FF",H57="R","|CFFFF00FF",H57="SR","|CFFFF8000",H57="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="J57" t="str">
-        <f>I57&amp;G57&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF0000江湖巨侠|r</v>
       </c>
       <c r="K57">
-        <f>_xlfn.IFS(H57="N",10,H57="R",20,H57="SR",40,H57="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L57" t="s">
         <v>488</v>
       </c>
       <c r="M57">
-        <f>K57*5</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="N57">
@@ -31367,7 +31357,7 @@
         <v>759</v>
       </c>
       <c r="W57" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set perfect_towers[11] = 'I11H'</v>
       </c>
     </row>
@@ -31382,39 +31372,39 @@
         <v>1028</v>
       </c>
       <c r="D58" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="7"/>
+        <v>A11I</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="8"/>
+        <v>I11I</v>
+      </c>
+      <c r="G58" t="s">
         <v>1012</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="3"/>
-        <v>A11I</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="4"/>
-        <v>I11I</v>
-      </c>
-      <c r="G58" t="s">
-        <v>1013</v>
       </c>
       <c r="H58" t="s">
         <v>75</v>
       </c>
       <c r="I58" t="str">
-        <f>_xlfn.IFS(H58="N","|CFF0000FF",H58="R","|CFFFF00FF",H58="SR","|CFFFF8000",H58="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="J58" t="str">
-        <f>I58&amp;G58&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF0000茅盈|r</v>
       </c>
       <c r="K58">
-        <f>_xlfn.IFS(H58="N",10,H58="R",20,H58="SR",40,H58="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L58" t="s">
         <v>488</v>
       </c>
       <c r="M58">
-        <f>K58*5</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="N58">
@@ -31442,7 +31432,7 @@
         <v>760</v>
       </c>
       <c r="W58" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set perfect_towers[12] = 'I11I'</v>
       </c>
     </row>
@@ -31457,39 +31447,39 @@
         <v>1028</v>
       </c>
       <c r="D59" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="7"/>
+        <v>A11L</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="8"/>
+        <v>I11L</v>
+      </c>
+      <c r="G59" t="s">
         <v>1019</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="3"/>
-        <v>A11L</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="4"/>
-        <v>I11L</v>
-      </c>
-      <c r="G59" t="s">
-        <v>1020</v>
       </c>
       <c r="H59" t="s">
         <v>75</v>
       </c>
       <c r="I59" t="str">
-        <f>_xlfn.IFS(H59="N","|CFF0000FF",H59="R","|CFFFF00FF",H59="SR","|CFFFF8000",H59="SSR","|CFFFF0000")</f>
+        <f t="shared" si="0"/>
         <v>|CFFFF0000</v>
       </c>
       <c r="J59" t="str">
-        <f>I59&amp;G59&amp;"|r"</f>
+        <f t="shared" si="1"/>
         <v>|CFFFF0000虚竹子|r</v>
       </c>
       <c r="K59">
-        <f>_xlfn.IFS(H59="N",10,H59="R",20,H59="SR",40,H59="SSR",100)</f>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="L59" t="s">
         <v>488</v>
       </c>
       <c r="M59">
-        <f>K59*5</f>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="N59">
@@ -31511,13 +31501,13 @@
         <v>20</v>
       </c>
       <c r="T59" t="s">
+        <v>1020</v>
+      </c>
+      <c r="U59" t="s">
         <v>1021</v>
       </c>
-      <c r="U59" t="s">
-        <v>1022</v>
-      </c>
       <c r="W59" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>set perfect_towers[13] = 'I11L'</v>
       </c>
     </row>

--- a/doc/决战TD数值.xlsx
+++ b/doc/决战TD数值.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="19005" windowHeight="17190" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="塔的价值" sheetId="1" r:id="rId1"/>
@@ -3119,8 +3119,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
   </numFmts>
@@ -3743,10 +3743,10 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -19492,7 +19492,7 @@
   <sheetPr/>
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B50" sqref="B50:B68"/>
     </sheetView>
   </sheetViews>
@@ -22976,8 +22976,8 @@
   <sheetPr/>
   <dimension ref="A1:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView tabSelected="1" topLeftCell="H4" workbookViewId="0">
+      <selection activeCell="H44" sqref="$A44:$XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25330,7 +25330,7 @@
         <v>5</v>
       </c>
       <c r="R34" t="s">
-        <v>725</v>
+        <v>581</v>
       </c>
       <c r="T34" t="s">
         <v>582</v>
